--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D1545A1-E204-4DF0-82F4-6FFEC18E5783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6D5365-7FAE-48F3-9923-045ED4CA28D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="795" windowWidth="15375" windowHeight="15000" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="8655" yWindow="0" windowWidth="20145" windowHeight="15465" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>Price</t>
   </si>
@@ -180,6 +180,96 @@
   </si>
   <si>
     <t>Search % of Rev</t>
+  </si>
+  <si>
+    <t>Revenue CC%</t>
+  </si>
+  <si>
+    <t>Search Growth</t>
+  </si>
+  <si>
+    <t>YouTube Growth</t>
+  </si>
+  <si>
+    <t>TAC</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Headcount</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>RevShare</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
@@ -240,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -280,6 +370,15 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -302,16 +401,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -326,8 +425,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="47625"/>
-          <a:ext cx="0" cy="8010525"/>
+          <a:off x="7553325" y="0"/>
+          <a:ext cx="0" cy="10115550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88ED61BD-17E4-41BC-8AC6-8053BF8C4ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12430125" y="9525"/>
+          <a:ext cx="0" cy="13839825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -653,7 +802,7 @@
   <dimension ref="H1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -673,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>2207.85</v>
+        <v>105.44</v>
       </c>
     </row>
     <row r="3" spans="8:13" x14ac:dyDescent="0.2">
@@ -683,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>667.55100000000004</v>
+        <v>13239</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="8:13" x14ac:dyDescent="0.2">
@@ -696,7 +845,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>1473852.47535</v>
+        <v>1395920.16</v>
       </c>
     </row>
     <row r="5" spans="8:13" x14ac:dyDescent="0.2">
@@ -705,11 +854,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <f>139649+29549</f>
-        <v>169198</v>
+        <v>155662</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="8:13" x14ac:dyDescent="0.2">
@@ -717,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>14817</v>
+        <v>14734</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="8:13" x14ac:dyDescent="0.2">
@@ -729,7 +877,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>1319471.47535</v>
+        <v>1254992.1599999999</v>
       </c>
     </row>
     <row r="8" spans="8:13" x14ac:dyDescent="0.2">
@@ -761,13 +909,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:CH69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -775,6 +923,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="32" max="32" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
@@ -819,6 +968,12 @@
       <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="Q3">
+        <v>2018</v>
+      </c>
+      <c r="R3">
+        <v>2019</v>
+      </c>
       <c r="S3">
         <v>2020</v>
       </c>
@@ -891,7 +1046,9 @@
       <c r="K4" s="13">
         <v>278</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="13">
+        <v>375</v>
+      </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
     </row>
@@ -924,9 +1081,53 @@
       <c r="K5" s="13">
         <v>440</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="L5" s="13">
+        <v>193</v>
+      </c>
+      <c r="M5" s="13">
+        <f>+I5</f>
+        <v>182</v>
+      </c>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5" si="1">+J5</f>
+        <v>181</v>
+      </c>
+      <c r="U5" s="3">
+        <f>SUM(K5:N5)</f>
+        <v>996</v>
+      </c>
+      <c r="V5" s="3">
+        <f>+U5*1.01</f>
+        <v>1005.96</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" ref="W5:AC5" si="2">+V5*1.01</f>
+        <v>1016.0196000000001</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="2"/>
+        <v>1026.1797960000001</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="2"/>
+        <v>1036.4415939600001</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="2"/>
+        <v>1046.8060098996002</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="2"/>
+        <v>1057.2740699985961</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="2"/>
+        <v>1067.8468106985822</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="2"/>
+        <v>1078.525278805568</v>
+      </c>
     </row>
     <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -957,9 +1158,53 @@
       <c r="K6" s="13">
         <v>5821</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="L6" s="13">
+        <v>6276</v>
+      </c>
+      <c r="M6" s="13">
+        <f>+I6*1.4</f>
+        <v>6986</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" ref="N6" si="3">+J6*1.4</f>
+        <v>7757.4</v>
+      </c>
+      <c r="U6" s="3">
+        <f>SUM(K6:N6)</f>
+        <v>26840.400000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f>+U6*1.4</f>
+        <v>37576.559999999998</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" ref="W6:AC6" si="4">+V6*1.4</f>
+        <v>52607.183999999994</v>
+      </c>
+      <c r="X6" s="3">
+        <f>+W6*1.3</f>
+        <v>68389.339199999988</v>
+      </c>
+      <c r="Y6" s="3">
+        <f>+X6*1.3</f>
+        <v>88906.14095999999</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>+Y6*1.3</f>
+        <v>115577.98324799999</v>
+      </c>
+      <c r="AA6" s="3">
+        <f>+Z6*1.2</f>
+        <v>138693.57989759999</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>+AA6*1.2</f>
+        <v>166432.29587711999</v>
+      </c>
+      <c r="AC6" s="3">
+        <f>+AB6*1.2</f>
+        <v>199718.75505254397</v>
+      </c>
     </row>
     <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -990,9 +1235,53 @@
       <c r="K7" s="13">
         <v>6811</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="L7" s="13">
+        <v>6553</v>
+      </c>
+      <c r="M7" s="13">
+        <f>+I7*1.03</f>
+        <v>6956.62</v>
+      </c>
+      <c r="N7" s="13">
+        <f>+J7*1.03</f>
+        <v>8405.83</v>
+      </c>
+      <c r="U7" s="3">
+        <f>SUM(K7:N7)</f>
+        <v>28726.449999999997</v>
+      </c>
+      <c r="V7" s="3">
+        <f>+U7*1.03</f>
+        <v>29588.243499999997</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" ref="W7:AC7" si="5">+V7*1.03</f>
+        <v>30475.890804999999</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="5"/>
+        <v>31390.16752915</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="5"/>
+        <v>32331.8725550245</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="5"/>
+        <v>33301.828731675232</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="5"/>
+        <v>34300.883593625491</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="5"/>
+        <v>35329.91010143426</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="5"/>
+        <v>36389.807404477287</v>
+      </c>
     </row>
     <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -1023,9 +1312,53 @@
       <c r="K8" s="13">
         <v>8174</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="L8" s="13">
+        <v>8259</v>
+      </c>
+      <c r="M8" s="13">
+        <f>+I8*1.1</f>
+        <v>8798.9000000000015</v>
+      </c>
+      <c r="N8" s="13">
+        <f>+J8*1.1</f>
+        <v>10235.5</v>
+      </c>
+      <c r="U8" s="3">
+        <f>SUM(K8:N8)</f>
+        <v>35467.4</v>
+      </c>
+      <c r="V8" s="3">
+        <f>+U8*1.03</f>
+        <v>36531.422000000006</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" ref="W8:AC8" si="6">+V8*1.03</f>
+        <v>37627.364660000007</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="6"/>
+        <v>38756.18559980001</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="6"/>
+        <v>39918.871167794008</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="6"/>
+        <v>41116.437302827828</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="6"/>
+        <v>42349.930421912664</v>
+      </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="6"/>
+        <v>43620.428334570046</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="6"/>
+        <v>44929.041184607151</v>
+      </c>
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
@@ -1056,9 +1389,53 @@
       <c r="K9" s="13">
         <v>6869</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="L9" s="13">
+        <v>7340</v>
+      </c>
+      <c r="M9" s="13">
+        <f>+I9*1.06</f>
+        <v>7637.3</v>
+      </c>
+      <c r="N9" s="13">
+        <f>+J9*1.06</f>
+        <v>9150.98</v>
+      </c>
+      <c r="U9" s="3">
+        <f>SUM(K9:N9)</f>
+        <v>30997.279999999999</v>
+      </c>
+      <c r="V9" s="3">
+        <f>+U9*1.05</f>
+        <v>32547.144</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" ref="W9:AC9" si="7">+V9*1.05</f>
+        <v>34174.501199999999</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="7"/>
+        <v>35883.226260000003</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="7"/>
+        <v>37677.387573000007</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="7"/>
+        <v>39561.256951650008</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="7"/>
+        <v>41539.319799232508</v>
+      </c>
+      <c r="AB9" s="3">
+        <f t="shared" si="7"/>
+        <v>43616.285789194138</v>
+      </c>
+      <c r="AC9" s="3">
+        <f t="shared" si="7"/>
+        <v>45797.10007865385</v>
+      </c>
     </row>
     <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
@@ -1089,9 +1466,53 @@
       <c r="K10" s="13">
         <v>39618</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="L10" s="13">
+        <v>40689</v>
+      </c>
+      <c r="M10" s="13">
+        <f>+I10*1.1</f>
+        <v>41718.600000000006</v>
+      </c>
+      <c r="N10" s="13">
+        <f>+J10*1.1</f>
+        <v>47631.100000000006</v>
+      </c>
+      <c r="U10" s="3">
+        <f>SUM(K10:N10)</f>
+        <v>169656.7</v>
+      </c>
+      <c r="V10" s="3">
+        <f>+U10*1.1</f>
+        <v>186622.37000000002</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" ref="W10:AC10" si="8">+V10*1.1</f>
+        <v>205284.60700000005</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" si="8"/>
+        <v>225813.06770000007</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="8"/>
+        <v>248394.3744700001</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="8"/>
+        <v>273233.8119170001</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="8"/>
+        <v>300557.19310870016</v>
+      </c>
+      <c r="AB10" s="3">
+        <f t="shared" si="8"/>
+        <v>330612.9124195702</v>
+      </c>
+      <c r="AC10" s="3">
+        <f t="shared" si="8"/>
+        <v>363674.20366152725</v>
+      </c>
     </row>
     <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -1099,7 +1520,7 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <f t="shared" ref="D11" si="1">SUM(D7:D10)</f>
+        <f t="shared" ref="D11" si="9">SUM(D7:D10)</f>
         <v>34991</v>
       </c>
       <c r="E11" s="13">
@@ -1114,7 +1535,7 @@
         <v>51178</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" ref="H11" si="2">SUM(H7:H10)</f>
+        <f t="shared" ref="H11" si="10">SUM(H7:H10)</f>
         <v>57067</v>
       </c>
       <c r="I11" s="13">
@@ -1126,11 +1547,57 @@
         <v>69400</v>
       </c>
       <c r="K11" s="13">
+        <f>SUM(K7:K10)</f>
         <v>61472</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="L11" s="13">
+        <f>SUM(L7:L10)</f>
+        <v>62841</v>
+      </c>
+      <c r="M11" s="13">
+        <f>SUM(M7:M10)</f>
+        <v>65111.420000000006</v>
+      </c>
+      <c r="N11" s="13">
+        <f>SUM(N7:N10)</f>
+        <v>75423.41</v>
+      </c>
+      <c r="U11" s="13">
+        <f>SUM(U7:U10)</f>
+        <v>264847.83</v>
+      </c>
+      <c r="V11" s="13">
+        <f>SUM(V7:V10)</f>
+        <v>285289.17950000003</v>
+      </c>
+      <c r="W11" s="13">
+        <f t="shared" ref="W11:AC11" si="11">SUM(W7:W10)</f>
+        <v>307562.36366500007</v>
+      </c>
+      <c r="X11" s="13">
+        <f t="shared" si="11"/>
+        <v>331842.64708895009</v>
+      </c>
+      <c r="Y11" s="13">
+        <f t="shared" si="11"/>
+        <v>358322.50576581864</v>
+      </c>
+      <c r="Z11" s="13">
+        <f t="shared" si="11"/>
+        <v>387213.33490315318</v>
+      </c>
+      <c r="AA11" s="13">
+        <f t="shared" si="11"/>
+        <v>418747.32692347083</v>
+      </c>
+      <c r="AB11" s="13">
+        <f t="shared" si="11"/>
+        <v>453179.53664476867</v>
+      </c>
+      <c r="AC11" s="13">
+        <f t="shared" si="11"/>
+        <v>490790.15232926555</v>
+      </c>
     </row>
     <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
@@ -1138,7 +1605,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12">
-        <f t="shared" ref="D12" si="3">D11+D6+D5+D4</f>
+        <f t="shared" ref="D12" si="12">D11+D6+D5+D4</f>
         <v>38297</v>
       </c>
       <c r="E12" s="12">
@@ -1153,7 +1620,7 @@
         <v>55314</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" ref="H12" si="4">H11+H6+H5+H4</f>
+        <f t="shared" ref="H12" si="13">H11+H6+H5+H4</f>
         <v>61880</v>
       </c>
       <c r="I12" s="12">
@@ -1165,16 +1632,63 @@
         <v>75325</v>
       </c>
       <c r="K12" s="12">
+        <f>K11+K6+K5+K4</f>
         <v>68011</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="L12" s="12">
+        <f>L11+L6+L5+L4</f>
+        <v>69685</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" ref="M12:N12" si="14">M11+M6+M5+M4</f>
+        <v>72279.420000000013</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="14"/>
+        <v>83361.81</v>
+      </c>
+      <c r="O12" s="12"/>
       <c r="S12" s="11">
         <v>182527</v>
       </c>
       <c r="T12" s="11">
         <v>257637</v>
+      </c>
+      <c r="U12" s="12">
+        <f t="shared" ref="U12:V12" si="15">U11+U6+U5+U4</f>
+        <v>292684.23000000004</v>
+      </c>
+      <c r="V12" s="12">
+        <f t="shared" si="15"/>
+        <v>323871.69950000005</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" ref="W12" si="16">W11+W6+W5+W4</f>
+        <v>361185.56726500008</v>
+      </c>
+      <c r="X12" s="12">
+        <f t="shared" ref="X12" si="17">X11+X6+X5+X4</f>
+        <v>401258.16608495009</v>
+      </c>
+      <c r="Y12" s="12">
+        <f t="shared" ref="Y12" si="18">Y11+Y6+Y5+Y4</f>
+        <v>448265.08831977862</v>
+      </c>
+      <c r="Z12" s="12">
+        <f t="shared" ref="Z12" si="19">Z11+Z6+Z5+Z4</f>
+        <v>503838.12416105275</v>
+      </c>
+      <c r="AA12" s="12">
+        <f t="shared" ref="AA12" si="20">AA11+AA6+AA5+AA4</f>
+        <v>558498.18089106947</v>
+      </c>
+      <c r="AB12" s="12">
+        <f t="shared" ref="AB12" si="21">AB11+AB6+AB5+AB4</f>
+        <v>620679.67933258729</v>
+      </c>
+      <c r="AC12" s="12">
+        <f t="shared" ref="AC12" si="22">AC11+AC6+AC5+AC4</f>
+        <v>691587.43266061507</v>
       </c>
     </row>
     <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1206,797 +1720,2470 @@
       <c r="K13" s="13">
         <v>29599</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="L13" s="13">
+        <v>30104</v>
+      </c>
+      <c r="M13" s="13">
+        <f>+M12-M15</f>
+        <v>30718.753500000006</v>
+      </c>
+      <c r="N13" s="13">
+        <f>+N12-N15</f>
+        <v>35428.769250000005</v>
+      </c>
       <c r="S13" s="3">
         <v>84732</v>
       </c>
       <c r="T13" s="3">
         <v>110939</v>
       </c>
+      <c r="U13" s="3">
+        <f>SUM(K13:N13)</f>
+        <v>125850.52275</v>
+      </c>
+      <c r="V13" s="3">
+        <f>+V12-V15</f>
+        <v>139264.83078500003</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" ref="W13:AC13" si="23">+W12-W15</f>
+        <v>155309.79392395006</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" si="23"/>
+        <v>172541.01141652855</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="23"/>
+        <v>192753.98797750482</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="23"/>
+        <v>216650.39338925271</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" si="23"/>
+        <v>240154.21778315993</v>
+      </c>
+      <c r="AB13" s="3">
+        <f t="shared" si="23"/>
+        <v>266892.26211301255</v>
+      </c>
+      <c r="AC13" s="3">
+        <f t="shared" si="23"/>
+        <v>297382.5960440645</v>
+      </c>
     </row>
     <row r="14" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
+        <v>10929</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13">
+        <v>12214</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="13">
-        <f t="shared" ref="C14" si="5">C12-C13</f>
+      <c r="C15" s="13">
+        <f t="shared" ref="C15" si="24">C12-C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="13">
-        <f t="shared" ref="D14" si="6">D12-D13</f>
+      <c r="D15" s="13">
+        <f t="shared" ref="D15" si="25">D12-D13</f>
         <v>19744</v>
       </c>
-      <c r="E14" s="13">
-        <f t="shared" ref="E14" si="7">E12-E13</f>
+      <c r="E15" s="13">
+        <f t="shared" ref="E15" si="26">E12-E13</f>
         <v>25056</v>
       </c>
-      <c r="F14" s="13">
-        <f t="shared" ref="F14:J14" si="8">F12-F13</f>
+      <c r="F15" s="13">
+        <f t="shared" ref="F15:J15" si="27">F12-F13</f>
         <v>30818</v>
       </c>
-      <c r="G14" s="13">
-        <f t="shared" si="8"/>
+      <c r="G15" s="13">
+        <f t="shared" si="27"/>
         <v>31211</v>
       </c>
-      <c r="H14" s="13">
-        <f t="shared" si="8"/>
+      <c r="H15" s="13">
+        <f t="shared" si="27"/>
         <v>35653</v>
       </c>
-      <c r="I14" s="13">
-        <f t="shared" si="8"/>
+      <c r="I15" s="13">
+        <f t="shared" si="27"/>
         <v>37497</v>
       </c>
-      <c r="J14" s="13">
-        <f t="shared" si="8"/>
+      <c r="J15" s="13">
+        <f t="shared" si="27"/>
         <v>42337</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="13">
         <f>K12-K13</f>
         <v>38412</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="S14" s="3">
+      <c r="L15" s="13">
+        <f t="shared" ref="L15" si="28">L12-L13</f>
+        <v>39581</v>
+      </c>
+      <c r="M15" s="13">
+        <f>+M12*0.575</f>
+        <v>41560.666500000007</v>
+      </c>
+      <c r="N15" s="13">
+        <f>+N12*0.575</f>
+        <v>47933.040749999993</v>
+      </c>
+      <c r="S15" s="3">
         <f>S12-S13</f>
         <v>97795</v>
       </c>
-      <c r="T14" s="3">
-        <f t="shared" ref="T14" si="9">T12-T13</f>
+      <c r="T15" s="3">
+        <f t="shared" ref="T15" si="29">T12-T13</f>
         <v>146698</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13">
-        <v>6875</v>
-      </c>
-      <c r="E15" s="13">
-        <v>6856</v>
-      </c>
-      <c r="F15" s="13">
-        <v>7022</v>
-      </c>
-      <c r="G15" s="13">
-        <v>7485</v>
-      </c>
-      <c r="H15" s="13">
-        <v>7675</v>
-      </c>
-      <c r="I15" s="13">
-        <v>7694</v>
-      </c>
-      <c r="J15" s="13">
-        <v>8708</v>
-      </c>
-      <c r="K15" s="13">
-        <v>9119</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="S15" s="3">
-        <v>27573</v>
-      </c>
-      <c r="T15" s="3">
-        <v>31562</v>
+      <c r="U15" s="3">
+        <f>+U12-U13</f>
+        <v>166833.70725000004</v>
+      </c>
+      <c r="V15" s="3">
+        <f>+V12*0.57</f>
+        <v>184606.86871500002</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" ref="W15:AC15" si="30">+W12*0.57</f>
+        <v>205875.77334105002</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" si="30"/>
+        <v>228717.15466842154</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="30"/>
+        <v>255511.1003422738</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="30"/>
+        <v>287187.73077180004</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" si="30"/>
+        <v>318343.96310790954</v>
+      </c>
+      <c r="AB15" s="3">
+        <f t="shared" si="30"/>
+        <v>353787.41721957474</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" si="30"/>
+        <v>394204.83661655057</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13">
-        <v>3901</v>
+        <v>6875</v>
       </c>
       <c r="E16" s="13">
-        <v>4231</v>
+        <v>6856</v>
       </c>
       <c r="F16" s="13">
-        <v>5314</v>
+        <v>7022</v>
       </c>
       <c r="G16" s="13">
-        <v>4516</v>
+        <v>7485</v>
       </c>
       <c r="H16" s="13">
-        <v>5276</v>
+        <v>7675</v>
       </c>
       <c r="I16" s="13">
-        <v>5516</v>
+        <v>7694</v>
       </c>
       <c r="J16" s="13">
-        <v>7604</v>
+        <v>8708</v>
       </c>
       <c r="K16" s="13">
-        <v>5825</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+        <v>9119</v>
+      </c>
+      <c r="L16" s="13">
+        <v>9841</v>
+      </c>
+      <c r="M16" s="13">
+        <f>+I16*1.1</f>
+        <v>8463.4000000000015</v>
+      </c>
+      <c r="N16" s="13">
+        <f>+J16*1.1</f>
+        <v>9578.8000000000011</v>
+      </c>
       <c r="S16" s="3">
-        <v>17946</v>
+        <v>27573</v>
       </c>
       <c r="T16" s="3">
-        <v>22912</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>31562</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" ref="U16:U18" si="31">SUM(K16:N16)</f>
+        <v>37002.200000000004</v>
+      </c>
+      <c r="V16" s="3">
+        <f>+U16*1.05</f>
+        <v>38852.310000000005</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" ref="W16:AC16" si="32">+V16*1.05</f>
+        <v>40794.925500000005</v>
+      </c>
+      <c r="X16" s="3">
+        <f t="shared" si="32"/>
+        <v>42834.67177500001</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="32"/>
+        <v>44976.405363750011</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="32"/>
+        <v>47225.225631937516</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="32"/>
+        <v>49586.486913534391</v>
+      </c>
+      <c r="AB16" s="3">
+        <f t="shared" si="32"/>
+        <v>52065.811259211114</v>
+      </c>
+      <c r="AC16" s="3">
+        <f t="shared" si="32"/>
+        <v>54669.101822171673</v>
+      </c>
+    </row>
+    <row r="17" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13">
+        <v>3901</v>
+      </c>
+      <c r="E17" s="13">
+        <v>4231</v>
+      </c>
+      <c r="F17" s="13">
+        <v>5314</v>
+      </c>
+      <c r="G17" s="13">
+        <v>4516</v>
+      </c>
+      <c r="H17" s="13">
+        <v>5276</v>
+      </c>
+      <c r="I17" s="13">
+        <v>5516</v>
+      </c>
+      <c r="J17" s="13">
+        <v>7604</v>
+      </c>
+      <c r="K17" s="13">
+        <v>5825</v>
+      </c>
+      <c r="L17" s="13">
+        <v>6630</v>
+      </c>
+      <c r="M17" s="13">
+        <f>+I17*1.05</f>
+        <v>5791.8</v>
+      </c>
+      <c r="N17" s="13">
+        <f>+J17*1.05</f>
+        <v>7984.2000000000007</v>
+      </c>
+      <c r="S17" s="3">
+        <v>17946</v>
+      </c>
+      <c r="T17" s="3">
+        <v>22912</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="31"/>
+        <v>26231</v>
+      </c>
+      <c r="V17" s="3">
+        <f>+U17*1.05</f>
+        <v>27542.550000000003</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" ref="W17:AC17" si="33">+V17*1.05</f>
+        <v>28919.677500000005</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="33"/>
+        <v>30365.661375000007</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="33"/>
+        <v>31883.94444375001</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="33"/>
+        <v>33478.14166593751</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="33"/>
+        <v>35152.048749234389</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="33"/>
+        <v>36909.651186696108</v>
+      </c>
+      <c r="AC17" s="3">
+        <f t="shared" si="33"/>
+        <v>38755.133746030915</v>
+      </c>
+    </row>
+    <row r="18" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
         <v>2585</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>2756</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>2831</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>2773</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>3341</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>3256</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>4140</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="13">
         <v>3374</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="S17" s="3">
+      <c r="L18" s="13">
+        <v>3657</v>
+      </c>
+      <c r="M18" s="13">
+        <f>+I18*1.05</f>
+        <v>3418.8</v>
+      </c>
+      <c r="N18" s="13">
+        <f>+J18*1.05</f>
+        <v>4347</v>
+      </c>
+      <c r="S18" s="3">
         <v>11052</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T18" s="3">
         <v>13510</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+      <c r="U18" s="3">
+        <f t="shared" si="31"/>
+        <v>14796.8</v>
+      </c>
+      <c r="V18" s="3">
+        <f>+U18*1.05</f>
+        <v>15536.64</v>
+      </c>
+      <c r="W18" s="3">
+        <f t="shared" ref="W18:AC18" si="34">+V18*1.05</f>
+        <v>16313.472</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" si="34"/>
+        <v>17129.1456</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="34"/>
+        <v>17985.602880000002</v>
+      </c>
+      <c r="Z18" s="3">
+        <f t="shared" si="34"/>
+        <v>18884.883024000002</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" si="34"/>
+        <v>19829.127175200003</v>
+      </c>
+      <c r="AB18" s="3">
+        <f t="shared" si="34"/>
+        <v>20820.583533960005</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="34"/>
+        <v>21861.612710658006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="13">
-        <f t="shared" ref="C18" si="10">SUM(C15:C17)</f>
+      <c r="C19" s="13">
+        <f t="shared" ref="C19" si="35">SUM(C16:C18)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="13">
-        <f t="shared" ref="D18" si="11">SUM(D15:D17)</f>
+      <c r="D19" s="13">
+        <f t="shared" ref="D19" si="36">SUM(D16:D18)</f>
         <v>13361</v>
       </c>
-      <c r="E18" s="13">
-        <f t="shared" ref="E18" si="12">SUM(E15:E17)</f>
+      <c r="E19" s="13">
+        <f t="shared" ref="E19" si="37">SUM(E16:E18)</f>
         <v>13843</v>
       </c>
-      <c r="F18" s="13">
-        <f t="shared" ref="F18" si="13">SUM(F15:F17)</f>
+      <c r="F19" s="13">
+        <f t="shared" ref="F19" si="38">SUM(F16:F18)</f>
         <v>15167</v>
       </c>
-      <c r="G18" s="13">
-        <f>SUM(G15:G17)</f>
+      <c r="G19" s="13">
+        <f>SUM(G16:G18)</f>
         <v>14774</v>
       </c>
-      <c r="H18" s="13">
-        <f t="shared" ref="H18:K18" si="14">SUM(H15:H17)</f>
+      <c r="H19" s="13">
+        <f t="shared" ref="H19:K19" si="39">SUM(H16:H18)</f>
         <v>16292</v>
       </c>
-      <c r="I18" s="13">
-        <f t="shared" si="14"/>
+      <c r="I19" s="13">
+        <f t="shared" si="39"/>
         <v>16466</v>
       </c>
-      <c r="J18" s="13">
-        <f t="shared" si="14"/>
+      <c r="J19" s="13">
+        <f t="shared" si="39"/>
         <v>20452</v>
       </c>
-      <c r="K18" s="13">
-        <f t="shared" si="14"/>
+      <c r="K19" s="13">
+        <f t="shared" si="39"/>
         <v>18318</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="S18" s="3">
-        <f>SUM(S15:S17)</f>
+      <c r="L19" s="13">
+        <f t="shared" ref="L19:N19" si="40">SUM(L16:L18)</f>
+        <v>20128</v>
+      </c>
+      <c r="M19" s="13">
+        <f t="shared" si="40"/>
+        <v>17674</v>
+      </c>
+      <c r="N19" s="13">
+        <f t="shared" si="40"/>
+        <v>21910</v>
+      </c>
+      <c r="S19" s="3">
+        <f>SUM(S16:S18)</f>
         <v>56571</v>
       </c>
-      <c r="T18" s="3">
-        <f t="shared" ref="T18" si="15">SUM(T15:T17)</f>
+      <c r="T19" s="3">
+        <f t="shared" ref="T19:V19" si="41">SUM(T16:T18)</f>
         <v>67984</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+      <c r="U19" s="3">
+        <f t="shared" si="41"/>
+        <v>78030</v>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" si="41"/>
+        <v>81931.500000000015</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" ref="W19:AC19" si="42">SUM(W16:W18)</f>
+        <v>86028.074999999997</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" si="42"/>
+        <v>90329.478750000024</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="42"/>
+        <v>94845.95268750003</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" si="42"/>
+        <v>99588.250321875035</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" si="42"/>
+        <v>104567.66283796879</v>
+      </c>
+      <c r="AB19" s="3">
+        <f t="shared" si="42"/>
+        <v>109796.04597986722</v>
+      </c>
+      <c r="AC19" s="3">
+        <f t="shared" si="42"/>
+        <v>115285.84827886061</v>
+      </c>
+    </row>
+    <row r="20" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="13">
-        <f t="shared" ref="C19" si="16">C14-C18</f>
+      <c r="C20" s="13">
+        <f t="shared" ref="C20" si="43">C15-C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="13">
-        <f t="shared" ref="D19" si="17">D14-D18</f>
+      <c r="D20" s="13">
+        <f t="shared" ref="D20" si="44">D15-D19</f>
         <v>6383</v>
       </c>
-      <c r="E19" s="13">
-        <f t="shared" ref="E19" si="18">E14-E18</f>
+      <c r="E20" s="13">
+        <f t="shared" ref="E20" si="45">E15-E19</f>
         <v>11213</v>
       </c>
-      <c r="F19" s="13">
-        <f t="shared" ref="F19" si="19">F14-F18</f>
+      <c r="F20" s="13">
+        <f t="shared" ref="F20" si="46">F15-F19</f>
         <v>15651</v>
       </c>
-      <c r="G19" s="13">
-        <f t="shared" ref="G19:J19" si="20">G14-G18</f>
+      <c r="G20" s="13">
+        <f t="shared" ref="G20:J20" si="47">G15-G19</f>
         <v>16437</v>
       </c>
-      <c r="H19" s="13">
-        <f t="shared" si="20"/>
+      <c r="H20" s="13">
+        <f t="shared" si="47"/>
         <v>19361</v>
       </c>
-      <c r="I19" s="13">
-        <f t="shared" si="20"/>
+      <c r="I20" s="13">
+        <f t="shared" si="47"/>
         <v>21031</v>
       </c>
-      <c r="J19" s="13">
-        <f t="shared" si="20"/>
+      <c r="J20" s="13">
+        <f t="shared" si="47"/>
         <v>21885</v>
       </c>
-      <c r="K19" s="13">
-        <f>K14-K18</f>
+      <c r="K20" s="13">
+        <f>K15-K19</f>
         <v>20094</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="S19" s="3">
-        <f>S14-S18</f>
+      <c r="L20" s="13">
+        <f t="shared" ref="L20:N20" si="48">L15-L19</f>
+        <v>19453</v>
+      </c>
+      <c r="M20" s="13">
+        <f t="shared" si="48"/>
+        <v>23886.666500000007</v>
+      </c>
+      <c r="N20" s="13">
+        <f t="shared" si="48"/>
+        <v>26023.040749999993</v>
+      </c>
+      <c r="S20" s="3">
+        <f>S15-S19</f>
         <v>41224</v>
       </c>
-      <c r="T19" s="3">
-        <f t="shared" ref="T19" si="21">T14-T18</f>
+      <c r="T20" s="3">
+        <f t="shared" ref="T20:V20" si="49">T15-T19</f>
         <v>78714</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="U20" s="3">
+        <f t="shared" si="49"/>
+        <v>88803.707250000036</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="49"/>
+        <v>102675.368715</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" ref="W20:AC20" si="50">W15-W19</f>
+        <v>119847.69834105003</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" si="50"/>
+        <v>138387.67591842153</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" si="50"/>
+        <v>160665.14765477378</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="50"/>
+        <v>187599.480449925</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" si="50"/>
+        <v>213776.30026994075</v>
+      </c>
+      <c r="AB20" s="3">
+        <f t="shared" si="50"/>
+        <v>243991.37123970751</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" si="50"/>
+        <v>278918.98833768995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13">
         <v>1894</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>2146</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>3038</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>4846</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>2264</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="13">
         <v>2033</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="13">
         <v>2517</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K21" s="13">
         <v>-1160</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="S20" s="3">
+      <c r="L21" s="13">
+        <v>-439</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>6858</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T21" s="3">
         <v>12020</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="U21" s="3">
+        <f t="shared" ref="U21:U23" si="51">SUM(K21:N21)</f>
+        <v>-1599</v>
+      </c>
+      <c r="V21" s="3">
+        <f>+U38*$AF$30</f>
+        <v>1828.5215409</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" ref="W21:AC21" si="52">+V38*$AF$30</f>
+        <v>2685.4534409983798</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" si="52"/>
+        <v>3690.2252856111772</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="52"/>
+        <v>4855.264075484246</v>
+      </c>
+      <c r="Z21" s="3">
+        <f t="shared" si="52"/>
+        <v>6212.5314516723611</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" si="52"/>
+        <v>7801.7899492654606</v>
+      </c>
+      <c r="AB21" s="3">
+        <f t="shared" si="52"/>
+        <v>9618.7302890629508</v>
+      </c>
+      <c r="AC21" s="3">
+        <f t="shared" si="52"/>
+        <v>11698.333121598869</v>
+      </c>
+    </row>
+    <row r="22" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="13">
-        <f t="shared" ref="C21" si="22">C19+C20</f>
+      <c r="C22" s="13">
+        <f t="shared" ref="C22" si="53">C20+C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="13">
-        <f t="shared" ref="D21" si="23">D19+D20</f>
+      <c r="D22" s="13">
+        <f t="shared" ref="D22" si="54">D20+D21</f>
         <v>8277</v>
       </c>
-      <c r="E21" s="13">
-        <f t="shared" ref="E21" si="24">E19+E20</f>
+      <c r="E22" s="13">
+        <f t="shared" ref="E22" si="55">E20+E21</f>
         <v>13359</v>
       </c>
-      <c r="F21" s="13">
-        <f t="shared" ref="F21" si="25">F19+F20</f>
+      <c r="F22" s="13">
+        <f t="shared" ref="F22" si="56">F20+F21</f>
         <v>18689</v>
       </c>
-      <c r="G21" s="13">
-        <f>G19+G20</f>
+      <c r="G22" s="13">
+        <f>G20+G21</f>
         <v>21283</v>
       </c>
-      <c r="H21" s="13">
-        <f t="shared" ref="H21:K21" si="26">H19+H20</f>
+      <c r="H22" s="13">
+        <f t="shared" ref="H22:K22" si="57">H20+H21</f>
         <v>21625</v>
       </c>
-      <c r="I21" s="13">
-        <f t="shared" si="26"/>
+      <c r="I22" s="13">
+        <f t="shared" si="57"/>
         <v>23064</v>
       </c>
-      <c r="J21" s="13">
-        <f t="shared" si="26"/>
+      <c r="J22" s="13">
+        <f t="shared" si="57"/>
         <v>24402</v>
       </c>
-      <c r="K21" s="13">
-        <f t="shared" si="26"/>
+      <c r="K22" s="13">
+        <f t="shared" si="57"/>
         <v>18934</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="S21" s="3">
-        <f>S19+S20</f>
+      <c r="L22" s="13">
+        <f t="shared" ref="L22:N22" si="58">L20+L21</f>
+        <v>19014</v>
+      </c>
+      <c r="M22" s="13">
+        <f t="shared" si="58"/>
+        <v>23886.666500000007</v>
+      </c>
+      <c r="N22" s="13">
+        <f t="shared" si="58"/>
+        <v>26023.040749999993</v>
+      </c>
+      <c r="S22" s="3">
+        <f>S20+S21</f>
         <v>48082</v>
       </c>
-      <c r="T21" s="3">
-        <f t="shared" ref="T21" si="27">T19+T20</f>
+      <c r="T22" s="3">
+        <f t="shared" ref="T22:V22" si="59">T20+T21</f>
         <v>90734</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="U22" s="3">
+        <f t="shared" si="59"/>
+        <v>87204.707250000036</v>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" si="59"/>
+        <v>104503.8902559</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" ref="W22:AC22" si="60">W20+W21</f>
+        <v>122533.1517820484</v>
+      </c>
+      <c r="X22" s="3">
+        <f t="shared" si="60"/>
+        <v>142077.90120403271</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" si="60"/>
+        <v>165520.41173025803</v>
+      </c>
+      <c r="Z22" s="3">
+        <f t="shared" si="60"/>
+        <v>193812.01190159738</v>
+      </c>
+      <c r="AA22" s="3">
+        <f t="shared" si="60"/>
+        <v>221578.09021920621</v>
+      </c>
+      <c r="AB22" s="3">
+        <f t="shared" si="60"/>
+        <v>253610.10152877046</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="60"/>
+        <v>290617.32145928883</v>
+      </c>
+    </row>
+    <row r="23" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13">
         <v>1318</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>2112</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>3462</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>3353</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>3460</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>4128</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>3760</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <v>2498</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="S22" s="3">
+      <c r="L23" s="13">
+        <v>3012</v>
+      </c>
+      <c r="M23" s="13">
+        <f>+M22*0.16</f>
+        <v>3821.8666400000011</v>
+      </c>
+      <c r="N23" s="13">
+        <f>+N22*0.16</f>
+        <v>4163.6865199999993</v>
+      </c>
+      <c r="S23" s="3">
         <v>7813</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T23" s="3">
         <v>14701</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+      <c r="U23" s="3">
+        <f t="shared" si="51"/>
+        <v>13495.553159999999</v>
+      </c>
+      <c r="V23" s="3">
+        <f>+V22*0.18</f>
+        <v>18810.700246061999</v>
+      </c>
+      <c r="W23" s="3">
+        <f t="shared" ref="W23:AC23" si="61">+W22*0.18</f>
+        <v>22055.967320768712</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" si="61"/>
+        <v>25574.022216725887</v>
+      </c>
+      <c r="Y23" s="3">
+        <f t="shared" si="61"/>
+        <v>29793.674111446442</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="61"/>
+        <v>34886.162142287525</v>
+      </c>
+      <c r="AA23" s="3">
+        <f t="shared" si="61"/>
+        <v>39884.056239457117</v>
+      </c>
+      <c r="AB23" s="3">
+        <f t="shared" si="61"/>
+        <v>45649.818275178681</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" si="61"/>
+        <v>52311.117862671985</v>
+      </c>
+    </row>
+    <row r="24" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="13">
-        <f t="shared" ref="C23" si="28">C21-C22</f>
+      <c r="C24" s="13">
+        <f t="shared" ref="C24" si="62">C22-C23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="13">
-        <f t="shared" ref="D23" si="29">D21-D22</f>
+      <c r="D24" s="13">
+        <f t="shared" ref="D24" si="63">D22-D23</f>
         <v>6959</v>
       </c>
-      <c r="E23" s="13">
-        <f t="shared" ref="E23" si="30">E21-E22</f>
+      <c r="E24" s="13">
+        <f t="shared" ref="E24" si="64">E22-E23</f>
         <v>11247</v>
       </c>
-      <c r="F23" s="13">
-        <f t="shared" ref="F23" si="31">F21-F22</f>
+      <c r="F24" s="13">
+        <f t="shared" ref="F24" si="65">F22-F23</f>
         <v>15227</v>
       </c>
-      <c r="G23" s="13">
-        <f>G21-G22</f>
+      <c r="G24" s="13">
+        <f>G22-G23</f>
         <v>17930</v>
       </c>
-      <c r="H23" s="13">
-        <f t="shared" ref="H23:K23" si="32">H21-H22</f>
+      <c r="H24" s="13">
+        <f t="shared" ref="H24:K24" si="66">H22-H23</f>
         <v>18165</v>
       </c>
-      <c r="I23" s="13">
-        <f t="shared" si="32"/>
+      <c r="I24" s="13">
+        <f t="shared" si="66"/>
         <v>18936</v>
       </c>
-      <c r="J23" s="13">
-        <f t="shared" si="32"/>
+      <c r="J24" s="13">
+        <f t="shared" si="66"/>
         <v>20642</v>
       </c>
-      <c r="K23" s="13">
-        <f t="shared" si="32"/>
+      <c r="K24" s="13">
+        <f t="shared" si="66"/>
         <v>16436</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="S23" s="3">
-        <f>S21-S22</f>
+      <c r="L24" s="13">
+        <f t="shared" ref="L24:N24" si="67">L22-L23</f>
+        <v>16002</v>
+      </c>
+      <c r="M24" s="13">
+        <f t="shared" si="67"/>
+        <v>20064.799860000006</v>
+      </c>
+      <c r="N24" s="13">
+        <f t="shared" si="67"/>
+        <v>21859.354229999994</v>
+      </c>
+      <c r="S24" s="3">
+        <f>S22-S23</f>
         <v>40269</v>
       </c>
-      <c r="T23" s="3">
-        <f t="shared" ref="T23" si="33">T21-T22</f>
+      <c r="T24" s="3">
+        <f t="shared" ref="T24:V24" si="68">T22-T23</f>
         <v>76033</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+      <c r="U24" s="3">
+        <f t="shared" si="68"/>
+        <v>73709.15409000004</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="68"/>
+        <v>85693.190009837999</v>
+      </c>
+      <c r="W24" s="3">
+        <f t="shared" ref="W24:AC24" si="69">W22-W23</f>
+        <v>100477.18446127968</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" si="69"/>
+        <v>116503.87898730682</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" si="69"/>
+        <v>135726.73761881157</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="69"/>
+        <v>158925.84975930984</v>
+      </c>
+      <c r="AA24" s="3">
+        <f t="shared" si="69"/>
+        <v>181694.03397974907</v>
+      </c>
+      <c r="AB24" s="3">
+        <f t="shared" si="69"/>
+        <v>207960.2832535918</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" si="69"/>
+        <v>238306.20359661683</v>
+      </c>
+      <c r="AD24" s="3">
+        <f>+AC24*(1+$AF$28)</f>
+        <v>235923.14156065066</v>
+      </c>
+      <c r="AE24" s="3">
+        <f t="shared" ref="AE24:CH24" si="70">+AD24*(1+$AF$28)</f>
+        <v>233563.91014504415</v>
+      </c>
+      <c r="AF24" s="3">
+        <f t="shared" si="70"/>
+        <v>231228.2710435937</v>
+      </c>
+      <c r="AG24" s="3">
+        <f t="shared" si="70"/>
+        <v>228915.98833315776</v>
+      </c>
+      <c r="AH24" s="3">
+        <f t="shared" si="70"/>
+        <v>226626.82844982619</v>
+      </c>
+      <c r="AI24" s="3">
+        <f t="shared" si="70"/>
+        <v>224360.56016532792</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="70"/>
+        <v>222116.95456367463</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="70"/>
+        <v>219895.78501803789</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" si="70"/>
+        <v>217696.8271678575</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" si="70"/>
+        <v>215519.85889617892</v>
+      </c>
+      <c r="AN24" s="3">
+        <f t="shared" si="70"/>
+        <v>213364.66030721713</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" si="70"/>
+        <v>211231.01370414495</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" si="70"/>
+        <v>209118.70356710351</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f t="shared" si="70"/>
+        <v>207027.51653143248</v>
+      </c>
+      <c r="AR24" s="3">
+        <f t="shared" si="70"/>
+        <v>204957.24136611816</v>
+      </c>
+      <c r="AS24" s="3">
+        <f t="shared" si="70"/>
+        <v>202907.66895245697</v>
+      </c>
+      <c r="AT24" s="3">
+        <f t="shared" si="70"/>
+        <v>200878.59226293239</v>
+      </c>
+      <c r="AU24" s="3">
+        <f t="shared" si="70"/>
+        <v>198869.80634030307</v>
+      </c>
+      <c r="AV24" s="3">
+        <f t="shared" si="70"/>
+        <v>196881.10827690005</v>
+      </c>
+      <c r="AW24" s="3">
+        <f t="shared" si="70"/>
+        <v>194912.29719413104</v>
+      </c>
+      <c r="AX24" s="3">
+        <f t="shared" si="70"/>
+        <v>192963.17422218973</v>
+      </c>
+      <c r="AY24" s="3">
+        <f t="shared" si="70"/>
+        <v>191033.54247996784</v>
+      </c>
+      <c r="AZ24" s="3">
+        <f t="shared" si="70"/>
+        <v>189123.20705516817</v>
+      </c>
+      <c r="BA24" s="3">
+        <f t="shared" si="70"/>
+        <v>187231.97498461648</v>
+      </c>
+      <c r="BB24" s="3">
+        <f t="shared" si="70"/>
+        <v>185359.65523477033</v>
+      </c>
+      <c r="BC24" s="3">
+        <f t="shared" si="70"/>
+        <v>183506.05868242262</v>
+      </c>
+      <c r="BD24" s="3">
+        <f t="shared" si="70"/>
+        <v>181670.99809559839</v>
+      </c>
+      <c r="BE24" s="3">
+        <f t="shared" si="70"/>
+        <v>179854.2881146424</v>
+      </c>
+      <c r="BF24" s="3">
+        <f t="shared" si="70"/>
+        <v>178055.74523349598</v>
+      </c>
+      <c r="BG24" s="3">
+        <f t="shared" si="70"/>
+        <v>176275.18778116102</v>
+      </c>
+      <c r="BH24" s="3">
+        <f t="shared" si="70"/>
+        <v>174512.4359033494</v>
+      </c>
+      <c r="BI24" s="3">
+        <f t="shared" si="70"/>
+        <v>172767.31154431589</v>
+      </c>
+      <c r="BJ24" s="3">
+        <f t="shared" si="70"/>
+        <v>171039.63842887274</v>
+      </c>
+      <c r="BK24" s="3">
+        <f t="shared" si="70"/>
+        <v>169329.24204458401</v>
+      </c>
+      <c r="BL24" s="3">
+        <f t="shared" si="70"/>
+        <v>167635.94962413816</v>
+      </c>
+      <c r="BM24" s="3">
+        <f t="shared" si="70"/>
+        <v>165959.59012789678</v>
+      </c>
+      <c r="BN24" s="3">
+        <f t="shared" si="70"/>
+        <v>164299.9942266178</v>
+      </c>
+      <c r="BO24" s="3">
+        <f t="shared" si="70"/>
+        <v>162656.99428435162</v>
+      </c>
+      <c r="BP24" s="3">
+        <f t="shared" si="70"/>
+        <v>161030.4243415081</v>
+      </c>
+      <c r="BQ24" s="3">
+        <f t="shared" si="70"/>
+        <v>159420.12009809303</v>
+      </c>
+      <c r="BR24" s="3">
+        <f t="shared" si="70"/>
+        <v>157825.9188971121</v>
+      </c>
+      <c r="BS24" s="3">
+        <f t="shared" si="70"/>
+        <v>156247.65970814097</v>
+      </c>
+      <c r="BT24" s="3">
+        <f t="shared" si="70"/>
+        <v>154685.18311105957</v>
+      </c>
+      <c r="BU24" s="3">
+        <f t="shared" si="70"/>
+        <v>153138.33127994896</v>
+      </c>
+      <c r="BV24" s="3">
+        <f t="shared" si="70"/>
+        <v>151606.94796714946</v>
+      </c>
+      <c r="BW24" s="3">
+        <f t="shared" si="70"/>
+        <v>150090.87848747798</v>
+      </c>
+      <c r="BX24" s="3">
+        <f t="shared" si="70"/>
+        <v>148589.96970260321</v>
+      </c>
+      <c r="BY24" s="3">
+        <f t="shared" si="70"/>
+        <v>147104.07000557717</v>
+      </c>
+      <c r="BZ24" s="3">
+        <f t="shared" si="70"/>
+        <v>145633.0293055214</v>
+      </c>
+      <c r="CA24" s="3">
+        <f t="shared" si="70"/>
+        <v>144176.69901246618</v>
+      </c>
+      <c r="CB24" s="3">
+        <f t="shared" si="70"/>
+        <v>142734.93202234153</v>
+      </c>
+      <c r="CC24" s="3">
+        <f t="shared" si="70"/>
+        <v>141307.58270211812</v>
+      </c>
+      <c r="CD24" s="3">
+        <f t="shared" si="70"/>
+        <v>139894.50687509694</v>
+      </c>
+      <c r="CE24" s="3">
+        <f t="shared" si="70"/>
+        <v>138495.56180634597</v>
+      </c>
+      <c r="CF24" s="3">
+        <f t="shared" si="70"/>
+        <v>137110.60618828252</v>
+      </c>
+      <c r="CG24" s="3">
+        <f t="shared" si="70"/>
+        <v>135739.50012639968</v>
+      </c>
+      <c r="CH24" s="3">
+        <f t="shared" si="70"/>
+        <v>134382.10512513568</v>
+      </c>
+    </row>
+    <row r="25" spans="2:86" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="16" t="e">
-        <f t="shared" ref="C24" si="34">C23/C25</f>
+      <c r="C25" s="16" t="e">
+        <f t="shared" ref="C25" si="71">C24/C26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="16">
-        <f t="shared" ref="D24" si="35">D23/D25</f>
+      <c r="D25" s="16">
+        <f t="shared" ref="D25" si="72">D24/D26</f>
         <v>10.129194904399265</v>
       </c>
-      <c r="E24" s="16">
-        <f t="shared" ref="E24" si="36">E23/E25</f>
+      <c r="E25" s="16">
+        <f t="shared" ref="E25" si="73">E24/E26</f>
         <v>16.398605528022852</v>
       </c>
-      <c r="F24" s="16">
-        <f t="shared" ref="F24" si="37">F23/F25</f>
+      <c r="F25" s="16">
+        <f t="shared" ref="F25" si="74">F24/F26</f>
         <v>22.295301836540162</v>
       </c>
-      <c r="G24" s="16">
-        <f t="shared" ref="G24:J24" si="38">G23/G25</f>
+      <c r="G25" s="16">
+        <f t="shared" ref="G25:J25" si="75">G24/G26</f>
         <v>26.287585896482916</v>
       </c>
-      <c r="H24" s="16">
-        <f t="shared" si="38"/>
-        <v>26.728486253921357</v>
-      </c>
-      <c r="I24" s="16">
-        <f t="shared" si="38"/>
+      <c r="H25" s="16">
+        <f t="shared" si="75"/>
+        <v>1.3364479105356091</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="75"/>
         <v>27.990344690984287</v>
       </c>
-      <c r="J24" s="16">
-        <f t="shared" si="38"/>
+      <c r="J25" s="16">
+        <f t="shared" si="75"/>
         <v>30.69474329100823</v>
       </c>
-      <c r="K24" s="16">
-        <f>K23/K25</f>
+      <c r="K25" s="16">
+        <f>K24/K26</f>
         <v>24.621339792764896</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="S24" s="19">
-        <f>S23/S25</f>
+      <c r="L25" s="16">
+        <f t="shared" ref="L25:N25" si="76">L24/L26</f>
+        <v>1.2087015635622025</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="76"/>
+        <v>1.5155827373668711</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" si="76"/>
+        <v>1.6511333355993649</v>
+      </c>
+      <c r="S25" s="19">
+        <f>S24/S26</f>
         <v>58.613331625494155</v>
       </c>
-      <c r="T24" s="19">
-        <f>T23/T25</f>
+      <c r="T25" s="19">
+        <f>T24/T26</f>
         <v>112.19701508394893</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+      <c r="U25" s="19">
+        <f>U24/U26</f>
+        <v>5.5675771651937485</v>
+      </c>
+      <c r="V25" s="19">
+        <f>V24/V26</f>
+        <v>6.4727841989453889</v>
+      </c>
+      <c r="W25" s="19">
+        <f t="shared" ref="W25:AC25" si="77">W24/W26</f>
+        <v>7.5894844369876644</v>
+      </c>
+      <c r="X25" s="19">
+        <f t="shared" si="77"/>
+        <v>8.800051286902848</v>
+      </c>
+      <c r="Y25" s="19">
+        <f t="shared" si="77"/>
+        <v>10.25203849375418</v>
+      </c>
+      <c r="Z25" s="19">
+        <f t="shared" si="77"/>
+        <v>12.004369647202195</v>
+      </c>
+      <c r="AA25" s="19">
+        <f t="shared" si="77"/>
+        <v>13.724150916213389</v>
+      </c>
+      <c r="AB25" s="19">
+        <f t="shared" si="77"/>
+        <v>15.70815645090957</v>
+      </c>
+      <c r="AC25" s="19">
+        <f t="shared" si="77"/>
+        <v>18.000317516173187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13">
         <v>687.024</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>685.851</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>682.96900000000005</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>682.07100000000003</v>
       </c>
-      <c r="H25" s="13">
-        <v>679.61199999999997</v>
-      </c>
-      <c r="I25" s="13">
+      <c r="H26" s="13">
+        <v>13592</v>
+      </c>
+      <c r="I26" s="13">
         <v>676.51900000000001</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="13">
         <v>672.49300000000005</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K26" s="13">
         <v>667.55100000000004</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="S25" s="3">
+      <c r="L26" s="13">
+        <v>13239</v>
+      </c>
+      <c r="M26" s="13">
+        <f>+L26</f>
+        <v>13239</v>
+      </c>
+      <c r="N26" s="13">
+        <f>+M26</f>
+        <v>13239</v>
+      </c>
+      <c r="S26" s="3">
         <v>687.02800000000002</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T26" s="3">
         <v>677.67399999999998</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
+      <c r="U26" s="3">
+        <f>AVERAGE(L26:N26)</f>
+        <v>13239</v>
+      </c>
+      <c r="V26" s="3">
+        <f>+U26</f>
+        <v>13239</v>
+      </c>
+      <c r="W26" s="3">
+        <f t="shared" ref="W26:AC26" si="78">+V26</f>
+        <v>13239</v>
+      </c>
+      <c r="X26" s="3">
+        <f t="shared" si="78"/>
+        <v>13239</v>
+      </c>
+      <c r="Y26" s="3">
+        <f t="shared" si="78"/>
+        <v>13239</v>
+      </c>
+      <c r="Z26" s="3">
+        <f t="shared" si="78"/>
+        <v>13239</v>
+      </c>
+      <c r="AA26" s="3">
+        <f t="shared" si="78"/>
+        <v>13239</v>
+      </c>
+      <c r="AB26" s="3">
+        <f t="shared" si="78"/>
+        <v>13239</v>
+      </c>
+      <c r="AC26" s="3">
+        <f t="shared" si="78"/>
+        <v>13239</v>
+      </c>
+    </row>
+    <row r="28" spans="2:86" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="18">
-        <f t="shared" ref="H27" si="39">H12/D12-1</f>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="18">
+        <f t="shared" ref="H28" si="79">H12/D12-1</f>
         <v>0.61579235971486024</v>
       </c>
-      <c r="I27" s="18">
-        <f t="shared" ref="I27" si="40">I12/E12-1</f>
+      <c r="I28" s="18">
+        <f t="shared" ref="I28" si="80">I12/E12-1</f>
         <v>0.41030472353973102</v>
       </c>
-      <c r="J27" s="18">
-        <f t="shared" ref="J27" si="41">J12/F12-1</f>
+      <c r="J28" s="18">
+        <f t="shared" ref="J28" si="81">J12/F12-1</f>
         <v>0.32386024113325607</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K28" s="18">
         <f>K12/G12-1</f>
         <v>0.22954405756228069</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="T27" s="20">
+      <c r="L28" s="18">
+        <f t="shared" ref="L28:N28" si="82">L12/H12-1</f>
+        <v>0.12613122171945701</v>
+      </c>
+      <c r="M28" s="18">
+        <f t="shared" si="82"/>
+        <v>0.10997604349027945</v>
+      </c>
+      <c r="N28" s="18">
+        <f t="shared" si="82"/>
+        <v>0.10669512114171908</v>
+      </c>
+      <c r="T28" s="20">
         <f>T12/S12-1</f>
         <v>0.41150076427049154</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+      <c r="U28" s="20">
+        <f>U12/T12-1</f>
+        <v>0.13603337253577719</v>
+      </c>
+      <c r="V28" s="20">
+        <f t="shared" ref="V28:AC28" si="83">V12/U12-1</f>
+        <v>0.10655671301456859</v>
+      </c>
+      <c r="W28" s="20">
+        <f t="shared" si="83"/>
+        <v>0.11521188119433079</v>
+      </c>
+      <c r="X28" s="20">
+        <f t="shared" si="83"/>
+        <v>0.11094739782486651</v>
+      </c>
+      <c r="Y28" s="20">
+        <f t="shared" si="83"/>
+        <v>0.11714882389428238</v>
+      </c>
+      <c r="Z28" s="20">
+        <f t="shared" si="83"/>
+        <v>0.12397359796538532</v>
+      </c>
+      <c r="AA28" s="20">
+        <f t="shared" si="83"/>
+        <v>0.10848733771592189</v>
+      </c>
+      <c r="AB28" s="20">
+        <f t="shared" si="83"/>
+        <v>0.11133697578443114</v>
+      </c>
+      <c r="AC28" s="20">
+        <f t="shared" si="83"/>
+        <v>0.11424210537112223</v>
+      </c>
+      <c r="AE28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF28" s="20">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="2:86" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="T29" s="20"/>
+      <c r="AE29" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF29" s="20">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="2:86" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24">
+        <f t="shared" ref="H30:K30" si="84">+H10/D10-1</f>
+        <v>0.68136404146535945</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="84"/>
+        <v>0.43997266307236682</v>
+      </c>
+      <c r="J30" s="24">
+        <f t="shared" si="84"/>
+        <v>0.35727047613077145</v>
+      </c>
+      <c r="K30" s="24">
+        <f t="shared" si="84"/>
+        <v>0.24276169265033398</v>
+      </c>
+      <c r="L30" s="24">
+        <f>+L10/H10-1</f>
+        <v>0.13513739712651684</v>
+      </c>
+      <c r="M30" s="24">
+        <f>+M10/I10-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="N30" s="24">
+        <f>+N10/J10-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T30" s="25"/>
+      <c r="V30" s="25">
+        <f>+V10/U10-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="W30" s="24">
+        <f t="shared" ref="W30:AC30" si="85">+W10/V10-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="X30" s="24">
+        <f t="shared" si="85"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y30" s="24">
+        <f t="shared" si="85"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Z30" s="24">
+        <f t="shared" si="85"/>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="AA30" s="24">
+        <f t="shared" si="85"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AB30" s="24">
+        <f t="shared" si="85"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AC30" s="24">
+        <f t="shared" si="85"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AE30" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF30" s="25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:86" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24">
+        <f>+H9/D9-1</f>
+        <v>0.83683105981112282</v>
+      </c>
+      <c r="I31" s="24">
+        <f>+I9/E9-1</f>
+        <v>0.4304149295215407</v>
+      </c>
+      <c r="J31" s="24">
+        <f>+J9/F9-1</f>
+        <v>0.25388525780682647</v>
+      </c>
+      <c r="K31" s="24">
+        <f>+K9/G9-1</f>
+        <v>0.143880099916736</v>
+      </c>
+      <c r="L31" s="24">
+        <f>+L9/H9-1</f>
+        <v>4.8271922307911996E-2</v>
+      </c>
+      <c r="M31" s="24">
+        <f>+M9/I9-1</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="N31" s="24">
+        <f>+N9/J9-1</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="T31" s="25"/>
+      <c r="V31" s="25">
+        <f>+V9/U9-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="W31" s="24">
+        <f t="shared" ref="W31:AC31" si="86">+W9/V9-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="X31" s="24">
+        <f t="shared" si="86"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Y31" s="24">
+        <f t="shared" si="86"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Z31" s="24">
+        <f t="shared" si="86"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AA31" s="24">
+        <f t="shared" si="86"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AB31" s="24">
+        <f t="shared" si="86"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AC31" s="24">
+        <f t="shared" si="86"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AE31" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF31" s="22">
+        <f>NPV(AF29,V24:CH24)+Main!L5-Main!L6</f>
+        <v>2377725.0435986267</v>
+      </c>
+    </row>
+    <row r="32" spans="2:86" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="17">
-        <f t="shared" ref="H28" si="42">H11/D11-1</f>
+      <c r="H32" s="17">
+        <f t="shared" ref="H32" si="87">H11/D11-1</f>
         <v>0.63090508988025484</v>
       </c>
-      <c r="I28" s="17">
-        <f t="shared" ref="I28" si="43">I11/E11-1</f>
+      <c r="I32" s="17">
+        <f t="shared" ref="I32" si="88">I11/E11-1</f>
         <v>0.40661921875367013</v>
       </c>
-      <c r="J28" s="17">
-        <f t="shared" ref="J28" si="44">J11/F11-1</f>
+      <c r="J32" s="17">
+        <f t="shared" ref="J32" si="89">J11/F11-1</f>
         <v>0.31257919921320898</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K32" s="17">
         <f>K11/G11-1</f>
         <v>0.20114111532299028</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+      <c r="L32" s="17">
+        <f t="shared" ref="L32:N32" si="90">L11/H11-1</f>
+        <v>0.10117931554138115</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" si="90"/>
+        <v>8.7292432035268375E-2</v>
+      </c>
+      <c r="N32" s="17">
+        <f t="shared" si="90"/>
+        <v>8.6792651296830003E-2</v>
+      </c>
+      <c r="V32" s="5">
+        <f>+V11/U11-1</f>
+        <v>7.7181487573449337E-2</v>
+      </c>
+      <c r="W32" s="17">
+        <f t="shared" ref="W32:AC32" si="91">+W11/V11-1</f>
+        <v>7.8072306156287352E-2</v>
+      </c>
+      <c r="X32" s="17">
+        <f t="shared" si="91"/>
+        <v>7.8944260717141335E-2</v>
+      </c>
+      <c r="Y32" s="17">
+        <f t="shared" si="91"/>
+        <v>7.979643035384365E-2</v>
+      </c>
+      <c r="Z32" s="17">
+        <f t="shared" si="91"/>
+        <v>8.0628005979105577E-2</v>
+      </c>
+      <c r="AA32" s="17">
+        <f t="shared" si="91"/>
+        <v>8.1438290414777903E-2</v>
+      </c>
+      <c r="AB32" s="17">
+        <f t="shared" si="91"/>
+        <v>8.2226697360125778E-2</v>
+      </c>
+      <c r="AC32" s="17">
+        <f t="shared" si="91"/>
+        <v>8.2992749326142867E-2</v>
+      </c>
+      <c r="AE32" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF32" s="1">
+        <f>+AF31/Main!L3</f>
+        <v>179.60004861383993</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="17">
-        <f t="shared" ref="H29" si="45">H6/D6-1</f>
+      <c r="H33" s="17">
+        <f t="shared" ref="H33" si="92">H6/D6-1</f>
         <v>0.53907549052211512</v>
       </c>
-      <c r="I29" s="17">
-        <f t="shared" ref="I29" si="46">I6/E6-1</f>
+      <c r="I33" s="17">
+        <f t="shared" ref="I33" si="93">I6/E6-1</f>
         <v>0.44889663182346107</v>
       </c>
-      <c r="J29" s="17">
-        <f t="shared" ref="J29" si="47">J6/F6-1</f>
+      <c r="J33" s="17">
+        <f t="shared" ref="J33" si="94">J6/F6-1</f>
         <v>0.44635865309318712</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K33" s="17">
         <f>K6/G6-1</f>
         <v>0.4383493946132937</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="L33" s="17">
+        <f t="shared" ref="L33:N33" si="95">L6/H6-1</f>
+        <v>0.35609334485738975</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="95"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="N33" s="17">
+        <f t="shared" si="95"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="V33" s="5">
+        <f>+V6/U6-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="W33" s="17">
+        <f t="shared" ref="W33:AC33" si="96">+W6/V6-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="X33" s="17">
+        <f t="shared" si="96"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="Y33" s="17">
+        <f t="shared" si="96"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Z33" s="17">
+        <f t="shared" si="96"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AA33" s="17">
+        <f t="shared" si="96"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AB33" s="17">
+        <f t="shared" si="96"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AC33" s="17">
+        <f t="shared" si="96"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="17">
-        <f t="shared" ref="D30" si="48">D14/D12</f>
+      <c r="D34" s="17">
+        <f t="shared" ref="D34" si="97">D15/D12</f>
         <v>0.51554952085019712</v>
       </c>
-      <c r="E30" s="17">
-        <f t="shared" ref="E30" si="49">E14/E12</f>
+      <c r="E34" s="17">
+        <f t="shared" ref="E34" si="98">E15/E12</f>
         <v>0.54265479825872265</v>
       </c>
-      <c r="F30" s="17">
-        <f t="shared" ref="F30" si="50">F14/F12</f>
+      <c r="F34" s="17">
+        <f t="shared" ref="F34" si="99">F15/F12</f>
         <v>0.54163590987380927</v>
       </c>
-      <c r="G30" s="17">
-        <f>G14/G12</f>
+      <c r="G34" s="17">
+        <f>G15/G12</f>
         <v>0.56425136493473627</v>
       </c>
-      <c r="H30" s="17">
-        <f t="shared" ref="H30:K30" si="51">H14/H12</f>
+      <c r="H34" s="17">
+        <f t="shared" ref="H34:K34" si="100">H15/H12</f>
         <v>0.57616354234001288</v>
       </c>
-      <c r="I30" s="17">
-        <f t="shared" si="51"/>
+      <c r="I34" s="17">
+        <f t="shared" si="100"/>
         <v>0.57583156730857832</v>
       </c>
-      <c r="J30" s="17">
-        <f t="shared" si="51"/>
+      <c r="J34" s="17">
+        <f t="shared" si="100"/>
         <v>0.56205774975107869</v>
       </c>
-      <c r="K30" s="17">
-        <f t="shared" si="51"/>
+      <c r="K34" s="17">
+        <f t="shared" si="100"/>
         <v>0.5647909896928438</v>
       </c>
-      <c r="S30" s="5">
-        <f t="shared" ref="S30" si="52">S14/S12</f>
+      <c r="L34" s="17">
+        <f t="shared" ref="L34:N34" si="101">L15/L12</f>
+        <v>0.56799885197675248</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" si="101"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="N34" s="17">
+        <f t="shared" si="101"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" ref="S34" si="102">S15/S12</f>
         <v>0.53578374706207854</v>
       </c>
-      <c r="T30" s="5">
-        <f>T14/T12</f>
+      <c r="T34" s="5">
+        <f>T15/T12</f>
         <v>0.5693980290098084</v>
       </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="U34" s="5">
+        <f t="shared" ref="U34:V34" si="103">U15/U12</f>
+        <v>0.57001262845627187</v>
+      </c>
+      <c r="V34" s="5">
+        <f t="shared" si="103"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W34" s="17">
+        <f t="shared" ref="W34:AC34" si="104">W15/W12</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="X34" s="17">
+        <f t="shared" si="104"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y34" s="17">
+        <f t="shared" si="104"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z34" s="17">
+        <f t="shared" si="104"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA34" s="17">
+        <f t="shared" si="104"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB34" s="17">
+        <f t="shared" si="104"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC34" s="17">
+        <f t="shared" si="104"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="17">
+        <f>+D23/D22</f>
+        <v>0.15923643832306392</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" ref="E35:N35" si="105">+E23/E22</f>
+        <v>0.15809566584325174</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="105"/>
+        <v>0.18524265610787094</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="105"/>
+        <v>0.15754357938260583</v>
+      </c>
+      <c r="H35" s="17">
+        <f t="shared" si="105"/>
+        <v>0.16</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="105"/>
+        <v>0.17898022892819979</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="105"/>
+        <v>0.15408573067781328</v>
+      </c>
+      <c r="K35" s="17">
+        <f t="shared" si="105"/>
+        <v>0.13193197422625963</v>
+      </c>
+      <c r="L35" s="17">
+        <f t="shared" si="105"/>
+        <v>0.15840959293152415</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="105"/>
+        <v>0.16</v>
+      </c>
+      <c r="N35" s="17">
+        <f t="shared" si="105"/>
+        <v>0.16</v>
+      </c>
+      <c r="S35" s="17">
+        <f t="shared" ref="S35:V35" si="106">+S23/S22</f>
+        <v>0.16249324071378063</v>
+      </c>
+      <c r="T35" s="17">
+        <f t="shared" si="106"/>
+        <v>0.16202305640663919</v>
+      </c>
+      <c r="U35" s="17">
+        <f t="shared" si="106"/>
+        <v>0.15475716375390955</v>
+      </c>
+      <c r="V35" s="17">
+        <f t="shared" si="106"/>
+        <v>0.18</v>
+      </c>
+      <c r="W35" s="17">
+        <f t="shared" ref="W35:AC35" si="107">+W23/W22</f>
+        <v>0.18</v>
+      </c>
+      <c r="X35" s="17">
+        <f t="shared" si="107"/>
+        <v>0.18</v>
+      </c>
+      <c r="Y35" s="17">
+        <f t="shared" si="107"/>
+        <v>0.18</v>
+      </c>
+      <c r="Z35" s="17">
+        <f t="shared" si="107"/>
+        <v>0.18</v>
+      </c>
+      <c r="AA35" s="17">
+        <f t="shared" si="107"/>
+        <v>0.18</v>
+      </c>
+      <c r="AB35" s="17">
+        <f t="shared" si="107"/>
+        <v>0.18</v>
+      </c>
+      <c r="AC35" s="17">
+        <f t="shared" si="107"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="17">
-        <f t="shared" ref="D31" si="53">D10/D12</f>
+      <c r="D36" s="17">
+        <f t="shared" ref="D36" si="108">D10/D12</f>
         <v>0.55667545760764547</v>
       </c>
-      <c r="E31" s="17">
-        <f t="shared" ref="E31" si="54">E10/E12</f>
+      <c r="E36" s="17">
+        <f t="shared" ref="E36" si="109">E10/E12</f>
         <v>0.57041994239057459</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F36" s="17">
         <f>F10/F12</f>
         <v>0.56070512144539353</v>
       </c>
-      <c r="G31" s="17">
-        <f t="shared" ref="G31:K31" si="55">G10/G12</f>
+      <c r="G36" s="17">
+        <f t="shared" ref="G36:K36" si="110">G10/G12</f>
         <v>0.57632787359438842</v>
       </c>
-      <c r="H31" s="17">
-        <f t="shared" si="55"/>
+      <c r="H36" s="17">
+        <f t="shared" si="110"/>
         <v>0.57926632191338079</v>
       </c>
-      <c r="I31" s="17">
-        <f t="shared" si="55"/>
+      <c r="I36" s="17">
+        <f t="shared" si="110"/>
         <v>0.58241960748180222</v>
       </c>
-      <c r="J31" s="17">
-        <f t="shared" si="55"/>
+      <c r="J36" s="17">
+        <f t="shared" si="110"/>
         <v>0.5748556256223033</v>
       </c>
-      <c r="K31" s="17">
-        <f t="shared" si="55"/>
+      <c r="K36" s="17">
+        <f t="shared" si="110"/>
         <v>0.58252341532987306</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
+      <c r="L36" s="17">
+        <f t="shared" ref="L36:N36" si="111">L10/L12</f>
+        <v>0.58389897395422252</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="111"/>
+        <v>0.57718504105317947</v>
+      </c>
+      <c r="N36" s="17">
+        <f t="shared" si="111"/>
+        <v>0.57137794872736092</v>
+      </c>
+      <c r="S36" s="17">
+        <f t="shared" ref="S36:V36" si="112">S10/S12</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="17">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="17">
+        <f t="shared" si="112"/>
+        <v>0.57965781074026435</v>
+      </c>
+      <c r="V36" s="17">
+        <f t="shared" si="112"/>
+        <v>0.57622314727749158</v>
+      </c>
+      <c r="W36" s="17">
+        <f t="shared" ref="W36:AC36" si="113">W10/W12</f>
+        <v>0.56836326145165084</v>
+      </c>
+      <c r="X36" s="17">
+        <f t="shared" si="113"/>
+        <v>0.56276254737253961</v>
+      </c>
+      <c r="Y36" s="17">
+        <f t="shared" si="113"/>
+        <v>0.55412384533680914</v>
+      </c>
+      <c r="Z36" s="17">
+        <f t="shared" si="113"/>
+        <v>0.54230475784651111</v>
+      </c>
+      <c r="AA36" s="17">
+        <f t="shared" si="113"/>
+        <v>0.53815250146234839</v>
+      </c>
+      <c r="AB36" s="17">
+        <f t="shared" si="113"/>
+        <v>0.53266269773013364</v>
+      </c>
+      <c r="AC36" s="17">
+        <f t="shared" si="113"/>
+        <v>0.52585426872554852</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="13">
+        <f>+L39-L57</f>
+        <v>140928</v>
+      </c>
+      <c r="M38" s="13">
+        <f>+L38+M24</f>
+        <v>160992.79986</v>
+      </c>
+      <c r="N38" s="13">
+        <f>+M38+N24</f>
+        <v>182852.15409</v>
+      </c>
+      <c r="U38" s="3">
+        <f>+N38</f>
+        <v>182852.15409</v>
+      </c>
+      <c r="V38" s="3">
+        <f>+U38+V24</f>
+        <v>268545.344099838</v>
+      </c>
+      <c r="W38" s="3">
+        <f t="shared" ref="W38:AC38" si="114">+V38+W24</f>
+        <v>369022.52856111771</v>
+      </c>
+      <c r="X38" s="3">
+        <f t="shared" si="114"/>
+        <v>485526.40754842455</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" si="114"/>
+        <v>621253.1451672361</v>
+      </c>
+      <c r="Z38" s="3">
+        <f t="shared" si="114"/>
+        <v>780178.994926546</v>
+      </c>
+      <c r="AA38" s="3">
+        <f t="shared" si="114"/>
+        <v>961873.02890629508</v>
+      </c>
+      <c r="AB38" s="3">
+        <f t="shared" si="114"/>
+        <v>1169833.3121598868</v>
+      </c>
+      <c r="AC38" s="3">
+        <f t="shared" si="114"/>
+        <v>1408139.5157565037</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13">
+        <f>124997+30665</f>
+        <v>155662</v>
+      </c>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13">
+        <v>35707</v>
+      </c>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13">
+        <v>1366</v>
+      </c>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13">
+        <v>1980</v>
+      </c>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13">
+        <v>8321</v>
+      </c>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="13">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="13">
+        <v>106223</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L46" s="13">
+        <v>13398</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L47" s="13">
+        <f>1377+23949</f>
+        <v>25326</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L48" s="13">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="13">
+        <f>SUM(L39:L48)</f>
+        <v>355185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L51" s="13">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="13">
+        <v>10852</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" s="13">
+        <v>32976</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" s="13">
+        <v>7889</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" s="13">
+        <f>3272+472</f>
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="13">
+        <f>1956+8163+924</f>
+        <v>11043</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="13">
+        <v>14734</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L58" s="13">
+        <v>11697</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L59" s="13">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" s="13">
+        <v>255419</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L61" s="13">
+        <f>SUM(L51:L60)</f>
+        <v>355185</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13">
         <v>22677</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G63" s="13">
         <v>19289</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13">
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13">
         <v>24934</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K63" s="13">
         <v>25106</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+    </row>
+    <row r="64" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13">
         <v>5479</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G64" s="13">
         <v>5942</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13">
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13">
         <v>6383</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K64" s="13">
         <v>9786</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+    </row>
+    <row r="65" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13">
-        <f t="shared" ref="F38" si="56">F36-F37</f>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13">
+        <f t="shared" ref="F65" si="115">F63-F64</f>
         <v>17198</v>
       </c>
-      <c r="G38" s="13">
-        <f>G36-G37</f>
+      <c r="G65" s="13">
+        <f>G63-G64</f>
         <v>13347</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13">
-        <f t="shared" ref="J38" si="57">J36-J37</f>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13">
+        <f t="shared" ref="J65" si="116">J63-J64</f>
         <v>18551</v>
       </c>
-      <c r="K38" s="13">
-        <f t="shared" ref="K38" si="58">K36-K37</f>
+      <c r="K65" s="13">
+        <f t="shared" ref="K65" si="117">K63-K64</f>
         <v>15320</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+    </row>
+    <row r="68" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13">
+        <v>144056</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13">
+        <v>174014</v>
+      </c>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L69" s="17">
+        <f>+L68/H68-1</f>
+        <v>0.20796079302493475</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6D5365-7FAE-48F3-9923-045ED4CA28D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F79FF-4655-41D2-A269-DF5A12E3943F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8655" yWindow="0" windowWidth="20145" windowHeight="15465" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="10185" yWindow="3930" windowWidth="17760" windowHeight="11475" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,7 @@
   <dimension ref="H1:M14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -912,10 +912,10 @@
   <dimension ref="A1:CH69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1093,7 +1093,7 @@
         <v>181</v>
       </c>
       <c r="U5" s="3">
-        <f>SUM(K5:N5)</f>
+        <f t="shared" ref="U5:U10" si="2">SUM(K5:N5)</f>
         <v>996</v>
       </c>
       <c r="V5" s="3">
@@ -1101,31 +1101,31 @@
         <v>1005.96</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" ref="W5:AC5" si="2">+V5*1.01</f>
+        <f t="shared" ref="W5:AC5" si="3">+V5*1.01</f>
         <v>1016.0196000000001</v>
       </c>
       <c r="X5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1026.1797960000001</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1036.4415939600001</v>
       </c>
       <c r="Z5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1046.8060098996002</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1057.2740699985961</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1067.8468106985822</v>
       </c>
       <c r="AC5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1078.525278805568</v>
       </c>
     </row>
@@ -1166,11 +1166,11 @@
         <v>6986</v>
       </c>
       <c r="N6" s="13">
-        <f t="shared" ref="N6" si="3">+J6*1.4</f>
+        <f t="shared" ref="N6" si="4">+J6*1.4</f>
         <v>7757.4</v>
       </c>
       <c r="U6" s="3">
-        <f>SUM(K6:N6)</f>
+        <f t="shared" si="2"/>
         <v>26840.400000000001</v>
       </c>
       <c r="V6" s="3">
@@ -1178,7 +1178,7 @@
         <v>37576.559999999998</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" ref="W6:AC6" si="4">+V6*1.4</f>
+        <f t="shared" ref="W6" si="5">+V6*1.4</f>
         <v>52607.183999999994</v>
       </c>
       <c r="X6" s="3">
@@ -1247,7 +1247,7 @@
         <v>8405.83</v>
       </c>
       <c r="U7" s="3">
-        <f>SUM(K7:N7)</f>
+        <f t="shared" si="2"/>
         <v>28726.449999999997</v>
       </c>
       <c r="V7" s="3">
@@ -1255,31 +1255,31 @@
         <v>29588.243499999997</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" ref="W7:AC7" si="5">+V7*1.03</f>
+        <f t="shared" ref="W7:AC7" si="6">+V7*1.03</f>
         <v>30475.890804999999</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31390.16752915</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>32331.8725550245</v>
       </c>
       <c r="Z7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33301.828731675232</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34300.883593625491</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35329.91010143426</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36389.807404477287</v>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>10235.5</v>
       </c>
       <c r="U8" s="3">
-        <f>SUM(K8:N8)</f>
+        <f t="shared" si="2"/>
         <v>35467.4</v>
       </c>
       <c r="V8" s="3">
@@ -1332,31 +1332,31 @@
         <v>36531.422000000006</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" ref="W8:AC8" si="6">+V8*1.03</f>
+        <f t="shared" ref="W8:AC8" si="7">+V8*1.03</f>
         <v>37627.364660000007</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38756.18559980001</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39918.871167794008</v>
       </c>
       <c r="Z8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41116.437302827828</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42349.930421912664</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43620.428334570046</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44929.041184607151</v>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
         <v>9150.98</v>
       </c>
       <c r="U9" s="3">
-        <f>SUM(K9:N9)</f>
+        <f t="shared" si="2"/>
         <v>30997.279999999999</v>
       </c>
       <c r="V9" s="3">
@@ -1409,31 +1409,31 @@
         <v>32547.144</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" ref="W9:AC9" si="7">+V9*1.05</f>
+        <f t="shared" ref="W9:AC9" si="8">+V9*1.05</f>
         <v>34174.501199999999</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35883.226260000003</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37677.387573000007</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39561.256951650008</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41539.319799232508</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43616.285789194138</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45797.10007865385</v>
       </c>
     </row>
@@ -1478,7 +1478,7 @@
         <v>47631.100000000006</v>
       </c>
       <c r="U10" s="3">
-        <f>SUM(K10:N10)</f>
+        <f t="shared" si="2"/>
         <v>169656.7</v>
       </c>
       <c r="V10" s="3">
@@ -1486,31 +1486,31 @@
         <v>186622.37000000002</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" ref="W10:AC10" si="8">+V10*1.1</f>
+        <f t="shared" ref="W10:AC10" si="9">+V10*1.1</f>
         <v>205284.60700000005</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>225813.06770000007</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248394.3744700001</v>
       </c>
       <c r="Z10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>273233.8119170001</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300557.19310870016</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>330612.9124195702</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>363674.20366152725</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <f t="shared" ref="D11" si="9">SUM(D7:D10)</f>
+        <f t="shared" ref="D11" si="10">SUM(D7:D10)</f>
         <v>34991</v>
       </c>
       <c r="E11" s="13">
@@ -1535,31 +1535,31 @@
         <v>51178</v>
       </c>
       <c r="H11" s="13">
-        <f t="shared" ref="H11" si="10">SUM(H7:H10)</f>
+        <f t="shared" ref="H11" si="11">SUM(H7:H10)</f>
         <v>57067</v>
       </c>
       <c r="I11" s="13">
-        <f>SUM(I7:I10)</f>
+        <f t="shared" ref="I11:N11" si="12">SUM(I7:I10)</f>
         <v>59884</v>
       </c>
       <c r="J11" s="13">
-        <f>SUM(J7:J10)</f>
+        <f t="shared" si="12"/>
         <v>69400</v>
       </c>
       <c r="K11" s="13">
-        <f>SUM(K7:K10)</f>
+        <f t="shared" si="12"/>
         <v>61472</v>
       </c>
       <c r="L11" s="13">
-        <f>SUM(L7:L10)</f>
+        <f t="shared" si="12"/>
         <v>62841</v>
       </c>
       <c r="M11" s="13">
-        <f>SUM(M7:M10)</f>
+        <f t="shared" si="12"/>
         <v>65111.420000000006</v>
       </c>
       <c r="N11" s="13">
-        <f>SUM(N7:N10)</f>
+        <f t="shared" si="12"/>
         <v>75423.41</v>
       </c>
       <c r="U11" s="13">
@@ -1571,31 +1571,31 @@
         <v>285289.17950000003</v>
       </c>
       <c r="W11" s="13">
-        <f t="shared" ref="W11:AC11" si="11">SUM(W7:W10)</f>
+        <f t="shared" ref="W11:AC11" si="13">SUM(W7:W10)</f>
         <v>307562.36366500007</v>
       </c>
       <c r="X11" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>331842.64708895009</v>
       </c>
       <c r="Y11" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>358322.50576581864</v>
       </c>
       <c r="Z11" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>387213.33490315318</v>
       </c>
       <c r="AA11" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>418747.32692347083</v>
       </c>
       <c r="AB11" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>453179.53664476867</v>
       </c>
       <c r="AC11" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>490790.15232926555</v>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12">
-        <f t="shared" ref="D12" si="12">D11+D6+D5+D4</f>
+        <f t="shared" ref="D12" si="14">D11+D6+D5+D4</f>
         <v>38297</v>
       </c>
       <c r="E12" s="12">
@@ -1620,7 +1620,7 @@
         <v>55314</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" ref="H12" si="13">H11+H6+H5+H4</f>
+        <f t="shared" ref="H12" si="15">H11+H6+H5+H4</f>
         <v>61880</v>
       </c>
       <c r="I12" s="12">
@@ -1640,11 +1640,11 @@
         <v>69685</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" ref="M12:N12" si="14">M11+M6+M5+M4</f>
+        <f t="shared" ref="M12:N12" si="16">M11+M6+M5+M4</f>
         <v>72279.420000000013</v>
       </c>
       <c r="N12" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>83361.81</v>
       </c>
       <c r="O12" s="12"/>
@@ -1655,39 +1655,39 @@
         <v>257637</v>
       </c>
       <c r="U12" s="12">
-        <f t="shared" ref="U12:V12" si="15">U11+U6+U5+U4</f>
+        <f t="shared" ref="U12:V12" si="17">U11+U6+U5+U4</f>
         <v>292684.23000000004</v>
       </c>
       <c r="V12" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>323871.69950000005</v>
       </c>
       <c r="W12" s="12">
-        <f t="shared" ref="W12" si="16">W11+W6+W5+W4</f>
+        <f t="shared" ref="W12" si="18">W11+W6+W5+W4</f>
         <v>361185.56726500008</v>
       </c>
       <c r="X12" s="12">
-        <f t="shared" ref="X12" si="17">X11+X6+X5+X4</f>
+        <f t="shared" ref="X12" si="19">X11+X6+X5+X4</f>
         <v>401258.16608495009</v>
       </c>
       <c r="Y12" s="12">
-        <f t="shared" ref="Y12" si="18">Y11+Y6+Y5+Y4</f>
+        <f t="shared" ref="Y12" si="20">Y11+Y6+Y5+Y4</f>
         <v>448265.08831977862</v>
       </c>
       <c r="Z12" s="12">
-        <f t="shared" ref="Z12" si="19">Z11+Z6+Z5+Z4</f>
+        <f t="shared" ref="Z12" si="21">Z11+Z6+Z5+Z4</f>
         <v>503838.12416105275</v>
       </c>
       <c r="AA12" s="12">
-        <f t="shared" ref="AA12" si="20">AA11+AA6+AA5+AA4</f>
+        <f t="shared" ref="AA12" si="22">AA11+AA6+AA5+AA4</f>
         <v>558498.18089106947</v>
       </c>
       <c r="AB12" s="12">
-        <f t="shared" ref="AB12" si="21">AB11+AB6+AB5+AB4</f>
+        <f t="shared" ref="AB12" si="23">AB11+AB6+AB5+AB4</f>
         <v>620679.67933258729</v>
       </c>
       <c r="AC12" s="12">
-        <f t="shared" ref="AC12" si="22">AC11+AC6+AC5+AC4</f>
+        <f t="shared" ref="AC12" si="24">AC11+AC6+AC5+AC4</f>
         <v>691587.43266061507</v>
       </c>
     </row>
@@ -1746,31 +1746,31 @@
         <v>139264.83078500003</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" ref="W13:AC13" si="23">+W12-W15</f>
+        <f t="shared" ref="W13:AC13" si="25">+W12-W15</f>
         <v>155309.79392395006</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>172541.01141652855</v>
       </c>
       <c r="Y13" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>192753.98797750482</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>216650.39338925271</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>240154.21778315993</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>266892.26211301255</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>297382.5960440645</v>
       </c>
     </row>
@@ -1800,35 +1800,35 @@
         <v>21</v>
       </c>
       <c r="C15" s="13">
-        <f t="shared" ref="C15" si="24">C12-C13</f>
+        <f t="shared" ref="C15" si="26">C12-C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="13">
-        <f t="shared" ref="D15" si="25">D12-D13</f>
+        <f t="shared" ref="D15" si="27">D12-D13</f>
         <v>19744</v>
       </c>
       <c r="E15" s="13">
-        <f t="shared" ref="E15" si="26">E12-E13</f>
+        <f t="shared" ref="E15" si="28">E12-E13</f>
         <v>25056</v>
       </c>
       <c r="F15" s="13">
-        <f t="shared" ref="F15:J15" si="27">F12-F13</f>
+        <f t="shared" ref="F15:J15" si="29">F12-F13</f>
         <v>30818</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>31211</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>35653</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>37497</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>42337</v>
       </c>
       <c r="K15" s="13">
@@ -1836,7 +1836,7 @@
         <v>38412</v>
       </c>
       <c r="L15" s="13">
-        <f t="shared" ref="L15" si="28">L12-L13</f>
+        <f t="shared" ref="L15" si="30">L12-L13</f>
         <v>39581</v>
       </c>
       <c r="M15" s="13">
@@ -1852,7 +1852,7 @@
         <v>97795</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" ref="T15" si="29">T12-T13</f>
+        <f t="shared" ref="T15" si="31">T12-T13</f>
         <v>146698</v>
       </c>
       <c r="U15" s="3">
@@ -1864,31 +1864,31 @@
         <v>184606.86871500002</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" ref="W15:AC15" si="30">+W12*0.57</f>
+        <f t="shared" ref="W15:AC15" si="32">+W12*0.57</f>
         <v>205875.77334105002</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>228717.15466842154</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>255511.1003422738</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>287187.73077180004</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>318343.96310790954</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>353787.41721957474</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>394204.83661655057</v>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
         <v>31562</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" ref="U16:U18" si="31">SUM(K16:N16)</f>
+        <f t="shared" ref="U16:U18" si="33">SUM(K16:N16)</f>
         <v>37002.200000000004</v>
       </c>
       <c r="V16" s="3">
@@ -1947,31 +1947,31 @@
         <v>38852.310000000005</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" ref="W16:AC16" si="32">+V16*1.05</f>
+        <f t="shared" ref="W16:AC16" si="34">+V16*1.05</f>
         <v>40794.925500000005</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>42834.67177500001</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>44976.405363750011</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>47225.225631937516</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>49586.486913534391</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>52065.811259211114</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>54669.101822171673</v>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
         <v>22912</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>26231</v>
       </c>
       <c r="V17" s="3">
@@ -2030,31 +2030,31 @@
         <v>27542.550000000003</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" ref="W17:AC17" si="33">+V17*1.05</f>
+        <f t="shared" ref="W17:AC17" si="35">+V17*1.05</f>
         <v>28919.677500000005</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>30365.661375000007</v>
       </c>
       <c r="Y17" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>31883.94444375001</v>
       </c>
       <c r="Z17" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>33478.14166593751</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>35152.048749234389</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>36909.651186696108</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>38755.133746030915</v>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
         <v>13510</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>14796.8</v>
       </c>
       <c r="V18" s="3">
@@ -2113,31 +2113,31 @@
         <v>15536.64</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" ref="W18:AC18" si="34">+V18*1.05</f>
+        <f t="shared" ref="W18:AC18" si="36">+V18*1.05</f>
         <v>16313.472</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>17129.1456</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>17985.602880000002</v>
       </c>
       <c r="Z18" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>18884.883024000002</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>19829.127175200003</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>20820.583533960005</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>21861.612710658006</v>
       </c>
     </row>
@@ -2146,19 +2146,19 @@
         <v>26</v>
       </c>
       <c r="C19" s="13">
-        <f t="shared" ref="C19" si="35">SUM(C16:C18)</f>
+        <f t="shared" ref="C19" si="37">SUM(C16:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="13">
-        <f t="shared" ref="D19" si="36">SUM(D16:D18)</f>
+        <f t="shared" ref="D19" si="38">SUM(D16:D18)</f>
         <v>13361</v>
       </c>
       <c r="E19" s="13">
-        <f t="shared" ref="E19" si="37">SUM(E16:E18)</f>
+        <f t="shared" ref="E19" si="39">SUM(E16:E18)</f>
         <v>13843</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" ref="F19" si="38">SUM(F16:F18)</f>
+        <f t="shared" ref="F19" si="40">SUM(F16:F18)</f>
         <v>15167</v>
       </c>
       <c r="G19" s="13">
@@ -2166,31 +2166,31 @@
         <v>14774</v>
       </c>
       <c r="H19" s="13">
-        <f t="shared" ref="H19:K19" si="39">SUM(H16:H18)</f>
+        <f t="shared" ref="H19:K19" si="41">SUM(H16:H18)</f>
         <v>16292</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>16466</v>
       </c>
       <c r="J19" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>20452</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>18318</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" ref="L19:N19" si="40">SUM(L16:L18)</f>
+        <f t="shared" ref="L19:N19" si="42">SUM(L16:L18)</f>
         <v>20128</v>
       </c>
       <c r="M19" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>17674</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>21910</v>
       </c>
       <c r="S19" s="3">
@@ -2198,43 +2198,43 @@
         <v>56571</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" ref="T19:V19" si="41">SUM(T16:T18)</f>
+        <f t="shared" ref="T19:V19" si="43">SUM(T16:T18)</f>
         <v>67984</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>78030</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>81931.500000000015</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" ref="W19:AC19" si="42">SUM(W16:W18)</f>
+        <f t="shared" ref="W19:AC19" si="44">SUM(W16:W18)</f>
         <v>86028.074999999997</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>90329.478750000024</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>94845.95268750003</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>99588.250321875035</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>104567.66283796879</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>109796.04597986722</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>115285.84827886061</v>
       </c>
     </row>
@@ -2243,35 +2243,35 @@
         <v>27</v>
       </c>
       <c r="C20" s="13">
-        <f t="shared" ref="C20" si="43">C15-C19</f>
+        <f t="shared" ref="C20" si="45">C15-C19</f>
         <v>0</v>
       </c>
       <c r="D20" s="13">
-        <f t="shared" ref="D20" si="44">D15-D19</f>
+        <f t="shared" ref="D20" si="46">D15-D19</f>
         <v>6383</v>
       </c>
       <c r="E20" s="13">
-        <f t="shared" ref="E20" si="45">E15-E19</f>
+        <f t="shared" ref="E20" si="47">E15-E19</f>
         <v>11213</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" ref="F20" si="46">F15-F19</f>
+        <f t="shared" ref="F20" si="48">F15-F19</f>
         <v>15651</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" ref="G20:J20" si="47">G15-G19</f>
+        <f t="shared" ref="G20:J20" si="49">G15-G19</f>
         <v>16437</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>19361</v>
       </c>
       <c r="I20" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>21031</v>
       </c>
       <c r="J20" s="13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>21885</v>
       </c>
       <c r="K20" s="13">
@@ -2279,15 +2279,15 @@
         <v>20094</v>
       </c>
       <c r="L20" s="13">
-        <f t="shared" ref="L20:N20" si="48">L15-L19</f>
+        <f t="shared" ref="L20:N20" si="50">L15-L19</f>
         <v>19453</v>
       </c>
       <c r="M20" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>23886.666500000007</v>
       </c>
       <c r="N20" s="13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>26023.040749999993</v>
       </c>
       <c r="S20" s="3">
@@ -2295,43 +2295,43 @@
         <v>41224</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" ref="T20:V20" si="49">T15-T19</f>
+        <f t="shared" ref="T20:V20" si="51">T15-T19</f>
         <v>78714</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>88803.707250000036</v>
       </c>
       <c r="V20" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>102675.368715</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" ref="W20:AC20" si="50">W15-W19</f>
+        <f t="shared" ref="W20:AC20" si="52">W15-W19</f>
         <v>119847.69834105003</v>
       </c>
       <c r="X20" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>138387.67591842153</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>160665.14765477378</v>
       </c>
       <c r="Z20" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>187599.480449925</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>213776.30026994075</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>243991.37123970751</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>278918.98833768995</v>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
         <v>12020</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" ref="U21:U23" si="51">SUM(K21:N21)</f>
+        <f t="shared" ref="U21:U23" si="53">SUM(K21:N21)</f>
         <v>-1599</v>
       </c>
       <c r="V21" s="3">
@@ -2388,31 +2388,31 @@
         <v>1828.5215409</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" ref="W21:AC21" si="52">+V38*$AF$30</f>
+        <f t="shared" ref="W21:AC21" si="54">+V38*$AF$30</f>
         <v>2685.4534409983798</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>3690.2252856111772</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>4855.264075484246</v>
       </c>
       <c r="Z21" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>6212.5314516723611</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>7801.7899492654606</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9618.7302890629508</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>11698.333121598869</v>
       </c>
     </row>
@@ -2421,19 +2421,19 @@
         <v>29</v>
       </c>
       <c r="C22" s="13">
-        <f t="shared" ref="C22" si="53">C20+C21</f>
+        <f t="shared" ref="C22" si="55">C20+C21</f>
         <v>0</v>
       </c>
       <c r="D22" s="13">
-        <f t="shared" ref="D22" si="54">D20+D21</f>
+        <f t="shared" ref="D22" si="56">D20+D21</f>
         <v>8277</v>
       </c>
       <c r="E22" s="13">
-        <f t="shared" ref="E22" si="55">E20+E21</f>
+        <f t="shared" ref="E22" si="57">E20+E21</f>
         <v>13359</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" ref="F22" si="56">F20+F21</f>
+        <f t="shared" ref="F22" si="58">F20+F21</f>
         <v>18689</v>
       </c>
       <c r="G22" s="13">
@@ -2441,31 +2441,31 @@
         <v>21283</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" ref="H22:K22" si="57">H20+H21</f>
+        <f t="shared" ref="H22:K22" si="59">H20+H21</f>
         <v>21625</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>23064</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>24402</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>18934</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" ref="L22:N22" si="58">L20+L21</f>
+        <f t="shared" ref="L22:N22" si="60">L20+L21</f>
         <v>19014</v>
       </c>
       <c r="M22" s="13">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>23886.666500000007</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>26023.040749999993</v>
       </c>
       <c r="S22" s="3">
@@ -2473,43 +2473,43 @@
         <v>48082</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" ref="T22:V22" si="59">T20+T21</f>
+        <f t="shared" ref="T22:V22" si="61">T20+T21</f>
         <v>90734</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>87204.707250000036</v>
       </c>
       <c r="V22" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>104503.8902559</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" ref="W22:AC22" si="60">W20+W21</f>
+        <f t="shared" ref="W22:AC22" si="62">W20+W21</f>
         <v>122533.1517820484</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>142077.90120403271</v>
       </c>
       <c r="Y22" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>165520.41173025803</v>
       </c>
       <c r="Z22" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>193812.01190159738</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>221578.09021920621</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>253610.10152877046</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>290617.32145928883</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
         <v>14701</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>13495.553159999999</v>
       </c>
       <c r="V23" s="3">
@@ -2568,31 +2568,31 @@
         <v>18810.700246061999</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" ref="W23:AC23" si="61">+W22*0.18</f>
+        <f t="shared" ref="W23:AC23" si="63">+W22*0.18</f>
         <v>22055.967320768712</v>
       </c>
       <c r="X23" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>25574.022216725887</v>
       </c>
       <c r="Y23" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>29793.674111446442</v>
       </c>
       <c r="Z23" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>34886.162142287525</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>39884.056239457117</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>45649.818275178681</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>52311.117862671985</v>
       </c>
     </row>
@@ -2601,19 +2601,19 @@
         <v>31</v>
       </c>
       <c r="C24" s="13">
-        <f t="shared" ref="C24" si="62">C22-C23</f>
+        <f t="shared" ref="C24" si="64">C22-C23</f>
         <v>0</v>
       </c>
       <c r="D24" s="13">
-        <f t="shared" ref="D24" si="63">D22-D23</f>
+        <f t="shared" ref="D24" si="65">D22-D23</f>
         <v>6959</v>
       </c>
       <c r="E24" s="13">
-        <f t="shared" ref="E24" si="64">E22-E23</f>
+        <f t="shared" ref="E24" si="66">E22-E23</f>
         <v>11247</v>
       </c>
       <c r="F24" s="13">
-        <f t="shared" ref="F24" si="65">F22-F23</f>
+        <f t="shared" ref="F24" si="67">F22-F23</f>
         <v>15227</v>
       </c>
       <c r="G24" s="13">
@@ -2621,31 +2621,31 @@
         <v>17930</v>
       </c>
       <c r="H24" s="13">
-        <f t="shared" ref="H24:K24" si="66">H22-H23</f>
+        <f t="shared" ref="H24:K24" si="68">H22-H23</f>
         <v>18165</v>
       </c>
       <c r="I24" s="13">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>18936</v>
       </c>
       <c r="J24" s="13">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>20642</v>
       </c>
       <c r="K24" s="13">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>16436</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" ref="L24:N24" si="67">L22-L23</f>
+        <f t="shared" ref="L24:N24" si="69">L22-L23</f>
         <v>16002</v>
       </c>
       <c r="M24" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>20064.799860000006</v>
       </c>
       <c r="N24" s="13">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>21859.354229999994</v>
       </c>
       <c r="S24" s="3">
@@ -2653,43 +2653,43 @@
         <v>40269</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" ref="T24:V24" si="68">T22-T23</f>
+        <f t="shared" ref="T24:V24" si="70">T22-T23</f>
         <v>76033</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>73709.15409000004</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>85693.190009837999</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" ref="W24:AC24" si="69">W22-W23</f>
+        <f t="shared" ref="W24:AC24" si="71">W22-W23</f>
         <v>100477.18446127968</v>
       </c>
       <c r="X24" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>116503.87898730682</v>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>135726.73761881157</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>158925.84975930984</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>181694.03397974907</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>207960.2832535918</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>238306.20359661683</v>
       </c>
       <c r="AD24" s="3">
@@ -2697,227 +2697,227 @@
         <v>235923.14156065066</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" ref="AE24:CH24" si="70">+AD24*(1+$AF$28)</f>
+        <f t="shared" ref="AE24:CH24" si="72">+AD24*(1+$AF$28)</f>
         <v>233563.91014504415</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>231228.2710435937</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>228915.98833315776</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>226626.82844982619</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>224360.56016532792</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>222116.95456367463</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>219895.78501803789</v>
       </c>
       <c r="AL24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>217696.8271678575</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>215519.85889617892</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>213364.66030721713</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>211231.01370414495</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>209118.70356710351</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>207027.51653143248</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>204957.24136611816</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>202907.66895245697</v>
       </c>
       <c r="AT24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>200878.59226293239</v>
       </c>
       <c r="AU24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>198869.80634030307</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>196881.10827690005</v>
       </c>
       <c r="AW24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>194912.29719413104</v>
       </c>
       <c r="AX24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>192963.17422218973</v>
       </c>
       <c r="AY24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>191033.54247996784</v>
       </c>
       <c r="AZ24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>189123.20705516817</v>
       </c>
       <c r="BA24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>187231.97498461648</v>
       </c>
       <c r="BB24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>185359.65523477033</v>
       </c>
       <c r="BC24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>183506.05868242262</v>
       </c>
       <c r="BD24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>181670.99809559839</v>
       </c>
       <c r="BE24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>179854.2881146424</v>
       </c>
       <c r="BF24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>178055.74523349598</v>
       </c>
       <c r="BG24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>176275.18778116102</v>
       </c>
       <c r="BH24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>174512.4359033494</v>
       </c>
       <c r="BI24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>172767.31154431589</v>
       </c>
       <c r="BJ24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>171039.63842887274</v>
       </c>
       <c r="BK24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>169329.24204458401</v>
       </c>
       <c r="BL24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>167635.94962413816</v>
       </c>
       <c r="BM24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>165959.59012789678</v>
       </c>
       <c r="BN24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>164299.9942266178</v>
       </c>
       <c r="BO24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>162656.99428435162</v>
       </c>
       <c r="BP24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>161030.4243415081</v>
       </c>
       <c r="BQ24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>159420.12009809303</v>
       </c>
       <c r="BR24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>157825.9188971121</v>
       </c>
       <c r="BS24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>156247.65970814097</v>
       </c>
       <c r="BT24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>154685.18311105957</v>
       </c>
       <c r="BU24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>153138.33127994896</v>
       </c>
       <c r="BV24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>151606.94796714946</v>
       </c>
       <c r="BW24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>150090.87848747798</v>
       </c>
       <c r="BX24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>148589.96970260321</v>
       </c>
       <c r="BY24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>147104.07000557717</v>
       </c>
       <c r="BZ24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>145633.0293055214</v>
       </c>
       <c r="CA24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>144176.69901246618</v>
       </c>
       <c r="CB24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>142734.93202234153</v>
       </c>
       <c r="CC24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>141307.58270211812</v>
       </c>
       <c r="CD24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>139894.50687509694</v>
       </c>
       <c r="CE24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>138495.56180634597</v>
       </c>
       <c r="CF24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>137110.60618828252</v>
       </c>
       <c r="CG24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>135739.50012639968</v>
       </c>
       <c r="CH24" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>134382.10512513568</v>
       </c>
     </row>
@@ -2926,35 +2926,35 @@
         <v>32</v>
       </c>
       <c r="C25" s="16" t="e">
-        <f t="shared" ref="C25" si="71">C24/C26</f>
+        <f t="shared" ref="C25" si="73">C24/C26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="16">
-        <f t="shared" ref="D25" si="72">D24/D26</f>
+        <f t="shared" ref="D25" si="74">D24/D26</f>
         <v>10.129194904399265</v>
       </c>
       <c r="E25" s="16">
-        <f t="shared" ref="E25" si="73">E24/E26</f>
+        <f t="shared" ref="E25" si="75">E24/E26</f>
         <v>16.398605528022852</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" ref="F25" si="74">F24/F26</f>
+        <f t="shared" ref="F25" si="76">F24/F26</f>
         <v>22.295301836540162</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" ref="G25:J25" si="75">G24/G26</f>
+        <f t="shared" ref="G25:J25" si="77">G24/G26</f>
         <v>26.287585896482916</v>
       </c>
       <c r="H25" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>27.990344690984287</v>
       </c>
       <c r="J25" s="16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>30.69474329100823</v>
       </c>
       <c r="K25" s="16">
@@ -2962,15 +2962,15 @@
         <v>24.621339792764896</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" ref="L25:N25" si="76">L24/L26</f>
+        <f t="shared" ref="L25:N25" si="78">L24/L26</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.5155827373668711</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>1.6511333355993649</v>
       </c>
       <c r="S25" s="19">
@@ -2990,31 +2990,31 @@
         <v>6.4727841989453889</v>
       </c>
       <c r="W25" s="19">
-        <f t="shared" ref="W25:AC25" si="77">W24/W26</f>
+        <f t="shared" ref="W25:AC25" si="79">W24/W26</f>
         <v>7.5894844369876644</v>
       </c>
       <c r="X25" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>8.800051286902848</v>
       </c>
       <c r="Y25" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>10.25203849375418</v>
       </c>
       <c r="Z25" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>12.004369647202195</v>
       </c>
       <c r="AA25" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>13.724150916213389</v>
       </c>
       <c r="AB25" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>15.70815645090957</v>
       </c>
       <c r="AC25" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>18.000317516173187</v>
       </c>
     </row>
@@ -3073,31 +3073,31 @@
         <v>13239</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" ref="W26:AC26" si="78">+V26</f>
+        <f t="shared" ref="W26:AC26" si="80">+V26</f>
         <v>13239</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>13239</v>
       </c>
       <c r="Y26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>13239</v>
       </c>
       <c r="Z26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>13239</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>13239</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>13239</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>13239</v>
       </c>
     </row>
@@ -3111,15 +3111,15 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="18">
-        <f t="shared" ref="H28" si="79">H12/D12-1</f>
+        <f t="shared" ref="H28" si="81">H12/D12-1</f>
         <v>0.61579235971486024</v>
       </c>
       <c r="I28" s="18">
-        <f t="shared" ref="I28" si="80">I12/E12-1</f>
+        <f t="shared" ref="I28" si="82">I12/E12-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="J28" s="18">
-        <f t="shared" ref="J28" si="81">J12/F12-1</f>
+        <f t="shared" ref="J28" si="83">J12/F12-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="K28" s="18">
@@ -3127,15 +3127,15 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" ref="L28:N28" si="82">L12/H12-1</f>
+        <f t="shared" ref="L28:N28" si="84">L12/H12-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="M28" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.10997604349027945</v>
       </c>
       <c r="N28" s="18">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>0.10669512114171908</v>
       </c>
       <c r="T28" s="20">
@@ -3147,35 +3147,35 @@
         <v>0.13603337253577719</v>
       </c>
       <c r="V28" s="20">
-        <f t="shared" ref="V28:AC28" si="83">V12/U12-1</f>
+        <f t="shared" ref="V28:AC28" si="85">V12/U12-1</f>
         <v>0.10655671301456859</v>
       </c>
       <c r="W28" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0.11521188119433079</v>
       </c>
       <c r="X28" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0.11094739782486651</v>
       </c>
       <c r="Y28" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0.11714882389428238</v>
       </c>
       <c r="Z28" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0.12397359796538532</v>
       </c>
       <c r="AA28" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0.10848733771592189</v>
       </c>
       <c r="AB28" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0.11133697578443114</v>
       </c>
       <c r="AC28" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>0.11424210537112223</v>
       </c>
       <c r="AE28" s="8" t="s">
@@ -3221,19 +3221,19 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="24">
-        <f t="shared" ref="H30:K30" si="84">+H10/D10-1</f>
+        <f t="shared" ref="H30:K30" si="86">+H10/D10-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="I30" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="J30" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="K30" s="24">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>0.24276169265033398</v>
       </c>
       <c r="L30" s="24">
@@ -3254,31 +3254,31 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="W30" s="24">
-        <f t="shared" ref="W30:AC30" si="85">+W10/V10-1</f>
+        <f t="shared" ref="W30:AC30" si="87">+W10/V10-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="X30" s="24">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Y30" s="24">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Z30" s="24">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="AA30" s="24">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AB30" s="24">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AC30" s="24">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AE30" s="21" t="s">
@@ -3298,31 +3298,31 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="24">
-        <f>+H9/D9-1</f>
+        <f t="shared" ref="H31:N31" si="88">+H9/D9-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="I31" s="24">
-        <f>+I9/E9-1</f>
+        <f t="shared" si="88"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="J31" s="24">
-        <f>+J9/F9-1</f>
+        <f t="shared" si="88"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="K31" s="24">
-        <f>+K9/G9-1</f>
+        <f t="shared" si="88"/>
         <v>0.143880099916736</v>
       </c>
       <c r="L31" s="24">
-        <f>+L9/H9-1</f>
+        <f t="shared" si="88"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="M31" s="24">
-        <f>+M9/I9-1</f>
+        <f t="shared" si="88"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="N31" s="24">
-        <f>+N9/J9-1</f>
+        <f t="shared" si="88"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="T31" s="25"/>
@@ -3331,31 +3331,31 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="W31" s="24">
-        <f t="shared" ref="W31:AC31" si="86">+W9/V9-1</f>
+        <f t="shared" ref="W31:AC31" si="89">+W9/V9-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X31" s="24">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Y31" s="24">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Z31" s="24">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AA31" s="24">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AB31" s="24">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AC31" s="24">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AE31" s="21" t="s">
@@ -3371,15 +3371,15 @@
         <v>42</v>
       </c>
       <c r="H32" s="17">
-        <f t="shared" ref="H32" si="87">H11/D11-1</f>
+        <f t="shared" ref="H32" si="90">H11/D11-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="I32" s="17">
-        <f t="shared" ref="I32" si="88">I11/E11-1</f>
+        <f t="shared" ref="I32" si="91">I11/E11-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="J32" s="17">
-        <f t="shared" ref="J32" si="89">J11/F11-1</f>
+        <f t="shared" ref="J32" si="92">J11/F11-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="K32" s="17">
@@ -3387,15 +3387,15 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="L32" s="17">
-        <f t="shared" ref="L32:N32" si="90">L11/H11-1</f>
+        <f t="shared" ref="L32:N32" si="93">L11/H11-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="M32" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>8.7292432035268375E-2</v>
       </c>
       <c r="N32" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="93"/>
         <v>8.6792651296830003E-2</v>
       </c>
       <c r="V32" s="5">
@@ -3403,31 +3403,31 @@
         <v>7.7181487573449337E-2</v>
       </c>
       <c r="W32" s="17">
-        <f t="shared" ref="W32:AC32" si="91">+W11/V11-1</f>
+        <f t="shared" ref="W32:AC32" si="94">+W11/V11-1</f>
         <v>7.8072306156287352E-2</v>
       </c>
       <c r="X32" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>7.8944260717141335E-2</v>
       </c>
       <c r="Y32" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>7.979643035384365E-2</v>
       </c>
       <c r="Z32" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>8.0628005979105577E-2</v>
       </c>
       <c r="AA32" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>8.1438290414777903E-2</v>
       </c>
       <c r="AB32" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>8.2226697360125778E-2</v>
       </c>
       <c r="AC32" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>8.2992749326142867E-2</v>
       </c>
       <c r="AE32" s="21" t="s">
@@ -3443,15 +3443,15 @@
         <v>43</v>
       </c>
       <c r="H33" s="17">
-        <f t="shared" ref="H33" si="92">H6/D6-1</f>
+        <f t="shared" ref="H33" si="95">H6/D6-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="I33" s="17">
-        <f t="shared" ref="I33" si="93">I6/E6-1</f>
+        <f t="shared" ref="I33" si="96">I6/E6-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="J33" s="17">
-        <f t="shared" ref="J33" si="94">J6/F6-1</f>
+        <f t="shared" ref="J33" si="97">J6/F6-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="K33" s="17">
@@ -3459,15 +3459,15 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="L33" s="17">
-        <f t="shared" ref="L33:N33" si="95">L6/H6-1</f>
+        <f t="shared" ref="L33:N33" si="98">L6/H6-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="M33" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="N33" s="17">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="V33" s="5">
@@ -3475,31 +3475,31 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="W33" s="17">
-        <f t="shared" ref="W33:AC33" si="96">+W6/V6-1</f>
+        <f t="shared" ref="W33:AC33" si="99">+W6/V6-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="X33" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="Y33" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="Z33" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AA33" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AB33" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AC33" s="17">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -3508,15 +3508,15 @@
         <v>33</v>
       </c>
       <c r="D34" s="17">
-        <f t="shared" ref="D34" si="97">D15/D12</f>
+        <f t="shared" ref="D34" si="100">D15/D12</f>
         <v>0.51554952085019712</v>
       </c>
       <c r="E34" s="17">
-        <f t="shared" ref="E34" si="98">E15/E12</f>
+        <f t="shared" ref="E34" si="101">E15/E12</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="F34" s="17">
-        <f t="shared" ref="F34" si="99">F15/F12</f>
+        <f t="shared" ref="F34" si="102">F15/F12</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="G34" s="17">
@@ -3524,35 +3524,35 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="H34" s="17">
-        <f t="shared" ref="H34:K34" si="100">H15/H12</f>
+        <f t="shared" ref="H34:K34" si="103">H15/H12</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="I34" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.57583156730857832</v>
       </c>
       <c r="J34" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.56205774975107869</v>
       </c>
       <c r="K34" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.5647909896928438</v>
       </c>
       <c r="L34" s="17">
-        <f t="shared" ref="L34:N34" si="101">L15/L12</f>
+        <f t="shared" ref="L34:N34" si="104">L15/L12</f>
         <v>0.56799885197675248</v>
       </c>
       <c r="M34" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="N34" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" ref="S34" si="102">S15/S12</f>
+        <f t="shared" ref="S34" si="105">S15/S12</f>
         <v>0.53578374706207854</v>
       </c>
       <c r="T34" s="5">
@@ -3560,39 +3560,39 @@
         <v>0.5693980290098084</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" ref="U34:V34" si="103">U15/U12</f>
+        <f t="shared" ref="U34:V34" si="106">U15/U12</f>
         <v>0.57001262845627187</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="W34" s="17">
-        <f t="shared" ref="W34:AC34" si="104">W15/W12</f>
+        <f t="shared" ref="W34:AC34" si="107">W15/W12</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="X34" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="Y34" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="Z34" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="AA34" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="AB34" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="AC34" s="17">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -3605,87 +3605,87 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="E35" s="17">
-        <f t="shared" ref="E35:N35" si="105">+E23/E22</f>
+        <f t="shared" ref="E35:N35" si="108">+E23/E22</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="F35" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="G35" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="H35" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0.16</v>
       </c>
       <c r="I35" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="J35" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="K35" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="L35" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="M35" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0.16</v>
       </c>
       <c r="N35" s="17">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0.16</v>
       </c>
       <c r="S35" s="17">
-        <f t="shared" ref="S35:V35" si="106">+S23/S22</f>
+        <f t="shared" ref="S35:V35" si="109">+S23/S22</f>
         <v>0.16249324071378063</v>
       </c>
       <c r="T35" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>0.16202305640663919</v>
       </c>
       <c r="U35" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>0.15475716375390955</v>
       </c>
       <c r="V35" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>0.18</v>
       </c>
       <c r="W35" s="17">
-        <f t="shared" ref="W35:AC35" si="107">+W23/W22</f>
+        <f t="shared" ref="W35:AC35" si="110">+W23/W22</f>
         <v>0.18</v>
       </c>
       <c r="X35" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0.18</v>
       </c>
       <c r="Y35" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0.18</v>
       </c>
       <c r="Z35" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0.18</v>
       </c>
       <c r="AA35" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0.18</v>
       </c>
       <c r="AB35" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0.18</v>
       </c>
       <c r="AC35" s="17">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0.18</v>
       </c>
     </row>
@@ -3694,11 +3694,11 @@
         <v>47</v>
       </c>
       <c r="D36" s="17">
-        <f t="shared" ref="D36" si="108">D10/D12</f>
+        <f t="shared" ref="D36" si="111">D10/D12</f>
         <v>0.55667545760764547</v>
       </c>
       <c r="E36" s="17">
-        <f t="shared" ref="E36" si="109">E10/E12</f>
+        <f t="shared" ref="E36" si="112">E10/E12</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="F36" s="17">
@@ -3706,79 +3706,79 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" ref="G36:K36" si="110">G10/G12</f>
+        <f t="shared" ref="G36:K36" si="113">G10/G12</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="H36" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.57926632191338079</v>
       </c>
       <c r="I36" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.58241960748180222</v>
       </c>
       <c r="J36" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.5748556256223033</v>
       </c>
       <c r="K36" s="17">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.58252341532987306</v>
       </c>
       <c r="L36" s="17">
-        <f t="shared" ref="L36:N36" si="111">L10/L12</f>
+        <f t="shared" ref="L36:N36" si="114">L10/L12</f>
         <v>0.58389897395422252</v>
       </c>
       <c r="M36" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.57718504105317947</v>
       </c>
       <c r="N36" s="17">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>0.57137794872736092</v>
       </c>
       <c r="S36" s="17">
-        <f t="shared" ref="S36:V36" si="112">S10/S12</f>
+        <f t="shared" ref="S36:V36" si="115">S10/S12</f>
         <v>0</v>
       </c>
       <c r="T36" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="U36" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.57965781074026435</v>
       </c>
       <c r="V36" s="17">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>0.57622314727749158</v>
       </c>
       <c r="W36" s="17">
-        <f t="shared" ref="W36:AC36" si="113">W10/W12</f>
+        <f t="shared" ref="W36:AC36" si="116">W10/W12</f>
         <v>0.56836326145165084</v>
       </c>
       <c r="X36" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.56276254737253961</v>
       </c>
       <c r="Y36" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.55412384533680914</v>
       </c>
       <c r="Z36" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.54230475784651111</v>
       </c>
       <c r="AA36" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.53815250146234839</v>
       </c>
       <c r="AB36" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.53266269773013364</v>
       </c>
       <c r="AC36" s="17">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.52585426872554852</v>
       </c>
     </row>
@@ -3807,31 +3807,31 @@
         <v>268545.344099838</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" ref="W38:AC38" si="114">+V38+W24</f>
+        <f t="shared" ref="W38:AC38" si="117">+V38+W24</f>
         <v>369022.52856111771</v>
       </c>
       <c r="X38" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>485526.40754842455</v>
       </c>
       <c r="Y38" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>621253.1451672361</v>
       </c>
       <c r="Z38" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>780178.994926546</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>961873.02890629508</v>
       </c>
       <c r="AB38" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>1169833.3121598868</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>1408139.5157565037</v>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13">
-        <f t="shared" ref="F65" si="115">F63-F64</f>
+        <f t="shared" ref="F65" si="118">F63-F64</f>
         <v>17198</v>
       </c>
       <c r="G65" s="13">
@@ -4144,11 +4144,11 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13">
-        <f t="shared" ref="J65" si="116">J63-J64</f>
+        <f t="shared" ref="J65" si="119">J63-J64</f>
         <v>18551</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" ref="K65" si="117">K63-K64</f>
+        <f t="shared" ref="K65" si="120">K63-K64</f>
         <v>15320</v>
       </c>
       <c r="L65" s="13"/>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F79FF-4655-41D2-A269-DF5A12E3943F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5271EC84-8F4A-4386-84A7-FAD24AD92C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="3930" windowWidth="17760" windowHeight="11475" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>Price</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Employees</t>
   </si>
   <si>
-    <t>Headcount</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
@@ -270,6 +267,63 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  y/y</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Amortization</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Gain on equities</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Buybacks</t>
+  </si>
+  <si>
+    <t>Sale of Entities</t>
+  </si>
+  <si>
+    <t>CIC</t>
   </si>
 </sst>
 </file>
@@ -330,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -347,9 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -370,11 +421,7 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -401,15 +448,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -451,15 +498,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -887,7 +934,7 @@
       <c r="K9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>1998</v>
       </c>
     </row>
@@ -909,3279 +956,4512 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
-  <dimension ref="A1:CH69"/>
+  <dimension ref="A1:CO92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
-    <col min="32" max="32" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.140625" style="2"/>
+    <col min="39" max="39" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
+        <v>2015</v>
+      </c>
+      <c r="V3">
+        <v>2016</v>
+      </c>
+      <c r="W3">
+        <v>2017</v>
+      </c>
+      <c r="X3">
         <v>2018</v>
       </c>
-      <c r="R3">
+      <c r="Y3">
         <v>2019</v>
       </c>
-      <c r="S3">
+      <c r="Z3">
         <v>2020</v>
       </c>
-      <c r="T3">
+      <c r="AA3">
         <v>2021</v>
       </c>
-      <c r="U3">
-        <f>T3+1</f>
+      <c r="AB3">
+        <f>AA3+1</f>
         <v>2022</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:AC3" si="0">U3+1</f>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AJ3" si="0">AB3+1</f>
         <v>2023</v>
       </c>
-      <c r="W3">
+      <c r="AD3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="X3">
+      <c r="AE3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="Y3">
+      <c r="AF3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Z3">
+      <c r="AG3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AA3">
+      <c r="AH3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AB3">
+      <c r="AI3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AC3">
+      <c r="AJ3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13">
+      <c r="C4" s="12">
+        <v>137</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
+        <v>49</v>
+      </c>
+      <c r="H4" s="12">
         <v>151</v>
       </c>
-      <c r="E4" s="13">
+      <c r="I4" s="12">
         <v>-22</v>
       </c>
-      <c r="F4" s="13">
+      <c r="J4" s="12">
         <v>-2</v>
       </c>
-      <c r="G4" s="13">
+      <c r="K4" s="12">
         <v>-109</v>
       </c>
-      <c r="H4" s="13">
+      <c r="L4" s="12">
         <v>-7</v>
       </c>
-      <c r="I4" s="13">
+      <c r="M4" s="12">
         <v>62</v>
       </c>
-      <c r="J4" s="13">
+      <c r="N4" s="12">
         <v>203</v>
       </c>
-      <c r="K4" s="13">
+      <c r="O4" s="12">
         <v>278</v>
       </c>
-      <c r="L4" s="13">
+      <c r="P4" s="12">
         <v>375</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="W4" s="3">
+        <v>-169</v>
+      </c>
+      <c r="X4" s="3">
+        <v>-138</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>455</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4:Z10" si="1">SUM(G4:J4)</f>
+        <v>176</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4:AA7" si="2">SUM(K4:N4)</f>
+        <v>149</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>SUM(O4:R4)</f>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
+      <c r="C5" s="12">
+        <v>170</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
+        <v>135</v>
+      </c>
+      <c r="H5" s="12">
         <v>148</v>
       </c>
-      <c r="E5" s="13">
+      <c r="I5" s="12">
         <v>178</v>
       </c>
-      <c r="F5" s="13">
+      <c r="J5" s="12">
         <v>196</v>
       </c>
-      <c r="G5" s="13">
+      <c r="K5" s="12">
         <v>198</v>
       </c>
-      <c r="H5" s="13">
+      <c r="L5" s="12">
         <v>192</v>
       </c>
-      <c r="I5" s="13">
+      <c r="M5" s="12">
         <v>182</v>
       </c>
-      <c r="J5" s="13">
+      <c r="N5" s="12">
         <v>181</v>
       </c>
-      <c r="K5" s="13">
+      <c r="O5" s="12">
         <v>440</v>
       </c>
-      <c r="L5" s="13">
+      <c r="P5" s="12">
         <v>193</v>
       </c>
-      <c r="M5" s="13">
-        <f>+I5</f>
+      <c r="Q5" s="12">
+        <f>+M5</f>
         <v>182</v>
       </c>
-      <c r="N5" s="13">
-        <f t="shared" ref="N5" si="1">+J5</f>
+      <c r="R5" s="12">
+        <f t="shared" ref="R5" si="3">+N5</f>
         <v>181</v>
       </c>
-      <c r="U5" s="3">
-        <f t="shared" ref="U5:U10" si="2">SUM(K5:N5)</f>
+      <c r="W5" s="3">
+        <v>477</v>
+      </c>
+      <c r="X5" s="3">
+        <v>595</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>659</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="2"/>
+        <v>753</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>SUM(O5:R5)</f>
         <v>996</v>
       </c>
-      <c r="V5" s="3">
-        <f>+U5*1.01</f>
+      <c r="AC5" s="3">
+        <f>+AB5*1.01</f>
         <v>1005.96</v>
       </c>
-      <c r="W5" s="3">
-        <f t="shared" ref="W5:AC5" si="3">+V5*1.01</f>
+      <c r="AD5" s="3">
+        <f t="shared" ref="AD5:AJ5" si="4">+AC5*1.01</f>
         <v>1016.0196000000001</v>
       </c>
-      <c r="X5" s="3">
-        <f t="shared" si="3"/>
+      <c r="AE5" s="3">
+        <f t="shared" si="4"/>
         <v>1026.1797960000001</v>
       </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="3"/>
+      <c r="AF5" s="3">
+        <f t="shared" si="4"/>
         <v>1036.4415939600001</v>
       </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="3"/>
+      <c r="AG5" s="3">
+        <f t="shared" si="4"/>
         <v>1046.8060098996002</v>
       </c>
-      <c r="AA5" s="3">
-        <f t="shared" si="3"/>
+      <c r="AH5" s="3">
+        <f t="shared" si="4"/>
         <v>1057.2740699985961</v>
       </c>
-      <c r="AB5" s="3">
-        <f t="shared" si="3"/>
+      <c r="AI5" s="3">
+        <f t="shared" si="4"/>
         <v>1067.8468106985822</v>
       </c>
-      <c r="AC5" s="3">
-        <f t="shared" si="3"/>
+      <c r="AJ5" s="3">
+        <f t="shared" si="4"/>
         <v>1078.525278805568</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13">
+      <c r="C6" s="12">
+        <v>1825</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
+        <v>2777</v>
+      </c>
+      <c r="H6" s="12">
         <v>3007</v>
       </c>
-      <c r="E6" s="13">
+      <c r="I6" s="12">
         <v>3444</v>
       </c>
-      <c r="F6" s="13">
+      <c r="J6" s="12">
         <v>3831</v>
       </c>
-      <c r="G6" s="13">
+      <c r="K6" s="12">
         <v>4047</v>
       </c>
-      <c r="H6" s="13">
+      <c r="L6" s="12">
         <v>4628</v>
       </c>
-      <c r="I6" s="13">
+      <c r="M6" s="12">
         <v>4990</v>
       </c>
-      <c r="J6" s="13">
+      <c r="N6" s="12">
         <v>5541</v>
       </c>
-      <c r="K6" s="13">
+      <c r="O6" s="12">
         <v>5821</v>
       </c>
-      <c r="L6" s="13">
+      <c r="P6" s="12">
         <v>6276</v>
       </c>
-      <c r="M6" s="13">
-        <f>+I6*1.4</f>
+      <c r="Q6" s="12">
+        <f>+M6*1.4</f>
         <v>6986</v>
       </c>
-      <c r="N6" s="13">
-        <f t="shared" ref="N6" si="4">+J6*1.4</f>
+      <c r="R6" s="12">
+        <f t="shared" ref="R6" si="5">+N6*1.4</f>
         <v>7757.4</v>
       </c>
-      <c r="U6" s="3">
+      <c r="W6" s="3">
+        <v>4056</v>
+      </c>
+      <c r="X6" s="3">
+        <v>5838</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>8918</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="1"/>
+        <v>13059</v>
+      </c>
+      <c r="AA6" s="3">
         <f t="shared" si="2"/>
+        <v>19206</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>SUM(O6:R6)</f>
         <v>26840.400000000001</v>
       </c>
-      <c r="V6" s="3">
-        <f>+U6*1.4</f>
+      <c r="AC6" s="3">
+        <f>+AB6*1.4</f>
         <v>37576.559999999998</v>
       </c>
-      <c r="W6" s="3">
-        <f t="shared" ref="W6" si="5">+V6*1.4</f>
+      <c r="AD6" s="3">
+        <f t="shared" ref="AD6" si="6">+AC6*1.4</f>
         <v>52607.183999999994</v>
       </c>
-      <c r="X6" s="3">
-        <f>+W6*1.3</f>
+      <c r="AE6" s="3">
+        <f>+AD6*1.3</f>
         <v>68389.339199999988</v>
       </c>
-      <c r="Y6" s="3">
-        <f>+X6*1.3</f>
+      <c r="AF6" s="3">
+        <f>+AE6*1.3</f>
         <v>88906.14095999999</v>
       </c>
-      <c r="Z6" s="3">
-        <f>+Y6*1.3</f>
+      <c r="AG6" s="3">
+        <f>+AF6*1.3</f>
         <v>115577.98324799999</v>
       </c>
-      <c r="AA6" s="3">
-        <f>+Z6*1.2</f>
+      <c r="AH6" s="3">
+        <f>+AG6*1.2</f>
         <v>138693.57989759999</v>
       </c>
-      <c r="AB6" s="3">
-        <f>+AA6*1.2</f>
+      <c r="AI6" s="3">
+        <f>+AH6*1.2</f>
         <v>166432.29587711999</v>
       </c>
-      <c r="AC6" s="3">
-        <f>+AB6*1.2</f>
+      <c r="AJ6" s="3">
+        <f>+AI6*1.2</f>
         <v>199718.75505254397</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13">
+      <c r="C7" s="12">
+        <v>3620</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
+        <v>4435</v>
+      </c>
+      <c r="H7" s="12">
         <v>5124</v>
       </c>
-      <c r="E7" s="13">
+      <c r="I7" s="12">
         <v>5478</v>
       </c>
-      <c r="F7" s="13">
+      <c r="J7" s="12">
         <v>6674</v>
       </c>
-      <c r="G7" s="13">
+      <c r="K7" s="12">
         <v>6494</v>
       </c>
-      <c r="H7" s="13">
+      <c r="L7" s="12">
         <v>6623</v>
       </c>
-      <c r="I7" s="13">
+      <c r="M7" s="12">
         <v>6754</v>
       </c>
-      <c r="J7" s="13">
+      <c r="N7" s="12">
         <v>8161</v>
       </c>
-      <c r="K7" s="13">
+      <c r="O7" s="12">
         <v>6811</v>
       </c>
-      <c r="L7" s="13">
+      <c r="P7" s="12">
         <v>6553</v>
       </c>
-      <c r="M7" s="13">
-        <f>+I7*1.03</f>
+      <c r="Q7" s="12">
+        <f>+M7*1.03</f>
         <v>6956.62</v>
       </c>
-      <c r="N7" s="13">
-        <f>+J7*1.03</f>
+      <c r="R7" s="12">
+        <f>+N7*1.03</f>
         <v>8405.83</v>
       </c>
-      <c r="U7" s="3">
+      <c r="W7" s="3">
+        <v>10914</v>
+      </c>
+      <c r="X7" s="3">
+        <v>14063</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>17014</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="1"/>
+        <v>21711</v>
+      </c>
+      <c r="AA7" s="3">
         <f t="shared" si="2"/>
+        <v>28032</v>
+      </c>
+      <c r="AB7" s="3">
+        <f>SUM(O7:R7)</f>
         <v>28726.449999999997</v>
       </c>
-      <c r="V7" s="3">
-        <f>+U7*1.03</f>
+      <c r="AC7" s="3">
+        <f>+AB7*1.03</f>
         <v>29588.243499999997</v>
       </c>
-      <c r="W7" s="3">
-        <f t="shared" ref="W7:AC7" si="6">+V7*1.03</f>
+      <c r="AD7" s="3">
+        <f t="shared" ref="AD7:AJ7" si="7">+AC7*1.03</f>
         <v>30475.890804999999</v>
       </c>
-      <c r="X7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AE7" s="3">
+        <f t="shared" si="7"/>
         <v>31390.16752915</v>
       </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AF7" s="3">
+        <f t="shared" si="7"/>
         <v>32331.8725550245</v>
       </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AG7" s="3">
+        <f t="shared" si="7"/>
         <v>33301.828731675232</v>
       </c>
-      <c r="AA7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AH7" s="3">
+        <f t="shared" si="7"/>
         <v>34300.883593625491</v>
       </c>
-      <c r="AB7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AI7" s="3">
+        <f t="shared" si="7"/>
         <v>35329.91010143426</v>
       </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="6"/>
+      <c r="AJ7" s="3">
+        <f t="shared" si="7"/>
         <v>36389.807404477287</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
+      <c r="C8" s="12">
+        <v>5015</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
+        <v>5223</v>
+      </c>
+      <c r="H8" s="12">
         <v>4736</v>
       </c>
-      <c r="E8" s="13">
+      <c r="I8" s="12">
         <v>5720</v>
       </c>
-      <c r="F8" s="13">
+      <c r="J8" s="12">
         <v>7411</v>
       </c>
-      <c r="G8" s="13">
+      <c r="K8" s="12">
         <v>6800</v>
       </c>
-      <c r="H8" s="13">
+      <c r="L8" s="12">
         <v>7597</v>
       </c>
-      <c r="I8" s="13">
+      <c r="M8" s="12">
         <v>7999</v>
       </c>
-      <c r="J8" s="13">
+      <c r="N8" s="12">
         <v>9305</v>
       </c>
-      <c r="K8" s="13">
+      <c r="O8" s="12">
         <v>8174</v>
       </c>
-      <c r="L8" s="13">
+      <c r="P8" s="12">
         <v>8259</v>
       </c>
-      <c r="M8" s="13">
-        <f>+I8*1.1</f>
+      <c r="Q8" s="12">
+        <f>+M8*1.1</f>
         <v>8798.9000000000015</v>
       </c>
-      <c r="N8" s="13">
-        <f>+J8*1.1</f>
+      <c r="R8" s="12">
+        <f>+N8*1.1</f>
         <v>10235.5</v>
       </c>
-      <c r="U8" s="3">
-        <f t="shared" si="2"/>
+      <c r="W8" s="3">
+        <v>17616</v>
+      </c>
+      <c r="X8" s="3">
+        <v>20010</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>21547</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="1"/>
+        <v>23090</v>
+      </c>
+      <c r="AA8" s="3">
+        <f>SUM(K8:N8)</f>
+        <v>31701</v>
+      </c>
+      <c r="AB8" s="3">
+        <f>SUM(O8:R8)</f>
         <v>35467.4</v>
       </c>
-      <c r="V8" s="3">
-        <f>+U8*1.03</f>
+      <c r="AC8" s="3">
+        <f>+AB8*1.03</f>
         <v>36531.422000000006</v>
       </c>
-      <c r="W8" s="3">
-        <f t="shared" ref="W8:AC8" si="7">+V8*1.03</f>
+      <c r="AD8" s="3">
+        <f t="shared" ref="AD8:AJ8" si="8">+AC8*1.03</f>
         <v>37627.364660000007</v>
       </c>
-      <c r="X8" s="3">
-        <f t="shared" si="7"/>
+      <c r="AE8" s="3">
+        <f t="shared" si="8"/>
         <v>38756.18559980001</v>
       </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="7"/>
+      <c r="AF8" s="3">
+        <f t="shared" si="8"/>
         <v>39918.871167794008</v>
       </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="7"/>
+      <c r="AG8" s="3">
+        <f t="shared" si="8"/>
         <v>41116.437302827828</v>
       </c>
-      <c r="AA8" s="3">
-        <f t="shared" si="7"/>
+      <c r="AH8" s="3">
+        <f t="shared" si="8"/>
         <v>42349.930421912664</v>
       </c>
-      <c r="AB8" s="3">
-        <f t="shared" si="7"/>
+      <c r="AI8" s="3">
+        <f t="shared" si="8"/>
         <v>43620.428334570046</v>
       </c>
-      <c r="AC8" s="3">
-        <f t="shared" si="7"/>
+      <c r="AJ8" s="3">
+        <f t="shared" si="8"/>
         <v>44929.041184607151</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13">
+      <c r="C9" s="12">
+        <v>3025</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
+        <v>4038</v>
+      </c>
+      <c r="H9" s="12">
         <v>3812</v>
       </c>
-      <c r="E9" s="13">
+      <c r="I9" s="12">
         <v>5037</v>
       </c>
-      <c r="F9" s="13">
+      <c r="J9" s="12">
         <v>6885</v>
       </c>
-      <c r="G9" s="13">
+      <c r="K9" s="12">
         <v>6005</v>
       </c>
-      <c r="H9" s="13">
+      <c r="L9" s="12">
         <v>7002</v>
       </c>
-      <c r="I9" s="13">
+      <c r="M9" s="12">
         <v>7205</v>
       </c>
-      <c r="J9" s="13">
+      <c r="N9" s="12">
         <v>8633</v>
       </c>
-      <c r="K9" s="13">
+      <c r="O9" s="12">
         <v>6869</v>
       </c>
-      <c r="L9" s="13">
+      <c r="P9" s="12">
         <v>7340</v>
       </c>
-      <c r="M9" s="13">
-        <f>+I9*1.06</f>
+      <c r="Q9" s="12">
+        <f>+M9*1.06</f>
         <v>7637.3</v>
       </c>
-      <c r="N9" s="13">
-        <f>+J9*1.06</f>
+      <c r="R9" s="12">
+        <f>+N9*1.06</f>
         <v>9150.98</v>
       </c>
-      <c r="U9" s="3">
-        <f t="shared" si="2"/>
+      <c r="W9" s="3">
+        <v>8150</v>
+      </c>
+      <c r="X9" s="3">
+        <v>11155</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>15149</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="1"/>
+        <v>19772</v>
+      </c>
+      <c r="AA9" s="3">
+        <f>SUM(K9:N9)</f>
+        <v>28845</v>
+      </c>
+      <c r="AB9" s="3">
+        <f>SUM(O9:R9)</f>
         <v>30997.279999999999</v>
       </c>
-      <c r="V9" s="3">
-        <f>+U9*1.05</f>
+      <c r="AC9" s="3">
+        <f>+AB9*1.05</f>
         <v>32547.144</v>
       </c>
-      <c r="W9" s="3">
-        <f t="shared" ref="W9:AC9" si="8">+V9*1.05</f>
+      <c r="AD9" s="3">
+        <f t="shared" ref="AD9:AJ9" si="9">+AC9*1.05</f>
         <v>34174.501199999999</v>
       </c>
-      <c r="X9" s="3">
-        <f t="shared" si="8"/>
+      <c r="AE9" s="3">
+        <f t="shared" si="9"/>
         <v>35883.226260000003</v>
       </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="8"/>
+      <c r="AF9" s="3">
+        <f t="shared" si="9"/>
         <v>37677.387573000007</v>
       </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="8"/>
+      <c r="AG9" s="3">
+        <f t="shared" si="9"/>
         <v>39561.256951650008</v>
       </c>
-      <c r="AA9" s="3">
-        <f t="shared" si="8"/>
+      <c r="AH9" s="3">
+        <f t="shared" si="9"/>
         <v>41539.319799232508</v>
       </c>
-      <c r="AB9" s="3">
-        <f t="shared" si="8"/>
+      <c r="AI9" s="3">
+        <f t="shared" si="9"/>
         <v>43616.285789194138</v>
       </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="8"/>
+      <c r="AJ9" s="3">
+        <f t="shared" si="9"/>
         <v>45797.10007865385</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13">
+      <c r="C10" s="12">
+        <v>22547</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
+        <v>24502</v>
+      </c>
+      <c r="H10" s="12">
         <v>21319</v>
       </c>
-      <c r="E10" s="13">
+      <c r="I10" s="12">
         <v>26338</v>
       </c>
-      <c r="F10" s="13">
+      <c r="J10" s="12">
         <v>31903</v>
       </c>
-      <c r="G10" s="13">
+      <c r="K10" s="12">
         <v>31879</v>
       </c>
-      <c r="H10" s="13">
+      <c r="L10" s="12">
         <v>35845</v>
       </c>
-      <c r="I10" s="13">
+      <c r="M10" s="12">
         <v>37926</v>
       </c>
-      <c r="J10" s="13">
+      <c r="N10" s="12">
         <v>43301</v>
       </c>
-      <c r="K10" s="13">
+      <c r="O10" s="12">
         <v>39618</v>
       </c>
-      <c r="L10" s="13">
+      <c r="P10" s="12">
         <v>40689</v>
       </c>
-      <c r="M10" s="13">
-        <f>+I10*1.1</f>
+      <c r="Q10" s="12">
+        <f>+M10*1.1</f>
         <v>41718.600000000006</v>
       </c>
-      <c r="N10" s="13">
-        <f>+J10*1.1</f>
+      <c r="R10" s="12">
+        <f>+N10*1.1</f>
         <v>47631.100000000006</v>
       </c>
-      <c r="U10" s="3">
-        <f t="shared" si="2"/>
+      <c r="W10" s="3">
+        <v>69811</v>
+      </c>
+      <c r="X10" s="3">
+        <v>85296</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>98115</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="1"/>
+        <v>104062</v>
+      </c>
+      <c r="AA10" s="3">
+        <f>SUM(K10:N10)</f>
+        <v>148951</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>SUM(O10:R10)</f>
         <v>169656.7</v>
       </c>
-      <c r="V10" s="3">
-        <f>+U10*1.1</f>
+      <c r="AC10" s="3">
+        <f>+AB10*1.1</f>
         <v>186622.37000000002</v>
       </c>
-      <c r="W10" s="3">
-        <f t="shared" ref="W10:AC10" si="9">+V10*1.1</f>
+      <c r="AD10" s="3">
+        <f t="shared" ref="AD10:AJ10" si="10">+AC10*1.1</f>
         <v>205284.60700000005</v>
       </c>
-      <c r="X10" s="3">
-        <f t="shared" si="9"/>
+      <c r="AE10" s="3">
+        <f t="shared" si="10"/>
         <v>225813.06770000007</v>
       </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="9"/>
+      <c r="AF10" s="3">
+        <f t="shared" si="10"/>
         <v>248394.3744700001</v>
       </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="9"/>
+      <c r="AG10" s="3">
+        <f t="shared" si="10"/>
         <v>273233.8119170001</v>
       </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="9"/>
+      <c r="AH10" s="3">
+        <f t="shared" si="10"/>
         <v>300557.19310870016</v>
       </c>
-      <c r="AB10" s="3">
-        <f t="shared" si="9"/>
+      <c r="AI10" s="3">
+        <f t="shared" si="10"/>
         <v>330612.9124195702</v>
       </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="9"/>
+      <c r="AJ10" s="3">
+        <f t="shared" si="10"/>
         <v>363674.20366152725</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13">
-        <f t="shared" ref="D11" si="10">SUM(D7:D10)</f>
+      <c r="C11" s="12">
+        <f t="shared" ref="C11:G11" si="11">SUM(C7:C10)</f>
+        <v>34207</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="11"/>
+        <v>38198</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" ref="H11" si="12">SUM(H7:H10)</f>
         <v>34991</v>
       </c>
-      <c r="E11" s="13">
-        <f>SUM(E7:E10)</f>
+      <c r="I11" s="12">
+        <f>SUM(I7:I10)</f>
         <v>42573</v>
       </c>
-      <c r="F11" s="13">
-        <f>SUM(F7:F10)</f>
+      <c r="J11" s="12">
+        <f>SUM(J7:J10)</f>
         <v>52873</v>
       </c>
-      <c r="G11" s="13">
+      <c r="K11" s="12">
         <v>51178</v>
       </c>
-      <c r="H11" s="13">
-        <f t="shared" ref="H11" si="11">SUM(H7:H10)</f>
+      <c r="L11" s="12">
+        <f t="shared" ref="L11" si="13">SUM(L7:L10)</f>
         <v>57067</v>
       </c>
-      <c r="I11" s="13">
-        <f t="shared" ref="I11:N11" si="12">SUM(I7:I10)</f>
+      <c r="M11" s="12">
+        <f t="shared" ref="M11:R11" si="14">SUM(M7:M10)</f>
         <v>59884</v>
       </c>
-      <c r="J11" s="13">
-        <f t="shared" si="12"/>
+      <c r="N11" s="12">
+        <f t="shared" si="14"/>
         <v>69400</v>
       </c>
-      <c r="K11" s="13">
-        <f t="shared" si="12"/>
+      <c r="O11" s="12">
+        <f t="shared" si="14"/>
         <v>61472</v>
       </c>
-      <c r="L11" s="13">
-        <f t="shared" si="12"/>
+      <c r="P11" s="12">
+        <f t="shared" si="14"/>
         <v>62841</v>
       </c>
-      <c r="M11" s="13">
-        <f t="shared" si="12"/>
+      <c r="Q11" s="12">
+        <f t="shared" si="14"/>
         <v>65111.420000000006</v>
       </c>
-      <c r="N11" s="13">
-        <f t="shared" si="12"/>
+      <c r="R11" s="12">
+        <f t="shared" si="14"/>
         <v>75423.41</v>
       </c>
-      <c r="U11" s="13">
-        <f>SUM(U7:U10)</f>
+      <c r="W11" s="12">
+        <f t="shared" ref="W11:Z11" si="15">SUM(W7:W10)</f>
+        <v>106491</v>
+      </c>
+      <c r="X11" s="12">
+        <f t="shared" si="15"/>
+        <v>130524</v>
+      </c>
+      <c r="Y11" s="12">
+        <f t="shared" si="15"/>
+        <v>151825</v>
+      </c>
+      <c r="Z11" s="12">
+        <f t="shared" si="15"/>
+        <v>168635</v>
+      </c>
+      <c r="AA11" s="12">
+        <f>SUM(AA7:AA10)</f>
+        <v>237529</v>
+      </c>
+      <c r="AB11" s="12">
+        <f>SUM(AB7:AB10)</f>
         <v>264847.83</v>
       </c>
-      <c r="V11" s="13">
-        <f>SUM(V7:V10)</f>
+      <c r="AC11" s="12">
+        <f>SUM(AC7:AC10)</f>
         <v>285289.17950000003</v>
       </c>
-      <c r="W11" s="13">
-        <f t="shared" ref="W11:AC11" si="13">SUM(W7:W10)</f>
+      <c r="AD11" s="12">
+        <f t="shared" ref="AD11:AJ11" si="16">SUM(AD7:AD10)</f>
         <v>307562.36366500007</v>
       </c>
-      <c r="X11" s="13">
-        <f t="shared" si="13"/>
+      <c r="AE11" s="12">
+        <f t="shared" si="16"/>
         <v>331842.64708895009</v>
       </c>
-      <c r="Y11" s="13">
-        <f t="shared" si="13"/>
+      <c r="AF11" s="12">
+        <f t="shared" si="16"/>
         <v>358322.50576581864</v>
       </c>
-      <c r="Z11" s="13">
-        <f t="shared" si="13"/>
+      <c r="AG11" s="12">
+        <f t="shared" si="16"/>
         <v>387213.33490315318</v>
       </c>
-      <c r="AA11" s="13">
-        <f t="shared" si="13"/>
+      <c r="AH11" s="12">
+        <f t="shared" si="16"/>
         <v>418747.32692347083</v>
       </c>
-      <c r="AB11" s="13">
-        <f t="shared" si="13"/>
+      <c r="AI11" s="12">
+        <f t="shared" si="16"/>
         <v>453179.53664476867</v>
       </c>
-      <c r="AC11" s="13">
-        <f t="shared" si="13"/>
+      <c r="AJ11" s="12">
+        <f t="shared" si="16"/>
         <v>490790.15232926555</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12">
-        <f t="shared" ref="D12" si="14">D11+D6+D5+D4</f>
+      <c r="C12" s="11">
+        <f t="shared" ref="C12:G12" si="17">C11+C6+C5+C4</f>
+        <v>36339</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="17"/>
+        <v>41159</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" ref="H12" si="18">H11+H6+H5+H4</f>
         <v>38297</v>
       </c>
-      <c r="E12" s="12">
-        <f>E11+E6+E5+E4</f>
+      <c r="I12" s="11">
+        <f>I11+I6+I5+I4</f>
         <v>46173</v>
       </c>
-      <c r="F12" s="12">
-        <f>F11+F6+F5+F4</f>
+      <c r="J12" s="11">
+        <f>J11+J6+J5+J4</f>
         <v>56898</v>
       </c>
-      <c r="G12" s="12">
+      <c r="K12" s="11">
         <v>55314</v>
       </c>
-      <c r="H12" s="12">
-        <f t="shared" ref="H12" si="15">H11+H6+H5+H4</f>
+      <c r="L12" s="11">
+        <f t="shared" ref="L12" si="19">L11+L6+L5+L4</f>
         <v>61880</v>
       </c>
-      <c r="I12" s="12">
-        <f>I11+I6+I5+I4</f>
+      <c r="M12" s="11">
+        <f>M11+M6+M5+M4</f>
         <v>65118</v>
       </c>
-      <c r="J12" s="12">
-        <f>J11+J6+J5+J4</f>
+      <c r="N12" s="11">
+        <f>N11+N6+N5+N4</f>
         <v>75325</v>
       </c>
-      <c r="K12" s="12">
-        <f>K11+K6+K5+K4</f>
+      <c r="O12" s="11">
+        <f>O11+O6+O5+O4</f>
         <v>68011</v>
       </c>
-      <c r="L12" s="12">
-        <f>L11+L6+L5+L4</f>
+      <c r="P12" s="11">
+        <f>P11+P6+P5+P4</f>
         <v>69685</v>
       </c>
-      <c r="M12" s="12">
-        <f t="shared" ref="M12:N12" si="16">M11+M6+M5+M4</f>
+      <c r="Q12" s="11">
+        <f t="shared" ref="Q12:R12" si="20">Q11+Q6+Q5+Q4</f>
         <v>72279.420000000013</v>
       </c>
-      <c r="N12" s="12">
-        <f t="shared" si="16"/>
+      <c r="R12" s="11">
+        <f t="shared" si="20"/>
         <v>83361.81</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="S12" s="11">
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11">
+        <f t="shared" ref="W12:Z12" si="21">W11+W6+W5+W4</f>
+        <v>110855</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="21"/>
+        <v>136819</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="21"/>
+        <v>161857</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="21"/>
         <v>182527</v>
       </c>
-      <c r="T12" s="11">
+      <c r="AA12" s="11">
+        <f>AA11+AA6+AA5+AA4</f>
         <v>257637</v>
       </c>
-      <c r="U12" s="12">
-        <f t="shared" ref="U12:V12" si="17">U11+U6+U5+U4</f>
-        <v>292684.23000000004</v>
-      </c>
-      <c r="V12" s="12">
-        <f t="shared" si="17"/>
+      <c r="AB12" s="11">
+        <f>AB11+AB6+AB5+AB4</f>
+        <v>293337.23000000004</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" ref="AC12" si="22">AC11+AC6+AC5+AC4</f>
         <v>323871.69950000005</v>
       </c>
-      <c r="W12" s="12">
-        <f t="shared" ref="W12" si="18">W11+W6+W5+W4</f>
+      <c r="AD12" s="11">
+        <f t="shared" ref="AD12" si="23">AD11+AD6+AD5+AD4</f>
         <v>361185.56726500008</v>
       </c>
-      <c r="X12" s="12">
-        <f t="shared" ref="X12" si="19">X11+X6+X5+X4</f>
+      <c r="AE12" s="11">
+        <f t="shared" ref="AE12" si="24">AE11+AE6+AE5+AE4</f>
         <v>401258.16608495009</v>
       </c>
-      <c r="Y12" s="12">
-        <f t="shared" ref="Y12" si="20">Y11+Y6+Y5+Y4</f>
+      <c r="AF12" s="11">
+        <f t="shared" ref="AF12" si="25">AF11+AF6+AF5+AF4</f>
         <v>448265.08831977862</v>
       </c>
-      <c r="Z12" s="12">
-        <f t="shared" ref="Z12" si="21">Z11+Z6+Z5+Z4</f>
+      <c r="AG12" s="11">
+        <f t="shared" ref="AG12" si="26">AG11+AG6+AG5+AG4</f>
         <v>503838.12416105275</v>
       </c>
-      <c r="AA12" s="12">
-        <f t="shared" ref="AA12" si="22">AA11+AA6+AA5+AA4</f>
+      <c r="AH12" s="11">
+        <f t="shared" ref="AH12" si="27">AH11+AH6+AH5+AH4</f>
         <v>558498.18089106947</v>
       </c>
-      <c r="AB12" s="12">
-        <f t="shared" ref="AB12" si="23">AB11+AB6+AB5+AB4</f>
+      <c r="AI12" s="11">
+        <f t="shared" ref="AI12" si="28">AI11+AI6+AI5+AI4</f>
         <v>620679.67933258729</v>
       </c>
-      <c r="AC12" s="12">
-        <f t="shared" ref="AC12" si="24">AC11+AC6+AC5+AC4</f>
+      <c r="AJ12" s="11">
+        <f t="shared" ref="AJ12" si="29">AJ11+AJ6+AJ5+AJ4</f>
         <v>691587.43266061507</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13">
+      <c r="C13" s="12">
+        <v>16012</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
+        <v>18982</v>
+      </c>
+      <c r="H13" s="12">
         <v>18553</v>
       </c>
-      <c r="E13" s="13">
+      <c r="I13" s="12">
         <v>21117</v>
       </c>
-      <c r="F13" s="13">
+      <c r="J13" s="12">
         <v>26080</v>
       </c>
-      <c r="G13" s="13">
+      <c r="K13" s="12">
         <v>24103</v>
       </c>
-      <c r="H13" s="13">
+      <c r="L13" s="12">
         <v>26227</v>
       </c>
-      <c r="I13" s="13">
+      <c r="M13" s="12">
         <v>27621</v>
       </c>
-      <c r="J13" s="13">
+      <c r="N13" s="12">
         <v>32988</v>
       </c>
-      <c r="K13" s="13">
+      <c r="O13" s="12">
         <v>29599</v>
       </c>
-      <c r="L13" s="13">
+      <c r="P13" s="12">
         <v>30104</v>
       </c>
-      <c r="M13" s="13">
-        <f>+M12-M15</f>
+      <c r="Q13" s="12">
+        <f>+Q12-Q15</f>
         <v>30718.753500000006</v>
       </c>
-      <c r="N13" s="13">
-        <f>+N12-N15</f>
+      <c r="R13" s="12">
+        <f>+R12-R15</f>
         <v>35428.769250000005</v>
       </c>
-      <c r="S13" s="3">
+      <c r="Z13" s="3">
         <v>84732</v>
       </c>
-      <c r="T13" s="3">
+      <c r="AA13" s="3">
         <v>110939</v>
       </c>
-      <c r="U13" s="3">
-        <f>SUM(K13:N13)</f>
+      <c r="AB13" s="3">
+        <f>SUM(O13:R13)</f>
         <v>125850.52275</v>
       </c>
-      <c r="V13" s="3">
-        <f>+V12-V15</f>
+      <c r="AC13" s="3">
+        <f>+AC12-AC15</f>
         <v>139264.83078500003</v>
       </c>
-      <c r="W13" s="3">
-        <f t="shared" ref="W13:AC13" si="25">+W12-W15</f>
+      <c r="AD13" s="3">
+        <f t="shared" ref="AD13:AJ13" si="30">+AD12-AD15</f>
         <v>155309.79392395006</v>
       </c>
-      <c r="X13" s="3">
-        <f t="shared" si="25"/>
+      <c r="AE13" s="3">
+        <f t="shared" si="30"/>
         <v>172541.01141652855</v>
       </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="25"/>
+      <c r="AF13" s="3">
+        <f t="shared" si="30"/>
         <v>192753.98797750482</v>
       </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="25"/>
+      <c r="AG13" s="3">
+        <f t="shared" si="30"/>
         <v>216650.39338925271</v>
       </c>
-      <c r="AA13" s="3">
-        <f t="shared" si="25"/>
+      <c r="AH13" s="3">
+        <f t="shared" si="30"/>
         <v>240154.21778315993</v>
       </c>
-      <c r="AB13" s="3">
-        <f t="shared" si="25"/>
+      <c r="AI13" s="3">
+        <f t="shared" si="30"/>
         <v>266892.26211301255</v>
       </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="25"/>
+      <c r="AJ13" s="3">
+        <f t="shared" si="30"/>
         <v>297382.5960440645</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
+      <c r="C14" s="12">
+        <v>6860</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
+        <v>7452</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12">
         <v>10929</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12">
         <v>12214</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13">
-        <f t="shared" ref="C15" si="26">C12-C13</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="13">
-        <f t="shared" ref="D15" si="27">D12-D13</f>
+      <c r="C15" s="12">
+        <f>C12-C13</f>
+        <v>20327</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
+        <f>G12-G13</f>
+        <v>22177</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" ref="H15" si="31">H12-H13</f>
         <v>19744</v>
       </c>
-      <c r="E15" s="13">
-        <f t="shared" ref="E15" si="28">E12-E13</f>
+      <c r="I15" s="12">
+        <f t="shared" ref="I15" si="32">I12-I13</f>
         <v>25056</v>
       </c>
-      <c r="F15" s="13">
-        <f t="shared" ref="F15:J15" si="29">F12-F13</f>
+      <c r="J15" s="12">
+        <f t="shared" ref="J15:N15" si="33">J12-J13</f>
         <v>30818</v>
       </c>
-      <c r="G15" s="13">
-        <f t="shared" si="29"/>
+      <c r="K15" s="12">
+        <f t="shared" si="33"/>
         <v>31211</v>
       </c>
-      <c r="H15" s="13">
-        <f t="shared" si="29"/>
+      <c r="L15" s="12">
+        <f t="shared" si="33"/>
         <v>35653</v>
       </c>
-      <c r="I15" s="13">
-        <f t="shared" si="29"/>
+      <c r="M15" s="12">
+        <f t="shared" si="33"/>
         <v>37497</v>
       </c>
-      <c r="J15" s="13">
-        <f t="shared" si="29"/>
+      <c r="N15" s="12">
+        <f t="shared" si="33"/>
         <v>42337</v>
       </c>
-      <c r="K15" s="13">
-        <f>K12-K13</f>
+      <c r="O15" s="12">
+        <f>O12-O13</f>
         <v>38412</v>
       </c>
-      <c r="L15" s="13">
-        <f t="shared" ref="L15" si="30">L12-L13</f>
+      <c r="P15" s="12">
+        <f t="shared" ref="P15" si="34">P12-P13</f>
         <v>39581</v>
       </c>
-      <c r="M15" s="13">
-        <f>+M12*0.575</f>
+      <c r="Q15" s="12">
+        <f>+Q12*0.575</f>
         <v>41560.666500000007</v>
       </c>
-      <c r="N15" s="13">
-        <f>+N12*0.575</f>
+      <c r="R15" s="12">
+        <f>+R12*0.575</f>
         <v>47933.040749999993</v>
       </c>
-      <c r="S15" s="3">
-        <f>S12-S13</f>
+      <c r="Z15" s="3">
+        <f>Z12-Z13</f>
         <v>97795</v>
       </c>
-      <c r="T15" s="3">
-        <f t="shared" ref="T15" si="31">T12-T13</f>
+      <c r="AA15" s="3">
+        <f t="shared" ref="AA15" si="35">AA12-AA13</f>
         <v>146698</v>
       </c>
-      <c r="U15" s="3">
-        <f>+U12-U13</f>
-        <v>166833.70725000004</v>
-      </c>
-      <c r="V15" s="3">
-        <f>+V12*0.57</f>
+      <c r="AB15" s="3">
+        <f>+AB12-AB13</f>
+        <v>167486.70725000004</v>
+      </c>
+      <c r="AC15" s="3">
+        <f>+AC12*0.57</f>
         <v>184606.86871500002</v>
       </c>
-      <c r="W15" s="3">
-        <f t="shared" ref="W15:AC15" si="32">+W12*0.57</f>
+      <c r="AD15" s="3">
+        <f t="shared" ref="AD15:AJ15" si="36">+AD12*0.57</f>
         <v>205875.77334105002</v>
       </c>
-      <c r="X15" s="3">
-        <f t="shared" si="32"/>
+      <c r="AE15" s="3">
+        <f t="shared" si="36"/>
         <v>228717.15466842154</v>
       </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="32"/>
+      <c r="AF15" s="3">
+        <f t="shared" si="36"/>
         <v>255511.1003422738</v>
       </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="32"/>
+      <c r="AG15" s="3">
+        <f t="shared" si="36"/>
         <v>287187.73077180004</v>
       </c>
-      <c r="AA15" s="3">
-        <f t="shared" si="32"/>
+      <c r="AH15" s="3">
+        <f t="shared" si="36"/>
         <v>318343.96310790954</v>
       </c>
-      <c r="AB15" s="3">
-        <f t="shared" si="32"/>
+      <c r="AI15" s="3">
+        <f t="shared" si="36"/>
         <v>353787.41721957474</v>
       </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="32"/>
+      <c r="AJ15" s="3">
+        <f t="shared" si="36"/>
         <v>394204.83661655057</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13">
+      <c r="C16" s="12">
+        <v>6029</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12">
+        <v>6820</v>
+      </c>
+      <c r="H16" s="12">
         <v>6875</v>
       </c>
-      <c r="E16" s="13">
+      <c r="I16" s="12">
         <v>6856</v>
       </c>
-      <c r="F16" s="13">
+      <c r="J16" s="12">
         <v>7022</v>
       </c>
-      <c r="G16" s="13">
+      <c r="K16" s="12">
         <v>7485</v>
       </c>
-      <c r="H16" s="13">
+      <c r="L16" s="12">
         <v>7675</v>
       </c>
-      <c r="I16" s="13">
+      <c r="M16" s="12">
         <v>7694</v>
       </c>
-      <c r="J16" s="13">
+      <c r="N16" s="12">
         <v>8708</v>
       </c>
-      <c r="K16" s="13">
+      <c r="O16" s="12">
         <v>9119</v>
       </c>
-      <c r="L16" s="13">
+      <c r="P16" s="12">
         <v>9841</v>
       </c>
-      <c r="M16" s="13">
-        <f>+I16*1.1</f>
+      <c r="Q16" s="12">
+        <f>+M16*1.1</f>
         <v>8463.4000000000015</v>
       </c>
-      <c r="N16" s="13">
-        <f>+J16*1.1</f>
+      <c r="R16" s="12">
+        <f>+N16*1.1</f>
         <v>9578.8000000000011</v>
       </c>
-      <c r="S16" s="3">
+      <c r="Z16" s="3">
         <v>27573</v>
       </c>
-      <c r="T16" s="3">
+      <c r="AA16" s="3">
         <v>31562</v>
       </c>
-      <c r="U16" s="3">
-        <f t="shared" ref="U16:U18" si="33">SUM(K16:N16)</f>
+      <c r="AB16" s="3">
+        <f t="shared" ref="AB16:AB18" si="37">SUM(O16:R16)</f>
         <v>37002.200000000004</v>
       </c>
-      <c r="V16" s="3">
-        <f>+U16*1.05</f>
+      <c r="AC16" s="3">
+        <f>+AB16*1.05</f>
         <v>38852.310000000005</v>
       </c>
-      <c r="W16" s="3">
-        <f t="shared" ref="W16:AC16" si="34">+V16*1.05</f>
+      <c r="AD16" s="3">
+        <f t="shared" ref="AD16:AJ16" si="38">+AC16*1.05</f>
         <v>40794.925500000005</v>
       </c>
-      <c r="X16" s="3">
-        <f t="shared" si="34"/>
+      <c r="AE16" s="3">
+        <f t="shared" si="38"/>
         <v>42834.67177500001</v>
       </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="34"/>
+      <c r="AF16" s="3">
+        <f t="shared" si="38"/>
         <v>44976.405363750011</v>
       </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="34"/>
+      <c r="AG16" s="3">
+        <f t="shared" si="38"/>
         <v>47225.225631937516</v>
       </c>
-      <c r="AA16" s="3">
-        <f t="shared" si="34"/>
+      <c r="AH16" s="3">
+        <f t="shared" si="38"/>
         <v>49586.486913534391</v>
       </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="34"/>
+      <c r="AI16" s="3">
+        <f t="shared" si="38"/>
         <v>52065.811259211114</v>
       </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="34"/>
+      <c r="AJ16" s="3">
+        <f t="shared" si="38"/>
         <v>54669.101822171673</v>
       </c>
     </row>
-    <row r="17" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13">
+      <c r="C17" s="12">
+        <v>3905</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
+        <v>4500</v>
+      </c>
+      <c r="H17" s="12">
         <v>3901</v>
       </c>
-      <c r="E17" s="13">
+      <c r="I17" s="12">
         <v>4231</v>
       </c>
-      <c r="F17" s="13">
+      <c r="J17" s="12">
         <v>5314</v>
       </c>
-      <c r="G17" s="13">
+      <c r="K17" s="12">
         <v>4516</v>
       </c>
-      <c r="H17" s="13">
+      <c r="L17" s="12">
         <v>5276</v>
       </c>
-      <c r="I17" s="13">
+      <c r="M17" s="12">
         <v>5516</v>
       </c>
-      <c r="J17" s="13">
+      <c r="N17" s="12">
         <v>7604</v>
       </c>
-      <c r="K17" s="13">
+      <c r="O17" s="12">
         <v>5825</v>
       </c>
-      <c r="L17" s="13">
+      <c r="P17" s="12">
         <v>6630</v>
       </c>
-      <c r="M17" s="13">
-        <f>+I17*1.05</f>
+      <c r="Q17" s="12">
+        <f>+M17*1.05</f>
         <v>5791.8</v>
       </c>
-      <c r="N17" s="13">
-        <f>+J17*1.05</f>
+      <c r="R17" s="12">
+        <f>+N17*1.05</f>
         <v>7984.2000000000007</v>
       </c>
-      <c r="S17" s="3">
+      <c r="Z17" s="3">
         <v>17946</v>
       </c>
-      <c r="T17" s="3">
+      <c r="AA17" s="3">
         <v>22912</v>
       </c>
-      <c r="U17" s="3">
-        <f t="shared" si="33"/>
+      <c r="AB17" s="3">
+        <f t="shared" si="37"/>
         <v>26231</v>
       </c>
-      <c r="V17" s="3">
-        <f>+U17*1.05</f>
+      <c r="AC17" s="3">
+        <f>+AB17*1.05</f>
         <v>27542.550000000003</v>
       </c>
-      <c r="W17" s="3">
-        <f t="shared" ref="W17:AC17" si="35">+V17*1.05</f>
+      <c r="AD17" s="3">
+        <f t="shared" ref="AD17:AJ17" si="39">+AC17*1.05</f>
         <v>28919.677500000005</v>
       </c>
-      <c r="X17" s="3">
-        <f t="shared" si="35"/>
+      <c r="AE17" s="3">
+        <f t="shared" si="39"/>
         <v>30365.661375000007</v>
       </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="35"/>
+      <c r="AF17" s="3">
+        <f t="shared" si="39"/>
         <v>31883.94444375001</v>
       </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="35"/>
+      <c r="AG17" s="3">
+        <f t="shared" si="39"/>
         <v>33478.14166593751</v>
       </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="35"/>
+      <c r="AH17" s="3">
+        <f t="shared" si="39"/>
         <v>35152.048749234389</v>
       </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="35"/>
+      <c r="AI17" s="3">
+        <f t="shared" si="39"/>
         <v>36909.651186696108</v>
       </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="35"/>
+      <c r="AJ17" s="3">
+        <f t="shared" si="39"/>
         <v>38755.133746030915</v>
       </c>
     </row>
-    <row r="18" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13">
+      <c r="C18" s="12">
+        <v>2088</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
+        <v>2880</v>
+      </c>
+      <c r="H18" s="12">
         <v>2585</v>
       </c>
-      <c r="E18" s="13">
+      <c r="I18" s="12">
         <v>2756</v>
       </c>
-      <c r="F18" s="13">
+      <c r="J18" s="12">
         <v>2831</v>
       </c>
-      <c r="G18" s="13">
+      <c r="K18" s="12">
         <v>2773</v>
       </c>
-      <c r="H18" s="13">
+      <c r="L18" s="12">
         <v>3341</v>
       </c>
-      <c r="I18" s="13">
+      <c r="M18" s="12">
         <v>3256</v>
       </c>
-      <c r="J18" s="13">
+      <c r="N18" s="12">
         <v>4140</v>
       </c>
-      <c r="K18" s="13">
+      <c r="O18" s="12">
         <v>3374</v>
       </c>
-      <c r="L18" s="13">
+      <c r="P18" s="12">
         <v>3657</v>
       </c>
-      <c r="M18" s="13">
-        <f>+I18*1.05</f>
+      <c r="Q18" s="12">
+        <f>+M18*1.05</f>
         <v>3418.8</v>
       </c>
-      <c r="N18" s="13">
-        <f>+J18*1.05</f>
+      <c r="R18" s="12">
+        <f>+N18*1.05</f>
         <v>4347</v>
       </c>
-      <c r="S18" s="3">
+      <c r="Z18" s="3">
         <v>11052</v>
       </c>
-      <c r="T18" s="3">
+      <c r="AA18" s="3">
         <v>13510</v>
       </c>
-      <c r="U18" s="3">
-        <f t="shared" si="33"/>
+      <c r="AB18" s="3">
+        <f t="shared" si="37"/>
         <v>14796.8</v>
       </c>
-      <c r="V18" s="3">
-        <f>+U18*1.05</f>
+      <c r="AC18" s="3">
+        <f>+AB18*1.05</f>
         <v>15536.64</v>
       </c>
-      <c r="W18" s="3">
-        <f t="shared" ref="W18:AC18" si="36">+V18*1.05</f>
+      <c r="AD18" s="3">
+        <f t="shared" ref="AD18:AJ18" si="40">+AC18*1.05</f>
         <v>16313.472</v>
       </c>
-      <c r="X18" s="3">
-        <f t="shared" si="36"/>
+      <c r="AE18" s="3">
+        <f t="shared" si="40"/>
         <v>17129.1456</v>
       </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="36"/>
+      <c r="AF18" s="3">
+        <f t="shared" si="40"/>
         <v>17985.602880000002</v>
       </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="36"/>
+      <c r="AG18" s="3">
+        <f t="shared" si="40"/>
         <v>18884.883024000002</v>
       </c>
-      <c r="AA18" s="3">
-        <f t="shared" si="36"/>
+      <c r="AH18" s="3">
+        <f t="shared" si="40"/>
         <v>19829.127175200003</v>
       </c>
-      <c r="AB18" s="3">
-        <f t="shared" si="36"/>
+      <c r="AI18" s="3">
+        <f t="shared" si="40"/>
         <v>20820.583533960005</v>
       </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="36"/>
+      <c r="AJ18" s="3">
+        <f t="shared" si="40"/>
         <v>21861.612710658006</v>
       </c>
     </row>
-    <row r="19" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="13">
-        <f t="shared" ref="C19" si="37">SUM(C16:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="13">
-        <f t="shared" ref="D19" si="38">SUM(D16:D18)</f>
+      <c r="C19" s="12">
+        <f t="shared" ref="C19" si="41">SUM(C16:C18)</f>
+        <v>12022</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12">
+        <f t="shared" ref="G19" si="42">SUM(G16:G18)</f>
+        <v>14200</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" ref="H19" si="43">SUM(H16:H18)</f>
         <v>13361</v>
       </c>
-      <c r="E19" s="13">
-        <f t="shared" ref="E19" si="39">SUM(E16:E18)</f>
+      <c r="I19" s="12">
+        <f t="shared" ref="I19" si="44">SUM(I16:I18)</f>
         <v>13843</v>
       </c>
-      <c r="F19" s="13">
-        <f t="shared" ref="F19" si="40">SUM(F16:F18)</f>
+      <c r="J19" s="12">
+        <f t="shared" ref="J19" si="45">SUM(J16:J18)</f>
         <v>15167</v>
       </c>
-      <c r="G19" s="13">
-        <f>SUM(G16:G18)</f>
+      <c r="K19" s="12">
+        <f>SUM(K16:K18)</f>
         <v>14774</v>
       </c>
-      <c r="H19" s="13">
-        <f t="shared" ref="H19:K19" si="41">SUM(H16:H18)</f>
+      <c r="L19" s="12">
+        <f t="shared" ref="L19:O19" si="46">SUM(L16:L18)</f>
         <v>16292</v>
       </c>
-      <c r="I19" s="13">
-        <f t="shared" si="41"/>
+      <c r="M19" s="12">
+        <f t="shared" si="46"/>
         <v>16466</v>
       </c>
-      <c r="J19" s="13">
-        <f t="shared" si="41"/>
+      <c r="N19" s="12">
+        <f t="shared" si="46"/>
         <v>20452</v>
       </c>
-      <c r="K19" s="13">
-        <f t="shared" si="41"/>
+      <c r="O19" s="12">
+        <f t="shared" si="46"/>
         <v>18318</v>
       </c>
-      <c r="L19" s="13">
-        <f t="shared" ref="L19:N19" si="42">SUM(L16:L18)</f>
+      <c r="P19" s="12">
+        <f t="shared" ref="P19:R19" si="47">SUM(P16:P18)</f>
         <v>20128</v>
       </c>
-      <c r="M19" s="13">
-        <f t="shared" si="42"/>
+      <c r="Q19" s="12">
+        <f t="shared" si="47"/>
         <v>17674</v>
       </c>
-      <c r="N19" s="13">
-        <f t="shared" si="42"/>
+      <c r="R19" s="12">
+        <f t="shared" si="47"/>
         <v>21910</v>
       </c>
-      <c r="S19" s="3">
-        <f>SUM(S16:S18)</f>
+      <c r="Z19" s="3">
+        <f>SUM(Z16:Z18)</f>
         <v>56571</v>
       </c>
-      <c r="T19" s="3">
-        <f t="shared" ref="T19:V19" si="43">SUM(T16:T18)</f>
+      <c r="AA19" s="3">
+        <f t="shared" ref="AA19:AC19" si="48">SUM(AA16:AA18)</f>
         <v>67984</v>
       </c>
-      <c r="U19" s="3">
-        <f t="shared" si="43"/>
+      <c r="AB19" s="3">
+        <f t="shared" si="48"/>
         <v>78030</v>
       </c>
-      <c r="V19" s="3">
-        <f t="shared" si="43"/>
+      <c r="AC19" s="3">
+        <f t="shared" si="48"/>
         <v>81931.500000000015</v>
       </c>
-      <c r="W19" s="3">
-        <f t="shared" ref="W19:AC19" si="44">SUM(W16:W18)</f>
+      <c r="AD19" s="3">
+        <f t="shared" ref="AD19:AJ19" si="49">SUM(AD16:AD18)</f>
         <v>86028.074999999997</v>
       </c>
-      <c r="X19" s="3">
-        <f t="shared" si="44"/>
+      <c r="AE19" s="3">
+        <f t="shared" si="49"/>
         <v>90329.478750000024</v>
       </c>
-      <c r="Y19" s="3">
-        <f t="shared" si="44"/>
+      <c r="AF19" s="3">
+        <f t="shared" si="49"/>
         <v>94845.95268750003</v>
       </c>
-      <c r="Z19" s="3">
-        <f t="shared" si="44"/>
+      <c r="AG19" s="3">
+        <f t="shared" si="49"/>
         <v>99588.250321875035</v>
       </c>
-      <c r="AA19" s="3">
-        <f t="shared" si="44"/>
+      <c r="AH19" s="3">
+        <f t="shared" si="49"/>
         <v>104567.66283796879</v>
       </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="44"/>
+      <c r="AI19" s="3">
+        <f t="shared" si="49"/>
         <v>109796.04597986722</v>
       </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="44"/>
+      <c r="AJ19" s="3">
+        <f t="shared" si="49"/>
         <v>115285.84827886061</v>
       </c>
     </row>
-    <row r="20" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13">
-        <f t="shared" ref="C20" si="45">C15-C19</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" ref="D20" si="46">D15-D19</f>
+      <c r="C20" s="12">
+        <f t="shared" ref="C20" si="50">C15-C19</f>
+        <v>8305</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
+        <f t="shared" ref="G20" si="51">G15-G19</f>
+        <v>7977</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" ref="H20" si="52">H15-H19</f>
         <v>6383</v>
       </c>
-      <c r="E20" s="13">
-        <f t="shared" ref="E20" si="47">E15-E19</f>
+      <c r="I20" s="12">
+        <f t="shared" ref="I20" si="53">I15-I19</f>
         <v>11213</v>
       </c>
-      <c r="F20" s="13">
-        <f t="shared" ref="F20" si="48">F15-F19</f>
+      <c r="J20" s="12">
+        <f t="shared" ref="J20" si="54">J15-J19</f>
         <v>15651</v>
       </c>
-      <c r="G20" s="13">
-        <f t="shared" ref="G20:J20" si="49">G15-G19</f>
+      <c r="K20" s="12">
+        <f t="shared" ref="K20:N20" si="55">K15-K19</f>
         <v>16437</v>
       </c>
-      <c r="H20" s="13">
-        <f t="shared" si="49"/>
+      <c r="L20" s="12">
+        <f t="shared" si="55"/>
         <v>19361</v>
       </c>
-      <c r="I20" s="13">
-        <f t="shared" si="49"/>
+      <c r="M20" s="12">
+        <f t="shared" si="55"/>
         <v>21031</v>
       </c>
-      <c r="J20" s="13">
-        <f t="shared" si="49"/>
+      <c r="N20" s="12">
+        <f t="shared" si="55"/>
         <v>21885</v>
       </c>
-      <c r="K20" s="13">
-        <f>K15-K19</f>
+      <c r="O20" s="12">
+        <f>O15-O19</f>
         <v>20094</v>
       </c>
-      <c r="L20" s="13">
-        <f t="shared" ref="L20:N20" si="50">L15-L19</f>
+      <c r="P20" s="12">
+        <f t="shared" ref="P20:R20" si="56">P15-P19</f>
         <v>19453</v>
       </c>
-      <c r="M20" s="13">
-        <f t="shared" si="50"/>
+      <c r="Q20" s="12">
+        <f t="shared" si="56"/>
         <v>23886.666500000007</v>
       </c>
-      <c r="N20" s="13">
-        <f t="shared" si="50"/>
+      <c r="R20" s="12">
+        <f t="shared" si="56"/>
         <v>26023.040749999993</v>
       </c>
-      <c r="S20" s="3">
-        <f>S15-S19</f>
+      <c r="Z20" s="3">
+        <f>Z15-Z19</f>
         <v>41224</v>
       </c>
-      <c r="T20" s="3">
-        <f t="shared" ref="T20:V20" si="51">T15-T19</f>
+      <c r="AA20" s="3">
+        <f t="shared" ref="AA20:AC20" si="57">AA15-AA19</f>
         <v>78714</v>
       </c>
-      <c r="U20" s="3">
-        <f t="shared" si="51"/>
-        <v>88803.707250000036</v>
-      </c>
-      <c r="V20" s="3">
-        <f t="shared" si="51"/>
+      <c r="AB20" s="3">
+        <f t="shared" si="57"/>
+        <v>89456.707250000036</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" si="57"/>
         <v>102675.368715</v>
       </c>
-      <c r="W20" s="3">
-        <f t="shared" ref="W20:AC20" si="52">W15-W19</f>
+      <c r="AD20" s="3">
+        <f t="shared" ref="AD20:AJ20" si="58">AD15-AD19</f>
         <v>119847.69834105003</v>
       </c>
-      <c r="X20" s="3">
-        <f t="shared" si="52"/>
+      <c r="AE20" s="3">
+        <f t="shared" si="58"/>
         <v>138387.67591842153</v>
       </c>
-      <c r="Y20" s="3">
-        <f t="shared" si="52"/>
+      <c r="AF20" s="3">
+        <f t="shared" si="58"/>
         <v>160665.14765477378</v>
       </c>
-      <c r="Z20" s="3">
-        <f t="shared" si="52"/>
+      <c r="AG20" s="3">
+        <f t="shared" si="58"/>
         <v>187599.480449925</v>
       </c>
-      <c r="AA20" s="3">
-        <f t="shared" si="52"/>
+      <c r="AH20" s="3">
+        <f t="shared" si="58"/>
         <v>213776.30026994075</v>
       </c>
-      <c r="AB20" s="3">
-        <f t="shared" si="52"/>
+      <c r="AI20" s="3">
+        <f t="shared" si="58"/>
         <v>243991.37123970751</v>
       </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="52"/>
+      <c r="AJ20" s="3">
+        <f t="shared" si="58"/>
         <v>278918.98833768995</v>
       </c>
     </row>
-    <row r="21" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13">
+      <c r="C21" s="12">
+        <v>1538</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12">
+        <v>-220</v>
+      </c>
+      <c r="H21" s="12">
         <v>1894</v>
       </c>
-      <c r="E21" s="13">
+      <c r="I21" s="12">
         <v>2146</v>
       </c>
-      <c r="F21" s="13">
+      <c r="J21" s="12">
         <v>3038</v>
       </c>
-      <c r="G21" s="13">
+      <c r="K21" s="12">
         <v>4846</v>
       </c>
-      <c r="H21" s="13">
+      <c r="L21" s="12">
         <v>2264</v>
       </c>
-      <c r="I21" s="13">
+      <c r="M21" s="12">
         <v>2033</v>
       </c>
-      <c r="J21" s="13">
+      <c r="N21" s="12">
         <v>2517</v>
       </c>
-      <c r="K21" s="13">
+      <c r="O21" s="12">
         <v>-1160</v>
       </c>
-      <c r="L21" s="13">
+      <c r="P21" s="12">
         <v>-439</v>
       </c>
-      <c r="M21" s="13">
+      <c r="Q21" s="12">
         <v>0</v>
       </c>
-      <c r="N21" s="13">
+      <c r="R21" s="12">
         <v>0</v>
       </c>
-      <c r="S21" s="3">
+      <c r="Z21" s="3">
         <v>6858</v>
       </c>
-      <c r="T21" s="3">
+      <c r="AA21" s="3">
         <v>12020</v>
       </c>
-      <c r="U21" s="3">
-        <f t="shared" ref="U21:U23" si="53">SUM(K21:N21)</f>
+      <c r="AB21" s="3">
+        <f t="shared" ref="AB21:AB23" si="59">SUM(O21:R21)</f>
         <v>-1599</v>
       </c>
-      <c r="V21" s="3">
-        <f>+U38*$AF$30</f>
+      <c r="AC21" s="3">
+        <f>+AB38*$AM$30</f>
         <v>1828.5215409</v>
       </c>
-      <c r="W21" s="3">
-        <f t="shared" ref="W21:AC21" si="54">+V38*$AF$30</f>
+      <c r="AD21" s="3">
+        <f t="shared" ref="AD21:AJ21" si="60">+AC38*$AM$30</f>
         <v>2685.4534409983798</v>
       </c>
-      <c r="X21" s="3">
-        <f t="shared" si="54"/>
+      <c r="AE21" s="3">
+        <f t="shared" si="60"/>
         <v>3690.2252856111772</v>
       </c>
-      <c r="Y21" s="3">
-        <f t="shared" si="54"/>
+      <c r="AF21" s="3">
+        <f t="shared" si="60"/>
         <v>4855.264075484246</v>
       </c>
-      <c r="Z21" s="3">
-        <f t="shared" si="54"/>
+      <c r="AG21" s="3">
+        <f t="shared" si="60"/>
         <v>6212.5314516723611</v>
       </c>
-      <c r="AA21" s="3">
-        <f t="shared" si="54"/>
+      <c r="AH21" s="3">
+        <f t="shared" si="60"/>
         <v>7801.7899492654606</v>
       </c>
-      <c r="AB21" s="3">
-        <f t="shared" si="54"/>
+      <c r="AI21" s="3">
+        <f t="shared" si="60"/>
         <v>9618.7302890629508</v>
       </c>
-      <c r="AC21" s="3">
-        <f t="shared" si="54"/>
+      <c r="AJ21" s="3">
+        <f t="shared" si="60"/>
         <v>11698.333121598869</v>
       </c>
     </row>
-    <row r="22" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="13">
-        <f t="shared" ref="C22" si="55">C20+C21</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="13">
-        <f t="shared" ref="D22" si="56">D20+D21</f>
+      <c r="C22" s="12">
+        <f t="shared" ref="C22" si="61">C20+C21</f>
+        <v>9843</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
+        <f t="shared" ref="G22" si="62">G20+G21</f>
+        <v>7757</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" ref="H22" si="63">H20+H21</f>
         <v>8277</v>
       </c>
-      <c r="E22" s="13">
-        <f t="shared" ref="E22" si="57">E20+E21</f>
+      <c r="I22" s="12">
+        <f t="shared" ref="I22" si="64">I20+I21</f>
         <v>13359</v>
       </c>
-      <c r="F22" s="13">
-        <f t="shared" ref="F22" si="58">F20+F21</f>
+      <c r="J22" s="12">
+        <f t="shared" ref="J22" si="65">J20+J21</f>
         <v>18689</v>
       </c>
-      <c r="G22" s="13">
-        <f>G20+G21</f>
+      <c r="K22" s="12">
+        <f>K20+K21</f>
         <v>21283</v>
       </c>
-      <c r="H22" s="13">
-        <f t="shared" ref="H22:K22" si="59">H20+H21</f>
+      <c r="L22" s="12">
+        <f t="shared" ref="L22:O22" si="66">L20+L21</f>
         <v>21625</v>
       </c>
-      <c r="I22" s="13">
-        <f t="shared" si="59"/>
+      <c r="M22" s="12">
+        <f t="shared" si="66"/>
         <v>23064</v>
       </c>
-      <c r="J22" s="13">
-        <f t="shared" si="59"/>
+      <c r="N22" s="12">
+        <f t="shared" si="66"/>
         <v>24402</v>
       </c>
-      <c r="K22" s="13">
-        <f t="shared" si="59"/>
+      <c r="O22" s="12">
+        <f t="shared" si="66"/>
         <v>18934</v>
       </c>
-      <c r="L22" s="13">
-        <f t="shared" ref="L22:N22" si="60">L20+L21</f>
+      <c r="P22" s="12">
+        <f t="shared" ref="P22:R22" si="67">P20+P21</f>
         <v>19014</v>
       </c>
-      <c r="M22" s="13">
-        <f t="shared" si="60"/>
+      <c r="Q22" s="12">
+        <f t="shared" si="67"/>
         <v>23886.666500000007</v>
       </c>
-      <c r="N22" s="13">
-        <f t="shared" si="60"/>
+      <c r="R22" s="12">
+        <f t="shared" si="67"/>
         <v>26023.040749999993</v>
       </c>
-      <c r="S22" s="3">
-        <f>S20+S21</f>
+      <c r="Z22" s="3">
+        <f>Z20+Z21</f>
         <v>48082</v>
       </c>
-      <c r="T22" s="3">
-        <f t="shared" ref="T22:V22" si="61">T20+T21</f>
+      <c r="AA22" s="3">
+        <f t="shared" ref="AA22:AC22" si="68">AA20+AA21</f>
         <v>90734</v>
       </c>
-      <c r="U22" s="3">
-        <f t="shared" si="61"/>
-        <v>87204.707250000036</v>
-      </c>
-      <c r="V22" s="3">
-        <f t="shared" si="61"/>
+      <c r="AB22" s="3">
+        <f t="shared" si="68"/>
+        <v>87857.707250000036</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="68"/>
         <v>104503.8902559</v>
       </c>
-      <c r="W22" s="3">
-        <f t="shared" ref="W22:AC22" si="62">W20+W21</f>
+      <c r="AD22" s="3">
+        <f t="shared" ref="AD22:AJ22" si="69">AD20+AD21</f>
         <v>122533.1517820484</v>
       </c>
-      <c r="X22" s="3">
-        <f t="shared" si="62"/>
+      <c r="AE22" s="3">
+        <f t="shared" si="69"/>
         <v>142077.90120403271</v>
       </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="62"/>
+      <c r="AF22" s="3">
+        <f t="shared" si="69"/>
         <v>165520.41173025803</v>
       </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="62"/>
+      <c r="AG22" s="3">
+        <f t="shared" si="69"/>
         <v>193812.01190159738</v>
       </c>
-      <c r="AA22" s="3">
-        <f t="shared" si="62"/>
+      <c r="AH22" s="3">
+        <f t="shared" si="69"/>
         <v>221578.09021920621</v>
       </c>
-      <c r="AB22" s="3">
-        <f t="shared" si="62"/>
+      <c r="AI22" s="3">
+        <f t="shared" si="69"/>
         <v>253610.10152877046</v>
       </c>
-      <c r="AC22" s="3">
-        <f t="shared" si="62"/>
+      <c r="AJ22" s="3">
+        <f t="shared" si="69"/>
         <v>290617.32145928883</v>
       </c>
     </row>
-    <row r="23" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13">
+      <c r="C23" s="12">
+        <v>1489</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12">
+        <v>921</v>
+      </c>
+      <c r="H23" s="12">
         <v>1318</v>
       </c>
-      <c r="E23" s="13">
+      <c r="I23" s="12">
         <v>2112</v>
       </c>
-      <c r="F23" s="13">
+      <c r="J23" s="12">
         <v>3462</v>
       </c>
-      <c r="G23" s="13">
+      <c r="K23" s="12">
         <v>3353</v>
       </c>
-      <c r="H23" s="13">
+      <c r="L23" s="12">
         <v>3460</v>
       </c>
-      <c r="I23" s="13">
+      <c r="M23" s="12">
         <v>4128</v>
       </c>
-      <c r="J23" s="13">
+      <c r="N23" s="12">
         <v>3760</v>
       </c>
-      <c r="K23" s="13">
+      <c r="O23" s="12">
         <v>2498</v>
       </c>
-      <c r="L23" s="13">
+      <c r="P23" s="12">
         <v>3012</v>
       </c>
-      <c r="M23" s="13">
-        <f>+M22*0.16</f>
+      <c r="Q23" s="12">
+        <f>+Q22*0.16</f>
         <v>3821.8666400000011</v>
       </c>
-      <c r="N23" s="13">
-        <f>+N22*0.16</f>
+      <c r="R23" s="12">
+        <f>+R22*0.16</f>
         <v>4163.6865199999993</v>
       </c>
-      <c r="S23" s="3">
+      <c r="Z23" s="3">
         <v>7813</v>
       </c>
-      <c r="T23" s="3">
+      <c r="AA23" s="3">
         <v>14701</v>
       </c>
-      <c r="U23" s="3">
-        <f t="shared" si="53"/>
+      <c r="AB23" s="3">
+        <f t="shared" si="59"/>
         <v>13495.553159999999</v>
       </c>
-      <c r="V23" s="3">
-        <f>+V22*0.18</f>
+      <c r="AC23" s="3">
+        <f>+AC22*0.18</f>
         <v>18810.700246061999</v>
       </c>
-      <c r="W23" s="3">
-        <f t="shared" ref="W23:AC23" si="63">+W22*0.18</f>
+      <c r="AD23" s="3">
+        <f t="shared" ref="AD23:AJ23" si="70">+AD22*0.18</f>
         <v>22055.967320768712</v>
       </c>
-      <c r="X23" s="3">
-        <f t="shared" si="63"/>
+      <c r="AE23" s="3">
+        <f t="shared" si="70"/>
         <v>25574.022216725887</v>
       </c>
-      <c r="Y23" s="3">
-        <f t="shared" si="63"/>
+      <c r="AF23" s="3">
+        <f t="shared" si="70"/>
         <v>29793.674111446442</v>
       </c>
-      <c r="Z23" s="3">
-        <f t="shared" si="63"/>
+      <c r="AG23" s="3">
+        <f t="shared" si="70"/>
         <v>34886.162142287525</v>
       </c>
-      <c r="AA23" s="3">
-        <f t="shared" si="63"/>
+      <c r="AH23" s="3">
+        <f t="shared" si="70"/>
         <v>39884.056239457117</v>
       </c>
-      <c r="AB23" s="3">
-        <f t="shared" si="63"/>
+      <c r="AI23" s="3">
+        <f t="shared" si="70"/>
         <v>45649.818275178681</v>
       </c>
-      <c r="AC23" s="3">
-        <f t="shared" si="63"/>
+      <c r="AJ23" s="3">
+        <f t="shared" si="70"/>
         <v>52311.117862671985</v>
       </c>
     </row>
-    <row r="24" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="13">
-        <f t="shared" ref="C24" si="64">C22-C23</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="13">
-        <f t="shared" ref="D24" si="65">D22-D23</f>
+      <c r="C24" s="12">
+        <f t="shared" ref="C24" si="71">C22-C23</f>
+        <v>8354</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12">
+        <f t="shared" ref="G24" si="72">G22-G23</f>
+        <v>6836</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" ref="H24" si="73">H22-H23</f>
         <v>6959</v>
       </c>
-      <c r="E24" s="13">
-        <f t="shared" ref="E24" si="66">E22-E23</f>
+      <c r="I24" s="12">
+        <f t="shared" ref="I24" si="74">I22-I23</f>
         <v>11247</v>
       </c>
-      <c r="F24" s="13">
-        <f t="shared" ref="F24" si="67">F22-F23</f>
+      <c r="J24" s="12">
+        <f t="shared" ref="J24" si="75">J22-J23</f>
         <v>15227</v>
       </c>
-      <c r="G24" s="13">
-        <f>G22-G23</f>
+      <c r="K24" s="12">
+        <f>K22-K23</f>
         <v>17930</v>
       </c>
-      <c r="H24" s="13">
-        <f t="shared" ref="H24:K24" si="68">H22-H23</f>
+      <c r="L24" s="12">
+        <f t="shared" ref="L24:O24" si="76">L22-L23</f>
         <v>18165</v>
       </c>
-      <c r="I24" s="13">
-        <f t="shared" si="68"/>
+      <c r="M24" s="12">
+        <f t="shared" si="76"/>
         <v>18936</v>
       </c>
-      <c r="J24" s="13">
-        <f t="shared" si="68"/>
+      <c r="N24" s="12">
+        <f t="shared" si="76"/>
         <v>20642</v>
       </c>
-      <c r="K24" s="13">
-        <f t="shared" si="68"/>
+      <c r="O24" s="12">
+        <f t="shared" si="76"/>
         <v>16436</v>
       </c>
-      <c r="L24" s="13">
-        <f t="shared" ref="L24:N24" si="69">L22-L23</f>
+      <c r="P24" s="12">
+        <f t="shared" ref="P24:R24" si="77">P22-P23</f>
         <v>16002</v>
       </c>
-      <c r="M24" s="13">
-        <f t="shared" si="69"/>
+      <c r="Q24" s="12">
+        <f t="shared" si="77"/>
         <v>20064.799860000006</v>
       </c>
-      <c r="N24" s="13">
-        <f t="shared" si="69"/>
+      <c r="R24" s="12">
+        <f t="shared" si="77"/>
         <v>21859.354229999994</v>
       </c>
-      <c r="S24" s="3">
-        <f>S22-S23</f>
+      <c r="Z24" s="3">
+        <f>Z22-Z23</f>
         <v>40269</v>
       </c>
-      <c r="T24" s="3">
-        <f t="shared" ref="T24:V24" si="70">T22-T23</f>
+      <c r="AA24" s="3">
+        <f t="shared" ref="AA24:AC24" si="78">AA22-AA23</f>
         <v>76033</v>
       </c>
-      <c r="U24" s="3">
-        <f t="shared" si="70"/>
-        <v>73709.15409000004</v>
-      </c>
-      <c r="V24" s="3">
-        <f t="shared" si="70"/>
+      <c r="AB24" s="3">
+        <f t="shared" si="78"/>
+        <v>74362.15409000004</v>
+      </c>
+      <c r="AC24" s="3">
+        <f t="shared" si="78"/>
         <v>85693.190009837999</v>
       </c>
-      <c r="W24" s="3">
-        <f t="shared" ref="W24:AC24" si="71">W22-W23</f>
+      <c r="AD24" s="3">
+        <f t="shared" ref="AD24:AJ24" si="79">AD22-AD23</f>
         <v>100477.18446127968</v>
       </c>
-      <c r="X24" s="3">
-        <f t="shared" si="71"/>
+      <c r="AE24" s="3">
+        <f t="shared" si="79"/>
         <v>116503.87898730682</v>
       </c>
-      <c r="Y24" s="3">
-        <f t="shared" si="71"/>
+      <c r="AF24" s="3">
+        <f t="shared" si="79"/>
         <v>135726.73761881157</v>
       </c>
-      <c r="Z24" s="3">
-        <f t="shared" si="71"/>
+      <c r="AG24" s="3">
+        <f t="shared" si="79"/>
         <v>158925.84975930984</v>
       </c>
-      <c r="AA24" s="3">
-        <f t="shared" si="71"/>
+      <c r="AH24" s="3">
+        <f t="shared" si="79"/>
         <v>181694.03397974907</v>
       </c>
-      <c r="AB24" s="3">
-        <f t="shared" si="71"/>
+      <c r="AI24" s="3">
+        <f t="shared" si="79"/>
         <v>207960.2832535918</v>
       </c>
-      <c r="AC24" s="3">
-        <f t="shared" si="71"/>
+      <c r="AJ24" s="3">
+        <f t="shared" si="79"/>
         <v>238306.20359661683</v>
       </c>
-      <c r="AD24" s="3">
-        <f>+AC24*(1+$AF$28)</f>
+      <c r="AK24" s="3">
+        <f>+AJ24*(1+$AM$28)</f>
         <v>235923.14156065066</v>
       </c>
-      <c r="AE24" s="3">
-        <f t="shared" ref="AE24:CH24" si="72">+AD24*(1+$AF$28)</f>
+      <c r="AL24" s="3">
+        <f t="shared" ref="AL24:CO24" si="80">+AK24*(1+$AM$28)</f>
         <v>233563.91014504415</v>
       </c>
-      <c r="AF24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AM24" s="3">
+        <f t="shared" si="80"/>
         <v>231228.2710435937</v>
       </c>
-      <c r="AG24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AN24" s="3">
+        <f t="shared" si="80"/>
         <v>228915.98833315776</v>
       </c>
-      <c r="AH24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AO24" s="3">
+        <f t="shared" si="80"/>
         <v>226626.82844982619</v>
       </c>
-      <c r="AI24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AP24" s="3">
+        <f t="shared" si="80"/>
         <v>224360.56016532792</v>
       </c>
-      <c r="AJ24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AQ24" s="3">
+        <f t="shared" si="80"/>
         <v>222116.95456367463</v>
       </c>
-      <c r="AK24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AR24" s="3">
+        <f t="shared" si="80"/>
         <v>219895.78501803789</v>
       </c>
-      <c r="AL24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AS24" s="3">
+        <f t="shared" si="80"/>
         <v>217696.8271678575</v>
       </c>
-      <c r="AM24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AT24" s="3">
+        <f t="shared" si="80"/>
         <v>215519.85889617892</v>
       </c>
-      <c r="AN24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AU24" s="3">
+        <f t="shared" si="80"/>
         <v>213364.66030721713</v>
       </c>
-      <c r="AO24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AV24" s="3">
+        <f t="shared" si="80"/>
         <v>211231.01370414495</v>
       </c>
-      <c r="AP24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AW24" s="3">
+        <f t="shared" si="80"/>
         <v>209118.70356710351</v>
       </c>
-      <c r="AQ24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AX24" s="3">
+        <f t="shared" si="80"/>
         <v>207027.51653143248</v>
       </c>
-      <c r="AR24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AY24" s="3">
+        <f t="shared" si="80"/>
         <v>204957.24136611816</v>
       </c>
-      <c r="AS24" s="3">
-        <f t="shared" si="72"/>
+      <c r="AZ24" s="3">
+        <f t="shared" si="80"/>
         <v>202907.66895245697</v>
       </c>
-      <c r="AT24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BA24" s="3">
+        <f t="shared" si="80"/>
         <v>200878.59226293239</v>
       </c>
-      <c r="AU24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BB24" s="3">
+        <f t="shared" si="80"/>
         <v>198869.80634030307</v>
       </c>
-      <c r="AV24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BC24" s="3">
+        <f t="shared" si="80"/>
         <v>196881.10827690005</v>
       </c>
-      <c r="AW24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BD24" s="3">
+        <f t="shared" si="80"/>
         <v>194912.29719413104</v>
       </c>
-      <c r="AX24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BE24" s="3">
+        <f t="shared" si="80"/>
         <v>192963.17422218973</v>
       </c>
-      <c r="AY24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BF24" s="3">
+        <f t="shared" si="80"/>
         <v>191033.54247996784</v>
       </c>
-      <c r="AZ24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BG24" s="3">
+        <f t="shared" si="80"/>
         <v>189123.20705516817</v>
       </c>
-      <c r="BA24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BH24" s="3">
+        <f t="shared" si="80"/>
         <v>187231.97498461648</v>
       </c>
-      <c r="BB24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BI24" s="3">
+        <f t="shared" si="80"/>
         <v>185359.65523477033</v>
       </c>
-      <c r="BC24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BJ24" s="3">
+        <f t="shared" si="80"/>
         <v>183506.05868242262</v>
       </c>
-      <c r="BD24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BK24" s="3">
+        <f t="shared" si="80"/>
         <v>181670.99809559839</v>
       </c>
-      <c r="BE24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BL24" s="3">
+        <f t="shared" si="80"/>
         <v>179854.2881146424</v>
       </c>
-      <c r="BF24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BM24" s="3">
+        <f t="shared" si="80"/>
         <v>178055.74523349598</v>
       </c>
-      <c r="BG24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BN24" s="3">
+        <f t="shared" si="80"/>
         <v>176275.18778116102</v>
       </c>
-      <c r="BH24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BO24" s="3">
+        <f t="shared" si="80"/>
         <v>174512.4359033494</v>
       </c>
-      <c r="BI24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BP24" s="3">
+        <f t="shared" si="80"/>
         <v>172767.31154431589</v>
       </c>
-      <c r="BJ24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BQ24" s="3">
+        <f t="shared" si="80"/>
         <v>171039.63842887274</v>
       </c>
-      <c r="BK24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BR24" s="3">
+        <f t="shared" si="80"/>
         <v>169329.24204458401</v>
       </c>
-      <c r="BL24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BS24" s="3">
+        <f t="shared" si="80"/>
         <v>167635.94962413816</v>
       </c>
-      <c r="BM24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BT24" s="3">
+        <f t="shared" si="80"/>
         <v>165959.59012789678</v>
       </c>
-      <c r="BN24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BU24" s="3">
+        <f t="shared" si="80"/>
         <v>164299.9942266178</v>
       </c>
-      <c r="BO24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BV24" s="3">
+        <f t="shared" si="80"/>
         <v>162656.99428435162</v>
       </c>
-      <c r="BP24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BW24" s="3">
+        <f t="shared" si="80"/>
         <v>161030.4243415081</v>
       </c>
-      <c r="BQ24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BX24" s="3">
+        <f t="shared" si="80"/>
         <v>159420.12009809303</v>
       </c>
-      <c r="BR24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BY24" s="3">
+        <f t="shared" si="80"/>
         <v>157825.9188971121</v>
       </c>
-      <c r="BS24" s="3">
-        <f t="shared" si="72"/>
+      <c r="BZ24" s="3">
+        <f t="shared" si="80"/>
         <v>156247.65970814097</v>
       </c>
-      <c r="BT24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CA24" s="3">
+        <f t="shared" si="80"/>
         <v>154685.18311105957</v>
       </c>
-      <c r="BU24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CB24" s="3">
+        <f t="shared" si="80"/>
         <v>153138.33127994896</v>
       </c>
-      <c r="BV24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CC24" s="3">
+        <f t="shared" si="80"/>
         <v>151606.94796714946</v>
       </c>
-      <c r="BW24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CD24" s="3">
+        <f t="shared" si="80"/>
         <v>150090.87848747798</v>
       </c>
-      <c r="BX24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CE24" s="3">
+        <f t="shared" si="80"/>
         <v>148589.96970260321</v>
       </c>
-      <c r="BY24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CF24" s="3">
+        <f t="shared" si="80"/>
         <v>147104.07000557717</v>
       </c>
-      <c r="BZ24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CG24" s="3">
+        <f t="shared" si="80"/>
         <v>145633.0293055214</v>
       </c>
-      <c r="CA24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CH24" s="3">
+        <f t="shared" si="80"/>
         <v>144176.69901246618</v>
       </c>
-      <c r="CB24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CI24" s="3">
+        <f t="shared" si="80"/>
         <v>142734.93202234153</v>
       </c>
-      <c r="CC24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CJ24" s="3">
+        <f t="shared" si="80"/>
         <v>141307.58270211812</v>
       </c>
-      <c r="CD24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CK24" s="3">
+        <f t="shared" si="80"/>
         <v>139894.50687509694</v>
       </c>
-      <c r="CE24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CL24" s="3">
+        <f t="shared" si="80"/>
         <v>138495.56180634597</v>
       </c>
-      <c r="CF24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CM24" s="3">
+        <f t="shared" si="80"/>
         <v>137110.60618828252</v>
       </c>
-      <c r="CG24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CN24" s="3">
+        <f t="shared" si="80"/>
         <v>135739.50012639968</v>
       </c>
-      <c r="CH24" s="3">
-        <f t="shared" si="72"/>
+      <c r="CO24" s="3">
+        <f t="shared" si="80"/>
         <v>134382.10512513568</v>
       </c>
     </row>
-    <row r="25" spans="2:86" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="2:93" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="16" t="e">
-        <f t="shared" ref="C25" si="73">C24/C26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="16">
-        <f t="shared" ref="D25" si="74">D24/D26</f>
+      <c r="C25" s="15">
+        <f t="shared" ref="C25" si="81">C24/C26</f>
+        <v>11.919318455824756</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
+        <f t="shared" ref="G25" si="82">G24/G26</f>
+        <v>9.8748026411774639</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" ref="H25" si="83">H24/H26</f>
         <v>10.129194904399265</v>
       </c>
-      <c r="E25" s="16">
-        <f t="shared" ref="E25" si="75">E24/E26</f>
+      <c r="I25" s="15">
+        <f t="shared" ref="I25" si="84">I24/I26</f>
         <v>16.398605528022852</v>
       </c>
-      <c r="F25" s="16">
-        <f t="shared" ref="F25" si="76">F24/F26</f>
+      <c r="J25" s="15">
+        <f t="shared" ref="J25" si="85">J24/J26</f>
         <v>22.295301836540162</v>
       </c>
-      <c r="G25" s="16">
-        <f t="shared" ref="G25:J25" si="77">G24/G26</f>
+      <c r="K25" s="15">
+        <f t="shared" ref="K25:N25" si="86">K24/K26</f>
         <v>26.287585896482916</v>
       </c>
-      <c r="H25" s="16">
-        <f t="shared" si="77"/>
+      <c r="L25" s="15">
+        <f t="shared" si="86"/>
         <v>1.3364479105356091</v>
       </c>
-      <c r="I25" s="16">
-        <f t="shared" si="77"/>
+      <c r="M25" s="15">
+        <f t="shared" si="86"/>
         <v>27.990344690984287</v>
       </c>
-      <c r="J25" s="16">
-        <f t="shared" si="77"/>
+      <c r="N25" s="15">
+        <f t="shared" si="86"/>
         <v>30.69474329100823</v>
       </c>
-      <c r="K25" s="16">
-        <f>K24/K26</f>
+      <c r="O25" s="15">
+        <f>O24/O26</f>
         <v>24.621339792764896</v>
       </c>
-      <c r="L25" s="16">
-        <f t="shared" ref="L25:N25" si="78">L24/L26</f>
+      <c r="P25" s="15">
+        <f t="shared" ref="P25:R25" si="87">P24/P26</f>
         <v>1.2087015635622025</v>
       </c>
-      <c r="M25" s="16">
-        <f t="shared" si="78"/>
+      <c r="Q25" s="15">
+        <f t="shared" si="87"/>
         <v>1.5155827373668711</v>
       </c>
-      <c r="N25" s="16">
-        <f t="shared" si="78"/>
+      <c r="R25" s="15">
+        <f t="shared" si="87"/>
         <v>1.6511333355993649</v>
       </c>
-      <c r="S25" s="19">
-        <f>S24/S26</f>
+      <c r="Z25" s="18">
+        <f>Z24/Z26</f>
         <v>58.613331625494155</v>
       </c>
-      <c r="T25" s="19">
-        <f>T24/T26</f>
+      <c r="AA25" s="18">
+        <f>AA24/AA26</f>
         <v>112.19701508394893</v>
       </c>
-      <c r="U25" s="19">
-        <f>U24/U26</f>
-        <v>5.5675771651937485</v>
-      </c>
-      <c r="V25" s="19">
-        <f>V24/V26</f>
+      <c r="AB25" s="18">
+        <f>AB24/AB26</f>
+        <v>5.6169011322607476</v>
+      </c>
+      <c r="AC25" s="18">
+        <f>AC24/AC26</f>
         <v>6.4727841989453889</v>
       </c>
-      <c r="W25" s="19">
-        <f t="shared" ref="W25:AC25" si="79">W24/W26</f>
+      <c r="AD25" s="18">
+        <f t="shared" ref="AD25:AJ25" si="88">AD24/AD26</f>
         <v>7.5894844369876644</v>
       </c>
-      <c r="X25" s="19">
-        <f t="shared" si="79"/>
+      <c r="AE25" s="18">
+        <f t="shared" si="88"/>
         <v>8.800051286902848</v>
       </c>
-      <c r="Y25" s="19">
-        <f t="shared" si="79"/>
+      <c r="AF25" s="18">
+        <f t="shared" si="88"/>
         <v>10.25203849375418</v>
       </c>
-      <c r="Z25" s="19">
-        <f t="shared" si="79"/>
+      <c r="AG25" s="18">
+        <f t="shared" si="88"/>
         <v>12.004369647202195</v>
       </c>
-      <c r="AA25" s="19">
-        <f t="shared" si="79"/>
+      <c r="AH25" s="18">
+        <f t="shared" si="88"/>
         <v>13.724150916213389</v>
       </c>
-      <c r="AB25" s="19">
-        <f t="shared" si="79"/>
+      <c r="AI25" s="18">
+        <f t="shared" si="88"/>
         <v>15.70815645090957</v>
       </c>
-      <c r="AC25" s="19">
-        <f t="shared" si="79"/>
+      <c r="AJ25" s="18">
+        <f t="shared" si="88"/>
         <v>18.000317516173187</v>
       </c>
     </row>
-    <row r="26" spans="2:86" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13">
+      <c r="C26" s="12">
+        <v>700.87900000000002</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12">
+        <v>692.26700000000005</v>
+      </c>
+      <c r="H26" s="12">
         <v>687.024</v>
       </c>
-      <c r="E26" s="13">
+      <c r="I26" s="12">
         <v>685.851</v>
       </c>
-      <c r="F26" s="13">
+      <c r="J26" s="12">
         <v>682.96900000000005</v>
       </c>
-      <c r="G26" s="13">
+      <c r="K26" s="12">
         <v>682.07100000000003</v>
       </c>
-      <c r="H26" s="13">
+      <c r="L26" s="12">
         <v>13592</v>
       </c>
-      <c r="I26" s="13">
+      <c r="M26" s="12">
         <v>676.51900000000001</v>
       </c>
-      <c r="J26" s="13">
+      <c r="N26" s="12">
         <v>672.49300000000005</v>
       </c>
-      <c r="K26" s="13">
+      <c r="O26" s="12">
         <v>667.55100000000004</v>
       </c>
-      <c r="L26" s="13">
+      <c r="P26" s="12">
         <v>13239</v>
       </c>
-      <c r="M26" s="13">
-        <f>+L26</f>
+      <c r="Q26" s="12">
+        <f>+P26</f>
         <v>13239</v>
       </c>
-      <c r="N26" s="13">
-        <f>+M26</f>
+      <c r="R26" s="12">
+        <f>+Q26</f>
         <v>13239</v>
       </c>
-      <c r="S26" s="3">
+      <c r="Z26" s="3">
         <v>687.02800000000002</v>
       </c>
-      <c r="T26" s="3">
+      <c r="AA26" s="3">
         <v>677.67399999999998</v>
       </c>
-      <c r="U26" s="3">
-        <f>AVERAGE(L26:N26)</f>
+      <c r="AB26" s="3">
+        <f>AVERAGE(P26:R26)</f>
         <v>13239</v>
       </c>
-      <c r="V26" s="3">
-        <f>+U26</f>
+      <c r="AC26" s="3">
+        <f>+AB26</f>
         <v>13239</v>
       </c>
-      <c r="W26" s="3">
-        <f t="shared" ref="W26:AC26" si="80">+V26</f>
+      <c r="AD26" s="3">
+        <f t="shared" ref="AD26:AJ26" si="89">+AC26</f>
         <v>13239</v>
       </c>
-      <c r="X26" s="3">
-        <f t="shared" si="80"/>
+      <c r="AE26" s="3">
+        <f t="shared" si="89"/>
         <v>13239</v>
       </c>
-      <c r="Y26" s="3">
-        <f t="shared" si="80"/>
+      <c r="AF26" s="3">
+        <f t="shared" si="89"/>
         <v>13239</v>
       </c>
-      <c r="Z26" s="3">
-        <f t="shared" si="80"/>
+      <c r="AG26" s="3">
+        <f t="shared" si="89"/>
         <v>13239</v>
       </c>
-      <c r="AA26" s="3">
-        <f t="shared" si="80"/>
+      <c r="AH26" s="3">
+        <f t="shared" si="89"/>
         <v>13239</v>
       </c>
-      <c r="AB26" s="3">
-        <f t="shared" si="80"/>
+      <c r="AI26" s="3">
+        <f t="shared" si="89"/>
         <v>13239</v>
       </c>
-      <c r="AC26" s="3">
-        <f t="shared" si="80"/>
+      <c r="AJ26" s="3">
+        <f t="shared" si="89"/>
         <v>13239</v>
       </c>
     </row>
-    <row r="28" spans="2:86" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
+    <row r="28" spans="2:93" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="18">
-        <f t="shared" ref="H28" si="81">H12/D12-1</f>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17">
+        <f t="shared" ref="K28:L28" si="90">K12/G12-1</f>
+        <v>0.34391020189994892</v>
+      </c>
+      <c r="L28" s="17">
+        <f t="shared" si="90"/>
         <v>0.61579235971486024</v>
       </c>
-      <c r="I28" s="18">
-        <f t="shared" ref="I28" si="82">I12/E12-1</f>
+      <c r="M28" s="17">
+        <f t="shared" ref="M28" si="91">M12/I12-1</f>
         <v>0.41030472353973102</v>
       </c>
-      <c r="J28" s="18">
-        <f t="shared" ref="J28" si="83">J12/F12-1</f>
+      <c r="N28" s="17">
+        <f t="shared" ref="N28" si="92">N12/J12-1</f>
         <v>0.32386024113325607</v>
       </c>
-      <c r="K28" s="18">
-        <f>K12/G12-1</f>
+      <c r="O28" s="17">
+        <f>O12/K12-1</f>
         <v>0.22954405756228069</v>
       </c>
-      <c r="L28" s="18">
-        <f t="shared" ref="L28:N28" si="84">L12/H12-1</f>
+      <c r="P28" s="17">
+        <f t="shared" ref="P28:R28" si="93">P12/L12-1</f>
         <v>0.12613122171945701</v>
       </c>
-      <c r="M28" s="18">
-        <f t="shared" si="84"/>
+      <c r="Q28" s="17">
+        <f t="shared" si="93"/>
         <v>0.10997604349027945</v>
       </c>
-      <c r="N28" s="18">
-        <f t="shared" si="84"/>
+      <c r="R28" s="17">
+        <f t="shared" si="93"/>
         <v>0.10669512114171908</v>
       </c>
-      <c r="T28" s="20">
-        <f>T12/S12-1</f>
+      <c r="X28" s="19">
+        <f t="shared" ref="X28:Z28" si="94">X12/W12-1</f>
+        <v>0.23421586757475987</v>
+      </c>
+      <c r="Y28" s="19">
+        <f t="shared" si="94"/>
+        <v>0.18300089899794614</v>
+      </c>
+      <c r="Z28" s="19">
+        <f t="shared" si="94"/>
+        <v>0.12770532012826141</v>
+      </c>
+      <c r="AA28" s="19">
+        <f>AA12/Z12-1</f>
         <v>0.41150076427049154</v>
       </c>
-      <c r="U28" s="20">
-        <f>U12/T12-1</f>
-        <v>0.13603337253577719</v>
-      </c>
-      <c r="V28" s="20">
-        <f t="shared" ref="V28:AC28" si="85">V12/U12-1</f>
-        <v>0.10655671301456859</v>
-      </c>
-      <c r="W28" s="20">
-        <f t="shared" si="85"/>
+      <c r="AB28" s="19">
+        <f>AB12/AA12-1</f>
+        <v>0.13856794637416225</v>
+      </c>
+      <c r="AC28" s="19">
+        <f t="shared" ref="AC28:AJ28" si="95">AC12/AB12-1</f>
+        <v>0.10409339960018027</v>
+      </c>
+      <c r="AD28" s="19">
+        <f t="shared" si="95"/>
         <v>0.11521188119433079</v>
       </c>
-      <c r="X28" s="20">
-        <f t="shared" si="85"/>
+      <c r="AE28" s="19">
+        <f t="shared" si="95"/>
         <v>0.11094739782486651</v>
       </c>
-      <c r="Y28" s="20">
-        <f t="shared" si="85"/>
+      <c r="AF28" s="19">
+        <f t="shared" si="95"/>
         <v>0.11714882389428238</v>
       </c>
-      <c r="Z28" s="20">
-        <f t="shared" si="85"/>
+      <c r="AG28" s="19">
+        <f t="shared" si="95"/>
         <v>0.12397359796538532</v>
       </c>
-      <c r="AA28" s="20">
-        <f t="shared" si="85"/>
+      <c r="AH28" s="19">
+        <f t="shared" si="95"/>
         <v>0.10848733771592189</v>
       </c>
-      <c r="AB28" s="20">
-        <f t="shared" si="85"/>
+      <c r="AI28" s="19">
+        <f t="shared" si="95"/>
         <v>0.11133697578443114</v>
       </c>
-      <c r="AC28" s="20">
-        <f t="shared" si="85"/>
+      <c r="AJ28" s="19">
+        <f t="shared" si="95"/>
         <v>0.11424210537112223</v>
       </c>
-      <c r="AE28" s="8" t="s">
+      <c r="AL28" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM28" s="19">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="2:93" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="AL29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AF28" s="20">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="2:86" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18">
-        <v>0.16</v>
-      </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="T29" s="20"/>
-      <c r="AE29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF29" s="20">
+      <c r="AM29" s="19">
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="2:86" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:93" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24">
-        <f t="shared" ref="H30:K30" si="86">+H10/D10-1</f>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21">
+        <f t="shared" ref="K30" si="96">+K10/G10-1</f>
+        <v>0.30107746306423966</v>
+      </c>
+      <c r="L30" s="21">
+        <f t="shared" ref="L30:O30" si="97">+L10/H10-1</f>
         <v>0.68136404146535945</v>
       </c>
-      <c r="I30" s="24">
-        <f t="shared" si="86"/>
+      <c r="M30" s="21">
+        <f t="shared" si="97"/>
         <v>0.43997266307236682</v>
       </c>
-      <c r="J30" s="24">
-        <f t="shared" si="86"/>
+      <c r="N30" s="21">
+        <f t="shared" si="97"/>
         <v>0.35727047613077145</v>
       </c>
-      <c r="K30" s="24">
-        <f t="shared" si="86"/>
+      <c r="O30" s="21">
+        <f t="shared" si="97"/>
         <v>0.24276169265033398</v>
       </c>
-      <c r="L30" s="24">
-        <f>+L10/H10-1</f>
+      <c r="P30" s="21">
+        <f>+P10/L10-1</f>
         <v>0.13513739712651684</v>
       </c>
-      <c r="M30" s="24">
-        <f>+M10/I10-1</f>
+      <c r="Q30" s="21">
+        <f>+Q10/M10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N30" s="24">
-        <f>+N10/J10-1</f>
+      <c r="R30" s="21">
+        <f>+R10/N10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T30" s="25"/>
-      <c r="V30" s="25">
-        <f>+V10/U10-1</f>
+      <c r="X30" s="22">
+        <f t="shared" ref="X30:AB30" si="98">+X10/W10-1</f>
+        <v>0.22181318130380601</v>
+      </c>
+      <c r="Y30" s="22">
+        <f t="shared" si="98"/>
+        <v>0.15028840742824978</v>
+      </c>
+      <c r="Z30" s="22">
+        <f t="shared" si="98"/>
+        <v>6.0612546501554343E-2</v>
+      </c>
+      <c r="AA30" s="22">
+        <f t="shared" si="98"/>
+        <v>0.43136783840402826</v>
+      </c>
+      <c r="AB30" s="22">
+        <f t="shared" si="98"/>
+        <v>0.13901014427563441</v>
+      </c>
+      <c r="AC30" s="22">
+        <f>+AC10/AB10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="W30" s="24">
-        <f t="shared" ref="W30:AC30" si="87">+W10/V10-1</f>
+      <c r="AD30" s="21">
+        <f t="shared" ref="AD30:AJ30" si="99">+AD10/AC10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="X30" s="24">
-        <f t="shared" si="87"/>
+      <c r="AE30" s="21">
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Y30" s="24">
-        <f t="shared" si="87"/>
+      <c r="AF30" s="21">
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Z30" s="24">
-        <f t="shared" si="87"/>
+      <c r="AG30" s="21">
+        <f t="shared" si="99"/>
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="AA30" s="24">
-        <f t="shared" si="87"/>
+      <c r="AH30" s="21">
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AB30" s="24">
-        <f t="shared" si="87"/>
+      <c r="AI30" s="21">
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AC30" s="24">
-        <f t="shared" si="87"/>
+      <c r="AJ30" s="21">
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AE30" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF30" s="25">
+      <c r="AL30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM30" s="22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:86" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:93" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24">
-        <f t="shared" ref="H31:N31" si="88">+H9/D9-1</f>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21">
+        <f t="shared" ref="K31" si="100">+K9/G9-1</f>
+        <v>0.48712233779098568</v>
+      </c>
+      <c r="L31" s="21">
+        <f t="shared" ref="L31:R31" si="101">+L9/H9-1</f>
         <v>0.83683105981112282</v>
       </c>
-      <c r="I31" s="24">
-        <f t="shared" si="88"/>
+      <c r="M31" s="21">
+        <f t="shared" si="101"/>
         <v>0.4304149295215407</v>
       </c>
-      <c r="J31" s="24">
-        <f t="shared" si="88"/>
+      <c r="N31" s="21">
+        <f t="shared" si="101"/>
         <v>0.25388525780682647</v>
       </c>
-      <c r="K31" s="24">
-        <f t="shared" si="88"/>
+      <c r="O31" s="21">
+        <f t="shared" si="101"/>
         <v>0.143880099916736</v>
       </c>
-      <c r="L31" s="24">
-        <f t="shared" si="88"/>
+      <c r="P31" s="21">
+        <f t="shared" si="101"/>
         <v>4.8271922307911996E-2</v>
       </c>
-      <c r="M31" s="24">
-        <f t="shared" si="88"/>
+      <c r="Q31" s="21">
+        <f t="shared" si="101"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="N31" s="24">
-        <f t="shared" si="88"/>
+      <c r="R31" s="21">
+        <f t="shared" si="101"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="T31" s="25"/>
-      <c r="V31" s="25">
-        <f>+V9/U9-1</f>
+      <c r="X31" s="22">
+        <f t="shared" ref="X31:AA31" si="102">+X9/W9-1</f>
+        <v>0.36871165644171788</v>
+      </c>
+      <c r="Y31" s="22">
+        <f t="shared" si="102"/>
+        <v>0.35804571940833707</v>
+      </c>
+      <c r="Z31" s="22">
+        <f t="shared" si="102"/>
+        <v>0.30516865799722748</v>
+      </c>
+      <c r="AA31" s="22">
+        <f t="shared" si="102"/>
+        <v>0.45888124620675708</v>
+      </c>
+      <c r="AB31" s="22">
+        <f>+AB9/AA9-1</f>
+        <v>7.4615357947651173E-2</v>
+      </c>
+      <c r="AC31" s="22">
+        <f>+AC9/AB9-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="W31" s="24">
-        <f t="shared" ref="W31:AC31" si="89">+W9/V9-1</f>
+      <c r="AD31" s="21">
+        <f t="shared" ref="AD31:AJ31" si="103">+AD9/AC9-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="X31" s="24">
-        <f t="shared" si="89"/>
+      <c r="AE31" s="21">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Y31" s="24">
-        <f t="shared" si="89"/>
+      <c r="AF31" s="21">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Z31" s="24">
-        <f t="shared" si="89"/>
+      <c r="AG31" s="21">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AA31" s="24">
-        <f t="shared" si="89"/>
+      <c r="AH31" s="21">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AB31" s="24">
-        <f t="shared" si="89"/>
+      <c r="AI31" s="21">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AC31" s="24">
-        <f t="shared" si="89"/>
+      <c r="AJ31" s="21">
+        <f t="shared" si="103"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AE31" s="21" t="s">
+      <c r="AL31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM31" s="20">
+        <f>NPV(AM29,AC24:CO24)+Main!L5-Main!L6</f>
+        <v>2377725.0435986267</v>
+      </c>
+    </row>
+    <row r="32" spans="2:93" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16">
+        <f t="shared" ref="K32" si="104">K11/G11-1</f>
+        <v>0.33980836693020566</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" ref="L32" si="105">L11/H11-1</f>
+        <v>0.63090508988025484</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" ref="M32" si="106">M11/I11-1</f>
+        <v>0.40661921875367013</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" ref="N32" si="107">N11/J11-1</f>
+        <v>0.31257919921320898</v>
+      </c>
+      <c r="O32" s="16">
+        <f>O11/K11-1</f>
+        <v>0.20114111532299028</v>
+      </c>
+      <c r="P32" s="16">
+        <f t="shared" ref="P32:R32" si="108">P11/L11-1</f>
+        <v>0.10117931554138115</v>
+      </c>
+      <c r="Q32" s="16">
+        <f t="shared" si="108"/>
+        <v>8.7292432035268375E-2</v>
+      </c>
+      <c r="R32" s="16">
+        <f t="shared" si="108"/>
+        <v>8.6792651296830003E-2</v>
+      </c>
+      <c r="X32" s="5">
+        <f t="shared" ref="X32:AB32" si="109">+X11/W11-1</f>
+        <v>0.22568104346846218</v>
+      </c>
+      <c r="Y32" s="5">
+        <f t="shared" si="109"/>
+        <v>0.16319604057491333</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" si="109"/>
+        <v>0.11071957846204517</v>
+      </c>
+      <c r="AA32" s="5">
+        <f t="shared" si="109"/>
+        <v>0.40853915260770313</v>
+      </c>
+      <c r="AB32" s="5">
+        <f t="shared" si="109"/>
+        <v>0.1150126089866923</v>
+      </c>
+      <c r="AC32" s="5">
+        <f>+AC11/AB11-1</f>
+        <v>7.7181487573449337E-2</v>
+      </c>
+      <c r="AD32" s="16">
+        <f t="shared" ref="AD32:AJ32" si="110">+AD11/AC11-1</f>
+        <v>7.8072306156287352E-2</v>
+      </c>
+      <c r="AE32" s="16">
+        <f t="shared" si="110"/>
+        <v>7.8944260717141335E-2</v>
+      </c>
+      <c r="AF32" s="16">
+        <f t="shared" si="110"/>
+        <v>7.979643035384365E-2</v>
+      </c>
+      <c r="AG32" s="16">
+        <f t="shared" si="110"/>
+        <v>8.0628005979105577E-2</v>
+      </c>
+      <c r="AH32" s="16">
+        <f t="shared" si="110"/>
+        <v>8.1438290414777903E-2</v>
+      </c>
+      <c r="AI32" s="16">
+        <f t="shared" si="110"/>
+        <v>8.2226697360125778E-2</v>
+      </c>
+      <c r="AJ32" s="16">
+        <f t="shared" si="110"/>
+        <v>8.2992749326142867E-2</v>
+      </c>
+      <c r="AL32" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AF31" s="22">
-        <f>NPV(AF29,V24:CH24)+Main!L5-Main!L6</f>
-        <v>2377725.0435986267</v>
-      </c>
-    </row>
-    <row r="32" spans="2:86" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="17">
-        <f t="shared" ref="H32" si="90">H11/D11-1</f>
-        <v>0.63090508988025484</v>
-      </c>
-      <c r="I32" s="17">
-        <f t="shared" ref="I32" si="91">I11/E11-1</f>
-        <v>0.40661921875367013</v>
-      </c>
-      <c r="J32" s="17">
-        <f t="shared" ref="J32" si="92">J11/F11-1</f>
-        <v>0.31257919921320898</v>
-      </c>
-      <c r="K32" s="17">
-        <f>K11/G11-1</f>
-        <v>0.20114111532299028</v>
-      </c>
-      <c r="L32" s="17">
-        <f t="shared" ref="L32:N32" si="93">L11/H11-1</f>
-        <v>0.10117931554138115</v>
-      </c>
-      <c r="M32" s="17">
-        <f t="shared" si="93"/>
-        <v>8.7292432035268375E-2</v>
-      </c>
-      <c r="N32" s="17">
-        <f t="shared" si="93"/>
-        <v>8.6792651296830003E-2</v>
-      </c>
-      <c r="V32" s="5">
-        <f>+V11/U11-1</f>
-        <v>7.7181487573449337E-2</v>
-      </c>
-      <c r="W32" s="17">
-        <f t="shared" ref="W32:AC32" si="94">+W11/V11-1</f>
-        <v>7.8072306156287352E-2</v>
-      </c>
-      <c r="X32" s="17">
-        <f t="shared" si="94"/>
-        <v>7.8944260717141335E-2</v>
-      </c>
-      <c r="Y32" s="17">
-        <f t="shared" si="94"/>
-        <v>7.979643035384365E-2</v>
-      </c>
-      <c r="Z32" s="17">
-        <f t="shared" si="94"/>
-        <v>8.0628005979105577E-2</v>
-      </c>
-      <c r="AA32" s="17">
-        <f t="shared" si="94"/>
-        <v>8.1438290414777903E-2</v>
-      </c>
-      <c r="AB32" s="17">
-        <f t="shared" si="94"/>
-        <v>8.2226697360125778E-2</v>
-      </c>
-      <c r="AC32" s="17">
-        <f t="shared" si="94"/>
-        <v>8.2992749326142867E-2</v>
-      </c>
-      <c r="AE32" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF32" s="1">
-        <f>+AF31/Main!L3</f>
+      <c r="AM32" s="1">
+        <f>+AM31/Main!L3</f>
         <v>179.60004861383993</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="2:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="17">
-        <f t="shared" ref="H33" si="95">H6/D6-1</f>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16">
+        <f t="shared" ref="K33" si="111">K6/G6-1</f>
+        <v>0.4573280518545193</v>
+      </c>
+      <c r="L33" s="16">
+        <f t="shared" ref="L33" si="112">L6/H6-1</f>
         <v>0.53907549052211512</v>
       </c>
-      <c r="I33" s="17">
-        <f t="shared" ref="I33" si="96">I6/E6-1</f>
+      <c r="M33" s="16">
+        <f t="shared" ref="M33" si="113">M6/I6-1</f>
         <v>0.44889663182346107</v>
       </c>
-      <c r="J33" s="17">
-        <f t="shared" ref="J33" si="97">J6/F6-1</f>
+      <c r="N33" s="16">
+        <f t="shared" ref="N33" si="114">N6/J6-1</f>
         <v>0.44635865309318712</v>
       </c>
-      <c r="K33" s="17">
-        <f>K6/G6-1</f>
+      <c r="O33" s="16">
+        <f>O6/K6-1</f>
         <v>0.4383493946132937</v>
       </c>
-      <c r="L33" s="17">
-        <f t="shared" ref="L33:N33" si="98">L6/H6-1</f>
+      <c r="P33" s="16">
+        <f t="shared" ref="P33:R33" si="115">P6/L6-1</f>
         <v>0.35609334485738975</v>
       </c>
-      <c r="M33" s="17">
-        <f t="shared" si="98"/>
+      <c r="Q33" s="16">
+        <f t="shared" si="115"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="N33" s="17">
-        <f t="shared" si="98"/>
+      <c r="R33" s="16">
+        <f t="shared" si="115"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="V33" s="5">
-        <f>+V6/U6-1</f>
+      <c r="X33" s="5">
+        <f t="shared" ref="X33:AB33" si="116">+X6/W6-1</f>
+        <v>0.43934911242603558</v>
+      </c>
+      <c r="Y33" s="5">
+        <f t="shared" si="116"/>
+        <v>0.52757793764988015</v>
+      </c>
+      <c r="Z33" s="5">
+        <f t="shared" si="116"/>
+        <v>0.46434178066831122</v>
+      </c>
+      <c r="AA33" s="5">
+        <f t="shared" si="116"/>
+        <v>0.47070985527222597</v>
+      </c>
+      <c r="AB33" s="5">
+        <f t="shared" si="116"/>
+        <v>0.39750078100593567</v>
+      </c>
+      <c r="AC33" s="5">
+        <f>+AC6/AB6-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="W33" s="17">
-        <f t="shared" ref="W33:AC33" si="99">+W6/V6-1</f>
+      <c r="AD33" s="16">
+        <f t="shared" ref="AD33:AJ33" si="117">+AD6/AC6-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="X33" s="17">
-        <f t="shared" si="99"/>
+      <c r="AE33" s="16">
+        <f t="shared" si="117"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="Y33" s="17">
-        <f t="shared" si="99"/>
+      <c r="AF33" s="16">
+        <f t="shared" si="117"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Z33" s="17">
-        <f t="shared" si="99"/>
+      <c r="AG33" s="16">
+        <f t="shared" si="117"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AA33" s="17">
-        <f t="shared" si="99"/>
+      <c r="AH33" s="16">
+        <f t="shared" si="117"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AB33" s="17">
-        <f t="shared" si="99"/>
+      <c r="AI33" s="16">
+        <f t="shared" si="117"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AC33" s="17">
-        <f t="shared" si="99"/>
+      <c r="AJ33" s="16">
+        <f t="shared" si="117"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="2:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="17">
-        <f t="shared" ref="D34" si="100">D15/D12</f>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16">
+        <f t="shared" ref="G34:H34" si="118">G15/G12</f>
+        <v>0.53881289632887097</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="118"/>
         <v>0.51554952085019712</v>
       </c>
-      <c r="E34" s="17">
-        <f t="shared" ref="E34" si="101">E15/E12</f>
+      <c r="I34" s="16">
+        <f t="shared" ref="I34" si="119">I15/I12</f>
         <v>0.54265479825872265</v>
       </c>
-      <c r="F34" s="17">
-        <f t="shared" ref="F34" si="102">F15/F12</f>
+      <c r="J34" s="16">
+        <f t="shared" ref="J34" si="120">J15/J12</f>
         <v>0.54163590987380927</v>
       </c>
-      <c r="G34" s="17">
-        <f>G15/G12</f>
+      <c r="K34" s="16">
+        <f>K15/K12</f>
         <v>0.56425136493473627</v>
       </c>
-      <c r="H34" s="17">
-        <f t="shared" ref="H34:K34" si="103">H15/H12</f>
+      <c r="L34" s="16">
+        <f t="shared" ref="L34:O34" si="121">L15/L12</f>
         <v>0.57616354234001288</v>
       </c>
-      <c r="I34" s="17">
-        <f t="shared" si="103"/>
+      <c r="M34" s="16">
+        <f t="shared" si="121"/>
         <v>0.57583156730857832</v>
       </c>
-      <c r="J34" s="17">
-        <f t="shared" si="103"/>
+      <c r="N34" s="16">
+        <f t="shared" si="121"/>
         <v>0.56205774975107869</v>
       </c>
-      <c r="K34" s="17">
-        <f t="shared" si="103"/>
+      <c r="O34" s="16">
+        <f t="shared" si="121"/>
         <v>0.5647909896928438</v>
       </c>
-      <c r="L34" s="17">
-        <f t="shared" ref="L34:N34" si="104">L15/L12</f>
+      <c r="P34" s="16">
+        <f t="shared" ref="P34:R34" si="122">P15/P12</f>
         <v>0.56799885197675248</v>
       </c>
-      <c r="M34" s="17">
-        <f t="shared" si="104"/>
+      <c r="Q34" s="16">
+        <f t="shared" si="122"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="N34" s="17">
-        <f t="shared" si="104"/>
+      <c r="R34" s="16">
+        <f t="shared" si="122"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="S34" s="5">
-        <f t="shared" ref="S34" si="105">S15/S12</f>
+      <c r="Z34" s="5">
+        <f t="shared" ref="Z34" si="123">Z15/Z12</f>
         <v>0.53578374706207854</v>
       </c>
-      <c r="T34" s="5">
-        <f>T15/T12</f>
+      <c r="AA34" s="5">
+        <f>AA15/AA12</f>
         <v>0.5693980290098084</v>
       </c>
-      <c r="U34" s="5">
-        <f t="shared" ref="U34:V34" si="106">U15/U12</f>
-        <v>0.57001262845627187</v>
-      </c>
-      <c r="V34" s="5">
-        <f t="shared" si="106"/>
+      <c r="AB34" s="5">
+        <f t="shared" ref="AB34:AC34" si="124">AB15/AB12</f>
+        <v>0.57096982626446702</v>
+      </c>
+      <c r="AC34" s="5">
+        <f t="shared" si="124"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="W34" s="17">
-        <f t="shared" ref="W34:AC34" si="107">W15/W12</f>
+      <c r="AD34" s="16">
+        <f t="shared" ref="AD34:AJ34" si="125">AD15/AD12</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="X34" s="17">
-        <f t="shared" si="107"/>
+      <c r="AE34" s="16">
+        <f t="shared" si="125"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="Y34" s="17">
-        <f t="shared" si="107"/>
+      <c r="AF34" s="16">
+        <f t="shared" si="125"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="Z34" s="17">
-        <f t="shared" si="107"/>
+      <c r="AG34" s="16">
+        <f t="shared" si="125"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA34" s="17">
-        <f t="shared" si="107"/>
+      <c r="AH34" s="16">
+        <f t="shared" si="125"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AB34" s="17">
-        <f t="shared" si="107"/>
+      <c r="AI34" s="16">
+        <f t="shared" si="125"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AC34" s="17">
-        <f t="shared" si="107"/>
+      <c r="AJ34" s="16">
+        <f t="shared" si="125"/>
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16">
+        <f t="shared" ref="G35" si="126">+G23/G22</f>
+        <v>0.11873146835116669</v>
+      </c>
+      <c r="H35" s="16">
+        <f>+H23/H22</f>
+        <v>0.15923643832306392</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" ref="I35:R35" si="127">+I23/I22</f>
+        <v>0.15809566584325174</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="127"/>
+        <v>0.18524265610787094</v>
+      </c>
+      <c r="K35" s="16">
+        <f t="shared" si="127"/>
+        <v>0.15754357938260583</v>
+      </c>
+      <c r="L35" s="16">
+        <f t="shared" si="127"/>
+        <v>0.16</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="127"/>
+        <v>0.17898022892819979</v>
+      </c>
+      <c r="N35" s="16">
+        <f t="shared" si="127"/>
+        <v>0.15408573067781328</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" si="127"/>
+        <v>0.13193197422625963</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="127"/>
+        <v>0.15840959293152415</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" si="127"/>
+        <v>0.16</v>
+      </c>
+      <c r="R35" s="16">
+        <f t="shared" si="127"/>
+        <v>0.16</v>
+      </c>
+      <c r="Z35" s="16">
+        <f t="shared" ref="Z35:AC35" si="128">+Z23/Z22</f>
+        <v>0.16249324071378063</v>
+      </c>
+      <c r="AA35" s="16">
+        <f t="shared" si="128"/>
+        <v>0.16202305640663919</v>
+      </c>
+      <c r="AB35" s="16">
+        <f t="shared" si="128"/>
+        <v>0.15360693537788619</v>
+      </c>
+      <c r="AC35" s="16">
+        <f t="shared" si="128"/>
+        <v>0.18</v>
+      </c>
+      <c r="AD35" s="16">
+        <f t="shared" ref="AD35:AJ35" si="129">+AD23/AD22</f>
+        <v>0.18</v>
+      </c>
+      <c r="AE35" s="16">
+        <f t="shared" si="129"/>
+        <v>0.18</v>
+      </c>
+      <c r="AF35" s="16">
+        <f t="shared" si="129"/>
+        <v>0.18</v>
+      </c>
+      <c r="AG35" s="16">
+        <f t="shared" si="129"/>
+        <v>0.18</v>
+      </c>
+      <c r="AH35" s="16">
+        <f t="shared" si="129"/>
+        <v>0.18</v>
+      </c>
+      <c r="AI35" s="16">
+        <f t="shared" si="129"/>
+        <v>0.18</v>
+      </c>
+      <c r="AJ35" s="16">
+        <f t="shared" si="129"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16">
+        <f t="shared" ref="G36:H36" si="130">G10/G12</f>
+        <v>0.5953011492018756</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="130"/>
+        <v>0.55667545760764547</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" ref="I36" si="131">I10/I12</f>
+        <v>0.57041994239057459</v>
+      </c>
+      <c r="J36" s="16">
+        <f>J10/J12</f>
+        <v>0.56070512144539353</v>
+      </c>
+      <c r="K36" s="16">
+        <f t="shared" ref="K36:O36" si="132">K10/K12</f>
+        <v>0.57632787359438842</v>
+      </c>
+      <c r="L36" s="16">
+        <f t="shared" si="132"/>
+        <v>0.57926632191338079</v>
+      </c>
+      <c r="M36" s="16">
+        <f t="shared" si="132"/>
+        <v>0.58241960748180222</v>
+      </c>
+      <c r="N36" s="16">
+        <f t="shared" si="132"/>
+        <v>0.5748556256223033</v>
+      </c>
+      <c r="O36" s="16">
+        <f t="shared" si="132"/>
+        <v>0.58252341532987306</v>
+      </c>
+      <c r="P36" s="16">
+        <f t="shared" ref="P36:R36" si="133">P10/P12</f>
+        <v>0.58389897395422252</v>
+      </c>
+      <c r="Q36" s="16">
+        <f t="shared" si="133"/>
+        <v>0.57718504105317947</v>
+      </c>
+      <c r="R36" s="16">
+        <f t="shared" si="133"/>
+        <v>0.57137794872736092</v>
+      </c>
+      <c r="Z36" s="16">
+        <f t="shared" ref="Z36:AC36" si="134">Z10/Z12</f>
+        <v>0.57011839344316184</v>
+      </c>
+      <c r="AA36" s="16">
+        <f t="shared" si="134"/>
+        <v>0.57814289096674776</v>
+      </c>
+      <c r="AB36" s="16">
+        <f t="shared" si="134"/>
+        <v>0.57836743055083728</v>
+      </c>
+      <c r="AC36" s="16">
+        <f t="shared" si="134"/>
+        <v>0.57622314727749158</v>
+      </c>
+      <c r="AD36" s="16">
+        <f t="shared" ref="AD36:AJ36" si="135">AD10/AD12</f>
+        <v>0.56836326145165084</v>
+      </c>
+      <c r="AE36" s="16">
+        <f t="shared" si="135"/>
+        <v>0.56276254737253961</v>
+      </c>
+      <c r="AF36" s="16">
+        <f t="shared" si="135"/>
+        <v>0.55412384533680914</v>
+      </c>
+      <c r="AG36" s="16">
+        <f t="shared" si="135"/>
+        <v>0.54230475784651111</v>
+      </c>
+      <c r="AH36" s="16">
+        <f t="shared" si="135"/>
+        <v>0.53815250146234839</v>
+      </c>
+      <c r="AI36" s="16">
+        <f t="shared" si="135"/>
+        <v>0.53266269773013364</v>
+      </c>
+      <c r="AJ36" s="16">
+        <f t="shared" si="135"/>
+        <v>0.52585426872554852</v>
+      </c>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="17">
-        <f>+D23/D22</f>
-        <v>0.15923643832306392</v>
-      </c>
-      <c r="E35" s="17">
-        <f t="shared" ref="E35:N35" si="108">+E23/E22</f>
-        <v>0.15809566584325174</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="108"/>
-        <v>0.18524265610787094</v>
-      </c>
-      <c r="G35" s="17">
-        <f t="shared" si="108"/>
-        <v>0.15754357938260583</v>
-      </c>
-      <c r="H35" s="17">
-        <f t="shared" si="108"/>
-        <v>0.16</v>
-      </c>
-      <c r="I35" s="17">
-        <f t="shared" si="108"/>
-        <v>0.17898022892819979</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="108"/>
-        <v>0.15408573067781328</v>
-      </c>
-      <c r="K35" s="17">
-        <f t="shared" si="108"/>
-        <v>0.13193197422625963</v>
-      </c>
-      <c r="L35" s="17">
-        <f t="shared" si="108"/>
-        <v>0.15840959293152415</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="108"/>
-        <v>0.16</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" si="108"/>
-        <v>0.16</v>
-      </c>
-      <c r="S35" s="17">
-        <f t="shared" ref="S35:V35" si="109">+S23/S22</f>
-        <v>0.16249324071378063</v>
-      </c>
-      <c r="T35" s="17">
-        <f t="shared" si="109"/>
-        <v>0.16202305640663919</v>
-      </c>
-      <c r="U35" s="17">
-        <f t="shared" si="109"/>
-        <v>0.15475716375390955</v>
-      </c>
-      <c r="V35" s="17">
-        <f t="shared" si="109"/>
-        <v>0.18</v>
-      </c>
-      <c r="W35" s="17">
-        <f t="shared" ref="W35:AC35" si="110">+W23/W22</f>
-        <v>0.18</v>
-      </c>
-      <c r="X35" s="17">
-        <f t="shared" si="110"/>
-        <v>0.18</v>
-      </c>
-      <c r="Y35" s="17">
-        <f t="shared" si="110"/>
-        <v>0.18</v>
-      </c>
-      <c r="Z35" s="17">
-        <f t="shared" si="110"/>
-        <v>0.18</v>
-      </c>
-      <c r="AA35" s="17">
-        <f t="shared" si="110"/>
-        <v>0.18</v>
-      </c>
-      <c r="AB35" s="17">
-        <f t="shared" si="110"/>
-        <v>0.18</v>
-      </c>
-      <c r="AC35" s="17">
-        <f t="shared" si="110"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="17">
-        <f t="shared" ref="D36" si="111">D10/D12</f>
-        <v>0.55667545760764547</v>
-      </c>
-      <c r="E36" s="17">
-        <f t="shared" ref="E36" si="112">E10/E12</f>
-        <v>0.57041994239057459</v>
-      </c>
-      <c r="F36" s="17">
-        <f>F10/F12</f>
-        <v>0.56070512144539353</v>
-      </c>
-      <c r="G36" s="17">
-        <f t="shared" ref="G36:K36" si="113">G10/G12</f>
-        <v>0.57632787359438842</v>
-      </c>
-      <c r="H36" s="17">
-        <f t="shared" si="113"/>
-        <v>0.57926632191338079</v>
-      </c>
-      <c r="I36" s="17">
-        <f t="shared" si="113"/>
-        <v>0.58241960748180222</v>
-      </c>
-      <c r="J36" s="17">
-        <f t="shared" si="113"/>
-        <v>0.5748556256223033</v>
-      </c>
-      <c r="K36" s="17">
-        <f t="shared" si="113"/>
-        <v>0.58252341532987306</v>
-      </c>
-      <c r="L36" s="17">
-        <f t="shared" ref="L36:N36" si="114">L10/L12</f>
-        <v>0.58389897395422252</v>
-      </c>
-      <c r="M36" s="17">
-        <f t="shared" si="114"/>
-        <v>0.57718504105317947</v>
-      </c>
-      <c r="N36" s="17">
-        <f t="shared" si="114"/>
-        <v>0.57137794872736092</v>
-      </c>
-      <c r="S36" s="17">
-        <f t="shared" ref="S36:V36" si="115">S10/S12</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="17">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="17">
-        <f t="shared" si="115"/>
-        <v>0.57965781074026435</v>
-      </c>
-      <c r="V36" s="17">
-        <f t="shared" si="115"/>
-        <v>0.57622314727749158</v>
-      </c>
-      <c r="W36" s="17">
-        <f t="shared" ref="W36:AC36" si="116">W10/W12</f>
-        <v>0.56836326145165084</v>
-      </c>
-      <c r="X36" s="17">
-        <f t="shared" si="116"/>
-        <v>0.56276254737253961</v>
-      </c>
-      <c r="Y36" s="17">
-        <f t="shared" si="116"/>
-        <v>0.55412384533680914</v>
-      </c>
-      <c r="Z36" s="17">
-        <f t="shared" si="116"/>
-        <v>0.54230475784651111</v>
-      </c>
-      <c r="AA36" s="17">
-        <f t="shared" si="116"/>
-        <v>0.53815250146234839</v>
-      </c>
-      <c r="AB36" s="17">
-        <f t="shared" si="116"/>
-        <v>0.53266269773013364</v>
-      </c>
-      <c r="AC36" s="17">
-        <f t="shared" si="116"/>
-        <v>0.52585426872554852</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L38" s="13">
-        <f>+L39-L57</f>
+      <c r="G38" s="12">
+        <f>+G39-G57</f>
+        <v>124580</v>
+      </c>
+      <c r="P38" s="12">
+        <f>+P39-P57</f>
         <v>140928</v>
       </c>
-      <c r="M38" s="13">
-        <f>+L38+M24</f>
+      <c r="Q38" s="12">
+        <f>+P38+Q24</f>
         <v>160992.79986</v>
       </c>
-      <c r="N38" s="13">
-        <f>+M38+N24</f>
+      <c r="R38" s="12">
+        <f>+Q38+R24</f>
         <v>182852.15409</v>
       </c>
-      <c r="U38" s="3">
-        <f>+N38</f>
+      <c r="AB38" s="3">
+        <f>+R38</f>
         <v>182852.15409</v>
       </c>
-      <c r="V38" s="3">
-        <f>+U38+V24</f>
+      <c r="AC38" s="3">
+        <f>+AB38+AC24</f>
         <v>268545.344099838</v>
       </c>
-      <c r="W38" s="3">
-        <f t="shared" ref="W38:AC38" si="117">+V38+W24</f>
+      <c r="AD38" s="3">
+        <f t="shared" ref="AD38:AJ38" si="136">+AC38+AD24</f>
         <v>369022.52856111771</v>
       </c>
-      <c r="X38" s="3">
-        <f t="shared" si="117"/>
+      <c r="AE38" s="3">
+        <f t="shared" si="136"/>
         <v>485526.40754842455</v>
       </c>
-      <c r="Y38" s="3">
-        <f t="shared" si="117"/>
+      <c r="AF38" s="3">
+        <f t="shared" si="136"/>
         <v>621253.1451672361</v>
       </c>
-      <c r="Z38" s="3">
-        <f t="shared" si="117"/>
+      <c r="AG38" s="3">
+        <f t="shared" si="136"/>
         <v>780178.994926546</v>
       </c>
-      <c r="AA38" s="3">
-        <f t="shared" si="117"/>
+      <c r="AH38" s="3">
+        <f t="shared" si="136"/>
         <v>961873.02890629508</v>
       </c>
-      <c r="AB38" s="3">
-        <f t="shared" si="117"/>
+      <c r="AI38" s="3">
+        <f t="shared" si="136"/>
         <v>1169833.3121598868</v>
       </c>
-      <c r="AC38" s="3">
-        <f t="shared" si="117"/>
+      <c r="AJ38" s="3">
+        <f t="shared" si="136"/>
         <v>1408139.5157565037</v>
       </c>
     </row>
-    <row r="39" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12">
+        <f>117229+12367</f>
+        <v>129596</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12">
         <f>124997+30665</f>
         <v>155662</v>
       </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13">
+        <v>53</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12">
+        <v>21825</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12">
         <v>35707</v>
       </c>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12">
+        <v>1910</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12">
         <v>1366</v>
       </c>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+    </row>
+    <row r="42" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12">
+        <v>889</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12">
+        <v>1980</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13">
-        <v>1980</v>
-      </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12">
+        <v>5165</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12">
+        <v>8321</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13">
-        <v>8321</v>
-      </c>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
+      <c r="G44" s="12">
+        <v>730</v>
+      </c>
+      <c r="P44" s="12">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L44" s="13">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
+      <c r="G45" s="12">
+        <v>76747</v>
+      </c>
+      <c r="P45" s="12">
+        <v>106223</v>
+      </c>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L45" s="13">
-        <v>106223</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L46" s="13">
+      <c r="G46" s="12">
+        <v>11219</v>
+      </c>
+      <c r="P46" s="12">
         <v>13398</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L47" s="13">
+        <v>61</v>
+      </c>
+      <c r="G47" s="12">
+        <f>1840+20734</f>
+        <v>22574</v>
+      </c>
+      <c r="P47" s="12">
         <f>1377+23949</f>
         <v>25326</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L48" s="13">
+        <v>60</v>
+      </c>
+      <c r="G48" s="12">
+        <v>2748</v>
+      </c>
+      <c r="P48" s="12">
         <v>5712</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L49" s="13">
-        <f>SUM(L39:L48)</f>
+        <v>59</v>
+      </c>
+      <c r="G49" s="12">
+        <f>SUM(G39:G48)</f>
+        <v>273403</v>
+      </c>
+      <c r="P49" s="12">
+        <f>SUM(P39:P48)</f>
         <v>355185</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
-      <c r="L50" s="13"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G50" s="12"/>
+      <c r="P50" s="12"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="12">
+        <v>4099</v>
+      </c>
+      <c r="P51" s="12">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L51" s="13">
-        <v>4409</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="3" t="s">
+      <c r="G52" s="12">
+        <v>5656</v>
+      </c>
+      <c r="P52" s="12">
+        <v>10852</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L52" s="13">
-        <v>10852</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
+      <c r="G53" s="12">
+        <v>22601</v>
+      </c>
+      <c r="P53" s="12">
+        <v>32976</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L53" s="13">
-        <v>32976</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
+      <c r="G54" s="12">
+        <v>4982</v>
+      </c>
+      <c r="P54" s="12">
+        <v>7889</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L54" s="13">
-        <v>7889</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L55" s="13">
+      <c r="G55" s="12">
+        <f>1938+350</f>
+        <v>2288</v>
+      </c>
+      <c r="P55" s="12">
         <f>3272+472</f>
         <v>3744</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L56" s="13">
+      <c r="G56" s="12">
+        <f>9207+913+2079</f>
+        <v>12199</v>
+      </c>
+      <c r="P56" s="12">
         <f>1956+8163+924</f>
         <v>11043</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="13">
+      <c r="G57" s="12">
+        <v>5016</v>
+      </c>
+      <c r="P57" s="12">
         <v>14734</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L58" s="13">
+        <v>58</v>
+      </c>
+      <c r="G58" s="12">
+        <v>10476</v>
+      </c>
+      <c r="P58" s="12">
         <v>11697</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L59" s="13">
+        <v>69</v>
+      </c>
+      <c r="G59" s="12">
+        <v>2427</v>
+      </c>
+      <c r="P59" s="12">
         <v>2422</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L60" s="13">
+        <v>68</v>
+      </c>
+      <c r="G60" s="12">
+        <v>203659</v>
+      </c>
+      <c r="P60" s="12">
         <v>255419</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L61" s="13">
-        <f>SUM(L51:L60)</f>
+        <v>67</v>
+      </c>
+      <c r="G61" s="12">
+        <f>SUM(G51:G60)</f>
+        <v>273403</v>
+      </c>
+      <c r="P61" s="12">
+        <f>SUM(P51:P60)</f>
         <v>355185</v>
       </c>
     </row>
-    <row r="63" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="12">
+        <f>+C24</f>
+        <v>8354</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12">
+        <f>+G24</f>
+        <v>6836</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+    </row>
+    <row r="64" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="12">
+        <v>6657</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12">
+        <v>6836</v>
+      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+    </row>
+    <row r="65" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="12">
+        <v>2416</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12">
+        <v>2899</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+    </row>
+    <row r="66" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="12">
+        <v>197</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12">
+        <v>209</v>
+      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+    </row>
+    <row r="67" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="12">
+        <v>2769</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12">
+        <v>3191</v>
+      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+    </row>
+    <row r="68" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="12">
+        <v>-73</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12">
+        <v>175</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+    </row>
+    <row r="69" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="12">
+        <v>-1081</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12">
+        <v>802</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+    </row>
+    <row r="70" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="12">
+        <v>22</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12">
+        <v>297</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+    </row>
+    <row r="71" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="12">
+        <f>1172+1068-265-425-229-147-81</f>
+        <v>1093</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12">
+        <f>2602-245-115-835-3531-871+37</f>
+        <v>-2958</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+    </row>
+    <row r="72" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13">
+      <c r="C72" s="12">
+        <f>SUM(C64:C71)</f>
+        <v>12000</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12">
+        <f>SUM(G64:G71)</f>
+        <v>11451</v>
+      </c>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12">
         <v>22677</v>
       </c>
-      <c r="G63" s="13">
+      <c r="K72" s="12">
         <v>19289</v>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13">
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12">
         <v>24934</v>
       </c>
-      <c r="K63" s="13">
+      <c r="O72" s="12">
         <v>25106</v>
       </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-    </row>
-    <row r="64" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="3" t="s">
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+    </row>
+    <row r="73" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+    </row>
+    <row r="74" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13">
+      <c r="C74" s="12">
+        <v>-4638</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12">
+        <v>-6005</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12">
         <v>5479</v>
       </c>
-      <c r="G64" s="13">
+      <c r="K74" s="12">
         <v>5942</v>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13">
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12">
         <v>6383</v>
       </c>
-      <c r="K64" s="13">
+      <c r="O74" s="12">
         <v>9786</v>
       </c>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-    </row>
-    <row r="65" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+    </row>
+    <row r="75" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="12">
+        <f>-20883+21006-907+99</f>
+        <v>-685</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12">
+        <f>-37563+41811-572+260</f>
+        <v>3936</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+    </row>
+    <row r="76" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="12">
+        <v>-99</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12">
+        <v>-190</v>
+      </c>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+    </row>
+    <row r="77" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="12">
+        <v>34</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12">
+        <v>412</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+    </row>
+    <row r="78" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="12">
+        <f>SUM(C74:C77)</f>
+        <v>-5388</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12">
+        <f>SUM(G74:G77)</f>
+        <v>-1847</v>
+      </c>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+    </row>
+    <row r="79" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+    </row>
+    <row r="80" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" s="12">
+        <v>-1175</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12">
+        <v>-1241</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+    </row>
+    <row r="81" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="12">
+        <v>-3025</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12">
+        <v>-8496</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+    </row>
+    <row r="82" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="12">
+        <f>315-345</f>
+        <v>-30</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12">
+        <f>1898-1947</f>
+        <v>-49</v>
+      </c>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+    </row>
+    <row r="83" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="12">
+        <v>47</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12">
+        <v>1600</v>
+      </c>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+    </row>
+    <row r="84" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="12">
+        <f>SUM(C80:C83)</f>
+        <v>-4183</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12">
+        <f>SUM(G80:G83)</f>
+        <v>-8186</v>
+      </c>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+    </row>
+    <row r="85" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="12">
+        <v>18</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12">
+        <v>-272</v>
+      </c>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+    </row>
+    <row r="86" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="12">
+        <f>+C85+C84+C78+C72</f>
+        <v>2447</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12">
+        <f>+G85+G84+G78+G72</f>
+        <v>1146</v>
+      </c>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+    </row>
+    <row r="87" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+    </row>
+    <row r="88" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13">
-        <f t="shared" ref="F65" si="118">F63-F64</f>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12">
+        <f>J72-J74</f>
         <v>17198</v>
       </c>
-      <c r="G65" s="13">
-        <f>G63-G64</f>
+      <c r="K88" s="12">
+        <f>K72-K74</f>
         <v>13347</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13">
-        <f t="shared" ref="J65" si="119">J63-J64</f>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12">
+        <f>N72-N74</f>
         <v>18551</v>
       </c>
-      <c r="K65" s="13">
-        <f t="shared" ref="K65" si="120">K63-K64</f>
+      <c r="O88" s="12">
+        <f>O72-O74</f>
         <v>15320</v>
       </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-    </row>
-    <row r="68" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="3" t="s">
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+    </row>
+    <row r="91" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13">
+      <c r="C91" s="12">
+        <v>103459</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12">
+        <v>123048</v>
+      </c>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12">
         <v>144056</v>
       </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13">
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12">
         <v>174014</v>
       </c>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L69" s="17">
-        <f>+L68/H68-1</f>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P92" s="16">
+        <f>+P91/L91-1</f>
         <v>0.20796079302493475</v>
       </c>
     </row>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5271EC84-8F4A-4386-84A7-FAD24AD92C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18BAF37-3AEE-492A-AB2A-FE3866B0F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="100">
   <si>
     <t>Price</t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>CIC</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
   </si>
 </sst>
 </file>
@@ -448,14 +460,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -472,8 +484,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="0"/>
-          <a:ext cx="0" cy="10115550"/>
+          <a:off x="10591800" y="0"/>
+          <a:ext cx="0" cy="17726025"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -498,13 +510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -956,29 +968,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
-  <dimension ref="A1:CO92"/>
+  <dimension ref="A1:CS92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="2"/>
-    <col min="39" max="39" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.140625" style="2"/>
+    <col min="43" max="43" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1027,65 +1039,77 @@
       <c r="R3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U3">
+      <c r="S3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y3">
         <v>2015</v>
       </c>
-      <c r="V3">
+      <c r="Z3">
         <v>2016</v>
       </c>
-      <c r="W3">
+      <c r="AA3">
         <v>2017</v>
       </c>
-      <c r="X3">
+      <c r="AB3">
         <v>2018</v>
       </c>
-      <c r="Y3">
+      <c r="AC3">
         <v>2019</v>
       </c>
-      <c r="Z3">
+      <c r="AD3">
         <v>2020</v>
       </c>
-      <c r="AA3">
+      <c r="AE3">
         <v>2021</v>
       </c>
-      <c r="AB3">
-        <f>AA3+1</f>
+      <c r="AF3">
+        <f>AE3+1</f>
         <v>2022</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AJ3" si="0">AB3+1</f>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AN3" si="0">AF3+1</f>
         <v>2023</v>
       </c>
-      <c r="AD3">
+      <c r="AH3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AE3">
+      <c r="AI3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AF3">
+      <c r="AJ3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AG3">
+      <c r="AK3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AH3">
+      <c r="AL3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AI3">
+      <c r="AM3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AJ3">
+      <c r="AN3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
@@ -1125,31 +1149,37 @@
       <c r="P4" s="12">
         <v>375</v>
       </c>
-      <c r="Q4" s="12"/>
+      <c r="Q4" s="12">
+        <v>638</v>
+      </c>
       <c r="R4" s="12"/>
-      <c r="W4" s="3">
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="AA4" s="3">
         <v>-169</v>
       </c>
-      <c r="X4" s="3">
+      <c r="AB4" s="3">
         <v>-138</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="AC4" s="3">
         <v>455</v>
       </c>
-      <c r="Z4" s="3">
-        <f t="shared" ref="Z4:Z10" si="1">SUM(G4:J4)</f>
+      <c r="AD4" s="3">
+        <f t="shared" ref="AD4:AD10" si="1">SUM(G4:J4)</f>
         <v>176</v>
       </c>
-      <c r="AA4" s="3">
-        <f t="shared" ref="AA4:AA7" si="2">SUM(K4:N4)</f>
+      <c r="AE4" s="3">
+        <f t="shared" ref="AE4:AE7" si="2">SUM(K4:N4)</f>
         <v>149</v>
       </c>
-      <c r="AB4" s="3">
-        <f>SUM(O4:R4)</f>
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF4" s="3">
+        <f t="shared" ref="AF4:AF10" si="3">SUM(O4:R4)</f>
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1190,68 +1220,71 @@
         <v>193</v>
       </c>
       <c r="Q5" s="12">
-        <f>+M5</f>
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="R5" s="12">
-        <f t="shared" ref="R5" si="3">+N5</f>
+        <f t="shared" ref="R5" si="4">+N5</f>
         <v>181</v>
       </c>
-      <c r="W5" s="3">
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="AA5" s="3">
         <v>477</v>
       </c>
-      <c r="X5" s="3">
+      <c r="AB5" s="3">
         <v>595</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="AC5" s="3">
         <v>659</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AD5" s="3">
         <f t="shared" si="1"/>
         <v>657</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AE5" s="3">
         <f t="shared" si="2"/>
         <v>753</v>
       </c>
-      <c r="AB5" s="3">
-        <f>SUM(O5:R5)</f>
-        <v>996</v>
-      </c>
-      <c r="AC5" s="3">
-        <f>+AB5*1.01</f>
-        <v>1005.96</v>
-      </c>
-      <c r="AD5" s="3">
-        <f t="shared" ref="AD5:AJ5" si="4">+AC5*1.01</f>
-        <v>1016.0196000000001</v>
-      </c>
-      <c r="AE5" s="3">
-        <f t="shared" si="4"/>
-        <v>1026.1797960000001</v>
-      </c>
       <c r="AF5" s="3">
-        <f t="shared" si="4"/>
-        <v>1036.4415939600001</v>
+        <f t="shared" si="3"/>
+        <v>1023</v>
       </c>
       <c r="AG5" s="3">
-        <f t="shared" si="4"/>
-        <v>1046.8060098996002</v>
+        <f>+AF5*1.01</f>
+        <v>1033.23</v>
       </c>
       <c r="AH5" s="3">
-        <f t="shared" si="4"/>
-        <v>1057.2740699985961</v>
+        <f t="shared" ref="AH5:AN5" si="5">+AG5*1.01</f>
+        <v>1043.5623000000001</v>
       </c>
       <c r="AI5" s="3">
-        <f t="shared" si="4"/>
-        <v>1067.8468106985822</v>
+        <f t="shared" si="5"/>
+        <v>1053.9979230000001</v>
       </c>
       <c r="AJ5" s="3">
-        <f t="shared" si="4"/>
-        <v>1078.525278805568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>1064.5379022300001</v>
+      </c>
+      <c r="AK5" s="3">
+        <f t="shared" si="5"/>
+        <v>1075.1832812523</v>
+      </c>
+      <c r="AL5" s="3">
+        <f t="shared" si="5"/>
+        <v>1085.935114064823</v>
+      </c>
+      <c r="AM5" s="3">
+        <f t="shared" si="5"/>
+        <v>1096.7944652054712</v>
+      </c>
+      <c r="AN5" s="3">
+        <f t="shared" si="5"/>
+        <v>1107.7624098575259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1292,68 +1325,71 @@
         <v>6276</v>
       </c>
       <c r="Q6" s="12">
-        <f>+M6*1.4</f>
-        <v>6986</v>
+        <v>6868</v>
       </c>
       <c r="R6" s="12">
-        <f t="shared" ref="R6" si="5">+N6*1.4</f>
+        <f t="shared" ref="R6" si="6">+N6*1.4</f>
         <v>7757.4</v>
       </c>
-      <c r="W6" s="3">
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="AA6" s="3">
         <v>4056</v>
       </c>
-      <c r="X6" s="3">
+      <c r="AB6" s="3">
         <v>5838</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="AC6" s="3">
         <v>8918</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="AD6" s="3">
         <f t="shared" si="1"/>
         <v>13059</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AE6" s="3">
         <f t="shared" si="2"/>
         <v>19206</v>
       </c>
-      <c r="AB6" s="3">
-        <f>SUM(O6:R6)</f>
-        <v>26840.400000000001</v>
-      </c>
-      <c r="AC6" s="3">
-        <f>+AB6*1.4</f>
-        <v>37576.559999999998</v>
-      </c>
-      <c r="AD6" s="3">
-        <f t="shared" ref="AD6" si="6">+AC6*1.4</f>
-        <v>52607.183999999994</v>
-      </c>
-      <c r="AE6" s="3">
-        <f>+AD6*1.3</f>
-        <v>68389.339199999988</v>
-      </c>
       <c r="AF6" s="3">
-        <f>+AE6*1.3</f>
-        <v>88906.14095999999</v>
+        <f t="shared" si="3"/>
+        <v>26722.400000000001</v>
       </c>
       <c r="AG6" s="3">
-        <f>+AF6*1.3</f>
-        <v>115577.98324799999</v>
+        <f>+AF6*1.4</f>
+        <v>37411.360000000001</v>
       </c>
       <c r="AH6" s="3">
-        <f>+AG6*1.2</f>
-        <v>138693.57989759999</v>
+        <f t="shared" ref="AH6" si="7">+AG6*1.4</f>
+        <v>52375.903999999995</v>
       </c>
       <c r="AI6" s="3">
-        <f>+AH6*1.2</f>
-        <v>166432.29587711999</v>
+        <f>+AH6*1.3</f>
+        <v>68088.675199999998</v>
       </c>
       <c r="AJ6" s="3">
-        <f>+AI6*1.2</f>
-        <v>199718.75505254397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AI6*1.3</f>
+        <v>88515.277759999997</v>
+      </c>
+      <c r="AK6" s="3">
+        <f>+AJ6*1.3</f>
+        <v>115069.86108800001</v>
+      </c>
+      <c r="AL6" s="3">
+        <f>+AK6*1.2</f>
+        <v>138083.83330560001</v>
+      </c>
+      <c r="AM6" s="3">
+        <f>+AL6*1.2</f>
+        <v>165700.59996672001</v>
+      </c>
+      <c r="AN6" s="3">
+        <f>+AM6*1.2</f>
+        <v>198840.71996006402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1394,68 +1430,71 @@
         <v>6553</v>
       </c>
       <c r="Q7" s="12">
-        <f>+M7*1.03</f>
-        <v>6956.62</v>
+        <v>6895</v>
       </c>
       <c r="R7" s="12">
         <f>+N7*1.03</f>
         <v>8405.83</v>
       </c>
-      <c r="W7" s="3">
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="AA7" s="3">
         <v>10914</v>
       </c>
-      <c r="X7" s="3">
+      <c r="AB7" s="3">
         <v>14063</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="AC7" s="3">
         <v>17014</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AD7" s="3">
         <f t="shared" si="1"/>
         <v>21711</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AE7" s="3">
         <f t="shared" si="2"/>
         <v>28032</v>
       </c>
-      <c r="AB7" s="3">
-        <f>SUM(O7:R7)</f>
-        <v>28726.449999999997</v>
-      </c>
-      <c r="AC7" s="3">
-        <f>+AB7*1.03</f>
-        <v>29588.243499999997</v>
-      </c>
-      <c r="AD7" s="3">
-        <f t="shared" ref="AD7:AJ7" si="7">+AC7*1.03</f>
-        <v>30475.890804999999</v>
-      </c>
-      <c r="AE7" s="3">
-        <f t="shared" si="7"/>
-        <v>31390.16752915</v>
-      </c>
       <c r="AF7" s="3">
-        <f t="shared" si="7"/>
-        <v>32331.8725550245</v>
+        <f t="shared" si="3"/>
+        <v>28664.83</v>
       </c>
       <c r="AG7" s="3">
-        <f t="shared" si="7"/>
-        <v>33301.828731675232</v>
+        <f>+AF7*1.03</f>
+        <v>29524.774900000004</v>
       </c>
       <c r="AH7" s="3">
-        <f t="shared" si="7"/>
-        <v>34300.883593625491</v>
+        <f t="shared" ref="AH7:AN7" si="8">+AG7*1.03</f>
+        <v>30410.518147000006</v>
       </c>
       <c r="AI7" s="3">
-        <f t="shared" si="7"/>
-        <v>35329.91010143426</v>
+        <f t="shared" si="8"/>
+        <v>31322.833691410007</v>
       </c>
       <c r="AJ7" s="3">
-        <f t="shared" si="7"/>
-        <v>36389.807404477287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>32262.518702152309</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" si="8"/>
+        <v>33230.394263216876</v>
+      </c>
+      <c r="AL7" s="3">
+        <f t="shared" si="8"/>
+        <v>34227.306091113387</v>
+      </c>
+      <c r="AM7" s="3">
+        <f t="shared" si="8"/>
+        <v>35254.125273846788</v>
+      </c>
+      <c r="AN7" s="3">
+        <f t="shared" si="8"/>
+        <v>36311.749032062195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
@@ -1496,68 +1535,71 @@
         <v>8259</v>
       </c>
       <c r="Q8" s="12">
-        <f>+M8*1.1</f>
-        <v>8798.9000000000015</v>
+        <v>7872</v>
       </c>
       <c r="R8" s="12">
         <f>+N8*1.1</f>
         <v>10235.5</v>
       </c>
-      <c r="W8" s="3">
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="AA8" s="3">
         <v>17616</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AB8" s="3">
         <v>20010</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AC8" s="3">
         <v>21547</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AD8" s="3">
         <f t="shared" si="1"/>
         <v>23090</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AE8" s="3">
         <f>SUM(K8:N8)</f>
         <v>31701</v>
       </c>
-      <c r="AB8" s="3">
-        <f>SUM(O8:R8)</f>
-        <v>35467.4</v>
-      </c>
-      <c r="AC8" s="3">
-        <f>+AB8*1.03</f>
-        <v>36531.422000000006</v>
-      </c>
-      <c r="AD8" s="3">
-        <f t="shared" ref="AD8:AJ8" si="8">+AC8*1.03</f>
-        <v>37627.364660000007</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" si="8"/>
-        <v>38756.18559980001</v>
-      </c>
       <c r="AF8" s="3">
-        <f t="shared" si="8"/>
-        <v>39918.871167794008</v>
+        <f t="shared" si="3"/>
+        <v>34540.5</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" si="8"/>
-        <v>41116.437302827828</v>
+        <f>+AF8*1.03</f>
+        <v>35576.715000000004</v>
       </c>
       <c r="AH8" s="3">
-        <f t="shared" si="8"/>
-        <v>42349.930421912664</v>
+        <f t="shared" ref="AH8:AN8" si="9">+AG8*1.03</f>
+        <v>36644.016450000003</v>
       </c>
       <c r="AI8" s="3">
-        <f t="shared" si="8"/>
-        <v>43620.428334570046</v>
+        <f t="shared" si="9"/>
+        <v>37743.336943500006</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" si="8"/>
-        <v>44929.041184607151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>38875.63705180501</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" si="9"/>
+        <v>40041.906163359163</v>
+      </c>
+      <c r="AL8" s="3">
+        <f t="shared" si="9"/>
+        <v>41243.163348259935</v>
+      </c>
+      <c r="AM8" s="3">
+        <f t="shared" si="9"/>
+        <v>42480.458248707735</v>
+      </c>
+      <c r="AN8" s="3">
+        <f t="shared" si="9"/>
+        <v>43754.871996168971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
@@ -1598,68 +1640,71 @@
         <v>7340</v>
       </c>
       <c r="Q9" s="12">
-        <f>+M9*1.06</f>
-        <v>7637.3</v>
+        <v>7071</v>
       </c>
       <c r="R9" s="12">
         <f>+N9*1.06</f>
         <v>9150.98</v>
       </c>
-      <c r="W9" s="3">
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="AA9" s="3">
         <v>8150</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AB9" s="3">
         <v>11155</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AC9" s="3">
         <v>15149</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AD9" s="3">
         <f t="shared" si="1"/>
         <v>19772</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AE9" s="3">
         <f>SUM(K9:N9)</f>
         <v>28845</v>
       </c>
-      <c r="AB9" s="3">
-        <f>SUM(O9:R9)</f>
-        <v>30997.279999999999</v>
-      </c>
-      <c r="AC9" s="3">
-        <f>+AB9*1.05</f>
-        <v>32547.144</v>
-      </c>
-      <c r="AD9" s="3">
-        <f t="shared" ref="AD9:AJ9" si="9">+AC9*1.05</f>
-        <v>34174.501199999999</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" si="9"/>
-        <v>35883.226260000003</v>
-      </c>
       <c r="AF9" s="3">
-        <f t="shared" si="9"/>
-        <v>37677.387573000007</v>
+        <f t="shared" si="3"/>
+        <v>30430.98</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="9"/>
-        <v>39561.256951650008</v>
+        <f>+AF9*1.05</f>
+        <v>31952.529000000002</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="9"/>
-        <v>41539.319799232508</v>
+        <f t="shared" ref="AH9:AN9" si="10">+AG9*1.05</f>
+        <v>33550.155450000006</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="9"/>
-        <v>43616.285789194138</v>
+        <f t="shared" si="10"/>
+        <v>35227.663222500007</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="9"/>
-        <v>45797.10007865385</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>36989.046383625006</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" si="10"/>
+        <v>38838.498702806261</v>
+      </c>
+      <c r="AL9" s="3">
+        <f t="shared" si="10"/>
+        <v>40780.423637946573</v>
+      </c>
+      <c r="AM9" s="3">
+        <f t="shared" si="10"/>
+        <v>42819.444819843906</v>
+      </c>
+      <c r="AN9" s="3">
+        <f t="shared" si="10"/>
+        <v>44960.417060836102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
@@ -1700,93 +1745,96 @@
         <v>40689</v>
       </c>
       <c r="Q10" s="12">
-        <f>+M10*1.1</f>
-        <v>41718.600000000006</v>
+        <v>39539</v>
       </c>
       <c r="R10" s="12">
         <f>+N10*1.1</f>
         <v>47631.100000000006</v>
       </c>
-      <c r="W10" s="3">
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="AA10" s="3">
         <v>69811</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AB10" s="3">
         <v>85296</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AC10" s="3">
         <v>98115</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AD10" s="3">
         <f t="shared" si="1"/>
         <v>104062</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AE10" s="3">
         <f>SUM(K10:N10)</f>
         <v>148951</v>
       </c>
-      <c r="AB10" s="3">
-        <f>SUM(O10:R10)</f>
-        <v>169656.7</v>
-      </c>
-      <c r="AC10" s="3">
-        <f>+AB10*1.1</f>
-        <v>186622.37000000002</v>
-      </c>
-      <c r="AD10" s="3">
-        <f t="shared" ref="AD10:AJ10" si="10">+AC10*1.1</f>
-        <v>205284.60700000005</v>
-      </c>
-      <c r="AE10" s="3">
-        <f t="shared" si="10"/>
-        <v>225813.06770000007</v>
-      </c>
       <c r="AF10" s="3">
-        <f t="shared" si="10"/>
-        <v>248394.3744700001</v>
+        <f t="shared" si="3"/>
+        <v>167477.1</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="10"/>
-        <v>273233.8119170001</v>
+        <f>+AF10*1.1</f>
+        <v>184224.81000000003</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="10"/>
-        <v>300557.19310870016</v>
+        <f t="shared" ref="AH10:AN10" si="11">+AG10*1.1</f>
+        <v>202647.29100000006</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="10"/>
-        <v>330612.9124195702</v>
+        <f t="shared" si="11"/>
+        <v>222912.02010000008</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="10"/>
-        <v>363674.20366152725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>245203.22211000012</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="11"/>
+        <v>269723.54432100017</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" si="11"/>
+        <v>296695.89875310019</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" si="11"/>
+        <v>326365.48862841021</v>
+      </c>
+      <c r="AN10" s="3">
+        <f t="shared" si="11"/>
+        <v>359002.03749125125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="12">
-        <f t="shared" ref="C11:G11" si="11">SUM(C7:C10)</f>
+        <f t="shared" ref="C11:G11" si="12">SUM(C7:C10)</f>
         <v>34207</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38198</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" ref="H11" si="12">SUM(H7:H10)</f>
+        <f t="shared" ref="H11" si="13">SUM(H7:H10)</f>
         <v>34991</v>
       </c>
       <c r="I11" s="12">
@@ -1801,116 +1849,120 @@
         <v>51178</v>
       </c>
       <c r="L11" s="12">
-        <f t="shared" ref="L11" si="13">SUM(L7:L10)</f>
+        <f t="shared" ref="L11" si="14">SUM(L7:L10)</f>
         <v>57067</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" ref="M11:R11" si="14">SUM(M7:M10)</f>
+        <f t="shared" ref="M11:R11" si="15">SUM(M7:M10)</f>
         <v>59884</v>
       </c>
       <c r="N11" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>69400</v>
       </c>
       <c r="O11" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>61472</v>
       </c>
       <c r="P11" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>62841</v>
       </c>
       <c r="Q11" s="12">
-        <f t="shared" si="14"/>
-        <v>65111.420000000006</v>
+        <f t="shared" si="15"/>
+        <v>61377</v>
       </c>
       <c r="R11" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>75423.41</v>
       </c>
-      <c r="W11" s="12">
-        <f t="shared" ref="W11:Z11" si="15">SUM(W7:W10)</f>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="AA11" s="12">
+        <f t="shared" ref="AA11:AD11" si="16">SUM(AA7:AA10)</f>
         <v>106491</v>
       </c>
-      <c r="X11" s="12">
-        <f t="shared" si="15"/>
+      <c r="AB11" s="12">
+        <f t="shared" si="16"/>
         <v>130524</v>
       </c>
-      <c r="Y11" s="12">
-        <f t="shared" si="15"/>
+      <c r="AC11" s="12">
+        <f t="shared" si="16"/>
         <v>151825</v>
       </c>
-      <c r="Z11" s="12">
-        <f t="shared" si="15"/>
+      <c r="AD11" s="12">
+        <f t="shared" si="16"/>
         <v>168635</v>
       </c>
-      <c r="AA11" s="12">
-        <f>SUM(AA7:AA10)</f>
+      <c r="AE11" s="12">
+        <f>SUM(AE7:AE10)</f>
         <v>237529</v>
       </c>
-      <c r="AB11" s="12">
-        <f>SUM(AB7:AB10)</f>
-        <v>264847.83</v>
-      </c>
-      <c r="AC11" s="12">
-        <f>SUM(AC7:AC10)</f>
-        <v>285289.17950000003</v>
-      </c>
-      <c r="AD11" s="12">
-        <f t="shared" ref="AD11:AJ11" si="16">SUM(AD7:AD10)</f>
-        <v>307562.36366500007</v>
-      </c>
-      <c r="AE11" s="12">
-        <f t="shared" si="16"/>
-        <v>331842.64708895009</v>
-      </c>
       <c r="AF11" s="12">
-        <f t="shared" si="16"/>
-        <v>358322.50576581864</v>
+        <f>SUM(AF7:AF10)</f>
+        <v>261113.41</v>
       </c>
       <c r="AG11" s="12">
-        <f t="shared" si="16"/>
-        <v>387213.33490315318</v>
+        <f>SUM(AG7:AG10)</f>
+        <v>281278.82890000002</v>
       </c>
       <c r="AH11" s="12">
-        <f t="shared" si="16"/>
-        <v>418747.32692347083</v>
+        <f t="shared" ref="AH11:AN11" si="17">SUM(AH7:AH10)</f>
+        <v>303251.98104700004</v>
       </c>
       <c r="AI11" s="12">
-        <f t="shared" si="16"/>
-        <v>453179.53664476867</v>
+        <f t="shared" si="17"/>
+        <v>327205.85395741009</v>
       </c>
       <c r="AJ11" s="12">
-        <f t="shared" si="16"/>
-        <v>490790.15232926555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>353330.42424758244</v>
+      </c>
+      <c r="AK11" s="12">
+        <f t="shared" si="17"/>
+        <v>381834.34345038247</v>
+      </c>
+      <c r="AL11" s="12">
+        <f t="shared" si="17"/>
+        <v>412946.79183042009</v>
+      </c>
+      <c r="AM11" s="12">
+        <f t="shared" si="17"/>
+        <v>446919.51697080862</v>
+      </c>
+      <c r="AN11" s="12">
+        <f t="shared" si="17"/>
+        <v>484029.07558031852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" ref="C12:G12" si="17">C11+C6+C5+C4</f>
+        <f t="shared" ref="C12:G12" si="18">C11+C6+C5+C4</f>
         <v>36339</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>41159</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" ref="H12" si="18">H11+H6+H5+H4</f>
+        <f t="shared" ref="H12" si="19">H11+H6+H5+H4</f>
         <v>38297</v>
       </c>
       <c r="I12" s="11">
@@ -1925,7 +1977,7 @@
         <v>55314</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" ref="L12" si="19">L11+L6+L5+L4</f>
+        <f t="shared" ref="L12" si="20">L11+L6+L5+L4</f>
         <v>61880</v>
       </c>
       <c r="M12" s="11">
@@ -1945,75 +1997,91 @@
         <v>69685</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" ref="Q12:R12" si="20">Q11+Q6+Q5+Q4</f>
-        <v>72279.420000000013</v>
+        <f t="shared" ref="Q12:V12" si="21">Q11+Q6+Q5+Q4</f>
+        <v>69092</v>
       </c>
       <c r="R12" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>83361.81</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11">
-        <f t="shared" ref="W12:Z12" si="21">W11+W6+W5+W4</f>
+      <c r="S12" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11">
+        <f t="shared" ref="AA12:AD12" si="22">AA11+AA6+AA5+AA4</f>
         <v>110855</v>
       </c>
-      <c r="X12" s="11">
-        <f t="shared" si="21"/>
+      <c r="AB12" s="11">
+        <f t="shared" si="22"/>
         <v>136819</v>
       </c>
-      <c r="Y12" s="11">
-        <f t="shared" si="21"/>
+      <c r="AC12" s="11">
+        <f t="shared" si="22"/>
         <v>161857</v>
       </c>
-      <c r="Z12" s="11">
-        <f t="shared" si="21"/>
+      <c r="AD12" s="11">
+        <f t="shared" si="22"/>
         <v>182527</v>
       </c>
-      <c r="AA12" s="11">
-        <f>AA11+AA6+AA5+AA4</f>
+      <c r="AE12" s="11">
+        <f>AE11+AE6+AE5+AE4</f>
         <v>257637</v>
       </c>
-      <c r="AB12" s="11">
-        <f>AB11+AB6+AB5+AB4</f>
-        <v>293337.23000000004</v>
-      </c>
-      <c r="AC12" s="11">
-        <f t="shared" ref="AC12" si="22">AC11+AC6+AC5+AC4</f>
-        <v>323871.69950000005</v>
-      </c>
-      <c r="AD12" s="11">
-        <f t="shared" ref="AD12" si="23">AD11+AD6+AD5+AD4</f>
-        <v>361185.56726500008</v>
-      </c>
-      <c r="AE12" s="11">
-        <f t="shared" ref="AE12" si="24">AE11+AE6+AE5+AE4</f>
-        <v>401258.16608495009</v>
-      </c>
       <c r="AF12" s="11">
-        <f t="shared" ref="AF12" si="25">AF11+AF6+AF5+AF4</f>
-        <v>448265.08831977862</v>
+        <f>AF11+AF6+AF5+AF4</f>
+        <v>290149.81</v>
       </c>
       <c r="AG12" s="11">
-        <f t="shared" ref="AG12" si="26">AG11+AG6+AG5+AG4</f>
-        <v>503838.12416105275</v>
+        <f t="shared" ref="AG12" si="23">AG11+AG6+AG5+AG4</f>
+        <v>319723.41889999999</v>
       </c>
       <c r="AH12" s="11">
-        <f t="shared" ref="AH12" si="27">AH11+AH6+AH5+AH4</f>
-        <v>558498.18089106947</v>
+        <f t="shared" ref="AH12" si="24">AH11+AH6+AH5+AH4</f>
+        <v>356671.44734700001</v>
       </c>
       <c r="AI12" s="11">
-        <f t="shared" ref="AI12" si="28">AI11+AI6+AI5+AI4</f>
-        <v>620679.67933258729</v>
+        <f t="shared" ref="AI12" si="25">AI11+AI6+AI5+AI4</f>
+        <v>396348.5270804101</v>
       </c>
       <c r="AJ12" s="11">
-        <f t="shared" ref="AJ12" si="29">AJ11+AJ6+AJ5+AJ4</f>
-        <v>691587.43266061507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AJ12" si="26">AJ11+AJ6+AJ5+AJ4</f>
+        <v>442910.2399098124</v>
+      </c>
+      <c r="AK12" s="11">
+        <f t="shared" ref="AK12" si="27">AK11+AK6+AK5+AK4</f>
+        <v>497979.38781963475</v>
+      </c>
+      <c r="AL12" s="11">
+        <f t="shared" ref="AL12" si="28">AL11+AL6+AL5+AL4</f>
+        <v>552116.56025008496</v>
+      </c>
+      <c r="AM12" s="11">
+        <f t="shared" ref="AM12" si="29">AM11+AM6+AM5+AM4</f>
+        <v>613716.91140273411</v>
+      </c>
+      <c r="AN12" s="11">
+        <f t="shared" ref="AN12" si="30">AN11+AN6+AN5+AN4</f>
+        <v>683977.55795023998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
@@ -2054,57 +2122,60 @@
         <v>30104</v>
       </c>
       <c r="Q13" s="12">
-        <f>+Q12-Q15</f>
-        <v>30718.753500000006</v>
+        <v>31158</v>
       </c>
       <c r="R13" s="12">
         <f>+R12-R15</f>
         <v>35428.769250000005</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="AD13" s="3">
         <v>84732</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AE13" s="3">
         <v>110939</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AF13" s="3">
         <f>SUM(O13:R13)</f>
-        <v>125850.52275</v>
-      </c>
-      <c r="AC13" s="3">
-        <f>+AC12-AC15</f>
-        <v>139264.83078500003</v>
-      </c>
-      <c r="AD13" s="3">
-        <f t="shared" ref="AD13:AJ13" si="30">+AD12-AD15</f>
-        <v>155309.79392395006</v>
-      </c>
-      <c r="AE13" s="3">
-        <f t="shared" si="30"/>
-        <v>172541.01141652855</v>
-      </c>
-      <c r="AF13" s="3">
-        <f t="shared" si="30"/>
-        <v>192753.98797750482</v>
+        <v>126289.76925000001</v>
       </c>
       <c r="AG13" s="3">
-        <f t="shared" si="30"/>
-        <v>216650.39338925271</v>
+        <f>+AG12-AG15</f>
+        <v>137481.07012700001</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="30"/>
-        <v>240154.21778315993</v>
+        <f t="shared" ref="AH13:AN13" si="31">+AH12-AH15</f>
+        <v>153368.72235921002</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="30"/>
-        <v>266892.26211301255</v>
+        <f t="shared" si="31"/>
+        <v>170429.86664457637</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" si="30"/>
-        <v>297382.5960440645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>190451.40316121935</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="31"/>
+        <v>214131.13676244294</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" si="31"/>
+        <v>237410.12090753653</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" si="31"/>
+        <v>263898.27190317569</v>
+      </c>
+      <c r="AN13" s="3">
+        <f t="shared" si="31"/>
+        <v>294110.3499186032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
@@ -2130,10 +2201,16 @@
       <c r="P14" s="12">
         <v>12214</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="12">
+        <v>11826</v>
+      </c>
       <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2149,31 +2226,31 @@
         <v>22177</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" ref="H15" si="31">H12-H13</f>
+        <f t="shared" ref="H15" si="32">H12-H13</f>
         <v>19744</v>
       </c>
       <c r="I15" s="12">
-        <f t="shared" ref="I15" si="32">I12-I13</f>
+        <f t="shared" ref="I15" si="33">I12-I13</f>
         <v>25056</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" ref="J15:N15" si="33">J12-J13</f>
+        <f t="shared" ref="J15:N15" si="34">J12-J13</f>
         <v>30818</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>31211</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>35653</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>37497</v>
       </c>
       <c r="N15" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>42337</v>
       </c>
       <c r="O15" s="12">
@@ -2181,63 +2258,67 @@
         <v>38412</v>
       </c>
       <c r="P15" s="12">
-        <f t="shared" ref="P15" si="34">P12-P13</f>
+        <f t="shared" ref="P15:Q15" si="35">P12-P13</f>
         <v>39581</v>
       </c>
       <c r="Q15" s="12">
-        <f>+Q12*0.575</f>
-        <v>41560.666500000007</v>
+        <f t="shared" si="35"/>
+        <v>37934</v>
       </c>
       <c r="R15" s="12">
         <f>+R12*0.575</f>
         <v>47933.040749999993</v>
       </c>
-      <c r="Z15" s="3">
-        <f>Z12-Z13</f>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="AD15" s="3">
+        <f>AD12-AD13</f>
         <v>97795</v>
       </c>
-      <c r="AA15" s="3">
-        <f t="shared" ref="AA15" si="35">AA12-AA13</f>
+      <c r="AE15" s="3">
+        <f t="shared" ref="AE15" si="36">AE12-AE13</f>
         <v>146698</v>
       </c>
-      <c r="AB15" s="3">
-        <f>+AB12-AB13</f>
-        <v>167486.70725000004</v>
-      </c>
-      <c r="AC15" s="3">
-        <f>+AC12*0.57</f>
-        <v>184606.86871500002</v>
-      </c>
-      <c r="AD15" s="3">
-        <f t="shared" ref="AD15:AJ15" si="36">+AD12*0.57</f>
-        <v>205875.77334105002</v>
-      </c>
-      <c r="AE15" s="3">
-        <f t="shared" si="36"/>
-        <v>228717.15466842154</v>
-      </c>
       <c r="AF15" s="3">
-        <f t="shared" si="36"/>
-        <v>255511.1003422738</v>
+        <f>+AF12-AF13</f>
+        <v>163860.04074999999</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="36"/>
-        <v>287187.73077180004</v>
+        <f>+AG12*0.57</f>
+        <v>182242.34877299998</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="36"/>
-        <v>318343.96310790954</v>
+        <f t="shared" ref="AH15:AN15" si="37">+AH12*0.57</f>
+        <v>203302.72498778999</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="36"/>
-        <v>353787.41721957474</v>
+        <f t="shared" si="37"/>
+        <v>225918.66043583374</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="36"/>
-        <v>394204.83661655057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="37"/>
+        <v>252458.83674859305</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="37"/>
+        <v>283848.25105719181</v>
+      </c>
+      <c r="AL15" s="3">
+        <f t="shared" si="37"/>
+        <v>314706.43934254843</v>
+      </c>
+      <c r="AM15" s="3">
+        <f t="shared" si="37"/>
+        <v>349818.63949955843</v>
+      </c>
+      <c r="AN15" s="3">
+        <f t="shared" si="37"/>
+        <v>389867.20803163678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -2278,57 +2359,60 @@
         <v>9841</v>
       </c>
       <c r="Q16" s="12">
-        <f>+M16*1.1</f>
-        <v>8463.4000000000015</v>
+        <v>10273</v>
       </c>
       <c r="R16" s="12">
         <f>+N16*1.1</f>
         <v>9578.8000000000011</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="AD16" s="3">
         <v>27573</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AE16" s="3">
         <v>31562</v>
       </c>
-      <c r="AB16" s="3">
-        <f t="shared" ref="AB16:AB18" si="37">SUM(O16:R16)</f>
-        <v>37002.200000000004</v>
-      </c>
-      <c r="AC16" s="3">
-        <f>+AB16*1.05</f>
-        <v>38852.310000000005</v>
-      </c>
-      <c r="AD16" s="3">
-        <f t="shared" ref="AD16:AJ16" si="38">+AC16*1.05</f>
-        <v>40794.925500000005</v>
-      </c>
-      <c r="AE16" s="3">
-        <f t="shared" si="38"/>
-        <v>42834.67177500001</v>
-      </c>
       <c r="AF16" s="3">
-        <f t="shared" si="38"/>
-        <v>44976.405363750011</v>
+        <f t="shared" ref="AF16:AF18" si="38">SUM(O16:R16)</f>
+        <v>38811.800000000003</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="38"/>
-        <v>47225.225631937516</v>
+        <f>+AF16*1.05</f>
+        <v>40752.390000000007</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="38"/>
-        <v>49586.486913534391</v>
+        <f t="shared" ref="AH16:AN16" si="39">+AG16*1.05</f>
+        <v>42790.009500000007</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="38"/>
-        <v>52065.811259211114</v>
+        <f t="shared" si="39"/>
+        <v>44929.509975000008</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="38"/>
-        <v>54669.101822171673</v>
-      </c>
-    </row>
-    <row r="17" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>47175.985473750014</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="39"/>
+        <v>49534.784747437516</v>
+      </c>
+      <c r="AL16" s="3">
+        <f t="shared" si="39"/>
+        <v>52011.523984809392</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" si="39"/>
+        <v>54612.100184049865</v>
+      </c>
+      <c r="AN16" s="3">
+        <f t="shared" si="39"/>
+        <v>57342.705193252361</v>
+      </c>
+    </row>
+    <row r="17" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
@@ -2369,57 +2453,60 @@
         <v>6630</v>
       </c>
       <c r="Q17" s="12">
-        <f>+M17*1.05</f>
-        <v>5791.8</v>
+        <v>6929</v>
       </c>
       <c r="R17" s="12">
         <f>+N17*1.05</f>
         <v>7984.2000000000007</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="AD17" s="3">
         <v>17946</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AE17" s="3">
         <v>22912</v>
       </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="37"/>
-        <v>26231</v>
-      </c>
-      <c r="AC17" s="3">
-        <f>+AB17*1.05</f>
-        <v>27542.550000000003</v>
-      </c>
-      <c r="AD17" s="3">
-        <f t="shared" ref="AD17:AJ17" si="39">+AC17*1.05</f>
-        <v>28919.677500000005</v>
-      </c>
-      <c r="AE17" s="3">
-        <f t="shared" si="39"/>
-        <v>30365.661375000007</v>
-      </c>
       <c r="AF17" s="3">
-        <f t="shared" si="39"/>
-        <v>31883.94444375001</v>
+        <f t="shared" si="38"/>
+        <v>27368.2</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" si="39"/>
-        <v>33478.14166593751</v>
+        <f>+AF17*1.05</f>
+        <v>28736.61</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="39"/>
-        <v>35152.048749234389</v>
+        <f t="shared" ref="AH17:AN17" si="40">+AG17*1.05</f>
+        <v>30173.440500000001</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="39"/>
-        <v>36909.651186696108</v>
+        <f t="shared" si="40"/>
+        <v>31682.112525</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="39"/>
-        <v>38755.133746030915</v>
-      </c>
-    </row>
-    <row r="18" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>33266.218151250003</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="40"/>
+        <v>34929.529058812506</v>
+      </c>
+      <c r="AL17" s="3">
+        <f t="shared" si="40"/>
+        <v>36676.00551175313</v>
+      </c>
+      <c r="AM17" s="3">
+        <f t="shared" si="40"/>
+        <v>38509.805787340789</v>
+      </c>
+      <c r="AN17" s="3">
+        <f t="shared" si="40"/>
+        <v>40435.296076707833</v>
+      </c>
+    </row>
+    <row r="18" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -2460,81 +2547,84 @@
         <v>3657</v>
       </c>
       <c r="Q18" s="12">
-        <f>+M18*1.05</f>
-        <v>3418.8</v>
+        <v>3597</v>
       </c>
       <c r="R18" s="12">
         <f>+N18*1.05</f>
         <v>4347</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="AD18" s="3">
         <v>11052</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AE18" s="3">
         <v>13510</v>
       </c>
-      <c r="AB18" s="3">
-        <f t="shared" si="37"/>
-        <v>14796.8</v>
-      </c>
-      <c r="AC18" s="3">
-        <f>+AB18*1.05</f>
-        <v>15536.64</v>
-      </c>
-      <c r="AD18" s="3">
-        <f t="shared" ref="AD18:AJ18" si="40">+AC18*1.05</f>
-        <v>16313.472</v>
-      </c>
-      <c r="AE18" s="3">
-        <f t="shared" si="40"/>
-        <v>17129.1456</v>
-      </c>
       <c r="AF18" s="3">
-        <f t="shared" si="40"/>
-        <v>17985.602880000002</v>
+        <f t="shared" si="38"/>
+        <v>14975</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="40"/>
-        <v>18884.883024000002</v>
+        <f>+AF18*1.05</f>
+        <v>15723.75</v>
       </c>
       <c r="AH18" s="3">
-        <f t="shared" si="40"/>
-        <v>19829.127175200003</v>
+        <f t="shared" ref="AH18:AN18" si="41">+AG18*1.05</f>
+        <v>16509.9375</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" si="40"/>
-        <v>20820.583533960005</v>
+        <f t="shared" si="41"/>
+        <v>17335.434375000001</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="40"/>
-        <v>21861.612710658006</v>
-      </c>
-    </row>
-    <row r="19" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="41"/>
+        <v>18202.206093750003</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="41"/>
+        <v>19112.316398437502</v>
+      </c>
+      <c r="AL18" s="3">
+        <f t="shared" si="41"/>
+        <v>20067.932218359379</v>
+      </c>
+      <c r="AM18" s="3">
+        <f t="shared" si="41"/>
+        <v>21071.32882927735</v>
+      </c>
+      <c r="AN18" s="3">
+        <f t="shared" si="41"/>
+        <v>22124.895270741217</v>
+      </c>
+    </row>
+    <row r="19" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" ref="C19" si="41">SUM(C16:C18)</f>
+        <f t="shared" ref="C19" si="42">SUM(C16:C18)</f>
         <v>12022</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12">
-        <f t="shared" ref="G19" si="42">SUM(G16:G18)</f>
+        <f t="shared" ref="G19" si="43">SUM(G16:G18)</f>
         <v>14200</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ref="H19" si="43">SUM(H16:H18)</f>
+        <f t="shared" ref="H19" si="44">SUM(H16:H18)</f>
         <v>13361</v>
       </c>
       <c r="I19" s="12">
-        <f t="shared" ref="I19" si="44">SUM(I16:I18)</f>
+        <f t="shared" ref="I19" si="45">SUM(I16:I18)</f>
         <v>13843</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ref="J19" si="45">SUM(J16:J18)</f>
+        <f t="shared" ref="J19" si="46">SUM(J16:J18)</f>
         <v>15167</v>
       </c>
       <c r="K19" s="12">
@@ -2542,119 +2632,123 @@
         <v>14774</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" ref="L19:O19" si="46">SUM(L16:L18)</f>
+        <f t="shared" ref="L19:O19" si="47">SUM(L16:L18)</f>
         <v>16292</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>16466</v>
       </c>
       <c r="N19" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>20452</v>
       </c>
       <c r="O19" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>18318</v>
       </c>
       <c r="P19" s="12">
-        <f t="shared" ref="P19:R19" si="47">SUM(P16:P18)</f>
+        <f t="shared" ref="P19:R19" si="48">SUM(P16:P18)</f>
         <v>20128</v>
       </c>
       <c r="Q19" s="12">
-        <f t="shared" si="47"/>
-        <v>17674</v>
+        <f t="shared" si="48"/>
+        <v>20799</v>
       </c>
       <c r="R19" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>21910</v>
       </c>
-      <c r="Z19" s="3">
-        <f>SUM(Z16:Z18)</f>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="AD19" s="3">
+        <f>SUM(AD16:AD18)</f>
         <v>56571</v>
       </c>
-      <c r="AA19" s="3">
-        <f t="shared" ref="AA19:AC19" si="48">SUM(AA16:AA18)</f>
+      <c r="AE19" s="3">
+        <f t="shared" ref="AE19:AG19" si="49">SUM(AE16:AE18)</f>
         <v>67984</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="48"/>
-        <v>78030</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="48"/>
-        <v>81931.500000000015</v>
-      </c>
-      <c r="AD19" s="3">
-        <f t="shared" ref="AD19:AJ19" si="49">SUM(AD16:AD18)</f>
-        <v>86028.074999999997</v>
-      </c>
-      <c r="AE19" s="3">
-        <f t="shared" si="49"/>
-        <v>90329.478750000024</v>
       </c>
       <c r="AF19" s="3">
         <f t="shared" si="49"/>
-        <v>94845.95268750003</v>
+        <v>81155</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" si="49"/>
-        <v>99588.250321875035</v>
+        <v>85212.75</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="49"/>
-        <v>104567.66283796879</v>
+        <f t="shared" ref="AH19:AN19" si="50">SUM(AH16:AH18)</f>
+        <v>89473.387500000012</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="49"/>
-        <v>109796.04597986722</v>
+        <f t="shared" si="50"/>
+        <v>93947.056875000009</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="49"/>
-        <v>115285.84827886061</v>
-      </c>
-    </row>
-    <row r="20" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="50"/>
+        <v>98644.40971875003</v>
+      </c>
+      <c r="AK19" s="3">
+        <f t="shared" si="50"/>
+        <v>103576.63020468752</v>
+      </c>
+      <c r="AL19" s="3">
+        <f t="shared" si="50"/>
+        <v>108755.4617149219</v>
+      </c>
+      <c r="AM19" s="3">
+        <f t="shared" si="50"/>
+        <v>114193.23480066801</v>
+      </c>
+      <c r="AN19" s="3">
+        <f t="shared" si="50"/>
+        <v>119902.89654070142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" ref="C20" si="50">C15-C19</f>
+        <f t="shared" ref="C20" si="51">C15-C19</f>
         <v>8305</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12">
-        <f t="shared" ref="G20" si="51">G15-G19</f>
+        <f t="shared" ref="G20" si="52">G15-G19</f>
         <v>7977</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" ref="H20" si="52">H15-H19</f>
+        <f t="shared" ref="H20" si="53">H15-H19</f>
         <v>6383</v>
       </c>
       <c r="I20" s="12">
-        <f t="shared" ref="I20" si="53">I15-I19</f>
+        <f t="shared" ref="I20" si="54">I15-I19</f>
         <v>11213</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" ref="J20" si="54">J15-J19</f>
+        <f t="shared" ref="J20" si="55">J15-J19</f>
         <v>15651</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" ref="K20:N20" si="55">K15-K19</f>
+        <f t="shared" ref="K20:N20" si="56">K15-K19</f>
         <v>16437</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>19361</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>21031</v>
       </c>
       <c r="N20" s="12">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>21885</v>
       </c>
       <c r="O20" s="12">
@@ -2662,63 +2756,67 @@
         <v>20094</v>
       </c>
       <c r="P20" s="12">
-        <f t="shared" ref="P20:R20" si="56">P15-P19</f>
+        <f t="shared" ref="P20:R20" si="57">P15-P19</f>
         <v>19453</v>
       </c>
       <c r="Q20" s="12">
-        <f t="shared" si="56"/>
-        <v>23886.666500000007</v>
+        <f t="shared" si="57"/>
+        <v>17135</v>
       </c>
       <c r="R20" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>26023.040749999993</v>
       </c>
-      <c r="Z20" s="3">
-        <f>Z15-Z19</f>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="AD20" s="3">
+        <f>AD15-AD19</f>
         <v>41224</v>
       </c>
-      <c r="AA20" s="3">
-        <f t="shared" ref="AA20:AC20" si="57">AA15-AA19</f>
+      <c r="AE20" s="3">
+        <f t="shared" ref="AE20:AG20" si="58">AE15-AE19</f>
         <v>78714</v>
-      </c>
-      <c r="AB20" s="3">
-        <f t="shared" si="57"/>
-        <v>89456.707250000036</v>
-      </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="57"/>
-        <v>102675.368715</v>
-      </c>
-      <c r="AD20" s="3">
-        <f t="shared" ref="AD20:AJ20" si="58">AD15-AD19</f>
-        <v>119847.69834105003</v>
-      </c>
-      <c r="AE20" s="3">
-        <f t="shared" si="58"/>
-        <v>138387.67591842153</v>
       </c>
       <c r="AF20" s="3">
         <f t="shared" si="58"/>
-        <v>160665.14765477378</v>
+        <v>82705.040749999986</v>
       </c>
       <c r="AG20" s="3">
         <f t="shared" si="58"/>
-        <v>187599.480449925</v>
+        <v>97029.598772999976</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="58"/>
-        <v>213776.30026994075</v>
+        <f t="shared" ref="AH20:AN20" si="59">AH15-AH19</f>
+        <v>113829.33748778998</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="58"/>
-        <v>243991.37123970751</v>
+        <f t="shared" si="59"/>
+        <v>131971.60356083373</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" si="58"/>
-        <v>278918.98833768995</v>
-      </c>
-    </row>
-    <row r="21" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="59"/>
+        <v>153814.42702984303</v>
+      </c>
+      <c r="AK20" s="3">
+        <f t="shared" si="59"/>
+        <v>180271.62085250427</v>
+      </c>
+      <c r="AL20" s="3">
+        <f t="shared" si="59"/>
+        <v>205950.97762762653</v>
+      </c>
+      <c r="AM20" s="3">
+        <f t="shared" si="59"/>
+        <v>235625.4046988904</v>
+      </c>
+      <c r="AN20" s="3">
+        <f t="shared" si="59"/>
+        <v>269964.31149093539</v>
+      </c>
+    </row>
+    <row r="21" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
@@ -2759,79 +2857,83 @@
         <v>-439</v>
       </c>
       <c r="Q21" s="12">
-        <v>0</v>
+        <v>-902</v>
       </c>
       <c r="R21" s="12">
         <v>0</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="AD21" s="3">
         <v>6858</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AE21" s="3">
         <v>12020</v>
       </c>
-      <c r="AB21" s="3">
-        <f t="shared" ref="AB21:AB23" si="59">SUM(O21:R21)</f>
-        <v>-1599</v>
-      </c>
-      <c r="AC21" s="3">
-        <f>+AB38*$AM$30</f>
-        <v>1828.5215409</v>
-      </c>
-      <c r="AD21" s="3">
-        <f t="shared" ref="AD21:AJ21" si="60">+AC38*$AM$30</f>
-        <v>2685.4534409983798</v>
-      </c>
-      <c r="AE21" s="3">
-        <f t="shared" si="60"/>
-        <v>3690.2252856111772</v>
-      </c>
       <c r="AF21" s="3">
-        <f t="shared" si="60"/>
-        <v>4855.264075484246</v>
+        <f t="shared" ref="AF21:AF23" si="60">SUM(O21:R21)</f>
+        <v>-2501</v>
       </c>
       <c r="AG21" s="3">
-        <f t="shared" si="60"/>
-        <v>6212.5314516723611</v>
+        <f>+AF38*$AQ$30</f>
+        <v>1538.8435423000001</v>
       </c>
       <c r="AH21" s="3">
-        <f t="shared" si="60"/>
-        <v>7801.7899492654606</v>
+        <f t="shared" ref="AH21:AN21" si="61">+AG38*$AQ$30</f>
+        <v>2347.10476928546</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" si="60"/>
-        <v>9618.7302890629508</v>
+        <f t="shared" si="61"/>
+        <v>3299.7515957934784</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="60"/>
-        <v>11698.333121598869</v>
-      </c>
-    </row>
-    <row r="22" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="61"/>
+        <v>4408.9767080778211</v>
+      </c>
+      <c r="AK21" s="3">
+        <f t="shared" si="61"/>
+        <v>5706.4086187287721</v>
+      </c>
+      <c r="AL21" s="3">
+        <f t="shared" si="61"/>
+        <v>7231.4284603928836</v>
+      </c>
+      <c r="AM21" s="3">
+        <f t="shared" si="61"/>
+        <v>8979.5241903146434</v>
+      </c>
+      <c r="AN21" s="3">
+        <f t="shared" si="61"/>
+        <v>10985.284607206124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="12">
-        <f t="shared" ref="C22" si="61">C20+C21</f>
+        <f t="shared" ref="C22" si="62">C20+C21</f>
         <v>9843</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12">
-        <f t="shared" ref="G22" si="62">G20+G21</f>
+        <f t="shared" ref="G22" si="63">G20+G21</f>
         <v>7757</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" ref="H22" si="63">H20+H21</f>
+        <f t="shared" ref="H22" si="64">H20+H21</f>
         <v>8277</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22" si="64">I20+I21</f>
+        <f t="shared" ref="I22" si="65">I20+I21</f>
         <v>13359</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ref="J22" si="65">J20+J21</f>
+        <f t="shared" ref="J22" si="66">J20+J21</f>
         <v>18689</v>
       </c>
       <c r="K22" s="12">
@@ -2839,79 +2941,83 @@
         <v>21283</v>
       </c>
       <c r="L22" s="12">
-        <f t="shared" ref="L22:O22" si="66">L20+L21</f>
+        <f t="shared" ref="L22:O22" si="67">L20+L21</f>
         <v>21625</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>23064</v>
       </c>
       <c r="N22" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>24402</v>
       </c>
       <c r="O22" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>18934</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" ref="P22:R22" si="67">P20+P21</f>
+        <f t="shared" ref="P22:R22" si="68">P20+P21</f>
         <v>19014</v>
       </c>
       <c r="Q22" s="12">
-        <f t="shared" si="67"/>
-        <v>23886.666500000007</v>
+        <f t="shared" si="68"/>
+        <v>16233</v>
       </c>
       <c r="R22" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>26023.040749999993</v>
       </c>
-      <c r="Z22" s="3">
-        <f>Z20+Z21</f>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="AD22" s="3">
+        <f>AD20+AD21</f>
         <v>48082</v>
       </c>
-      <c r="AA22" s="3">
-        <f t="shared" ref="AA22:AC22" si="68">AA20+AA21</f>
+      <c r="AE22" s="3">
+        <f t="shared" ref="AE22:AG22" si="69">AE20+AE21</f>
         <v>90734</v>
-      </c>
-      <c r="AB22" s="3">
-        <f t="shared" si="68"/>
-        <v>87857.707250000036</v>
-      </c>
-      <c r="AC22" s="3">
-        <f t="shared" si="68"/>
-        <v>104503.8902559</v>
-      </c>
-      <c r="AD22" s="3">
-        <f t="shared" ref="AD22:AJ22" si="69">AD20+AD21</f>
-        <v>122533.1517820484</v>
-      </c>
-      <c r="AE22" s="3">
-        <f t="shared" si="69"/>
-        <v>142077.90120403271</v>
       </c>
       <c r="AF22" s="3">
         <f t="shared" si="69"/>
-        <v>165520.41173025803</v>
+        <v>80204.040749999986</v>
       </c>
       <c r="AG22" s="3">
         <f t="shared" si="69"/>
-        <v>193812.01190159738</v>
+        <v>98568.442315299981</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="69"/>
-        <v>221578.09021920621</v>
+        <f t="shared" ref="AH22:AN22" si="70">AH20+AH21</f>
+        <v>116176.44225707544</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="69"/>
-        <v>253610.10152877046</v>
+        <f t="shared" si="70"/>
+        <v>135271.35515662719</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="69"/>
-        <v>290617.32145928883</v>
-      </c>
-    </row>
-    <row r="23" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="70"/>
+        <v>158223.40373792086</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="70"/>
+        <v>185978.02947123305</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" si="70"/>
+        <v>213182.40608801943</v>
+      </c>
+      <c r="AM22" s="3">
+        <f t="shared" si="70"/>
+        <v>244604.92888920504</v>
+      </c>
+      <c r="AN22" s="3">
+        <f t="shared" si="70"/>
+        <v>280949.59609814151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
@@ -2952,81 +3058,84 @@
         <v>3012</v>
       </c>
       <c r="Q23" s="12">
-        <f>+Q22*0.16</f>
-        <v>3821.8666400000011</v>
+        <v>2323</v>
       </c>
       <c r="R23" s="12">
         <f>+R22*0.16</f>
         <v>4163.6865199999993</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="AD23" s="3">
         <v>7813</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AE23" s="3">
         <v>14701</v>
       </c>
-      <c r="AB23" s="3">
-        <f t="shared" si="59"/>
-        <v>13495.553159999999</v>
-      </c>
-      <c r="AC23" s="3">
-        <f>+AC22*0.18</f>
-        <v>18810.700246061999</v>
-      </c>
-      <c r="AD23" s="3">
-        <f t="shared" ref="AD23:AJ23" si="70">+AD22*0.18</f>
-        <v>22055.967320768712</v>
-      </c>
-      <c r="AE23" s="3">
-        <f t="shared" si="70"/>
-        <v>25574.022216725887</v>
-      </c>
       <c r="AF23" s="3">
-        <f t="shared" si="70"/>
-        <v>29793.674111446442</v>
+        <f t="shared" si="60"/>
+        <v>11996.686519999999</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" si="70"/>
-        <v>34886.162142287525</v>
+        <f>+AG22*0.18</f>
+        <v>17742.319616753997</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="70"/>
-        <v>39884.056239457117</v>
+        <f t="shared" ref="AH23:AN23" si="71">+AH22*0.18</f>
+        <v>20911.759606273579</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="70"/>
-        <v>45649.818275178681</v>
+        <f t="shared" si="71"/>
+        <v>24348.843928192895</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="70"/>
-        <v>52311.117862671985</v>
-      </c>
-    </row>
-    <row r="24" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="71"/>
+        <v>28480.212672825754</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" si="71"/>
+        <v>33476.04530482195</v>
+      </c>
+      <c r="AL23" s="3">
+        <f t="shared" si="71"/>
+        <v>38372.833095843496</v>
+      </c>
+      <c r="AM23" s="3">
+        <f t="shared" si="71"/>
+        <v>44028.887200056903</v>
+      </c>
+      <c r="AN23" s="3">
+        <f t="shared" si="71"/>
+        <v>50570.927297665468</v>
+      </c>
+    </row>
+    <row r="24" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="12">
-        <f t="shared" ref="C24" si="71">C22-C23</f>
+        <f t="shared" ref="C24" si="72">C22-C23</f>
         <v>8354</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12">
-        <f t="shared" ref="G24" si="72">G22-G23</f>
+        <f t="shared" ref="G24" si="73">G22-G23</f>
         <v>6836</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" ref="H24" si="73">H22-H23</f>
+        <f t="shared" ref="H24" si="74">H22-H23</f>
         <v>6959</v>
       </c>
       <c r="I24" s="12">
-        <f t="shared" ref="I24" si="74">I22-I23</f>
+        <f t="shared" ref="I24" si="75">I22-I23</f>
         <v>11247</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" ref="J24" si="75">J22-J23</f>
+        <f t="shared" ref="J24" si="76">J22-J23</f>
         <v>15227</v>
       </c>
       <c r="K24" s="12">
@@ -3034,347 +3143,351 @@
         <v>17930</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" ref="L24:O24" si="76">L22-L23</f>
+        <f t="shared" ref="L24:O24" si="77">L22-L23</f>
         <v>18165</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>18936</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>20642</v>
       </c>
       <c r="O24" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>16436</v>
       </c>
       <c r="P24" s="12">
-        <f t="shared" ref="P24:R24" si="77">P22-P23</f>
+        <f t="shared" ref="P24:R24" si="78">P22-P23</f>
         <v>16002</v>
       </c>
       <c r="Q24" s="12">
-        <f t="shared" si="77"/>
-        <v>20064.799860000006</v>
+        <f t="shared" si="78"/>
+        <v>13910</v>
       </c>
       <c r="R24" s="12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>21859.354229999994</v>
       </c>
-      <c r="Z24" s="3">
-        <f>Z22-Z23</f>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="AD24" s="3">
+        <f>AD22-AD23</f>
         <v>40269</v>
       </c>
-      <c r="AA24" s="3">
-        <f t="shared" ref="AA24:AC24" si="78">AA22-AA23</f>
+      <c r="AE24" s="3">
+        <f t="shared" ref="AE24:AG24" si="79">AE22-AE23</f>
         <v>76033</v>
-      </c>
-      <c r="AB24" s="3">
-        <f t="shared" si="78"/>
-        <v>74362.15409000004</v>
-      </c>
-      <c r="AC24" s="3">
-        <f t="shared" si="78"/>
-        <v>85693.190009837999</v>
-      </c>
-      <c r="AD24" s="3">
-        <f t="shared" ref="AD24:AJ24" si="79">AD22-AD23</f>
-        <v>100477.18446127968</v>
-      </c>
-      <c r="AE24" s="3">
-        <f t="shared" si="79"/>
-        <v>116503.87898730682</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" si="79"/>
-        <v>135726.73761881157</v>
+        <v>68207.354229999983</v>
       </c>
       <c r="AG24" s="3">
         <f t="shared" si="79"/>
-        <v>158925.84975930984</v>
+        <v>80826.12269854598</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="79"/>
-        <v>181694.03397974907</v>
+        <f t="shared" ref="AH24:AN24" si="80">AH22-AH23</f>
+        <v>95264.682650801857</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="79"/>
-        <v>207960.2832535918</v>
+        <f t="shared" si="80"/>
+        <v>110922.5112284343</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="79"/>
-        <v>238306.20359661683</v>
+        <f t="shared" si="80"/>
+        <v>129743.1910650951</v>
       </c>
       <c r="AK24" s="3">
-        <f>+AJ24*(1+$AM$28)</f>
-        <v>235923.14156065066</v>
+        <f t="shared" si="80"/>
+        <v>152501.9841664111</v>
       </c>
       <c r="AL24" s="3">
-        <f t="shared" ref="AL24:CO24" si="80">+AK24*(1+$AM$28)</f>
-        <v>233563.91014504415</v>
+        <f t="shared" si="80"/>
+        <v>174809.57299217593</v>
       </c>
       <c r="AM24" s="3">
         <f t="shared" si="80"/>
-        <v>231228.2710435937</v>
+        <v>200576.04168914814</v>
       </c>
       <c r="AN24" s="3">
         <f t="shared" si="80"/>
-        <v>228915.98833315776</v>
+        <v>230378.66880047604</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" si="80"/>
-        <v>226626.82844982619</v>
+        <f>+AN24*(1+$AQ$28)</f>
+        <v>228074.88211247127</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" si="80"/>
-        <v>224360.56016532792</v>
+        <f t="shared" ref="AP24:CS24" si="81">+AO24*(1+$AQ$28)</f>
+        <v>225794.13329134654</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" si="80"/>
-        <v>222116.95456367463</v>
+        <f t="shared" si="81"/>
+        <v>223536.19195843308</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" si="80"/>
-        <v>219895.78501803789</v>
+        <f t="shared" si="81"/>
+        <v>221300.83003884874</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="80"/>
-        <v>217696.8271678575</v>
+        <f t="shared" si="81"/>
+        <v>219087.82173846025</v>
       </c>
       <c r="AT24" s="3">
-        <f t="shared" si="80"/>
-        <v>215519.85889617892</v>
+        <f t="shared" si="81"/>
+        <v>216896.94352107565</v>
       </c>
       <c r="AU24" s="3">
-        <f t="shared" si="80"/>
-        <v>213364.66030721713</v>
+        <f t="shared" si="81"/>
+        <v>214727.9740858649</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" si="80"/>
-        <v>211231.01370414495</v>
+        <f t="shared" si="81"/>
+        <v>212580.69434500625</v>
       </c>
       <c r="AW24" s="3">
-        <f t="shared" si="80"/>
-        <v>209118.70356710351</v>
+        <f t="shared" si="81"/>
+        <v>210454.88740155619</v>
       </c>
       <c r="AX24" s="3">
-        <f t="shared" si="80"/>
-        <v>207027.51653143248</v>
+        <f t="shared" si="81"/>
+        <v>208350.33852754062</v>
       </c>
       <c r="AY24" s="3">
-        <f t="shared" si="80"/>
-        <v>204957.24136611816</v>
+        <f t="shared" si="81"/>
+        <v>206266.83514226522</v>
       </c>
       <c r="AZ24" s="3">
-        <f t="shared" si="80"/>
-        <v>202907.66895245697</v>
+        <f t="shared" si="81"/>
+        <v>204204.16679084257</v>
       </c>
       <c r="BA24" s="3">
-        <f t="shared" si="80"/>
-        <v>200878.59226293239</v>
+        <f t="shared" si="81"/>
+        <v>202162.12512293414</v>
       </c>
       <c r="BB24" s="3">
-        <f t="shared" si="80"/>
-        <v>198869.80634030307</v>
+        <f t="shared" si="81"/>
+        <v>200140.5038717048</v>
       </c>
       <c r="BC24" s="3">
-        <f t="shared" si="80"/>
-        <v>196881.10827690005</v>
+        <f t="shared" si="81"/>
+        <v>198139.09883298774</v>
       </c>
       <c r="BD24" s="3">
-        <f t="shared" si="80"/>
-        <v>194912.29719413104</v>
+        <f t="shared" si="81"/>
+        <v>196157.70784465785</v>
       </c>
       <c r="BE24" s="3">
-        <f t="shared" si="80"/>
-        <v>192963.17422218973</v>
+        <f t="shared" si="81"/>
+        <v>194196.13076621128</v>
       </c>
       <c r="BF24" s="3">
-        <f t="shared" si="80"/>
-        <v>191033.54247996784</v>
+        <f t="shared" si="81"/>
+        <v>192254.16945854918</v>
       </c>
       <c r="BG24" s="3">
-        <f t="shared" si="80"/>
-        <v>189123.20705516817</v>
+        <f t="shared" si="81"/>
+        <v>190331.62776396368</v>
       </c>
       <c r="BH24" s="3">
-        <f t="shared" si="80"/>
-        <v>187231.97498461648</v>
+        <f t="shared" si="81"/>
+        <v>188428.31148632403</v>
       </c>
       <c r="BI24" s="3">
-        <f t="shared" si="80"/>
-        <v>185359.65523477033</v>
+        <f t="shared" si="81"/>
+        <v>186544.02837146079</v>
       </c>
       <c r="BJ24" s="3">
-        <f t="shared" si="80"/>
-        <v>183506.05868242262</v>
+        <f t="shared" si="81"/>
+        <v>184678.58808774618</v>
       </c>
       <c r="BK24" s="3">
-        <f t="shared" si="80"/>
-        <v>181670.99809559839</v>
+        <f t="shared" si="81"/>
+        <v>182831.80220686871</v>
       </c>
       <c r="BL24" s="3">
-        <f t="shared" si="80"/>
-        <v>179854.2881146424</v>
+        <f t="shared" si="81"/>
+        <v>181003.48418480004</v>
       </c>
       <c r="BM24" s="3">
-        <f t="shared" si="80"/>
-        <v>178055.74523349598</v>
+        <f t="shared" si="81"/>
+        <v>179193.44934295202</v>
       </c>
       <c r="BN24" s="3">
-        <f t="shared" si="80"/>
-        <v>176275.18778116102</v>
+        <f t="shared" si="81"/>
+        <v>177401.5148495225</v>
       </c>
       <c r="BO24" s="3">
-        <f t="shared" si="80"/>
-        <v>174512.4359033494</v>
+        <f t="shared" si="81"/>
+        <v>175627.49970102726</v>
       </c>
       <c r="BP24" s="3">
-        <f t="shared" si="80"/>
-        <v>172767.31154431589</v>
+        <f t="shared" si="81"/>
+        <v>173871.22470401699</v>
       </c>
       <c r="BQ24" s="3">
-        <f t="shared" si="80"/>
-        <v>171039.63842887274</v>
+        <f t="shared" si="81"/>
+        <v>172132.51245697681</v>
       </c>
       <c r="BR24" s="3">
-        <f t="shared" si="80"/>
-        <v>169329.24204458401</v>
+        <f t="shared" si="81"/>
+        <v>170411.18733240705</v>
       </c>
       <c r="BS24" s="3">
-        <f t="shared" si="80"/>
-        <v>167635.94962413816</v>
+        <f t="shared" si="81"/>
+        <v>168707.07545908299</v>
       </c>
       <c r="BT24" s="3">
-        <f t="shared" si="80"/>
-        <v>165959.59012789678</v>
+        <f t="shared" si="81"/>
+        <v>167020.00470449217</v>
       </c>
       <c r="BU24" s="3">
-        <f t="shared" si="80"/>
-        <v>164299.9942266178</v>
+        <f t="shared" si="81"/>
+        <v>165349.80465744724</v>
       </c>
       <c r="BV24" s="3">
-        <f t="shared" si="80"/>
-        <v>162656.99428435162</v>
+        <f t="shared" si="81"/>
+        <v>163696.30661087277</v>
       </c>
       <c r="BW24" s="3">
-        <f t="shared" si="80"/>
-        <v>161030.4243415081</v>
+        <f t="shared" si="81"/>
+        <v>162059.34354476404</v>
       </c>
       <c r="BX24" s="3">
-        <f t="shared" si="80"/>
-        <v>159420.12009809303</v>
+        <f t="shared" si="81"/>
+        <v>160438.7501093164</v>
       </c>
       <c r="BY24" s="3">
-        <f t="shared" si="80"/>
-        <v>157825.9188971121</v>
+        <f t="shared" si="81"/>
+        <v>158834.36260822325</v>
       </c>
       <c r="BZ24" s="3">
-        <f t="shared" si="80"/>
-        <v>156247.65970814097</v>
+        <f t="shared" si="81"/>
+        <v>157246.01898214102</v>
       </c>
       <c r="CA24" s="3">
-        <f t="shared" si="80"/>
-        <v>154685.18311105957</v>
+        <f t="shared" si="81"/>
+        <v>155673.55879231961</v>
       </c>
       <c r="CB24" s="3">
-        <f t="shared" si="80"/>
-        <v>153138.33127994896</v>
+        <f t="shared" si="81"/>
+        <v>154116.82320439641</v>
       </c>
       <c r="CC24" s="3">
-        <f t="shared" si="80"/>
-        <v>151606.94796714946</v>
+        <f t="shared" si="81"/>
+        <v>152575.65497235244</v>
       </c>
       <c r="CD24" s="3">
-        <f t="shared" si="80"/>
-        <v>150090.87848747798</v>
+        <f t="shared" si="81"/>
+        <v>151049.8984226289</v>
       </c>
       <c r="CE24" s="3">
-        <f t="shared" si="80"/>
-        <v>148589.96970260321</v>
+        <f t="shared" si="81"/>
+        <v>149539.39943840262</v>
       </c>
       <c r="CF24" s="3">
-        <f t="shared" si="80"/>
-        <v>147104.07000557717</v>
+        <f t="shared" si="81"/>
+        <v>148044.00544401858</v>
       </c>
       <c r="CG24" s="3">
-        <f t="shared" si="80"/>
-        <v>145633.0293055214</v>
+        <f t="shared" si="81"/>
+        <v>146563.56538957838</v>
       </c>
       <c r="CH24" s="3">
-        <f t="shared" si="80"/>
-        <v>144176.69901246618</v>
+        <f t="shared" si="81"/>
+        <v>145097.92973568258</v>
       </c>
       <c r="CI24" s="3">
-        <f t="shared" si="80"/>
-        <v>142734.93202234153</v>
+        <f t="shared" si="81"/>
+        <v>143646.95043832576</v>
       </c>
       <c r="CJ24" s="3">
-        <f t="shared" si="80"/>
-        <v>141307.58270211812</v>
+        <f t="shared" si="81"/>
+        <v>142210.48093394251</v>
       </c>
       <c r="CK24" s="3">
-        <f t="shared" si="80"/>
-        <v>139894.50687509694</v>
+        <f t="shared" si="81"/>
+        <v>140788.37612460309</v>
       </c>
       <c r="CL24" s="3">
-        <f t="shared" si="80"/>
-        <v>138495.56180634597</v>
+        <f t="shared" si="81"/>
+        <v>139380.49236335707</v>
       </c>
       <c r="CM24" s="3">
-        <f t="shared" si="80"/>
-        <v>137110.60618828252</v>
+        <f t="shared" si="81"/>
+        <v>137986.68743972349</v>
       </c>
       <c r="CN24" s="3">
-        <f t="shared" si="80"/>
-        <v>135739.50012639968</v>
+        <f t="shared" si="81"/>
+        <v>136606.82056532626</v>
       </c>
       <c r="CO24" s="3">
-        <f t="shared" si="80"/>
-        <v>134382.10512513568</v>
-      </c>
-    </row>
-    <row r="25" spans="2:93" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="81"/>
+        <v>135240.752359673</v>
+      </c>
+      <c r="CP24" s="3">
+        <f t="shared" si="81"/>
+        <v>133888.34483607628</v>
+      </c>
+      <c r="CQ24" s="3">
+        <f t="shared" si="81"/>
+        <v>132549.46138771554</v>
+      </c>
+      <c r="CR24" s="3">
+        <f t="shared" si="81"/>
+        <v>131223.96677383839</v>
+      </c>
+      <c r="CS24" s="3">
+        <f t="shared" si="81"/>
+        <v>129911.72710610001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:97" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="15">
-        <f t="shared" ref="C25" si="81">C24/C26</f>
+        <f t="shared" ref="C25" si="82">C24/C26</f>
         <v>11.919318455824756</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15">
-        <f t="shared" ref="G25" si="82">G24/G26</f>
+        <f t="shared" ref="G25" si="83">G24/G26</f>
         <v>9.8748026411774639</v>
       </c>
       <c r="H25" s="15">
-        <f t="shared" ref="H25" si="83">H24/H26</f>
+        <f t="shared" ref="H25" si="84">H24/H26</f>
         <v>10.129194904399265</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" ref="I25" si="84">I24/I26</f>
+        <f t="shared" ref="I25" si="85">I24/I26</f>
         <v>16.398605528022852</v>
       </c>
       <c r="J25" s="15">
-        <f t="shared" ref="J25" si="85">J24/J26</f>
+        <f t="shared" ref="J25" si="86">J24/J26</f>
         <v>22.295301836540162</v>
       </c>
       <c r="K25" s="15">
-        <f t="shared" ref="K25:N25" si="86">K24/K26</f>
+        <f t="shared" ref="K25:N25" si="87">K24/K26</f>
         <v>26.287585896482916</v>
       </c>
       <c r="L25" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="M25" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>27.990344690984287</v>
       </c>
       <c r="N25" s="15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>30.69474329100823</v>
       </c>
       <c r="O25" s="15">
@@ -3382,63 +3495,67 @@
         <v>24.621339792764896</v>
       </c>
       <c r="P25" s="15">
-        <f t="shared" ref="P25:R25" si="87">P24/P26</f>
+        <f t="shared" ref="P25:R25" si="88">P24/P26</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="Q25" s="15">
-        <f t="shared" si="87"/>
-        <v>1.5155827373668711</v>
+        <f t="shared" si="88"/>
+        <v>1.0620752844162786</v>
       </c>
       <c r="R25" s="15">
-        <f t="shared" si="87"/>
-        <v>1.6511333355993649</v>
-      </c>
-      <c r="Z25" s="18">
-        <f>Z24/Z26</f>
+        <f t="shared" si="88"/>
+        <v>1.6690352164617845</v>
+      </c>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="AD25" s="18">
+        <f>AD24/AD26</f>
         <v>58.613331625494155</v>
       </c>
-      <c r="AA25" s="18">
-        <f>AA24/AA26</f>
+      <c r="AE25" s="18">
+        <f>AE24/AE26</f>
         <v>112.19701508394893</v>
       </c>
-      <c r="AB25" s="18">
-        <f>AB24/AB26</f>
-        <v>5.6169011322607476</v>
-      </c>
-      <c r="AC25" s="18">
-        <f>AC24/AC26</f>
-        <v>6.4727841989453889</v>
-      </c>
-      <c r="AD25" s="18">
-        <f t="shared" ref="AD25:AJ25" si="88">AD24/AD26</f>
-        <v>7.5894844369876644</v>
-      </c>
-      <c r="AE25" s="18">
-        <f t="shared" si="88"/>
-        <v>8.800051286902848</v>
-      </c>
       <c r="AF25" s="18">
-        <f t="shared" si="88"/>
-        <v>10.25203849375418</v>
+        <f>AF24/AF26</f>
+        <v>5.1891071612608712</v>
       </c>
       <c r="AG25" s="18">
-        <f t="shared" si="88"/>
-        <v>12.004369647202195</v>
+        <f>AG24/AG26</f>
+        <v>6.1491230212166945</v>
       </c>
       <c r="AH25" s="18">
-        <f t="shared" si="88"/>
-        <v>13.724150916213389</v>
+        <f t="shared" ref="AH25:AN25" si="89">AH24/AH26</f>
+        <v>7.2475857264830363</v>
       </c>
       <c r="AI25" s="18">
-        <f t="shared" si="88"/>
-        <v>15.70815645090957</v>
+        <f t="shared" si="89"/>
+        <v>8.4388084519388045</v>
       </c>
       <c r="AJ25" s="18">
-        <f t="shared" si="88"/>
-        <v>18.000317516173187</v>
-      </c>
-    </row>
-    <row r="26" spans="2:93" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="89"/>
+        <v>9.8706558769377253</v>
+      </c>
+      <c r="AK25" s="18">
+        <f t="shared" si="89"/>
+        <v>11.602108703350829</v>
+      </c>
+      <c r="AL25" s="18">
+        <f t="shared" si="89"/>
+        <v>13.29923462522577</v>
+      </c>
+      <c r="AM25" s="18">
+        <f t="shared" si="89"/>
+        <v>15.259506633211888</v>
+      </c>
+      <c r="AN25" s="18">
+        <f t="shared" si="89"/>
+        <v>17.526843161854998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:97" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
@@ -3479,57 +3596,60 @@
         <v>13239</v>
       </c>
       <c r="Q26" s="12">
-        <f>+P26</f>
-        <v>13239</v>
+        <v>13097</v>
       </c>
       <c r="R26" s="12">
         <f>+Q26</f>
-        <v>13239</v>
-      </c>
-      <c r="Z26" s="3">
+        <v>13097</v>
+      </c>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="AD26" s="3">
         <v>687.02800000000002</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AE26" s="3">
         <v>677.67399999999998</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AF26" s="3">
         <f>AVERAGE(P26:R26)</f>
-        <v>13239</v>
-      </c>
-      <c r="AC26" s="3">
-        <f>+AB26</f>
-        <v>13239</v>
-      </c>
-      <c r="AD26" s="3">
-        <f t="shared" ref="AD26:AJ26" si="89">+AC26</f>
-        <v>13239</v>
-      </c>
-      <c r="AE26" s="3">
-        <f t="shared" si="89"/>
-        <v>13239</v>
-      </c>
-      <c r="AF26" s="3">
-        <f t="shared" si="89"/>
-        <v>13239</v>
+        <v>13144.333333333334</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" si="89"/>
-        <v>13239</v>
+        <f>+AF26</f>
+        <v>13144.333333333334</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="89"/>
-        <v>13239</v>
+        <f t="shared" ref="AH26:AN26" si="90">+AG26</f>
+        <v>13144.333333333334</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="89"/>
-        <v>13239</v>
+        <f t="shared" si="90"/>
+        <v>13144.333333333334</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="89"/>
-        <v>13239</v>
-      </c>
-    </row>
-    <row r="28" spans="2:93" s="19" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="90"/>
+        <v>13144.333333333334</v>
+      </c>
+      <c r="AK26" s="3">
+        <f t="shared" si="90"/>
+        <v>13144.333333333334</v>
+      </c>
+      <c r="AL26" s="3">
+        <f t="shared" si="90"/>
+        <v>13144.333333333334</v>
+      </c>
+      <c r="AM26" s="3">
+        <f t="shared" si="90"/>
+        <v>13144.333333333334</v>
+      </c>
+      <c r="AN26" s="3">
+        <f t="shared" si="90"/>
+        <v>13144.333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="2:97" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
         <v>34</v>
       </c>
@@ -3542,19 +3662,19 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17">
-        <f t="shared" ref="K28:L28" si="90">K12/G12-1</f>
+        <f t="shared" ref="K28:L28" si="91">K12/G12-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="L28" s="17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0.61579235971486024</v>
       </c>
       <c r="M28" s="17">
-        <f t="shared" ref="M28" si="91">M12/I12-1</f>
+        <f t="shared" ref="M28" si="92">M12/I12-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="N28" s="17">
-        <f t="shared" ref="N28" si="92">N12/J12-1</f>
+        <f t="shared" ref="N28" si="93">N12/J12-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="O28" s="17">
@@ -3562,77 +3682,81 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="P28" s="17">
-        <f t="shared" ref="P28:R28" si="93">P12/L12-1</f>
+        <f t="shared" ref="P28:R28" si="94">P12/L12-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="Q28" s="17">
-        <f t="shared" si="93"/>
-        <v>0.10997604349027945</v>
+        <f t="shared" si="94"/>
+        <v>6.1027672840074931E-2</v>
       </c>
       <c r="R28" s="17">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0.10669512114171908</v>
       </c>
-      <c r="X28" s="19">
-        <f t="shared" ref="X28:Z28" si="94">X12/W12-1</f>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="AB28" s="19">
+        <f t="shared" ref="AB28:AD28" si="95">AB12/AA12-1</f>
         <v>0.23421586757475987</v>
       </c>
-      <c r="Y28" s="19">
-        <f t="shared" si="94"/>
+      <c r="AC28" s="19">
+        <f t="shared" si="95"/>
         <v>0.18300089899794614</v>
-      </c>
-      <c r="Z28" s="19">
-        <f t="shared" si="94"/>
-        <v>0.12770532012826141</v>
-      </c>
-      <c r="AA28" s="19">
-        <f>AA12/Z12-1</f>
-        <v>0.41150076427049154</v>
-      </c>
-      <c r="AB28" s="19">
-        <f>AB12/AA12-1</f>
-        <v>0.13856794637416225</v>
-      </c>
-      <c r="AC28" s="19">
-        <f t="shared" ref="AC28:AJ28" si="95">AC12/AB12-1</f>
-        <v>0.10409339960018027</v>
       </c>
       <c r="AD28" s="19">
         <f t="shared" si="95"/>
-        <v>0.11521188119433079</v>
+        <v>0.12770532012826141</v>
       </c>
       <c r="AE28" s="19">
-        <f t="shared" si="95"/>
-        <v>0.11094739782486651</v>
+        <f>AE12/AD12-1</f>
+        <v>0.41150076427049154</v>
       </c>
       <c r="AF28" s="19">
-        <f t="shared" si="95"/>
-        <v>0.11714882389428238</v>
+        <f>AF12/AE12-1</f>
+        <v>0.12619619852738539</v>
       </c>
       <c r="AG28" s="19">
-        <f t="shared" si="95"/>
-        <v>0.12397359796538532</v>
+        <f t="shared" ref="AG28:AN28" si="96">AG12/AF12-1</f>
+        <v>0.10192530851562509</v>
       </c>
       <c r="AH28" s="19">
-        <f t="shared" si="95"/>
-        <v>0.10848733771592189</v>
+        <f t="shared" si="96"/>
+        <v>0.11556247138266795</v>
       </c>
       <c r="AI28" s="19">
-        <f t="shared" si="95"/>
-        <v>0.11133697578443114</v>
+        <f t="shared" si="96"/>
+        <v>0.11124265771352571</v>
       </c>
       <c r="AJ28" s="19">
-        <f t="shared" si="95"/>
-        <v>0.11424210537112223</v>
-      </c>
-      <c r="AL28" s="19" t="s">
+        <f t="shared" si="96"/>
+        <v>0.11747668944902112</v>
+      </c>
+      <c r="AK28" s="19">
+        <f t="shared" si="96"/>
+        <v>0.12433478151472821</v>
+      </c>
+      <c r="AL28" s="19">
+        <f t="shared" si="96"/>
+        <v>0.10871368123786351</v>
+      </c>
+      <c r="AM28" s="19">
+        <f t="shared" si="96"/>
+        <v>0.11157127966737113</v>
+      </c>
+      <c r="AN28" s="19">
+        <f t="shared" si="96"/>
+        <v>0.11448380392014212</v>
+      </c>
+      <c r="AP28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="AM28" s="19">
+      <c r="AQ28" s="19">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="29" spans="2:93" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:97" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
         <v>48</v>
       </c>
@@ -3654,14 +3778,18 @@
       </c>
       <c r="Q29" s="17"/>
       <c r="R29" s="17"/>
-      <c r="AL29" s="19" t="s">
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="AP29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AM29" s="19">
+      <c r="AQ29" s="19">
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="2:93" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:97" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>49</v>
       </c>
@@ -3674,23 +3802,23 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21">
-        <f t="shared" ref="K30" si="96">+K10/G10-1</f>
+        <f t="shared" ref="K30" si="97">+K10/G10-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" ref="L30:O30" si="97">+L10/H10-1</f>
+        <f t="shared" ref="L30:O30" si="98">+L10/H10-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M30" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N30" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>0.24276169265033398</v>
       </c>
       <c r="P30" s="21">
@@ -3699,72 +3827,76 @@
       </c>
       <c r="Q30" s="21">
         <f>+Q10/M10-1</f>
-        <v>0.10000000000000009</v>
+        <v>4.2530190370722032E-2</v>
       </c>
       <c r="R30" s="21">
         <f>+R10/N10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="X30" s="22">
-        <f t="shared" ref="X30:AB30" si="98">+X10/W10-1</f>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="AB30" s="22">
+        <f t="shared" ref="AB30:AF30" si="99">+AB10/AA10-1</f>
         <v>0.22181318130380601</v>
       </c>
-      <c r="Y30" s="22">
-        <f t="shared" si="98"/>
+      <c r="AC30" s="22">
+        <f t="shared" si="99"/>
         <v>0.15028840742824978</v>
       </c>
-      <c r="Z30" s="22">
-        <f t="shared" si="98"/>
+      <c r="AD30" s="22">
+        <f t="shared" si="99"/>
         <v>6.0612546501554343E-2</v>
       </c>
-      <c r="AA30" s="22">
-        <f t="shared" si="98"/>
+      <c r="AE30" s="22">
+        <f t="shared" si="99"/>
         <v>0.43136783840402826</v>
       </c>
-      <c r="AB30" s="22">
-        <f t="shared" si="98"/>
-        <v>0.13901014427563441</v>
-      </c>
-      <c r="AC30" s="22">
-        <f>+AC10/AB10-1</f>
+      <c r="AF30" s="22">
+        <f t="shared" si="99"/>
+        <v>0.12437714416150292</v>
+      </c>
+      <c r="AG30" s="22">
+        <f>+AG10/AF10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AD30" s="21">
-        <f t="shared" ref="AD30:AJ30" si="99">+AD10/AC10-1</f>
+      <c r="AH30" s="21">
+        <f t="shared" ref="AH30:AN30" si="100">+AH10/AG10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AE30" s="21">
-        <f t="shared" si="99"/>
+      <c r="AI30" s="21">
+        <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AF30" s="21">
-        <f t="shared" si="99"/>
+      <c r="AJ30" s="21">
+        <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AG30" s="21">
-        <f t="shared" si="99"/>
-        <v>9.9999999999999867E-2</v>
-      </c>
-      <c r="AH30" s="21">
-        <f t="shared" si="99"/>
+      <c r="AK30" s="21">
+        <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AI30" s="21">
-        <f t="shared" si="99"/>
+      <c r="AL30" s="21">
+        <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AJ30" s="21">
-        <f t="shared" si="99"/>
+      <c r="AM30" s="21">
+        <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL30" s="22" t="s">
+      <c r="AN30" s="21">
+        <f t="shared" si="100"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AP30" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AM30" s="22">
+      <c r="AQ30" s="22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:93" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:97" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>50</v>
       </c>
@@ -3777,98 +3909,102 @@
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21">
-        <f t="shared" ref="K31" si="100">+K9/G9-1</f>
+        <f t="shared" ref="K31" si="101">+K9/G9-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L31" s="21">
-        <f t="shared" ref="L31:R31" si="101">+L9/H9-1</f>
+        <f t="shared" ref="L31:R31" si="102">+L9/H9-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M31" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N31" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O31" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P31" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q31" s="21">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
+        <v>-1.8598195697432374E-2</v>
+      </c>
+      <c r="R31" s="21">
+        <f t="shared" si="102"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="R31" s="21">
-        <f t="shared" si="101"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="X31" s="22">
-        <f t="shared" ref="X31:AA31" si="102">+X9/W9-1</f>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="AB31" s="22">
+        <f t="shared" ref="AB31:AE31" si="103">+AB9/AA9-1</f>
         <v>0.36871165644171788</v>
       </c>
-      <c r="Y31" s="22">
-        <f t="shared" si="102"/>
+      <c r="AC31" s="22">
+        <f t="shared" si="103"/>
         <v>0.35804571940833707</v>
       </c>
-      <c r="Z31" s="22">
-        <f t="shared" si="102"/>
+      <c r="AD31" s="22">
+        <f t="shared" si="103"/>
         <v>0.30516865799722748</v>
       </c>
-      <c r="AA31" s="22">
-        <f t="shared" si="102"/>
+      <c r="AE31" s="22">
+        <f t="shared" si="103"/>
         <v>0.45888124620675708</v>
       </c>
-      <c r="AB31" s="22">
-        <f>+AB9/AA9-1</f>
-        <v>7.4615357947651173E-2</v>
-      </c>
-      <c r="AC31" s="22">
-        <f>+AC9/AB9-1</f>
+      <c r="AF31" s="22">
+        <f>+AF9/AE9-1</f>
+        <v>5.4982839313572507E-2</v>
+      </c>
+      <c r="AG31" s="22">
+        <f>+AG9/AF9-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AD31" s="21">
-        <f t="shared" ref="AD31:AJ31" si="103">+AD9/AC9-1</f>
+      <c r="AH31" s="21">
+        <f t="shared" ref="AH31:AN31" si="104">+AH9/AG9-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AE31" s="21">
-        <f t="shared" si="103"/>
+      <c r="AI31" s="21">
+        <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AF31" s="21">
-        <f t="shared" si="103"/>
+      <c r="AJ31" s="21">
+        <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AG31" s="21">
-        <f t="shared" si="103"/>
+      <c r="AK31" s="21">
+        <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AH31" s="21">
-        <f t="shared" si="103"/>
+      <c r="AL31" s="21">
+        <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AI31" s="21">
-        <f t="shared" si="103"/>
+      <c r="AM31" s="21">
+        <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AJ31" s="21">
-        <f t="shared" si="103"/>
+      <c r="AN31" s="21">
+        <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AL31" s="22" t="s">
+      <c r="AP31" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="AM31" s="20">
-        <f>NPV(AM29,AC24:CO24)+Main!L5-Main!L6</f>
-        <v>2377725.0435986267</v>
-      </c>
-    </row>
-    <row r="32" spans="2:93" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ31" s="20">
+        <f>NPV(AQ29,AG24:CS24)+Main!L5-Main!L6</f>
+        <v>2295836.3890811075</v>
+      </c>
+    </row>
+    <row r="32" spans="2:97" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
@@ -3881,19 +4017,19 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
-        <f t="shared" ref="K32" si="104">K11/G11-1</f>
+        <f t="shared" ref="K32" si="105">K11/G11-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" ref="L32" si="105">L11/H11-1</f>
+        <f t="shared" ref="L32" si="106">L11/H11-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" ref="M32" si="106">M11/I11-1</f>
+        <f t="shared" ref="M32" si="107">M11/I11-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" ref="N32" si="107">N11/J11-1</f>
+        <f t="shared" ref="N32" si="108">N11/J11-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O32" s="16">
@@ -3901,78 +4037,82 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" ref="P32:R32" si="108">P11/L11-1</f>
+        <f t="shared" ref="P32:R32" si="109">P11/L11-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="108"/>
-        <v>8.7292432035268375E-2</v>
+        <f t="shared" si="109"/>
+        <v>2.4931534299645897E-2</v>
       </c>
       <c r="R32" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8.6792651296830003E-2</v>
       </c>
-      <c r="X32" s="5">
-        <f t="shared" ref="X32:AB32" si="109">+X11/W11-1</f>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="AB32" s="5">
+        <f t="shared" ref="AB32:AF32" si="110">+AB11/AA11-1</f>
         <v>0.22568104346846218</v>
       </c>
-      <c r="Y32" s="5">
-        <f t="shared" si="109"/>
+      <c r="AC32" s="5">
+        <f t="shared" si="110"/>
         <v>0.16319604057491333</v>
       </c>
-      <c r="Z32" s="5">
-        <f t="shared" si="109"/>
+      <c r="AD32" s="5">
+        <f t="shared" si="110"/>
         <v>0.11071957846204517</v>
       </c>
-      <c r="AA32" s="5">
-        <f t="shared" si="109"/>
+      <c r="AE32" s="5">
+        <f t="shared" si="110"/>
         <v>0.40853915260770313</v>
       </c>
-      <c r="AB32" s="5">
-        <f t="shared" si="109"/>
-        <v>0.1150126089866923</v>
-      </c>
-      <c r="AC32" s="5">
-        <f>+AC11/AB11-1</f>
-        <v>7.7181487573449337E-2</v>
-      </c>
-      <c r="AD32" s="16">
-        <f t="shared" ref="AD32:AJ32" si="110">+AD11/AC11-1</f>
-        <v>7.8072306156287352E-2</v>
-      </c>
-      <c r="AE32" s="16">
+      <c r="AF32" s="5">
         <f t="shared" si="110"/>
-        <v>7.8944260717141335E-2</v>
-      </c>
-      <c r="AF32" s="16">
-        <f t="shared" si="110"/>
-        <v>7.979643035384365E-2</v>
-      </c>
-      <c r="AG32" s="16">
-        <f t="shared" si="110"/>
-        <v>8.0628005979105577E-2</v>
+        <v>9.9290655035806141E-2</v>
+      </c>
+      <c r="AG32" s="5">
+        <f>+AG11/AF11-1</f>
+        <v>7.7228583932169581E-2</v>
       </c>
       <c r="AH32" s="16">
-        <f t="shared" si="110"/>
-        <v>8.1438290414777903E-2</v>
+        <f t="shared" ref="AH32:AN32" si="111">+AH11/AG11-1</f>
+        <v>7.8118755801603212E-2</v>
       </c>
       <c r="AI32" s="16">
-        <f t="shared" si="110"/>
-        <v>8.2226697360125778E-2</v>
+        <f t="shared" si="111"/>
+        <v>7.8989996463362022E-2</v>
       </c>
       <c r="AJ32" s="16">
-        <f t="shared" si="110"/>
-        <v>8.2992749326142867E-2</v>
-      </c>
-      <c r="AL32" s="22" t="s">
+        <f t="shared" si="111"/>
+        <v>7.9841390287512359E-2</v>
+      </c>
+      <c r="AK32" s="16">
+        <f t="shared" si="111"/>
+        <v>8.067213363666359E-2</v>
+      </c>
+      <c r="AL32" s="16">
+        <f t="shared" si="111"/>
+        <v>8.1481534895198715E-2</v>
+      </c>
+      <c r="AM32" s="16">
+        <f t="shared" si="111"/>
+        <v>8.2269013375310784E-2</v>
+      </c>
+      <c r="AN32" s="16">
+        <f t="shared" si="111"/>
+        <v>8.3034097192792311E-2</v>
+      </c>
+      <c r="AP32" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="AM32" s="1">
-        <f>+AM31/Main!L3</f>
-        <v>179.60004861383993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ32" s="1">
+        <f>+AQ31/Main!L3</f>
+        <v>173.41463774311561</v>
+      </c>
+    </row>
+    <row r="33" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>43</v>
       </c>
@@ -3985,19 +4125,19 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16">
-        <f t="shared" ref="K33" si="111">K6/G6-1</f>
+        <f t="shared" ref="K33" si="112">K6/G6-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" ref="L33" si="112">L6/H6-1</f>
+        <f t="shared" ref="L33" si="113">L6/H6-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" ref="M33" si="113">M6/I6-1</f>
+        <f t="shared" ref="M33" si="114">M6/I6-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" ref="N33" si="114">N6/J6-1</f>
+        <f t="shared" ref="N33" si="115">N6/J6-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O33" s="16">
@@ -4005,71 +4145,75 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P33" s="16">
-        <f t="shared" ref="P33:R33" si="115">P6/L6-1</f>
+        <f t="shared" ref="P33:R33" si="116">P6/L6-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q33" s="16">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
+        <v>0.37635270541082155</v>
+      </c>
+      <c r="R33" s="16">
+        <f t="shared" si="116"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="R33" s="16">
-        <f t="shared" si="115"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="AB33" s="5">
+        <f t="shared" ref="AB33:AF33" si="117">+AB6/AA6-1</f>
+        <v>0.43934911242603558</v>
+      </c>
+      <c r="AC33" s="5">
+        <f t="shared" si="117"/>
+        <v>0.52757793764988015</v>
+      </c>
+      <c r="AD33" s="5">
+        <f t="shared" si="117"/>
+        <v>0.46434178066831122</v>
+      </c>
+      <c r="AE33" s="5">
+        <f t="shared" si="117"/>
+        <v>0.47070985527222597</v>
+      </c>
+      <c r="AF33" s="5">
+        <f t="shared" si="117"/>
+        <v>0.39135686764552746</v>
+      </c>
+      <c r="AG33" s="5">
+        <f>+AG6/AF6-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="X33" s="5">
-        <f t="shared" ref="X33:AB33" si="116">+X6/W6-1</f>
-        <v>0.43934911242603558</v>
-      </c>
-      <c r="Y33" s="5">
-        <f t="shared" si="116"/>
-        <v>0.52757793764988015</v>
-      </c>
-      <c r="Z33" s="5">
-        <f t="shared" si="116"/>
-        <v>0.46434178066831122</v>
-      </c>
-      <c r="AA33" s="5">
-        <f t="shared" si="116"/>
-        <v>0.47070985527222597</v>
-      </c>
-      <c r="AB33" s="5">
-        <f t="shared" si="116"/>
-        <v>0.39750078100593567</v>
-      </c>
-      <c r="AC33" s="5">
-        <f>+AC6/AB6-1</f>
+      <c r="AH33" s="16">
+        <f t="shared" ref="AH33:AN33" si="118">+AH6/AG6-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AD33" s="16">
-        <f t="shared" ref="AD33:AJ33" si="117">+AD6/AC6-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AE33" s="16">
-        <f t="shared" si="117"/>
-        <v>0.29999999999999982</v>
-      </c>
-      <c r="AF33" s="16">
-        <f t="shared" si="117"/>
+      <c r="AI33" s="16">
+        <f t="shared" si="118"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AG33" s="16">
-        <f t="shared" si="117"/>
+      <c r="AJ33" s="16">
+        <f t="shared" si="118"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AH33" s="16">
-        <f t="shared" si="117"/>
+      <c r="AK33" s="16">
+        <f t="shared" si="118"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL33" s="16">
+        <f t="shared" si="118"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AI33" s="16">
-        <f t="shared" si="117"/>
+      <c r="AM33" s="16">
+        <f t="shared" si="118"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AJ33" s="16">
-        <f t="shared" si="117"/>
+      <c r="AN33" s="16">
+        <f t="shared" si="118"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="2:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
@@ -4078,19 +4222,19 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16">
-        <f t="shared" ref="G34:H34" si="118">G15/G12</f>
+        <f t="shared" ref="G34:H34" si="119">G15/G12</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="H34" s="16">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" ref="I34" si="119">I15/I12</f>
+        <f t="shared" ref="I34" si="120">I15/I12</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="J34" s="16">
-        <f t="shared" ref="J34" si="120">J15/J12</f>
+        <f t="shared" ref="J34" si="121">J15/J12</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="K34" s="16">
@@ -4098,79 +4242,83 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="L34" s="16">
-        <f t="shared" ref="L34:O34" si="121">L15/L12</f>
+        <f t="shared" ref="L34:O34" si="122">L15/L12</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.57583156730857832</v>
       </c>
       <c r="N34" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.56205774975107869</v>
       </c>
       <c r="O34" s="16">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>0.5647909896928438</v>
       </c>
       <c r="P34" s="16">
-        <f t="shared" ref="P34:R34" si="122">P15/P12</f>
+        <f t="shared" ref="P34:R34" si="123">P15/P12</f>
         <v>0.56799885197675248</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
+        <v>0.54903606785156023</v>
+      </c>
+      <c r="R34" s="16">
+        <f t="shared" si="123"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="R34" s="16">
-        <f t="shared" si="122"/>
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="Z34" s="5">
-        <f t="shared" ref="Z34" si="123">Z15/Z12</f>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="AD34" s="5">
+        <f t="shared" ref="AD34" si="124">AD15/AD12</f>
         <v>0.53578374706207854</v>
       </c>
-      <c r="AA34" s="5">
-        <f>AA15/AA12</f>
+      <c r="AE34" s="5">
+        <f>AE15/AE12</f>
         <v>0.5693980290098084</v>
       </c>
-      <c r="AB34" s="5">
-        <f t="shared" ref="AB34:AC34" si="124">AB15/AB12</f>
-        <v>0.57096982626446702</v>
-      </c>
-      <c r="AC34" s="5">
-        <f t="shared" si="124"/>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AD34" s="16">
-        <f t="shared" ref="AD34:AJ34" si="125">AD15/AD12</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="AE34" s="16">
+      <c r="AF34" s="5">
+        <f t="shared" ref="AF34:AG34" si="125">AF15/AF12</f>
+        <v>0.56474288489108437</v>
+      </c>
+      <c r="AG34" s="5">
         <f t="shared" si="125"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AF34" s="16">
-        <f t="shared" si="125"/>
+      <c r="AH34" s="16">
+        <f t="shared" ref="AH34:AN34" si="126">AH15/AH12</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AG34" s="16">
-        <f t="shared" si="125"/>
+      <c r="AI34" s="16">
+        <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AH34" s="16">
-        <f t="shared" si="125"/>
+      <c r="AJ34" s="16">
+        <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AI34" s="16">
-        <f t="shared" si="125"/>
+      <c r="AK34" s="16">
+        <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AJ34" s="16">
-        <f t="shared" si="125"/>
+      <c r="AL34" s="16">
+        <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="35" spans="2:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM34" s="16">
+        <f t="shared" si="126"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AN34" s="16">
+        <f t="shared" si="126"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>70</v>
       </c>
@@ -4179,7 +4327,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16">
-        <f t="shared" ref="G35" si="126">+G23/G22</f>
+        <f t="shared" ref="G35" si="127">+G23/G22</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H35" s="16">
@@ -4187,91 +4335,95 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I35" s="16">
-        <f t="shared" ref="I35:R35" si="127">+I23/I22</f>
+        <f t="shared" ref="I35:R35" si="128">+I23/I22</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J35" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K35" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L35" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.16</v>
       </c>
       <c r="M35" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N35" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O35" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P35" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q35" s="16">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
+        <v>0.14310355448777182</v>
+      </c>
+      <c r="R35" s="16">
+        <f t="shared" si="128"/>
         <v>0.16</v>
       </c>
-      <c r="R35" s="16">
-        <f t="shared" si="127"/>
-        <v>0.16</v>
-      </c>
-      <c r="Z35" s="16">
-        <f t="shared" ref="Z35:AC35" si="128">+Z23/Z22</f>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="AD35" s="16">
+        <f t="shared" ref="AD35:AG35" si="129">+AD23/AD22</f>
         <v>0.16249324071378063</v>
-      </c>
-      <c r="AA35" s="16">
-        <f t="shared" si="128"/>
-        <v>0.16202305640663919</v>
-      </c>
-      <c r="AB35" s="16">
-        <f t="shared" si="128"/>
-        <v>0.15360693537788619</v>
-      </c>
-      <c r="AC35" s="16">
-        <f t="shared" si="128"/>
-        <v>0.18</v>
-      </c>
-      <c r="AD35" s="16">
-        <f t="shared" ref="AD35:AJ35" si="129">+AD23/AD22</f>
-        <v>0.18</v>
       </c>
       <c r="AE35" s="16">
         <f t="shared" si="129"/>
-        <v>0.18</v>
+        <v>0.16202305640663919</v>
       </c>
       <c r="AF35" s="16">
         <f t="shared" si="129"/>
-        <v>0.18</v>
+        <v>0.14957708374562165</v>
       </c>
       <c r="AG35" s="16">
         <f t="shared" si="129"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="AH35" s="16">
+        <f t="shared" ref="AH35:AN35" si="130">+AH23/AH22</f>
         <v>0.18</v>
       </c>
-      <c r="AH35" s="16">
-        <f t="shared" si="129"/>
+      <c r="AI35" s="16">
+        <f t="shared" si="130"/>
         <v>0.18</v>
       </c>
-      <c r="AI35" s="16">
-        <f t="shared" si="129"/>
+      <c r="AJ35" s="16">
+        <f t="shared" si="130"/>
         <v>0.18</v>
       </c>
-      <c r="AJ35" s="16">
-        <f t="shared" si="129"/>
+      <c r="AK35" s="16">
+        <f t="shared" si="130"/>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="36" spans="2:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL35" s="16">
+        <f t="shared" si="130"/>
+        <v>0.18</v>
+      </c>
+      <c r="AM35" s="16">
+        <f t="shared" si="130"/>
+        <v>0.18</v>
+      </c>
+      <c r="AN35" s="16">
+        <f t="shared" si="130"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>47</v>
       </c>
@@ -4280,15 +4432,15 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16">
-        <f t="shared" ref="G36:H36" si="130">G10/G12</f>
+        <f t="shared" ref="G36:H36" si="131">G10/G12</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H36" s="16">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I36" s="16">
-        <f t="shared" ref="I36" si="131">I10/I12</f>
+        <f t="shared" ref="I36" si="132">I10/I12</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J36" s="16">
@@ -4296,83 +4448,87 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K36" s="16">
-        <f t="shared" ref="K36:O36" si="132">K10/K12</f>
+        <f t="shared" ref="K36:O36" si="133">K10/K12</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L36" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.57926632191338079</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.58241960748180222</v>
       </c>
       <c r="N36" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.5748556256223033</v>
       </c>
       <c r="O36" s="16">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>0.58252341532987306</v>
       </c>
       <c r="P36" s="16">
-        <f t="shared" ref="P36:R36" si="133">P10/P12</f>
+        <f t="shared" ref="P36:R36" si="134">P10/P12</f>
         <v>0.58389897395422252</v>
       </c>
       <c r="Q36" s="16">
-        <f t="shared" si="133"/>
-        <v>0.57718504105317947</v>
+        <f t="shared" si="134"/>
+        <v>0.57226596422161757</v>
       </c>
       <c r="R36" s="16">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>0.57137794872736092</v>
       </c>
-      <c r="Z36" s="16">
-        <f t="shared" ref="Z36:AC36" si="134">Z10/Z12</f>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="AD36" s="16">
+        <f t="shared" ref="AD36:AG36" si="135">AD10/AD12</f>
         <v>0.57011839344316184</v>
-      </c>
-      <c r="AA36" s="16">
-        <f t="shared" si="134"/>
-        <v>0.57814289096674776</v>
-      </c>
-      <c r="AB36" s="16">
-        <f t="shared" si="134"/>
-        <v>0.57836743055083728</v>
-      </c>
-      <c r="AC36" s="16">
-        <f t="shared" si="134"/>
-        <v>0.57622314727749158</v>
-      </c>
-      <c r="AD36" s="16">
-        <f t="shared" ref="AD36:AJ36" si="135">AD10/AD12</f>
-        <v>0.56836326145165084</v>
       </c>
       <c r="AE36" s="16">
         <f t="shared" si="135"/>
-        <v>0.56276254737253961</v>
+        <v>0.57814289096674776</v>
       </c>
       <c r="AF36" s="16">
         <f t="shared" si="135"/>
-        <v>0.55412384533680914</v>
+        <v>0.57720906313879716</v>
       </c>
       <c r="AG36" s="16">
         <f t="shared" si="135"/>
-        <v>0.54230475784651111</v>
+        <v>0.57620055056905317</v>
       </c>
       <c r="AH36" s="16">
-        <f t="shared" si="135"/>
-        <v>0.53815250146234839</v>
+        <f t="shared" ref="AH36:AN36" si="136">AH10/AH12</f>
+        <v>0.56816235924499925</v>
       </c>
       <c r="AI36" s="16">
-        <f t="shared" si="135"/>
-        <v>0.53266269773013364</v>
+        <f t="shared" si="136"/>
+        <v>0.5624141503489839</v>
       </c>
       <c r="AJ36" s="16">
-        <f t="shared" si="135"/>
-        <v>0.52585426872554852</v>
-      </c>
-    </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+        <f t="shared" si="136"/>
+        <v>0.55361831814936058</v>
+      </c>
+      <c r="AK36" s="16">
+        <f t="shared" si="136"/>
+        <v>0.54163596108257495</v>
+      </c>
+      <c r="AL36" s="16">
+        <f t="shared" si="136"/>
+        <v>0.53737909730276834</v>
+      </c>
+      <c r="AM36" s="16">
+        <f t="shared" si="136"/>
+        <v>0.53178506664002001</v>
+      </c>
+      <c r="AN36" s="16">
+        <f t="shared" si="136"/>
+        <v>0.52487400108143456</v>
+      </c>
+    </row>
+    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
@@ -4385,51 +4541,55 @@
         <v>140928</v>
       </c>
       <c r="Q38" s="12">
-        <f>+P38+Q24</f>
-        <v>160992.79986</v>
+        <f>+Q39-Q57</f>
+        <v>132025</v>
       </c>
       <c r="R38" s="12">
         <f>+Q38+R24</f>
-        <v>182852.15409</v>
-      </c>
-      <c r="AB38" s="3">
+        <v>153884.35423</v>
+      </c>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="AF38" s="3">
         <f>+R38</f>
-        <v>182852.15409</v>
-      </c>
-      <c r="AC38" s="3">
-        <f>+AB38+AC24</f>
-        <v>268545.344099838</v>
-      </c>
-      <c r="AD38" s="3">
-        <f t="shared" ref="AD38:AJ38" si="136">+AC38+AD24</f>
-        <v>369022.52856111771</v>
-      </c>
-      <c r="AE38" s="3">
-        <f t="shared" si="136"/>
-        <v>485526.40754842455</v>
-      </c>
-      <c r="AF38" s="3">
-        <f t="shared" si="136"/>
-        <v>621253.1451672361</v>
+        <v>153884.35423</v>
       </c>
       <c r="AG38" s="3">
-        <f t="shared" si="136"/>
-        <v>780178.994926546</v>
+        <f>+AF38+AG24</f>
+        <v>234710.47692854598</v>
       </c>
       <c r="AH38" s="3">
-        <f t="shared" si="136"/>
-        <v>961873.02890629508</v>
+        <f t="shared" ref="AH38:AN38" si="137">+AG38+AH24</f>
+        <v>329975.15957934782</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="136"/>
-        <v>1169833.3121598868</v>
+        <f t="shared" si="137"/>
+        <v>440897.67080778209</v>
       </c>
       <c r="AJ38" s="3">
-        <f t="shared" si="136"/>
-        <v>1408139.5157565037</v>
-      </c>
-    </row>
-    <row r="39" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="137"/>
+        <v>570640.86187287723</v>
+      </c>
+      <c r="AK38" s="3">
+        <f t="shared" si="137"/>
+        <v>723142.84603928833</v>
+      </c>
+      <c r="AL38" s="3">
+        <f t="shared" si="137"/>
+        <v>897952.41903146426</v>
+      </c>
+      <c r="AM38" s="3">
+        <f t="shared" si="137"/>
+        <v>1098528.4607206124</v>
+      </c>
+      <c r="AN38" s="3">
+        <f t="shared" si="137"/>
+        <v>1328907.1295210884</v>
+      </c>
+    </row>
+    <row r="39" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,10 +4613,17 @@
         <f>124997+30665</f>
         <v>155662</v>
       </c>
-      <c r="Q39" s="12"/>
+      <c r="Q39" s="12">
+        <f>21984+94275+30419</f>
+        <v>146678</v>
+      </c>
       <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+    </row>
+    <row r="40" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -4478,10 +4645,16 @@
       <c r="P40" s="12">
         <v>35707</v>
       </c>
-      <c r="Q40" s="12"/>
+      <c r="Q40" s="12">
+        <v>34697</v>
+      </c>
       <c r="R40" s="12"/>
-    </row>
-    <row r="41" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+    </row>
+    <row r="41" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
@@ -4503,10 +4676,16 @@
       <c r="P41" s="12">
         <v>1366</v>
       </c>
-      <c r="Q41" s="12"/>
+      <c r="Q41" s="12">
+        <v>1479</v>
+      </c>
       <c r="R41" s="12"/>
-    </row>
-    <row r="42" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+    </row>
+    <row r="42" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>54</v>
       </c>
@@ -4528,10 +4707,16 @@
       <c r="P42" s="12">
         <v>1980</v>
       </c>
-      <c r="Q42" s="12"/>
+      <c r="Q42" s="12">
+        <v>3156</v>
+      </c>
       <c r="R42" s="12"/>
-    </row>
-    <row r="43" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+    </row>
+    <row r="43" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
@@ -4553,10 +4738,16 @@
       <c r="P43" s="12">
         <v>8321</v>
       </c>
-      <c r="Q43" s="12"/>
+      <c r="Q43" s="12">
+        <v>10518</v>
+      </c>
       <c r="R43" s="12"/>
-    </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+    </row>
+    <row r="44" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
@@ -4566,8 +4757,16 @@
       <c r="P44" s="12">
         <v>1490</v>
       </c>
-    </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Q44" s="12">
+        <v>2991</v>
+      </c>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+    </row>
+    <row r="45" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
@@ -4577,8 +4776,16 @@
       <c r="P45" s="12">
         <v>106223</v>
       </c>
-    </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Q45" s="12">
+        <v>108363</v>
+      </c>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+    </row>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>58</v>
       </c>
@@ -4588,8 +4795,16 @@
       <c r="P46" s="12">
         <v>13398</v>
       </c>
-    </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Q46" s="12">
+        <v>13677</v>
+      </c>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+    </row>
+    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
@@ -4601,8 +4816,17 @@
         <f>1377+23949</f>
         <v>25326</v>
       </c>
-    </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="Q47" s="12">
+        <f>28834+2192</f>
+        <v>31026</v>
+      </c>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+    </row>
+    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
@@ -4612,8 +4836,16 @@
       <c r="P48" s="12">
         <v>5712</v>
       </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q48" s="12">
+        <v>5670</v>
+      </c>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
@@ -4625,13 +4857,28 @@
         <f>SUM(P39:P48)</f>
         <v>355185</v>
       </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q49" s="12">
+        <f>SUM(Q39:Q48)</f>
+        <v>358255</v>
+      </c>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="G50" s="12"/>
       <c r="P50" s="12"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>62</v>
       </c>
@@ -4641,8 +4888,16 @@
       <c r="P51" s="12">
         <v>4409</v>
       </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q51" s="12">
+        <v>6303</v>
+      </c>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>63</v>
       </c>
@@ -4652,8 +4907,16 @@
       <c r="P52" s="12">
         <v>10852</v>
       </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q52" s="12">
+        <v>12366</v>
+      </c>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>64</v>
       </c>
@@ -4663,8 +4926,16 @@
       <c r="P53" s="12">
         <v>32976</v>
       </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q53" s="12">
+        <v>35038</v>
+      </c>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4674,8 +4945,16 @@
       <c r="P54" s="12">
         <v>7889</v>
       </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q54" s="12">
+        <v>7662</v>
+      </c>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>66</v>
       </c>
@@ -4687,8 +4966,17 @@
         <f>3272+472</f>
         <v>3744</v>
       </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q55" s="12">
+        <f>3585+594</f>
+        <v>4179</v>
+      </c>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>30</v>
       </c>
@@ -4700,8 +4988,17 @@
         <f>1956+8163+924</f>
         <v>11043</v>
       </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q56" s="12">
+        <f>1025+8572+476</f>
+        <v>10073</v>
+      </c>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4711,8 +5008,16 @@
       <c r="P57" s="12">
         <v>14734</v>
       </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q57" s="12">
+        <v>14653</v>
+      </c>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
@@ -4722,8 +5027,16 @@
       <c r="P58" s="12">
         <v>11697</v>
       </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q58" s="12">
+        <v>11984</v>
+      </c>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>69</v>
       </c>
@@ -4733,8 +5046,16 @@
       <c r="P59" s="12">
         <v>2422</v>
       </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q59" s="12">
+        <v>2371</v>
+      </c>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
@@ -4744,8 +5065,16 @@
       <c r="P60" s="12">
         <v>255419</v>
       </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q60" s="12">
+        <v>253626</v>
+      </c>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
@@ -4757,8 +5086,17 @@
         <f>SUM(P51:P60)</f>
         <v>355185</v>
       </c>
-    </row>
-    <row r="63" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q61" s="12">
+        <f>SUM(Q51:Q60)</f>
+        <v>358255</v>
+      </c>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+    </row>
+    <row r="63" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>82</v>
       </c>
@@ -4773,19 +5111,53 @@
         <f>+G24</f>
         <v>6836</v>
       </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
+      <c r="H63" s="12">
+        <f t="shared" ref="H63:Q63" si="138">+H24</f>
+        <v>6959</v>
+      </c>
+      <c r="I63" s="12">
+        <f t="shared" si="138"/>
+        <v>11247</v>
+      </c>
+      <c r="J63" s="12">
+        <f t="shared" si="138"/>
+        <v>15227</v>
+      </c>
+      <c r="K63" s="12">
+        <f t="shared" si="138"/>
+        <v>17930</v>
+      </c>
+      <c r="L63" s="12">
+        <f t="shared" si="138"/>
+        <v>18165</v>
+      </c>
+      <c r="M63" s="12">
+        <f t="shared" si="138"/>
+        <v>18936</v>
+      </c>
+      <c r="N63" s="12">
+        <f t="shared" si="138"/>
+        <v>20642</v>
+      </c>
+      <c r="O63" s="12">
+        <f t="shared" si="138"/>
+        <v>16436</v>
+      </c>
+      <c r="P63" s="12">
+        <f t="shared" si="138"/>
+        <v>16002</v>
+      </c>
+      <c r="Q63" s="12">
+        <f t="shared" si="138"/>
+        <v>13910</v>
+      </c>
       <c r="R63" s="12"/>
-    </row>
-    <row r="64" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+    </row>
+    <row r="64" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>83</v>
       </c>
@@ -4807,10 +5179,16 @@
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
+      <c r="Q64" s="12">
+        <v>13910</v>
+      </c>
       <c r="R64" s="12"/>
-    </row>
-    <row r="65" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+    </row>
+    <row r="65" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>84</v>
       </c>
@@ -4832,10 +5210,16 @@
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
+      <c r="Q65" s="12">
+        <v>3933</v>
+      </c>
       <c r="R65" s="12"/>
-    </row>
-    <row r="66" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+    </row>
+    <row r="66" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>85</v>
       </c>
@@ -4857,10 +5241,16 @@
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
+      <c r="Q66" s="12">
+        <v>113</v>
+      </c>
       <c r="R66" s="12"/>
-    </row>
-    <row r="67" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+    </row>
+    <row r="67" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>86</v>
       </c>
@@ -4882,10 +5272,16 @@
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
+      <c r="Q67" s="12">
+        <v>4976</v>
+      </c>
       <c r="R67" s="12"/>
-    </row>
-    <row r="68" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+    </row>
+    <row r="68" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>56</v>
       </c>
@@ -4907,10 +5303,16 @@
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
+      <c r="Q68" s="12">
+        <v>-1920</v>
+      </c>
       <c r="R68" s="12"/>
-    </row>
-    <row r="69" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+    </row>
+    <row r="69" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>87</v>
       </c>
@@ -4932,10 +5334,16 @@
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
+      <c r="Q69" s="12">
+        <v>1378</v>
+      </c>
       <c r="R69" s="12"/>
-    </row>
-    <row r="70" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+    </row>
+    <row r="70" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>28</v>
       </c>
@@ -4957,10 +5365,16 @@
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
       <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
+      <c r="Q70" s="12">
+        <v>167</v>
+      </c>
       <c r="R70" s="12"/>
-    </row>
-    <row r="71" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+    </row>
+    <row r="71" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>88</v>
       </c>
@@ -4984,10 +5398,17 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
       <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
+      <c r="Q71" s="12">
+        <f>-97-609-2647+1907+2210-80+112</f>
+        <v>796</v>
+      </c>
       <c r="R71" s="12"/>
-    </row>
-    <row r="72" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+    </row>
+    <row r="72" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>35</v>
       </c>
@@ -5011,7 +5432,9 @@
         <v>19289</v>
       </c>
       <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
+      <c r="M72" s="12">
+        <v>25539</v>
+      </c>
       <c r="N72" s="12">
         <v>24934</v>
       </c>
@@ -5019,10 +5442,17 @@
         <v>25106</v>
       </c>
       <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
+      <c r="Q72" s="12">
+        <f>SUM(Q64:Q71)</f>
+        <v>23353</v>
+      </c>
       <c r="R72" s="12"/>
-    </row>
-    <row r="73" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+    </row>
+    <row r="73" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -5039,8 +5469,12 @@
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
-    </row>
-    <row r="74" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+    </row>
+    <row r="74" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
@@ -5062,7 +5496,9 @@
         <v>5942</v>
       </c>
       <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
+      <c r="M74" s="12">
+        <v>6819</v>
+      </c>
       <c r="N74" s="12">
         <v>6383</v>
       </c>
@@ -5070,10 +5506,16 @@
         <v>9786</v>
       </c>
       <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
+      <c r="Q74" s="12">
+        <v>7276</v>
+      </c>
       <c r="R74" s="12"/>
-    </row>
-    <row r="75" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+    </row>
+    <row r="75" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>89</v>
       </c>
@@ -5099,8 +5541,12 @@
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
-    </row>
-    <row r="76" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+    </row>
+    <row r="76" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>91</v>
       </c>
@@ -5124,8 +5570,12 @@
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
       <c r="R76" s="12"/>
-    </row>
-    <row r="77" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+    </row>
+    <row r="77" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>28</v>
       </c>
@@ -5149,8 +5599,12 @@
       <c r="P77" s="12"/>
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
-    </row>
-    <row r="78" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+    </row>
+    <row r="78" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>92</v>
       </c>
@@ -5176,8 +5630,12 @@
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
-    </row>
-    <row r="79" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+    </row>
+    <row r="79" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -5194,8 +5652,12 @@
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
-    </row>
-    <row r="80" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+    </row>
+    <row r="80" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>86</v>
       </c>
@@ -5219,8 +5681,12 @@
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
-    </row>
-    <row r="81" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+    </row>
+    <row r="81" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>93</v>
       </c>
@@ -5244,8 +5710,12 @@
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
       <c r="R81" s="12"/>
-    </row>
-    <row r="82" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+    </row>
+    <row r="82" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>4</v>
       </c>
@@ -5271,8 +5741,12 @@
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
-    </row>
-    <row r="83" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+    </row>
+    <row r="83" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>94</v>
       </c>
@@ -5296,8 +5770,12 @@
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
-    </row>
-    <row r="84" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+    </row>
+    <row r="84" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>90</v>
       </c>
@@ -5323,8 +5801,12 @@
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
-    </row>
-    <row r="85" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+    </row>
+    <row r="85" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>41</v>
       </c>
@@ -5348,8 +5830,12 @@
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
-    </row>
-    <row r="86" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+    </row>
+    <row r="86" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>95</v>
       </c>
@@ -5375,8 +5861,12 @@
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
-    </row>
-    <row r="87" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+    </row>
+    <row r="87" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
@@ -5393,8 +5883,12 @@
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
       <c r="R87" s="12"/>
-    </row>
-    <row r="88" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+    </row>
+    <row r="88" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>37</v>
       </c>
@@ -5414,7 +5908,10 @@
         <v>13347</v>
       </c>
       <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
+      <c r="M88" s="12">
+        <f>M72-M74</f>
+        <v>18720</v>
+      </c>
       <c r="N88" s="12">
         <f>N72-N74</f>
         <v>18551</v>
@@ -5424,10 +5921,17 @@
         <v>15320</v>
       </c>
       <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
+      <c r="Q88" s="12">
+        <f>Q72-Q74</f>
+        <v>16077</v>
+      </c>
       <c r="R88" s="12"/>
-    </row>
-    <row r="91" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+    </row>
+    <row r="91" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>52</v>
       </c>
@@ -5447,22 +5951,34 @@
       <c r="L91" s="12">
         <v>144056</v>
       </c>
-      <c r="M91" s="12"/>
+      <c r="M91" s="12">
+        <v>150028</v>
+      </c>
       <c r="N91" s="12"/>
       <c r="O91" s="12"/>
       <c r="P91" s="12">
         <v>174014</v>
       </c>
-      <c r="Q91" s="12"/>
+      <c r="Q91" s="12">
+        <v>186779</v>
+      </c>
       <c r="R91" s="12"/>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>81</v>
       </c>
       <c r="P92" s="16">
         <f>+P91/L91-1</f>
         <v>0.20796079302493475</v>
+      </c>
+      <c r="Q92" s="16">
+        <f>+Q91/M91-1</f>
+        <v>0.24496094062441687</v>
       </c>
     </row>
   </sheetData>
@@ -5470,6 +5986,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E44988C7-574D-4338-8D92-18114C17CDBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18BAF37-3AEE-492A-AB2A-FE3866B0F51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12831F1A-3B83-4835-B0AB-00321F47EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="-32730" yWindow="2385" windowWidth="30135" windowHeight="17865" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,9 +408,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -433,11 +430,6 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -860,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
   <dimension ref="H1:M14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -874,27 +866,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="K1" s="8"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>105.44</v>
+        <v>91.92</v>
       </c>
     </row>
     <row r="3" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H3" s="7"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="3"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>13239</v>
+        <v>13097</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="8:13" x14ac:dyDescent="0.2">
@@ -904,7 +896,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>1395920.16</v>
+        <v>1203876.24</v>
       </c>
     </row>
     <row r="5" spans="8:13" x14ac:dyDescent="0.2">
@@ -913,10 +905,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>155662</v>
+        <v>146678</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="8:13" x14ac:dyDescent="0.2">
@@ -924,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>14734</v>
+        <v>14653</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="8:13" x14ac:dyDescent="0.2">
@@ -936,17 +928,17 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>1254992.1599999999</v>
+        <v>1071851.24</v>
       </c>
     </row>
     <row r="8" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="K8" s="8"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>1998</v>
       </c>
     </row>
@@ -954,7 +946,7 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="K11" s="9"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K14" s="3"/>
@@ -970,11 +962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
   <dimension ref="A1:CS92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -986,7 +978,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1113,50 +1105,50 @@
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>137</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
         <v>49</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>151</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>-22</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>-2</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>-109</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>-7</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>62</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>203</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>278</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>375</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>638</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
       <c r="AA4" s="3">
         <v>-169</v>
       </c>
@@ -1183,53 +1175,65 @@
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>170</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11">
         <v>135</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>148</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>178</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>196</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>198</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>192</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>182</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>181</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>440</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="11">
         <v>193</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>209</v>
       </c>
-      <c r="R5" s="12">
-        <f t="shared" ref="R5" si="4">+N5</f>
+      <c r="R5" s="11">
+        <f t="shared" ref="R5:V5" si="4">+N5</f>
         <v>181</v>
       </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+      <c r="S5" s="11">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="4"/>
+        <v>209</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
       <c r="AA5" s="3">
         <v>477</v>
       </c>
@@ -1288,53 +1292,65 @@
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1825</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
         <v>2777</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>3007</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>3444</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>3831</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>4047</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>4628</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>4990</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>5541</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>5821</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="11">
         <v>6276</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>6868</v>
       </c>
-      <c r="R6" s="12">
-        <f t="shared" ref="R6" si="6">+N6*1.4</f>
+      <c r="R6" s="11">
+        <f t="shared" ref="R6:V6" si="6">+N6*1.4</f>
         <v>7757.4</v>
       </c>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
+      <c r="S6" s="11">
+        <f t="shared" si="6"/>
+        <v>8149.4</v>
+      </c>
+      <c r="T6" s="11">
+        <f t="shared" si="6"/>
+        <v>8786.4</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="6"/>
+        <v>9615.1999999999989</v>
+      </c>
+      <c r="V6" s="11">
+        <f t="shared" si="6"/>
+        <v>10860.359999999999</v>
+      </c>
       <c r="AA6" s="3">
         <v>4056</v>
       </c>
@@ -1393,53 +1409,65 @@
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>3620</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
         <v>4435</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>5124</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>5478</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>6674</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>6494</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>6623</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>6754</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>8161</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <v>6811</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>6553</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>6895</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="11">
         <f>+N7*1.03</f>
         <v>8405.83</v>
       </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
+      <c r="S7" s="11">
+        <f>+O7*1.03</f>
+        <v>7015.33</v>
+      </c>
+      <c r="T7" s="11">
+        <f>+P7*1.03</f>
+        <v>6749.59</v>
+      </c>
+      <c r="U7" s="11">
+        <f>+Q7*1.03</f>
+        <v>7101.85</v>
+      </c>
+      <c r="V7" s="11">
+        <f>+R7*1.03</f>
+        <v>8658.0048999999999</v>
+      </c>
       <c r="AA7" s="3">
         <v>10914</v>
       </c>
@@ -1498,53 +1526,65 @@
       <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>5015</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11">
         <v>5223</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>4736</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>5720</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>7411</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>6800</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>7597</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>7999</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>9305</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>8174</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="11">
         <v>8259</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>7872</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="11">
         <f>+N8*1.1</f>
         <v>10235.5</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
+      <c r="S8" s="11">
+        <f>+O8*1.1</f>
+        <v>8991.4000000000015</v>
+      </c>
+      <c r="T8" s="11">
+        <f>+P8*1.1</f>
+        <v>9084.9000000000015</v>
+      </c>
+      <c r="U8" s="11">
+        <f>+Q8*1.1</f>
+        <v>8659.2000000000007</v>
+      </c>
+      <c r="V8" s="11">
+        <f>+R8*1.1</f>
+        <v>11259.050000000001</v>
+      </c>
       <c r="AA8" s="3">
         <v>17616</v>
       </c>
@@ -1603,53 +1643,65 @@
       <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>3025</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
         <v>4038</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>3812</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>5037</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>6885</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>6005</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>7002</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>7205</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>8633</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>6869</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="11">
         <v>7340</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <v>7071</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R9" s="11">
         <f>+N9*1.06</f>
         <v>9150.98</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
+      <c r="S9" s="11">
+        <f>+O9*1.06</f>
+        <v>7281.14</v>
+      </c>
+      <c r="T9" s="11">
+        <f>+P9*1.06</f>
+        <v>7780.4000000000005</v>
+      </c>
+      <c r="U9" s="11">
+        <f>+Q9*1.06</f>
+        <v>7495.26</v>
+      </c>
+      <c r="V9" s="11">
+        <f>+R9*1.06</f>
+        <v>9700.0388000000003</v>
+      </c>
       <c r="AA9" s="3">
         <v>8150</v>
       </c>
@@ -1708,53 +1760,65 @@
       <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>22547</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
         <v>24502</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>21319</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>26338</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>31903</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>31879</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>35845</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>37926</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>43301</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>39618</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P10" s="11">
         <v>40689</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <v>39539</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="11">
         <f>+N10*1.1</f>
         <v>47631.100000000006</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
+      <c r="S10" s="11">
+        <f>+O10*1.1</f>
+        <v>43579.8</v>
+      </c>
+      <c r="T10" s="11">
+        <f>+P10*1.1</f>
+        <v>44757.9</v>
+      </c>
+      <c r="U10" s="11">
+        <f>+Q10*1.1</f>
+        <v>43492.9</v>
+      </c>
+      <c r="V10" s="11">
+        <f>+R10*1.1</f>
+        <v>52394.210000000014</v>
+      </c>
       <c r="AA10" s="3">
         <v>69811</v>
       </c>
@@ -1813,270 +1877,282 @@
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <f t="shared" ref="C11:G11" si="12">SUM(C7:C10)</f>
         <v>34207</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="12"/>
         <v>38198</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f t="shared" ref="H11" si="13">SUM(H7:H10)</f>
         <v>34991</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f>SUM(I7:I10)</f>
         <v>42573</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <f>SUM(J7:J10)</f>
         <v>52873</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>51178</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <f t="shared" ref="L11" si="14">SUM(L7:L10)</f>
         <v>57067</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <f t="shared" ref="M11:R11" si="15">SUM(M7:M10)</f>
         <v>59884</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <f t="shared" si="15"/>
         <v>69400</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <f t="shared" si="15"/>
         <v>61472</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="11">
         <f t="shared" si="15"/>
         <v>62841</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <f t="shared" si="15"/>
         <v>61377</v>
       </c>
-      <c r="R11" s="12">
-        <f t="shared" si="15"/>
+      <c r="R11" s="11">
+        <f>SUM(R7:R10)</f>
         <v>75423.41</v>
       </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="AA11" s="12">
+      <c r="S11" s="11">
+        <f>SUM(S7:S10)</f>
+        <v>66867.670000000013</v>
+      </c>
+      <c r="T11" s="11">
+        <f>SUM(T7:T10)</f>
+        <v>68372.790000000008</v>
+      </c>
+      <c r="U11" s="11">
+        <f>SUM(U7:U10)</f>
+        <v>66749.210000000006</v>
+      </c>
+      <c r="V11" s="11">
+        <f>SUM(V7:V10)</f>
+        <v>82011.303700000019</v>
+      </c>
+      <c r="AA11" s="11">
         <f t="shared" ref="AA11:AD11" si="16">SUM(AA7:AA10)</f>
         <v>106491</v>
       </c>
-      <c r="AB11" s="12">
+      <c r="AB11" s="11">
         <f t="shared" si="16"/>
         <v>130524</v>
       </c>
-      <c r="AC11" s="12">
+      <c r="AC11" s="11">
         <f t="shared" si="16"/>
         <v>151825</v>
       </c>
-      <c r="AD11" s="12">
+      <c r="AD11" s="11">
         <f t="shared" si="16"/>
         <v>168635</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AE11" s="11">
         <f>SUM(AE7:AE10)</f>
         <v>237529</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="11">
         <f>SUM(AF7:AF10)</f>
         <v>261113.41</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AG11" s="11">
         <f>SUM(AG7:AG10)</f>
         <v>281278.82890000002</v>
       </c>
-      <c r="AH11" s="12">
+      <c r="AH11" s="11">
         <f t="shared" ref="AH11:AN11" si="17">SUM(AH7:AH10)</f>
         <v>303251.98104700004</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AI11" s="11">
         <f t="shared" si="17"/>
         <v>327205.85395741009</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AJ11" s="11">
         <f t="shared" si="17"/>
         <v>353330.42424758244</v>
       </c>
-      <c r="AK11" s="12">
+      <c r="AK11" s="11">
         <f t="shared" si="17"/>
         <v>381834.34345038247</v>
       </c>
-      <c r="AL11" s="12">
+      <c r="AL11" s="11">
         <f t="shared" si="17"/>
         <v>412946.79183042009</v>
       </c>
-      <c r="AM11" s="12">
+      <c r="AM11" s="11">
         <f t="shared" si="17"/>
         <v>446919.51697080862</v>
       </c>
-      <c r="AN11" s="12">
+      <c r="AN11" s="11">
         <f t="shared" si="17"/>
         <v>484029.07558031852</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f t="shared" ref="C12:G12" si="18">C11+C6+C5+C4</f>
         <v>36339</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f t="shared" si="18"/>
         <v>41159</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <f t="shared" ref="H12" si="19">H11+H6+H5+H4</f>
         <v>38297</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <f>I11+I6+I5+I4</f>
         <v>46173</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <f>J11+J6+J5+J4</f>
         <v>56898</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>55314</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <f t="shared" ref="L12" si="20">L11+L6+L5+L4</f>
         <v>61880</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <f>M11+M6+M5+M4</f>
         <v>65118</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <f>N11+N6+N5+N4</f>
         <v>75325</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <f>O11+O6+O5+O4</f>
         <v>68011</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="10">
         <f>P11+P6+P5+P4</f>
         <v>69685</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <f t="shared" ref="Q12:V12" si="21">Q11+Q6+Q5+Q4</f>
         <v>69092</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="10">
+        <f>R11+R6+R5+R4</f>
+        <v>83361.81</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="21"/>
-        <v>83361.81</v>
-      </c>
-      <c r="S12" s="11">
+        <v>75457.070000000007</v>
+      </c>
+      <c r="T12" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="11">
+        <v>77352.19</v>
+      </c>
+      <c r="U12" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="11">
+        <v>76573.41</v>
+      </c>
+      <c r="V12" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11">
+        <v>93052.663700000019</v>
+      </c>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10">
         <f t="shared" ref="AA12:AD12" si="22">AA11+AA6+AA5+AA4</f>
         <v>110855</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AB12" s="10">
         <f t="shared" si="22"/>
         <v>136819</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AC12" s="10">
         <f t="shared" si="22"/>
         <v>161857</v>
       </c>
-      <c r="AD12" s="11">
+      <c r="AD12" s="10">
         <f t="shared" si="22"/>
         <v>182527</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AE12" s="10">
         <f>AE11+AE6+AE5+AE4</f>
         <v>257637</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AF12" s="10">
         <f>AF11+AF6+AF5+AF4</f>
         <v>290149.81</v>
       </c>
-      <c r="AG12" s="11">
+      <c r="AG12" s="10">
         <f t="shared" ref="AG12" si="23">AG11+AG6+AG5+AG4</f>
         <v>319723.41889999999</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AH12" s="10">
         <f t="shared" ref="AH12" si="24">AH11+AH6+AH5+AH4</f>
         <v>356671.44734700001</v>
       </c>
-      <c r="AI12" s="11">
+      <c r="AI12" s="10">
         <f t="shared" ref="AI12" si="25">AI11+AI6+AI5+AI4</f>
         <v>396348.5270804101</v>
       </c>
-      <c r="AJ12" s="11">
+      <c r="AJ12" s="10">
         <f t="shared" ref="AJ12" si="26">AJ11+AJ6+AJ5+AJ4</f>
         <v>442910.2399098124</v>
       </c>
-      <c r="AK12" s="11">
+      <c r="AK12" s="10">
         <f t="shared" ref="AK12" si="27">AK11+AK6+AK5+AK4</f>
         <v>497979.38781963475</v>
       </c>
-      <c r="AL12" s="11">
+      <c r="AL12" s="10">
         <f t="shared" ref="AL12" si="28">AL11+AL6+AL5+AL4</f>
         <v>552116.56025008496</v>
       </c>
-      <c r="AM12" s="11">
+      <c r="AM12" s="10">
         <f t="shared" ref="AM12" si="29">AM11+AM6+AM5+AM4</f>
         <v>613716.91140273411</v>
       </c>
-      <c r="AN12" s="11">
+      <c r="AN12" s="10">
         <f t="shared" ref="AN12" si="30">AN11+AN6+AN5+AN4</f>
         <v>683977.55795023998</v>
       </c>
@@ -2085,53 +2161,53 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>16012</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
         <v>18982</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>18553</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>21117</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>26080</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>24103</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>26227</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>27621</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>32988</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>29599</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="11">
         <v>30104</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="11">
         <v>31158</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <f>+R12-R15</f>
         <v>35428.769250000005</v>
       </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
       <c r="AD13" s="3">
         <v>84732</v>
       </c>
@@ -2179,100 +2255,100 @@
       <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>6860</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
         <v>7452</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11">
         <v>10929</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12">
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11">
         <v>12214</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <v>11826</v>
       </c>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
     </row>
     <row r="15" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <f>C12-C13</f>
         <v>20327</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
         <f>G12-G13</f>
         <v>22177</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <f t="shared" ref="H15" si="32">H12-H13</f>
         <v>19744</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f t="shared" ref="I15" si="33">I12-I13</f>
         <v>25056</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <f t="shared" ref="J15:N15" si="34">J12-J13</f>
         <v>30818</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <f t="shared" si="34"/>
         <v>31211</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <f t="shared" si="34"/>
         <v>35653</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <f t="shared" si="34"/>
         <v>37497</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <f t="shared" si="34"/>
         <v>42337</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <f>O12-O13</f>
         <v>38412</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <f t="shared" ref="P15:Q15" si="35">P12-P13</f>
         <v>39581</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <f t="shared" si="35"/>
         <v>37934</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="11">
         <f>+R12*0.575</f>
         <v>47933.040749999993</v>
       </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
       <c r="AD15" s="3">
         <f>AD12-AD13</f>
         <v>97795</v>
@@ -2322,53 +2398,53 @@
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>6029</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
         <v>6820</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>6875</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>6856</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>7022</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>7485</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>7675</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>7694</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>8708</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>9119</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="11">
         <v>9841</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <v>10273</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="11">
         <f>+N16*1.1</f>
         <v>9578.8000000000011</v>
       </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
       <c r="AD16" s="3">
         <v>27573</v>
       </c>
@@ -2416,53 +2492,53 @@
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>3905</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
         <v>4500</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>3901</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>4231</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>5314</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>4516</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>5276</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <v>5516</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>7604</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <v>5825</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="11">
         <v>6630</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <v>6929</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="11">
         <f>+N17*1.05</f>
         <v>7984.2000000000007</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
       <c r="AD17" s="3">
         <v>17946</v>
       </c>
@@ -2510,53 +2586,53 @@
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>2088</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
         <v>2880</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>2585</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>2756</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>2831</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="11">
         <v>2773</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>3341</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>3256</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="11">
         <v>4140</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="11">
         <v>3374</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P18" s="11">
         <v>3657</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="11">
         <v>3597</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="11">
         <f>+N18*1.05</f>
         <v>4347</v>
       </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
       <c r="AD18" s="3">
         <v>11052</v>
       </c>
@@ -2604,65 +2680,65 @@
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" ref="C19" si="42">SUM(C16:C18)</f>
         <v>12022</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
         <f t="shared" ref="G19" si="43">SUM(G16:G18)</f>
         <v>14200</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f t="shared" ref="H19" si="44">SUM(H16:H18)</f>
         <v>13361</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <f t="shared" ref="I19" si="45">SUM(I16:I18)</f>
         <v>13843</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <f t="shared" ref="J19" si="46">SUM(J16:J18)</f>
         <v>15167</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="11">
         <f>SUM(K16:K18)</f>
         <v>14774</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <f t="shared" ref="L19:O19" si="47">SUM(L16:L18)</f>
         <v>16292</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <f t="shared" si="47"/>
         <v>16466</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="11">
         <f t="shared" si="47"/>
         <v>20452</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="11">
         <f t="shared" si="47"/>
         <v>18318</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="11">
         <f t="shared" ref="P19:R19" si="48">SUM(P16:P18)</f>
         <v>20128</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="11">
         <f t="shared" si="48"/>
         <v>20799</v>
       </c>
-      <c r="R19" s="12">
+      <c r="R19" s="11">
         <f t="shared" si="48"/>
         <v>21910</v>
       </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
       <c r="AD19" s="3">
         <f>SUM(AD16:AD18)</f>
         <v>56571</v>
@@ -2712,65 +2788,65 @@
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <f t="shared" ref="C20" si="51">C15-C19</f>
         <v>8305</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
         <f t="shared" ref="G20" si="52">G15-G19</f>
         <v>7977</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <f t="shared" ref="H20" si="53">H15-H19</f>
         <v>6383</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <f t="shared" ref="I20" si="54">I15-I19</f>
         <v>11213</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <f t="shared" ref="J20" si="55">J15-J19</f>
         <v>15651</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="11">
         <f t="shared" ref="K20:N20" si="56">K15-K19</f>
         <v>16437</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <f t="shared" si="56"/>
         <v>19361</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <f t="shared" si="56"/>
         <v>21031</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <f t="shared" si="56"/>
         <v>21885</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="11">
         <f>O15-O19</f>
         <v>20094</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="11">
         <f t="shared" ref="P20:R20" si="57">P15-P19</f>
         <v>19453</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="11">
         <f t="shared" si="57"/>
         <v>17135</v>
       </c>
-      <c r="R20" s="12">
+      <c r="R20" s="11">
         <f t="shared" si="57"/>
         <v>26023.040749999993</v>
       </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
       <c r="AD20" s="3">
         <f>AD15-AD19</f>
         <v>41224</v>
@@ -2820,52 +2896,52 @@
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>1538</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
         <v>-220</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>1894</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>2146</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>3038</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>4846</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>2264</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>2033</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <v>2517</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="11">
         <v>-1160</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="11">
         <v>-439</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <v>-902</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <v>0</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
       <c r="AD21" s="3">
         <v>6858</v>
       </c>
@@ -2913,65 +2989,65 @@
       <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <f t="shared" ref="C22" si="62">C20+C21</f>
         <v>9843</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11">
         <f t="shared" ref="G22" si="63">G20+G21</f>
         <v>7757</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <f t="shared" ref="H22" si="64">H20+H21</f>
         <v>8277</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <f t="shared" ref="I22" si="65">I20+I21</f>
         <v>13359</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <f t="shared" ref="J22" si="66">J20+J21</f>
         <v>18689</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="11">
         <f>K20+K21</f>
         <v>21283</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <f t="shared" ref="L22:O22" si="67">L20+L21</f>
         <v>21625</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="11">
         <f t="shared" si="67"/>
         <v>23064</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <f t="shared" si="67"/>
         <v>24402</v>
       </c>
-      <c r="O22" s="12">
+      <c r="O22" s="11">
         <f t="shared" si="67"/>
         <v>18934</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="11">
         <f t="shared" ref="P22:R22" si="68">P20+P21</f>
         <v>19014</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="11">
         <f t="shared" si="68"/>
         <v>16233</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="11">
         <f t="shared" si="68"/>
         <v>26023.040749999993</v>
       </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
       <c r="AD22" s="3">
         <f>AD20+AD21</f>
         <v>48082</v>
@@ -3021,53 +3097,53 @@
       <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>1489</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11">
         <v>921</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>1318</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>2112</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <v>3462</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="11">
         <v>3353</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <v>3460</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <v>4128</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <v>3760</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="11">
         <v>2498</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="11">
         <v>3012</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="11">
         <v>2323</v>
       </c>
-      <c r="R23" s="12">
+      <c r="R23" s="11">
         <f>+R22*0.16</f>
         <v>4163.6865199999993</v>
       </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
       <c r="AD23" s="3">
         <v>7813</v>
       </c>
@@ -3115,65 +3191,65 @@
       <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <f t="shared" ref="C24" si="72">C22-C23</f>
         <v>8354</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11">
         <f t="shared" ref="G24" si="73">G22-G23</f>
         <v>6836</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <f t="shared" ref="H24" si="74">H22-H23</f>
         <v>6959</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <f t="shared" ref="I24" si="75">I22-I23</f>
         <v>11247</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <f t="shared" ref="J24" si="76">J22-J23</f>
         <v>15227</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="11">
         <f>K22-K23</f>
         <v>17930</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <f t="shared" ref="L24:O24" si="77">L22-L23</f>
         <v>18165</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <f t="shared" si="77"/>
         <v>18936</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="11">
         <f t="shared" si="77"/>
         <v>20642</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="11">
         <f t="shared" si="77"/>
         <v>16436</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="11">
         <f t="shared" ref="P24:R24" si="78">P22-P23</f>
         <v>16002</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="11">
         <f t="shared" si="78"/>
         <v>13910</v>
       </c>
-      <c r="R24" s="12">
+      <c r="R24" s="11">
         <f t="shared" si="78"/>
         <v>21859.354229999994</v>
       </c>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
       <c r="AD24" s="3">
         <f>AD22-AD23</f>
         <v>40269</v>
@@ -3447,110 +3523,110 @@
         <v>129911.72710610001</v>
       </c>
     </row>
-    <row r="25" spans="2:97" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="2:97" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <f t="shared" ref="C25" si="82">C24/C26</f>
         <v>11.919318455824756</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
         <f t="shared" ref="G25" si="83">G24/G26</f>
         <v>9.8748026411774639</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <f t="shared" ref="H25" si="84">H24/H26</f>
         <v>10.129194904399265</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="14">
         <f t="shared" ref="I25" si="85">I24/I26</f>
         <v>16.398605528022852</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="14">
         <f t="shared" ref="J25" si="86">J24/J26</f>
         <v>22.295301836540162</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="14">
         <f t="shared" ref="K25:N25" si="87">K24/K26</f>
         <v>26.287585896482916</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <f t="shared" si="87"/>
         <v>1.3364479105356091</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <f t="shared" si="87"/>
         <v>27.990344690984287</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="14">
         <f t="shared" si="87"/>
         <v>30.69474329100823</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="14">
         <f>O24/O26</f>
         <v>24.621339792764896</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="14">
         <f t="shared" ref="P25:R25" si="88">P24/P26</f>
         <v>1.2087015635622025</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="14">
         <f t="shared" si="88"/>
         <v>1.0620752844162786</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="14">
         <f t="shared" si="88"/>
         <v>1.6690352164617845</v>
       </c>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="AD25" s="18">
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="AD25" s="17">
         <f>AD24/AD26</f>
         <v>58.613331625494155</v>
       </c>
-      <c r="AE25" s="18">
+      <c r="AE25" s="17">
         <f>AE24/AE26</f>
         <v>112.19701508394893</v>
       </c>
-      <c r="AF25" s="18">
+      <c r="AF25" s="17">
         <f>AF24/AF26</f>
         <v>5.1891071612608712</v>
       </c>
-      <c r="AG25" s="18">
+      <c r="AG25" s="17">
         <f>AG24/AG26</f>
         <v>6.1491230212166945</v>
       </c>
-      <c r="AH25" s="18">
+      <c r="AH25" s="17">
         <f t="shared" ref="AH25:AN25" si="89">AH24/AH26</f>
         <v>7.2475857264830363</v>
       </c>
-      <c r="AI25" s="18">
+      <c r="AI25" s="17">
         <f t="shared" si="89"/>
         <v>8.4388084519388045</v>
       </c>
-      <c r="AJ25" s="18">
+      <c r="AJ25" s="17">
         <f t="shared" si="89"/>
         <v>9.8706558769377253</v>
       </c>
-      <c r="AK25" s="18">
+      <c r="AK25" s="17">
         <f t="shared" si="89"/>
         <v>11.602108703350829</v>
       </c>
-      <c r="AL25" s="18">
+      <c r="AL25" s="17">
         <f t="shared" si="89"/>
         <v>13.29923462522577</v>
       </c>
-      <c r="AM25" s="18">
+      <c r="AM25" s="17">
         <f t="shared" si="89"/>
         <v>15.259506633211888</v>
       </c>
-      <c r="AN25" s="18">
+      <c r="AN25" s="17">
         <f t="shared" si="89"/>
         <v>17.526843161854998</v>
       </c>
@@ -3559,53 +3635,53 @@
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>700.87900000000002</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11">
         <v>692.26700000000005</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>687.024</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <v>685.851</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <v>682.96900000000005</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="11">
         <v>682.07100000000003</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="11">
         <v>13592</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="11">
         <v>676.51900000000001</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="11">
         <v>672.49300000000005</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="11">
         <v>667.55100000000004</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="11">
         <v>13239</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="11">
         <v>13097</v>
       </c>
-      <c r="R26" s="12">
+      <c r="R26" s="11">
         <f>+Q26</f>
         <v>13097</v>
       </c>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
       <c r="AD26" s="3">
         <v>687.02800000000002</v>
       </c>
@@ -3649,409 +3725,421 @@
         <v>13144.333333333334</v>
       </c>
     </row>
-    <row r="28" spans="2:97" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="2:97" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16">
         <f t="shared" ref="K28:L28" si="91">K12/G12-1</f>
         <v>0.34391020189994892</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="16">
         <f t="shared" si="91"/>
         <v>0.61579235971486024</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="16">
         <f t="shared" ref="M28" si="92">M12/I12-1</f>
         <v>0.41030472353973102</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="16">
         <f t="shared" ref="N28" si="93">N12/J12-1</f>
         <v>0.32386024113325607</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="16">
         <f>O12/K12-1</f>
         <v>0.22954405756228069</v>
       </c>
-      <c r="P28" s="17">
-        <f t="shared" ref="P28:R28" si="94">P12/L12-1</f>
+      <c r="P28" s="16">
+        <f t="shared" ref="P28:V28" si="94">P12/L12-1</f>
         <v>0.12613122171945701</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="16">
         <f t="shared" si="94"/>
         <v>6.1027672840074931E-2</v>
       </c>
-      <c r="R28" s="17">
+      <c r="R28" s="16">
         <f t="shared" si="94"/>
         <v>0.10669512114171908</v>
       </c>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="AB28" s="19">
+      <c r="S28" s="16">
+        <f t="shared" si="94"/>
+        <v>0.10948331887488805</v>
+      </c>
+      <c r="T28" s="16">
+        <f t="shared" si="94"/>
+        <v>0.11002640453469192</v>
+      </c>
+      <c r="U28" s="16">
+        <f t="shared" si="94"/>
+        <v>0.10828185607595664</v>
+      </c>
+      <c r="V28" s="16">
+        <f>V12/R12-1</f>
+        <v>0.11625051927255448</v>
+      </c>
+      <c r="AB28" s="18">
         <f t="shared" ref="AB28:AD28" si="95">AB12/AA12-1</f>
         <v>0.23421586757475987</v>
       </c>
-      <c r="AC28" s="19">
+      <c r="AC28" s="18">
         <f t="shared" si="95"/>
         <v>0.18300089899794614</v>
       </c>
-      <c r="AD28" s="19">
+      <c r="AD28" s="18">
         <f t="shared" si="95"/>
         <v>0.12770532012826141</v>
       </c>
-      <c r="AE28" s="19">
+      <c r="AE28" s="18">
         <f>AE12/AD12-1</f>
         <v>0.41150076427049154</v>
       </c>
-      <c r="AF28" s="19">
+      <c r="AF28" s="18">
         <f>AF12/AE12-1</f>
         <v>0.12619619852738539</v>
       </c>
-      <c r="AG28" s="19">
+      <c r="AG28" s="18">
         <f t="shared" ref="AG28:AN28" si="96">AG12/AF12-1</f>
         <v>0.10192530851562509</v>
       </c>
-      <c r="AH28" s="19">
+      <c r="AH28" s="18">
         <f t="shared" si="96"/>
         <v>0.11556247138266795</v>
       </c>
-      <c r="AI28" s="19">
+      <c r="AI28" s="18">
         <f t="shared" si="96"/>
         <v>0.11124265771352571</v>
       </c>
-      <c r="AJ28" s="19">
+      <c r="AJ28" s="18">
         <f t="shared" si="96"/>
         <v>0.11747668944902112</v>
       </c>
-      <c r="AK28" s="19">
+      <c r="AK28" s="18">
         <f t="shared" si="96"/>
         <v>0.12433478151472821</v>
       </c>
-      <c r="AL28" s="19">
+      <c r="AL28" s="18">
         <f t="shared" si="96"/>
         <v>0.10871368123786351</v>
       </c>
-      <c r="AM28" s="19">
+      <c r="AM28" s="18">
         <f t="shared" si="96"/>
         <v>0.11157127966737113</v>
       </c>
-      <c r="AN28" s="19">
+      <c r="AN28" s="18">
         <f t="shared" si="96"/>
         <v>0.11448380392014212</v>
       </c>
-      <c r="AP28" s="19" t="s">
+      <c r="AP28" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AQ28" s="19">
+      <c r="AQ28" s="18">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="29" spans="2:97" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="2:97" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16">
         <v>0.16</v>
       </c>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="AP29" s="19" t="s">
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="AP29" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AQ29" s="19">
+      <c r="AQ29" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="2:97" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="s">
+    <row r="30" spans="2:97" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15">
         <f t="shared" ref="K30" si="97">+K10/G10-1</f>
         <v>0.30107746306423966</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="15">
         <f t="shared" ref="L30:O30" si="98">+L10/H10-1</f>
         <v>0.68136404146535945</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="15">
         <f t="shared" si="98"/>
         <v>0.43997266307236682</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N30" s="15">
         <f t="shared" si="98"/>
         <v>0.35727047613077145</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="15">
         <f t="shared" si="98"/>
         <v>0.24276169265033398</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="15">
         <f>+P10/L10-1</f>
         <v>0.13513739712651684</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="15">
         <f>+Q10/M10-1</f>
         <v>4.2530190370722032E-2</v>
       </c>
-      <c r="R30" s="21">
+      <c r="R30" s="15">
         <f>+R10/N10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="AB30" s="22">
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="AB30" s="5">
         <f t="shared" ref="AB30:AF30" si="99">+AB10/AA10-1</f>
         <v>0.22181318130380601</v>
       </c>
-      <c r="AC30" s="22">
+      <c r="AC30" s="5">
         <f t="shared" si="99"/>
         <v>0.15028840742824978</v>
       </c>
-      <c r="AD30" s="22">
+      <c r="AD30" s="5">
         <f t="shared" si="99"/>
         <v>6.0612546501554343E-2</v>
       </c>
-      <c r="AE30" s="22">
+      <c r="AE30" s="5">
         <f t="shared" si="99"/>
         <v>0.43136783840402826</v>
       </c>
-      <c r="AF30" s="22">
+      <c r="AF30" s="5">
         <f t="shared" si="99"/>
         <v>0.12437714416150292</v>
       </c>
-      <c r="AG30" s="22">
+      <c r="AG30" s="5">
         <f>+AG10/AF10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AH30" s="21">
+      <c r="AH30" s="15">
         <f t="shared" ref="AH30:AN30" si="100">+AH10/AG10-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AI30" s="21">
+      <c r="AI30" s="15">
         <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AJ30" s="21">
+      <c r="AJ30" s="15">
         <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AK30" s="21">
+      <c r="AK30" s="15">
         <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL30" s="21">
+      <c r="AL30" s="15">
         <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM30" s="21">
+      <c r="AM30" s="15">
         <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AN30" s="21">
+      <c r="AN30" s="15">
         <f t="shared" si="100"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AP30" s="22" t="s">
+      <c r="AP30" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AQ30" s="22">
+      <c r="AQ30" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:97" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="22" t="s">
+    <row r="31" spans="2:97" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15">
         <f t="shared" ref="K31" si="101">+K9/G9-1</f>
         <v>0.48712233779098568</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="15">
         <f t="shared" ref="L31:R31" si="102">+L9/H9-1</f>
         <v>0.83683105981112282</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="15">
         <f t="shared" si="102"/>
         <v>0.4304149295215407</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N31" s="15">
         <f t="shared" si="102"/>
         <v>0.25388525780682647</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="15">
         <f t="shared" si="102"/>
         <v>0.143880099916736</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="15">
         <f t="shared" si="102"/>
         <v>4.8271922307911996E-2</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="15">
         <f t="shared" si="102"/>
         <v>-1.8598195697432374E-2</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31" s="15">
         <f t="shared" si="102"/>
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="AB31" s="22">
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="AB31" s="5">
         <f t="shared" ref="AB31:AE31" si="103">+AB9/AA9-1</f>
         <v>0.36871165644171788</v>
       </c>
-      <c r="AC31" s="22">
+      <c r="AC31" s="5">
         <f t="shared" si="103"/>
         <v>0.35804571940833707</v>
       </c>
-      <c r="AD31" s="22">
+      <c r="AD31" s="5">
         <f t="shared" si="103"/>
         <v>0.30516865799722748</v>
       </c>
-      <c r="AE31" s="22">
+      <c r="AE31" s="5">
         <f t="shared" si="103"/>
         <v>0.45888124620675708</v>
       </c>
-      <c r="AF31" s="22">
+      <c r="AF31" s="5">
         <f>+AF9/AE9-1</f>
         <v>5.4982839313572507E-2</v>
       </c>
-      <c r="AG31" s="22">
+      <c r="AG31" s="5">
         <f>+AG9/AF9-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AH31" s="21">
+      <c r="AH31" s="15">
         <f t="shared" ref="AH31:AN31" si="104">+AH9/AG9-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AI31" s="21">
+      <c r="AI31" s="15">
         <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AJ31" s="21">
+      <c r="AJ31" s="15">
         <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AK31" s="21">
+      <c r="AK31" s="15">
         <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AL31" s="21">
+      <c r="AL31" s="15">
         <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AM31" s="21">
+      <c r="AM31" s="15">
         <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AN31" s="21">
+      <c r="AN31" s="15">
         <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AP31" s="22" t="s">
+      <c r="AP31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AQ31" s="20">
+      <c r="AQ31" s="3">
         <f>NPV(AQ29,AG24:CS24)+Main!L5-Main!L6</f>
-        <v>2295836.3890811075</v>
+        <v>2286933.3890811075</v>
       </c>
     </row>
     <row r="32" spans="2:97" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15">
         <f t="shared" ref="K32" si="105">K11/G11-1</f>
         <v>0.33980836693020566</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="15">
         <f t="shared" ref="L32" si="106">L11/H11-1</f>
         <v>0.63090508988025484</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="15">
         <f t="shared" ref="M32" si="107">M11/I11-1</f>
         <v>0.40661921875367013</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N32" s="15">
         <f t="shared" ref="N32" si="108">N11/J11-1</f>
         <v>0.31257919921320898</v>
       </c>
-      <c r="O32" s="16">
+      <c r="O32" s="15">
         <f>O11/K11-1</f>
         <v>0.20114111532299028</v>
       </c>
-      <c r="P32" s="16">
+      <c r="P32" s="15">
         <f t="shared" ref="P32:R32" si="109">P11/L11-1</f>
         <v>0.10117931554138115</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q32" s="15">
         <f t="shared" si="109"/>
         <v>2.4931534299645897E-2</v>
       </c>
-      <c r="R32" s="16">
+      <c r="R32" s="15">
         <f t="shared" si="109"/>
         <v>8.6792651296830003E-2</v>
       </c>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
       <c r="AB32" s="5">
         <f t="shared" ref="AB32:AF32" si="110">+AB11/AA11-1</f>
         <v>0.22568104346846218</v>
@@ -4076,90 +4164,90 @@
         <f>+AG11/AF11-1</f>
         <v>7.7228583932169581E-2</v>
       </c>
-      <c r="AH32" s="16">
+      <c r="AH32" s="15">
         <f t="shared" ref="AH32:AN32" si="111">+AH11/AG11-1</f>
         <v>7.8118755801603212E-2</v>
       </c>
-      <c r="AI32" s="16">
+      <c r="AI32" s="15">
         <f t="shared" si="111"/>
         <v>7.8989996463362022E-2</v>
       </c>
-      <c r="AJ32" s="16">
+      <c r="AJ32" s="15">
         <f t="shared" si="111"/>
         <v>7.9841390287512359E-2</v>
       </c>
-      <c r="AK32" s="16">
+      <c r="AK32" s="15">
         <f t="shared" si="111"/>
         <v>8.067213363666359E-2</v>
       </c>
-      <c r="AL32" s="16">
+      <c r="AL32" s="15">
         <f t="shared" si="111"/>
         <v>8.1481534895198715E-2</v>
       </c>
-      <c r="AM32" s="16">
+      <c r="AM32" s="15">
         <f t="shared" si="111"/>
         <v>8.2269013375310784E-2</v>
       </c>
-      <c r="AN32" s="16">
+      <c r="AN32" s="15">
         <f t="shared" si="111"/>
         <v>8.3034097192792311E-2</v>
       </c>
-      <c r="AP32" s="22" t="s">
+      <c r="AP32" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AQ32" s="1">
         <f>+AQ31/Main!L3</f>
-        <v>173.41463774311561</v>
+        <v>174.61505604956153</v>
       </c>
     </row>
     <row r="33" spans="2:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15">
         <f t="shared" ref="K33" si="112">K6/G6-1</f>
         <v>0.4573280518545193</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="15">
         <f t="shared" ref="L33" si="113">L6/H6-1</f>
         <v>0.53907549052211512</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="15">
         <f t="shared" ref="M33" si="114">M6/I6-1</f>
         <v>0.44889663182346107</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="15">
         <f t="shared" ref="N33" si="115">N6/J6-1</f>
         <v>0.44635865309318712</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="15">
         <f>O6/K6-1</f>
         <v>0.4383493946132937</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33" s="15">
         <f t="shared" ref="P33:R33" si="116">P6/L6-1</f>
         <v>0.35609334485738975</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q33" s="15">
         <f t="shared" si="116"/>
         <v>0.37635270541082155</v>
       </c>
-      <c r="R33" s="16">
+      <c r="R33" s="15">
         <f t="shared" si="116"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
       <c r="AB33" s="5">
         <f t="shared" ref="AB33:AF33" si="117">+AB6/AA6-1</f>
         <v>0.43934911242603558</v>
@@ -4184,31 +4272,31 @@
         <f>+AG6/AF6-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AH33" s="16">
+      <c r="AH33" s="15">
         <f t="shared" ref="AH33:AN33" si="118">+AH6/AG6-1</f>
         <v>0.39999999999999991</v>
       </c>
-      <c r="AI33" s="16">
+      <c r="AI33" s="15">
         <f t="shared" si="118"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AJ33" s="16">
+      <c r="AJ33" s="15">
         <f t="shared" si="118"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AK33" s="16">
+      <c r="AK33" s="15">
         <f t="shared" si="118"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AL33" s="16">
+      <c r="AL33" s="15">
         <f t="shared" si="118"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AM33" s="16">
+      <c r="AM33" s="15">
         <f t="shared" si="118"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AN33" s="16">
+      <c r="AN33" s="15">
         <f t="shared" si="118"/>
         <v>0.19999999999999996</v>
       </c>
@@ -4217,62 +4305,62 @@
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15">
         <f t="shared" ref="G34:H34" si="119">G15/G12</f>
         <v>0.53881289632887097</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <f t="shared" si="119"/>
         <v>0.51554952085019712</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <f t="shared" ref="I34" si="120">I15/I12</f>
         <v>0.54265479825872265</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <f t="shared" ref="J34" si="121">J15/J12</f>
         <v>0.54163590987380927</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <f>K15/K12</f>
         <v>0.56425136493473627</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="15">
         <f t="shared" ref="L34:O34" si="122">L15/L12</f>
         <v>0.57616354234001288</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="15">
         <f t="shared" si="122"/>
         <v>0.57583156730857832</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="15">
         <f t="shared" si="122"/>
         <v>0.56205774975107869</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="15">
         <f t="shared" si="122"/>
         <v>0.5647909896928438</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="15">
         <f t="shared" ref="P34:R34" si="123">P15/P12</f>
         <v>0.56799885197675248</v>
       </c>
-      <c r="Q34" s="16">
+      <c r="Q34" s="15">
         <f t="shared" si="123"/>
         <v>0.54903606785156023</v>
       </c>
-      <c r="R34" s="16">
+      <c r="R34" s="15">
         <f t="shared" si="123"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
       <c r="AD34" s="5">
         <f t="shared" ref="AD34" si="124">AD15/AD12</f>
         <v>0.53578374706207854</v>
@@ -4289,31 +4377,31 @@
         <f t="shared" si="125"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AH34" s="16">
+      <c r="AH34" s="15">
         <f t="shared" ref="AH34:AN34" si="126">AH15/AH12</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AI34" s="16">
+      <c r="AI34" s="15">
         <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AJ34" s="16">
+      <c r="AJ34" s="15">
         <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AK34" s="16">
+      <c r="AK34" s="15">
         <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AL34" s="16">
+      <c r="AL34" s="15">
         <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AM34" s="16">
+      <c r="AM34" s="15">
         <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="AN34" s="16">
+      <c r="AN34" s="15">
         <f t="shared" si="126"/>
         <v>0.56999999999999995</v>
       </c>
@@ -4322,103 +4410,103 @@
       <c r="B35" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15">
         <f t="shared" ref="G35" si="127">+G23/G22</f>
         <v>0.11873146835116669</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <f>+H23/H22</f>
         <v>0.15923643832306392</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="15">
         <f t="shared" ref="I35:R35" si="128">+I23/I22</f>
         <v>0.15809566584325174</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <f t="shared" si="128"/>
         <v>0.18524265610787094</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <f t="shared" si="128"/>
         <v>0.15754357938260583</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="15">
         <f t="shared" si="128"/>
         <v>0.16</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="15">
         <f t="shared" si="128"/>
         <v>0.17898022892819979</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="15">
         <f t="shared" si="128"/>
         <v>0.15408573067781328</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="15">
         <f t="shared" si="128"/>
         <v>0.13193197422625963</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="15">
         <f t="shared" si="128"/>
         <v>0.15840959293152415</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="15">
         <f t="shared" si="128"/>
         <v>0.14310355448777182</v>
       </c>
-      <c r="R35" s="16">
+      <c r="R35" s="15">
         <f t="shared" si="128"/>
         <v>0.16</v>
       </c>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="AD35" s="16">
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="AD35" s="15">
         <f t="shared" ref="AD35:AG35" si="129">+AD23/AD22</f>
         <v>0.16249324071378063</v>
       </c>
-      <c r="AE35" s="16">
+      <c r="AE35" s="15">
         <f t="shared" si="129"/>
         <v>0.16202305640663919</v>
       </c>
-      <c r="AF35" s="16">
+      <c r="AF35" s="15">
         <f t="shared" si="129"/>
         <v>0.14957708374562165</v>
       </c>
-      <c r="AG35" s="16">
+      <c r="AG35" s="15">
         <f t="shared" si="129"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="AH35" s="16">
+      <c r="AH35" s="15">
         <f t="shared" ref="AH35:AN35" si="130">+AH23/AH22</f>
         <v>0.18</v>
       </c>
-      <c r="AI35" s="16">
+      <c r="AI35" s="15">
         <f t="shared" si="130"/>
         <v>0.18</v>
       </c>
-      <c r="AJ35" s="16">
+      <c r="AJ35" s="15">
         <f t="shared" si="130"/>
         <v>0.18</v>
       </c>
-      <c r="AK35" s="16">
+      <c r="AK35" s="15">
         <f t="shared" si="130"/>
         <v>0.18</v>
       </c>
-      <c r="AL35" s="16">
+      <c r="AL35" s="15">
         <f t="shared" si="130"/>
         <v>0.18</v>
       </c>
-      <c r="AM35" s="16">
+      <c r="AM35" s="15">
         <f t="shared" si="130"/>
         <v>0.18</v>
       </c>
-      <c r="AN35" s="16">
+      <c r="AN35" s="15">
         <f t="shared" si="130"/>
         <v>0.18</v>
       </c>
@@ -4427,103 +4515,103 @@
       <c r="B36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15">
         <f t="shared" ref="G36:H36" si="131">G10/G12</f>
         <v>0.5953011492018756</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <f t="shared" si="131"/>
         <v>0.55667545760764547</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="15">
         <f t="shared" ref="I36" si="132">I10/I12</f>
         <v>0.57041994239057459</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <f>J10/J12</f>
         <v>0.56070512144539353</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="15">
         <f t="shared" ref="K36:O36" si="133">K10/K12</f>
         <v>0.57632787359438842</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="15">
         <f t="shared" si="133"/>
         <v>0.57926632191338079</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M36" s="15">
         <f t="shared" si="133"/>
         <v>0.58241960748180222</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N36" s="15">
         <f t="shared" si="133"/>
         <v>0.5748556256223033</v>
       </c>
-      <c r="O36" s="16">
+      <c r="O36" s="15">
         <f t="shared" si="133"/>
         <v>0.58252341532987306</v>
       </c>
-      <c r="P36" s="16">
+      <c r="P36" s="15">
         <f t="shared" ref="P36:R36" si="134">P10/P12</f>
         <v>0.58389897395422252</v>
       </c>
-      <c r="Q36" s="16">
+      <c r="Q36" s="15">
         <f t="shared" si="134"/>
         <v>0.57226596422161757</v>
       </c>
-      <c r="R36" s="16">
+      <c r="R36" s="15">
         <f t="shared" si="134"/>
         <v>0.57137794872736092</v>
       </c>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="AD36" s="16">
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="AD36" s="15">
         <f t="shared" ref="AD36:AG36" si="135">AD10/AD12</f>
         <v>0.57011839344316184</v>
       </c>
-      <c r="AE36" s="16">
+      <c r="AE36" s="15">
         <f t="shared" si="135"/>
         <v>0.57814289096674776</v>
       </c>
-      <c r="AF36" s="16">
+      <c r="AF36" s="15">
         <f t="shared" si="135"/>
         <v>0.57720906313879716</v>
       </c>
-      <c r="AG36" s="16">
+      <c r="AG36" s="15">
         <f t="shared" si="135"/>
         <v>0.57620055056905317</v>
       </c>
-      <c r="AH36" s="16">
+      <c r="AH36" s="15">
         <f t="shared" ref="AH36:AN36" si="136">AH10/AH12</f>
         <v>0.56816235924499925</v>
       </c>
-      <c r="AI36" s="16">
+      <c r="AI36" s="15">
         <f t="shared" si="136"/>
         <v>0.5624141503489839</v>
       </c>
-      <c r="AJ36" s="16">
+      <c r="AJ36" s="15">
         <f t="shared" si="136"/>
         <v>0.55361831814936058</v>
       </c>
-      <c r="AK36" s="16">
+      <c r="AK36" s="15">
         <f t="shared" si="136"/>
         <v>0.54163596108257495</v>
       </c>
-      <c r="AL36" s="16">
+      <c r="AL36" s="15">
         <f t="shared" si="136"/>
         <v>0.53737909730276834</v>
       </c>
-      <c r="AM36" s="16">
+      <c r="AM36" s="15">
         <f t="shared" si="136"/>
         <v>0.53178506664002001</v>
       </c>
-      <c r="AN36" s="16">
+      <c r="AN36" s="15">
         <f t="shared" si="136"/>
         <v>0.52487400108143456</v>
       </c>
@@ -4532,26 +4620,34 @@
       <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <f>+G39-G57</f>
         <v>124580</v>
       </c>
-      <c r="P38" s="12">
+      <c r="N38" s="11">
+        <f t="shared" ref="N38:O38" si="137">+N39-N57</f>
+        <v>154381</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" si="137"/>
+        <v>149723</v>
+      </c>
+      <c r="P38" s="11">
         <f>+P39-P57</f>
         <v>140928</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q38" s="11">
         <f>+Q39-Q57</f>
         <v>132025</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="11">
         <f>+Q38+R24</f>
         <v>153884.35423</v>
       </c>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
       <c r="AF38" s="3">
         <f>+R38</f>
         <v>153884.35423</v>
@@ -4561,31 +4657,31 @@
         <v>234710.47692854598</v>
       </c>
       <c r="AH38" s="3">
-        <f t="shared" ref="AH38:AN38" si="137">+AG38+AH24</f>
+        <f t="shared" ref="AH38:AN38" si="138">+AG38+AH24</f>
         <v>329975.15957934782</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>440897.67080778209</v>
       </c>
       <c r="AJ38" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>570640.86187287723</v>
       </c>
       <c r="AK38" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>723142.84603928833</v>
       </c>
       <c r="AL38" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>897952.41903146426</v>
       </c>
       <c r="AM38" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1098528.4607206124</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1328907.1295210884</v>
       </c>
     </row>
@@ -4593,1390 +4689,1596 @@
       <c r="B39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11">
         <f>117229+12367</f>
         <v>129596</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11">
+        <f>20945+118704+29549</f>
+        <v>169198</v>
+      </c>
+      <c r="O39" s="11">
+        <f>20886+113084+30544</f>
+        <v>164514</v>
+      </c>
+      <c r="P39" s="11">
         <f>124997+30665</f>
         <v>155662</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="11">
         <f>21984+94275+30419</f>
         <v>146678</v>
       </c>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
     </row>
     <row r="40" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11">
         <v>21825</v>
       </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12">
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11">
+        <v>39304</v>
+      </c>
+      <c r="O40" s="11">
+        <v>34703</v>
+      </c>
+      <c r="P40" s="11">
         <v>35707</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q40" s="11">
         <v>34697</v>
       </c>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
     </row>
     <row r="41" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11">
         <v>1910</v>
       </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12">
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11">
+        <v>966</v>
+      </c>
+      <c r="O41" s="11">
+        <v>919</v>
+      </c>
+      <c r="P41" s="11">
         <v>1366</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="Q41" s="11">
         <v>1479</v>
       </c>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
     </row>
     <row r="42" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11">
         <v>889</v>
       </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12">
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11">
+        <v>1170</v>
+      </c>
+      <c r="O42" s="11">
+        <v>1369</v>
+      </c>
+      <c r="P42" s="11">
         <v>1980</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="11">
         <v>3156</v>
       </c>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
     </row>
     <row r="43" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11">
         <v>5165</v>
       </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11">
+        <v>7054</v>
+      </c>
+      <c r="O43" s="11">
+        <v>6892</v>
+      </c>
+      <c r="P43" s="11">
         <v>8321</v>
       </c>
-      <c r="Q43" s="12">
+      <c r="Q43" s="11">
         <v>10518</v>
       </c>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
     </row>
     <row r="44" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <v>730</v>
       </c>
-      <c r="P44" s="12">
+      <c r="N44" s="11">
+        <v>1284</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1388</v>
+      </c>
+      <c r="P44" s="11">
         <v>1490</v>
       </c>
-      <c r="Q44" s="12">
+      <c r="Q44" s="11">
         <v>2991</v>
       </c>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
     </row>
     <row r="45" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <v>76747</v>
       </c>
-      <c r="P45" s="12">
+      <c r="N45" s="11">
+        <v>97599</v>
+      </c>
+      <c r="O45" s="2">
+        <v>104218</v>
+      </c>
+      <c r="P45" s="11">
         <v>106223</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="Q45" s="11">
         <v>108363</v>
       </c>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
     </row>
     <row r="46" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <v>11219</v>
       </c>
-      <c r="P46" s="12">
+      <c r="N46" s="11">
+        <v>12959</v>
+      </c>
+      <c r="O46" s="2">
+        <v>12992</v>
+      </c>
+      <c r="P46" s="11">
         <v>13398</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q46" s="11">
         <v>13677</v>
       </c>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
     </row>
     <row r="47" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <f>1840+20734</f>
         <v>22574</v>
       </c>
-      <c r="P47" s="12">
+      <c r="N47" s="11">
+        <f>1417+22956</f>
+        <v>24373</v>
+      </c>
+      <c r="O47" s="2">
+        <f>1313+23010</f>
+        <v>24323</v>
+      </c>
+      <c r="P47" s="11">
         <f>1377+23949</f>
         <v>25326</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="Q47" s="11">
         <f>28834+2192</f>
         <v>31026</v>
       </c>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
     </row>
     <row r="48" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <v>2748</v>
       </c>
-      <c r="P48" s="12">
+      <c r="N48" s="11">
+        <v>5361</v>
+      </c>
+      <c r="O48" s="2">
+        <v>5778</v>
+      </c>
+      <c r="P48" s="11">
         <v>5712</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="Q48" s="11">
         <v>5670</v>
       </c>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <f>SUM(G39:G48)</f>
         <v>273403</v>
       </c>
-      <c r="P49" s="12">
+      <c r="N49" s="11">
+        <f>SUM(N39:N48)</f>
+        <v>359268</v>
+      </c>
+      <c r="O49" s="11">
+        <f>SUM(O39:O48)</f>
+        <v>357096</v>
+      </c>
+      <c r="P49" s="11">
         <f>SUM(P39:P48)</f>
         <v>355185</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q49" s="11">
         <f>SUM(Q39:Q48)</f>
         <v>358255</v>
       </c>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
-      <c r="G50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="11">
         <v>4099</v>
       </c>
-      <c r="P51" s="12">
+      <c r="N51" s="11">
+        <v>6037</v>
+      </c>
+      <c r="O51" s="11">
+        <v>3436</v>
+      </c>
+      <c r="P51" s="11">
         <v>4409</v>
       </c>
-      <c r="Q51" s="12">
+      <c r="Q51" s="11">
         <v>6303</v>
       </c>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="11">
         <v>5656</v>
       </c>
-      <c r="P52" s="12">
+      <c r="N52" s="11">
+        <v>13889</v>
+      </c>
+      <c r="O52" s="11">
+        <v>9803</v>
+      </c>
+      <c r="P52" s="11">
         <v>10852</v>
       </c>
-      <c r="Q52" s="12">
+      <c r="Q52" s="11">
         <v>12366</v>
       </c>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="11">
         <v>22601</v>
       </c>
-      <c r="P53" s="12">
+      <c r="N53" s="11">
+        <v>31236</v>
+      </c>
+      <c r="O53" s="11">
+        <v>33051</v>
+      </c>
+      <c r="P53" s="11">
         <v>32976</v>
       </c>
-      <c r="Q53" s="12">
+      <c r="Q53" s="11">
         <v>35038</v>
       </c>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="11">
         <v>4982</v>
       </c>
-      <c r="P54" s="12">
+      <c r="N54" s="11">
+        <v>8996</v>
+      </c>
+      <c r="O54" s="11">
+        <v>8116</v>
+      </c>
+      <c r="P54" s="11">
         <v>7889</v>
       </c>
-      <c r="Q54" s="12">
+      <c r="Q54" s="11">
         <v>7662</v>
       </c>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f>1938+350</f>
         <v>2288</v>
       </c>
-      <c r="P55" s="12">
+      <c r="N55" s="11">
+        <f>3288+535</f>
+        <v>3823</v>
+      </c>
+      <c r="O55" s="11">
+        <f>3198+499</f>
+        <v>3697</v>
+      </c>
+      <c r="P55" s="11">
         <f>3272+472</f>
         <v>3744</v>
       </c>
-      <c r="Q55" s="12">
+      <c r="Q55" s="11">
         <f>3585+594</f>
         <v>4179</v>
       </c>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="11">
         <f>9207+913+2079</f>
         <v>12199</v>
       </c>
-      <c r="P56" s="12">
+      <c r="N56" s="11">
+        <f>808+9176+5257</f>
+        <v>15241</v>
+      </c>
+      <c r="O56" s="11">
+        <f>4344+9406+2843</f>
+        <v>16593</v>
+      </c>
+      <c r="P56" s="11">
         <f>1956+8163+924</f>
         <v>11043</v>
       </c>
-      <c r="Q56" s="12">
+      <c r="Q56" s="11">
         <f>1025+8572+476</f>
         <v>10073</v>
       </c>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <v>5016</v>
       </c>
-      <c r="P57" s="12">
+      <c r="N57" s="11">
+        <v>14817</v>
+      </c>
+      <c r="O57" s="11">
+        <v>14791</v>
+      </c>
+      <c r="P57" s="11">
         <v>14734</v>
       </c>
-      <c r="Q57" s="12">
+      <c r="Q57" s="11">
         <v>14653</v>
       </c>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="11">
         <v>10476</v>
       </c>
-      <c r="P58" s="12">
+      <c r="N58" s="11">
+        <v>11389</v>
+      </c>
+      <c r="O58" s="11">
+        <v>11363</v>
+      </c>
+      <c r="P58" s="11">
         <v>11697</v>
       </c>
-      <c r="Q58" s="12">
+      <c r="Q58" s="11">
         <v>11984</v>
       </c>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="11">
         <v>2427</v>
       </c>
-      <c r="P59" s="12">
+      <c r="N59" s="11">
+        <v>2205</v>
+      </c>
+      <c r="O59" s="11">
+        <v>2242</v>
+      </c>
+      <c r="P59" s="11">
         <v>2422</v>
       </c>
-      <c r="Q59" s="12">
+      <c r="Q59" s="11">
         <v>2371</v>
       </c>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <v>203659</v>
       </c>
-      <c r="P60" s="12">
+      <c r="N60" s="11">
+        <v>251635</v>
+      </c>
+      <c r="O60" s="11">
+        <v>254004</v>
+      </c>
+      <c r="P60" s="11">
         <v>255419</v>
       </c>
-      <c r="Q60" s="12">
+      <c r="Q60" s="11">
         <v>253626</v>
       </c>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="11">
         <f>SUM(G51:G60)</f>
         <v>273403</v>
       </c>
-      <c r="P61" s="12">
+      <c r="N61" s="11">
+        <f>SUM(N51:N60)</f>
+        <v>359268</v>
+      </c>
+      <c r="O61" s="11">
+        <f>SUM(O51:O60)</f>
+        <v>357096</v>
+      </c>
+      <c r="P61" s="11">
         <f>SUM(P51:P60)</f>
         <v>355185</v>
       </c>
-      <c r="Q61" s="12">
+      <c r="Q61" s="11">
         <f>SUM(Q51:Q60)</f>
         <v>358255</v>
       </c>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
     </row>
     <row r="63" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="11">
         <f>+C24</f>
         <v>8354</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12">
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11">
         <f>+G24</f>
         <v>6836</v>
       </c>
-      <c r="H63" s="12">
-        <f t="shared" ref="H63:Q63" si="138">+H24</f>
+      <c r="H63" s="11">
+        <f t="shared" ref="H63:Q63" si="139">+H24</f>
         <v>6959</v>
       </c>
-      <c r="I63" s="12">
-        <f t="shared" si="138"/>
+      <c r="I63" s="11">
+        <f t="shared" si="139"/>
         <v>11247</v>
       </c>
-      <c r="J63" s="12">
-        <f t="shared" si="138"/>
+      <c r="J63" s="11">
+        <f t="shared" si="139"/>
         <v>15227</v>
       </c>
-      <c r="K63" s="12">
-        <f t="shared" si="138"/>
+      <c r="K63" s="11">
+        <f t="shared" si="139"/>
         <v>17930</v>
       </c>
-      <c r="L63" s="12">
-        <f t="shared" si="138"/>
+      <c r="L63" s="11">
+        <f t="shared" si="139"/>
         <v>18165</v>
       </c>
-      <c r="M63" s="12">
-        <f t="shared" si="138"/>
+      <c r="M63" s="11">
+        <f t="shared" si="139"/>
         <v>18936</v>
       </c>
-      <c r="N63" s="12">
-        <f t="shared" si="138"/>
+      <c r="N63" s="11">
+        <f t="shared" si="139"/>
         <v>20642</v>
       </c>
-      <c r="O63" s="12">
-        <f t="shared" si="138"/>
+      <c r="O63" s="11">
+        <f t="shared" si="139"/>
         <v>16436</v>
       </c>
-      <c r="P63" s="12">
-        <f t="shared" si="138"/>
+      <c r="P63" s="11">
+        <f t="shared" si="139"/>
         <v>16002</v>
       </c>
-      <c r="Q63" s="12">
-        <f t="shared" si="138"/>
+      <c r="Q63" s="11">
+        <f t="shared" si="139"/>
         <v>13910</v>
       </c>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
     </row>
     <row r="64" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <v>6657</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12">
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11">
         <v>6836</v>
       </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12">
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11">
+        <v>17930</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11">
+        <v>16436</v>
+      </c>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11">
         <v>13910</v>
       </c>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
     </row>
     <row r="65" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="11">
         <v>2416</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12">
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11">
         <v>2899</v>
       </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12">
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11">
+        <v>2525</v>
+      </c>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11">
+        <v>3591</v>
+      </c>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11">
         <v>3933</v>
       </c>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
     </row>
     <row r="66" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>197</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12">
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11">
         <v>209</v>
       </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12">
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11">
+        <v>228</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11">
+        <v>191</v>
+      </c>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11">
         <v>113</v>
       </c>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
     </row>
     <row r="67" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>2769</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12">
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11">
         <v>3191</v>
       </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12">
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11">
+        <v>3745</v>
+      </c>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11">
+        <v>4504</v>
+      </c>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11">
         <v>4976</v>
       </c>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
     </row>
     <row r="68" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>-73</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12">
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11">
         <v>175</v>
       </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12">
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11">
+        <v>1100</v>
+      </c>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11">
+        <v>-2090</v>
+      </c>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11">
         <v>-1920</v>
       </c>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
     </row>
     <row r="69" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="11">
         <v>-1081</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12">
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11">
         <v>802</v>
       </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12">
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11">
+        <v>-4751</v>
+      </c>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11">
+        <v>1437</v>
+      </c>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11">
         <v>1378</v>
       </c>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
     </row>
     <row r="70" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="11">
         <v>22</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12">
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11">
         <v>297</v>
       </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12">
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11">
+        <v>-255</v>
+      </c>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11">
+        <v>140</v>
+      </c>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11">
         <v>167</v>
       </c>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
     </row>
     <row r="71" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="11">
         <f>1172+1068-265-425-229-147-81</f>
         <v>1093</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12">
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11">
         <f>2602-245-115-835-3531-871+37</f>
         <v>-2958</v>
       </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12">
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11">
+        <f>2794+785+7-982-3530-444+137</f>
+        <v>-1233</v>
+      </c>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11">
+        <f>4364+3820-776-2373-3216-828-94</f>
+        <v>897</v>
+      </c>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11">
         <f>-97-609-2647+1907+2210-80+112</f>
         <v>796</v>
       </c>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
     </row>
     <row r="72" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="11">
         <f>SUM(C64:C71)</f>
         <v>12000</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12">
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11">
         <f>SUM(G64:G71)</f>
         <v>11451</v>
       </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12">
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11">
         <v>22677</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72" s="11">
+        <f>SUM(K64:K71)</f>
         <v>19289</v>
       </c>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12">
+      <c r="L72" s="11"/>
+      <c r="M72" s="11">
         <v>25539</v>
       </c>
-      <c r="N72" s="12">
-        <v>24934</v>
-      </c>
-      <c r="O72" s="12">
+      <c r="N72" s="11">
+        <f>SUM(N64:N71)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="11">
+        <f>SUM(O64:O71)</f>
         <v>25106</v>
       </c>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12">
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11">
         <f>SUM(Q64:Q71)</f>
         <v>23353</v>
       </c>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
     </row>
     <row r="73" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
     </row>
     <row r="74" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="11">
         <v>-4638</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12">
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11">
         <v>-6005</v>
       </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12">
-        <v>5479</v>
-      </c>
-      <c r="K74" s="12">
-        <v>5942</v>
-      </c>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12">
-        <v>6819</v>
-      </c>
-      <c r="N74" s="12">
-        <v>6383</v>
-      </c>
-      <c r="O74" s="12">
-        <v>9786</v>
-      </c>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12">
-        <v>7276</v>
-      </c>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11">
+        <v>-5479</v>
+      </c>
+      <c r="K74" s="11">
+        <v>-5942</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11">
+        <v>-6819</v>
+      </c>
+      <c r="N74" s="11">
+        <v>-6383</v>
+      </c>
+      <c r="O74" s="11">
+        <v>-9786</v>
+      </c>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11">
+        <v>-7276</v>
+      </c>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
     </row>
     <row r="75" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="11">
         <f>-20883+21006-907+99</f>
         <v>-685</v>
       </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12">
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11">
         <f>-37563+41811-572+260</f>
         <v>3936</v>
       </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11">
+        <f>-28462+29779-776+12</f>
+        <v>553</v>
+      </c>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
     </row>
     <row r="76" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="11">
         <v>-99</v>
       </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12">
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11">
         <v>-190</v>
       </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="12"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11">
+        <v>-173</v>
+      </c>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
     </row>
     <row r="77" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="11">
         <v>34</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12">
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11">
         <v>412</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11">
+        <v>355</v>
+      </c>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
     </row>
     <row r="78" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="11">
         <f>SUM(C74:C77)</f>
         <v>-5388</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12">
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11">
         <f>SUM(G74:G77)</f>
         <v>-1847</v>
       </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11">
+        <f>SUM(O74:O77)</f>
+        <v>-9051</v>
+      </c>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
     </row>
     <row r="79" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12"/>
-      <c r="U79" s="12"/>
-      <c r="V79" s="12"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
     </row>
     <row r="80" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="11">
         <v>-1175</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12">
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11">
         <v>-1241</v>
       </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="12"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11">
+        <v>-2916</v>
+      </c>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
     </row>
     <row r="81" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="11">
         <v>-3025</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11">
         <v>-8496</v>
       </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
-      <c r="T81" s="12"/>
-      <c r="U81" s="12"/>
-      <c r="V81" s="12"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11">
+        <v>-13300</v>
+      </c>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
     </row>
     <row r="82" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <f>315-345</f>
         <v>-30</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11">
         <f>1898-1947</f>
         <v>-49</v>
       </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="12"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11">
+        <f>16422-16420</f>
+        <v>2</v>
+      </c>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
     </row>
     <row r="83" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="11">
         <v>47</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12">
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11">
         <v>1600</v>
       </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
-      <c r="T83" s="12"/>
-      <c r="U83" s="12"/>
-      <c r="V83" s="12"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11">
+        <v>0</v>
+      </c>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
     </row>
     <row r="84" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="11">
         <f>SUM(C80:C83)</f>
         <v>-4183</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11">
         <f>SUM(G80:G83)</f>
         <v>-8186</v>
       </c>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="12"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11">
+        <f>SUM(O80:O83)</f>
+        <v>-16214</v>
+      </c>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
     </row>
     <row r="85" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="11">
         <v>18</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12">
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11">
         <v>-272</v>
       </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11">
+        <v>100</v>
+      </c>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
     </row>
     <row r="86" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="11">
         <f>+C85+C84+C78+C72</f>
         <v>2447</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12">
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11">
         <f>+G85+G84+G78+G72</f>
         <v>1146</v>
       </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="12"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11">
+        <f>+O85+O84+O78+O72</f>
+        <v>-59</v>
+      </c>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
     </row>
     <row r="87" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12"/>
-      <c r="U87" s="12"/>
-      <c r="V87" s="12"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
     </row>
     <row r="88" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12">
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11">
         <f>J72-J74</f>
-        <v>17198</v>
-      </c>
-      <c r="K88" s="12">
+        <v>28156</v>
+      </c>
+      <c r="K88" s="11">
         <f>K72-K74</f>
-        <v>13347</v>
-      </c>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12">
+        <v>25231</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11">
         <f>M72-M74</f>
-        <v>18720</v>
-      </c>
-      <c r="N88" s="12">
+        <v>32358</v>
+      </c>
+      <c r="N88" s="11">
         <f>N72-N74</f>
-        <v>18551</v>
-      </c>
-      <c r="O88" s="12">
+        <v>6383</v>
+      </c>
+      <c r="O88" s="11">
         <f>O72-O74</f>
-        <v>15320</v>
-      </c>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12">
+        <v>34892</v>
+      </c>
+      <c r="P88" s="11"/>
+      <c r="Q88" s="11">
         <f>Q72-Q74</f>
-        <v>16077</v>
-      </c>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
+        <v>30629</v>
+      </c>
+      <c r="R88" s="11"/>
+      <c r="S88" s="11"/>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
     </row>
     <row r="91" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <v>103459</v>
       </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12">
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11">
         <v>123048</v>
       </c>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12">
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11">
+        <v>139995</v>
+      </c>
+      <c r="L91" s="11">
         <v>144056</v>
       </c>
-      <c r="M91" s="12">
+      <c r="M91" s="11">
         <v>150028</v>
       </c>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12">
+      <c r="N91" s="11"/>
+      <c r="O91" s="11">
+        <v>163906</v>
+      </c>
+      <c r="P91" s="11">
         <v>174014</v>
       </c>
-      <c r="Q91" s="12">
+      <c r="Q91" s="11">
         <v>186779</v>
       </c>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
-      <c r="U91" s="12"/>
-      <c r="V91" s="12"/>
+      <c r="R91" s="11"/>
+      <c r="S91" s="11"/>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P92" s="16">
+      <c r="O92" s="15">
+        <f>+O91/K91-1</f>
+        <v>0.17079895710561099</v>
+      </c>
+      <c r="P92" s="15">
         <f>+P91/L91-1</f>
         <v>0.20796079302493475</v>
       </c>
-      <c r="Q92" s="16">
+      <c r="Q92" s="15">
         <f>+Q91/M91-1</f>
         <v>0.24496094062441687</v>
       </c>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6EA2A4-4AF5-4CB8-9C17-F3FC30D17748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CB1DEF-7923-4D46-8158-7C664378CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="45" windowWidth="28395" windowHeight="20910" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="22200" yWindow="345" windowWidth="27420" windowHeight="20610" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,8 @@
   <authors>
     <author>tc={7CA9CE49-89FA-4E15-98D4-CE6DD96F43DD}</author>
     <author>tc={BB174E77-B992-4434-B813-37050944779B}</author>
+    <author>tc={98C85431-240B-43D6-9320-F54389B2CF7C}</author>
+    <author>tc={7C8D1D3B-4771-4143-BB65-4092E4163BCF}</author>
   </authors>
   <commentList>
     <comment ref="R6" authorId="0" shapeId="0" xr:uid="{7CA9CE49-89FA-4E15-98D4-CE6DD96F43DD}">
@@ -58,12 +60,28 @@
     Grew ex-FX, finance decline, travel growth</t>
       </text>
     </comment>
+    <comment ref="S11" authorId="2" shapeId="0" xr:uid="{98C85431-240B-43D6-9320-F54389B2CF7C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    4/25/23 Consensus 68.88B</t>
+      </text>
+    </comment>
+    <comment ref="T11" authorId="3" shapeId="0" xr:uid="{7C8D1D3B-4771-4143-BB65-4092E4163BCF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    4/25/23 consensus 72.28B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="124">
   <si>
     <t>Price</t>
   </si>
@@ -366,6 +384,75 @@
   </si>
   <si>
     <t xml:space="preserve">  Rev/HC</t>
+  </si>
+  <si>
+    <t>CEO (for now)</t>
+  </si>
+  <si>
+    <t>Sundar Pichai</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Ruth Porat</t>
+  </si>
+  <si>
+    <t>Stock Price</t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
+    <t>Advertising %</t>
+  </si>
+  <si>
+    <t>CBO</t>
+  </si>
+  <si>
+    <t>Philipp Schindler</t>
+  </si>
+  <si>
+    <t>SVP Devices, Services</t>
+  </si>
+  <si>
+    <t>Rick Osterloh</t>
+  </si>
+  <si>
+    <t>Thomas Kurian</t>
+  </si>
+  <si>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>Lorraine Twohill</t>
+  </si>
+  <si>
+    <t>SVP Android, Chrome</t>
+  </si>
+  <si>
+    <t>Hiroshi Lockheimer</t>
+  </si>
+  <si>
+    <t>SVP Engineering</t>
+  </si>
+  <si>
+    <t>Urs Holzle</t>
+  </si>
+  <si>
+    <t>SVP Core Systems</t>
+  </si>
+  <si>
+    <t>Jen Fitzpatrick</t>
+  </si>
+  <si>
+    <t>SVP PM</t>
+  </si>
+  <si>
+    <t>Gerald Wight</t>
+  </si>
+  <si>
+    <t>SVP Tech &amp; Society</t>
   </si>
 </sst>
 </file>
@@ -375,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -404,12 +491,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -432,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -466,8 +547,11 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -493,15 +577,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>24962</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>31531</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>24962</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>31531</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -517,7 +601,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11211910" y="0"/>
+          <a:off x="11796548" y="0"/>
           <a:ext cx="0" cy="17976631"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -551,7 +635,7 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>87039</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -903,22 +987,29 @@
   <threadedComment ref="R9" dT="2023-02-06T14:18:41.55" personId="{93A3133D-971F-4E59-B338-0D905228406B}" id="{BB174E77-B992-4434-B813-37050944779B}">
     <text>Grew ex-FX, finance decline, travel growth</text>
   </threadedComment>
+  <threadedComment ref="S11" dT="2023-04-25T19:37:22.78" personId="{93A3133D-971F-4E59-B338-0D905228406B}" id="{98C85431-240B-43D6-9320-F54389B2CF7C}">
+    <text>4/25/23 Consensus 68.88B</text>
+  </threadedComment>
+  <threadedComment ref="T11" dT="2023-04-25T19:37:35.90" personId="{93A3133D-971F-4E59-B338-0D905228406B}" id="{7C8D1D3B-4771-4143-BB65-4092E4163BCF}">
+    <text>4/25/23 consensus 72.28B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
-  <dimension ref="H1:M14"/>
+  <dimension ref="H1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:13" x14ac:dyDescent="0.2">
@@ -929,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>91.92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="8:13" x14ac:dyDescent="0.2">
@@ -939,8 +1030,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <f>5956+883+5968</f>
-        <v>12807</v>
+        <v>12947</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>19</v>
@@ -953,7 +1043,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>1177219.44</v>
+        <v>1359435</v>
       </c>
     </row>
     <row r="5" spans="8:13" x14ac:dyDescent="0.2">
@@ -962,10 +1052,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>146678</v>
+        <v>144254</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="8:13" x14ac:dyDescent="0.2">
@@ -973,10 +1063,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>14653</v>
+        <v>14701</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="8:13" x14ac:dyDescent="0.2">
@@ -985,15 +1075,11 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>1045194.44</v>
+        <v>1229882</v>
       </c>
     </row>
     <row r="8" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K8" s="7"/>
-      <c r="L8">
-        <f>91000+9000-24000</f>
-        <v>76000</v>
-      </c>
     </row>
     <row r="9" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K9" s="7" t="s">
@@ -1009,10 +1095,92 @@
     <row r="11" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K11" s="8"/>
     </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>109</v>
+      </c>
       <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1021,20 +1189,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
-  <dimension ref="A1:CW92"/>
+  <dimension ref="A1:CW100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL11" sqref="AL11"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="22" width="9.140625" style="2"/>
+    <col min="3" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="2"/>
+    <col min="36" max="36" width="9.140625" customWidth="1"/>
     <col min="43" max="44" width="9.28515625" customWidth="1"/>
     <col min="47" max="47" width="9.5703125" customWidth="1"/>
   </cols>
@@ -1224,7 +1395,9 @@
       <c r="R3" s="11">
         <v>669</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="11">
+        <v>84</v>
+      </c>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
@@ -1297,11 +1470,10 @@
         <v>226</v>
       </c>
       <c r="S4" s="11">
-        <f t="shared" ref="S4:V4" si="4">+O4</f>
-        <v>440</v>
+        <v>288</v>
       </c>
       <c r="T4" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="T4:V4" si="4">+P4</f>
         <v>193</v>
       </c>
       <c r="U4" s="11">
@@ -1413,20 +1585,19 @@
         <v>7315</v>
       </c>
       <c r="S5" s="11">
-        <f t="shared" ref="S5:V5" si="6">+O5*1.4</f>
-        <v>8149.4</v>
+        <v>7454</v>
       </c>
       <c r="T5" s="11">
-        <f t="shared" si="6"/>
-        <v>8786.4</v>
+        <f>+P5*1.3</f>
+        <v>8158.8</v>
       </c>
       <c r="U5" s="11">
-        <f t="shared" si="6"/>
-        <v>9615.1999999999989</v>
+        <f>+Q5*1.3</f>
+        <v>8928.4</v>
       </c>
       <c r="V5" s="11">
-        <f t="shared" si="6"/>
-        <v>10241</v>
+        <f>+R5*1.3</f>
+        <v>9509.5</v>
       </c>
       <c r="AE5" s="3">
         <v>4056</v>
@@ -1454,7 +1625,7 @@
         <v>36792</v>
       </c>
       <c r="AL5" s="3">
-        <f t="shared" ref="AL5" si="7">+AK5*1.4</f>
+        <f t="shared" ref="AL5" si="6">+AK5*1.4</f>
         <v>51508.799999999996</v>
       </c>
       <c r="AM5" s="3">
@@ -1529,20 +1700,19 @@
         <v>8796</v>
       </c>
       <c r="S6" s="11">
-        <f>+O6*1.03</f>
-        <v>7015.33</v>
+        <v>7413</v>
       </c>
       <c r="T6" s="11">
-        <f>+P6*1.03</f>
-        <v>6749.59</v>
+        <f>+P6*1.05</f>
+        <v>6880.6500000000005</v>
       </c>
       <c r="U6" s="11">
-        <f>+Q6*1.03</f>
-        <v>7101.85</v>
+        <f>+Q6*1.05</f>
+        <v>7239.75</v>
       </c>
       <c r="V6" s="11">
-        <f>+R6*1.03</f>
-        <v>9059.880000000001</v>
+        <f>+R6*1.05</f>
+        <v>9235.8000000000011</v>
       </c>
       <c r="AE6" s="3">
         <v>10914</v>
@@ -1570,31 +1740,31 @@
         <v>29926.65</v>
       </c>
       <c r="AL6" s="3">
-        <f t="shared" ref="AL6:AR6" si="8">+AK6*1.03</f>
+        <f t="shared" ref="AL6:AR6" si="7">+AK6*1.03</f>
         <v>30824.449500000002</v>
       </c>
       <c r="AM6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>31749.182985000003</v>
       </c>
       <c r="AN6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>32701.658474550004</v>
       </c>
       <c r="AO6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33682.708228786505</v>
       </c>
       <c r="AP6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34693.189475650099</v>
       </c>
       <c r="AQ6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>35733.985159919604</v>
       </c>
       <c r="AR6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>36806.004714717194</v>
       </c>
     </row>
@@ -1645,20 +1815,19 @@
         <v>8475</v>
       </c>
       <c r="S7" s="11">
-        <f>+O7*1.1</f>
-        <v>8991.4000000000015</v>
+        <v>7496</v>
       </c>
       <c r="T7" s="11">
-        <f>+P7*1.1</f>
-        <v>9084.9000000000015</v>
+        <f>+P7*0.99</f>
+        <v>8176.41</v>
       </c>
       <c r="U7" s="11">
-        <f>+Q7*1.1</f>
-        <v>8659.2000000000007</v>
+        <f t="shared" ref="U7:V9" si="8">+Q7*1.03</f>
+        <v>8108.16</v>
       </c>
       <c r="V7" s="11">
-        <f>+R7*1.1</f>
-        <v>9322.5</v>
+        <f t="shared" si="8"/>
+        <v>8729.25</v>
       </c>
       <c r="AE7" s="3">
         <v>17616</v>
@@ -1761,20 +1930,19 @@
         <v>7963</v>
       </c>
       <c r="S8" s="11">
-        <f>+O8*1.06</f>
-        <v>7281.14</v>
+        <v>6693</v>
       </c>
       <c r="T8" s="11">
-        <f>+P8*1.06</f>
-        <v>7780.4000000000005</v>
+        <f>+P8*0.99</f>
+        <v>7266.6</v>
       </c>
       <c r="U8" s="11">
-        <f>+Q8*1.06</f>
-        <v>7495.26</v>
+        <f t="shared" si="8"/>
+        <v>7283.13</v>
       </c>
       <c r="V8" s="11">
-        <f>+R8*1.06</f>
-        <v>8440.7800000000007</v>
+        <f t="shared" si="8"/>
+        <v>8201.89</v>
       </c>
       <c r="AE8" s="3">
         <v>8150</v>
@@ -1877,20 +2045,19 @@
         <v>42604</v>
       </c>
       <c r="S9" s="11">
-        <f>+O9*1.1</f>
-        <v>43579.8</v>
+        <v>40359</v>
       </c>
       <c r="T9" s="11">
-        <f>+P9*1.1</f>
-        <v>44757.9</v>
+        <f>+P9*1.03</f>
+        <v>41909.67</v>
       </c>
       <c r="U9" s="11">
-        <f>+Q9*1.1</f>
-        <v>43492.9</v>
+        <f t="shared" si="8"/>
+        <v>40725.17</v>
       </c>
       <c r="V9" s="11">
-        <f>+R9*1.1</f>
-        <v>46864.4</v>
+        <f t="shared" si="8"/>
+        <v>43882.12</v>
       </c>
       <c r="AE9" s="3">
         <v>69811</v>
@@ -2015,19 +2182,19 @@
       </c>
       <c r="S10" s="11">
         <f>SUM(S6:S9)</f>
-        <v>66867.670000000013</v>
+        <v>61961</v>
       </c>
       <c r="T10" s="11">
         <f>SUM(T6:T9)</f>
-        <v>68372.790000000008</v>
+        <v>64233.33</v>
       </c>
       <c r="U10" s="11">
         <f>SUM(U6:U9)</f>
-        <v>66749.210000000006</v>
+        <v>63356.21</v>
       </c>
       <c r="V10" s="11">
         <f>SUM(V6:V9)</f>
-        <v>73687.56</v>
+        <v>70049.06</v>
       </c>
       <c r="AE10" s="11">
         <f t="shared" ref="AE10:AH10" si="16">SUM(AE6:AE9)</f>
@@ -2155,19 +2322,19 @@
       </c>
       <c r="S11" s="10">
         <f t="shared" si="21"/>
-        <v>75457.070000000007</v>
+        <v>69787</v>
       </c>
       <c r="T11" s="10">
         <f t="shared" si="21"/>
-        <v>77352.19</v>
+        <v>72585.13</v>
       </c>
       <c r="U11" s="10">
         <f t="shared" si="21"/>
-        <v>76573.41</v>
+        <v>72493.61</v>
       </c>
       <c r="V11" s="10">
         <f t="shared" si="21"/>
-        <v>84154.559999999998</v>
+        <v>79784.56</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
@@ -2290,10 +2457,21 @@
       <c r="R12" s="11">
         <v>35342</v>
       </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
+      <c r="S12" s="11">
+        <v>30612</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" ref="T12:V12" si="31">T11*0.45</f>
+        <v>32663.308500000003</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="31"/>
+        <v>32622.124500000002</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="31"/>
+        <v>35903.052000000003</v>
+      </c>
       <c r="AB12" s="3">
         <v>25691</v>
       </c>
@@ -2327,31 +2505,31 @@
         <v>136822.78719999999</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" ref="AL12:AR12" si="31">+AL11-AL14</f>
+        <f t="shared" ref="AL12:AR12" si="32">+AL11-AL14</f>
         <v>152681.72735199999</v>
       </c>
       <c r="AM12" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>169709.73949072001</v>
       </c>
       <c r="AN12" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>189703.87419182321</v>
       </c>
       <c r="AO12" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>213365.09741801536</v>
       </c>
       <c r="AP12" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>236607.46070082422</v>
       </c>
       <c r="AQ12" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>263062.17606386694</v>
       </c>
       <c r="AR12" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>293245.6045781846</v>
       </c>
     </row>
@@ -2376,7 +2554,9 @@
         <v>10929</v>
       </c>
       <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="N13" s="11">
+        <v>13427</v>
+      </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11">
         <v>12214</v>
@@ -2384,7 +2564,9 @@
       <c r="Q13" s="11">
         <v>11826</v>
       </c>
-      <c r="R13" s="11"/>
+      <c r="R13" s="11">
+        <v>12925</v>
+      </c>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
@@ -2406,31 +2588,31 @@
         <v>22177</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" ref="H14" si="32">H11-H12</f>
+        <f t="shared" ref="H14" si="33">H11-H12</f>
         <v>19744</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" ref="I14" si="33">I11-I12</f>
+        <f t="shared" ref="I14" si="34">I11-I12</f>
         <v>25056</v>
       </c>
       <c r="J14" s="11">
-        <f t="shared" ref="J14:N14" si="34">J11-J12</f>
+        <f t="shared" ref="J14:N14" si="35">J11-J12</f>
         <v>30818</v>
       </c>
       <c r="K14" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>31211</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>35653</v>
       </c>
       <c r="M14" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>37497</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>42337</v>
       </c>
       <c r="O14" s="11">
@@ -2438,43 +2620,55 @@
         <v>38412</v>
       </c>
       <c r="P14" s="11">
-        <f t="shared" ref="P14:Q14" si="35">P11-P12</f>
+        <f t="shared" ref="P14:Q14" si="36">P11-P12</f>
         <v>39581</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>37934</v>
       </c>
       <c r="R14" s="11">
         <f>+R11-R12</f>
         <v>40706</v>
       </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
+      <c r="S14" s="11">
+        <f>S11-S12</f>
+        <v>39175</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" ref="T14:V14" si="37">T11-T12</f>
+        <v>39921.821500000005</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="37"/>
+        <v>39871.485499999995</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" si="37"/>
+        <v>43881.507999999994</v>
+      </c>
       <c r="AB14" s="3">
-        <f>+AB11-AB12</f>
+        <f t="shared" ref="AB14:AG14" si="38">+AB11-AB12</f>
         <v>40310</v>
       </c>
       <c r="AC14" s="3">
-        <f>+AC11-AC12</f>
+        <f t="shared" si="38"/>
         <v>46825</v>
       </c>
       <c r="AD14" s="3">
-        <f>+AD11-AD12</f>
+        <f t="shared" si="38"/>
         <v>55134</v>
       </c>
       <c r="AE14" s="3">
-        <f>+AE11-AE12</f>
+        <f t="shared" si="38"/>
         <v>65272</v>
       </c>
       <c r="AF14" s="3">
-        <f>+AF11-AF12</f>
+        <f t="shared" si="38"/>
         <v>77270</v>
       </c>
       <c r="AG14" s="3">
-        <f>+AG11-AG12</f>
+        <f t="shared" si="38"/>
         <v>89961</v>
       </c>
       <c r="AH14" s="3">
@@ -2482,7 +2676,7 @@
         <v>97795</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" ref="AI14" si="36">AI11-AI12</f>
+        <f t="shared" ref="AI14" si="39">AI11-AI12</f>
         <v>146698</v>
       </c>
       <c r="AJ14" s="3">
@@ -2494,31 +2688,31 @@
         <v>174138.09280000001</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" ref="AL14:AR14" si="37">+AL11*0.56</f>
+        <f t="shared" ref="AL14:AR14" si="40">+AL11*0.56</f>
         <v>194322.19844800004</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>215994.21389728007</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>241441.29442595688</v>
       </c>
       <c r="AO14" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>271555.57853201957</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>301136.7681646854</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>334806.40589946706</v>
       </c>
       <c r="AR14" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>373221.67855405324</v>
       </c>
     </row>
@@ -2568,10 +2762,21 @@
       <c r="R15" s="11">
         <v>10267</v>
       </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
+      <c r="S15" s="11">
+        <v>11468</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" ref="T15:T17" si="41">P15*1.03</f>
+        <v>10136.23</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" ref="U15:U17" si="42">Q15*1.03</f>
+        <v>10581.19</v>
+      </c>
+      <c r="V15" s="11">
+        <f t="shared" ref="V15:V17" si="43">R15*1.03</f>
+        <v>10575.01</v>
+      </c>
       <c r="AB15" s="3">
         <v>9832</v>
       </c>
@@ -2597,7 +2802,7 @@
         <v>31562</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" ref="AJ15:AJ17" si="38">SUM(O15:R15)</f>
+        <f t="shared" ref="AJ15:AJ17" si="44">SUM(O15:R15)</f>
         <v>39500</v>
       </c>
       <c r="AK15" s="3">
@@ -2605,31 +2810,31 @@
         <v>41475</v>
       </c>
       <c r="AL15" s="3">
-        <f t="shared" ref="AL15:AR15" si="39">+AK15*1.05</f>
+        <f t="shared" ref="AL15:AR15" si="45">+AK15*1.05</f>
         <v>43548.75</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>45726.1875</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>48012.496875000004</v>
       </c>
       <c r="AO15" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>50413.121718750008</v>
       </c>
       <c r="AP15" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>52933.77780468751</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>55580.466694921888</v>
       </c>
       <c r="AR15" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>58359.490029667984</v>
       </c>
     </row>
@@ -2679,10 +2884,21 @@
       <c r="R16" s="11">
         <v>7183</v>
       </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
+      <c r="S16" s="11">
+        <v>6533</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" si="41"/>
+        <v>6828.9000000000005</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="42"/>
+        <v>7136.87</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="43"/>
+        <v>7398.49</v>
+      </c>
       <c r="AB16" s="3">
         <v>8131</v>
       </c>
@@ -2708,7 +2924,7 @@
         <v>22912</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>26567</v>
       </c>
       <c r="AK16" s="3">
@@ -2716,31 +2932,31 @@
         <v>27895.350000000002</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" ref="AL16:AR16" si="40">+AK16*1.05</f>
+        <f t="shared" ref="AL16:AR16" si="46">+AK16*1.05</f>
         <v>29290.117500000004</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>30754.623375000006</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>32292.354543750007</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>33906.972270937506</v>
       </c>
       <c r="AP16" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>35602.320884484383</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>37382.436928708601</v>
       </c>
       <c r="AR16" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>39251.558775144033</v>
       </c>
     </row>
@@ -2790,10 +3006,21 @@
       <c r="R17" s="11">
         <v>5096</v>
       </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
+      <c r="S17" s="11">
+        <v>3759</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="41"/>
+        <v>3766.71</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" si="42"/>
+        <v>3704.9100000000003</v>
+      </c>
+      <c r="V17" s="11">
+        <f t="shared" si="43"/>
+        <v>5248.88</v>
+      </c>
       <c r="AB17" s="3">
         <v>5851</v>
       </c>
@@ -2819,7 +3046,7 @@
         <v>13510</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>15724</v>
       </c>
       <c r="AK17" s="3">
@@ -2827,31 +3054,31 @@
         <v>16510.2</v>
       </c>
       <c r="AL17" s="3">
-        <f t="shared" ref="AL17:AR17" si="41">+AK17*1.05</f>
+        <f t="shared" ref="AL17:AR17" si="47">+AK17*1.05</f>
         <v>17335.710000000003</v>
       </c>
       <c r="AM17" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>18202.495500000005</v>
       </c>
       <c r="AN17" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>19112.620275000005</v>
       </c>
       <c r="AO17" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>20068.251288750005</v>
       </c>
       <c r="AP17" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>21071.663853187507</v>
       </c>
       <c r="AQ17" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>22125.247045846882</v>
       </c>
       <c r="AR17" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>23231.509398139227</v>
       </c>
     </row>
@@ -2860,26 +3087,26 @@
         <v>26</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18" si="42">SUM(C15:C17)</f>
+        <f t="shared" ref="C18" si="48">SUM(C15:C17)</f>
         <v>12022</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
-        <f t="shared" ref="G18" si="43">SUM(G15:G17)</f>
+        <f t="shared" ref="G18" si="49">SUM(G15:G17)</f>
         <v>14200</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" ref="H18" si="44">SUM(H15:H17)</f>
+        <f t="shared" ref="H18" si="50">SUM(H15:H17)</f>
         <v>13361</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" ref="I18" si="45">SUM(I15:I17)</f>
+        <f t="shared" ref="I18" si="51">SUM(I15:I17)</f>
         <v>13843</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" ref="J18" si="46">SUM(J15:J17)</f>
+        <f t="shared" ref="J18" si="52">SUM(J15:J17)</f>
         <v>15167</v>
       </c>
       <c r="K18" s="11">
@@ -2887,59 +3114,71 @@
         <v>14774</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" ref="L18:O18" si="47">SUM(L15:L17)</f>
+        <f t="shared" ref="L18:O18" si="53">SUM(L15:L17)</f>
         <v>16292</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>16466</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>20452</v>
       </c>
       <c r="O18" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>18318</v>
       </c>
       <c r="P18" s="11">
-        <f t="shared" ref="P18:Q18" si="48">SUM(P15:P17)</f>
+        <f t="shared" ref="P18:Q18" si="54">SUM(P15:P17)</f>
         <v>20128</v>
       </c>
       <c r="Q18" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>20799</v>
       </c>
       <c r="R18" s="11">
         <f>SUM(R15:R17)</f>
         <v>22546</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
+      <c r="S18" s="11">
+        <f t="shared" ref="S18:V18" si="55">SUM(S15:S17)</f>
+        <v>21760</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="55"/>
+        <v>20731.84</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="55"/>
+        <v>21422.97</v>
+      </c>
+      <c r="V18" s="11">
+        <f t="shared" si="55"/>
+        <v>23222.38</v>
+      </c>
       <c r="AB18" s="3">
         <f>SUM(AB15:AB17)</f>
         <v>23814</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" ref="AC18:AG18" si="49">SUM(AC15:AC17)</f>
+        <f t="shared" ref="AC18:AG18" si="56">SUM(AC15:AC17)</f>
         <v>27465</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>31418</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>36390</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>45878</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>54033</v>
       </c>
       <c r="AH18" s="3">
@@ -2947,43 +3186,43 @@
         <v>56571</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" ref="AI18:AK18" si="50">SUM(AI15:AI17)</f>
+        <f t="shared" ref="AI18:AK18" si="57">SUM(AI15:AI17)</f>
         <v>67984</v>
       </c>
       <c r="AJ18" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>81791</v>
       </c>
       <c r="AK18" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>85880.55</v>
       </c>
       <c r="AL18" s="3">
-        <f t="shared" ref="AL18:AR18" si="51">SUM(AL15:AL17)</f>
+        <f t="shared" ref="AL18:AR18" si="58">SUM(AL15:AL17)</f>
         <v>90174.577500000014</v>
       </c>
       <c r="AM18" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>94683.306375000015</v>
       </c>
       <c r="AN18" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>99417.47169375002</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>104388.34527843751</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>109607.7625423594</v>
       </c>
       <c r="AQ18" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>115088.15066947739</v>
       </c>
       <c r="AR18" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>120842.55820295124</v>
       </c>
     </row>
@@ -2992,42 +3231,42 @@
         <v>27</v>
       </c>
       <c r="C19" s="11">
-        <f t="shared" ref="C19" si="52">C14-C18</f>
+        <f t="shared" ref="C19" si="59">C14-C18</f>
         <v>8305</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
-        <f t="shared" ref="G19" si="53">G14-G18</f>
+        <f t="shared" ref="G19" si="60">G14-G18</f>
         <v>7977</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" ref="H19" si="54">H14-H18</f>
+        <f t="shared" ref="H19" si="61">H14-H18</f>
         <v>6383</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" ref="I19" si="55">I14-I18</f>
+        <f t="shared" ref="I19" si="62">I14-I18</f>
         <v>11213</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" ref="J19" si="56">J14-J18</f>
+        <f t="shared" ref="J19" si="63">J14-J18</f>
         <v>15651</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" ref="K19:N19" si="57">K14-K18</f>
+        <f t="shared" ref="K19:N19" si="64">K14-K18</f>
         <v>16437</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>19361</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>21031</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>21885</v>
       </c>
       <c r="O19" s="11">
@@ -3035,43 +3274,55 @@
         <v>20094</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" ref="P19:R19" si="58">P14-P18</f>
+        <f t="shared" ref="P19:R19" si="65">P14-P18</f>
         <v>19453</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>17135</v>
       </c>
       <c r="R19" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>18160</v>
       </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
+      <c r="S19" s="11">
+        <f t="shared" ref="S19:V19" si="66">S14-S18</f>
+        <v>17415</v>
+      </c>
+      <c r="T19" s="11">
+        <f t="shared" si="66"/>
+        <v>19189.981500000005</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="66"/>
+        <v>18448.515499999994</v>
+      </c>
+      <c r="V19" s="11">
+        <f t="shared" si="66"/>
+        <v>20659.127999999993</v>
+      </c>
       <c r="AB19" s="3">
         <f>AB14-AB18</f>
         <v>16496</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" ref="AC19:AG19" si="59">AC14-AC18</f>
+        <f t="shared" ref="AC19:AG19" si="67">AC14-AC18</f>
         <v>19360</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>23716</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>28882</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>31392</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>35928</v>
       </c>
       <c r="AH19" s="3">
@@ -3079,43 +3330,43 @@
         <v>41224</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" ref="AI19:AK19" si="60">AI14-AI18</f>
+        <f t="shared" ref="AI19:AK19" si="68">AI14-AI18</f>
         <v>78714</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>74842</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>88257.54280000001</v>
       </c>
       <c r="AL19" s="3">
-        <f t="shared" ref="AL19:AR19" si="61">AL14-AL18</f>
+        <f t="shared" ref="AL19:AR19" si="69">AL14-AL18</f>
         <v>104147.62094800003</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>121310.90752228006</v>
       </c>
       <c r="AN19" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>142023.82273220684</v>
       </c>
       <c r="AO19" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>167167.23325358206</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>191529.00562232599</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>219718.25522998968</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>252379.120351102</v>
       </c>
     </row>
@@ -3165,10 +3416,21 @@
       <c r="R20" s="11">
         <v>-1013</v>
       </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
+      <c r="S20" s="11">
+        <v>790</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" ref="T20:V20" si="70">AVERAGE(P20:S20)</f>
+        <v>-391</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="70"/>
+        <v>-379</v>
+      </c>
+      <c r="V20" s="11">
+        <f t="shared" si="70"/>
+        <v>-248.25</v>
+      </c>
       <c r="AB20" s="3">
         <v>763</v>
       </c>
@@ -3194,39 +3456,39 @@
         <v>12020</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" ref="AJ20:AJ22" si="62">SUM(O20:R20)</f>
+        <f t="shared" ref="AJ20:AJ22" si="71">SUM(O20:R20)</f>
         <v>-3514</v>
       </c>
       <c r="AK20" s="3">
-        <f>+AJ37*$AU$29</f>
+        <f>+AJ38*$AU$29</f>
         <v>1295.53</v>
       </c>
       <c r="AL20" s="3">
-        <f t="shared" ref="AL20:AR20" si="63">+AK37*$AU$29</f>
+        <f t="shared" ref="AL20:AR20" si="72">+AK38*$AU$29</f>
         <v>2029.86519696</v>
       </c>
       <c r="AM20" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>2900.5205833486725</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>3919.0542938148278</v>
       </c>
       <c r="AO20" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>5115.7858854282058</v>
       </c>
       <c r="AP20" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>6528.5066423680892</v>
       </c>
       <c r="AQ20" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>8152.5782429385808</v>
       </c>
       <c r="AR20" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>10021.119077416592</v>
       </c>
     </row>
@@ -3235,26 +3497,26 @@
         <v>29</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" ref="C21" si="64">C19+C20</f>
+        <f t="shared" ref="C21" si="73">C19+C20</f>
         <v>9843</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11">
-        <f t="shared" ref="G21" si="65">G19+G20</f>
+        <f t="shared" ref="G21" si="74">G19+G20</f>
         <v>7757</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" ref="H21" si="66">H19+H20</f>
+        <f t="shared" ref="H21" si="75">H19+H20</f>
         <v>8277</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" ref="I21" si="67">I19+I20</f>
+        <f t="shared" ref="I21" si="76">I19+I20</f>
         <v>13359</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" ref="J21" si="68">J19+J20</f>
+        <f t="shared" ref="J21" si="77">J19+J20</f>
         <v>18689</v>
       </c>
       <c r="K21" s="11">
@@ -3262,59 +3524,71 @@
         <v>21283</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" ref="L21:O21" si="69">L19+L20</f>
+        <f t="shared" ref="L21:O21" si="78">L19+L20</f>
         <v>21625</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>23064</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>24402</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>18934</v>
       </c>
       <c r="P21" s="11">
-        <f t="shared" ref="P21:R21" si="70">P19+P20</f>
+        <f t="shared" ref="P21:V21" si="79">P19+P20</f>
         <v>19014</v>
       </c>
       <c r="Q21" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>16233</v>
       </c>
       <c r="R21" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>17147</v>
       </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
+      <c r="S21" s="11">
+        <f t="shared" si="79"/>
+        <v>18205</v>
+      </c>
+      <c r="T21" s="11">
+        <f t="shared" si="79"/>
+        <v>18798.981500000005</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="79"/>
+        <v>18069.515499999994</v>
+      </c>
+      <c r="V21" s="11">
+        <f t="shared" si="79"/>
+        <v>20410.877999999993</v>
+      </c>
       <c r="AB21" s="3">
-        <f>+AB19+AB20</f>
+        <f t="shared" ref="AB21:AG21" si="80">+AB19+AB20</f>
         <v>17259</v>
       </c>
       <c r="AC21" s="3">
-        <f>+AC19+AC20</f>
+        <f t="shared" si="80"/>
         <v>19651</v>
       </c>
       <c r="AD21" s="3">
-        <f>+AD19+AD20</f>
+        <f t="shared" si="80"/>
         <v>24150</v>
       </c>
       <c r="AE21" s="3">
-        <f>+AE19+AE20</f>
+        <f t="shared" si="80"/>
         <v>29929</v>
       </c>
       <c r="AF21" s="3">
-        <f>+AF19+AF20</f>
+        <f t="shared" si="80"/>
         <v>39984</v>
       </c>
       <c r="AG21" s="3">
-        <f>+AG19+AG20</f>
+        <f t="shared" si="80"/>
         <v>41322</v>
       </c>
       <c r="AH21" s="3">
@@ -3322,43 +3596,43 @@
         <v>48082</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" ref="AI21:AK21" si="71">AI19+AI20</f>
+        <f t="shared" ref="AI21:AK21" si="81">AI19+AI20</f>
         <v>90734</v>
       </c>
       <c r="AJ21" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>71328</v>
       </c>
       <c r="AK21" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>89553.072800000009</v>
       </c>
       <c r="AL21" s="3">
-        <f t="shared" ref="AL21:AR21" si="72">AL19+AL20</f>
+        <f t="shared" ref="AL21:AR21" si="82">AL19+AL20</f>
         <v>106177.48614496003</v>
       </c>
       <c r="AM21" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>124211.42810562873</v>
       </c>
       <c r="AN21" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>145942.87702602166</v>
       </c>
       <c r="AO21" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>172283.01913901026</v>
       </c>
       <c r="AP21" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>198057.51226469409</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>227870.83347292827</v>
       </c>
       <c r="AR21" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>262400.23942851857</v>
       </c>
     </row>
@@ -3408,10 +3682,21 @@
       <c r="R22" s="11">
         <v>3523</v>
       </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
+      <c r="S22" s="11">
+        <v>3154</v>
+      </c>
+      <c r="T22" s="11">
+        <f t="shared" ref="T22:V22" si="83">T21*0.2</f>
+        <v>3759.7963000000013</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" si="83"/>
+        <v>3613.9030999999991</v>
+      </c>
+      <c r="V22" s="11">
+        <f t="shared" si="83"/>
+        <v>4082.1755999999987</v>
+      </c>
       <c r="AB22" s="3">
         <v>3639</v>
       </c>
@@ -3437,7 +3722,7 @@
         <v>14701</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>11356</v>
       </c>
       <c r="AK22" s="3">
@@ -3445,31 +3730,31 @@
         <v>16119.553104000001</v>
       </c>
       <c r="AL22" s="3">
-        <f t="shared" ref="AL22:AR22" si="73">+AL21*0.18</f>
+        <f t="shared" ref="AL22:AR22" si="84">+AL21*0.18</f>
         <v>19111.947506092805</v>
       </c>
       <c r="AM22" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>22358.057059013172</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>26269.717864683898</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>31010.943445021843</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>35650.352207644937</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>41016.750025127083</v>
       </c>
       <c r="AR22" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>47232.043097133341</v>
       </c>
     </row>
@@ -3478,26 +3763,26 @@
         <v>31</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23" si="74">C21-C22</f>
+        <f t="shared" ref="C23" si="85">C21-C22</f>
         <v>8354</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f t="shared" ref="G23" si="75">G21-G22</f>
+        <f t="shared" ref="G23" si="86">G21-G22</f>
         <v>6836</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23" si="76">H21-H22</f>
+        <f t="shared" ref="H23" si="87">H21-H22</f>
         <v>6959</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" ref="I23" si="77">I21-I22</f>
+        <f t="shared" ref="I23" si="88">I21-I22</f>
         <v>11247</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" ref="J23" si="78">J21-J22</f>
+        <f t="shared" ref="J23" si="89">J21-J22</f>
         <v>15227</v>
       </c>
       <c r="K23" s="11">
@@ -3505,59 +3790,71 @@
         <v>17930</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ref="L23:O23" si="79">L21-L22</f>
+        <f t="shared" ref="L23:O23" si="90">L21-L22</f>
         <v>18165</v>
       </c>
       <c r="M23" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="90"/>
         <v>18936</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="90"/>
         <v>20642</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="79"/>
+        <f t="shared" si="90"/>
         <v>16436</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" ref="P23:R23" si="80">P21-P22</f>
+        <f t="shared" ref="P23:V23" si="91">P21-P22</f>
         <v>16002</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>13910</v>
       </c>
       <c r="R23" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>13624</v>
       </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
+      <c r="S23" s="11">
+        <f t="shared" si="91"/>
+        <v>15051</v>
+      </c>
+      <c r="T23" s="11">
+        <f t="shared" si="91"/>
+        <v>15039.185200000004</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="91"/>
+        <v>14455.612399999995</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="91"/>
+        <v>16328.702399999995</v>
+      </c>
       <c r="AB23" s="3">
-        <f>+AB21-AB22</f>
+        <f t="shared" ref="AB23:AG23" si="92">+AB21-AB22</f>
         <v>13620</v>
       </c>
       <c r="AC23" s="3">
-        <f>+AC21-AC22</f>
+        <f t="shared" si="92"/>
         <v>16348</v>
       </c>
       <c r="AD23" s="3">
-        <f>+AD21-AD22</f>
+        <f t="shared" si="92"/>
         <v>19478</v>
       </c>
       <c r="AE23" s="3">
-        <f>+AE21-AE22</f>
+        <f t="shared" si="92"/>
         <v>15398</v>
       </c>
       <c r="AF23" s="3">
-        <f>+AF21-AF22</f>
+        <f t="shared" si="92"/>
         <v>35807</v>
       </c>
       <c r="AG23" s="3">
-        <f>+AG21-AG22</f>
+        <f t="shared" si="92"/>
         <v>36040</v>
       </c>
       <c r="AH23" s="3">
@@ -3565,43 +3862,43 @@
         <v>40269</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" ref="AI23:AK23" si="81">AI21-AI22</f>
+        <f t="shared" ref="AI23:AK23" si="93">AI21-AI22</f>
         <v>76033</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>59972</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>73433.519696000003</v>
       </c>
       <c r="AL23" s="3">
-        <f t="shared" ref="AL23:AR23" si="82">AL21-AL22</f>
+        <f t="shared" ref="AL23:AR23" si="94">AL21-AL22</f>
         <v>87065.53863886722</v>
       </c>
       <c r="AM23" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>101853.37104661556</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>119673.15916133775</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>141272.07569398842</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>162407.16005704916</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>186854.08344780118</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>215168.19633138523</v>
       </c>
       <c r="AS23" s="3">
@@ -3609,227 +3906,227 @@
         <v>213016.51436807137</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" ref="AT23:CW23" si="83">+AS23*(1+$AU$27)</f>
+        <f t="shared" ref="AT23:CW23" si="95">+AS23*(1+$AU$27)</f>
         <v>210886.34922439064</v>
       </c>
       <c r="AU23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>208777.48573214674</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>206689.71087482528</v>
       </c>
       <c r="AW23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>204622.81376607702</v>
       </c>
       <c r="AX23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>202576.58562841624</v>
       </c>
       <c r="AY23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>200550.81977213209</v>
       </c>
       <c r="AZ23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>198545.31157441076</v>
       </c>
       <c r="BA23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>196559.85845866665</v>
       </c>
       <c r="BB23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>194594.25987407999</v>
       </c>
       <c r="BC23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>192648.31727533918</v>
       </c>
       <c r="BD23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>190721.8341025858</v>
       </c>
       <c r="BE23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>188814.61576155992</v>
       </c>
       <c r="BF23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>186926.46960394431</v>
       </c>
       <c r="BG23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>185057.20490790487</v>
       </c>
       <c r="BH23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>183206.63285882582</v>
       </c>
       <c r="BI23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>181374.56653023756</v>
       </c>
       <c r="BJ23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>179560.82086493517</v>
       </c>
       <c r="BK23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>177765.21265628582</v>
       </c>
       <c r="BL23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>175987.56052972295</v>
       </c>
       <c r="BM23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>174227.68492442573</v>
       </c>
       <c r="BN23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>172485.40807518148</v>
       </c>
       <c r="BO23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>170760.55399442965</v>
       </c>
       <c r="BP23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>169052.94845448536</v>
       </c>
       <c r="BQ23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>167362.41896994051</v>
       </c>
       <c r="BR23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>165688.79478024109</v>
       </c>
       <c r="BS23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>164031.90683243869</v>
       </c>
       <c r="BT23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>162391.58776411432</v>
       </c>
       <c r="BU23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>160767.67188647317</v>
       </c>
       <c r="BV23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>159159.99516760843</v>
       </c>
       <c r="BW23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>157568.39521593234</v>
       </c>
       <c r="BX23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>155992.711263773</v>
       </c>
       <c r="BY23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>154432.78415113527</v>
       </c>
       <c r="BZ23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>152888.45630962393</v>
       </c>
       <c r="CA23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>151359.57174652768</v>
       </c>
       <c r="CB23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>149845.97602906241</v>
       </c>
       <c r="CC23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>148347.51626877178</v>
       </c>
       <c r="CD23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>146864.04110608407</v>
       </c>
       <c r="CE23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>145395.40069502321</v>
       </c>
       <c r="CF23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>143941.44668807299</v>
       </c>
       <c r="CG23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>142502.03222119226</v>
       </c>
       <c r="CH23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>141077.01189898033</v>
       </c>
       <c r="CI23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>139666.24177999052</v>
       </c>
       <c r="CJ23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>138269.57936219062</v>
       </c>
       <c r="CK23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>136886.88356856871</v>
       </c>
       <c r="CL23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>135518.01473288302</v>
       </c>
       <c r="CM23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>134162.8345855542</v>
       </c>
       <c r="CN23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>132821.20623969866</v>
       </c>
       <c r="CO23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>131492.99417730168</v>
       </c>
       <c r="CP23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>130178.06423552865</v>
       </c>
       <c r="CQ23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>128876.28359317337</v>
       </c>
       <c r="CR23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>127587.52075724164</v>
       </c>
       <c r="CS23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>126311.64554966922</v>
       </c>
       <c r="CT23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>125048.52909417253</v>
       </c>
       <c r="CU23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>123798.0438032308</v>
       </c>
       <c r="CV23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>122560.0633651985</v>
       </c>
       <c r="CW23" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>121334.4627315465</v>
       </c>
     </row>
@@ -3838,42 +4135,42 @@
         <v>32</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" ref="C24" si="84">C23/C25</f>
+        <f t="shared" ref="C24" si="96">C23/C25</f>
         <v>11.919318455824756</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14">
-        <f t="shared" ref="G24" si="85">G23/G25</f>
+        <f t="shared" ref="G24" si="97">G23/G25</f>
         <v>9.8748026411774639</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" ref="H24" si="86">H23/H25</f>
+        <f t="shared" ref="H24" si="98">H23/H25</f>
         <v>10.129194904399265</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" ref="I24" si="87">I23/I25</f>
+        <f t="shared" ref="I24" si="99">I23/I25</f>
         <v>16.398605528022852</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" ref="J24" si="88">J23/J25</f>
+        <f t="shared" ref="J24" si="100">J23/J25</f>
         <v>22.295301836540162</v>
       </c>
       <c r="K24" s="14">
-        <f t="shared" ref="K24:N24" si="89">K23/K25</f>
+        <f t="shared" ref="K24:N24" si="101">K23/K25</f>
         <v>26.287585896482916</v>
       </c>
       <c r="L24" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>27.990344690984287</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>30.69474329100823</v>
       </c>
       <c r="O24" s="14">
@@ -3881,21 +4178,33 @@
         <v>24.621339792764896</v>
       </c>
       <c r="P24" s="14">
-        <f t="shared" ref="P24:R24" si="90">P23/P25</f>
+        <f t="shared" ref="P24:V24" si="102">P23/P25</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="Q24" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>1.0620752844162786</v>
       </c>
       <c r="R24" s="14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>1.0522901058160192</v>
       </c>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
+      <c r="S24" s="14">
+        <f t="shared" si="102"/>
+        <v>1.1737502924432659</v>
+      </c>
+      <c r="T24" s="14">
+        <f t="shared" si="102"/>
+        <v>1.1728289167901429</v>
+      </c>
+      <c r="U24" s="14">
+        <f t="shared" si="102"/>
+        <v>1.1273190673009432</v>
+      </c>
+      <c r="V24" s="14">
+        <f t="shared" si="102"/>
+        <v>1.2733917492006546</v>
+      </c>
       <c r="AH24" s="17">
         <f>AH23/AH25</f>
         <v>58.613331625494155</v>
@@ -3913,31 +4222,31 @@
         <v>5.6080380594150139</v>
       </c>
       <c r="AL24" s="17">
-        <f t="shared" ref="AL24:AR24" si="91">AL23/AL25</f>
+        <f t="shared" ref="AL24:AR24" si="103">AL23/AL25</f>
         <v>6.6491005248224839</v>
       </c>
       <c r="AM24" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>7.778431207897734</v>
       </c>
       <c r="AN24" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>9.1393090518548288</v>
       </c>
       <c r="AO24" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>10.788794824274246</v>
       </c>
       <c r="AP24" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>12.402858238198393</v>
       </c>
       <c r="AQ24" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>14.269843197907582</v>
       </c>
       <c r="AR24" s="17">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>16.432161214626063</v>
       </c>
     </row>
@@ -3987,10 +4296,21 @@
       <c r="R25" s="11">
         <v>12947</v>
       </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
+      <c r="S25" s="11">
+        <v>12823</v>
+      </c>
+      <c r="T25" s="11">
+        <f t="shared" ref="T25:V25" si="104">S25</f>
+        <v>12823</v>
+      </c>
+      <c r="U25" s="11">
+        <f t="shared" si="104"/>
+        <v>12823</v>
+      </c>
+      <c r="V25" s="11">
+        <f t="shared" si="104"/>
+        <v>12823</v>
+      </c>
       <c r="AC25" s="3">
         <v>687.34799999999996</v>
       </c>
@@ -4012,31 +4332,31 @@
         <v>13094.333333333334</v>
       </c>
       <c r="AL25" s="3">
-        <f t="shared" ref="AL25:AR25" si="92">+AK25</f>
+        <f t="shared" ref="AL25:AR25" si="105">+AK25</f>
         <v>13094.333333333334</v>
       </c>
       <c r="AM25" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AO25" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AP25" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AQ25" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AR25" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="105"/>
         <v>13094.333333333334</v>
       </c>
     </row>
@@ -4053,19 +4373,19 @@
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16">
-        <f t="shared" ref="K27:L27" si="93">K11/G11-1</f>
+        <f t="shared" ref="K27:L27" si="106">K11/G11-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="93"/>
+        <f t="shared" si="106"/>
         <v>0.61579235971486024</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" ref="M27" si="94">M11/I11-1</f>
+        <f t="shared" ref="M27" si="107">M11/I11-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" ref="N27" si="95">N11/J11-1</f>
+        <f t="shared" ref="N27" si="108">N11/J11-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="O27" s="16">
@@ -4073,11 +4393,11 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" ref="P27:U27" si="96">P11/L11-1</f>
+        <f t="shared" ref="P27:U27" si="109">P11/L11-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="96"/>
+        <f t="shared" si="109"/>
         <v>6.1027672840074931E-2</v>
       </c>
       <c r="R27" s="16">
@@ -4085,91 +4405,91 @@
         <v>9.5984069034185104E-3</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" si="96"/>
-        <v>0.10948331887488805</v>
+        <f>S11/O11-1</f>
+        <v>2.6113422828660138E-2</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="96"/>
-        <v>0.11002640453469192</v>
+        <f t="shared" si="109"/>
+        <v>4.1617708258592234E-2</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="96"/>
-        <v>0.10828185607595664</v>
+        <f t="shared" si="109"/>
+        <v>4.9233051583396081E-2</v>
       </c>
       <c r="V27" s="16">
         <f>V11/R11-1</f>
-        <v>0.10659793814432983</v>
+        <v>4.9134231011992435E-2</v>
       </c>
       <c r="AA27" s="18">
-        <f>AA11/Z11-1</f>
+        <f t="shared" ref="AA27:AJ27" si="110">AA11/Z11-1</f>
         <v>0.2059123786355046</v>
       </c>
       <c r="AB27" s="18">
-        <f>AB11/AA11-1</f>
+        <f t="shared" si="110"/>
         <v>0.18880023055170292</v>
       </c>
       <c r="AC27" s="18">
-        <f>AC11/AB11-1</f>
+        <f t="shared" si="110"/>
         <v>0.13617975485219924</v>
       </c>
       <c r="AD27" s="18">
-        <f>AD11/AC11-1</f>
+        <f t="shared" si="110"/>
         <v>0.20380322447292265</v>
       </c>
       <c r="AE27" s="18">
-        <f>AE11/AD11-1</f>
+        <f t="shared" si="110"/>
         <v>0.22801090038993266</v>
       </c>
       <c r="AF27" s="18">
-        <f>AF11/AE11-1</f>
+        <f t="shared" si="110"/>
         <v>0.23421586757475987</v>
       </c>
       <c r="AG27" s="18">
-        <f>AG11/AF11-1</f>
+        <f t="shared" si="110"/>
         <v>0.18300089899794614</v>
       </c>
       <c r="AH27" s="18">
-        <f>AH11/AG11-1</f>
+        <f t="shared" si="110"/>
         <v>0.12770532012826141</v>
       </c>
       <c r="AI27" s="18">
-        <f>AI11/AH11-1</f>
+        <f t="shared" si="110"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="AJ27" s="18">
-        <f>AJ11/AI11-1</f>
+        <f t="shared" si="110"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="AK27" s="18">
-        <f t="shared" ref="AK27:AR27" si="97">AK11/AJ11-1</f>
+        <f t="shared" ref="AK27:AR27" si="111">AK11/AJ11-1</f>
         <v>9.9438826740584574E-2</v>
       </c>
       <c r="AL27" s="18">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>0.11590861782999839</v>
       </c>
       <c r="AM27" s="18">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>0.11152619526934493</v>
       </c>
       <c r="AN27" s="18">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>0.11781371393947904</v>
       </c>
       <c r="AO27" s="18">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>0.12472714817761998</v>
       </c>
       <c r="AP27" s="18">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>0.10893235849757321</v>
       </c>
       <c r="AQ27" s="18">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>0.11180845813012263</v>
       </c>
       <c r="AR27" s="18">
-        <f t="shared" si="97"/>
+        <f t="shared" si="111"/>
         <v>0.11473876239429304</v>
       </c>
       <c r="AT27" s="18" t="s">
@@ -4203,10 +4523,15 @@
       <c r="R28" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S28" s="16"/>
+      <c r="S28" s="16">
+        <v>0.06</v>
+      </c>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
+      <c r="AJ28" s="18">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="AT28" s="18" t="s">
         <v>73</v>
       </c>
@@ -4227,19 +4552,19 @@
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15">
-        <f t="shared" ref="K29" si="98">+K9/G9-1</f>
+        <f t="shared" ref="K29" si="112">+K9/G9-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" ref="L29:N29" si="99">+L9/H9-1</f>
+        <f t="shared" ref="L29:N29" si="113">+L9/H9-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="113"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="99"/>
+        <f t="shared" si="113"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O29" s="15">
@@ -4258,28 +4583,40 @@
         <f>+R9/N9-1</f>
         <v>-1.6096625943973542E-2</v>
       </c>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
+      <c r="S29" s="15">
+        <f t="shared" ref="S29:V29" si="114">+S9/O9-1</f>
+        <v>1.8703619566863505E-2</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" si="114"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="114"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="114"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
       <c r="AF29" s="5">
-        <f t="shared" ref="AF29:AJ29" si="100">+AF9/AE9-1</f>
+        <f t="shared" ref="AF29:AJ29" si="115">+AF9/AE9-1</f>
         <v>0.22181318130380601</v>
       </c>
       <c r="AG29" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="115"/>
         <v>0.15028840742824978</v>
       </c>
       <c r="AH29" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="115"/>
         <v>6.0612546501554343E-2</v>
       </c>
       <c r="AI29" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="115"/>
         <v>0.43136783840402826</v>
       </c>
       <c r="AJ29" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="115"/>
         <v>9.0627118985438182E-2</v>
       </c>
       <c r="AK29" s="5">
@@ -4287,31 +4624,31 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" ref="AL29:AR29" si="101">+AL9/AK9-1</f>
+        <f t="shared" ref="AL29:AR29" si="116">+AL9/AK9-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AN29" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AO29" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AP29" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ29" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AR29" s="15">
-        <f t="shared" si="101"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AT29" s="5" t="s">
@@ -4334,55 +4671,67 @@
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15">
-        <f t="shared" ref="K30" si="102">+K8/G8-1</f>
+        <f t="shared" ref="K30" si="117">+K8/G8-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" ref="L30:Q30" si="103">+L8/H8-1</f>
+        <f t="shared" ref="L30:Q30" si="118">+L8/H8-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="118"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="118"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="118"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="118"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="103"/>
+        <f t="shared" si="118"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="R30" s="15">
         <f>+R8/N8-1</f>
         <v>-7.7609174099386058E-2</v>
       </c>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
+      <c r="S30" s="15">
+        <f t="shared" ref="S30:V30" si="119">+S8/O8-1</f>
+        <v>-2.5622361333527466E-2</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="119"/>
+        <v>-9.9999999999998979E-3</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" si="119"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="119"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
       <c r="AF30" s="5">
-        <f t="shared" ref="AF30:AI30" si="104">+AF8/AE8-1</f>
+        <f t="shared" ref="AF30:AI30" si="120">+AF8/AE8-1</f>
         <v>0.36871165644171788</v>
       </c>
       <c r="AG30" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="120"/>
         <v>0.35804571940833707</v>
       </c>
       <c r="AH30" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="120"/>
         <v>0.30516865799722748</v>
       </c>
       <c r="AI30" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="120"/>
         <v>0.45888124620675708</v>
       </c>
       <c r="AJ30" s="5">
@@ -4394,31 +4743,31 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AL30" s="15">
-        <f t="shared" ref="AL30:AR30" si="105">+AL8/AK8-1</f>
+        <f t="shared" ref="AL30:AR30" si="121">+AL8/AK8-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AM30" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="121"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AN30" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="121"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AO30" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="121"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AP30" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="121"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AQ30" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="121"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AR30" s="15">
-        <f t="shared" si="105"/>
+        <f t="shared" si="121"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AT30" s="5" t="s">
@@ -4426,7 +4775,7 @@
       </c>
       <c r="AU30" s="3">
         <f>NPV(AU28,AK23:CW23)+Main!L5-Main!L6</f>
-        <v>2137013.8680530442</v>
+        <v>2134541.8680530442</v>
       </c>
     </row>
     <row r="31" spans="2:101" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4442,19 +4791,19 @@
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15">
-        <f t="shared" ref="K31" si="106">K10/G10-1</f>
+        <f t="shared" ref="K31" si="122">K10/G10-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" ref="L31" si="107">L10/H10-1</f>
+        <f t="shared" ref="L31" si="123">L10/H10-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" ref="M31" si="108">M10/I10-1</f>
+        <f t="shared" ref="M31" si="124">M10/I10-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" ref="N31" si="109">N10/J10-1</f>
+        <f t="shared" ref="N31" si="125">N10/J10-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O31" s="15">
@@ -4462,39 +4811,51 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" ref="P31:Q31" si="110">P10/L10-1</f>
+        <f t="shared" ref="P31:Q31" si="126">P10/L10-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="126"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="R31" s="15">
         <f>R10/N10-1</f>
         <v>-2.2507204610951015E-2</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
+      <c r="S31" s="15">
+        <f t="shared" ref="S31:V31" si="127">S10/O10-1</f>
+        <v>7.9548412285268544E-3</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" si="127"/>
+        <v>2.2156394710459715E-2</v>
+      </c>
+      <c r="U31" s="15">
+        <f t="shared" si="127"/>
+        <v>3.2246769962689603E-2</v>
+      </c>
+      <c r="V31" s="15">
+        <f t="shared" si="127"/>
+        <v>3.2593236828915906E-2</v>
+      </c>
       <c r="AF31" s="5">
-        <f t="shared" ref="AF31:AJ31" si="111">+AF10/AE10-1</f>
+        <f t="shared" ref="AF31:AJ31" si="128">+AF10/AE10-1</f>
         <v>0.22568104346846218</v>
       </c>
       <c r="AG31" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0.16319604057491333</v>
       </c>
       <c r="AH31" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0.11071957846204517</v>
       </c>
       <c r="AI31" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>0.40853915260770313</v>
       </c>
       <c r="AJ31" s="5">
-        <f t="shared" si="111"/>
+        <f t="shared" si="128"/>
         <v>6.7355986005919188E-2</v>
       </c>
       <c r="AK31" s="5">
@@ -4502,31 +4863,31 @@
         <v>7.7159919219967898E-2</v>
       </c>
       <c r="AL31" s="15">
-        <f t="shared" ref="AL31:AR31" si="112">+AL10/AK10-1</f>
+        <f t="shared" ref="AL31:AR31" si="129">+AL10/AK10-1</f>
         <v>7.8052815516631568E-2</v>
       </c>
       <c r="AM31" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>7.8926787613141869E-2</v>
       </c>
       <c r="AN31" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>7.9780908994353084E-2</v>
       </c>
       <c r="AO31" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>8.0614365686686451E-2</v>
       </c>
       <c r="AP31" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>8.1426456360157662E-2</v>
       </c>
       <c r="AQ31" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>8.2216591293572172E-2</v>
       </c>
       <c r="AR31" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="129"/>
         <v>8.2984290295815111E-2</v>
       </c>
       <c r="AT31" s="5" t="s">
@@ -4534,7 +4895,7 @@
       </c>
       <c r="AU31" s="1">
         <f>+AU30/Main!L3</f>
-        <v>166.86295526298463</v>
+        <v>164.8676811657561</v>
       </c>
     </row>
     <row r="32" spans="2:101" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -4550,19 +4911,19 @@
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15">
-        <f t="shared" ref="K32" si="113">K5/G5-1</f>
+        <f t="shared" ref="K32" si="130">K5/G5-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L32" s="15">
-        <f t="shared" ref="L32" si="114">L5/H5-1</f>
+        <f t="shared" ref="L32" si="131">L5/H5-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" ref="M32" si="115">M5/I5-1</f>
+        <f t="shared" ref="M32" si="132">M5/I5-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N32" s="15">
-        <f t="shared" ref="N32" si="116">N5/J5-1</f>
+        <f t="shared" ref="N32" si="133">N5/J5-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O32" s="15">
@@ -4570,39 +4931,51 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" ref="P32:Q32" si="117">P5/L5-1</f>
+        <f t="shared" ref="P32:Q32" si="134">P5/L5-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="R32" s="15">
         <f>R5/N5-1</f>
         <v>0.3201588160981772</v>
       </c>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
+      <c r="S32" s="15">
+        <f t="shared" ref="S32:V32" si="135">S5/O5-1</f>
+        <v>0.28053599037965982</v>
+      </c>
+      <c r="T32" s="15">
+        <f t="shared" si="135"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="U32" s="15">
+        <f t="shared" si="135"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V32" s="15">
+        <f t="shared" si="135"/>
+        <v>0.30000000000000004</v>
+      </c>
       <c r="AF32" s="5">
-        <f t="shared" ref="AF32:AJ32" si="118">+AF5/AE5-1</f>
+        <f t="shared" ref="AF32:AJ32" si="136">+AF5/AE5-1</f>
         <v>0.43934911242603558</v>
       </c>
       <c r="AG32" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="136"/>
         <v>0.52757793764988015</v>
       </c>
       <c r="AH32" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="136"/>
         <v>0.46434178066831122</v>
       </c>
       <c r="AI32" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="136"/>
         <v>0.47070985527222597</v>
       </c>
       <c r="AJ32" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="136"/>
         <v>0.36832239925023424</v>
       </c>
       <c r="AK32" s="5">
@@ -4610,31 +4983,31 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="AL32" s="15">
-        <f t="shared" ref="AL32:AR32" si="119">+AL5/AK5-1</f>
+        <f t="shared" ref="AL32:AR32" si="137">+AL5/AK5-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="AM32" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="AN32" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AO32" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AP32" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AQ32" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AR32" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -4647,19 +5020,19 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15">
-        <f t="shared" ref="G33:H33" si="120">G14/G11</f>
+        <f t="shared" ref="G33:H33" si="138">G14/G11</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" ref="I33" si="121">I14/I11</f>
+        <f t="shared" ref="I33" si="139">I14/I11</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" ref="J33" si="122">J14/J11</f>
+        <f t="shared" ref="J33" si="140">J14/J11</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="K33" s="15">
@@ -4667,63 +5040,75 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" ref="L33:O33" si="123">L14/L11</f>
+        <f t="shared" ref="L33:O33" si="141">L14/L11</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>0.57583156730857832</v>
       </c>
       <c r="N33" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>0.56205774975107869</v>
       </c>
       <c r="O33" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>0.5647909896928438</v>
       </c>
       <c r="P33" s="15">
-        <f t="shared" ref="P33:Q33" si="124">P14/P11</f>
+        <f t="shared" ref="P33:Q33" si="142">P14/P11</f>
         <v>0.56799885197675248</v>
       </c>
       <c r="Q33" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="142"/>
         <v>0.54903606785156023</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="15">
         <f>R14/R11</f>
         <v>0.53526719966337055</v>
       </c>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
+      <c r="S33" s="15">
+        <f t="shared" ref="S33:V33" si="143">S14/S11</f>
+        <v>0.56135096794531936</v>
+      </c>
+      <c r="T33" s="15">
+        <f t="shared" si="143"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U33" s="15">
+        <f t="shared" si="143"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="V33" s="15">
+        <f t="shared" si="143"/>
+        <v>0.54999999999999993</v>
+      </c>
       <c r="AB33" s="5">
-        <f t="shared" ref="AB33" si="125">AB14/AB11</f>
+        <f t="shared" ref="AB33" si="144">AB14/AB11</f>
         <v>0.6107483219951213</v>
       </c>
       <c r="AC33" s="5">
-        <f t="shared" ref="AC33" si="126">AC14/AC11</f>
+        <f t="shared" ref="AC33" si="145">AC14/AC11</f>
         <v>0.62442491565429592</v>
       </c>
       <c r="AD33" s="5">
-        <f t="shared" ref="AD33:AE33" si="127">AD14/AD11</f>
+        <f t="shared" ref="AD33:AE33" si="146">AD14/AD11</f>
         <v>0.61075416518964909</v>
       </c>
       <c r="AE33" s="5">
-        <f t="shared" si="127"/>
+        <f t="shared" si="146"/>
         <v>0.58880519597672631</v>
       </c>
       <c r="AF33" s="5">
-        <f t="shared" ref="AF33:AH33" si="128">AF14/AF11</f>
+        <f t="shared" ref="AF33:AH33" si="147">AF14/AF11</f>
         <v>0.5647607422945643</v>
       </c>
       <c r="AG33" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="147"/>
         <v>0.5558054331910266</v>
       </c>
       <c r="AH33" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="147"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="AI33" s="5">
@@ -4735,35 +5120,35 @@
         <v>0.55379442503783116</v>
       </c>
       <c r="AK33" s="5">
-        <f t="shared" ref="AJ33:AK33" si="129">AK14/AK11</f>
+        <f t="shared" ref="AK33" si="148">AK14/AK11</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AL33" s="15">
-        <f t="shared" ref="AL33:AR33" si="130">AL14/AL11</f>
+        <f t="shared" ref="AL33:AR33" si="149">AL14/AL11</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AM33" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AN33" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AO33" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AP33" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AQ33" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AR33" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -4776,7 +5161,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
-        <f t="shared" ref="G34" si="131">+G22/G21</f>
+        <f t="shared" ref="G34" si="150">+G22/G21</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H34" s="15">
@@ -4784,79 +5169,91 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" ref="I34:Q34" si="132">+I22/I21</f>
+        <f t="shared" ref="I34:Q34" si="151">+I22/I21</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.16</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O34" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P34" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q34" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="R34" s="15">
         <f>+R22/R21</f>
         <v>0.20545868081880211</v>
       </c>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
+      <c r="S34" s="15">
+        <f t="shared" ref="S34:V34" si="152">+S22/S21</f>
+        <v>0.17324910738808019</v>
+      </c>
+      <c r="T34" s="15">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="U34" s="15">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
+      <c r="V34" s="15">
+        <f t="shared" si="152"/>
+        <v>0.2</v>
+      </c>
       <c r="AB34" s="15">
-        <f t="shared" ref="AB34" si="133">+AB22/AB21</f>
+        <f t="shared" ref="AB34" si="153">+AB22/AB21</f>
         <v>0.21084651486181122</v>
       </c>
       <c r="AC34" s="15">
-        <f t="shared" ref="AC34" si="134">+AC22/AC21</f>
+        <f t="shared" ref="AC34" si="154">+AC22/AC21</f>
         <v>0.16808304920869166</v>
       </c>
       <c r="AD34" s="15">
-        <f t="shared" ref="AD34:AE34" si="135">+AD22/AD21</f>
+        <f t="shared" ref="AD34:AE34" si="155">+AD22/AD21</f>
         <v>0.19345755693581781</v>
       </c>
       <c r="AE34" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="155"/>
         <v>0.48551572053860803</v>
       </c>
       <c r="AF34" s="15">
-        <f t="shared" ref="AF34:AH34" si="136">+AF22/AF21</f>
+        <f t="shared" ref="AF34:AH34" si="156">+AF22/AF21</f>
         <v>0.10446678671468587</v>
       </c>
       <c r="AG34" s="15">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>0.12782537147282319</v>
       </c>
       <c r="AH34" s="15">
-        <f t="shared" si="136"/>
+        <f t="shared" si="156"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="AI34" s="15">
-        <f t="shared" ref="AI34:AK34" si="137">+AI22/AI21</f>
+        <f t="shared" ref="AI34:AK34" si="157">+AI22/AI21</f>
         <v>0.16202305640663919</v>
       </c>
       <c r="AJ34" s="15">
@@ -4864,35 +5261,35 @@
         <v>0.1592081650964558</v>
       </c>
       <c r="AK34" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="157"/>
         <v>0.18</v>
       </c>
       <c r="AL34" s="15">
-        <f t="shared" ref="AL34:AR34" si="138">+AL22/AL21</f>
+        <f t="shared" ref="AL34:AR34" si="158">+AL22/AL21</f>
         <v>0.18</v>
       </c>
       <c r="AM34" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
       <c r="AN34" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
       <c r="AO34" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
       <c r="AP34" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="158"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="AQ34" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
       <c r="AR34" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
     </row>
@@ -4905,15 +5302,15 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15">
-        <f t="shared" ref="G35:H35" si="139">G9/G11</f>
+        <f t="shared" ref="G35:H35" si="159">G9/G11</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="159"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" ref="I35" si="140">I9/I11</f>
+        <f t="shared" ref="I35" si="160">I9/I11</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J35" s="15">
@@ -4921,211 +5318,265 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" ref="K35:O35" si="141">K9/K11</f>
+        <f t="shared" ref="K35:O35" si="161">K9/K11</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="161"/>
         <v>0.57926632191338079</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="161"/>
         <v>0.58241960748180222</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="161"/>
         <v>0.5748556256223033</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="161"/>
         <v>0.58252341532987306</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" ref="P35:Q35" si="142">P9/P11</f>
+        <f t="shared" ref="P35:Q35" si="162">P9/P11</f>
         <v>0.58389897395422252</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="162"/>
         <v>0.57226596422161757</v>
       </c>
       <c r="R35" s="15">
         <f>R9/R11</f>
         <v>0.56022512097622557</v>
       </c>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
+      <c r="S35" s="15">
+        <f t="shared" ref="S35:V35" si="163">S9/S11</f>
+        <v>0.57831687850172664</v>
+      </c>
+      <c r="T35" s="15">
+        <f t="shared" si="163"/>
+        <v>0.57738644265016814</v>
+      </c>
+      <c r="U35" s="15">
+        <f t="shared" si="163"/>
+        <v>0.56177599653265986</v>
+      </c>
+      <c r="V35" s="15">
+        <f t="shared" si="163"/>
+        <v>0.55000767065707956</v>
+      </c>
       <c r="AH35" s="15">
-        <f t="shared" ref="AH35:AK35" si="143">AH9/AH11</f>
+        <f t="shared" ref="AH35:AK35" si="164">AH9/AH11</f>
         <v>0.57011839344316184</v>
       </c>
       <c r="AI35" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="164"/>
         <v>0.57814289096674776</v>
       </c>
       <c r="AJ35" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="164"/>
         <v>0.57436111386103605</v>
       </c>
       <c r="AK35" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="164"/>
         <v>0.57465427805581204</v>
       </c>
       <c r="AL35" s="15">
-        <f t="shared" ref="AL35:AR35" si="144">AL9/AL11</f>
+        <f t="shared" ref="AL35:AR35" si="165">AL9/AL11</f>
         <v>0.56646189101990851</v>
       </c>
       <c r="AM35" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="165"/>
         <v>0.56058785008742684</v>
       </c>
       <c r="AN35" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="165"/>
         <v>0.55165420445857594</v>
       </c>
       <c r="AO35" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="165"/>
         <v>0.53952607606889824</v>
       </c>
       <c r="AP35" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="165"/>
         <v>0.53518023811646842</v>
       </c>
       <c r="AQ35" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="165"/>
         <v>0.52949611745013003</v>
       </c>
       <c r="AR35" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="165"/>
         <v>0.52249526870684604</v>
       </c>
     </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
+    <row r="36" spans="2:44" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15">
+        <f t="shared" ref="G36:J36" si="166">(G9+G8+G7)/G11</f>
+        <v>0.82030661580699238</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="166"/>
+        <v>0.7798783194506097</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="166"/>
+        <v>0.80339159248911707</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="166"/>
+        <v>0.81196175612499566</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" ref="K36:Q36" si="167">(K9+K8+K7)/K11</f>
+        <v>0.80782442058068482</v>
+      </c>
+      <c r="L36" s="15">
+        <f t="shared" si="167"/>
+        <v>0.81519069166127989</v>
+      </c>
+      <c r="M36" s="15">
+        <f t="shared" si="167"/>
+        <v>0.81590343683774069</v>
+      </c>
+      <c r="N36" s="15">
+        <f t="shared" si="167"/>
+        <v>0.81299701294390969</v>
+      </c>
+      <c r="O36" s="15">
+        <f t="shared" si="167"/>
+        <v>0.80370822366970052</v>
+      </c>
+      <c r="P36" s="15">
+        <f t="shared" si="167"/>
+        <v>0.80774915692042759</v>
+      </c>
+      <c r="Q36" s="15">
+        <f t="shared" si="167"/>
+        <v>0.78854281248190816</v>
+      </c>
+      <c r="R36" s="15">
+        <f>(R9+R8+R7)/R11</f>
+        <v>0.77637807700399752</v>
+      </c>
+      <c r="S36" s="15">
+        <f t="shared" ref="S36:V36" si="168">(S9+S8+S7)/S11</f>
+        <v>0.78163554816799685</v>
+      </c>
+      <c r="T36" s="15">
+        <f t="shared" si="168"/>
+        <v>0.79014365614554927</v>
+      </c>
+      <c r="U36" s="15">
+        <f t="shared" si="168"/>
+        <v>0.77408836447791729</v>
+      </c>
+      <c r="V36" s="15">
+        <f t="shared" si="168"/>
+        <v>0.76221840416240938</v>
+      </c>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+    </row>
+    <row r="38" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="11">
-        <f>+G38-G56</f>
+      <c r="G38" s="11">
+        <f>+G39-G57</f>
         <v>124580</v>
       </c>
-      <c r="N37" s="11">
-        <f t="shared" ref="N37:O37" si="145">+N38-N56</f>
+      <c r="N38" s="11">
+        <f t="shared" ref="N38:O38" si="169">+N39-N57</f>
         <v>154381</v>
       </c>
-      <c r="O37" s="11">
-        <f t="shared" si="145"/>
+      <c r="O38" s="11">
+        <f t="shared" si="169"/>
         <v>149723</v>
       </c>
-      <c r="P37" s="11">
-        <f>+P38-P56</f>
+      <c r="P38" s="11">
+        <f>+P39-P57</f>
         <v>140928</v>
       </c>
-      <c r="Q37" s="11">
-        <f>+Q38-Q56</f>
+      <c r="Q38" s="11">
+        <f>+Q39-Q57</f>
         <v>132025</v>
       </c>
-      <c r="R37" s="11">
-        <f>+R38-R56</f>
+      <c r="R38" s="11">
+        <f>+R39-R57</f>
         <v>129553</v>
-      </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="AD37" s="3">
-        <v>72053</v>
-      </c>
-      <c r="AJ37" s="3">
-        <f>+R37</f>
-        <v>129553</v>
-      </c>
-      <c r="AK37" s="3">
-        <f>+AJ37+AK23</f>
-        <v>202986.519696</v>
-      </c>
-      <c r="AL37" s="3">
-        <f t="shared" ref="AL37:AR37" si="146">+AK37+AL23</f>
-        <v>290052.05833486724</v>
-      </c>
-      <c r="AM37" s="3">
-        <f t="shared" si="146"/>
-        <v>391905.42938148277</v>
-      </c>
-      <c r="AN37" s="3">
-        <f t="shared" si="146"/>
-        <v>511578.58854282054</v>
-      </c>
-      <c r="AO37" s="3">
-        <f t="shared" si="146"/>
-        <v>652850.66423680889</v>
-      </c>
-      <c r="AP37" s="3">
-        <f t="shared" si="146"/>
-        <v>815257.82429385802</v>
-      </c>
-      <c r="AQ37" s="3">
-        <f t="shared" si="146"/>
-        <v>1002111.9077416592</v>
-      </c>
-      <c r="AR37" s="3">
-        <f t="shared" si="146"/>
-        <v>1217280.1040730444</v>
-      </c>
-    </row>
-    <row r="38" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
-        <f>117229+12367</f>
-        <v>129596</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11">
-        <f>20945+118704+29549</f>
-        <v>169198</v>
-      </c>
-      <c r="O38" s="11">
-        <f>20886+113084+30544</f>
-        <v>164514</v>
-      </c>
-      <c r="P38" s="11">
-        <f>124997+30665</f>
-        <v>155662</v>
-      </c>
-      <c r="Q38" s="11">
-        <f>21984+94275+30419</f>
-        <v>146678</v>
-      </c>
-      <c r="R38" s="11">
-        <f>113762+30492</f>
-        <v>144254</v>
       </c>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
+      <c r="AD38" s="3">
+        <v>72053</v>
+      </c>
+      <c r="AJ38" s="3">
+        <f>+R38</f>
+        <v>129553</v>
+      </c>
+      <c r="AK38" s="3">
+        <f>+AJ38+AK23</f>
+        <v>202986.519696</v>
+      </c>
+      <c r="AL38" s="3">
+        <f t="shared" ref="AL38:AR38" si="170">+AK38+AL23</f>
+        <v>290052.05833486724</v>
+      </c>
+      <c r="AM38" s="3">
+        <f t="shared" si="170"/>
+        <v>391905.42938148277</v>
+      </c>
+      <c r="AN38" s="3">
+        <f t="shared" si="170"/>
+        <v>511578.58854282054</v>
+      </c>
+      <c r="AO38" s="3">
+        <f t="shared" si="170"/>
+        <v>652850.66423680889</v>
+      </c>
+      <c r="AP38" s="3">
+        <f t="shared" si="170"/>
+        <v>815257.82429385802</v>
+      </c>
+      <c r="AQ38" s="3">
+        <f t="shared" si="170"/>
+        <v>1002111.9077416592</v>
+      </c>
+      <c r="AR38" s="3">
+        <f t="shared" si="170"/>
+        <v>1217280.1040730444</v>
+      </c>
     </row>
     <row r="39" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11">
-        <v>21825</v>
+        <f>117229+12367</f>
+        <v>129596</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -5134,19 +5585,24 @@
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11">
-        <v>39304</v>
+        <f>20945+118704+29549</f>
+        <v>169198</v>
       </c>
       <c r="O39" s="11">
-        <v>34703</v>
+        <f>20886+113084+30544</f>
+        <v>164514</v>
       </c>
       <c r="P39" s="11">
-        <v>35707</v>
+        <f>124997+30665</f>
+        <v>155662</v>
       </c>
       <c r="Q39" s="11">
-        <v>34697</v>
+        <f>21984+94275+30419</f>
+        <v>146678</v>
       </c>
       <c r="R39" s="11">
-        <v>40258</v>
+        <f>113762+30492</f>
+        <v>144254</v>
       </c>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
@@ -5155,14 +5611,14 @@
     </row>
     <row r="40" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11">
-        <v>1910</v>
+        <v>21825</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -5171,19 +5627,19 @@
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11">
-        <v>966</v>
+        <v>39304</v>
       </c>
       <c r="O40" s="11">
-        <v>919</v>
+        <v>34703</v>
       </c>
       <c r="P40" s="11">
-        <v>1366</v>
+        <v>35707</v>
       </c>
       <c r="Q40" s="11">
-        <v>1479</v>
+        <v>34697</v>
       </c>
       <c r="R40" s="11">
-        <v>0</v>
+        <v>40258</v>
       </c>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
@@ -5192,14 +5648,14 @@
     </row>
     <row r="41" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11">
-        <v>889</v>
+        <v>1910</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -5208,19 +5664,19 @@
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11">
-        <v>1170</v>
+        <v>966</v>
       </c>
       <c r="O41" s="11">
-        <v>1369</v>
+        <v>919</v>
       </c>
       <c r="P41" s="11">
-        <v>1980</v>
+        <v>1366</v>
       </c>
       <c r="Q41" s="11">
-        <v>3156</v>
+        <v>1479</v>
       </c>
       <c r="R41" s="11">
-        <v>2670</v>
+        <v>0</v>
       </c>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
@@ -5229,14 +5685,14 @@
     </row>
     <row r="42" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11">
-        <v>5165</v>
+        <v>889</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -5245,46 +5701,56 @@
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11">
-        <v>7054</v>
+        <v>1170</v>
       </c>
       <c r="O42" s="11">
-        <v>6892</v>
+        <v>1369</v>
       </c>
       <c r="P42" s="11">
-        <v>8321</v>
+        <v>1980</v>
       </c>
       <c r="Q42" s="11">
-        <v>10518</v>
+        <v>3156</v>
       </c>
       <c r="R42" s="11">
-        <v>8105</v>
+        <v>2670</v>
       </c>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
     </row>
-    <row r="43" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="11">
-        <v>730</v>
-      </c>
+        <v>5165</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
       <c r="N43" s="11">
-        <v>1284</v>
-      </c>
-      <c r="O43" s="2">
-        <v>1388</v>
+        <v>7054</v>
+      </c>
+      <c r="O43" s="11">
+        <v>6892</v>
       </c>
       <c r="P43" s="11">
-        <v>1490</v>
+        <v>8321</v>
       </c>
       <c r="Q43" s="11">
-        <v>2991</v>
+        <v>10518</v>
       </c>
       <c r="R43" s="11">
-        <v>5261</v>
+        <v>8105</v>
       </c>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
@@ -5293,25 +5759,25 @@
     </row>
     <row r="44" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44" s="11">
-        <v>76747</v>
+        <v>730</v>
       </c>
       <c r="N44" s="11">
-        <v>97599</v>
+        <v>1284</v>
       </c>
       <c r="O44" s="2">
-        <v>104218</v>
+        <v>1388</v>
       </c>
       <c r="P44" s="11">
-        <v>106223</v>
+        <v>1490</v>
       </c>
       <c r="Q44" s="11">
-        <v>108363</v>
+        <v>2991</v>
       </c>
       <c r="R44" s="11">
-        <v>112668</v>
+        <v>5261</v>
       </c>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -5320,25 +5786,25 @@
     </row>
     <row r="45" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G45" s="11">
-        <v>11219</v>
+        <v>76747</v>
       </c>
       <c r="N45" s="11">
-        <v>12959</v>
+        <v>97599</v>
       </c>
       <c r="O45" s="2">
-        <v>12992</v>
+        <v>104218</v>
       </c>
       <c r="P45" s="11">
-        <v>13398</v>
+        <v>106223</v>
       </c>
       <c r="Q45" s="11">
-        <v>13677</v>
+        <v>108363</v>
       </c>
       <c r="R45" s="11">
-        <v>14381</v>
+        <v>112668</v>
       </c>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
@@ -5347,31 +5813,25 @@
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G46" s="11">
-        <f>1840+20734</f>
-        <v>22574</v>
+        <v>11219</v>
       </c>
       <c r="N46" s="11">
-        <f>1417+22956</f>
-        <v>24373</v>
+        <v>12959</v>
       </c>
       <c r="O46" s="2">
-        <f>1313+23010</f>
-        <v>24323</v>
+        <v>12992</v>
       </c>
       <c r="P46" s="11">
-        <f>1377+23949</f>
-        <v>25326</v>
+        <v>13398</v>
       </c>
       <c r="Q46" s="11">
-        <f>28834+2192</f>
-        <v>31026</v>
+        <v>13677</v>
       </c>
       <c r="R46" s="11">
-        <f>2084+28960</f>
-        <v>31044</v>
+        <v>14381</v>
       </c>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
@@ -5380,25 +5840,31 @@
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G47" s="11">
-        <v>2748</v>
+        <f>1840+20734</f>
+        <v>22574</v>
       </c>
       <c r="N47" s="11">
-        <v>5361</v>
+        <f>1417+22956</f>
+        <v>24373</v>
       </c>
       <c r="O47" s="2">
-        <v>5778</v>
+        <f>1313+23010</f>
+        <v>24323</v>
       </c>
       <c r="P47" s="11">
-        <v>5712</v>
+        <f>1377+23949</f>
+        <v>25326</v>
       </c>
       <c r="Q47" s="11">
-        <v>5670</v>
+        <f>28834+2192</f>
+        <v>31026</v>
       </c>
       <c r="R47" s="11">
-        <v>6623</v>
+        <f>2084+28960</f>
+        <v>31044</v>
       </c>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
@@ -5407,31 +5873,25 @@
     </row>
     <row r="48" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G48" s="11">
-        <f>SUM(G38:G47)</f>
-        <v>273403</v>
+        <v>2748</v>
       </c>
       <c r="N48" s="11">
-        <f>SUM(N38:N47)</f>
-        <v>359268</v>
-      </c>
-      <c r="O48" s="11">
-        <f>SUM(O38:O47)</f>
-        <v>357096</v>
+        <v>5361</v>
+      </c>
+      <c r="O48" s="2">
+        <v>5778</v>
       </c>
       <c r="P48" s="11">
-        <f>SUM(P38:P47)</f>
-        <v>355185</v>
+        <v>5712</v>
       </c>
       <c r="Q48" s="11">
-        <f>SUM(Q38:Q47)</f>
-        <v>358255</v>
+        <v>5670</v>
       </c>
       <c r="R48" s="11">
-        <f>SUM(R38:R47)</f>
-        <v>365264</v>
+        <v>6623</v>
       </c>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
@@ -5439,38 +5899,44 @@
       <c r="V48" s="11"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="G49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
+      <c r="B49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="11">
+        <f>SUM(G39:G48)</f>
+        <v>273403</v>
+      </c>
+      <c r="N49" s="11">
+        <f>SUM(N39:N48)</f>
+        <v>359268</v>
+      </c>
+      <c r="O49" s="11">
+        <f>SUM(O39:O48)</f>
+        <v>357096</v>
+      </c>
+      <c r="P49" s="11">
+        <f>SUM(P39:P48)</f>
+        <v>355185</v>
+      </c>
+      <c r="Q49" s="11">
+        <f>SUM(Q39:Q48)</f>
+        <v>358255</v>
+      </c>
+      <c r="R49" s="11">
+        <f>SUM(R39:R48)</f>
+        <v>365264</v>
+      </c>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="11">
-        <v>4099</v>
-      </c>
-      <c r="N50" s="11">
-        <v>6037</v>
-      </c>
-      <c r="O50" s="11">
-        <v>3436</v>
-      </c>
-      <c r="P50" s="11">
-        <v>4409</v>
-      </c>
-      <c r="Q50" s="11">
-        <v>6303</v>
-      </c>
-      <c r="R50" s="11">
-        <v>5128</v>
-      </c>
+      <c r="B50" s="3"/>
+      <c r="G50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
@@ -5478,25 +5944,25 @@
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="11">
-        <v>5656</v>
+        <v>4099</v>
       </c>
       <c r="N51" s="11">
-        <v>13889</v>
+        <v>6037</v>
       </c>
       <c r="O51" s="11">
-        <v>9803</v>
+        <v>3436</v>
       </c>
       <c r="P51" s="11">
-        <v>10852</v>
+        <v>4409</v>
       </c>
       <c r="Q51" s="11">
-        <v>12366</v>
+        <v>6303</v>
       </c>
       <c r="R51" s="11">
-        <v>14028</v>
+        <v>5128</v>
       </c>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
@@ -5505,25 +5971,25 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="11">
-        <v>22601</v>
+        <v>5656</v>
       </c>
       <c r="N52" s="11">
-        <v>31236</v>
+        <v>13889</v>
       </c>
       <c r="O52" s="11">
-        <v>33051</v>
+        <v>9803</v>
       </c>
       <c r="P52" s="11">
-        <v>32976</v>
+        <v>10852</v>
       </c>
       <c r="Q52" s="11">
-        <v>35038</v>
+        <v>12366</v>
       </c>
       <c r="R52" s="11">
-        <v>37866</v>
+        <v>14028</v>
       </c>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
@@ -5532,25 +5998,25 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="11">
-        <v>4982</v>
+        <v>22601</v>
       </c>
       <c r="N53" s="11">
-        <v>8996</v>
+        <v>31236</v>
       </c>
       <c r="O53" s="11">
-        <v>8116</v>
+        <v>33051</v>
       </c>
       <c r="P53" s="11">
-        <v>7889</v>
+        <v>32976</v>
       </c>
       <c r="Q53" s="11">
-        <v>7662</v>
+        <v>35038</v>
       </c>
       <c r="R53" s="11">
-        <v>8370</v>
+        <v>37866</v>
       </c>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
@@ -5559,31 +6025,25 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="11">
-        <f>1938+350</f>
-        <v>2288</v>
+        <v>4982</v>
       </c>
       <c r="N54" s="11">
-        <f>3288+535</f>
-        <v>3823</v>
+        <v>8996</v>
       </c>
       <c r="O54" s="11">
-        <f>3198+499</f>
-        <v>3697</v>
+        <v>8116</v>
       </c>
       <c r="P54" s="11">
-        <f>3272+472</f>
-        <v>3744</v>
+        <v>7889</v>
       </c>
       <c r="Q54" s="11">
-        <f>3585+594</f>
-        <v>4179</v>
+        <v>7662</v>
       </c>
       <c r="R54" s="11">
-        <f>3908+599</f>
-        <v>4507</v>
+        <v>8370</v>
       </c>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
@@ -5592,31 +6052,31 @@
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G55" s="11">
-        <f>9207+913+2079</f>
-        <v>12199</v>
+        <f>1938+350</f>
+        <v>2288</v>
       </c>
       <c r="N55" s="11">
-        <f>808+9176+5257</f>
-        <v>15241</v>
+        <f>3288+535</f>
+        <v>3823</v>
       </c>
       <c r="O55" s="11">
-        <f>4344+9406+2843</f>
-        <v>16593</v>
+        <f>3198+499</f>
+        <v>3697</v>
       </c>
       <c r="P55" s="11">
-        <f>1956+8163+924</f>
-        <v>11043</v>
+        <f>3272+472</f>
+        <v>3744</v>
       </c>
       <c r="Q55" s="11">
-        <f>1025+8572+476</f>
-        <v>10073</v>
+        <f>3585+594</f>
+        <v>4179</v>
       </c>
       <c r="R55" s="11">
-        <f>9258+514</f>
-        <v>9772</v>
+        <f>3908+599</f>
+        <v>4507</v>
       </c>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
@@ -5625,25 +6085,31 @@
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G56" s="11">
-        <v>5016</v>
+        <f>9207+913+2079</f>
+        <v>12199</v>
       </c>
       <c r="N56" s="11">
-        <v>14817</v>
+        <f>808+9176+5257</f>
+        <v>15241</v>
       </c>
       <c r="O56" s="11">
-        <v>14791</v>
+        <f>4344+9406+2843</f>
+        <v>16593</v>
       </c>
       <c r="P56" s="11">
-        <v>14734</v>
+        <f>1956+8163+924</f>
+        <v>11043</v>
       </c>
       <c r="Q56" s="11">
-        <v>14653</v>
+        <f>1025+8572+476</f>
+        <v>10073</v>
       </c>
       <c r="R56" s="11">
-        <v>14701</v>
+        <f>9258+514</f>
+        <v>9772</v>
       </c>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
@@ -5652,25 +6118,25 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="G57" s="11">
-        <v>10476</v>
+        <v>5016</v>
       </c>
       <c r="N57" s="11">
-        <v>11389</v>
+        <v>14817</v>
       </c>
       <c r="O57" s="11">
-        <v>11363</v>
+        <v>14791</v>
       </c>
       <c r="P57" s="11">
-        <v>11697</v>
+        <v>14734</v>
       </c>
       <c r="Q57" s="11">
-        <v>11984</v>
+        <v>14653</v>
       </c>
       <c r="R57" s="11">
-        <v>12501</v>
+        <v>14701</v>
       </c>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
@@ -5679,25 +6145,25 @@
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G58" s="11">
-        <v>2427</v>
+        <v>10476</v>
       </c>
       <c r="N58" s="11">
-        <v>2205</v>
+        <v>11389</v>
       </c>
       <c r="O58" s="11">
-        <v>2242</v>
+        <v>11363</v>
       </c>
       <c r="P58" s="11">
-        <v>2422</v>
+        <v>11697</v>
       </c>
       <c r="Q58" s="11">
-        <v>2371</v>
+        <v>11984</v>
       </c>
       <c r="R58" s="11">
-        <v>2247</v>
+        <v>12501</v>
       </c>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
@@ -5706,25 +6172,25 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G59" s="11">
-        <v>203659</v>
+        <v>2427</v>
       </c>
       <c r="N59" s="11">
-        <v>251635</v>
+        <v>2205</v>
       </c>
       <c r="O59" s="11">
-        <v>254004</v>
+        <v>2242</v>
       </c>
       <c r="P59" s="11">
-        <v>255419</v>
+        <v>2422</v>
       </c>
       <c r="Q59" s="11">
-        <v>253626</v>
+        <v>2371</v>
       </c>
       <c r="R59" s="11">
-        <v>256144</v>
+        <v>2247</v>
       </c>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -5733,131 +6199,121 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G60" s="11">
-        <f>SUM(G50:G59)</f>
-        <v>273403</v>
+        <v>203659</v>
       </c>
       <c r="N60" s="11">
-        <f>SUM(N50:N59)</f>
-        <v>359268</v>
+        <v>251635</v>
       </c>
       <c r="O60" s="11">
-        <f>SUM(O50:O59)</f>
-        <v>357096</v>
+        <v>254004</v>
       </c>
       <c r="P60" s="11">
-        <f>SUM(P50:P59)</f>
-        <v>355185</v>
+        <v>255419</v>
       </c>
       <c r="Q60" s="11">
-        <f>SUM(Q50:Q59)</f>
-        <v>358255</v>
+        <v>253626</v>
       </c>
       <c r="R60" s="11">
-        <f>SUM(R50:R59)</f>
-        <v>365264</v>
+        <v>256144</v>
       </c>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
     </row>
-    <row r="62" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="3" t="s">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="11">
+        <f>SUM(G51:G60)</f>
+        <v>273403</v>
+      </c>
+      <c r="N61" s="11">
+        <f>SUM(N51:N60)</f>
+        <v>359268</v>
+      </c>
+      <c r="O61" s="11">
+        <f>SUM(O51:O60)</f>
+        <v>357096</v>
+      </c>
+      <c r="P61" s="11">
+        <f>SUM(P51:P60)</f>
+        <v>355185</v>
+      </c>
+      <c r="Q61" s="11">
+        <f>SUM(Q51:Q60)</f>
+        <v>358255</v>
+      </c>
+      <c r="R61" s="11">
+        <f>SUM(R51:R60)</f>
+        <v>365264</v>
+      </c>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+    </row>
+    <row r="63" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C63" s="11">
         <f>+C23</f>
         <v>8354</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11">
-        <f>+G23</f>
-        <v>6836</v>
-      </c>
-      <c r="H62" s="11">
-        <f t="shared" ref="H62:R62" si="147">+H23</f>
-        <v>6959</v>
-      </c>
-      <c r="I62" s="11">
-        <f t="shared" si="147"/>
-        <v>11247</v>
-      </c>
-      <c r="J62" s="11">
-        <f t="shared" si="147"/>
-        <v>15227</v>
-      </c>
-      <c r="K62" s="11">
-        <f t="shared" si="147"/>
-        <v>17930</v>
-      </c>
-      <c r="L62" s="11">
-        <f t="shared" si="147"/>
-        <v>18165</v>
-      </c>
-      <c r="M62" s="11">
-        <f t="shared" si="147"/>
-        <v>18936</v>
-      </c>
-      <c r="N62" s="11">
-        <f t="shared" si="147"/>
-        <v>20642</v>
-      </c>
-      <c r="O62" s="11">
-        <f t="shared" si="147"/>
-        <v>16436</v>
-      </c>
-      <c r="P62" s="11">
-        <f t="shared" si="147"/>
-        <v>16002</v>
-      </c>
-      <c r="Q62" s="11">
-        <f t="shared" si="147"/>
-        <v>13910</v>
-      </c>
-      <c r="R62" s="11">
-        <f t="shared" si="147"/>
-        <v>13624</v>
-      </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-    </row>
-    <row r="63" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="11">
-        <v>6657</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11">
+        <f>+G23</f>
         <v>6836</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
+      <c r="H63" s="11">
+        <f t="shared" ref="H63:R63" si="171">+H23</f>
+        <v>6959</v>
+      </c>
+      <c r="I63" s="11">
+        <f t="shared" si="171"/>
+        <v>11247</v>
+      </c>
+      <c r="J63" s="11">
+        <f t="shared" si="171"/>
+        <v>15227</v>
+      </c>
       <c r="K63" s="11">
+        <f t="shared" si="171"/>
         <v>17930</v>
       </c>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
+      <c r="L63" s="11">
+        <f t="shared" si="171"/>
+        <v>18165</v>
+      </c>
+      <c r="M63" s="11">
+        <f t="shared" si="171"/>
+        <v>18936</v>
+      </c>
+      <c r="N63" s="11">
+        <f t="shared" si="171"/>
+        <v>20642</v>
+      </c>
       <c r="O63" s="11">
+        <f t="shared" si="171"/>
         <v>16436</v>
       </c>
-      <c r="P63" s="11"/>
+      <c r="P63" s="11">
+        <f t="shared" si="171"/>
+        <v>16002</v>
+      </c>
       <c r="Q63" s="11">
+        <f t="shared" si="171"/>
         <v>13910</v>
       </c>
       <c r="R63" s="11">
+        <f t="shared" si="171"/>
         <v>13624</v>
       </c>
       <c r="S63" s="11"/>
@@ -5867,35 +6323,37 @@
     </row>
     <row r="64" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C64" s="11">
-        <v>2416</v>
+        <v>6657</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11">
-        <v>2899</v>
+        <v>6836</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11">
-        <v>2525</v>
+        <v>17930</v>
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
       <c r="O64" s="11">
-        <v>3591</v>
-      </c>
-      <c r="P64" s="11"/>
+        <v>16436</v>
+      </c>
+      <c r="P64" s="11">
+        <v>16002</v>
+      </c>
       <c r="Q64" s="11">
-        <v>3933</v>
+        <v>13910</v>
       </c>
       <c r="R64" s="11">
-        <v>4065</v>
+        <v>13624</v>
       </c>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
@@ -5904,35 +6362,37 @@
     </row>
     <row r="65" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C65" s="11">
-        <v>197</v>
+        <v>2416</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11">
-        <v>209</v>
+        <v>2899</v>
       </c>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11">
-        <v>228</v>
+        <v>2525</v>
       </c>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
       <c r="O65" s="11">
-        <v>191</v>
-      </c>
-      <c r="P65" s="11"/>
+        <v>3591</v>
+      </c>
+      <c r="P65" s="11">
+        <v>3698</v>
+      </c>
       <c r="Q65" s="11">
-        <v>113</v>
+        <v>3933</v>
       </c>
       <c r="R65" s="11">
-        <v>136</v>
+        <v>4065</v>
       </c>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
@@ -5941,35 +6401,37 @@
     </row>
     <row r="66" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C66" s="11">
-        <v>2769</v>
+        <v>197</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11">
-        <v>3191</v>
+        <v>209</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11">
-        <v>3745</v>
+        <v>228</v>
       </c>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="11">
-        <v>4504</v>
-      </c>
-      <c r="P66" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="P66" s="11">
+        <v>201</v>
+      </c>
       <c r="Q66" s="11">
-        <v>4976</v>
+        <v>113</v>
       </c>
       <c r="R66" s="11">
-        <v>5100</v>
+        <v>136</v>
       </c>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
@@ -5978,35 +6440,37 @@
     </row>
     <row r="67" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C67" s="11">
-        <v>-73</v>
+        <v>2769</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11">
-        <v>175</v>
+        <v>3191</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11">
-        <v>1100</v>
+        <v>3745</v>
       </c>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11">
-        <v>-2090</v>
-      </c>
-      <c r="P67" s="11"/>
+        <v>4504</v>
+      </c>
+      <c r="P67" s="11">
+        <v>4782</v>
+      </c>
       <c r="Q67" s="11">
-        <v>-1920</v>
+        <v>4976</v>
       </c>
       <c r="R67" s="11">
-        <v>-1924</v>
+        <v>5100</v>
       </c>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
@@ -6015,35 +6479,37 @@
     </row>
     <row r="68" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C68" s="11">
-        <v>-1081</v>
+        <v>-73</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11">
-        <v>802</v>
+        <v>175</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11">
-        <v>-4751</v>
+        <v>1100</v>
       </c>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11">
-        <v>1437</v>
-      </c>
-      <c r="P68" s="11"/>
+        <v>-2090</v>
+      </c>
+      <c r="P68" s="11">
+        <v>-2147</v>
+      </c>
       <c r="Q68" s="11">
-        <v>1378</v>
+        <v>-1920</v>
       </c>
       <c r="R68" s="11">
-        <v>1663</v>
+        <v>-1924</v>
       </c>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
@@ -6052,35 +6518,37 @@
     </row>
     <row r="69" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C69" s="11">
-        <v>22</v>
+        <v>-1081</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11">
-        <v>297</v>
+        <v>802</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11">
-        <v>-255</v>
+        <v>-4751</v>
       </c>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11">
-        <v>140</v>
-      </c>
-      <c r="P69" s="11"/>
+        <v>1437</v>
+      </c>
+      <c r="P69" s="11">
+        <v>1041</v>
+      </c>
       <c r="Q69" s="11">
-        <v>167</v>
+        <v>1378</v>
       </c>
       <c r="R69" s="11">
-        <v>661</v>
+        <v>1663</v>
       </c>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
@@ -6089,41 +6557,37 @@
     </row>
     <row r="70" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C70" s="11">
-        <f>1172+1068-265-425-229-147-81</f>
-        <v>1093</v>
+        <v>22</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11">
-        <f>2602-245-115-835-3531-871+37</f>
-        <v>-2958</v>
+        <v>297</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11">
-        <f>2794+785+7-982-3530-444+137</f>
-        <v>-1233</v>
+        <v>-255</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11">
-        <f>4364+3820-776-2373-3216-828-94</f>
-        <v>897</v>
-      </c>
-      <c r="P70" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="P70" s="11">
+        <v>62</v>
+      </c>
       <c r="Q70" s="11">
-        <f>-97-609-2647+1907+2210-80+112</f>
-        <v>796</v>
+        <v>167</v>
       </c>
       <c r="R70" s="11">
-        <f>-4615+1446-778-28+3424+577+263</f>
-        <v>289</v>
+        <v>661</v>
       </c>
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
@@ -6132,48 +6596,44 @@
     </row>
     <row r="71" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C71" s="11">
-        <f>SUM(C63:C70)</f>
-        <v>12000</v>
+        <f>1172+1068-265-425-229-147-81</f>
+        <v>1093</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11">
-        <f>SUM(G63:G70)</f>
-        <v>11451</v>
+        <f>2602-245-115-835-3531-871+37</f>
+        <v>-2958</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
-      <c r="J71" s="11">
-        <v>22677</v>
-      </c>
+      <c r="J71" s="11"/>
       <c r="K71" s="11">
-        <f>SUM(K63:K70)</f>
-        <v>19289</v>
+        <f>2794+785+7-982-3530-444+137</f>
+        <v>-1233</v>
       </c>
       <c r="L71" s="11"/>
-      <c r="M71" s="11">
-        <v>25539</v>
-      </c>
-      <c r="N71" s="11">
-        <f>SUM(N63:N70)</f>
-        <v>0</v>
-      </c>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
       <c r="O71" s="11">
-        <f>SUM(O63:O70)</f>
-        <v>25106</v>
-      </c>
-      <c r="P71" s="11"/>
+        <f>4364+3820-776-2373-3216-828-94</f>
+        <v>897</v>
+      </c>
+      <c r="P71" s="11">
+        <f>-1969-4073-845+1201+1497-114+86</f>
+        <v>-4217</v>
+      </c>
       <c r="Q71" s="11">
-        <f>SUM(Q63:Q70)</f>
-        <v>23353</v>
+        <f>-97-609-2647+1907+2210-80+112</f>
+        <v>796</v>
       </c>
       <c r="R71" s="11">
-        <f>SUM(R63:R70)</f>
-        <v>23614</v>
+        <f>-4615+1446-778-28+3424+577+263</f>
+        <v>289</v>
       </c>
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
@@ -6181,65 +6641,77 @@
       <c r="V71" s="11"/>
     </row>
     <row r="72" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="11"/>
+      <c r="B72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="11">
+        <f>SUM(C64:C71)</f>
+        <v>12000</v>
+      </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
+      <c r="G72" s="11">
+        <f>SUM(G64:G71)</f>
+        <v>11451</v>
+      </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
+      <c r="J72" s="11">
+        <v>22677</v>
+      </c>
+      <c r="K72" s="11">
+        <f>SUM(K64:K71)</f>
+        <v>19289</v>
+      </c>
       <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
+      <c r="M72" s="11">
+        <v>25539</v>
+      </c>
+      <c r="N72" s="11">
+        <f>SUM(N64:N71)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="11">
+        <f>SUM(O64:O71)</f>
+        <v>25106</v>
+      </c>
+      <c r="P72" s="11">
+        <f>SUM(P64:P71)</f>
+        <v>19422</v>
+      </c>
+      <c r="Q72" s="11">
+        <f>SUM(Q64:Q71)</f>
+        <v>23353</v>
+      </c>
+      <c r="R72" s="11">
+        <f>SUM(R64:R71)</f>
+        <v>23614</v>
+      </c>
+      <c r="S72" s="11">
+        <v>23509</v>
+      </c>
       <c r="T72" s="11"/>
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
     </row>
     <row r="73" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="11">
-        <v>-4638</v>
-      </c>
+      <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
-      <c r="G73" s="11">
-        <v>-6005</v>
-      </c>
+      <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
-      <c r="J73" s="11">
-        <v>-5479</v>
-      </c>
-      <c r="K73" s="11">
-        <v>-5942</v>
-      </c>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
       <c r="L73" s="11"/>
-      <c r="M73" s="11">
-        <v>-6819</v>
-      </c>
-      <c r="N73" s="11">
-        <v>-6383</v>
-      </c>
-      <c r="O73" s="11">
-        <v>-9786</v>
-      </c>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="11">
-        <v>-7276</v>
-      </c>
-      <c r="R73" s="11">
-        <v>-7595</v>
-      </c>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
       <c r="S73" s="11"/>
       <c r="T73" s="11"/>
       <c r="U73" s="11"/>
@@ -6247,53 +6719,67 @@
     </row>
     <row r="74" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C74" s="11">
-        <f>-20883+21006-907+99</f>
-        <v>-685</v>
+        <v>-4638</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11">
-        <f>-37563+41811-572+260</f>
-        <v>3936</v>
+        <v>-6005</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
+      <c r="J74" s="11">
+        <v>-5479</v>
+      </c>
+      <c r="K74" s="11">
+        <v>-5942</v>
+      </c>
+      <c r="L74" s="11">
+        <v>-5496</v>
+      </c>
+      <c r="M74" s="11">
+        <v>-6819</v>
+      </c>
+      <c r="N74" s="11">
+        <v>-6383</v>
+      </c>
       <c r="O74" s="11">
-        <f>-28462+29779-776+12</f>
-        <v>553</v>
-      </c>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
+        <v>-9786</v>
+      </c>
+      <c r="P74" s="11">
+        <v>-6828</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>-7276</v>
+      </c>
       <c r="R74" s="11">
-        <f>-11621+13735-903+19</f>
-        <v>1230</v>
-      </c>
-      <c r="S74" s="11"/>
+        <v>-7595</v>
+      </c>
+      <c r="S74" s="11">
+        <v>-6289</v>
+      </c>
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
     </row>
     <row r="75" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C75" s="11">
-        <v>-99</v>
+        <f>-20883+21006-907+99</f>
+        <v>-685</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11">
-        <v>-190</v>
+        <f>-37563+41811-572+260</f>
+        <v>3936</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -6303,12 +6789,17 @@
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11">
-        <v>-173</v>
-      </c>
-      <c r="P75" s="11"/>
+        <f>-28462+29779-776+12</f>
+        <v>553</v>
+      </c>
+      <c r="P75" s="11">
+        <f>-21737+25595-488+113</f>
+        <v>3483</v>
+      </c>
       <c r="Q75" s="11"/>
       <c r="R75" s="11">
-        <v>-84</v>
+        <f>-11621+13735-903+19</f>
+        <v>1230</v>
       </c>
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
@@ -6317,16 +6808,16 @@
     </row>
     <row r="76" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C76" s="11">
-        <v>34</v>
+        <v>-99</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11">
-        <v>412</v>
+        <v>-190</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -6336,12 +6827,14 @@
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11">
-        <v>355</v>
-      </c>
-      <c r="P76" s="11"/>
+        <v>-173</v>
+      </c>
+      <c r="P76" s="11">
+        <v>-1063</v>
+      </c>
       <c r="Q76" s="11"/>
       <c r="R76" s="11">
-        <v>222</v>
+        <v>-84</v>
       </c>
       <c r="S76" s="11"/>
       <c r="T76" s="11"/>
@@ -6350,18 +6843,16 @@
     </row>
     <row r="77" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C77" s="11">
-        <f>SUM(C73:C76)</f>
-        <v>-5388</v>
+        <v>34</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11">
-        <f>SUM(G73:G76)</f>
-        <v>-1847</v>
+        <v>412</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -6371,14 +6862,14 @@
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11">
-        <f>SUM(O73:O76)</f>
-        <v>-9051</v>
-      </c>
-      <c r="P77" s="11"/>
+        <v>355</v>
+      </c>
+      <c r="P77" s="11">
+        <v>221</v>
+      </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="11">
-        <f>SUM(R73:R76)</f>
-        <v>-6227</v>
+        <v>222</v>
       </c>
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
@@ -6386,11 +6877,20 @@
       <c r="V77" s="11"/>
     </row>
     <row r="78" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="11"/>
+      <c r="B78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="11">
+        <f>SUM(C74:C77)</f>
+        <v>-5388</v>
+      </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="G78" s="11">
+        <f>SUM(G74:G77)</f>
+        <v>-1847</v>
+      </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -6398,28 +6898,30 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
+      <c r="O78" s="11">
+        <f>SUM(O74:O77)</f>
+        <v>-9051</v>
+      </c>
+      <c r="P78" s="11">
+        <f>SUM(P74:P77)</f>
+        <v>-4187</v>
+      </c>
       <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
+      <c r="R78" s="11">
+        <f>SUM(R74:R77)</f>
+        <v>-6227</v>
+      </c>
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
     </row>
     <row r="79" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" s="11">
-        <v>-1175</v>
-      </c>
+      <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
-      <c r="G79" s="11">
-        <v>-1241</v>
-      </c>
+      <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -6427,14 +6929,10 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
-      <c r="O79" s="11">
-        <v>-2916</v>
-      </c>
+      <c r="O79" s="11"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
-      <c r="R79" s="11">
-        <v>-2079</v>
-      </c>
+      <c r="R79" s="11"/>
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
@@ -6442,16 +6940,16 @@
     </row>
     <row r="80" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C80" s="11">
-        <v>-3025</v>
+        <v>-1175</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11">
-        <v>-8496</v>
+        <v>-1241</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -6461,32 +6959,32 @@
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11">
-        <v>-13300</v>
-      </c>
-      <c r="P80" s="11"/>
+        <v>-2916</v>
+      </c>
+      <c r="P80" s="11">
+        <v>-2264</v>
+      </c>
       <c r="Q80" s="11"/>
       <c r="R80" s="11">
-        <v>-15407</v>
+        <v>-2079</v>
       </c>
       <c r="S80" s="11"/>
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
     </row>
-    <row r="81" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C81" s="11">
-        <f>315-345</f>
-        <v>-30</v>
+        <v>-3025</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11">
-        <f>1898-1947</f>
-        <v>-49</v>
+        <v>-8496</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -6496,32 +6994,34 @@
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11">
-        <f>16422-16420</f>
-        <v>2</v>
-      </c>
-      <c r="P81" s="11"/>
+        <v>-13300</v>
+      </c>
+      <c r="P81" s="11">
+        <v>-15197</v>
+      </c>
       <c r="Q81" s="11"/>
       <c r="R81" s="11">
-        <f>8550-8718</f>
-        <v>-168</v>
+        <v>-15407</v>
       </c>
       <c r="S81" s="11"/>
       <c r="T81" s="11"/>
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
     </row>
-    <row r="82" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C82" s="11">
-        <v>47</v>
+        <f>315-345</f>
+        <v>-30</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11">
-        <v>1600</v>
+        <f>1898-1947</f>
+        <v>-49</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -6531,32 +7031,35 @@
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11">
-        <v>0</v>
-      </c>
-      <c r="P82" s="11"/>
+        <f>16422-16420</f>
+        <v>2</v>
+      </c>
+      <c r="P82" s="11">
+        <f>12806-13162</f>
+        <v>-356</v>
+      </c>
       <c r="Q82" s="11"/>
       <c r="R82" s="11">
-        <v>25</v>
+        <f>8550-8718</f>
+        <v>-168</v>
       </c>
       <c r="S82" s="11"/>
       <c r="T82" s="11"/>
       <c r="U82" s="11"/>
       <c r="V82" s="11"/>
     </row>
-    <row r="83" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C83" s="11">
-        <f>SUM(C79:C82)</f>
-        <v>-4183</v>
+        <v>47</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11">
-        <f>SUM(G79:G82)</f>
-        <v>-8186</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -6566,32 +7069,34 @@
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
       <c r="O83" s="11">
-        <f>SUM(O79:O82)</f>
-        <v>-16214</v>
-      </c>
-      <c r="P83" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="11">
+        <v>0</v>
+      </c>
       <c r="Q83" s="11"/>
       <c r="R83" s="11">
-        <f>SUM(R79:R82)</f>
-        <v>-17629</v>
+        <v>25</v>
       </c>
       <c r="S83" s="11"/>
       <c r="T83" s="11"/>
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
     </row>
-    <row r="84" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C84" s="11">
-        <v>18</v>
+        <f>SUM(C80:C83)</f>
+        <v>-4183</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11">
-        <v>-272</v>
+        <f>SUM(G80:G83)</f>
+        <v>-8186</v>
       </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -6601,32 +7106,35 @@
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11">
-        <v>100</v>
-      </c>
-      <c r="P84" s="11"/>
+        <f>SUM(O80:O83)</f>
+        <v>-16214</v>
+      </c>
+      <c r="P84" s="11">
+        <f>SUM(P80:P83)</f>
+        <v>-17817</v>
+      </c>
       <c r="Q84" s="11"/>
       <c r="R84" s="11">
-        <v>137</v>
+        <f>SUM(R80:R83)</f>
+        <v>-17629</v>
       </c>
       <c r="S84" s="11"/>
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
       <c r="V84" s="11"/>
     </row>
-    <row r="85" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C85" s="11">
-        <f>+C84+C83+C77+C71</f>
-        <v>2447</v>
+        <v>18</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11">
-        <f>+G84+G83+G77+G71</f>
-        <v>1146</v>
+        <v>-272</v>
       </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -6636,26 +7144,35 @@
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
       <c r="O85" s="11">
-        <f>+O84+O83+O77+O71</f>
-        <v>-59</v>
-      </c>
-      <c r="P85" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="P85" s="11">
+        <v>-368</v>
+      </c>
       <c r="Q85" s="11"/>
       <c r="R85" s="11">
-        <f>+R84+R83+R77+R71</f>
-        <v>-105</v>
+        <v>137</v>
       </c>
       <c r="S85" s="11"/>
       <c r="T85" s="11"/>
       <c r="U85" s="11"/>
       <c r="V85" s="11"/>
     </row>
-    <row r="86" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="11"/>
+    <row r="86" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="11">
+        <f>+C85+C84+C78+C72</f>
+        <v>2447</v>
+      </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="G86" s="11">
+        <f>+G85+G84+G78+G72</f>
+        <v>1146</v>
+      </c>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
@@ -6663,19 +7180,25 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
+      <c r="O86" s="11">
+        <f>+O85+O84+O78+O72</f>
+        <v>-59</v>
+      </c>
+      <c r="P86" s="11">
+        <f>+P85+P84+P78+P72</f>
+        <v>-2950</v>
+      </c>
       <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
+      <c r="R86" s="11">
+        <f>+R85+R84+R78+R72</f>
+        <v>-105</v>
+      </c>
       <c r="S86" s="11"/>
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
       <c r="V86" s="11"/>
     </row>
-    <row r="87" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="3" t="s">
-        <v>37</v>
-      </c>
+    <row r="87" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
@@ -6683,146 +7206,260 @@
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
-      <c r="J87" s="11">
-        <f>J71-J73</f>
-        <v>28156</v>
-      </c>
-      <c r="K87" s="11">
-        <f>K71-K73</f>
-        <v>25231</v>
-      </c>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="11">
-        <f>M71-M73</f>
-        <v>32358</v>
-      </c>
-      <c r="N87" s="11">
-        <f>N71-N73</f>
-        <v>6383</v>
-      </c>
-      <c r="O87" s="11">
-        <f>O71-O73</f>
-        <v>34892</v>
-      </c>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="11">
-        <f>Q71-Q73</f>
-        <v>30629</v>
-      </c>
-      <c r="R87" s="11">
-        <f>R71-R73</f>
-        <v>31209</v>
-      </c>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
       <c r="U87" s="11"/>
       <c r="V87" s="11"/>
     </row>
-    <row r="90" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="3" t="s">
+    <row r="88" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11">
+        <f>J72-J74</f>
+        <v>28156</v>
+      </c>
+      <c r="K88" s="11">
+        <f>K72-K74</f>
+        <v>25231</v>
+      </c>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11">
+        <f t="shared" ref="M88:R88" si="172">M72-M74</f>
+        <v>32358</v>
+      </c>
+      <c r="N88" s="11">
+        <f t="shared" si="172"/>
+        <v>6383</v>
+      </c>
+      <c r="O88" s="11">
+        <f>O72+O74</f>
+        <v>15320</v>
+      </c>
+      <c r="P88" s="11">
+        <f t="shared" ref="P88:S88" si="173">P72+P74</f>
+        <v>12594</v>
+      </c>
+      <c r="Q88" s="11">
+        <f t="shared" si="173"/>
+        <v>16077</v>
+      </c>
+      <c r="R88" s="11">
+        <f t="shared" si="173"/>
+        <v>16019</v>
+      </c>
+      <c r="S88" s="11">
+        <f t="shared" si="173"/>
+        <v>17220</v>
+      </c>
+      <c r="T88" s="11"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+    </row>
+    <row r="90" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="R90" s="11"/>
+    </row>
+    <row r="91" spans="2:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C91" s="11">
         <v>103459</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11">
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11">
         <v>123048</v>
       </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11">
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11">
         <v>139995</v>
       </c>
-      <c r="L90" s="11">
+      <c r="L91" s="11">
         <v>144056</v>
       </c>
-      <c r="M90" s="11">
+      <c r="M91" s="11">
         <v>150028</v>
       </c>
-      <c r="N90" s="11">
+      <c r="N91" s="11">
         <v>156500</v>
       </c>
-      <c r="O90" s="11">
+      <c r="O91" s="11">
         <v>163906</v>
       </c>
-      <c r="P90" s="11">
+      <c r="P91" s="11">
         <v>174014</v>
       </c>
-      <c r="Q90" s="11">
+      <c r="Q91" s="11">
         <v>186779</v>
       </c>
-      <c r="R90" s="11">
+      <c r="R91" s="11">
         <v>190234</v>
       </c>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B91" s="3" t="s">
+      <c r="S91" s="11">
+        <v>190711</v>
+      </c>
+      <c r="T91" s="11"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+    </row>
+    <row r="92" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O91" s="15">
-        <f>+O90/K90-1</f>
+      <c r="O92" s="15">
+        <f>+O91/K91-1</f>
         <v>0.17079895710561099</v>
       </c>
-      <c r="P91" s="15">
-        <f>+P90/L90-1</f>
+      <c r="P92" s="15">
+        <f>+P91/L91-1</f>
         <v>0.20796079302493475</v>
       </c>
-      <c r="Q91" s="15">
-        <f>+Q90/M90-1</f>
+      <c r="Q92" s="15">
+        <f>+Q91/M91-1</f>
         <v>0.24496094062441687</v>
       </c>
-      <c r="R91" s="15">
-        <f>+R90/N90-1</f>
+      <c r="R92" s="15">
+        <f>+R91/N91-1</f>
         <v>0.21555271565495215</v>
       </c>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B92" s="3" t="s">
+      <c r="S92" s="15">
+        <f>+S91/O91-1</f>
+        <v>0.16353885763791443</v>
+      </c>
+    </row>
+    <row r="93" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G92" s="11">
-        <f>+G11/G90*1000</f>
+      <c r="G93" s="11">
+        <f>+G11/G91*1000</f>
         <v>334.49548143813797</v>
       </c>
-      <c r="K92" s="11">
-        <f>+K11/K90*1000</f>
+      <c r="K93" s="11">
+        <f t="shared" ref="K93:S93" si="174">+K11/K91*1000</f>
         <v>395.11411121825779</v>
       </c>
-      <c r="L92" s="11">
-        <f>+L11/L90*1000</f>
+      <c r="L93" s="11">
+        <f t="shared" si="174"/>
         <v>429.55517298828232</v>
       </c>
-      <c r="M92" s="11">
-        <f>+M11/M90*1000</f>
+      <c r="M93" s="11">
+        <f t="shared" si="174"/>
         <v>434.03897939051376</v>
       </c>
-      <c r="N92" s="11">
-        <f>+N11/N90*1000</f>
+      <c r="N93" s="11">
+        <f t="shared" si="174"/>
         <v>481.30990415335464</v>
       </c>
-      <c r="O92" s="11">
-        <f>+O11/O90*1000</f>
+      <c r="O93" s="11">
+        <f t="shared" si="174"/>
         <v>414.93905043134475</v>
       </c>
-      <c r="P92" s="11">
-        <f>+P11/P90*1000</f>
+      <c r="P93" s="11">
+        <f t="shared" si="174"/>
         <v>400.45628512648409</v>
       </c>
-      <c r="Q92" s="11">
-        <f>+Q11/Q90*1000</f>
+      <c r="Q93" s="11">
+        <f t="shared" si="174"/>
         <v>369.91310586307884</v>
       </c>
-      <c r="R92" s="11">
-        <f>+R11/R90*1000</f>
+      <c r="R93" s="11">
+        <f t="shared" si="174"/>
         <v>399.76029521536634</v>
+      </c>
+      <c r="S93" s="11">
+        <f t="shared" si="174"/>
+        <v>365.93064899245451</v>
+      </c>
+    </row>
+    <row r="96" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC96">
+        <v>37.94</v>
+      </c>
+      <c r="AD96">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="AE96">
+        <v>52.32</v>
+      </c>
+      <c r="AF96">
+        <v>51.78</v>
+      </c>
+      <c r="AG96">
+        <v>66.849999999999994</v>
+      </c>
+      <c r="AH96">
+        <v>87.59</v>
+      </c>
+      <c r="AI96">
+        <v>144.68</v>
+      </c>
+      <c r="AJ96">
+        <v>88.73</v>
+      </c>
+    </row>
+    <row r="97" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AJ97" s="5">
+        <f>AJ96/AC96-1</f>
+        <v>1.3386926726410122</v>
+      </c>
+    </row>
+    <row r="99" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>5007.41</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>5383.12</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>6903.39</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>6635.28</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>8972.6</v>
+      </c>
+      <c r="AH99" s="3">
+        <v>12888.28</v>
+      </c>
+      <c r="AI99" s="3">
+        <v>15644.97</v>
+      </c>
+      <c r="AJ99" s="3">
+        <v>10466.48</v>
+      </c>
+    </row>
+    <row r="100" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AJ100" s="5">
+        <f>AJ99/AC99-1</f>
+        <v>1.0901983260807482</v>
       </c>
     </row>
   </sheetData>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CB1DEF-7923-4D46-8158-7C664378CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D209B-B64B-4575-BC6F-36C5723B330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="345" windowWidth="27420" windowHeight="20610" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="2700" yWindow="1290" windowWidth="31965" windowHeight="18945" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="200">
   <si>
     <t>Price</t>
   </si>
@@ -453,6 +453,234 @@
   </si>
   <si>
     <t>SVP Tech &amp; Society</t>
+  </si>
+  <si>
+    <t>Paul Buchheit</t>
+  </si>
+  <si>
+    <t>#22</t>
+  </si>
+  <si>
+    <t>Jack Levin</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>Susan Wojcicki</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>Marissa Mayer</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>1999-2012</t>
+  </si>
+  <si>
+    <t>Kendra DiGirolamo</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>Ads</t>
+  </si>
+  <si>
+    <t>1999-2001</t>
+  </si>
+  <si>
+    <t>Larry Schwimmer</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>1999-2005</t>
+  </si>
+  <si>
+    <t>James Reese</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>Gerald Aigner</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>1999-2006</t>
+  </si>
+  <si>
+    <t>Joan Braddi</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>1999-Present</t>
+  </si>
+  <si>
+    <t>Chris Skarakis</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>Rachel Chambers</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>1999-2000</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t>Steve Schimmel</t>
+  </si>
+  <si>
+    <t>1999-2004</t>
+  </si>
+  <si>
+    <t>Omid Kordestani</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>1999-2015</t>
+  </si>
+  <si>
+    <t>Salar Kamangar</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>Georges Harik</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>Amit Patel</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>1999-?</t>
+  </si>
+  <si>
+    <t>Harry Cheung</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>Ray Sidney</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>1999-2003</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>Heather Cairns</t>
+  </si>
+  <si>
+    <t>1998-2005</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>1998-2012</t>
+  </si>
+  <si>
+    <t>Craig Silverstein</t>
+  </si>
+  <si>
+    <t>Matt Cutts</t>
+  </si>
+  <si>
+    <t>Noam Shazeer</t>
+  </si>
+  <si>
+    <t>Douglas Edwards</t>
+  </si>
+  <si>
+    <t>#59</t>
+  </si>
+  <si>
+    <t>Monika Henzinger</t>
+  </si>
+  <si>
+    <t>Krishna Bharat</t>
+  </si>
+  <si>
+    <t>Benedict Gomes</t>
+  </si>
+  <si>
+    <t>Jeff Dean</t>
+  </si>
+  <si>
+    <t>Darrell Anderson</t>
+  </si>
+  <si>
+    <t>Alexander Carobus</t>
+  </si>
+  <si>
+    <t>Yingwei Cui</t>
+  </si>
+  <si>
+    <t>Deepak Jindal</t>
+  </si>
+  <si>
+    <t>Narayanan Shivakumar</t>
+  </si>
+  <si>
+    <t>Kin Kun Law</t>
+  </si>
+  <si>
+    <t>David Cheng</t>
+  </si>
+  <si>
+    <t>Jeremy Bem</t>
+  </si>
+  <si>
+    <t>Joshua Levenberg</t>
+  </si>
+  <si>
+    <t>Simon Tong</t>
+  </si>
+  <si>
+    <t>Ross Koningstein</t>
+  </si>
+  <si>
+    <t>Valentin Spitkovsky</t>
+  </si>
+  <si>
+    <t>Carl Gonsalves</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
-  <dimension ref="H1:M22"/>
+  <dimension ref="H1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1364,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>113</v>
       </c>
@@ -1144,7 +1372,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>115</v>
       </c>
@@ -1152,7 +1380,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>117</v>
       </c>
@@ -1160,7 +1388,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>119</v>
       </c>
@@ -1168,7 +1396,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>121</v>
       </c>
@@ -1176,14 +1404,349 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="19"/>
     </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" t="s">
+        <v>173</v>
+      </c>
+      <c r="M26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" t="s">
+        <v>169</v>
+      </c>
+      <c r="M28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" t="s">
+        <v>164</v>
+      </c>
+      <c r="M30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" t="s">
+        <v>163</v>
+      </c>
+      <c r="M31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>160</v>
+      </c>
+      <c r="L32" t="s">
+        <v>161</v>
+      </c>
+      <c r="M32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>157</v>
+      </c>
+      <c r="L33" t="s">
+        <v>158</v>
+      </c>
+      <c r="M33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>149</v>
+      </c>
+      <c r="L36" t="s">
+        <v>150</v>
+      </c>
+      <c r="M36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" t="s">
+        <v>147</v>
+      </c>
+      <c r="M37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" t="s">
+        <v>129</v>
+      </c>
+      <c r="M38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" t="s">
+        <v>142</v>
+      </c>
+      <c r="M40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>137</v>
+      </c>
+      <c r="L41" t="s">
+        <v>138</v>
+      </c>
+      <c r="M41" t="s">
+        <v>140</v>
+      </c>
+      <c r="N41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>133</v>
+      </c>
+      <c r="L42" t="s">
+        <v>134</v>
+      </c>
+      <c r="M42" t="s">
+        <v>136</v>
+      </c>
+      <c r="N42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>130</v>
+      </c>
+      <c r="L43" t="s">
+        <v>127</v>
+      </c>
+      <c r="M43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>126</v>
+      </c>
+      <c r="L44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>124</v>
+      </c>
+      <c r="L45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7241,7 +7804,7 @@
       </c>
       <c r="L88" s="11"/>
       <c r="M88" s="11">
-        <f t="shared" ref="M88:R88" si="172">M72-M74</f>
+        <f t="shared" ref="M88:N88" si="172">M72-M74</f>
         <v>32358</v>
       </c>
       <c r="N88" s="11">

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D209B-B64B-4575-BC6F-36C5723B330E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A779EBF4-5334-406F-AB10-129945F1DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1290" windowWidth="31965" windowHeight="18945" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="-50145" yWindow="1845" windowWidth="23550" windowHeight="19425" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -805,14 +805,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>31531</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21505</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>31531</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21505</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -829,8 +829,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11796548" y="0"/>
-          <a:ext cx="0" cy="17976631"/>
+          <a:off x="12414031" y="0"/>
+          <a:ext cx="0" cy="17562095"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
   <dimension ref="H1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>105</v>
+        <v>131.33000000000001</v>
       </c>
     </row>
     <row r="3" spans="8:13" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>1359435</v>
+        <v>1700329.5100000002</v>
       </c>
     </row>
     <row r="5" spans="8:13" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>1229882</v>
+        <v>1570776.5100000002</v>
       </c>
     </row>
     <row r="8" spans="8:13" x14ac:dyDescent="0.2">
@@ -1754,11 +1754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
   <dimension ref="A1:CW100"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15:S15"/>
+      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1961,9 @@
       <c r="S3" s="11">
         <v>84</v>
       </c>
-      <c r="T3" s="11"/>
+      <c r="T3" s="11">
+        <v>3</v>
+      </c>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="AE3" s="3">
@@ -2036,11 +2038,10 @@
         <v>288</v>
       </c>
       <c r="T4" s="11">
-        <f t="shared" ref="T4:V4" si="4">+P4</f>
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="U4" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="T4:V4" si="4">+Q4</f>
         <v>209</v>
       </c>
       <c r="V4" s="11">
@@ -2151,8 +2152,7 @@
         <v>7454</v>
       </c>
       <c r="T5" s="11">
-        <f>+P5*1.3</f>
-        <v>8158.8</v>
+        <v>8031</v>
       </c>
       <c r="U5" s="11">
         <f>+Q5*1.3</f>
@@ -2266,8 +2266,7 @@
         <v>7413</v>
       </c>
       <c r="T6" s="11">
-        <f>+P6*1.05</f>
-        <v>6880.6500000000005</v>
+        <v>8142</v>
       </c>
       <c r="U6" s="11">
         <f>+Q6*1.05</f>
@@ -2381,8 +2380,7 @@
         <v>7496</v>
       </c>
       <c r="T7" s="11">
-        <f>+P7*0.99</f>
-        <v>8176.41</v>
+        <v>7850</v>
       </c>
       <c r="U7" s="11">
         <f t="shared" ref="U7:V9" si="8">+Q7*1.03</f>
@@ -2496,8 +2494,7 @@
         <v>6693</v>
       </c>
       <c r="T8" s="11">
-        <f>+P8*0.99</f>
-        <v>7266.6</v>
+        <v>7665</v>
       </c>
       <c r="U8" s="11">
         <f t="shared" si="8"/>
@@ -2611,8 +2608,7 @@
         <v>40359</v>
       </c>
       <c r="T9" s="11">
-        <f>+P9*1.03</f>
-        <v>41909.67</v>
+        <v>42628</v>
       </c>
       <c r="U9" s="11">
         <f t="shared" si="8"/>
@@ -2749,7 +2745,7 @@
       </c>
       <c r="T10" s="11">
         <f>SUM(T6:T9)</f>
-        <v>64233.33</v>
+        <v>66285</v>
       </c>
       <c r="U10" s="11">
         <f>SUM(U6:U9)</f>
@@ -2889,7 +2885,7 @@
       </c>
       <c r="T11" s="10">
         <f t="shared" si="21"/>
-        <v>72585.13</v>
+        <v>74604</v>
       </c>
       <c r="U11" s="10">
         <f t="shared" si="21"/>
@@ -3025,7 +3021,7 @@
       </c>
       <c r="T12" s="11">
         <f t="shared" ref="T12:V12" si="31">T11*0.45</f>
-        <v>32663.308500000003</v>
+        <v>33571.800000000003</v>
       </c>
       <c r="U12" s="11">
         <f t="shared" si="31"/>
@@ -3200,7 +3196,7 @@
       </c>
       <c r="T14" s="11">
         <f t="shared" ref="T14:V14" si="37">T11-T12</f>
-        <v>39921.821500000005</v>
+        <v>41032.199999999997</v>
       </c>
       <c r="U14" s="11">
         <f t="shared" si="37"/>
@@ -3854,7 +3850,7 @@
       </c>
       <c r="T19" s="11">
         <f t="shared" si="66"/>
-        <v>19189.981500000005</v>
+        <v>20300.359999999997</v>
       </c>
       <c r="U19" s="11">
         <f t="shared" si="66"/>
@@ -4120,7 +4116,7 @@
       </c>
       <c r="T21" s="11">
         <f t="shared" si="79"/>
-        <v>18798.981500000005</v>
+        <v>19909.359999999997</v>
       </c>
       <c r="U21" s="11">
         <f t="shared" si="79"/>
@@ -4250,7 +4246,7 @@
       </c>
       <c r="T22" s="11">
         <f t="shared" ref="T22:V22" si="83">T21*0.2</f>
-        <v>3759.7963000000013</v>
+        <v>3981.8719999999994</v>
       </c>
       <c r="U22" s="11">
         <f t="shared" si="83"/>
@@ -4386,7 +4382,7 @@
       </c>
       <c r="T23" s="11">
         <f t="shared" si="91"/>
-        <v>15039.185200000004</v>
+        <v>15927.487999999998</v>
       </c>
       <c r="U23" s="11">
         <f t="shared" si="91"/>
@@ -4758,7 +4754,7 @@
       </c>
       <c r="T24" s="14">
         <f t="shared" si="102"/>
-        <v>1.1728289167901429</v>
+        <v>1.242103095999376</v>
       </c>
       <c r="U24" s="14">
         <f t="shared" si="102"/>
@@ -4973,7 +4969,7 @@
       </c>
       <c r="T27" s="16">
         <f t="shared" si="109"/>
-        <v>4.1617708258592234E-2</v>
+        <v>7.0589079428858392E-2</v>
       </c>
       <c r="U27" s="16">
         <f t="shared" si="109"/>
@@ -5089,7 +5085,9 @@
       <c r="S28" s="16">
         <v>0.06</v>
       </c>
-      <c r="T28" s="16"/>
+      <c r="T28" s="16">
+        <v>0.09</v>
+      </c>
       <c r="U28" s="16"/>
       <c r="V28" s="16"/>
       <c r="AJ28" s="18">
@@ -5152,7 +5150,7 @@
       </c>
       <c r="T29" s="15">
         <f t="shared" si="114"/>
-        <v>3.0000000000000027E-2</v>
+        <v>4.7654157143208309E-2</v>
       </c>
       <c r="U29" s="15">
         <f t="shared" si="114"/>
@@ -5271,7 +5269,7 @@
       </c>
       <c r="T30" s="15">
         <f t="shared" si="119"/>
-        <v>-9.9999999999998979E-3</v>
+        <v>4.4277929155313256E-2</v>
       </c>
       <c r="U30" s="15">
         <f t="shared" si="119"/>
@@ -5391,7 +5389,7 @@
       </c>
       <c r="T31" s="15">
         <f t="shared" si="127"/>
-        <v>2.2156394710459715E-2</v>
+        <v>5.4804984007256419E-2</v>
       </c>
       <c r="U31" s="15">
         <f t="shared" si="127"/>
@@ -5511,7 +5509,7 @@
       </c>
       <c r="T32" s="15">
         <f t="shared" si="135"/>
-        <v>0.30000000000000004</v>
+        <v>0.2796367112810707</v>
       </c>
       <c r="U32" s="15">
         <f t="shared" si="135"/>
@@ -5636,7 +5634,7 @@
       </c>
       <c r="T33" s="15">
         <f t="shared" si="143"/>
-        <v>0.55000000000000004</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="U33" s="15">
         <f t="shared" si="143"/>
@@ -5918,7 +5916,7 @@
       </c>
       <c r="T35" s="15">
         <f t="shared" si="163"/>
-        <v>0.57738644265016814</v>
+        <v>0.57139027397994746</v>
       </c>
       <c r="U35" s="15">
         <f t="shared" si="163"/>
@@ -6035,7 +6033,7 @@
       </c>
       <c r="T36" s="15">
         <f t="shared" si="168"/>
-        <v>0.79014365614554927</v>
+        <v>0.779354994370275</v>
       </c>
       <c r="U36" s="15">
         <f t="shared" si="168"/>
@@ -7881,7 +7879,9 @@
       <c r="S91" s="11">
         <v>190711</v>
       </c>
-      <c r="T91" s="11"/>
+      <c r="T91" s="11">
+        <v>181798</v>
+      </c>
       <c r="U91" s="11"/>
       <c r="V91" s="11"/>
     </row>
@@ -7908,6 +7908,10 @@
       <c r="S92" s="15">
         <f>+S91/O91-1</f>
         <v>0.16353885763791443</v>
+      </c>
+      <c r="T92" s="15">
+        <f>+T91/P91-1</f>
+        <v>4.4732033054811771E-2</v>
       </c>
     </row>
     <row r="93" spans="2:36" x14ac:dyDescent="0.2">

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A779EBF4-5334-406F-AB10-129945F1DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0C313E-F37B-4E9F-BA52-F111E8470EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50145" yWindow="1845" windowWidth="23550" windowHeight="19425" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="-27615" yWindow="360" windowWidth="27825" windowHeight="19425" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1229,7 +1229,7 @@
   <dimension ref="H1:N65"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1258,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>12947</v>
+        <v>12629</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="8:13" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>1700329.5100000002</v>
+        <v>1658566.57</v>
       </c>
     </row>
     <row r="5" spans="8:13" x14ac:dyDescent="0.2">
@@ -1280,10 +1280,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>144254</v>
+        <v>149556</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="8:13" x14ac:dyDescent="0.2">
@@ -1291,10 +1291,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>14701</v>
+        <v>13705</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="8:13" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>1570776.5100000002</v>
+        <v>1522715.57</v>
       </c>
     </row>
     <row r="8" spans="8:13" x14ac:dyDescent="0.2">
@@ -1755,10 +1755,10 @@
   <dimension ref="A1:CW100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomRight" activeCell="O74" sqref="O74:T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2041,7 +2041,7 @@
         <v>285</v>
       </c>
       <c r="U4" s="11">
-        <f t="shared" ref="T4:V4" si="4">+Q4</f>
+        <f t="shared" ref="U4:V4" si="4">+Q4</f>
         <v>209</v>
       </c>
       <c r="V4" s="11">
@@ -3020,11 +3020,10 @@
         <v>30612</v>
       </c>
       <c r="T12" s="11">
-        <f t="shared" ref="T12:V12" si="31">T11*0.45</f>
-        <v>33571.800000000003</v>
+        <v>31916</v>
       </c>
       <c r="U12" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="T12:V12" si="31">U11*0.45</f>
         <v>32622.124500000002</v>
       </c>
       <c r="V12" s="11">
@@ -3195,11 +3194,11 @@
         <v>39175</v>
       </c>
       <c r="T14" s="11">
-        <f t="shared" ref="T14:V14" si="37">T11-T12</f>
-        <v>41032.199999999997</v>
+        <f>T11-T12</f>
+        <v>42688</v>
       </c>
       <c r="U14" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="T14:V14" si="37">U11-U12</f>
         <v>39871.485499999995</v>
       </c>
       <c r="V14" s="11">
@@ -3325,15 +3324,14 @@
         <v>11468</v>
       </c>
       <c r="T15" s="11">
-        <f t="shared" ref="T15:T17" si="41">P15*1.03</f>
-        <v>10136.23</v>
+        <v>10588</v>
       </c>
       <c r="U15" s="11">
-        <f t="shared" ref="U15:U17" si="42">Q15*1.03</f>
+        <f t="shared" ref="U15:U17" si="41">Q15*1.03</f>
         <v>10581.19</v>
       </c>
       <c r="V15" s="11">
-        <f t="shared" ref="V15:V17" si="43">R15*1.03</f>
+        <f t="shared" ref="V15:V17" si="42">R15*1.03</f>
         <v>10575.01</v>
       </c>
       <c r="AB15" s="3">
@@ -3361,7 +3359,7 @@
         <v>31562</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" ref="AJ15:AJ17" si="44">SUM(O15:R15)</f>
+        <f t="shared" ref="AJ15:AJ17" si="43">SUM(O15:R15)</f>
         <v>39500</v>
       </c>
       <c r="AK15" s="3">
@@ -3369,31 +3367,31 @@
         <v>41475</v>
       </c>
       <c r="AL15" s="3">
-        <f t="shared" ref="AL15:AR15" si="45">+AK15*1.05</f>
+        <f t="shared" ref="AL15:AR15" si="44">+AK15*1.05</f>
         <v>43548.75</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>45726.1875</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>48012.496875000004</v>
       </c>
       <c r="AO15" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>50413.121718750008</v>
       </c>
       <c r="AP15" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>52933.77780468751</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>55580.466694921888</v>
       </c>
       <c r="AR15" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>58359.490029667984</v>
       </c>
     </row>
@@ -3447,15 +3445,14 @@
         <v>6533</v>
       </c>
       <c r="T16" s="11">
+        <v>6781</v>
+      </c>
+      <c r="U16" s="11">
         <f t="shared" si="41"/>
-        <v>6828.9000000000005</v>
-      </c>
-      <c r="U16" s="11">
+        <v>7136.87</v>
+      </c>
+      <c r="V16" s="11">
         <f t="shared" si="42"/>
-        <v>7136.87</v>
-      </c>
-      <c r="V16" s="11">
-        <f t="shared" si="43"/>
         <v>7398.49</v>
       </c>
       <c r="AB16" s="3">
@@ -3483,7 +3480,7 @@
         <v>22912</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>26567</v>
       </c>
       <c r="AK16" s="3">
@@ -3491,31 +3488,31 @@
         <v>27895.350000000002</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" ref="AL16:AR16" si="46">+AK16*1.05</f>
+        <f t="shared" ref="AL16:AR16" si="45">+AK16*1.05</f>
         <v>29290.117500000004</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>30754.623375000006</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>32292.354543750007</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>33906.972270937506</v>
       </c>
       <c r="AP16" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>35602.320884484383</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>37382.436928708601</v>
       </c>
       <c r="AR16" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>39251.558775144033</v>
       </c>
     </row>
@@ -3569,15 +3566,14 @@
         <v>3759</v>
       </c>
       <c r="T17" s="11">
+        <v>3481</v>
+      </c>
+      <c r="U17" s="11">
         <f t="shared" si="41"/>
-        <v>3766.71</v>
-      </c>
-      <c r="U17" s="11">
+        <v>3704.9100000000003</v>
+      </c>
+      <c r="V17" s="11">
         <f t="shared" si="42"/>
-        <v>3704.9100000000003</v>
-      </c>
-      <c r="V17" s="11">
-        <f t="shared" si="43"/>
         <v>5248.88</v>
       </c>
       <c r="AB17" s="3">
@@ -3605,7 +3601,7 @@
         <v>13510</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>15724</v>
       </c>
       <c r="AK17" s="3">
@@ -3613,31 +3609,31 @@
         <v>16510.2</v>
       </c>
       <c r="AL17" s="3">
-        <f t="shared" ref="AL17:AR17" si="47">+AK17*1.05</f>
+        <f t="shared" ref="AL17:AR17" si="46">+AK17*1.05</f>
         <v>17335.710000000003</v>
       </c>
       <c r="AM17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>18202.495500000005</v>
       </c>
       <c r="AN17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>19112.620275000005</v>
       </c>
       <c r="AO17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>20068.251288750005</v>
       </c>
       <c r="AP17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>21071.663853187507</v>
       </c>
       <c r="AQ17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>22125.247045846882</v>
       </c>
       <c r="AR17" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>23231.509398139227</v>
       </c>
     </row>
@@ -3646,26 +3642,26 @@
         <v>26</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18" si="48">SUM(C15:C17)</f>
+        <f t="shared" ref="C18" si="47">SUM(C15:C17)</f>
         <v>12022</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
-        <f t="shared" ref="G18" si="49">SUM(G15:G17)</f>
+        <f t="shared" ref="G18" si="48">SUM(G15:G17)</f>
         <v>14200</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" ref="H18" si="50">SUM(H15:H17)</f>
+        <f t="shared" ref="H18" si="49">SUM(H15:H17)</f>
         <v>13361</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" ref="I18" si="51">SUM(I15:I17)</f>
+        <f t="shared" ref="I18" si="50">SUM(I15:I17)</f>
         <v>13843</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" ref="J18" si="52">SUM(J15:J17)</f>
+        <f t="shared" ref="J18" si="51">SUM(J15:J17)</f>
         <v>15167</v>
       </c>
       <c r="K18" s="11">
@@ -3673,27 +3669,27 @@
         <v>14774</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" ref="L18:O18" si="53">SUM(L15:L17)</f>
+        <f t="shared" ref="L18:O18" si="52">SUM(L15:L17)</f>
         <v>16292</v>
       </c>
       <c r="M18" s="11">
+        <f t="shared" si="52"/>
+        <v>16466</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="52"/>
+        <v>20452</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="52"/>
+        <v>18318</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" ref="P18:Q18" si="53">SUM(P15:P17)</f>
+        <v>20128</v>
+      </c>
+      <c r="Q18" s="11">
         <f t="shared" si="53"/>
-        <v>16466</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="53"/>
-        <v>20452</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="53"/>
-        <v>18318</v>
-      </c>
-      <c r="P18" s="11">
-        <f t="shared" ref="P18:Q18" si="54">SUM(P15:P17)</f>
-        <v>20128</v>
-      </c>
-      <c r="Q18" s="11">
-        <f t="shared" si="54"/>
         <v>20799</v>
       </c>
       <c r="R18" s="11">
@@ -3701,19 +3697,19 @@
         <v>22546</v>
       </c>
       <c r="S18" s="11">
-        <f t="shared" ref="S18:V18" si="55">SUM(S15:S17)</f>
+        <f t="shared" ref="S18:V18" si="54">SUM(S15:S17)</f>
         <v>21760</v>
       </c>
       <c r="T18" s="11">
-        <f t="shared" si="55"/>
-        <v>20731.84</v>
+        <f>SUM(T15:T17)</f>
+        <v>20850</v>
       </c>
       <c r="U18" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>21422.97</v>
       </c>
       <c r="V18" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="54"/>
         <v>23222.38</v>
       </c>
       <c r="AB18" s="3">
@@ -3721,23 +3717,23 @@
         <v>23814</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" ref="AC18:AG18" si="56">SUM(AC15:AC17)</f>
+        <f t="shared" ref="AC18:AG18" si="55">SUM(AC15:AC17)</f>
         <v>27465</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>31418</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>36390</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>45878</v>
       </c>
       <c r="AG18" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>54033</v>
       </c>
       <c r="AH18" s="3">
@@ -3745,43 +3741,43 @@
         <v>56571</v>
       </c>
       <c r="AI18" s="3">
-        <f t="shared" ref="AI18:AK18" si="57">SUM(AI15:AI17)</f>
+        <f t="shared" ref="AI18:AK18" si="56">SUM(AI15:AI17)</f>
         <v>67984</v>
       </c>
       <c r="AJ18" s="3">
+        <f t="shared" si="56"/>
+        <v>81791</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="56"/>
+        <v>85880.55</v>
+      </c>
+      <c r="AL18" s="3">
+        <f t="shared" ref="AL18:AR18" si="57">SUM(AL15:AL17)</f>
+        <v>90174.577500000014</v>
+      </c>
+      <c r="AM18" s="3">
         <f t="shared" si="57"/>
-        <v>81791</v>
-      </c>
-      <c r="AK18" s="3">
+        <v>94683.306375000015</v>
+      </c>
+      <c r="AN18" s="3">
         <f t="shared" si="57"/>
-        <v>85880.55</v>
-      </c>
-      <c r="AL18" s="3">
-        <f t="shared" ref="AL18:AR18" si="58">SUM(AL15:AL17)</f>
-        <v>90174.577500000014</v>
-      </c>
-      <c r="AM18" s="3">
-        <f t="shared" si="58"/>
-        <v>94683.306375000015</v>
-      </c>
-      <c r="AN18" s="3">
-        <f t="shared" si="58"/>
         <v>99417.47169375002</v>
       </c>
       <c r="AO18" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>104388.34527843751</v>
       </c>
       <c r="AP18" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>109607.7625423594</v>
       </c>
       <c r="AQ18" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>115088.15066947739</v>
       </c>
       <c r="AR18" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>120842.55820295124</v>
       </c>
     </row>
@@ -3790,42 +3786,42 @@
         <v>27</v>
       </c>
       <c r="C19" s="11">
-        <f t="shared" ref="C19" si="59">C14-C18</f>
+        <f t="shared" ref="C19" si="58">C14-C18</f>
         <v>8305</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
-        <f t="shared" ref="G19" si="60">G14-G18</f>
+        <f t="shared" ref="G19" si="59">G14-G18</f>
         <v>7977</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" ref="H19" si="61">H14-H18</f>
+        <f t="shared" ref="H19" si="60">H14-H18</f>
         <v>6383</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" ref="I19" si="62">I14-I18</f>
+        <f t="shared" ref="I19" si="61">I14-I18</f>
         <v>11213</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" ref="J19" si="63">J14-J18</f>
+        <f t="shared" ref="J19" si="62">J14-J18</f>
         <v>15651</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" ref="K19:N19" si="64">K14-K18</f>
+        <f t="shared" ref="K19:N19" si="63">K14-K18</f>
         <v>16437</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>19361</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>21031</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>21885</v>
       </c>
       <c r="O19" s="11">
@@ -3833,31 +3829,31 @@
         <v>20094</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" ref="P19:R19" si="65">P14-P18</f>
+        <f t="shared" ref="P19:R19" si="64">P14-P18</f>
         <v>19453</v>
       </c>
       <c r="Q19" s="11">
+        <f t="shared" si="64"/>
+        <v>17135</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" si="64"/>
+        <v>18160</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" ref="S19:V19" si="65">S14-S18</f>
+        <v>17415</v>
+      </c>
+      <c r="T19" s="11">
+        <f>T14-T18</f>
+        <v>21838</v>
+      </c>
+      <c r="U19" s="11">
         <f t="shared" si="65"/>
-        <v>17135</v>
-      </c>
-      <c r="R19" s="11">
+        <v>18448.515499999994</v>
+      </c>
+      <c r="V19" s="11">
         <f t="shared" si="65"/>
-        <v>18160</v>
-      </c>
-      <c r="S19" s="11">
-        <f t="shared" ref="S19:V19" si="66">S14-S18</f>
-        <v>17415</v>
-      </c>
-      <c r="T19" s="11">
-        <f t="shared" si="66"/>
-        <v>20300.359999999997</v>
-      </c>
-      <c r="U19" s="11">
-        <f t="shared" si="66"/>
-        <v>18448.515499999994</v>
-      </c>
-      <c r="V19" s="11">
-        <f t="shared" si="66"/>
         <v>20659.127999999993</v>
       </c>
       <c r="AB19" s="3">
@@ -3865,23 +3861,23 @@
         <v>16496</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" ref="AC19:AG19" si="67">AC14-AC18</f>
+        <f t="shared" ref="AC19:AG19" si="66">AC14-AC18</f>
         <v>19360</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>23716</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>28882</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>31392</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="66"/>
         <v>35928</v>
       </c>
       <c r="AH19" s="3">
@@ -3889,43 +3885,43 @@
         <v>41224</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" ref="AI19:AK19" si="68">AI14-AI18</f>
+        <f t="shared" ref="AI19:AK19" si="67">AI14-AI18</f>
         <v>78714</v>
       </c>
       <c r="AJ19" s="3">
+        <f t="shared" si="67"/>
+        <v>74842</v>
+      </c>
+      <c r="AK19" s="3">
+        <f t="shared" si="67"/>
+        <v>88257.54280000001</v>
+      </c>
+      <c r="AL19" s="3">
+        <f t="shared" ref="AL19:AR19" si="68">AL14-AL18</f>
+        <v>104147.62094800003</v>
+      </c>
+      <c r="AM19" s="3">
         <f t="shared" si="68"/>
-        <v>74842</v>
-      </c>
-      <c r="AK19" s="3">
+        <v>121310.90752228006</v>
+      </c>
+      <c r="AN19" s="3">
         <f t="shared" si="68"/>
-        <v>88257.54280000001</v>
-      </c>
-      <c r="AL19" s="3">
-        <f t="shared" ref="AL19:AR19" si="69">AL14-AL18</f>
-        <v>104147.62094800003</v>
-      </c>
-      <c r="AM19" s="3">
-        <f t="shared" si="69"/>
-        <v>121310.90752228006</v>
-      </c>
-      <c r="AN19" s="3">
-        <f t="shared" si="69"/>
         <v>142023.82273220684</v>
       </c>
       <c r="AO19" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>167167.23325358206</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>191529.00562232599</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>219718.25522998968</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>252379.120351102</v>
       </c>
     </row>
@@ -3979,16 +3975,15 @@
         <v>790</v>
       </c>
       <c r="T20" s="11">
-        <f t="shared" ref="T20:V20" si="70">AVERAGE(P20:S20)</f>
-        <v>-391</v>
+        <v>65</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" si="70"/>
-        <v>-379</v>
+        <f t="shared" ref="T20:V20" si="69">AVERAGE(Q20:T20)</f>
+        <v>-265</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" si="70"/>
-        <v>-248.25</v>
+        <f t="shared" si="69"/>
+        <v>-105.75</v>
       </c>
       <c r="AB20" s="3">
         <v>763</v>
@@ -4015,7 +4010,7 @@
         <v>12020</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" ref="AJ20:AJ22" si="71">SUM(O20:R20)</f>
+        <f t="shared" ref="AJ20:AJ22" si="70">SUM(O20:R20)</f>
         <v>-3514</v>
       </c>
       <c r="AK20" s="3">
@@ -4023,31 +4018,31 @@
         <v>1295.53</v>
       </c>
       <c r="AL20" s="3">
-        <f t="shared" ref="AL20:AR20" si="72">+AK38*$AU$29</f>
+        <f t="shared" ref="AL20:AR20" si="71">+AK38*$AU$29</f>
         <v>2029.86519696</v>
       </c>
       <c r="AM20" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>2900.5205833486725</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>3919.0542938148278</v>
       </c>
       <c r="AO20" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>5115.7858854282058</v>
       </c>
       <c r="AP20" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>6528.5066423680892</v>
       </c>
       <c r="AQ20" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>8152.5782429385808</v>
       </c>
       <c r="AR20" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>10021.119077416592</v>
       </c>
     </row>
@@ -4056,26 +4051,26 @@
         <v>29</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" ref="C21" si="73">C19+C20</f>
+        <f t="shared" ref="C21" si="72">C19+C20</f>
         <v>9843</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11">
-        <f t="shared" ref="G21" si="74">G19+G20</f>
+        <f t="shared" ref="G21" si="73">G19+G20</f>
         <v>7757</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" ref="H21" si="75">H19+H20</f>
+        <f t="shared" ref="H21" si="74">H19+H20</f>
         <v>8277</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" ref="I21" si="76">I19+I20</f>
+        <f t="shared" ref="I21" si="75">I19+I20</f>
         <v>13359</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" ref="J21" si="77">J19+J20</f>
+        <f t="shared" ref="J21" si="76">J19+J20</f>
         <v>18689</v>
       </c>
       <c r="K21" s="11">
@@ -4083,71 +4078,71 @@
         <v>21283</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" ref="L21:O21" si="78">L19+L20</f>
+        <f t="shared" ref="L21:O21" si="77">L19+L20</f>
         <v>21625</v>
       </c>
       <c r="M21" s="11">
+        <f t="shared" si="77"/>
+        <v>23064</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="77"/>
+        <v>24402</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="77"/>
+        <v>18934</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" ref="P21:V21" si="78">P19+P20</f>
+        <v>19014</v>
+      </c>
+      <c r="Q21" s="11">
         <f t="shared" si="78"/>
-        <v>23064</v>
-      </c>
-      <c r="N21" s="11">
+        <v>16233</v>
+      </c>
+      <c r="R21" s="11">
         <f t="shared" si="78"/>
-        <v>24402</v>
-      </c>
-      <c r="O21" s="11">
+        <v>17147</v>
+      </c>
+      <c r="S21" s="11">
         <f t="shared" si="78"/>
-        <v>18934</v>
-      </c>
-      <c r="P21" s="11">
-        <f t="shared" ref="P21:V21" si="79">P19+P20</f>
-        <v>19014</v>
-      </c>
-      <c r="Q21" s="11">
+        <v>18205</v>
+      </c>
+      <c r="T21" s="11">
+        <f t="shared" si="78"/>
+        <v>21903</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="78"/>
+        <v>18183.515499999994</v>
+      </c>
+      <c r="V21" s="11">
+        <f t="shared" si="78"/>
+        <v>20553.377999999993</v>
+      </c>
+      <c r="AB21" s="3">
+        <f t="shared" ref="AB21:AG21" si="79">+AB19+AB20</f>
+        <v>17259</v>
+      </c>
+      <c r="AC21" s="3">
         <f t="shared" si="79"/>
-        <v>16233</v>
-      </c>
-      <c r="R21" s="11">
+        <v>19651</v>
+      </c>
+      <c r="AD21" s="3">
         <f t="shared" si="79"/>
-        <v>17147</v>
-      </c>
-      <c r="S21" s="11">
+        <v>24150</v>
+      </c>
+      <c r="AE21" s="3">
         <f t="shared" si="79"/>
-        <v>18205</v>
-      </c>
-      <c r="T21" s="11">
+        <v>29929</v>
+      </c>
+      <c r="AF21" s="3">
         <f t="shared" si="79"/>
-        <v>19909.359999999997</v>
-      </c>
-      <c r="U21" s="11">
+        <v>39984</v>
+      </c>
+      <c r="AG21" s="3">
         <f t="shared" si="79"/>
-        <v>18069.515499999994</v>
-      </c>
-      <c r="V21" s="11">
-        <f t="shared" si="79"/>
-        <v>20410.877999999993</v>
-      </c>
-      <c r="AB21" s="3">
-        <f t="shared" ref="AB21:AG21" si="80">+AB19+AB20</f>
-        <v>17259</v>
-      </c>
-      <c r="AC21" s="3">
-        <f t="shared" si="80"/>
-        <v>19651</v>
-      </c>
-      <c r="AD21" s="3">
-        <f t="shared" si="80"/>
-        <v>24150</v>
-      </c>
-      <c r="AE21" s="3">
-        <f t="shared" si="80"/>
-        <v>29929</v>
-      </c>
-      <c r="AF21" s="3">
-        <f t="shared" si="80"/>
-        <v>39984</v>
-      </c>
-      <c r="AG21" s="3">
-        <f t="shared" si="80"/>
         <v>41322</v>
       </c>
       <c r="AH21" s="3">
@@ -4155,43 +4150,43 @@
         <v>48082</v>
       </c>
       <c r="AI21" s="3">
-        <f t="shared" ref="AI21:AK21" si="81">AI19+AI20</f>
+        <f t="shared" ref="AI21:AK21" si="80">AI19+AI20</f>
         <v>90734</v>
       </c>
       <c r="AJ21" s="3">
+        <f t="shared" si="80"/>
+        <v>71328</v>
+      </c>
+      <c r="AK21" s="3">
+        <f t="shared" si="80"/>
+        <v>89553.072800000009</v>
+      </c>
+      <c r="AL21" s="3">
+        <f t="shared" ref="AL21:AR21" si="81">AL19+AL20</f>
+        <v>106177.48614496003</v>
+      </c>
+      <c r="AM21" s="3">
         <f t="shared" si="81"/>
-        <v>71328</v>
-      </c>
-      <c r="AK21" s="3">
+        <v>124211.42810562873</v>
+      </c>
+      <c r="AN21" s="3">
         <f t="shared" si="81"/>
-        <v>89553.072800000009</v>
-      </c>
-      <c r="AL21" s="3">
-        <f t="shared" ref="AL21:AR21" si="82">AL19+AL20</f>
-        <v>106177.48614496003</v>
-      </c>
-      <c r="AM21" s="3">
-        <f t="shared" si="82"/>
-        <v>124211.42810562873</v>
-      </c>
-      <c r="AN21" s="3">
-        <f t="shared" si="82"/>
         <v>145942.87702602166</v>
       </c>
       <c r="AO21" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>172283.01913901026</v>
       </c>
       <c r="AP21" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>198057.51226469409</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>227870.83347292827</v>
       </c>
       <c r="AR21" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>262400.23942851857</v>
       </c>
     </row>
@@ -4245,16 +4240,15 @@
         <v>3154</v>
       </c>
       <c r="T22" s="11">
-        <f t="shared" ref="T22:V22" si="83">T21*0.2</f>
-        <v>3981.8719999999994</v>
+        <v>3535</v>
       </c>
       <c r="U22" s="11">
-        <f t="shared" si="83"/>
-        <v>3613.9030999999991</v>
+        <f t="shared" ref="T22:V22" si="82">U21*0.2</f>
+        <v>3636.7030999999988</v>
       </c>
       <c r="V22" s="11">
-        <f t="shared" si="83"/>
-        <v>4082.1755999999987</v>
+        <f t="shared" si="82"/>
+        <v>4110.6755999999987</v>
       </c>
       <c r="AB22" s="3">
         <v>3639</v>
@@ -4281,7 +4275,7 @@
         <v>14701</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>11356</v>
       </c>
       <c r="AK22" s="3">
@@ -4289,31 +4283,31 @@
         <v>16119.553104000001</v>
       </c>
       <c r="AL22" s="3">
-        <f t="shared" ref="AL22:AR22" si="84">+AL21*0.18</f>
+        <f t="shared" ref="AL22:AR22" si="83">+AL21*0.18</f>
         <v>19111.947506092805</v>
       </c>
       <c r="AM22" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>22358.057059013172</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>26269.717864683898</v>
       </c>
       <c r="AO22" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>31010.943445021843</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>35650.352207644937</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>41016.750025127083</v>
       </c>
       <c r="AR22" s="3">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>47232.043097133341</v>
       </c>
     </row>
@@ -4322,26 +4316,26 @@
         <v>31</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23" si="85">C21-C22</f>
+        <f t="shared" ref="C23" si="84">C21-C22</f>
         <v>8354</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f t="shared" ref="G23" si="86">G21-G22</f>
+        <f t="shared" ref="G23" si="85">G21-G22</f>
         <v>6836</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23" si="87">H21-H22</f>
+        <f t="shared" ref="H23" si="86">H21-H22</f>
         <v>6959</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" ref="I23" si="88">I21-I22</f>
+        <f t="shared" ref="I23" si="87">I21-I22</f>
         <v>11247</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" ref="J23" si="89">J21-J22</f>
+        <f t="shared" ref="J23" si="88">J21-J22</f>
         <v>15227</v>
       </c>
       <c r="K23" s="11">
@@ -4349,71 +4343,71 @@
         <v>17930</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ref="L23:O23" si="90">L21-L22</f>
+        <f t="shared" ref="L23:O23" si="89">L21-L22</f>
         <v>18165</v>
       </c>
       <c r="M23" s="11">
+        <f t="shared" si="89"/>
+        <v>18936</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="89"/>
+        <v>20642</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" si="89"/>
+        <v>16436</v>
+      </c>
+      <c r="P23" s="11">
+        <f t="shared" ref="P23:V23" si="90">P21-P22</f>
+        <v>16002</v>
+      </c>
+      <c r="Q23" s="11">
         <f t="shared" si="90"/>
-        <v>18936</v>
-      </c>
-      <c r="N23" s="11">
+        <v>13910</v>
+      </c>
+      <c r="R23" s="11">
         <f t="shared" si="90"/>
-        <v>20642</v>
-      </c>
-      <c r="O23" s="11">
+        <v>13624</v>
+      </c>
+      <c r="S23" s="11">
         <f t="shared" si="90"/>
-        <v>16436</v>
-      </c>
-      <c r="P23" s="11">
-        <f t="shared" ref="P23:V23" si="91">P21-P22</f>
-        <v>16002</v>
-      </c>
-      <c r="Q23" s="11">
+        <v>15051</v>
+      </c>
+      <c r="T23" s="11">
+        <f t="shared" si="90"/>
+        <v>18368</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="90"/>
+        <v>14546.812399999995</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="90"/>
+        <v>16442.702399999995</v>
+      </c>
+      <c r="AB23" s="3">
+        <f t="shared" ref="AB23:AG23" si="91">+AB21-AB22</f>
+        <v>13620</v>
+      </c>
+      <c r="AC23" s="3">
         <f t="shared" si="91"/>
-        <v>13910</v>
-      </c>
-      <c r="R23" s="11">
+        <v>16348</v>
+      </c>
+      <c r="AD23" s="3">
         <f t="shared" si="91"/>
-        <v>13624</v>
-      </c>
-      <c r="S23" s="11">
+        <v>19478</v>
+      </c>
+      <c r="AE23" s="3">
         <f t="shared" si="91"/>
-        <v>15051</v>
-      </c>
-      <c r="T23" s="11">
+        <v>15398</v>
+      </c>
+      <c r="AF23" s="3">
         <f t="shared" si="91"/>
-        <v>15927.487999999998</v>
-      </c>
-      <c r="U23" s="11">
+        <v>35807</v>
+      </c>
+      <c r="AG23" s="3">
         <f t="shared" si="91"/>
-        <v>14455.612399999995</v>
-      </c>
-      <c r="V23" s="11">
-        <f t="shared" si="91"/>
-        <v>16328.702399999995</v>
-      </c>
-      <c r="AB23" s="3">
-        <f t="shared" ref="AB23:AG23" si="92">+AB21-AB22</f>
-        <v>13620</v>
-      </c>
-      <c r="AC23" s="3">
-        <f t="shared" si="92"/>
-        <v>16348</v>
-      </c>
-      <c r="AD23" s="3">
-        <f t="shared" si="92"/>
-        <v>19478</v>
-      </c>
-      <c r="AE23" s="3">
-        <f t="shared" si="92"/>
-        <v>15398</v>
-      </c>
-      <c r="AF23" s="3">
-        <f t="shared" si="92"/>
-        <v>35807</v>
-      </c>
-      <c r="AG23" s="3">
-        <f t="shared" si="92"/>
         <v>36040</v>
       </c>
       <c r="AH23" s="3">
@@ -4421,43 +4415,43 @@
         <v>40269</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" ref="AI23:AK23" si="93">AI21-AI22</f>
+        <f t="shared" ref="AI23:AK23" si="92">AI21-AI22</f>
         <v>76033</v>
       </c>
       <c r="AJ23" s="3">
+        <f t="shared" si="92"/>
+        <v>59972</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" si="92"/>
+        <v>73433.519696000003</v>
+      </c>
+      <c r="AL23" s="3">
+        <f t="shared" ref="AL23:AR23" si="93">AL21-AL22</f>
+        <v>87065.53863886722</v>
+      </c>
+      <c r="AM23" s="3">
         <f t="shared" si="93"/>
-        <v>59972</v>
-      </c>
-      <c r="AK23" s="3">
+        <v>101853.37104661556</v>
+      </c>
+      <c r="AN23" s="3">
         <f t="shared" si="93"/>
-        <v>73433.519696000003</v>
-      </c>
-      <c r="AL23" s="3">
-        <f t="shared" ref="AL23:AR23" si="94">AL21-AL22</f>
-        <v>87065.53863886722</v>
-      </c>
-      <c r="AM23" s="3">
-        <f t="shared" si="94"/>
-        <v>101853.37104661556</v>
-      </c>
-      <c r="AN23" s="3">
-        <f t="shared" si="94"/>
         <v>119673.15916133775</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>141272.07569398842</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>162407.16005704916</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>186854.08344780118</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>215168.19633138523</v>
       </c>
       <c r="AS23" s="3">
@@ -4465,227 +4459,227 @@
         <v>213016.51436807137</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" ref="AT23:CW23" si="95">+AS23*(1+$AU$27)</f>
+        <f t="shared" ref="AT23:CW23" si="94">+AS23*(1+$AU$27)</f>
         <v>210886.34922439064</v>
       </c>
       <c r="AU23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>208777.48573214674</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>206689.71087482528</v>
       </c>
       <c r="AW23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>204622.81376607702</v>
       </c>
       <c r="AX23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>202576.58562841624</v>
       </c>
       <c r="AY23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>200550.81977213209</v>
       </c>
       <c r="AZ23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>198545.31157441076</v>
       </c>
       <c r="BA23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>196559.85845866665</v>
       </c>
       <c r="BB23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>194594.25987407999</v>
       </c>
       <c r="BC23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>192648.31727533918</v>
       </c>
       <c r="BD23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>190721.8341025858</v>
       </c>
       <c r="BE23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>188814.61576155992</v>
       </c>
       <c r="BF23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>186926.46960394431</v>
       </c>
       <c r="BG23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>185057.20490790487</v>
       </c>
       <c r="BH23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>183206.63285882582</v>
       </c>
       <c r="BI23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>181374.56653023756</v>
       </c>
       <c r="BJ23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>179560.82086493517</v>
       </c>
       <c r="BK23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>177765.21265628582</v>
       </c>
       <c r="BL23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>175987.56052972295</v>
       </c>
       <c r="BM23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>174227.68492442573</v>
       </c>
       <c r="BN23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>172485.40807518148</v>
       </c>
       <c r="BO23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>170760.55399442965</v>
       </c>
       <c r="BP23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>169052.94845448536</v>
       </c>
       <c r="BQ23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>167362.41896994051</v>
       </c>
       <c r="BR23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>165688.79478024109</v>
       </c>
       <c r="BS23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>164031.90683243869</v>
       </c>
       <c r="BT23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>162391.58776411432</v>
       </c>
       <c r="BU23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>160767.67188647317</v>
       </c>
       <c r="BV23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>159159.99516760843</v>
       </c>
       <c r="BW23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>157568.39521593234</v>
       </c>
       <c r="BX23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>155992.711263773</v>
       </c>
       <c r="BY23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>154432.78415113527</v>
       </c>
       <c r="BZ23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>152888.45630962393</v>
       </c>
       <c r="CA23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>151359.57174652768</v>
       </c>
       <c r="CB23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>149845.97602906241</v>
       </c>
       <c r="CC23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>148347.51626877178</v>
       </c>
       <c r="CD23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>146864.04110608407</v>
       </c>
       <c r="CE23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>145395.40069502321</v>
       </c>
       <c r="CF23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>143941.44668807299</v>
       </c>
       <c r="CG23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>142502.03222119226</v>
       </c>
       <c r="CH23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>141077.01189898033</v>
       </c>
       <c r="CI23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>139666.24177999052</v>
       </c>
       <c r="CJ23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>138269.57936219062</v>
       </c>
       <c r="CK23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>136886.88356856871</v>
       </c>
       <c r="CL23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>135518.01473288302</v>
       </c>
       <c r="CM23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>134162.8345855542</v>
       </c>
       <c r="CN23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>132821.20623969866</v>
       </c>
       <c r="CO23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>131492.99417730168</v>
       </c>
       <c r="CP23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>130178.06423552865</v>
       </c>
       <c r="CQ23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>128876.28359317337</v>
       </c>
       <c r="CR23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>127587.52075724164</v>
       </c>
       <c r="CS23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>126311.64554966922</v>
       </c>
       <c r="CT23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>125048.52909417253</v>
       </c>
       <c r="CU23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>123798.0438032308</v>
       </c>
       <c r="CV23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>122560.0633651985</v>
       </c>
       <c r="CW23" s="3">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>121334.4627315465</v>
       </c>
     </row>
@@ -4694,42 +4688,42 @@
         <v>32</v>
       </c>
       <c r="C24" s="14">
-        <f t="shared" ref="C24" si="96">C23/C25</f>
+        <f t="shared" ref="C24" si="95">C23/C25</f>
         <v>11.919318455824756</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14">
-        <f t="shared" ref="G24" si="97">G23/G25</f>
+        <f t="shared" ref="G24" si="96">G23/G25</f>
         <v>9.8748026411774639</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" ref="H24" si="98">H23/H25</f>
+        <f t="shared" ref="H24" si="97">H23/H25</f>
         <v>10.129194904399265</v>
       </c>
       <c r="I24" s="14">
-        <f t="shared" ref="I24" si="99">I23/I25</f>
+        <f t="shared" ref="I24" si="98">I23/I25</f>
         <v>16.398605528022852</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" ref="J24" si="100">J23/J25</f>
+        <f t="shared" ref="J24" si="99">J23/J25</f>
         <v>22.295301836540162</v>
       </c>
       <c r="K24" s="14">
-        <f t="shared" ref="K24:N24" si="101">K23/K25</f>
+        <f t="shared" ref="K24:N24" si="100">K23/K25</f>
         <v>26.287585896482916</v>
       </c>
       <c r="L24" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>27.990344690984287</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>30.69474329100823</v>
       </c>
       <c r="O24" s="14">
@@ -4737,32 +4731,32 @@
         <v>24.621339792764896</v>
       </c>
       <c r="P24" s="14">
-        <f t="shared" ref="P24:V24" si="102">P23/P25</f>
+        <f t="shared" ref="P24:V24" si="101">P23/P25</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="Q24" s="14">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>1.0620752844162786</v>
       </c>
       <c r="R24" s="14">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>1.0522901058160192</v>
       </c>
       <c r="S24" s="14">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>1.1737502924432659</v>
       </c>
       <c r="T24" s="14">
-        <f t="shared" si="102"/>
-        <v>1.242103095999376</v>
+        <f t="shared" si="101"/>
+        <v>1.4544302795154012</v>
       </c>
       <c r="U24" s="14">
-        <f t="shared" si="102"/>
-        <v>1.1273190673009432</v>
+        <f t="shared" si="101"/>
+        <v>1.1518578193047744</v>
       </c>
       <c r="V24" s="14">
-        <f t="shared" si="102"/>
-        <v>1.2733917492006546</v>
+        <f t="shared" si="101"/>
+        <v>1.3019797608678434</v>
       </c>
       <c r="AH24" s="17">
         <f>AH23/AH25</f>
@@ -4781,31 +4775,31 @@
         <v>5.6080380594150139</v>
       </c>
       <c r="AL24" s="17">
-        <f t="shared" ref="AL24:AR24" si="103">AL23/AL25</f>
+        <f t="shared" ref="AL24:AR24" si="102">AL23/AL25</f>
         <v>6.6491005248224839</v>
       </c>
       <c r="AM24" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>7.778431207897734</v>
       </c>
       <c r="AN24" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>9.1393090518548288</v>
       </c>
       <c r="AO24" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>10.788794824274246</v>
       </c>
       <c r="AP24" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>12.402858238198393</v>
       </c>
       <c r="AQ24" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>14.269843197907582</v>
       </c>
       <c r="AR24" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>16.432161214626063</v>
       </c>
     </row>
@@ -4859,16 +4853,15 @@
         <v>12823</v>
       </c>
       <c r="T25" s="11">
-        <f t="shared" ref="T25:V25" si="104">S25</f>
-        <v>12823</v>
+        <v>12629</v>
       </c>
       <c r="U25" s="11">
-        <f t="shared" si="104"/>
-        <v>12823</v>
+        <f t="shared" ref="T25:V25" si="103">T25</f>
+        <v>12629</v>
       </c>
       <c r="V25" s="11">
-        <f t="shared" si="104"/>
-        <v>12823</v>
+        <f t="shared" si="103"/>
+        <v>12629</v>
       </c>
       <c r="AC25" s="3">
         <v>687.34799999999996</v>
@@ -4891,31 +4884,31 @@
         <v>13094.333333333334</v>
       </c>
       <c r="AL25" s="3">
-        <f t="shared" ref="AL25:AR25" si="105">+AK25</f>
+        <f t="shared" ref="AL25:AR25" si="104">+AK25</f>
         <v>13094.333333333334</v>
       </c>
       <c r="AM25" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AO25" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AP25" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AQ25" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AR25" s="3">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>13094.333333333334</v>
       </c>
     </row>
@@ -4932,19 +4925,19 @@
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16">
-        <f t="shared" ref="K27:L27" si="106">K11/G11-1</f>
+        <f t="shared" ref="K27:L27" si="105">K11/G11-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>0.61579235971486024</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" ref="M27" si="107">M11/I11-1</f>
+        <f t="shared" ref="M27" si="106">M11/I11-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" ref="N27" si="108">N11/J11-1</f>
+        <f t="shared" ref="N27" si="107">N11/J11-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="O27" s="16">
@@ -4952,11 +4945,11 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" ref="P27:U27" si="109">P11/L11-1</f>
+        <f t="shared" ref="P27:U27" si="108">P11/L11-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>6.1027672840074931E-2</v>
       </c>
       <c r="R27" s="16">
@@ -4968,11 +4961,11 @@
         <v>2.6113422828660138E-2</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>7.0589079428858392E-2</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>4.9233051583396081E-2</v>
       </c>
       <c r="V27" s="16">
@@ -4980,75 +4973,75 @@
         <v>4.9134231011992435E-2</v>
       </c>
       <c r="AA27" s="18">
-        <f t="shared" ref="AA27:AJ27" si="110">AA11/Z11-1</f>
+        <f t="shared" ref="AA27:AJ27" si="109">AA11/Z11-1</f>
         <v>0.2059123786355046</v>
       </c>
       <c r="AB27" s="18">
+        <f t="shared" si="109"/>
+        <v>0.18880023055170292</v>
+      </c>
+      <c r="AC27" s="18">
+        <f t="shared" si="109"/>
+        <v>0.13617975485219924</v>
+      </c>
+      <c r="AD27" s="18">
+        <f t="shared" si="109"/>
+        <v>0.20380322447292265</v>
+      </c>
+      <c r="AE27" s="18">
+        <f t="shared" si="109"/>
+        <v>0.22801090038993266</v>
+      </c>
+      <c r="AF27" s="18">
+        <f t="shared" si="109"/>
+        <v>0.23421586757475987</v>
+      </c>
+      <c r="AG27" s="18">
+        <f t="shared" si="109"/>
+        <v>0.18300089899794614</v>
+      </c>
+      <c r="AH27" s="18">
+        <f t="shared" si="109"/>
+        <v>0.12770532012826141</v>
+      </c>
+      <c r="AI27" s="18">
+        <f t="shared" si="109"/>
+        <v>0.41150076427049154</v>
+      </c>
+      <c r="AJ27" s="18">
+        <f t="shared" si="109"/>
+        <v>9.7808156437157789E-2</v>
+      </c>
+      <c r="AK27" s="18">
+        <f t="shared" ref="AK27:AR27" si="110">AK11/AJ11-1</f>
+        <v>9.9438826740584574E-2</v>
+      </c>
+      <c r="AL27" s="18">
         <f t="shared" si="110"/>
-        <v>0.18880023055170292</v>
-      </c>
-      <c r="AC27" s="18">
+        <v>0.11590861782999839</v>
+      </c>
+      <c r="AM27" s="18">
         <f t="shared" si="110"/>
-        <v>0.13617975485219924</v>
-      </c>
-      <c r="AD27" s="18">
+        <v>0.11152619526934493</v>
+      </c>
+      <c r="AN27" s="18">
         <f t="shared" si="110"/>
-        <v>0.20380322447292265</v>
-      </c>
-      <c r="AE27" s="18">
+        <v>0.11781371393947904</v>
+      </c>
+      <c r="AO27" s="18">
         <f t="shared" si="110"/>
-        <v>0.22801090038993266</v>
-      </c>
-      <c r="AF27" s="18">
+        <v>0.12472714817761998</v>
+      </c>
+      <c r="AP27" s="18">
         <f t="shared" si="110"/>
-        <v>0.23421586757475987</v>
-      </c>
-      <c r="AG27" s="18">
+        <v>0.10893235849757321</v>
+      </c>
+      <c r="AQ27" s="18">
         <f t="shared" si="110"/>
-        <v>0.18300089899794614</v>
-      </c>
-      <c r="AH27" s="18">
+        <v>0.11180845813012263</v>
+      </c>
+      <c r="AR27" s="18">
         <f t="shared" si="110"/>
-        <v>0.12770532012826141</v>
-      </c>
-      <c r="AI27" s="18">
-        <f t="shared" si="110"/>
-        <v>0.41150076427049154</v>
-      </c>
-      <c r="AJ27" s="18">
-        <f t="shared" si="110"/>
-        <v>9.7808156437157789E-2</v>
-      </c>
-      <c r="AK27" s="18">
-        <f t="shared" ref="AK27:AR27" si="111">AK11/AJ11-1</f>
-        <v>9.9438826740584574E-2</v>
-      </c>
-      <c r="AL27" s="18">
-        <f t="shared" si="111"/>
-        <v>0.11590861782999839</v>
-      </c>
-      <c r="AM27" s="18">
-        <f t="shared" si="111"/>
-        <v>0.11152619526934493</v>
-      </c>
-      <c r="AN27" s="18">
-        <f t="shared" si="111"/>
-        <v>0.11781371393947904</v>
-      </c>
-      <c r="AO27" s="18">
-        <f t="shared" si="111"/>
-        <v>0.12472714817761998</v>
-      </c>
-      <c r="AP27" s="18">
-        <f t="shared" si="111"/>
-        <v>0.10893235849757321</v>
-      </c>
-      <c r="AQ27" s="18">
-        <f t="shared" si="111"/>
-        <v>0.11180845813012263</v>
-      </c>
-      <c r="AR27" s="18">
-        <f t="shared" si="111"/>
         <v>0.11473876239429304</v>
       </c>
       <c r="AT27" s="18" t="s">
@@ -5113,19 +5106,19 @@
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
       <c r="K29" s="15">
-        <f t="shared" ref="K29" si="112">+K9/G9-1</f>
+        <f t="shared" ref="K29" si="111">+K9/G9-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" ref="L29:N29" si="113">+L9/H9-1</f>
+        <f t="shared" ref="L29:N29" si="112">+L9/H9-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O29" s="15">
@@ -5145,39 +5138,39 @@
         <v>-1.6096625943973542E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" ref="S29:V29" si="114">+S9/O9-1</f>
+        <f t="shared" ref="S29:V29" si="113">+S9/O9-1</f>
         <v>1.8703619566863505E-2</v>
       </c>
       <c r="T29" s="15">
+        <f t="shared" si="113"/>
+        <v>4.7654157143208309E-2</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="113"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="113"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AF29" s="5">
+        <f t="shared" ref="AF29:AJ29" si="114">+AF9/AE9-1</f>
+        <v>0.22181318130380601</v>
+      </c>
+      <c r="AG29" s="5">
         <f t="shared" si="114"/>
-        <v>4.7654157143208309E-2</v>
-      </c>
-      <c r="U29" s="15">
+        <v>0.15028840742824978</v>
+      </c>
+      <c r="AH29" s="5">
         <f t="shared" si="114"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="V29" s="15">
+        <v>6.0612546501554343E-2</v>
+      </c>
+      <c r="AI29" s="5">
         <f t="shared" si="114"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AF29" s="5">
-        <f t="shared" ref="AF29:AJ29" si="115">+AF9/AE9-1</f>
-        <v>0.22181318130380601</v>
-      </c>
-      <c r="AG29" s="5">
-        <f t="shared" si="115"/>
-        <v>0.15028840742824978</v>
-      </c>
-      <c r="AH29" s="5">
-        <f t="shared" si="115"/>
-        <v>6.0612546501554343E-2</v>
-      </c>
-      <c r="AI29" s="5">
-        <f t="shared" si="115"/>
         <v>0.43136783840402826</v>
       </c>
       <c r="AJ29" s="5">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>9.0627118985438182E-2</v>
       </c>
       <c r="AK29" s="5">
@@ -5185,31 +5178,31 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" ref="AL29:AR29" si="116">+AL9/AK9-1</f>
+        <f t="shared" ref="AL29:AR29" si="115">+AL9/AK9-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AN29" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AO29" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AP29" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ29" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AR29" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AT29" s="5" t="s">
@@ -5232,31 +5225,31 @@
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="K30" s="15">
-        <f t="shared" ref="K30" si="117">+K8/G8-1</f>
+        <f t="shared" ref="K30" si="116">+K8/G8-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" ref="L30:Q30" si="118">+L8/H8-1</f>
+        <f t="shared" ref="L30:Q30" si="117">+L8/H8-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="R30" s="15">
@@ -5264,35 +5257,35 @@
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" ref="S30:V30" si="119">+S8/O8-1</f>
+        <f t="shared" ref="S30:V30" si="118">+S8/O8-1</f>
         <v>-2.5622361333527466E-2</v>
       </c>
       <c r="T30" s="15">
+        <f t="shared" si="118"/>
+        <v>4.4277929155313256E-2</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" si="118"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="V30" s="15">
+        <f t="shared" si="118"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AF30" s="5">
+        <f t="shared" ref="AF30:AI30" si="119">+AF8/AE8-1</f>
+        <v>0.36871165644171788</v>
+      </c>
+      <c r="AG30" s="5">
         <f t="shared" si="119"/>
-        <v>4.4277929155313256E-2</v>
-      </c>
-      <c r="U30" s="15">
+        <v>0.35804571940833707</v>
+      </c>
+      <c r="AH30" s="5">
         <f t="shared" si="119"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="V30" s="15">
+        <v>0.30516865799722748</v>
+      </c>
+      <c r="AI30" s="5">
         <f t="shared" si="119"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AF30" s="5">
-        <f t="shared" ref="AF30:AI30" si="120">+AF8/AE8-1</f>
-        <v>0.36871165644171788</v>
-      </c>
-      <c r="AG30" s="5">
-        <f t="shared" si="120"/>
-        <v>0.35804571940833707</v>
-      </c>
-      <c r="AH30" s="5">
-        <f t="shared" si="120"/>
-        <v>0.30516865799722748</v>
-      </c>
-      <c r="AI30" s="5">
-        <f t="shared" si="120"/>
         <v>0.45888124620675708</v>
       </c>
       <c r="AJ30" s="5">
@@ -5304,31 +5297,31 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AL30" s="15">
-        <f t="shared" ref="AL30:AR30" si="121">+AL8/AK8-1</f>
+        <f t="shared" ref="AL30:AR30" si="120">+AL8/AK8-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AM30" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AN30" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AO30" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AP30" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AQ30" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AR30" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AT30" s="5" t="s">
@@ -5336,7 +5329,7 @@
       </c>
       <c r="AU30" s="3">
         <f>NPV(AU28,AK23:CW23)+Main!L5-Main!L6</f>
-        <v>2134541.8680530442</v>
+        <v>2140839.8680530442</v>
       </c>
     </row>
     <row r="31" spans="2:101" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5352,19 +5345,19 @@
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15">
-        <f t="shared" ref="K31" si="122">K10/G10-1</f>
+        <f t="shared" ref="K31" si="121">K10/G10-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" ref="L31" si="123">L10/H10-1</f>
+        <f t="shared" ref="L31" si="122">L10/H10-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" ref="M31" si="124">M10/I10-1</f>
+        <f t="shared" ref="M31" si="123">M10/I10-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" ref="N31" si="125">N10/J10-1</f>
+        <f t="shared" ref="N31" si="124">N10/J10-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O31" s="15">
@@ -5372,11 +5365,11 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" ref="P31:Q31" si="126">P10/L10-1</f>
+        <f t="shared" ref="P31:Q31" si="125">P10/L10-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="R31" s="15">
@@ -5384,39 +5377,39 @@
         <v>-2.2507204610951015E-2</v>
       </c>
       <c r="S31" s="15">
-        <f t="shared" ref="S31:V31" si="127">S10/O10-1</f>
+        <f t="shared" ref="S31:V31" si="126">S10/O10-1</f>
         <v>7.9548412285268544E-3</v>
       </c>
       <c r="T31" s="15">
+        <f t="shared" si="126"/>
+        <v>5.4804984007256419E-2</v>
+      </c>
+      <c r="U31" s="15">
+        <f t="shared" si="126"/>
+        <v>3.2246769962689603E-2</v>
+      </c>
+      <c r="V31" s="15">
+        <f t="shared" si="126"/>
+        <v>3.2593236828915906E-2</v>
+      </c>
+      <c r="AF31" s="5">
+        <f t="shared" ref="AF31:AJ31" si="127">+AF10/AE10-1</f>
+        <v>0.22568104346846218</v>
+      </c>
+      <c r="AG31" s="5">
         <f t="shared" si="127"/>
-        <v>5.4804984007256419E-2</v>
-      </c>
-      <c r="U31" s="15">
+        <v>0.16319604057491333</v>
+      </c>
+      <c r="AH31" s="5">
         <f t="shared" si="127"/>
-        <v>3.2246769962689603E-2</v>
-      </c>
-      <c r="V31" s="15">
+        <v>0.11071957846204517</v>
+      </c>
+      <c r="AI31" s="5">
         <f t="shared" si="127"/>
-        <v>3.2593236828915906E-2</v>
-      </c>
-      <c r="AF31" s="5">
-        <f t="shared" ref="AF31:AJ31" si="128">+AF10/AE10-1</f>
-        <v>0.22568104346846218</v>
-      </c>
-      <c r="AG31" s="5">
-        <f t="shared" si="128"/>
-        <v>0.16319604057491333</v>
-      </c>
-      <c r="AH31" s="5">
-        <f t="shared" si="128"/>
-        <v>0.11071957846204517</v>
-      </c>
-      <c r="AI31" s="5">
-        <f t="shared" si="128"/>
         <v>0.40853915260770313</v>
       </c>
       <c r="AJ31" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>6.7355986005919188E-2</v>
       </c>
       <c r="AK31" s="5">
@@ -5424,31 +5417,31 @@
         <v>7.7159919219967898E-2</v>
       </c>
       <c r="AL31" s="15">
-        <f t="shared" ref="AL31:AR31" si="129">+AL10/AK10-1</f>
+        <f t="shared" ref="AL31:AR31" si="128">+AL10/AK10-1</f>
         <v>7.8052815516631568E-2</v>
       </c>
       <c r="AM31" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>7.8926787613141869E-2</v>
       </c>
       <c r="AN31" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>7.9780908994353084E-2</v>
       </c>
       <c r="AO31" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.0614365686686451E-2</v>
       </c>
       <c r="AP31" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.1426456360157662E-2</v>
       </c>
       <c r="AQ31" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.2216591293572172E-2</v>
       </c>
       <c r="AR31" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.2984290295815111E-2</v>
       </c>
       <c r="AT31" s="5" t="s">
@@ -5456,7 +5449,7 @@
       </c>
       <c r="AU31" s="1">
         <f>+AU30/Main!L3</f>
-        <v>164.8676811657561</v>
+        <v>169.51776609811103</v>
       </c>
     </row>
     <row r="32" spans="2:101" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5472,19 +5465,19 @@
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
       <c r="K32" s="15">
-        <f t="shared" ref="K32" si="130">K5/G5-1</f>
+        <f t="shared" ref="K32" si="129">K5/G5-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L32" s="15">
-        <f t="shared" ref="L32" si="131">L5/H5-1</f>
+        <f t="shared" ref="L32" si="130">L5/H5-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M32" s="15">
-        <f t="shared" ref="M32" si="132">M5/I5-1</f>
+        <f t="shared" ref="M32" si="131">M5/I5-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N32" s="15">
-        <f t="shared" ref="N32" si="133">N5/J5-1</f>
+        <f t="shared" ref="N32" si="132">N5/J5-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O32" s="15">
@@ -5492,11 +5485,11 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P32" s="15">
-        <f t="shared" ref="P32:Q32" si="134">P5/L5-1</f>
+        <f t="shared" ref="P32:Q32" si="133">P5/L5-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q32" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="133"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="R32" s="15">
@@ -5504,39 +5497,39 @@
         <v>0.3201588160981772</v>
       </c>
       <c r="S32" s="15">
-        <f t="shared" ref="S32:V32" si="135">S5/O5-1</f>
+        <f t="shared" ref="S32:V32" si="134">S5/O5-1</f>
         <v>0.28053599037965982</v>
       </c>
       <c r="T32" s="15">
+        <f t="shared" si="134"/>
+        <v>0.2796367112810707</v>
+      </c>
+      <c r="U32" s="15">
+        <f t="shared" si="134"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="V32" s="15">
+        <f t="shared" si="134"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF32" s="5">
+        <f t="shared" ref="AF32:AJ32" si="135">+AF5/AE5-1</f>
+        <v>0.43934911242603558</v>
+      </c>
+      <c r="AG32" s="5">
         <f t="shared" si="135"/>
-        <v>0.2796367112810707</v>
-      </c>
-      <c r="U32" s="15">
+        <v>0.52757793764988015</v>
+      </c>
+      <c r="AH32" s="5">
         <f t="shared" si="135"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="V32" s="15">
+        <v>0.46434178066831122</v>
+      </c>
+      <c r="AI32" s="5">
         <f t="shared" si="135"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AF32" s="5">
-        <f t="shared" ref="AF32:AJ32" si="136">+AF5/AE5-1</f>
-        <v>0.43934911242603558</v>
-      </c>
-      <c r="AG32" s="5">
-        <f t="shared" si="136"/>
-        <v>0.52757793764988015</v>
-      </c>
-      <c r="AH32" s="5">
-        <f t="shared" si="136"/>
-        <v>0.46434178066831122</v>
-      </c>
-      <c r="AI32" s="5">
-        <f t="shared" si="136"/>
         <v>0.47070985527222597</v>
       </c>
       <c r="AJ32" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="135"/>
         <v>0.36832239925023424</v>
       </c>
       <c r="AK32" s="5">
@@ -5544,31 +5537,31 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="AL32" s="15">
-        <f t="shared" ref="AL32:AR32" si="137">+AL5/AK5-1</f>
+        <f t="shared" ref="AL32:AR32" si="136">+AL5/AK5-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="AM32" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>0.30000000000000027</v>
       </c>
       <c r="AN32" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AO32" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AP32" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AQ32" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AR32" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -5581,19 +5574,19 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15">
-        <f t="shared" ref="G33:H33" si="138">G14/G11</f>
+        <f t="shared" ref="G33:H33" si="137">G14/G11</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="138"/>
+        <f t="shared" si="137"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" ref="I33" si="139">I14/I11</f>
+        <f t="shared" ref="I33" si="138">I14/I11</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" ref="J33" si="140">J14/J11</f>
+        <f t="shared" ref="J33" si="139">J14/J11</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="K33" s="15">
@@ -5601,27 +5594,27 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" ref="L33:O33" si="141">L14/L11</f>
+        <f t="shared" ref="L33:O33" si="140">L14/L11</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="M33" s="15">
+        <f t="shared" si="140"/>
+        <v>0.57583156730857832</v>
+      </c>
+      <c r="N33" s="15">
+        <f t="shared" si="140"/>
+        <v>0.56205774975107869</v>
+      </c>
+      <c r="O33" s="15">
+        <f t="shared" si="140"/>
+        <v>0.5647909896928438</v>
+      </c>
+      <c r="P33" s="15">
+        <f t="shared" ref="P33:Q33" si="141">P14/P11</f>
+        <v>0.56799885197675248</v>
+      </c>
+      <c r="Q33" s="15">
         <f t="shared" si="141"/>
-        <v>0.57583156730857832</v>
-      </c>
-      <c r="N33" s="15">
-        <f t="shared" si="141"/>
-        <v>0.56205774975107869</v>
-      </c>
-      <c r="O33" s="15">
-        <f t="shared" si="141"/>
-        <v>0.5647909896928438</v>
-      </c>
-      <c r="P33" s="15">
-        <f t="shared" ref="P33:Q33" si="142">P14/P11</f>
-        <v>0.56799885197675248</v>
-      </c>
-      <c r="Q33" s="15">
-        <f t="shared" si="142"/>
         <v>0.54903606785156023</v>
       </c>
       <c r="R33" s="15">
@@ -5629,47 +5622,47 @@
         <v>0.53526719966337055</v>
       </c>
       <c r="S33" s="15">
-        <f t="shared" ref="S33:V33" si="143">S14/S11</f>
+        <f t="shared" ref="S33:V33" si="142">S14/S11</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="142"/>
+        <v>0.5721945204010509</v>
+      </c>
+      <c r="U33" s="15">
+        <f t="shared" si="142"/>
         <v>0.54999999999999993</v>
       </c>
-      <c r="U33" s="15">
-        <f t="shared" si="143"/>
+      <c r="V33" s="15">
+        <f t="shared" si="142"/>
         <v>0.54999999999999993</v>
       </c>
-      <c r="V33" s="15">
-        <f t="shared" si="143"/>
-        <v>0.54999999999999993</v>
-      </c>
       <c r="AB33" s="5">
-        <f t="shared" ref="AB33" si="144">AB14/AB11</f>
+        <f t="shared" ref="AB33" si="143">AB14/AB11</f>
         <v>0.6107483219951213</v>
       </c>
       <c r="AC33" s="5">
-        <f t="shared" ref="AC33" si="145">AC14/AC11</f>
+        <f t="shared" ref="AC33" si="144">AC14/AC11</f>
         <v>0.62442491565429592</v>
       </c>
       <c r="AD33" s="5">
-        <f t="shared" ref="AD33:AE33" si="146">AD14/AD11</f>
+        <f t="shared" ref="AD33:AE33" si="145">AD14/AD11</f>
         <v>0.61075416518964909</v>
       </c>
       <c r="AE33" s="5">
+        <f t="shared" si="145"/>
+        <v>0.58880519597672631</v>
+      </c>
+      <c r="AF33" s="5">
+        <f t="shared" ref="AF33:AH33" si="146">AF14/AF11</f>
+        <v>0.5647607422945643</v>
+      </c>
+      <c r="AG33" s="5">
         <f t="shared" si="146"/>
-        <v>0.58880519597672631</v>
-      </c>
-      <c r="AF33" s="5">
-        <f t="shared" ref="AF33:AH33" si="147">AF14/AF11</f>
-        <v>0.5647607422945643</v>
-      </c>
-      <c r="AG33" s="5">
-        <f t="shared" si="147"/>
         <v>0.5558054331910266</v>
       </c>
       <c r="AH33" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="146"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="AI33" s="5">
@@ -5681,35 +5674,35 @@
         <v>0.55379442503783116</v>
       </c>
       <c r="AK33" s="5">
-        <f t="shared" ref="AK33" si="148">AK14/AK11</f>
+        <f t="shared" ref="AK33" si="147">AK14/AK11</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AL33" s="15">
-        <f t="shared" ref="AL33:AR33" si="149">AL14/AL11</f>
+        <f t="shared" ref="AL33:AR33" si="148">AL14/AL11</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AM33" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AN33" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AO33" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AP33" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AQ33" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AR33" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -5722,7 +5715,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
-        <f t="shared" ref="G34" si="150">+G22/G21</f>
+        <f t="shared" ref="G34" si="149">+G22/G21</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H34" s="15">
@@ -5730,39 +5723,39 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" ref="I34:Q34" si="151">+I22/I21</f>
+        <f t="shared" ref="I34:Q34" si="150">+I22/I21</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J34" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K34" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.16</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O34" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P34" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q34" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="R34" s="15">
@@ -5770,51 +5763,51 @@
         <v>0.20545868081880211</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34:V34" si="152">+S22/S21</f>
+        <f t="shared" ref="S34:V34" si="151">+S22/S21</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="151"/>
+        <v>0.16139341642697347</v>
+      </c>
+      <c r="U34" s="15">
+        <f t="shared" si="151"/>
         <v>0.2</v>
       </c>
-      <c r="U34" s="15">
-        <f t="shared" si="152"/>
+      <c r="V34" s="15">
+        <f t="shared" si="151"/>
         <v>0.2</v>
       </c>
-      <c r="V34" s="15">
-        <f t="shared" si="152"/>
-        <v>0.2</v>
-      </c>
       <c r="AB34" s="15">
-        <f t="shared" ref="AB34" si="153">+AB22/AB21</f>
+        <f t="shared" ref="AB34" si="152">+AB22/AB21</f>
         <v>0.21084651486181122</v>
       </c>
       <c r="AC34" s="15">
-        <f t="shared" ref="AC34" si="154">+AC22/AC21</f>
+        <f t="shared" ref="AC34" si="153">+AC22/AC21</f>
         <v>0.16808304920869166</v>
       </c>
       <c r="AD34" s="15">
-        <f t="shared" ref="AD34:AE34" si="155">+AD22/AD21</f>
+        <f t="shared" ref="AD34:AE34" si="154">+AD22/AD21</f>
         <v>0.19345755693581781</v>
       </c>
       <c r="AE34" s="15">
+        <f t="shared" si="154"/>
+        <v>0.48551572053860803</v>
+      </c>
+      <c r="AF34" s="15">
+        <f t="shared" ref="AF34:AH34" si="155">+AF22/AF21</f>
+        <v>0.10446678671468587</v>
+      </c>
+      <c r="AG34" s="15">
         <f t="shared" si="155"/>
-        <v>0.48551572053860803</v>
-      </c>
-      <c r="AF34" s="15">
-        <f t="shared" ref="AF34:AH34" si="156">+AF22/AF21</f>
-        <v>0.10446678671468587</v>
-      </c>
-      <c r="AG34" s="15">
-        <f t="shared" si="156"/>
         <v>0.12782537147282319</v>
       </c>
       <c r="AH34" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="155"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="AI34" s="15">
-        <f t="shared" ref="AI34:AK34" si="157">+AI22/AI21</f>
+        <f t="shared" ref="AI34:AK34" si="156">+AI22/AI21</f>
         <v>0.16202305640663919</v>
       </c>
       <c r="AJ34" s="15">
@@ -5822,35 +5815,35 @@
         <v>0.1592081650964558</v>
       </c>
       <c r="AK34" s="15">
+        <f t="shared" si="156"/>
+        <v>0.18</v>
+      </c>
+      <c r="AL34" s="15">
+        <f t="shared" ref="AL34:AR34" si="157">+AL22/AL21</f>
+        <v>0.18</v>
+      </c>
+      <c r="AM34" s="15">
         <f t="shared" si="157"/>
         <v>0.18</v>
       </c>
-      <c r="AL34" s="15">
-        <f t="shared" ref="AL34:AR34" si="158">+AL22/AL21</f>
+      <c r="AN34" s="15">
+        <f t="shared" si="157"/>
         <v>0.18</v>
       </c>
-      <c r="AM34" s="15">
-        <f t="shared" si="158"/>
+      <c r="AO34" s="15">
+        <f t="shared" si="157"/>
         <v>0.18</v>
       </c>
-      <c r="AN34" s="15">
-        <f t="shared" si="158"/>
+      <c r="AP34" s="15">
+        <f t="shared" si="157"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="AQ34" s="15">
+        <f t="shared" si="157"/>
         <v>0.18</v>
       </c>
-      <c r="AO34" s="15">
-        <f t="shared" si="158"/>
-        <v>0.18</v>
-      </c>
-      <c r="AP34" s="15">
-        <f t="shared" si="158"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="AQ34" s="15">
-        <f t="shared" si="158"/>
-        <v>0.18</v>
-      </c>
       <c r="AR34" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>0.18</v>
       </c>
     </row>
@@ -5863,15 +5856,15 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15">
-        <f t="shared" ref="G35:H35" si="159">G9/G11</f>
+        <f t="shared" ref="G35:H35" si="158">G9/G11</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="158"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" ref="I35" si="160">I9/I11</f>
+        <f t="shared" ref="I35" si="159">I9/I11</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J35" s="15">
@@ -5879,31 +5872,31 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" ref="K35:O35" si="161">K9/K11</f>
+        <f t="shared" ref="K35:O35" si="160">K9/K11</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L35" s="15">
+        <f t="shared" si="160"/>
+        <v>0.57926632191338079</v>
+      </c>
+      <c r="M35" s="15">
+        <f t="shared" si="160"/>
+        <v>0.58241960748180222</v>
+      </c>
+      <c r="N35" s="15">
+        <f t="shared" si="160"/>
+        <v>0.5748556256223033</v>
+      </c>
+      <c r="O35" s="15">
+        <f t="shared" si="160"/>
+        <v>0.58252341532987306</v>
+      </c>
+      <c r="P35" s="15">
+        <f t="shared" ref="P35:Q35" si="161">P9/P11</f>
+        <v>0.58389897395422252</v>
+      </c>
+      <c r="Q35" s="15">
         <f t="shared" si="161"/>
-        <v>0.57926632191338079</v>
-      </c>
-      <c r="M35" s="15">
-        <f t="shared" si="161"/>
-        <v>0.58241960748180222</v>
-      </c>
-      <c r="N35" s="15">
-        <f t="shared" si="161"/>
-        <v>0.5748556256223033</v>
-      </c>
-      <c r="O35" s="15">
-        <f t="shared" si="161"/>
-        <v>0.58252341532987306</v>
-      </c>
-      <c r="P35" s="15">
-        <f t="shared" ref="P35:Q35" si="162">P9/P11</f>
-        <v>0.58389897395422252</v>
-      </c>
-      <c r="Q35" s="15">
-        <f t="shared" si="162"/>
         <v>0.57226596422161757</v>
       </c>
       <c r="R35" s="15">
@@ -5911,63 +5904,63 @@
         <v>0.56022512097622557</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" ref="S35:V35" si="163">S9/S11</f>
+        <f t="shared" ref="S35:V35" si="162">S9/S11</f>
         <v>0.57831687850172664</v>
       </c>
       <c r="T35" s="15">
+        <f t="shared" si="162"/>
+        <v>0.57139027397994746</v>
+      </c>
+      <c r="U35" s="15">
+        <f t="shared" si="162"/>
+        <v>0.56177599653265986</v>
+      </c>
+      <c r="V35" s="15">
+        <f t="shared" si="162"/>
+        <v>0.55000767065707956</v>
+      </c>
+      <c r="AH35" s="15">
+        <f t="shared" ref="AH35:AK35" si="163">AH9/AH11</f>
+        <v>0.57011839344316184</v>
+      </c>
+      <c r="AI35" s="15">
         <f t="shared" si="163"/>
-        <v>0.57139027397994746</v>
-      </c>
-      <c r="U35" s="15">
+        <v>0.57814289096674776</v>
+      </c>
+      <c r="AJ35" s="15">
         <f t="shared" si="163"/>
-        <v>0.56177599653265986</v>
-      </c>
-      <c r="V35" s="15">
+        <v>0.57436111386103605</v>
+      </c>
+      <c r="AK35" s="15">
         <f t="shared" si="163"/>
-        <v>0.55000767065707956</v>
-      </c>
-      <c r="AH35" s="15">
-        <f t="shared" ref="AH35:AK35" si="164">AH9/AH11</f>
-        <v>0.57011839344316184</v>
-      </c>
-      <c r="AI35" s="15">
+        <v>0.57465427805581204</v>
+      </c>
+      <c r="AL35" s="15">
+        <f t="shared" ref="AL35:AR35" si="164">AL9/AL11</f>
+        <v>0.56646189101990851</v>
+      </c>
+      <c r="AM35" s="15">
         <f t="shared" si="164"/>
-        <v>0.57814289096674776</v>
-      </c>
-      <c r="AJ35" s="15">
+        <v>0.56058785008742684</v>
+      </c>
+      <c r="AN35" s="15">
         <f t="shared" si="164"/>
-        <v>0.57436111386103605</v>
-      </c>
-      <c r="AK35" s="15">
+        <v>0.55165420445857594</v>
+      </c>
+      <c r="AO35" s="15">
         <f t="shared" si="164"/>
-        <v>0.57465427805581204</v>
-      </c>
-      <c r="AL35" s="15">
-        <f t="shared" ref="AL35:AR35" si="165">AL9/AL11</f>
-        <v>0.56646189101990851</v>
-      </c>
-      <c r="AM35" s="15">
-        <f t="shared" si="165"/>
-        <v>0.56058785008742684</v>
-      </c>
-      <c r="AN35" s="15">
-        <f t="shared" si="165"/>
-        <v>0.55165420445857594</v>
-      </c>
-      <c r="AO35" s="15">
-        <f t="shared" si="165"/>
         <v>0.53952607606889824</v>
       </c>
       <c r="AP35" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.53518023811646842</v>
       </c>
       <c r="AQ35" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.52949611745013003</v>
       </c>
       <c r="AR35" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="164"/>
         <v>0.52249526870684604</v>
       </c>
     </row>
@@ -5980,47 +5973,47 @@
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15">
-        <f t="shared" ref="G36:J36" si="166">(G9+G8+G7)/G11</f>
+        <f t="shared" ref="G36:J36" si="165">(G9+G8+G7)/G11</f>
         <v>0.82030661580699238</v>
       </c>
       <c r="H36" s="15">
+        <f t="shared" si="165"/>
+        <v>0.7798783194506097</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="165"/>
+        <v>0.80339159248911707</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="165"/>
+        <v>0.81196175612499566</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" ref="K36:Q36" si="166">(K9+K8+K7)/K11</f>
+        <v>0.80782442058068482</v>
+      </c>
+      <c r="L36" s="15">
         <f t="shared" si="166"/>
-        <v>0.7798783194506097</v>
-      </c>
-      <c r="I36" s="15">
+        <v>0.81519069166127989</v>
+      </c>
+      <c r="M36" s="15">
         <f t="shared" si="166"/>
-        <v>0.80339159248911707</v>
-      </c>
-      <c r="J36" s="15">
+        <v>0.81590343683774069</v>
+      </c>
+      <c r="N36" s="15">
         <f t="shared" si="166"/>
-        <v>0.81196175612499566</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" ref="K36:Q36" si="167">(K9+K8+K7)/K11</f>
-        <v>0.80782442058068482</v>
-      </c>
-      <c r="L36" s="15">
-        <f t="shared" si="167"/>
-        <v>0.81519069166127989</v>
-      </c>
-      <c r="M36" s="15">
-        <f t="shared" si="167"/>
-        <v>0.81590343683774069</v>
-      </c>
-      <c r="N36" s="15">
-        <f t="shared" si="167"/>
         <v>0.81299701294390969</v>
       </c>
       <c r="O36" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>0.80370822366970052</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>0.80774915692042759</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>0.78854281248190816</v>
       </c>
       <c r="R36" s="15">
@@ -6028,19 +6021,19 @@
         <v>0.77637807700399752</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" ref="S36:V36" si="168">(S9+S8+S7)/S11</f>
+        <f t="shared" ref="S36:V36" si="167">(S9+S8+S7)/S11</f>
         <v>0.78163554816799685</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>0.779354994370275</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>0.77408836447791729</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>0.76221840416240938</v>
       </c>
       <c r="AH36" s="15"/>
@@ -6064,11 +6057,11 @@
         <v>124580</v>
       </c>
       <c r="N38" s="11">
-        <f t="shared" ref="N38:O38" si="169">+N39-N57</f>
+        <f t="shared" ref="N38:O38" si="168">+N39-N57</f>
         <v>154381</v>
       </c>
       <c r="O38" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="168"/>
         <v>149723</v>
       </c>
       <c r="P38" s="11">
@@ -6083,8 +6076,14 @@
         <f>+R39-R57</f>
         <v>129553</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
+      <c r="S38" s="11">
+        <f>+S39-S57</f>
+        <v>132618</v>
+      </c>
+      <c r="T38" s="11">
+        <f>+T39-T57</f>
+        <v>135851</v>
+      </c>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="AD38" s="3">
@@ -6099,31 +6098,31 @@
         <v>202986.519696</v>
       </c>
       <c r="AL38" s="3">
-        <f t="shared" ref="AL38:AR38" si="170">+AK38+AL23</f>
+        <f t="shared" ref="AL38:AR38" si="169">+AK38+AL23</f>
         <v>290052.05833486724</v>
       </c>
       <c r="AM38" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>391905.42938148277</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>511578.58854282054</v>
       </c>
       <c r="AO38" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>652850.66423680889</v>
       </c>
       <c r="AP38" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>815257.82429385802</v>
       </c>
       <c r="AQ38" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>1002111.9077416592</v>
       </c>
       <c r="AR38" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>1217280.1040730444</v>
       </c>
     </row>
@@ -6165,8 +6164,14 @@
         <f>113762+30492</f>
         <v>144254</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
+      <c r="S39" s="11">
+        <f>115102+31213</f>
+        <v>146315</v>
+      </c>
+      <c r="T39" s="11">
+        <f>25929+92403+31224</f>
+        <v>149556</v>
+      </c>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
     </row>
@@ -6202,8 +6207,12 @@
       <c r="R40" s="11">
         <v>40258</v>
       </c>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
+      <c r="S40" s="11">
+        <v>36036</v>
+      </c>
+      <c r="T40" s="11">
+        <v>38804</v>
+      </c>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
     </row>
@@ -6239,8 +6248,12 @@
       <c r="R41" s="11">
         <v>0</v>
       </c>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
+      <c r="S41" s="11">
+        <v>0</v>
+      </c>
+      <c r="T41" s="11">
+        <v>0</v>
+      </c>
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
     </row>
@@ -6276,8 +6289,12 @@
       <c r="R42" s="11">
         <v>2670</v>
       </c>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
+      <c r="S42" s="11">
+        <v>2315</v>
+      </c>
+      <c r="T42" s="11">
+        <v>2231</v>
+      </c>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
     </row>
@@ -6313,8 +6330,12 @@
       <c r="R43" s="11">
         <v>8105</v>
       </c>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
+      <c r="S43" s="11">
+        <v>8532</v>
+      </c>
+      <c r="T43" s="11">
+        <v>9421</v>
+      </c>
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
     </row>
@@ -6340,8 +6361,12 @@
       <c r="R44" s="11">
         <v>5261</v>
       </c>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
+      <c r="S44" s="11">
+        <v>6885</v>
+      </c>
+      <c r="T44" s="11">
+        <v>9357</v>
+      </c>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
     </row>
@@ -6367,8 +6392,12 @@
       <c r="R45" s="11">
         <v>112668</v>
       </c>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
+      <c r="S45" s="11">
+        <v>117560</v>
+      </c>
+      <c r="T45" s="11">
+        <v>121208</v>
+      </c>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
     </row>
@@ -6394,8 +6423,12 @@
       <c r="R46" s="11">
         <v>14381</v>
       </c>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
+      <c r="S46" s="11">
+        <v>14447</v>
+      </c>
+      <c r="T46" s="11">
+        <v>14469</v>
+      </c>
       <c r="U46" s="11"/>
       <c r="V46" s="11"/>
     </row>
@@ -6427,8 +6460,14 @@
         <f>2084+28960</f>
         <v>31044</v>
       </c>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
+      <c r="S47" s="11">
+        <f>1968+28994</f>
+        <v>30962</v>
+      </c>
+      <c r="T47" s="11">
+        <f>29210+1966</f>
+        <v>31176</v>
+      </c>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
     </row>
@@ -6454,8 +6493,12 @@
       <c r="R48" s="11">
         <v>6623</v>
       </c>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
+      <c r="S48" s="11">
+        <v>6439</v>
+      </c>
+      <c r="T48" s="11">
+        <v>6822</v>
+      </c>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
     </row>
@@ -6487,8 +6530,14 @@
         <f>SUM(R39:R48)</f>
         <v>365264</v>
       </c>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
+      <c r="S49" s="11">
+        <f>SUM(S39:S48)</f>
+        <v>369491</v>
+      </c>
+      <c r="T49" s="11">
+        <f>SUM(T39:T48)</f>
+        <v>383044</v>
+      </c>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
     </row>
@@ -6525,8 +6574,12 @@
       <c r="R51" s="11">
         <v>5128</v>
       </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
+      <c r="S51" s="11">
+        <v>4184</v>
+      </c>
+      <c r="T51" s="11">
+        <v>5313</v>
+      </c>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
     </row>
@@ -6552,8 +6605,12 @@
       <c r="R52" s="11">
         <v>14028</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
+      <c r="S52" s="11">
+        <v>9954</v>
+      </c>
+      <c r="T52" s="11">
+        <v>11260</v>
+      </c>
       <c r="U52" s="11"/>
       <c r="V52" s="11"/>
     </row>
@@ -6579,8 +6636,12 @@
       <c r="R53" s="11">
         <v>37866</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
+      <c r="S53" s="11">
+        <v>43185</v>
+      </c>
+      <c r="T53" s="11">
+        <v>49300</v>
+      </c>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
     </row>
@@ -6606,8 +6667,12 @@
       <c r="R54" s="11">
         <v>8370</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
+      <c r="S54" s="11">
+        <v>7816</v>
+      </c>
+      <c r="T54" s="11">
+        <v>7990</v>
+      </c>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
     </row>
@@ -6639,8 +6704,14 @@
         <f>3908+599</f>
         <v>4507</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
+      <c r="S55" s="11">
+        <f>3715+610</f>
+        <v>4325</v>
+      </c>
+      <c r="T55" s="11">
+        <f>3846+667</f>
+        <v>4513</v>
+      </c>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
     </row>
@@ -6672,8 +6743,14 @@
         <f>9258+514</f>
         <v>9772</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
+      <c r="S56" s="11">
+        <f>9722+542</f>
+        <v>10264</v>
+      </c>
+      <c r="T56" s="11">
+        <f>8753+558</f>
+        <v>9311</v>
+      </c>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
     </row>
@@ -6699,8 +6776,12 @@
       <c r="R57" s="11">
         <v>14701</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
+      <c r="S57" s="11">
+        <v>13697</v>
+      </c>
+      <c r="T57" s="11">
+        <v>13705</v>
+      </c>
       <c r="U57" s="11"/>
       <c r="V57" s="11"/>
     </row>
@@ -6726,8 +6807,12 @@
       <c r="R58" s="11">
         <v>12501</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
+      <c r="S58" s="11">
+        <v>12799</v>
+      </c>
+      <c r="T58" s="11">
+        <v>12746</v>
+      </c>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
     </row>
@@ -6753,8 +6838,12 @@
       <c r="R59" s="11">
         <v>2247</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
+      <c r="S59" s="11">
+        <v>2373</v>
+      </c>
+      <c r="T59" s="11">
+        <v>1765</v>
+      </c>
       <c r="U59" s="11"/>
       <c r="V59" s="11"/>
     </row>
@@ -6780,8 +6869,12 @@
       <c r="R60" s="11">
         <v>256144</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
+      <c r="S60" s="11">
+        <v>260894</v>
+      </c>
+      <c r="T60" s="11">
+        <v>267141</v>
+      </c>
       <c r="U60" s="11"/>
       <c r="V60" s="11"/>
     </row>
@@ -6813,8 +6906,14 @@
         <f>SUM(R51:R60)</f>
         <v>365264</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
+      <c r="S61" s="11">
+        <f>SUM(S51:S60)</f>
+        <v>369491</v>
+      </c>
+      <c r="T61" s="11">
+        <f>SUM(T51:T60)</f>
+        <v>383044</v>
+      </c>
       <c r="U61" s="11"/>
       <c r="V61" s="11"/>
     </row>
@@ -6834,51 +6933,57 @@
         <v>6836</v>
       </c>
       <c r="H63" s="11">
-        <f t="shared" ref="H63:R63" si="171">+H23</f>
+        <f t="shared" ref="H63:T63" si="170">+H23</f>
         <v>6959</v>
       </c>
       <c r="I63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>11247</v>
       </c>
       <c r="J63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>15227</v>
       </c>
       <c r="K63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>17930</v>
       </c>
       <c r="L63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>18165</v>
       </c>
       <c r="M63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>18936</v>
       </c>
       <c r="N63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>20642</v>
       </c>
       <c r="O63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>16436</v>
       </c>
       <c r="P63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>16002</v>
       </c>
       <c r="Q63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>13910</v>
       </c>
       <c r="R63" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>13624</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
+      <c r="S63" s="11">
+        <f t="shared" si="170"/>
+        <v>15051</v>
+      </c>
+      <c r="T63" s="11">
+        <f t="shared" si="170"/>
+        <v>18368</v>
+      </c>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
     </row>
@@ -6916,8 +7021,12 @@
       <c r="R64" s="11">
         <v>13624</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
+      <c r="S64" s="11">
+        <v>15051</v>
+      </c>
+      <c r="T64" s="11">
+        <v>18368</v>
+      </c>
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
     </row>
@@ -6955,8 +7064,13 @@
       <c r="R65" s="11">
         <v>4065</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
+      <c r="S65" s="11">
+        <v>3060</v>
+      </c>
+      <c r="T65" s="11">
+        <f>6339-S65</f>
+        <v>3279</v>
+      </c>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
     </row>
@@ -6994,8 +7108,13 @@
       <c r="R66" s="11">
         <v>136</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
+      <c r="S66" s="11">
+        <v>126</v>
+      </c>
+      <c r="T66" s="11">
+        <f>244-S66</f>
+        <v>118</v>
+      </c>
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
     </row>
@@ -7033,8 +7152,13 @@
       <c r="R67" s="11">
         <v>5100</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
+      <c r="S67" s="11">
+        <v>5284</v>
+      </c>
+      <c r="T67" s="11">
+        <f>11058-S67</f>
+        <v>5774</v>
+      </c>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
     </row>
@@ -7072,8 +7196,13 @@
       <c r="R68" s="11">
         <v>-1924</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
+      <c r="S68" s="11">
+        <v>-1854</v>
+      </c>
+      <c r="T68" s="11">
+        <f>-4269-S68</f>
+        <v>-2415</v>
+      </c>
       <c r="U68" s="11"/>
       <c r="V68" s="11"/>
     </row>
@@ -7111,8 +7240,13 @@
       <c r="R69" s="11">
         <v>1663</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
+      <c r="S69" s="11">
+        <v>-84</v>
+      </c>
+      <c r="T69" s="11">
+        <f>425-S69</f>
+        <v>509</v>
+      </c>
       <c r="U69" s="11"/>
       <c r="V69" s="11"/>
     </row>
@@ -7150,8 +7284,13 @@
       <c r="R70" s="11">
         <v>661</v>
       </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
+      <c r="S70" s="11">
+        <v>553</v>
+      </c>
+      <c r="T70" s="11">
+        <f>650-S70</f>
+        <v>97</v>
+      </c>
       <c r="U70" s="11"/>
       <c r="V70" s="11"/>
     </row>
@@ -7196,8 +7335,14 @@
         <f>-4615+1446-778-28+3424+577+263</f>
         <v>289</v>
       </c>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
+      <c r="S71" s="11">
+        <f>4454+4069-746-1105-4496-602-201</f>
+        <v>1373</v>
+      </c>
+      <c r="T71" s="11">
+        <f>1506+8520-1259+14-4037-418-17-S71</f>
+        <v>2936</v>
+      </c>
       <c r="U71" s="11"/>
       <c r="V71" s="11"/>
     </row>
@@ -7250,9 +7395,13 @@
         <v>23614</v>
       </c>
       <c r="S72" s="11">
+        <f>SUM(S64:S71)</f>
         <v>23509</v>
       </c>
-      <c r="T72" s="11"/>
+      <c r="T72" s="11">
+        <f>SUM(T64:T71)</f>
+        <v>28666</v>
+      </c>
       <c r="U72" s="11"/>
       <c r="V72" s="11"/>
     </row>
@@ -7323,7 +7472,10 @@
       <c r="S74" s="11">
         <v>-6289</v>
       </c>
-      <c r="T74" s="11"/>
+      <c r="T74" s="11">
+        <f>-13177-S74</f>
+        <v>-6888</v>
+      </c>
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
     </row>
@@ -7362,8 +7514,14 @@
         <f>-11621+13735-903+19</f>
         <v>1230</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
+      <c r="S75" s="11">
+        <f>-14227+18327-626+36</f>
+        <v>3510</v>
+      </c>
+      <c r="T75" s="11">
+        <f>-35589+37049-1513-S75+181</f>
+        <v>-3382</v>
+      </c>
       <c r="U75" s="11"/>
       <c r="V75" s="11"/>
     </row>
@@ -7397,8 +7555,13 @@
       <c r="R76" s="11">
         <v>-84</v>
       </c>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
+      <c r="S76" s="11">
+        <v>-42</v>
+      </c>
+      <c r="T76" s="11">
+        <f>-340-S76</f>
+        <v>-298</v>
+      </c>
       <c r="U76" s="11"/>
       <c r="V76" s="11"/>
     </row>
@@ -7432,8 +7595,13 @@
       <c r="R77" s="11">
         <v>222</v>
       </c>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
+      <c r="S77" s="11">
+        <v>-125</v>
+      </c>
+      <c r="T77" s="11">
+        <f>-357-S77</f>
+        <v>-232</v>
+      </c>
       <c r="U77" s="11"/>
       <c r="V77" s="11"/>
     </row>
@@ -7472,8 +7640,14 @@
         <f>SUM(R74:R77)</f>
         <v>-6227</v>
       </c>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
+      <c r="S78" s="11">
+        <f>SUM(S74:S77)</f>
+        <v>-2946</v>
+      </c>
+      <c r="T78" s="11">
+        <f>SUM(T74:T77)</f>
+        <v>-10800</v>
+      </c>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
     </row>
@@ -7529,8 +7703,13 @@
       <c r="R80" s="11">
         <v>-2079</v>
       </c>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
+      <c r="S80" s="11">
+        <v>-1989</v>
+      </c>
+      <c r="T80" s="11">
+        <f>-4725-S80</f>
+        <v>-2736</v>
+      </c>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
     </row>
@@ -7564,8 +7743,13 @@
       <c r="R81" s="11">
         <v>-15407</v>
       </c>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
+      <c r="S81" s="11">
+        <v>-14557</v>
+      </c>
+      <c r="T81" s="11">
+        <f>-29526-S81</f>
+        <v>-14969</v>
+      </c>
       <c r="U81" s="11"/>
       <c r="V81" s="11"/>
     </row>
@@ -7604,8 +7788,14 @@
         <f>8550-8718</f>
         <v>-168</v>
       </c>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
+      <c r="S82" s="11">
+        <f>6927-6952</f>
+        <v>-25</v>
+      </c>
+      <c r="T82" s="11">
+        <f>8050-8207-S82</f>
+        <v>-132</v>
+      </c>
       <c r="U82" s="11"/>
       <c r="V82" s="11"/>
     </row>
@@ -7639,8 +7829,13 @@
       <c r="R83" s="11">
         <v>25</v>
       </c>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11"/>
+      <c r="S83" s="11">
+        <v>3</v>
+      </c>
+      <c r="T83" s="11">
+        <f>5-S83</f>
+        <v>2</v>
+      </c>
       <c r="U83" s="11"/>
       <c r="V83" s="11"/>
     </row>
@@ -7679,8 +7874,14 @@
         <f>SUM(R80:R83)</f>
         <v>-17629</v>
       </c>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11"/>
+      <c r="S84" s="11">
+        <f>SUM(S80:S83)</f>
+        <v>-16568</v>
+      </c>
+      <c r="T84" s="11">
+        <f>SUM(T80:T83)</f>
+        <v>-17835</v>
+      </c>
       <c r="U84" s="11"/>
       <c r="V84" s="11"/>
     </row>
@@ -7714,8 +7915,13 @@
       <c r="R85" s="11">
         <v>137</v>
       </c>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11"/>
+      <c r="S85" s="11">
+        <v>50</v>
+      </c>
+      <c r="T85" s="11">
+        <f>24-S85</f>
+        <v>-26</v>
+      </c>
       <c r="U85" s="11"/>
       <c r="V85" s="11"/>
     </row>
@@ -7754,8 +7960,14 @@
         <f>+R85+R84+R78+R72</f>
         <v>-105</v>
       </c>
-      <c r="S86" s="11"/>
-      <c r="T86" s="11"/>
+      <c r="S86" s="11">
+        <f>+S85+S84+S78+S72</f>
+        <v>4045</v>
+      </c>
+      <c r="T86" s="11">
+        <f>+T85+T84+T78+T72</f>
+        <v>5</v>
+      </c>
       <c r="U86" s="11"/>
       <c r="V86" s="11"/>
     </row>
@@ -7802,11 +8014,11 @@
       </c>
       <c r="L88" s="11"/>
       <c r="M88" s="11">
-        <f t="shared" ref="M88:N88" si="172">M72-M74</f>
+        <f t="shared" ref="M88:N88" si="171">M72-M74</f>
         <v>32358</v>
       </c>
       <c r="N88" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>6383</v>
       </c>
       <c r="O88" s="11">
@@ -7814,22 +8026,25 @@
         <v>15320</v>
       </c>
       <c r="P88" s="11">
-        <f t="shared" ref="P88:S88" si="173">P72+P74</f>
+        <f t="shared" ref="P88:T88" si="172">P72+P74</f>
         <v>12594</v>
       </c>
       <c r="Q88" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>16077</v>
       </c>
       <c r="R88" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>16019</v>
       </c>
       <c r="S88" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>17220</v>
       </c>
-      <c r="T88" s="11"/>
+      <c r="T88" s="11">
+        <f>T72+T74</f>
+        <v>21778</v>
+      </c>
       <c r="U88" s="11"/>
       <c r="V88" s="11"/>
     </row>
@@ -7890,27 +8105,27 @@
         <v>81</v>
       </c>
       <c r="O92" s="15">
-        <f>+O91/K91-1</f>
+        <f t="shared" ref="O92:T92" si="173">+O91/K91-1</f>
         <v>0.17079895710561099</v>
       </c>
       <c r="P92" s="15">
-        <f>+P91/L91-1</f>
+        <f t="shared" si="173"/>
         <v>0.20796079302493475</v>
       </c>
       <c r="Q92" s="15">
-        <f>+Q91/M91-1</f>
+        <f t="shared" si="173"/>
         <v>0.24496094062441687</v>
       </c>
       <c r="R92" s="15">
-        <f>+R91/N91-1</f>
+        <f t="shared" si="173"/>
         <v>0.21555271565495215</v>
       </c>
       <c r="S92" s="15">
-        <f>+S91/O91-1</f>
+        <f t="shared" si="173"/>
         <v>0.16353885763791443</v>
       </c>
       <c r="T92" s="15">
-        <f>+T91/P91-1</f>
+        <f t="shared" si="173"/>
         <v>4.4732033054811771E-2</v>
       </c>
     </row>
@@ -7923,7 +8138,7 @@
         <v>334.49548143813797</v>
       </c>
       <c r="K93" s="11">
-        <f t="shared" ref="K93:S93" si="174">+K11/K91*1000</f>
+        <f t="shared" ref="K93:T93" si="174">+K11/K91*1000</f>
         <v>395.11411121825779</v>
       </c>
       <c r="L93" s="11">
@@ -7957,6 +8172,10 @@
       <c r="S93" s="11">
         <f t="shared" si="174"/>
         <v>365.93064899245451</v>
+      </c>
+      <c r="T93" s="11">
+        <f t="shared" si="174"/>
+        <v>410.36755079813861</v>
       </c>
     </row>
     <row r="96" spans="2:36" x14ac:dyDescent="0.2">

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC610C27-6938-40CB-9BE6-E487AA6DCC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32E74E-1EFD-4045-975C-776084ADAC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50445" yWindow="795" windowWidth="27135" windowHeight="19875" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="-30075" yWindow="3165" windowWidth="27390" windowHeight="17550" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="208">
   <si>
     <t>Price</t>
   </si>
@@ -711,6 +711,18 @@
   </si>
   <si>
     <t>LatAm</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -720,7 +732,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -747,12 +759,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -841,16 +847,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21505</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33412</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>29766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21505</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33412</xdr:colOff>
       <xdr:row>114</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>105966</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -865,8 +871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12414031" y="0"/>
-          <a:ext cx="0" cy="17562095"/>
+          <a:off x="12957646" y="29766"/>
+          <a:ext cx="0" cy="18399919"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -891,13 +897,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>87039</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>87039</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1290,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>131.33000000000001</v>
+        <v>123.4</v>
       </c>
     </row>
     <row r="3" spans="8:13" x14ac:dyDescent="0.2">
@@ -1300,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>12629</v>
+        <v>12696</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="8:13" x14ac:dyDescent="0.2">
@@ -1313,7 +1319,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>1658566.57</v>
+        <v>1566686.4000000001</v>
       </c>
     </row>
     <row r="5" spans="8:13" x14ac:dyDescent="0.2">
@@ -1322,10 +1328,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>149556</v>
+        <v>150842</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="8:13" x14ac:dyDescent="0.2">
@@ -1333,10 +1339,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>13705</v>
+        <v>13781</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="8:13" x14ac:dyDescent="0.2">
@@ -1345,7 +1351,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>1522715.57</v>
+        <v>1429625.4000000001</v>
       </c>
     </row>
     <row r="8" spans="8:13" x14ac:dyDescent="0.2">
@@ -1794,13 +1800,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
-  <dimension ref="A1:CW105"/>
+  <dimension ref="A1:DA105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1809,18 +1815,18 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="17" width="9.140625" style="2"/>
     <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="22" width="9.140625" style="2"/>
-    <col min="36" max="36" width="9.140625" customWidth="1"/>
-    <col min="43" max="44" width="9.28515625" customWidth="1"/>
-    <col min="47" max="47" width="9.5703125" customWidth="1"/>
+    <col min="19" max="26" width="9.140625" style="2"/>
+    <col min="40" max="40" width="9.140625" customWidth="1"/>
+    <col min="47" max="48" width="9.28515625" customWidth="1"/>
+    <col min="51" max="51" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1881,87 +1887,101 @@
       <c r="V2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="X2">
+      <c r="W2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB2">
         <v>2010</v>
       </c>
-      <c r="Y2">
+      <c r="AC2">
         <v>2011</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <v>2012</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <v>2013</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <v>2014</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>2015</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <v>2016</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <v>2017</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <v>2018</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <v>2019</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <v>2020</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <v>2021</v>
       </c>
-      <c r="AJ2">
-        <f>AI2+1</f>
+      <c r="AN2">
+        <f>AM2+1</f>
         <v>2022</v>
       </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AR2" si="0">AJ2+1</f>
+      <c r="AO2">
+        <f t="shared" ref="AO2:AV2" si="0">AN2+1</f>
         <v>2023</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>200</v>
       </c>
       <c r="P3" s="11">
         <v>32727</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="11">
+        <v>33372</v>
+      </c>
       <c r="R3" s="11"/>
       <c r="S3" s="11">
         <v>32864</v>
@@ -1969,15 +1989,20 @@
       <c r="T3" s="11">
         <v>35073</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U3" s="11">
+        <v>36354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>201</v>
       </c>
       <c r="P4" s="11">
         <v>20533</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="11">
+        <v>19450</v>
+      </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11">
         <v>21078</v>
@@ -1985,15 +2010,20 @@
       <c r="T4" s="11">
         <v>22289</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U4" s="11">
+        <v>22661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>202</v>
       </c>
       <c r="P5" s="11">
         <v>11710</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="11">
+        <v>11494</v>
+      </c>
       <c r="R5" s="11"/>
       <c r="S5" s="11">
         <v>11681</v>
@@ -2001,15 +2031,20 @@
       <c r="T5" s="11">
         <v>12728</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U5" s="11">
+        <v>13126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>203</v>
       </c>
       <c r="P6" s="11">
         <v>4340</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="11">
+        <v>4138</v>
+      </c>
       <c r="R6" s="11"/>
       <c r="S6" s="11">
         <v>4080</v>
@@ -2017,8 +2052,11 @@
       <c r="T6" s="11">
         <v>4511</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="11">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2070,31 +2108,37 @@
       <c r="T8" s="11">
         <v>3</v>
       </c>
-      <c r="U8" s="11"/>
+      <c r="U8" s="11">
+        <v>-1</v>
+      </c>
       <c r="V8" s="11"/>
-      <c r="AE8" s="3">
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AI8" s="3">
         <v>-169</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AJ8" s="3">
         <v>-138</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AK8" s="3">
         <v>455</v>
       </c>
-      <c r="AH8" s="3">
-        <f t="shared" ref="AH8:AH14" si="1">SUM(G8:J8)</f>
+      <c r="AL8" s="3">
+        <f t="shared" ref="AL8:AL14" si="1">SUM(G8:J8)</f>
         <v>176</v>
       </c>
-      <c r="AI8" s="3">
-        <f t="shared" ref="AI8:AI11" si="2">SUM(K8:N8)</f>
+      <c r="AM8" s="3">
+        <f t="shared" ref="AM8:AM11" si="2">SUM(K8:N8)</f>
         <v>149</v>
       </c>
-      <c r="AJ8" s="3">
-        <f t="shared" ref="AJ8:AJ14" si="3">SUM(O8:R8)</f>
+      <c r="AN8" s="3">
+        <f t="shared" ref="AN8:AN14" si="3">SUM(O8:R8)</f>
         <v>1960</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2147,68 +2191,71 @@
         <v>285</v>
       </c>
       <c r="U9" s="11">
-        <f t="shared" ref="U9:V9" si="4">+Q9</f>
-        <v>209</v>
+        <v>297</v>
       </c>
       <c r="V9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="V9" si="4">+R9</f>
         <v>226</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AI9" s="3">
         <v>477</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AJ9" s="3">
         <v>595</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AK9" s="3">
         <v>659</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="AL9" s="3">
         <f t="shared" si="1"/>
         <v>657</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AM9" s="3">
         <f t="shared" si="2"/>
         <v>753</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AN9" s="3">
         <f t="shared" si="3"/>
         <v>1068</v>
       </c>
-      <c r="AK9" s="3">
-        <f>+AJ9*1.01</f>
+      <c r="AO9" s="3">
+        <f>+AN9*1.01</f>
         <v>1078.68</v>
       </c>
-      <c r="AL9" s="3">
-        <f t="shared" ref="AL9:AR9" si="5">+AK9*1.01</f>
+      <c r="AP9" s="3">
+        <f t="shared" ref="AP9:AV9" si="5">+AO9*1.01</f>
         <v>1089.4668000000001</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AQ9" s="3">
         <f t="shared" si="5"/>
         <v>1100.3614680000001</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AR9" s="3">
         <f t="shared" si="5"/>
         <v>1111.3650826800001</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AS9" s="3">
         <f t="shared" si="5"/>
         <v>1122.4787335068002</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AT9" s="3">
         <f t="shared" si="5"/>
         <v>1133.7035208418681</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AU9" s="3">
         <f t="shared" si="5"/>
         <v>1145.0405560502868</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AV9" s="3">
         <f t="shared" si="5"/>
         <v>1156.4909616107898</v>
       </c>
     </row>
-    <row r="10" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2261,68 +2308,71 @@
         <v>8031</v>
       </c>
       <c r="U10" s="11">
-        <f>+Q10*1.3</f>
-        <v>8928.4</v>
+        <v>8411</v>
       </c>
       <c r="V10" s="11">
         <f>+R10*1.3</f>
         <v>9509.5</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AI10" s="3">
         <v>4056</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AJ10" s="3">
         <v>5838</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AK10" s="3">
         <v>8918</v>
       </c>
-      <c r="AH10" s="3">
+      <c r="AL10" s="3">
         <f t="shared" si="1"/>
         <v>13059</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AM10" s="3">
         <f t="shared" si="2"/>
         <v>19206</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AN10" s="3">
         <f t="shared" si="3"/>
         <v>26280</v>
       </c>
-      <c r="AK10" s="3">
-        <f>+AJ10*1.4</f>
+      <c r="AO10" s="3">
+        <f>+AN10*1.4</f>
         <v>36792</v>
       </c>
-      <c r="AL10" s="3">
-        <f t="shared" ref="AL10" si="6">+AK10*1.4</f>
+      <c r="AP10" s="3">
+        <f t="shared" ref="AP10" si="6">+AO10*1.4</f>
         <v>51508.799999999996</v>
       </c>
-      <c r="AM10" s="3">
-        <f>+AL10*1.3</f>
+      <c r="AQ10" s="3">
+        <f>+AP10*1.3</f>
         <v>66961.440000000002</v>
       </c>
-      <c r="AN10" s="3">
-        <f>+AM10*1.3</f>
+      <c r="AR10" s="3">
+        <f>+AQ10*1.3</f>
         <v>87049.872000000003</v>
       </c>
-      <c r="AO10" s="3">
-        <f>+AN10*1.3</f>
+      <c r="AS10" s="3">
+        <f>+AR10*1.3</f>
         <v>113164.83360000001</v>
       </c>
-      <c r="AP10" s="3">
-        <f>+AO10*1.2</f>
+      <c r="AT10" s="3">
+        <f>+AS10*1.2</f>
         <v>135797.80032000001</v>
       </c>
-      <c r="AQ10" s="3">
-        <f>+AP10*1.2</f>
+      <c r="AU10" s="3">
+        <f>+AT10*1.2</f>
         <v>162957.360384</v>
       </c>
-      <c r="AR10" s="3">
-        <f>+AQ10*1.2</f>
+      <c r="AV10" s="3">
+        <f>+AU10*1.2</f>
         <v>195548.83246079998</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2375,68 +2425,71 @@
         <v>8142</v>
       </c>
       <c r="U11" s="11">
-        <f>+Q11*1.05</f>
-        <v>7239.75</v>
+        <v>8339</v>
       </c>
       <c r="V11" s="11">
         <f>+R11*1.05</f>
         <v>9235.8000000000011</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AI11" s="3">
         <v>10914</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AJ11" s="3">
         <v>14063</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AK11" s="3">
         <v>17014</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AL11" s="3">
         <f t="shared" si="1"/>
         <v>21711</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AM11" s="3">
         <f t="shared" si="2"/>
         <v>28032</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AN11" s="3">
         <f t="shared" si="3"/>
         <v>29055</v>
       </c>
-      <c r="AK11" s="3">
-        <f>+AJ11*1.03</f>
+      <c r="AO11" s="3">
+        <f>+AN11*1.03</f>
         <v>29926.65</v>
       </c>
-      <c r="AL11" s="3">
-        <f t="shared" ref="AL11:AR11" si="7">+AK11*1.03</f>
+      <c r="AP11" s="3">
+        <f t="shared" ref="AP11:AV11" si="7">+AO11*1.03</f>
         <v>30824.449500000002</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AQ11" s="3">
         <f t="shared" si="7"/>
         <v>31749.182985000003</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AR11" s="3">
         <f t="shared" si="7"/>
         <v>32701.658474550004</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AS11" s="3">
         <f t="shared" si="7"/>
         <v>33682.708228786505</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AT11" s="3">
         <f t="shared" si="7"/>
         <v>34693.189475650099</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AU11" s="3">
         <f t="shared" si="7"/>
         <v>35733.985159919604</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AV11" s="3">
         <f t="shared" si="7"/>
         <v>36806.004714717194</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2489,68 +2542,71 @@
         <v>7850</v>
       </c>
       <c r="U12" s="11">
-        <f t="shared" ref="U12:V14" si="8">+Q12*1.03</f>
-        <v>8108.16</v>
+        <v>7669</v>
       </c>
       <c r="V12" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="V12:V14" si="8">+R12*1.03</f>
         <v>8729.25</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AI12" s="3">
         <v>17616</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AJ12" s="3">
         <v>20010</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AK12" s="3">
         <v>21547</v>
       </c>
-      <c r="AH12" s="3">
+      <c r="AL12" s="3">
         <f t="shared" si="1"/>
         <v>23090</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AM12" s="3">
         <f>SUM(K12:N12)</f>
         <v>31701</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AN12" s="3">
         <f t="shared" si="3"/>
         <v>32780</v>
       </c>
-      <c r="AK12" s="3">
-        <f>+AJ12*1.03</f>
+      <c r="AO12" s="3">
+        <f>+AN12*1.03</f>
         <v>33763.4</v>
       </c>
-      <c r="AL12" s="3">
-        <f t="shared" ref="AL12:AR12" si="9">+AK12*1.03</f>
+      <c r="AP12" s="3">
+        <f t="shared" ref="AP12:AV12" si="9">+AO12*1.03</f>
         <v>34776.302000000003</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AQ12" s="3">
         <f t="shared" si="9"/>
         <v>35819.591060000006</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AR12" s="3">
         <f t="shared" si="9"/>
         <v>36894.178791800005</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AS12" s="3">
         <f t="shared" si="9"/>
         <v>38001.004155554008</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AT12" s="3">
         <f t="shared" si="9"/>
         <v>39141.034280220629</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AU12" s="3">
         <f t="shared" si="9"/>
         <v>40315.265308627248</v>
       </c>
-      <c r="AR12" s="3">
+      <c r="AV12" s="3">
         <f t="shared" si="9"/>
         <v>41524.723267886067</v>
       </c>
     </row>
-    <row r="13" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2603,68 +2659,71 @@
         <v>7665</v>
       </c>
       <c r="U13" s="11">
-        <f t="shared" si="8"/>
-        <v>7283.13</v>
+        <v>7952</v>
       </c>
       <c r="V13" s="11">
         <f t="shared" si="8"/>
         <v>8201.89</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AI13" s="3">
         <v>8150</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AJ13" s="3">
         <v>11155</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AK13" s="3">
         <v>15149</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AL13" s="3">
         <f t="shared" si="1"/>
         <v>19772</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AM13" s="3">
         <f>SUM(K13:N13)</f>
         <v>28845</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AN13" s="3">
         <f t="shared" si="3"/>
         <v>29243</v>
       </c>
-      <c r="AK13" s="3">
-        <f>+AJ13*1.05</f>
+      <c r="AO13" s="3">
+        <f>+AN13*1.05</f>
         <v>30705.15</v>
       </c>
-      <c r="AL13" s="3">
-        <f t="shared" ref="AL13:AR13" si="10">+AK13*1.05</f>
+      <c r="AP13" s="3">
+        <f t="shared" ref="AP13:AV13" si="10">+AO13*1.05</f>
         <v>32240.407500000001</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AQ13" s="3">
         <f t="shared" si="10"/>
         <v>33852.427875000001</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AR13" s="3">
         <f t="shared" si="10"/>
         <v>35545.049268750001</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AS13" s="3">
         <f t="shared" si="10"/>
         <v>37322.301732187501</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AT13" s="3">
         <f t="shared" si="10"/>
         <v>39188.416818796875</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AU13" s="3">
         <f t="shared" si="10"/>
         <v>41147.837659736724</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AV13" s="3">
         <f t="shared" si="10"/>
         <v>43205.229542723566</v>
       </c>
     </row>
-    <row r="14" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
@@ -2717,68 +2776,71 @@
         <v>42628</v>
       </c>
       <c r="U14" s="11">
-        <f t="shared" si="8"/>
-        <v>40725.17</v>
+        <v>44026</v>
       </c>
       <c r="V14" s="11">
         <f t="shared" si="8"/>
         <v>43882.12</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AI14" s="3">
         <v>69811</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AJ14" s="3">
         <v>85296</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AK14" s="3">
         <v>98115</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AL14" s="3">
         <f t="shared" si="1"/>
         <v>104062</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AM14" s="3">
         <f>SUM(K14:N14)</f>
         <v>148951</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AN14" s="3">
         <f t="shared" si="3"/>
         <v>162450</v>
       </c>
-      <c r="AK14" s="3">
-        <f>+AJ14*1.1</f>
+      <c r="AO14" s="3">
+        <f>+AN14*1.1</f>
         <v>178695</v>
       </c>
-      <c r="AL14" s="3">
-        <f t="shared" ref="AL14:AR14" si="11">+AK14*1.1</f>
+      <c r="AP14" s="3">
+        <f t="shared" ref="AP14:AV14" si="11">+AO14*1.1</f>
         <v>196564.50000000003</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AQ14" s="3">
         <f t="shared" si="11"/>
         <v>216220.95000000004</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AR14" s="3">
         <f t="shared" si="11"/>
         <v>237843.04500000007</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AS14" s="3">
         <f t="shared" si="11"/>
         <v>261627.3495000001</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AT14" s="3">
         <f t="shared" si="11"/>
         <v>287790.08445000014</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AU14" s="3">
         <f t="shared" si="11"/>
         <v>316569.09289500018</v>
       </c>
-      <c r="AR14" s="3">
+      <c r="AV14" s="3">
         <f t="shared" si="11"/>
         <v>348226.00218450022</v>
       </c>
     </row>
-    <row r="15" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
@@ -2855,70 +2917,74 @@
       </c>
       <c r="U15" s="11">
         <f>SUM(U11:U14)</f>
-        <v>63356.21</v>
+        <v>67986</v>
       </c>
       <c r="V15" s="11">
         <f>SUM(V11:V14)</f>
         <v>70049.06</v>
       </c>
-      <c r="AE15" s="11">
-        <f t="shared" ref="AE15:AH15" si="16">SUM(AE11:AE14)</f>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AI15" s="11">
+        <f t="shared" ref="AI15:AL15" si="16">SUM(AI11:AI14)</f>
         <v>106491</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AJ15" s="11">
         <f t="shared" si="16"/>
         <v>130524</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AK15" s="11">
         <f t="shared" si="16"/>
         <v>151825</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AL15" s="11">
         <f t="shared" si="16"/>
         <v>168635</v>
       </c>
-      <c r="AI15" s="11">
-        <f>SUM(AI11:AI14)</f>
+      <c r="AM15" s="11">
+        <f>SUM(AM11:AM14)</f>
         <v>237529</v>
       </c>
-      <c r="AJ15" s="11">
-        <f>SUM(AJ11:AJ14)</f>
+      <c r="AN15" s="11">
+        <f>SUM(AN11:AN14)</f>
         <v>253528</v>
       </c>
-      <c r="AK15" s="11">
-        <f>SUM(AK11:AK14)</f>
+      <c r="AO15" s="11">
+        <f>SUM(AO11:AO14)</f>
         <v>273090.2</v>
       </c>
-      <c r="AL15" s="11">
-        <f t="shared" ref="AL15:AR15" si="17">SUM(AL11:AL14)</f>
+      <c r="AP15" s="11">
+        <f t="shared" ref="AP15:AV15" si="17">SUM(AP11:AP14)</f>
         <v>294405.65900000004</v>
       </c>
-      <c r="AM15" s="11">
+      <c r="AQ15" s="11">
         <f t="shared" si="17"/>
         <v>317642.15192000009</v>
       </c>
-      <c r="AN15" s="11">
+      <c r="AR15" s="11">
         <f t="shared" si="17"/>
         <v>342983.9315351001</v>
       </c>
-      <c r="AO15" s="11">
+      <c r="AS15" s="11">
         <f t="shared" si="17"/>
         <v>370633.36361652811</v>
       </c>
-      <c r="AP15" s="11">
+      <c r="AT15" s="11">
         <f t="shared" si="17"/>
         <v>400812.72502466774</v>
       </c>
-      <c r="AQ15" s="11">
+      <c r="AU15" s="11">
         <f t="shared" si="17"/>
         <v>433766.18102328375</v>
       </c>
-      <c r="AR15" s="11">
+      <c r="AV15" s="11">
         <f t="shared" si="17"/>
         <v>469761.95970982703</v>
       </c>
     </row>
-    <row r="16" spans="1:44" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
@@ -2995,7 +3061,7 @@
       </c>
       <c r="U16" s="10">
         <f t="shared" si="21"/>
-        <v>72493.61</v>
+        <v>76693</v>
       </c>
       <c r="V16" s="10">
         <f t="shared" si="21"/>
@@ -3004,79 +3070,83 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="10">
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10">
         <v>46039</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AE16" s="10">
         <v>55519</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AF16" s="10">
         <v>66001</v>
       </c>
-      <c r="AC16" s="10">
+      <c r="AG16" s="10">
         <v>74989</v>
       </c>
-      <c r="AD16" s="10">
+      <c r="AH16" s="10">
         <v>90272</v>
       </c>
-      <c r="AE16" s="10">
-        <f t="shared" ref="AE16:AH16" si="22">AE15+AE10+AE9+AE8</f>
+      <c r="AI16" s="10">
+        <f t="shared" ref="AI16:AL16" si="22">AI15+AI10+AI9+AI8</f>
         <v>110855</v>
       </c>
-      <c r="AF16" s="10">
+      <c r="AJ16" s="10">
         <f t="shared" si="22"/>
         <v>136819</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AK16" s="10">
         <f t="shared" si="22"/>
         <v>161857</v>
       </c>
-      <c r="AH16" s="10">
+      <c r="AL16" s="10">
         <f t="shared" si="22"/>
         <v>182527</v>
       </c>
-      <c r="AI16" s="10">
-        <f>AI15+AI10+AI9+AI8</f>
+      <c r="AM16" s="10">
+        <f>AM15+AM10+AM9+AM8</f>
         <v>257637</v>
       </c>
-      <c r="AJ16" s="10">
-        <f>AJ15+AJ10+AJ9+AJ8</f>
+      <c r="AN16" s="10">
+        <f>AN15+AN10+AN9+AN8</f>
         <v>282836</v>
       </c>
-      <c r="AK16" s="10">
-        <f t="shared" ref="AK16" si="23">AK15+AK10+AK9+AK8</f>
+      <c r="AO16" s="10">
+        <f t="shared" ref="AO16" si="23">AO15+AO10+AO9+AO8</f>
         <v>310960.88</v>
       </c>
-      <c r="AL16" s="10">
-        <f t="shared" ref="AL16" si="24">AL15+AL10+AL9+AL8</f>
+      <c r="AP16" s="10">
+        <f t="shared" ref="AP16" si="24">AP15+AP10+AP9+AP8</f>
         <v>347003.92580000003</v>
       </c>
-      <c r="AM16" s="10">
-        <f t="shared" ref="AM16" si="25">AM15+AM10+AM9+AM8</f>
+      <c r="AQ16" s="10">
+        <f t="shared" ref="AQ16" si="25">AQ15+AQ10+AQ9+AQ8</f>
         <v>385703.95338800008</v>
       </c>
-      <c r="AN16" s="10">
-        <f t="shared" ref="AN16" si="26">AN15+AN10+AN9+AN8</f>
+      <c r="AR16" s="10">
+        <f t="shared" ref="AR16" si="26">AR15+AR10+AR9+AR8</f>
         <v>431145.16861778009</v>
       </c>
-      <c r="AO16" s="10">
-        <f t="shared" ref="AO16" si="27">AO15+AO10+AO9+AO8</f>
+      <c r="AS16" s="10">
+        <f t="shared" ref="AS16" si="27">AS15+AS10+AS9+AS8</f>
         <v>484920.67595003493</v>
       </c>
-      <c r="AP16" s="10">
-        <f t="shared" ref="AP16" si="28">AP15+AP10+AP9+AP8</f>
+      <c r="AT16" s="10">
+        <f t="shared" ref="AT16" si="28">AT15+AT10+AT9+AT8</f>
         <v>537744.22886550962</v>
       </c>
-      <c r="AQ16" s="10">
-        <f t="shared" ref="AQ16" si="29">AQ15+AQ10+AQ9+AQ8</f>
+      <c r="AU16" s="10">
+        <f t="shared" ref="AU16" si="29">AU15+AU10+AU9+AU8</f>
         <v>597868.581963334</v>
       </c>
-      <c r="AR16" s="10">
-        <f t="shared" ref="AR16" si="30">AR15+AR10+AR9+AR8</f>
+      <c r="AV16" s="10">
+        <f t="shared" ref="AV16" si="30">AV15+AV10+AV9+AV8</f>
         <v>666467.28313223785</v>
       </c>
     </row>
-    <row r="17" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3129,75 +3199,78 @@
         <v>31916</v>
       </c>
       <c r="U17" s="11">
-        <f t="shared" ref="U17:V17" si="31">U16*0.45</f>
-        <v>32622.124500000002</v>
+        <v>33229</v>
       </c>
       <c r="V17" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="V17" si="31">V16*0.45</f>
         <v>35903.052000000003</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AF17" s="3">
         <v>25691</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AG17" s="3">
         <v>28164</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AH17" s="3">
         <v>35138</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AI17" s="3">
         <v>45583</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AJ17" s="3">
         <v>59549</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AK17" s="3">
         <v>71896</v>
       </c>
-      <c r="AH17" s="3">
+      <c r="AL17" s="3">
         <v>84732</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AM17" s="3">
         <v>110939</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AN17" s="3">
         <f>SUM(O17:R17)</f>
         <v>126203</v>
       </c>
-      <c r="AK17" s="3">
-        <f>+AK16-AK19</f>
+      <c r="AO17" s="3">
+        <f>+AO16-AO19</f>
         <v>136822.78719999999</v>
       </c>
-      <c r="AL17" s="3">
-        <f t="shared" ref="AL17:AR17" si="32">+AL16-AL19</f>
+      <c r="AP17" s="3">
+        <f t="shared" ref="AP17:AV17" si="32">+AP16-AP19</f>
         <v>152681.72735199999</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AQ17" s="3">
         <f t="shared" si="32"/>
         <v>169709.73949072001</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AR17" s="3">
         <f t="shared" si="32"/>
         <v>189703.87419182321</v>
       </c>
-      <c r="AO17" s="3">
+      <c r="AS17" s="3">
         <f t="shared" si="32"/>
         <v>213365.09741801536</v>
       </c>
-      <c r="AP17" s="3">
+      <c r="AT17" s="3">
         <f t="shared" si="32"/>
         <v>236607.46070082422</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AU17" s="3">
         <f t="shared" si="32"/>
         <v>263062.17606386694</v>
       </c>
-      <c r="AR17" s="3">
+      <c r="AV17" s="3">
         <f t="shared" si="32"/>
         <v>293245.6045781846</v>
       </c>
     </row>
-    <row r="18" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
@@ -3235,10 +3308,16 @@
       <c r="T18" s="11">
         <v>12537</v>
       </c>
-      <c r="U18" s="11"/>
+      <c r="U18" s="11">
+        <v>12642</v>
+      </c>
       <c r="V18" s="11"/>
-    </row>
-    <row r="19" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3306,83 +3385,87 @@
         <v>42688</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" ref="U19:V19" si="37">U16-U17</f>
-        <v>39871.485499999995</v>
+        <f>U16-U17</f>
+        <v>43464</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="V19" si="37">V16-V17</f>
         <v>43881.507999999994</v>
       </c>
-      <c r="AB19" s="3">
-        <f t="shared" ref="AB19:AG19" si="38">+AB16-AB17</f>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AF19" s="3">
+        <f t="shared" ref="AF19:AK19" si="38">+AF16-AF17</f>
         <v>40310</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AG19" s="3">
         <f t="shared" si="38"/>
         <v>46825</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AH19" s="3">
         <f t="shared" si="38"/>
         <v>55134</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AI19" s="3">
         <f t="shared" si="38"/>
         <v>65272</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AJ19" s="3">
         <f t="shared" si="38"/>
         <v>77270</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AK19" s="3">
         <f t="shared" si="38"/>
         <v>89961</v>
       </c>
-      <c r="AH19" s="3">
-        <f>AH16-AH17</f>
+      <c r="AL19" s="3">
+        <f>AL16-AL17</f>
         <v>97795</v>
       </c>
-      <c r="AI19" s="3">
-        <f t="shared" ref="AI19" si="39">AI16-AI17</f>
+      <c r="AM19" s="3">
+        <f t="shared" ref="AM19" si="39">AM16-AM17</f>
         <v>146698</v>
       </c>
-      <c r="AJ19" s="3">
-        <f>+AJ16-AJ17</f>
+      <c r="AN19" s="3">
+        <f>+AN16-AN17</f>
         <v>156633</v>
       </c>
-      <c r="AK19" s="3">
-        <f>+AK16*0.56</f>
+      <c r="AO19" s="3">
+        <f>+AO16*0.56</f>
         <v>174138.09280000001</v>
       </c>
-      <c r="AL19" s="3">
-        <f t="shared" ref="AL19:AR19" si="40">+AL16*0.56</f>
+      <c r="AP19" s="3">
+        <f t="shared" ref="AP19:AV19" si="40">+AP16*0.56</f>
         <v>194322.19844800004</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AQ19" s="3">
         <f t="shared" si="40"/>
         <v>215994.21389728007</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AR19" s="3">
         <f t="shared" si="40"/>
         <v>241441.29442595688</v>
       </c>
-      <c r="AO19" s="3">
+      <c r="AS19" s="3">
         <f t="shared" si="40"/>
         <v>271555.57853201957</v>
       </c>
-      <c r="AP19" s="3">
+      <c r="AT19" s="3">
         <f t="shared" si="40"/>
         <v>301136.7681646854</v>
       </c>
-      <c r="AQ19" s="3">
+      <c r="AU19" s="3">
         <f t="shared" si="40"/>
         <v>334806.40589946706</v>
       </c>
-      <c r="AR19" s="3">
+      <c r="AV19" s="3">
         <f t="shared" si="40"/>
         <v>373221.67855405324</v>
       </c>
     </row>
-    <row r="20" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3435,75 +3518,78 @@
         <v>10588</v>
       </c>
       <c r="U20" s="11">
-        <f t="shared" ref="U20:U22" si="41">Q20*1.03</f>
-        <v>10581.19</v>
+        <v>11258</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" ref="V20:V22" si="42">R20*1.03</f>
+        <f t="shared" ref="V20:V22" si="41">R20*1.03</f>
         <v>10575.01</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AF20" s="3">
         <v>9832</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AG20" s="3">
         <v>12282</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AH20" s="3">
         <v>13948</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AI20" s="3">
         <v>16625</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AJ20" s="3">
         <v>21419</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AK20" s="3">
         <v>26018</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AL20" s="3">
         <v>27573</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AM20" s="3">
         <v>31562</v>
       </c>
-      <c r="AJ20" s="3">
-        <f t="shared" ref="AJ20:AJ22" si="43">SUM(O20:R20)</f>
+      <c r="AN20" s="3">
+        <f t="shared" ref="AN20:AN22" si="42">SUM(O20:R20)</f>
         <v>39500</v>
       </c>
-      <c r="AK20" s="3">
-        <f>+AJ20*1.05</f>
+      <c r="AO20" s="3">
+        <f>+AN20*1.05</f>
         <v>41475</v>
       </c>
-      <c r="AL20" s="3">
-        <f t="shared" ref="AL20:AR20" si="44">+AK20*1.05</f>
+      <c r="AP20" s="3">
+        <f t="shared" ref="AP20:AV20" si="43">+AO20*1.05</f>
         <v>43548.75</v>
       </c>
-      <c r="AM20" s="3">
-        <f t="shared" si="44"/>
+      <c r="AQ20" s="3">
+        <f t="shared" si="43"/>
         <v>45726.1875</v>
       </c>
-      <c r="AN20" s="3">
-        <f t="shared" si="44"/>
+      <c r="AR20" s="3">
+        <f t="shared" si="43"/>
         <v>48012.496875000004</v>
       </c>
-      <c r="AO20" s="3">
-        <f t="shared" si="44"/>
+      <c r="AS20" s="3">
+        <f t="shared" si="43"/>
         <v>50413.121718750008</v>
       </c>
-      <c r="AP20" s="3">
-        <f t="shared" si="44"/>
+      <c r="AT20" s="3">
+        <f t="shared" si="43"/>
         <v>52933.77780468751</v>
       </c>
-      <c r="AQ20" s="3">
-        <f t="shared" si="44"/>
+      <c r="AU20" s="3">
+        <f t="shared" si="43"/>
         <v>55580.466694921888</v>
       </c>
-      <c r="AR20" s="3">
-        <f t="shared" si="44"/>
+      <c r="AV20" s="3">
+        <f t="shared" si="43"/>
         <v>58359.490029667984</v>
       </c>
     </row>
-    <row r="21" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -3556,75 +3642,78 @@
         <v>6781</v>
       </c>
       <c r="U21" s="11">
+        <v>6884</v>
+      </c>
+      <c r="V21" s="11">
         <f t="shared" si="41"/>
-        <v>7136.87</v>
-      </c>
-      <c r="V21" s="11">
+        <v>7398.49</v>
+      </c>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AF21" s="3">
+        <v>8131</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>9047</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>10485</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>12893</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>16333</v>
+      </c>
+      <c r="AK21" s="3">
+        <v>18464</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>17946</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>22912</v>
+      </c>
+      <c r="AN21" s="3">
         <f t="shared" si="42"/>
-        <v>7398.49</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>8131</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>9047</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>10485</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>12893</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>16333</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>18464</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>17946</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>22912</v>
-      </c>
-      <c r="AJ21" s="3">
-        <f t="shared" si="43"/>
         <v>26567</v>
       </c>
-      <c r="AK21" s="3">
-        <f>+AJ21*1.05</f>
+      <c r="AO21" s="3">
+        <f>+AN21*1.05</f>
         <v>27895.350000000002</v>
       </c>
-      <c r="AL21" s="3">
-        <f t="shared" ref="AL21:AR21" si="45">+AK21*1.05</f>
+      <c r="AP21" s="3">
+        <f t="shared" ref="AP21:AV21" si="44">+AO21*1.05</f>
         <v>29290.117500000004</v>
       </c>
-      <c r="AM21" s="3">
-        <f t="shared" si="45"/>
+      <c r="AQ21" s="3">
+        <f t="shared" si="44"/>
         <v>30754.623375000006</v>
       </c>
-      <c r="AN21" s="3">
-        <f t="shared" si="45"/>
+      <c r="AR21" s="3">
+        <f t="shared" si="44"/>
         <v>32292.354543750007</v>
       </c>
-      <c r="AO21" s="3">
-        <f t="shared" si="45"/>
+      <c r="AS21" s="3">
+        <f t="shared" si="44"/>
         <v>33906.972270937506</v>
       </c>
-      <c r="AP21" s="3">
-        <f t="shared" si="45"/>
+      <c r="AT21" s="3">
+        <f t="shared" si="44"/>
         <v>35602.320884484383</v>
       </c>
-      <c r="AQ21" s="3">
-        <f t="shared" si="45"/>
+      <c r="AU21" s="3">
+        <f t="shared" si="44"/>
         <v>37382.436928708601</v>
       </c>
-      <c r="AR21" s="3">
-        <f t="shared" si="45"/>
+      <c r="AV21" s="3">
+        <f t="shared" si="44"/>
         <v>39251.558775144033</v>
       </c>
     </row>
-    <row r="22" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -3677,99 +3766,102 @@
         <v>3481</v>
       </c>
       <c r="U22" s="11">
+        <v>3979</v>
+      </c>
+      <c r="V22" s="11">
         <f t="shared" si="41"/>
-        <v>3704.9100000000003</v>
-      </c>
-      <c r="V22" s="11">
+        <v>5248.88</v>
+      </c>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AF22" s="3">
+        <v>5851</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>6136</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>6985</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>6872</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>8126</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>9551</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>11052</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>13510</v>
+      </c>
+      <c r="AN22" s="3">
         <f t="shared" si="42"/>
-        <v>5248.88</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>5851</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>6136</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>6985</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>6872</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>8126</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>9551</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>11052</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>13510</v>
-      </c>
-      <c r="AJ22" s="3">
-        <f t="shared" si="43"/>
         <v>15724</v>
       </c>
-      <c r="AK22" s="3">
-        <f>+AJ22*1.05</f>
+      <c r="AO22" s="3">
+        <f>+AN22*1.05</f>
         <v>16510.2</v>
       </c>
-      <c r="AL22" s="3">
-        <f t="shared" ref="AL22:AR22" si="46">+AK22*1.05</f>
+      <c r="AP22" s="3">
+        <f t="shared" ref="AP22:AV22" si="45">+AO22*1.05</f>
         <v>17335.710000000003</v>
       </c>
-      <c r="AM22" s="3">
-        <f t="shared" si="46"/>
+      <c r="AQ22" s="3">
+        <f t="shared" si="45"/>
         <v>18202.495500000005</v>
       </c>
-      <c r="AN22" s="3">
-        <f t="shared" si="46"/>
+      <c r="AR22" s="3">
+        <f t="shared" si="45"/>
         <v>19112.620275000005</v>
       </c>
-      <c r="AO22" s="3">
-        <f t="shared" si="46"/>
+      <c r="AS22" s="3">
+        <f t="shared" si="45"/>
         <v>20068.251288750005</v>
       </c>
-      <c r="AP22" s="3">
-        <f t="shared" si="46"/>
+      <c r="AT22" s="3">
+        <f t="shared" si="45"/>
         <v>21071.663853187507</v>
       </c>
-      <c r="AQ22" s="3">
-        <f t="shared" si="46"/>
+      <c r="AU22" s="3">
+        <f t="shared" si="45"/>
         <v>22125.247045846882</v>
       </c>
-      <c r="AR22" s="3">
-        <f t="shared" si="46"/>
+      <c r="AV22" s="3">
+        <f t="shared" si="45"/>
         <v>23231.509398139227</v>
       </c>
     </row>
-    <row r="23" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23" si="47">SUM(C20:C22)</f>
+        <f t="shared" ref="C23" si="46">SUM(C20:C22)</f>
         <v>12022</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f t="shared" ref="G23" si="48">SUM(G20:G22)</f>
+        <f t="shared" ref="G23" si="47">SUM(G20:G22)</f>
         <v>14200</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23" si="49">SUM(H20:H22)</f>
+        <f t="shared" ref="H23" si="48">SUM(H20:H22)</f>
         <v>13361</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" ref="I23" si="50">SUM(I20:I22)</f>
+        <f t="shared" ref="I23" si="49">SUM(I20:I22)</f>
         <v>13843</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" ref="J23" si="51">SUM(J20:J22)</f>
+        <f t="shared" ref="J23" si="50">SUM(J20:J22)</f>
         <v>15167</v>
       </c>
       <c r="K23" s="11">
@@ -3777,27 +3869,27 @@
         <v>14774</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ref="L23:O23" si="52">SUM(L20:L22)</f>
+        <f t="shared" ref="L23:O23" si="51">SUM(L20:L22)</f>
         <v>16292</v>
       </c>
       <c r="M23" s="11">
+        <f t="shared" si="51"/>
+        <v>16466</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="51"/>
+        <v>20452</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" si="51"/>
+        <v>18318</v>
+      </c>
+      <c r="P23" s="11">
+        <f t="shared" ref="P23:Q23" si="52">SUM(P20:P22)</f>
+        <v>20128</v>
+      </c>
+      <c r="Q23" s="11">
         <f t="shared" si="52"/>
-        <v>16466</v>
-      </c>
-      <c r="N23" s="11">
-        <f t="shared" si="52"/>
-        <v>20452</v>
-      </c>
-      <c r="O23" s="11">
-        <f t="shared" si="52"/>
-        <v>18318</v>
-      </c>
-      <c r="P23" s="11">
-        <f t="shared" ref="P23:Q23" si="53">SUM(P20:P22)</f>
-        <v>20128</v>
-      </c>
-      <c r="Q23" s="11">
-        <f t="shared" si="53"/>
         <v>20799</v>
       </c>
       <c r="R23" s="11">
@@ -3805,7 +3897,7 @@
         <v>22546</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23:V23" si="54">SUM(S20:S22)</f>
+        <f t="shared" ref="S23:V23" si="53">SUM(S20:S22)</f>
         <v>21760</v>
       </c>
       <c r="T23" s="11">
@@ -3813,123 +3905,127 @@
         <v>20850</v>
       </c>
       <c r="U23" s="11">
+        <f t="shared" si="53"/>
+        <v>22121</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="53"/>
+        <v>23222.38</v>
+      </c>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AF23" s="3">
+        <f>SUM(AF20:AF22)</f>
+        <v>23814</v>
+      </c>
+      <c r="AG23" s="3">
+        <f t="shared" ref="AG23:AK23" si="54">SUM(AG20:AG22)</f>
+        <v>27465</v>
+      </c>
+      <c r="AH23" s="3">
         <f t="shared" si="54"/>
-        <v>21422.97</v>
-      </c>
-      <c r="V23" s="11">
+        <v>31418</v>
+      </c>
+      <c r="AI23" s="3">
         <f t="shared" si="54"/>
-        <v>23222.38</v>
-      </c>
-      <c r="AB23" s="3">
-        <f>SUM(AB20:AB22)</f>
-        <v>23814</v>
-      </c>
-      <c r="AC23" s="3">
-        <f t="shared" ref="AC23:AG23" si="55">SUM(AC20:AC22)</f>
-        <v>27465</v>
-      </c>
-      <c r="AD23" s="3">
+        <v>36390</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="54"/>
+        <v>45878</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" si="54"/>
+        <v>54033</v>
+      </c>
+      <c r="AL23" s="3">
+        <f>SUM(AL20:AL22)</f>
+        <v>56571</v>
+      </c>
+      <c r="AM23" s="3">
+        <f t="shared" ref="AM23:AO23" si="55">SUM(AM20:AM22)</f>
+        <v>67984</v>
+      </c>
+      <c r="AN23" s="3">
         <f t="shared" si="55"/>
-        <v>31418</v>
-      </c>
-      <c r="AE23" s="3">
+        <v>81791</v>
+      </c>
+      <c r="AO23" s="3">
         <f t="shared" si="55"/>
-        <v>36390</v>
-      </c>
-      <c r="AF23" s="3">
-        <f t="shared" si="55"/>
-        <v>45878</v>
-      </c>
-      <c r="AG23" s="3">
-        <f t="shared" si="55"/>
-        <v>54033</v>
-      </c>
-      <c r="AH23" s="3">
-        <f>SUM(AH20:AH22)</f>
-        <v>56571</v>
-      </c>
-      <c r="AI23" s="3">
-        <f t="shared" ref="AI23:AK23" si="56">SUM(AI20:AI22)</f>
-        <v>67984</v>
-      </c>
-      <c r="AJ23" s="3">
+        <v>85880.55</v>
+      </c>
+      <c r="AP23" s="3">
+        <f t="shared" ref="AP23:AV23" si="56">SUM(AP20:AP22)</f>
+        <v>90174.577500000014</v>
+      </c>
+      <c r="AQ23" s="3">
         <f t="shared" si="56"/>
-        <v>81791</v>
-      </c>
-      <c r="AK23" s="3">
+        <v>94683.306375000015</v>
+      </c>
+      <c r="AR23" s="3">
         <f t="shared" si="56"/>
-        <v>85880.55</v>
-      </c>
-      <c r="AL23" s="3">
-        <f t="shared" ref="AL23:AR23" si="57">SUM(AL20:AL22)</f>
-        <v>90174.577500000014</v>
-      </c>
-      <c r="AM23" s="3">
-        <f t="shared" si="57"/>
-        <v>94683.306375000015</v>
-      </c>
-      <c r="AN23" s="3">
-        <f t="shared" si="57"/>
         <v>99417.47169375002</v>
       </c>
-      <c r="AO23" s="3">
-        <f t="shared" si="57"/>
+      <c r="AS23" s="3">
+        <f t="shared" si="56"/>
         <v>104388.34527843751</v>
       </c>
-      <c r="AP23" s="3">
-        <f t="shared" si="57"/>
+      <c r="AT23" s="3">
+        <f t="shared" si="56"/>
         <v>109607.7625423594</v>
       </c>
-      <c r="AQ23" s="3">
-        <f t="shared" si="57"/>
+      <c r="AU23" s="3">
+        <f t="shared" si="56"/>
         <v>115088.15066947739</v>
       </c>
-      <c r="AR23" s="3">
-        <f t="shared" si="57"/>
+      <c r="AV23" s="3">
+        <f t="shared" si="56"/>
         <v>120842.55820295124</v>
       </c>
     </row>
-    <row r="24" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24" si="58">C19-C23</f>
+        <f t="shared" ref="C24" si="57">C19-C23</f>
         <v>8305</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
-        <f t="shared" ref="G24" si="59">G19-G23</f>
+        <f t="shared" ref="G24" si="58">G19-G23</f>
         <v>7977</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24" si="60">H19-H23</f>
+        <f t="shared" ref="H24" si="59">H19-H23</f>
         <v>6383</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" ref="I24" si="61">I19-I23</f>
+        <f t="shared" ref="I24" si="60">I19-I23</f>
         <v>11213</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" ref="J24" si="62">J19-J23</f>
+        <f t="shared" ref="J24" si="61">J19-J23</f>
         <v>15651</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:N24" si="63">K19-K23</f>
+        <f t="shared" ref="K24:N24" si="62">K19-K23</f>
         <v>16437</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>19361</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>21031</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="62"/>
         <v>21885</v>
       </c>
       <c r="O24" s="11">
@@ -3937,19 +4033,19 @@
         <v>20094</v>
       </c>
       <c r="P24" s="11">
-        <f t="shared" ref="P24:R24" si="64">P19-P23</f>
+        <f t="shared" ref="P24:R24" si="63">P19-P23</f>
         <v>19453</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>17135</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>18160</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" ref="S24:V24" si="65">S19-S23</f>
+        <f t="shared" ref="S24:V24" si="64">S19-S23</f>
         <v>17415</v>
       </c>
       <c r="T24" s="11">
@@ -3957,83 +4053,87 @@
         <v>21838</v>
       </c>
       <c r="U24" s="11">
+        <f t="shared" si="64"/>
+        <v>21343</v>
+      </c>
+      <c r="V24" s="11">
+        <f t="shared" si="64"/>
+        <v>20659.127999999993</v>
+      </c>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AF24" s="3">
+        <f>AF19-AF23</f>
+        <v>16496</v>
+      </c>
+      <c r="AG24" s="3">
+        <f t="shared" ref="AG24:AK24" si="65">AG19-AG23</f>
+        <v>19360</v>
+      </c>
+      <c r="AH24" s="3">
         <f t="shared" si="65"/>
-        <v>18448.515499999994</v>
-      </c>
-      <c r="V24" s="11">
+        <v>23716</v>
+      </c>
+      <c r="AI24" s="3">
         <f t="shared" si="65"/>
-        <v>20659.127999999993</v>
-      </c>
-      <c r="AB24" s="3">
-        <f>AB19-AB23</f>
-        <v>16496</v>
-      </c>
-      <c r="AC24" s="3">
-        <f t="shared" ref="AC24:AG24" si="66">AC19-AC23</f>
-        <v>19360</v>
-      </c>
-      <c r="AD24" s="3">
+        <v>28882</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="65"/>
+        <v>31392</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="65"/>
+        <v>35928</v>
+      </c>
+      <c r="AL24" s="3">
+        <f>AL19-AL23</f>
+        <v>41224</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" ref="AM24:AO24" si="66">AM19-AM23</f>
+        <v>78714</v>
+      </c>
+      <c r="AN24" s="3">
         <f t="shared" si="66"/>
-        <v>23716</v>
-      </c>
-      <c r="AE24" s="3">
+        <v>74842</v>
+      </c>
+      <c r="AO24" s="3">
         <f t="shared" si="66"/>
-        <v>28882</v>
-      </c>
-      <c r="AF24" s="3">
-        <f t="shared" si="66"/>
-        <v>31392</v>
-      </c>
-      <c r="AG24" s="3">
-        <f t="shared" si="66"/>
-        <v>35928</v>
-      </c>
-      <c r="AH24" s="3">
-        <f>AH19-AH23</f>
-        <v>41224</v>
-      </c>
-      <c r="AI24" s="3">
-        <f t="shared" ref="AI24:AK24" si="67">AI19-AI23</f>
-        <v>78714</v>
-      </c>
-      <c r="AJ24" s="3">
+        <v>88257.54280000001</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" ref="AP24:AV24" si="67">AP19-AP23</f>
+        <v>104147.62094800003</v>
+      </c>
+      <c r="AQ24" s="3">
         <f t="shared" si="67"/>
-        <v>74842</v>
-      </c>
-      <c r="AK24" s="3">
+        <v>121310.90752228006</v>
+      </c>
+      <c r="AR24" s="3">
         <f t="shared" si="67"/>
-        <v>88257.54280000001</v>
-      </c>
-      <c r="AL24" s="3">
-        <f t="shared" ref="AL24:AR24" si="68">AL19-AL23</f>
-        <v>104147.62094800003</v>
-      </c>
-      <c r="AM24" s="3">
-        <f t="shared" si="68"/>
-        <v>121310.90752228006</v>
-      </c>
-      <c r="AN24" s="3">
-        <f t="shared" si="68"/>
         <v>142023.82273220684</v>
       </c>
-      <c r="AO24" s="3">
-        <f t="shared" si="68"/>
+      <c r="AS24" s="3">
+        <f t="shared" si="67"/>
         <v>167167.23325358206</v>
       </c>
-      <c r="AP24" s="3">
-        <f t="shared" si="68"/>
+      <c r="AT24" s="3">
+        <f t="shared" si="67"/>
         <v>191529.00562232599</v>
       </c>
-      <c r="AQ24" s="3">
-        <f t="shared" si="68"/>
+      <c r="AU24" s="3">
+        <f t="shared" si="67"/>
         <v>219718.25522998968</v>
       </c>
-      <c r="AR24" s="3">
-        <f t="shared" si="68"/>
+      <c r="AV24" s="3">
+        <f t="shared" si="67"/>
         <v>252379.120351102</v>
       </c>
     </row>
-    <row r="25" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -4086,99 +4186,102 @@
         <v>65</v>
       </c>
       <c r="U25" s="11">
-        <f t="shared" ref="U25:V25" si="69">AVERAGE(Q25:T25)</f>
-        <v>-265</v>
+        <v>-146</v>
       </c>
       <c r="V25" s="11">
-        <f t="shared" si="69"/>
-        <v>-105.75</v>
-      </c>
-      <c r="AB25" s="3">
+        <f t="shared" ref="V25" si="68">AVERAGE(R25:U25)</f>
+        <v>-76</v>
+      </c>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AF25" s="3">
         <v>763</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AG25" s="3">
         <v>291</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AH25" s="3">
         <v>434</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AI25" s="3">
         <v>1047</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AJ25" s="3">
         <v>8592</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AK25" s="3">
         <v>5394</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AL25" s="3">
         <v>6858</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AM25" s="3">
         <v>12020</v>
       </c>
-      <c r="AJ25" s="3">
-        <f t="shared" ref="AJ25:AJ27" si="70">SUM(O25:R25)</f>
+      <c r="AN25" s="3">
+        <f t="shared" ref="AN25:AN27" si="69">SUM(O25:R25)</f>
         <v>-3514</v>
       </c>
-      <c r="AK25" s="3">
-        <f>+AJ43*$AU$34</f>
+      <c r="AO25" s="3">
+        <f>+AN43*$AY$34</f>
         <v>1295.53</v>
       </c>
-      <c r="AL25" s="3">
-        <f t="shared" ref="AL25:AR25" si="71">+AK43*$AU$34</f>
+      <c r="AP25" s="3">
+        <f t="shared" ref="AP25:AV25" si="70">+AO43*$AY$34</f>
         <v>2029.86519696</v>
       </c>
-      <c r="AM25" s="3">
-        <f t="shared" si="71"/>
+      <c r="AQ25" s="3">
+        <f t="shared" si="70"/>
         <v>2900.5205833486725</v>
       </c>
-      <c r="AN25" s="3">
-        <f t="shared" si="71"/>
+      <c r="AR25" s="3">
+        <f t="shared" si="70"/>
         <v>3919.0542938148278</v>
       </c>
-      <c r="AO25" s="3">
-        <f t="shared" si="71"/>
+      <c r="AS25" s="3">
+        <f t="shared" si="70"/>
         <v>5115.7858854282058</v>
       </c>
-      <c r="AP25" s="3">
-        <f t="shared" si="71"/>
+      <c r="AT25" s="3">
+        <f t="shared" si="70"/>
         <v>6528.5066423680892</v>
       </c>
-      <c r="AQ25" s="3">
-        <f t="shared" si="71"/>
+      <c r="AU25" s="3">
+        <f t="shared" si="70"/>
         <v>8152.5782429385808</v>
       </c>
-      <c r="AR25" s="3">
-        <f t="shared" si="71"/>
+      <c r="AV25" s="3">
+        <f t="shared" si="70"/>
         <v>10021.119077416592</v>
       </c>
     </row>
-    <row r="26" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26" si="72">C24+C25</f>
+        <f t="shared" ref="C26" si="71">C24+C25</f>
         <v>9843</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11">
-        <f t="shared" ref="G26" si="73">G24+G25</f>
+        <f t="shared" ref="G26" si="72">G24+G25</f>
         <v>7757</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" ref="H26" si="74">H24+H25</f>
+        <f t="shared" ref="H26" si="73">H24+H25</f>
         <v>8277</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" ref="I26" si="75">I24+I25</f>
+        <f t="shared" ref="I26" si="74">I24+I25</f>
         <v>13359</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" ref="J26" si="76">J24+J25</f>
+        <f t="shared" ref="J26" si="75">J24+J25</f>
         <v>18689</v>
       </c>
       <c r="K26" s="11">
@@ -4186,119 +4289,123 @@
         <v>21283</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" ref="L26:O26" si="77">L24+L25</f>
+        <f t="shared" ref="L26:O26" si="76">L24+L25</f>
         <v>21625</v>
       </c>
       <c r="M26" s="11">
+        <f t="shared" si="76"/>
+        <v>23064</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="76"/>
+        <v>24402</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="76"/>
+        <v>18934</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" ref="P26:V26" si="77">P24+P25</f>
+        <v>19014</v>
+      </c>
+      <c r="Q26" s="11">
         <f t="shared" si="77"/>
-        <v>23064</v>
-      </c>
-      <c r="N26" s="11">
+        <v>16233</v>
+      </c>
+      <c r="R26" s="11">
         <f t="shared" si="77"/>
-        <v>24402</v>
-      </c>
-      <c r="O26" s="11">
+        <v>17147</v>
+      </c>
+      <c r="S26" s="11">
         <f t="shared" si="77"/>
-        <v>18934</v>
-      </c>
-      <c r="P26" s="11">
-        <f t="shared" ref="P26:V26" si="78">P24+P25</f>
-        <v>19014</v>
-      </c>
-      <c r="Q26" s="11">
+        <v>18205</v>
+      </c>
+      <c r="T26" s="11">
+        <f t="shared" si="77"/>
+        <v>21903</v>
+      </c>
+      <c r="U26" s="11">
+        <f t="shared" si="77"/>
+        <v>21197</v>
+      </c>
+      <c r="V26" s="11">
+        <f t="shared" si="77"/>
+        <v>20583.127999999993</v>
+      </c>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AF26" s="3">
+        <f t="shared" ref="AF26:AK26" si="78">+AF24+AF25</f>
+        <v>17259</v>
+      </c>
+      <c r="AG26" s="3">
         <f t="shared" si="78"/>
-        <v>16233</v>
-      </c>
-      <c r="R26" s="11">
+        <v>19651</v>
+      </c>
+      <c r="AH26" s="3">
         <f t="shared" si="78"/>
-        <v>17147</v>
-      </c>
-      <c r="S26" s="11">
+        <v>24150</v>
+      </c>
+      <c r="AI26" s="3">
         <f t="shared" si="78"/>
-        <v>18205</v>
-      </c>
-      <c r="T26" s="11">
+        <v>29929</v>
+      </c>
+      <c r="AJ26" s="3">
         <f t="shared" si="78"/>
-        <v>21903</v>
-      </c>
-      <c r="U26" s="11">
+        <v>39984</v>
+      </c>
+      <c r="AK26" s="3">
         <f t="shared" si="78"/>
-        <v>18183.515499999994</v>
-      </c>
-      <c r="V26" s="11">
-        <f t="shared" si="78"/>
-        <v>20553.377999999993</v>
-      </c>
-      <c r="AB26" s="3">
-        <f t="shared" ref="AB26:AG26" si="79">+AB24+AB25</f>
-        <v>17259</v>
-      </c>
-      <c r="AC26" s="3">
+        <v>41322</v>
+      </c>
+      <c r="AL26" s="3">
+        <f>AL24+AL25</f>
+        <v>48082</v>
+      </c>
+      <c r="AM26" s="3">
+        <f t="shared" ref="AM26:AO26" si="79">AM24+AM25</f>
+        <v>90734</v>
+      </c>
+      <c r="AN26" s="3">
         <f t="shared" si="79"/>
-        <v>19651</v>
-      </c>
-      <c r="AD26" s="3">
+        <v>71328</v>
+      </c>
+      <c r="AO26" s="3">
         <f t="shared" si="79"/>
-        <v>24150</v>
-      </c>
-      <c r="AE26" s="3">
-        <f t="shared" si="79"/>
-        <v>29929</v>
-      </c>
-      <c r="AF26" s="3">
-        <f t="shared" si="79"/>
-        <v>39984</v>
-      </c>
-      <c r="AG26" s="3">
-        <f t="shared" si="79"/>
-        <v>41322</v>
-      </c>
-      <c r="AH26" s="3">
-        <f>AH24+AH25</f>
-        <v>48082</v>
-      </c>
-      <c r="AI26" s="3">
-        <f t="shared" ref="AI26:AK26" si="80">AI24+AI25</f>
-        <v>90734</v>
-      </c>
-      <c r="AJ26" s="3">
+        <v>89553.072800000009</v>
+      </c>
+      <c r="AP26" s="3">
+        <f t="shared" ref="AP26:AV26" si="80">AP24+AP25</f>
+        <v>106177.48614496003</v>
+      </c>
+      <c r="AQ26" s="3">
         <f t="shared" si="80"/>
-        <v>71328</v>
-      </c>
-      <c r="AK26" s="3">
+        <v>124211.42810562873</v>
+      </c>
+      <c r="AR26" s="3">
         <f t="shared" si="80"/>
-        <v>89553.072800000009</v>
-      </c>
-      <c r="AL26" s="3">
-        <f t="shared" ref="AL26:AR26" si="81">AL24+AL25</f>
-        <v>106177.48614496003</v>
-      </c>
-      <c r="AM26" s="3">
-        <f t="shared" si="81"/>
-        <v>124211.42810562873</v>
-      </c>
-      <c r="AN26" s="3">
-        <f t="shared" si="81"/>
         <v>145942.87702602166</v>
       </c>
-      <c r="AO26" s="3">
-        <f t="shared" si="81"/>
+      <c r="AS26" s="3">
+        <f t="shared" si="80"/>
         <v>172283.01913901026</v>
       </c>
-      <c r="AP26" s="3">
-        <f t="shared" si="81"/>
+      <c r="AT26" s="3">
+        <f t="shared" si="80"/>
         <v>198057.51226469409</v>
       </c>
-      <c r="AQ26" s="3">
-        <f t="shared" si="81"/>
+      <c r="AU26" s="3">
+        <f t="shared" si="80"/>
         <v>227870.83347292827</v>
       </c>
-      <c r="AR26" s="3">
-        <f t="shared" si="81"/>
+      <c r="AV26" s="3">
+        <f t="shared" si="80"/>
         <v>262400.23942851857</v>
       </c>
     </row>
-    <row r="27" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -4351,99 +4458,102 @@
         <v>3535</v>
       </c>
       <c r="U27" s="11">
-        <f t="shared" ref="U27:V27" si="82">U26*0.2</f>
-        <v>3636.7030999999988</v>
+        <v>1508</v>
       </c>
       <c r="V27" s="11">
+        <f t="shared" ref="V27" si="81">V26*0.2</f>
+        <v>4116.6255999999985</v>
+      </c>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AF27" s="3">
+        <v>3639</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>3303</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>4672</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>14531</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>4177</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>5282</v>
+      </c>
+      <c r="AL27" s="3">
+        <v>7813</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>14701</v>
+      </c>
+      <c r="AN27" s="3">
+        <f t="shared" si="69"/>
+        <v>11356</v>
+      </c>
+      <c r="AO27" s="3">
+        <f>+AO26*0.18</f>
+        <v>16119.553104000001</v>
+      </c>
+      <c r="AP27" s="3">
+        <f t="shared" ref="AP27:AV27" si="82">+AP26*0.18</f>
+        <v>19111.947506092805</v>
+      </c>
+      <c r="AQ27" s="3">
         <f t="shared" si="82"/>
-        <v>4110.6755999999987</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>3639</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>3303</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>4672</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>14531</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>4177</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>5282</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>7813</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>14701</v>
-      </c>
-      <c r="AJ27" s="3">
-        <f t="shared" si="70"/>
-        <v>11356</v>
-      </c>
-      <c r="AK27" s="3">
-        <f>+AK26*0.18</f>
-        <v>16119.553104000001</v>
-      </c>
-      <c r="AL27" s="3">
-        <f t="shared" ref="AL27:AR27" si="83">+AL26*0.18</f>
-        <v>19111.947506092805</v>
-      </c>
-      <c r="AM27" s="3">
-        <f t="shared" si="83"/>
         <v>22358.057059013172</v>
       </c>
-      <c r="AN27" s="3">
-        <f t="shared" si="83"/>
+      <c r="AR27" s="3">
+        <f t="shared" si="82"/>
         <v>26269.717864683898</v>
       </c>
-      <c r="AO27" s="3">
-        <f t="shared" si="83"/>
+      <c r="AS27" s="3">
+        <f t="shared" si="82"/>
         <v>31010.943445021843</v>
       </c>
-      <c r="AP27" s="3">
-        <f t="shared" si="83"/>
+      <c r="AT27" s="3">
+        <f t="shared" si="82"/>
         <v>35650.352207644937</v>
       </c>
-      <c r="AQ27" s="3">
-        <f t="shared" si="83"/>
+      <c r="AU27" s="3">
+        <f t="shared" si="82"/>
         <v>41016.750025127083</v>
       </c>
-      <c r="AR27" s="3">
-        <f t="shared" si="83"/>
+      <c r="AV27" s="3">
+        <f t="shared" si="82"/>
         <v>47232.043097133341</v>
       </c>
     </row>
-    <row r="28" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28" si="84">C26-C27</f>
+        <f t="shared" ref="C28" si="83">C26-C27</f>
         <v>8354</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11">
-        <f t="shared" ref="G28" si="85">G26-G27</f>
+        <f t="shared" ref="G28" si="84">G26-G27</f>
         <v>6836</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ref="H28" si="86">H26-H27</f>
+        <f t="shared" ref="H28" si="85">H26-H27</f>
         <v>6959</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ref="I28" si="87">I26-I27</f>
+        <f t="shared" ref="I28" si="86">I26-I27</f>
         <v>11247</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" ref="J28" si="88">J26-J27</f>
+        <f t="shared" ref="J28" si="87">J26-J27</f>
         <v>15227</v>
       </c>
       <c r="K28" s="11">
@@ -4451,387 +4561,391 @@
         <v>17930</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" ref="L28:O28" si="89">L26-L27</f>
+        <f t="shared" ref="L28:O28" si="88">L26-L27</f>
         <v>18165</v>
       </c>
       <c r="M28" s="11">
+        <f t="shared" si="88"/>
+        <v>18936</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="88"/>
+        <v>20642</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="88"/>
+        <v>16436</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" ref="P28:V28" si="89">P26-P27</f>
+        <v>16002</v>
+      </c>
+      <c r="Q28" s="11">
         <f t="shared" si="89"/>
-        <v>18936</v>
-      </c>
-      <c r="N28" s="11">
+        <v>13910</v>
+      </c>
+      <c r="R28" s="11">
         <f t="shared" si="89"/>
-        <v>20642</v>
-      </c>
-      <c r="O28" s="11">
+        <v>13624</v>
+      </c>
+      <c r="S28" s="11">
         <f t="shared" si="89"/>
-        <v>16436</v>
-      </c>
-      <c r="P28" s="11">
-        <f t="shared" ref="P28:V28" si="90">P26-P27</f>
-        <v>16002</v>
-      </c>
-      <c r="Q28" s="11">
+        <v>15051</v>
+      </c>
+      <c r="T28" s="11">
+        <f t="shared" si="89"/>
+        <v>18368</v>
+      </c>
+      <c r="U28" s="11">
+        <f t="shared" si="89"/>
+        <v>19689</v>
+      </c>
+      <c r="V28" s="11">
+        <f t="shared" si="89"/>
+        <v>16466.502399999994</v>
+      </c>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AF28" s="3">
+        <f t="shared" ref="AF28:AK28" si="90">+AF26-AF27</f>
+        <v>13620</v>
+      </c>
+      <c r="AG28" s="3">
         <f t="shared" si="90"/>
-        <v>13910</v>
-      </c>
-      <c r="R28" s="11">
+        <v>16348</v>
+      </c>
+      <c r="AH28" s="3">
         <f t="shared" si="90"/>
-        <v>13624</v>
-      </c>
-      <c r="S28" s="11">
+        <v>19478</v>
+      </c>
+      <c r="AI28" s="3">
         <f t="shared" si="90"/>
-        <v>15051</v>
-      </c>
-      <c r="T28" s="11">
+        <v>15398</v>
+      </c>
+      <c r="AJ28" s="3">
         <f t="shared" si="90"/>
-        <v>18368</v>
-      </c>
-      <c r="U28" s="11">
+        <v>35807</v>
+      </c>
+      <c r="AK28" s="3">
         <f t="shared" si="90"/>
-        <v>14546.812399999995</v>
-      </c>
-      <c r="V28" s="11">
-        <f t="shared" si="90"/>
-        <v>16442.702399999995</v>
-      </c>
-      <c r="AB28" s="3">
-        <f t="shared" ref="AB28:AG28" si="91">+AB26-AB27</f>
-        <v>13620</v>
-      </c>
-      <c r="AC28" s="3">
+        <v>36040</v>
+      </c>
+      <c r="AL28" s="3">
+        <f>AL26-AL27</f>
+        <v>40269</v>
+      </c>
+      <c r="AM28" s="3">
+        <f t="shared" ref="AM28:AO28" si="91">AM26-AM27</f>
+        <v>76033</v>
+      </c>
+      <c r="AN28" s="3">
         <f t="shared" si="91"/>
-        <v>16348</v>
-      </c>
-      <c r="AD28" s="3">
+        <v>59972</v>
+      </c>
+      <c r="AO28" s="3">
         <f t="shared" si="91"/>
-        <v>19478</v>
-      </c>
-      <c r="AE28" s="3">
-        <f t="shared" si="91"/>
-        <v>15398</v>
-      </c>
-      <c r="AF28" s="3">
-        <f t="shared" si="91"/>
-        <v>35807</v>
-      </c>
-      <c r="AG28" s="3">
-        <f t="shared" si="91"/>
-        <v>36040</v>
-      </c>
-      <c r="AH28" s="3">
-        <f>AH26-AH27</f>
-        <v>40269</v>
-      </c>
-      <c r="AI28" s="3">
-        <f t="shared" ref="AI28:AK28" si="92">AI26-AI27</f>
-        <v>76033</v>
-      </c>
-      <c r="AJ28" s="3">
+        <v>73433.519696000003</v>
+      </c>
+      <c r="AP28" s="3">
+        <f t="shared" ref="AP28:AV28" si="92">AP26-AP27</f>
+        <v>87065.53863886722</v>
+      </c>
+      <c r="AQ28" s="3">
         <f t="shared" si="92"/>
-        <v>59972</v>
-      </c>
-      <c r="AK28" s="3">
+        <v>101853.37104661556</v>
+      </c>
+      <c r="AR28" s="3">
         <f t="shared" si="92"/>
-        <v>73433.519696000003</v>
-      </c>
-      <c r="AL28" s="3">
-        <f t="shared" ref="AL28:AR28" si="93">AL26-AL27</f>
-        <v>87065.53863886722</v>
-      </c>
-      <c r="AM28" s="3">
+        <v>119673.15916133775</v>
+      </c>
+      <c r="AS28" s="3">
+        <f t="shared" si="92"/>
+        <v>141272.07569398842</v>
+      </c>
+      <c r="AT28" s="3">
+        <f t="shared" si="92"/>
+        <v>162407.16005704916</v>
+      </c>
+      <c r="AU28" s="3">
+        <f t="shared" si="92"/>
+        <v>186854.08344780118</v>
+      </c>
+      <c r="AV28" s="3">
+        <f t="shared" si="92"/>
+        <v>215168.19633138523</v>
+      </c>
+      <c r="AW28" s="3">
+        <f>+AV28*(1+$AY$32)</f>
+        <v>213016.51436807137</v>
+      </c>
+      <c r="AX28" s="3">
+        <f t="shared" ref="AX28:DA28" si="93">+AW28*(1+$AY$32)</f>
+        <v>210886.34922439064</v>
+      </c>
+      <c r="AY28" s="3">
         <f t="shared" si="93"/>
-        <v>101853.37104661556</v>
-      </c>
-      <c r="AN28" s="3">
+        <v>208777.48573214674</v>
+      </c>
+      <c r="AZ28" s="3">
         <f t="shared" si="93"/>
-        <v>119673.15916133775</v>
-      </c>
-      <c r="AO28" s="3">
+        <v>206689.71087482528</v>
+      </c>
+      <c r="BA28" s="3">
         <f t="shared" si="93"/>
-        <v>141272.07569398842</v>
-      </c>
-      <c r="AP28" s="3">
+        <v>204622.81376607702</v>
+      </c>
+      <c r="BB28" s="3">
         <f t="shared" si="93"/>
-        <v>162407.16005704916</v>
-      </c>
-      <c r="AQ28" s="3">
+        <v>202576.58562841624</v>
+      </c>
+      <c r="BC28" s="3">
         <f t="shared" si="93"/>
-        <v>186854.08344780118</v>
-      </c>
-      <c r="AR28" s="3">
+        <v>200550.81977213209</v>
+      </c>
+      <c r="BD28" s="3">
         <f t="shared" si="93"/>
-        <v>215168.19633138523</v>
-      </c>
-      <c r="AS28" s="3">
-        <f>+AR28*(1+$AU$32)</f>
-        <v>213016.51436807137</v>
-      </c>
-      <c r="AT28" s="3">
-        <f t="shared" ref="AT28:CW28" si="94">+AS28*(1+$AU$32)</f>
-        <v>210886.34922439064</v>
-      </c>
-      <c r="AU28" s="3">
-        <f t="shared" si="94"/>
-        <v>208777.48573214674</v>
-      </c>
-      <c r="AV28" s="3">
-        <f t="shared" si="94"/>
-        <v>206689.71087482528</v>
-      </c>
-      <c r="AW28" s="3">
-        <f t="shared" si="94"/>
-        <v>204622.81376607702</v>
-      </c>
-      <c r="AX28" s="3">
-        <f t="shared" si="94"/>
-        <v>202576.58562841624</v>
-      </c>
-      <c r="AY28" s="3">
-        <f t="shared" si="94"/>
-        <v>200550.81977213209</v>
-      </c>
-      <c r="AZ28" s="3">
-        <f t="shared" si="94"/>
         <v>198545.31157441076</v>
       </c>
-      <c r="BA28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BE28" s="3">
+        <f t="shared" si="93"/>
         <v>196559.85845866665</v>
       </c>
-      <c r="BB28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BF28" s="3">
+        <f t="shared" si="93"/>
         <v>194594.25987407999</v>
       </c>
-      <c r="BC28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BG28" s="3">
+        <f t="shared" si="93"/>
         <v>192648.31727533918</v>
       </c>
-      <c r="BD28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BH28" s="3">
+        <f t="shared" si="93"/>
         <v>190721.8341025858</v>
       </c>
-      <c r="BE28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BI28" s="3">
+        <f t="shared" si="93"/>
         <v>188814.61576155992</v>
       </c>
-      <c r="BF28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BJ28" s="3">
+        <f t="shared" si="93"/>
         <v>186926.46960394431</v>
       </c>
-      <c r="BG28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BK28" s="3">
+        <f t="shared" si="93"/>
         <v>185057.20490790487</v>
       </c>
-      <c r="BH28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BL28" s="3">
+        <f t="shared" si="93"/>
         <v>183206.63285882582</v>
       </c>
-      <c r="BI28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BM28" s="3">
+        <f t="shared" si="93"/>
         <v>181374.56653023756</v>
       </c>
-      <c r="BJ28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BN28" s="3">
+        <f t="shared" si="93"/>
         <v>179560.82086493517</v>
       </c>
-      <c r="BK28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BO28" s="3">
+        <f t="shared" si="93"/>
         <v>177765.21265628582</v>
       </c>
-      <c r="BL28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BP28" s="3">
+        <f t="shared" si="93"/>
         <v>175987.56052972295</v>
       </c>
-      <c r="BM28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BQ28" s="3">
+        <f t="shared" si="93"/>
         <v>174227.68492442573</v>
       </c>
-      <c r="BN28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BR28" s="3">
+        <f t="shared" si="93"/>
         <v>172485.40807518148</v>
       </c>
-      <c r="BO28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BS28" s="3">
+        <f t="shared" si="93"/>
         <v>170760.55399442965</v>
       </c>
-      <c r="BP28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BT28" s="3">
+        <f t="shared" si="93"/>
         <v>169052.94845448536</v>
       </c>
-      <c r="BQ28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BU28" s="3">
+        <f t="shared" si="93"/>
         <v>167362.41896994051</v>
       </c>
-      <c r="BR28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BV28" s="3">
+        <f t="shared" si="93"/>
         <v>165688.79478024109</v>
       </c>
-      <c r="BS28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BW28" s="3">
+        <f t="shared" si="93"/>
         <v>164031.90683243869</v>
       </c>
-      <c r="BT28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BX28" s="3">
+        <f t="shared" si="93"/>
         <v>162391.58776411432</v>
       </c>
-      <c r="BU28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BY28" s="3">
+        <f t="shared" si="93"/>
         <v>160767.67188647317</v>
       </c>
-      <c r="BV28" s="3">
-        <f t="shared" si="94"/>
+      <c r="BZ28" s="3">
+        <f t="shared" si="93"/>
         <v>159159.99516760843</v>
       </c>
-      <c r="BW28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CA28" s="3">
+        <f t="shared" si="93"/>
         <v>157568.39521593234</v>
       </c>
-      <c r="BX28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CB28" s="3">
+        <f t="shared" si="93"/>
         <v>155992.711263773</v>
       </c>
-      <c r="BY28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CC28" s="3">
+        <f t="shared" si="93"/>
         <v>154432.78415113527</v>
       </c>
-      <c r="BZ28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CD28" s="3">
+        <f t="shared" si="93"/>
         <v>152888.45630962393</v>
       </c>
-      <c r="CA28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CE28" s="3">
+        <f t="shared" si="93"/>
         <v>151359.57174652768</v>
       </c>
-      <c r="CB28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CF28" s="3">
+        <f t="shared" si="93"/>
         <v>149845.97602906241</v>
       </c>
-      <c r="CC28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CG28" s="3">
+        <f t="shared" si="93"/>
         <v>148347.51626877178</v>
       </c>
-      <c r="CD28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CH28" s="3">
+        <f t="shared" si="93"/>
         <v>146864.04110608407</v>
       </c>
-      <c r="CE28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CI28" s="3">
+        <f t="shared" si="93"/>
         <v>145395.40069502321</v>
       </c>
-      <c r="CF28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CJ28" s="3">
+        <f t="shared" si="93"/>
         <v>143941.44668807299</v>
       </c>
-      <c r="CG28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CK28" s="3">
+        <f t="shared" si="93"/>
         <v>142502.03222119226</v>
       </c>
-      <c r="CH28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CL28" s="3">
+        <f t="shared" si="93"/>
         <v>141077.01189898033</v>
       </c>
-      <c r="CI28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CM28" s="3">
+        <f t="shared" si="93"/>
         <v>139666.24177999052</v>
       </c>
-      <c r="CJ28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CN28" s="3">
+        <f t="shared" si="93"/>
         <v>138269.57936219062</v>
       </c>
-      <c r="CK28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CO28" s="3">
+        <f t="shared" si="93"/>
         <v>136886.88356856871</v>
       </c>
-      <c r="CL28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CP28" s="3">
+        <f t="shared" si="93"/>
         <v>135518.01473288302</v>
       </c>
-      <c r="CM28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CQ28" s="3">
+        <f t="shared" si="93"/>
         <v>134162.8345855542</v>
       </c>
-      <c r="CN28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CR28" s="3">
+        <f t="shared" si="93"/>
         <v>132821.20623969866</v>
       </c>
-      <c r="CO28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CS28" s="3">
+        <f t="shared" si="93"/>
         <v>131492.99417730168</v>
       </c>
-      <c r="CP28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CT28" s="3">
+        <f t="shared" si="93"/>
         <v>130178.06423552865</v>
       </c>
-      <c r="CQ28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CU28" s="3">
+        <f t="shared" si="93"/>
         <v>128876.28359317337</v>
       </c>
-      <c r="CR28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CV28" s="3">
+        <f t="shared" si="93"/>
         <v>127587.52075724164</v>
       </c>
-      <c r="CS28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CW28" s="3">
+        <f t="shared" si="93"/>
         <v>126311.64554966922</v>
       </c>
-      <c r="CT28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CX28" s="3">
+        <f t="shared" si="93"/>
         <v>125048.52909417253</v>
       </c>
-      <c r="CU28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CY28" s="3">
+        <f t="shared" si="93"/>
         <v>123798.0438032308</v>
       </c>
-      <c r="CV28" s="3">
-        <f t="shared" si="94"/>
+      <c r="CZ28" s="3">
+        <f t="shared" si="93"/>
         <v>122560.0633651985</v>
       </c>
-      <c r="CW28" s="3">
-        <f t="shared" si="94"/>
+      <c r="DA28" s="3">
+        <f t="shared" si="93"/>
         <v>121334.4627315465</v>
       </c>
     </row>
-    <row r="29" spans="2:101" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29" si="95">C28/C30</f>
+        <f t="shared" ref="C29" si="94">C28/C30</f>
         <v>11.919318455824756</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
-        <f t="shared" ref="G29" si="96">G28/G30</f>
+        <f t="shared" ref="G29" si="95">G28/G30</f>
         <v>9.8748026411774639</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29" si="97">H28/H30</f>
+        <f t="shared" ref="H29" si="96">H28/H30</f>
         <v>10.129194904399265</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" ref="I29" si="98">I28/I30</f>
+        <f t="shared" ref="I29" si="97">I28/I30</f>
         <v>16.398605528022852</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" ref="J29" si="99">J28/J30</f>
+        <f t="shared" ref="J29" si="98">J28/J30</f>
         <v>22.295301836540162</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" ref="K29:N29" si="100">K28/K30</f>
+        <f t="shared" ref="K29:N29" si="99">K28/K30</f>
         <v>26.287585896482916</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>27.990344690984287</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>30.69474329100823</v>
       </c>
       <c r="O29" s="14">
@@ -4839,79 +4953,83 @@
         <v>24.621339792764896</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" ref="P29:V29" si="101">P28/P30</f>
+        <f t="shared" ref="P29:V29" si="100">P28/P30</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="Q29" s="14">
+        <f t="shared" si="100"/>
+        <v>1.0620752844162786</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" si="100"/>
+        <v>1.0522901058160192</v>
+      </c>
+      <c r="S29" s="14">
+        <f t="shared" si="100"/>
+        <v>1.1737502924432659</v>
+      </c>
+      <c r="T29" s="14">
+        <f t="shared" si="100"/>
+        <v>1.4544302795154012</v>
+      </c>
+      <c r="U29" s="14">
+        <f t="shared" si="100"/>
+        <v>1.5508034026465027</v>
+      </c>
+      <c r="V29" s="14">
+        <f t="shared" si="100"/>
+        <v>1.2969834908632636</v>
+      </c>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AL29" s="17">
+        <f>AL28/AL30</f>
+        <v>58.613331625494155</v>
+      </c>
+      <c r="AM29" s="17">
+        <f>AM28/AM30</f>
+        <v>112.19701508394893</v>
+      </c>
+      <c r="AN29" s="17">
+        <f>AN28/AN30</f>
+        <v>4.5799964361174039</v>
+      </c>
+      <c r="AO29" s="17">
+        <f>AO28/AO30</f>
+        <v>5.6080380594150139</v>
+      </c>
+      <c r="AP29" s="17">
+        <f t="shared" ref="AP29:AV29" si="101">AP28/AP30</f>
+        <v>6.6491005248224839</v>
+      </c>
+      <c r="AQ29" s="17">
         <f t="shared" si="101"/>
-        <v>1.0620752844162786</v>
-      </c>
-      <c r="R29" s="14">
+        <v>7.778431207897734</v>
+      </c>
+      <c r="AR29" s="17">
         <f t="shared" si="101"/>
-        <v>1.0522901058160192</v>
-      </c>
-      <c r="S29" s="14">
+        <v>9.1393090518548288</v>
+      </c>
+      <c r="AS29" s="17">
         <f t="shared" si="101"/>
-        <v>1.1737502924432659</v>
-      </c>
-      <c r="T29" s="14">
+        <v>10.788794824274246</v>
+      </c>
+      <c r="AT29" s="17">
         <f t="shared" si="101"/>
-        <v>1.4544302795154012</v>
-      </c>
-      <c r="U29" s="14">
+        <v>12.402858238198393</v>
+      </c>
+      <c r="AU29" s="17">
         <f t="shared" si="101"/>
-        <v>1.1518578193047744</v>
-      </c>
-      <c r="V29" s="14">
+        <v>14.269843197907582</v>
+      </c>
+      <c r="AV29" s="17">
         <f t="shared" si="101"/>
-        <v>1.3019797608678434</v>
-      </c>
-      <c r="AH29" s="17">
-        <f>AH28/AH30</f>
-        <v>58.613331625494155</v>
-      </c>
-      <c r="AI29" s="17">
-        <f>AI28/AI30</f>
-        <v>112.19701508394893</v>
-      </c>
-      <c r="AJ29" s="17">
-        <f>AJ28/AJ30</f>
-        <v>4.5799964361174039</v>
-      </c>
-      <c r="AK29" s="17">
-        <f>AK28/AK30</f>
-        <v>5.6080380594150139</v>
-      </c>
-      <c r="AL29" s="17">
-        <f t="shared" ref="AL29:AR29" si="102">AL28/AL30</f>
-        <v>6.6491005248224839</v>
-      </c>
-      <c r="AM29" s="17">
-        <f t="shared" si="102"/>
-        <v>7.778431207897734</v>
-      </c>
-      <c r="AN29" s="17">
-        <f t="shared" si="102"/>
-        <v>9.1393090518548288</v>
-      </c>
-      <c r="AO29" s="17">
-        <f t="shared" si="102"/>
-        <v>10.788794824274246</v>
-      </c>
-      <c r="AP29" s="17">
-        <f t="shared" si="102"/>
-        <v>12.402858238198393</v>
-      </c>
-      <c r="AQ29" s="17">
-        <f t="shared" si="102"/>
-        <v>14.269843197907582</v>
-      </c>
-      <c r="AR29" s="17">
-        <f t="shared" si="102"/>
         <v>16.432161214626063</v>
       </c>
     </row>
-    <row r="30" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
@@ -4964,63 +5082,66 @@
         <v>12629</v>
       </c>
       <c r="U30" s="11">
-        <f t="shared" ref="U30:V30" si="103">T30</f>
-        <v>12629</v>
+        <v>12696</v>
       </c>
       <c r="V30" s="11">
-        <f t="shared" si="103"/>
-        <v>12629</v>
-      </c>
-      <c r="AC30" s="3">
+        <f t="shared" ref="V30" si="102">U30</f>
+        <v>12696</v>
+      </c>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AG30" s="3">
         <v>687.34799999999996</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AH30" s="3">
         <v>691.29300000000001</v>
       </c>
-      <c r="AH30" s="3">
+      <c r="AL30" s="3">
         <v>687.02800000000002</v>
       </c>
-      <c r="AI30" s="3">
+      <c r="AM30" s="3">
         <v>677.67399999999998</v>
       </c>
-      <c r="AJ30" s="3">
+      <c r="AN30" s="3">
         <f>AVERAGE(P30:R30)</f>
         <v>13094.333333333334</v>
       </c>
-      <c r="AK30" s="3">
-        <f>+AJ30</f>
+      <c r="AO30" s="3">
+        <f>+AN30</f>
         <v>13094.333333333334</v>
       </c>
-      <c r="AL30" s="3">
-        <f t="shared" ref="AL30:AR30" si="104">+AK30</f>
+      <c r="AP30" s="3">
+        <f t="shared" ref="AP30:AV30" si="103">+AO30</f>
         <v>13094.333333333334</v>
       </c>
-      <c r="AM30" s="3">
-        <f t="shared" si="104"/>
+      <c r="AQ30" s="3">
+        <f t="shared" si="103"/>
         <v>13094.333333333334</v>
       </c>
-      <c r="AN30" s="3">
-        <f t="shared" si="104"/>
+      <c r="AR30" s="3">
+        <f t="shared" si="103"/>
         <v>13094.333333333334</v>
       </c>
-      <c r="AO30" s="3">
-        <f t="shared" si="104"/>
+      <c r="AS30" s="3">
+        <f t="shared" si="103"/>
         <v>13094.333333333334</v>
       </c>
-      <c r="AP30" s="3">
-        <f t="shared" si="104"/>
+      <c r="AT30" s="3">
+        <f t="shared" si="103"/>
         <v>13094.333333333334</v>
       </c>
-      <c r="AQ30" s="3">
-        <f t="shared" si="104"/>
+      <c r="AU30" s="3">
+        <f t="shared" si="103"/>
         <v>13094.333333333334</v>
       </c>
-      <c r="AR30" s="3">
-        <f t="shared" si="104"/>
+      <c r="AV30" s="3">
+        <f t="shared" si="103"/>
         <v>13094.333333333334</v>
       </c>
     </row>
-    <row r="32" spans="2:101" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
@@ -5033,19 +5154,19 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
-        <f t="shared" ref="K32:L32" si="105">K16/G16-1</f>
+        <f t="shared" ref="K32:L32" si="104">K16/G16-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>0.61579235971486024</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" ref="M32" si="106">M16/I16-1</f>
+        <f t="shared" ref="M32" si="105">M16/I16-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" ref="N32" si="107">N16/J16-1</f>
+        <f t="shared" ref="N32" si="106">N16/J16-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="O32" s="16">
@@ -5053,11 +5174,11 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" ref="P32:U32" si="108">P16/L16-1</f>
+        <f t="shared" ref="P32:T32" si="107">P16/L16-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>6.1027672840074931E-2</v>
       </c>
       <c r="R32" s="16">
@@ -5069,97 +5190,101 @@
         <v>2.6113422828660138E-2</v>
       </c>
       <c r="T32" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>7.0589079428858392E-2</v>
       </c>
       <c r="U32" s="16">
-        <f t="shared" si="108"/>
-        <v>4.9233051583396081E-2</v>
+        <f>U16/Q16-1</f>
+        <v>0.11001273664100042</v>
       </c>
       <c r="V32" s="16">
         <f>V16/R16-1</f>
         <v>4.9134231011992435E-2</v>
       </c>
-      <c r="AA32" s="18">
-        <f t="shared" ref="AA32:AJ32" si="109">AA16/Z16-1</f>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AE32" s="18">
+        <f t="shared" ref="AE32:AN32" si="108">AE16/AD16-1</f>
         <v>0.2059123786355046</v>
       </c>
-      <c r="AB32" s="18">
+      <c r="AF32" s="18">
+        <f t="shared" si="108"/>
+        <v>0.18880023055170292</v>
+      </c>
+      <c r="AG32" s="18">
+        <f t="shared" si="108"/>
+        <v>0.13617975485219924</v>
+      </c>
+      <c r="AH32" s="18">
+        <f t="shared" si="108"/>
+        <v>0.20380322447292265</v>
+      </c>
+      <c r="AI32" s="18">
+        <f t="shared" si="108"/>
+        <v>0.22801090038993266</v>
+      </c>
+      <c r="AJ32" s="18">
+        <f t="shared" si="108"/>
+        <v>0.23421586757475987</v>
+      </c>
+      <c r="AK32" s="18">
+        <f t="shared" si="108"/>
+        <v>0.18300089899794614</v>
+      </c>
+      <c r="AL32" s="18">
+        <f t="shared" si="108"/>
+        <v>0.12770532012826141</v>
+      </c>
+      <c r="AM32" s="18">
+        <f t="shared" si="108"/>
+        <v>0.41150076427049154</v>
+      </c>
+      <c r="AN32" s="18">
+        <f t="shared" si="108"/>
+        <v>9.7808156437157789E-2</v>
+      </c>
+      <c r="AO32" s="18">
+        <f t="shared" ref="AO32:AV32" si="109">AO16/AN16-1</f>
+        <v>9.9438826740584574E-2</v>
+      </c>
+      <c r="AP32" s="18">
         <f t="shared" si="109"/>
-        <v>0.18880023055170292</v>
-      </c>
-      <c r="AC32" s="18">
+        <v>0.11590861782999839</v>
+      </c>
+      <c r="AQ32" s="18">
         <f t="shared" si="109"/>
-        <v>0.13617975485219924</v>
-      </c>
-      <c r="AD32" s="18">
+        <v>0.11152619526934493</v>
+      </c>
+      <c r="AR32" s="18">
         <f t="shared" si="109"/>
-        <v>0.20380322447292265</v>
-      </c>
-      <c r="AE32" s="18">
+        <v>0.11781371393947904</v>
+      </c>
+      <c r="AS32" s="18">
         <f t="shared" si="109"/>
-        <v>0.22801090038993266</v>
-      </c>
-      <c r="AF32" s="18">
+        <v>0.12472714817761998</v>
+      </c>
+      <c r="AT32" s="18">
         <f t="shared" si="109"/>
-        <v>0.23421586757475987</v>
-      </c>
-      <c r="AG32" s="18">
+        <v>0.10893235849757321</v>
+      </c>
+      <c r="AU32" s="18">
         <f t="shared" si="109"/>
-        <v>0.18300089899794614</v>
-      </c>
-      <c r="AH32" s="18">
+        <v>0.11180845813012263</v>
+      </c>
+      <c r="AV32" s="18">
         <f t="shared" si="109"/>
-        <v>0.12770532012826141</v>
-      </c>
-      <c r="AI32" s="18">
-        <f t="shared" si="109"/>
-        <v>0.41150076427049154</v>
-      </c>
-      <c r="AJ32" s="18">
-        <f t="shared" si="109"/>
-        <v>9.7808156437157789E-2</v>
-      </c>
-      <c r="AK32" s="18">
-        <f t="shared" ref="AK32:AR32" si="110">AK16/AJ16-1</f>
-        <v>9.9438826740584574E-2</v>
-      </c>
-      <c r="AL32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.11590861782999839</v>
-      </c>
-      <c r="AM32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.11152619526934493</v>
-      </c>
-      <c r="AN32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.11781371393947904</v>
-      </c>
-      <c r="AO32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.12472714817761998</v>
-      </c>
-      <c r="AP32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.10893235849757321</v>
-      </c>
-      <c r="AQ32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.11180845813012263</v>
-      </c>
-      <c r="AR32" s="18">
-        <f t="shared" si="110"/>
         <v>0.11473876239429304</v>
       </c>
-      <c r="AT32" s="18" t="s">
+      <c r="AX32" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AU32" s="18">
+      <c r="AY32" s="18">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="33" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
@@ -5189,19 +5314,25 @@
       <c r="T33" s="16">
         <v>0.09</v>
       </c>
-      <c r="U33" s="16"/>
+      <c r="U33" s="16">
+        <v>0.11</v>
+      </c>
       <c r="V33" s="16"/>
-      <c r="AJ33" s="18">
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AN33" s="18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AT33" s="18" t="s">
+      <c r="AX33" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AU33" s="18">
+      <c r="AY33" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
@@ -5214,19 +5345,19 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15">
-        <f t="shared" ref="K34" si="111">+K14/G14-1</f>
+        <f t="shared" ref="K34" si="110">+K14/G14-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" ref="L34:N34" si="112">+L14/H14-1</f>
+        <f t="shared" ref="L34:N34" si="111">+L14/H14-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O34" s="15">
@@ -5246,81 +5377,85 @@
         <v>-1.6096625943973542E-2</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34:V34" si="113">+S14/O14-1</f>
+        <f t="shared" ref="S34:V34" si="112">+S14/O14-1</f>
         <v>1.8703619566863505E-2</v>
       </c>
       <c r="T34" s="15">
+        <f t="shared" si="112"/>
+        <v>4.7654157143208309E-2</v>
+      </c>
+      <c r="U34" s="15">
+        <f t="shared" si="112"/>
+        <v>0.11348289031083225</v>
+      </c>
+      <c r="V34" s="15">
+        <f t="shared" si="112"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AJ34" s="5">
+        <f t="shared" ref="AJ34:AN34" si="113">+AJ14/AI14-1</f>
+        <v>0.22181318130380601</v>
+      </c>
+      <c r="AK34" s="5">
         <f t="shared" si="113"/>
-        <v>4.7654157143208309E-2</v>
-      </c>
-      <c r="U34" s="15">
+        <v>0.15028840742824978</v>
+      </c>
+      <c r="AL34" s="5">
         <f t="shared" si="113"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="V34" s="15">
+        <v>6.0612546501554343E-2</v>
+      </c>
+      <c r="AM34" s="5">
         <f t="shared" si="113"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AF34" s="5">
-        <f t="shared" ref="AF34:AJ34" si="114">+AF14/AE14-1</f>
-        <v>0.22181318130380601</v>
-      </c>
-      <c r="AG34" s="5">
+        <v>0.43136783840402826</v>
+      </c>
+      <c r="AN34" s="5">
+        <f t="shared" si="113"/>
+        <v>9.0627118985438182E-2</v>
+      </c>
+      <c r="AO34" s="5">
+        <f>+AO14/AN14-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AP34" s="15">
+        <f t="shared" ref="AP34:AV34" si="114">+AP14/AO14-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AQ34" s="15">
         <f t="shared" si="114"/>
-        <v>0.15028840742824978</v>
-      </c>
-      <c r="AH34" s="5">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AR34" s="15">
         <f t="shared" si="114"/>
-        <v>6.0612546501554343E-2</v>
-      </c>
-      <c r="AI34" s="5">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AS34" s="15">
         <f t="shared" si="114"/>
-        <v>0.43136783840402826</v>
-      </c>
-      <c r="AJ34" s="5">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AT34" s="15">
         <f t="shared" si="114"/>
-        <v>9.0627118985438182E-2</v>
-      </c>
-      <c r="AK34" s="5">
-        <f>+AK14/AJ14-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AL34" s="15">
-        <f t="shared" ref="AL34:AR34" si="115">+AL14/AK14-1</f>
+      <c r="AU34" s="15">
+        <f t="shared" si="114"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AM34" s="15">
-        <f t="shared" si="115"/>
+      <c r="AV34" s="15">
+        <f t="shared" si="114"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AN34" s="15">
-        <f t="shared" si="115"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AO34" s="15">
-        <f t="shared" si="115"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AP34" s="15">
-        <f t="shared" si="115"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AQ34" s="15">
-        <f t="shared" si="115"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AR34" s="15">
-        <f t="shared" si="115"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AT34" s="5" t="s">
+      <c r="AX34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AU34" s="5">
+      <c r="AY34" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
@@ -5333,31 +5468,31 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15">
-        <f t="shared" ref="K35" si="116">+K13/G13-1</f>
+        <f t="shared" ref="K35" si="115">+K13/G13-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" ref="L35:Q35" si="117">+L13/H13-1</f>
+        <f t="shared" ref="L35:Q35" si="116">+L13/H13-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="R35" s="15">
@@ -5365,82 +5500,86 @@
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" ref="S35:V35" si="118">+S13/O13-1</f>
+        <f t="shared" ref="S35:V35" si="117">+S13/O13-1</f>
         <v>-2.5622361333527466E-2</v>
       </c>
       <c r="T35" s="15">
+        <f t="shared" si="117"/>
+        <v>4.4277929155313256E-2</v>
+      </c>
+      <c r="U35" s="15">
+        <f t="shared" si="117"/>
+        <v>0.12459340970159816</v>
+      </c>
+      <c r="V35" s="15">
+        <f t="shared" si="117"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AJ35" s="5">
+        <f t="shared" ref="AJ35:AM35" si="118">+AJ13/AI13-1</f>
+        <v>0.36871165644171788</v>
+      </c>
+      <c r="AK35" s="5">
         <f t="shared" si="118"/>
-        <v>4.4277929155313256E-2</v>
-      </c>
-      <c r="U35" s="15">
+        <v>0.35804571940833707</v>
+      </c>
+      <c r="AL35" s="5">
         <f t="shared" si="118"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="V35" s="15">
+        <v>0.30516865799722748</v>
+      </c>
+      <c r="AM35" s="5">
         <f t="shared" si="118"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AF35" s="5">
-        <f t="shared" ref="AF35:AI35" si="119">+AF13/AE13-1</f>
-        <v>0.36871165644171788</v>
-      </c>
-      <c r="AG35" s="5">
+        <v>0.45888124620675708</v>
+      </c>
+      <c r="AN35" s="5">
+        <f>+AN13/AM13-1</f>
+        <v>1.3797885248743258E-2</v>
+      </c>
+      <c r="AO35" s="5">
+        <f>+AO13/AN13-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AP35" s="15">
+        <f t="shared" ref="AP35:AV35" si="119">+AP13/AO13-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AQ35" s="15">
         <f t="shared" si="119"/>
-        <v>0.35804571940833707</v>
-      </c>
-      <c r="AH35" s="5">
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AR35" s="15">
         <f t="shared" si="119"/>
-        <v>0.30516865799722748</v>
-      </c>
-      <c r="AI35" s="5">
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="AS35" s="15">
         <f t="shared" si="119"/>
-        <v>0.45888124620675708</v>
-      </c>
-      <c r="AJ35" s="5">
-        <f>+AJ13/AI13-1</f>
-        <v>1.3797885248743258E-2</v>
-      </c>
-      <c r="AK35" s="5">
-        <f>+AK13/AJ13-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AL35" s="15">
-        <f t="shared" ref="AL35:AR35" si="120">+AL13/AK13-1</f>
+      <c r="AT35" s="15">
+        <f t="shared" si="119"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AM35" s="15">
-        <f t="shared" si="120"/>
+      <c r="AU35" s="15">
+        <f t="shared" si="119"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AN35" s="15">
-        <f t="shared" si="120"/>
+      <c r="AV35" s="15">
+        <f t="shared" si="119"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AO35" s="15">
-        <f t="shared" si="120"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AP35" s="15">
-        <f t="shared" si="120"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AQ35" s="15">
-        <f t="shared" si="120"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AR35" s="15">
-        <f t="shared" si="120"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AT35" s="5" t="s">
+      <c r="AX35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AU35" s="3">
-        <f>NPV(AU33,AK28:CW28)+Main!L5-Main!L6</f>
-        <v>2140839.8680530442</v>
-      </c>
-    </row>
-    <row r="36" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY35" s="3">
+        <f>NPV(AY33,AO28:DA28)+Main!L5-Main!L6</f>
+        <v>2142049.8680530442</v>
+      </c>
+    </row>
+    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
@@ -5453,19 +5592,19 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15">
-        <f t="shared" ref="K36" si="121">K15/G15-1</f>
+        <f t="shared" ref="K36" si="120">K15/G15-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" ref="L36" si="122">L15/H15-1</f>
+        <f t="shared" ref="L36" si="121">L15/H15-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" ref="M36" si="123">M15/I15-1</f>
+        <f t="shared" ref="M36" si="122">M15/I15-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" ref="N36" si="124">N15/J15-1</f>
+        <f t="shared" ref="N36" si="123">N15/J15-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O36" s="15">
@@ -5473,11 +5612,11 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" ref="P36:Q36" si="125">P15/L15-1</f>
+        <f t="shared" ref="P36:Q36" si="124">P15/L15-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="R36" s="15">
@@ -5485,82 +5624,86 @@
         <v>-2.2507204610951015E-2</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" ref="S36:V36" si="126">S15/O15-1</f>
+        <f t="shared" ref="S36:V36" si="125">S15/O15-1</f>
         <v>7.9548412285268544E-3</v>
       </c>
       <c r="T36" s="15">
+        <f t="shared" si="125"/>
+        <v>5.4804984007256419E-2</v>
+      </c>
+      <c r="U36" s="15">
+        <f t="shared" si="125"/>
+        <v>0.1076787721785033</v>
+      </c>
+      <c r="V36" s="15">
+        <f t="shared" si="125"/>
+        <v>3.2593236828915906E-2</v>
+      </c>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AJ36" s="5">
+        <f t="shared" ref="AJ36:AN36" si="126">+AJ15/AI15-1</f>
+        <v>0.22568104346846218</v>
+      </c>
+      <c r="AK36" s="5">
         <f t="shared" si="126"/>
-        <v>5.4804984007256419E-2</v>
-      </c>
-      <c r="U36" s="15">
+        <v>0.16319604057491333</v>
+      </c>
+      <c r="AL36" s="5">
         <f t="shared" si="126"/>
-        <v>3.2246769962689603E-2</v>
-      </c>
-      <c r="V36" s="15">
+        <v>0.11071957846204517</v>
+      </c>
+      <c r="AM36" s="5">
         <f t="shared" si="126"/>
-        <v>3.2593236828915906E-2</v>
-      </c>
-      <c r="AF36" s="5">
-        <f t="shared" ref="AF36:AJ36" si="127">+AF15/AE15-1</f>
-        <v>0.22568104346846218</v>
-      </c>
-      <c r="AG36" s="5">
+        <v>0.40853915260770313</v>
+      </c>
+      <c r="AN36" s="5">
+        <f t="shared" si="126"/>
+        <v>6.7355986005919188E-2</v>
+      </c>
+      <c r="AO36" s="5">
+        <f>+AO15/AN15-1</f>
+        <v>7.7159919219967898E-2</v>
+      </c>
+      <c r="AP36" s="15">
+        <f t="shared" ref="AP36:AV36" si="127">+AP15/AO15-1</f>
+        <v>7.8052815516631568E-2</v>
+      </c>
+      <c r="AQ36" s="15">
         <f t="shared" si="127"/>
-        <v>0.16319604057491333</v>
-      </c>
-      <c r="AH36" s="5">
+        <v>7.8926787613141869E-2</v>
+      </c>
+      <c r="AR36" s="15">
         <f t="shared" si="127"/>
-        <v>0.11071957846204517</v>
-      </c>
-      <c r="AI36" s="5">
+        <v>7.9780908994353084E-2</v>
+      </c>
+      <c r="AS36" s="15">
         <f t="shared" si="127"/>
-        <v>0.40853915260770313</v>
-      </c>
-      <c r="AJ36" s="5">
+        <v>8.0614365686686451E-2</v>
+      </c>
+      <c r="AT36" s="15">
         <f t="shared" si="127"/>
-        <v>6.7355986005919188E-2</v>
-      </c>
-      <c r="AK36" s="5">
-        <f>+AK15/AJ15-1</f>
-        <v>7.7159919219967898E-2</v>
-      </c>
-      <c r="AL36" s="15">
-        <f t="shared" ref="AL36:AR36" si="128">+AL15/AK15-1</f>
-        <v>7.8052815516631568E-2</v>
-      </c>
-      <c r="AM36" s="15">
-        <f t="shared" si="128"/>
-        <v>7.8926787613141869E-2</v>
-      </c>
-      <c r="AN36" s="15">
-        <f t="shared" si="128"/>
-        <v>7.9780908994353084E-2</v>
-      </c>
-      <c r="AO36" s="15">
-        <f t="shared" si="128"/>
-        <v>8.0614365686686451E-2</v>
-      </c>
-      <c r="AP36" s="15">
-        <f t="shared" si="128"/>
         <v>8.1426456360157662E-2</v>
       </c>
-      <c r="AQ36" s="15">
-        <f t="shared" si="128"/>
+      <c r="AU36" s="15">
+        <f t="shared" si="127"/>
         <v>8.2216591293572172E-2</v>
       </c>
-      <c r="AR36" s="15">
-        <f t="shared" si="128"/>
+      <c r="AV36" s="15">
+        <f t="shared" si="127"/>
         <v>8.2984290295815111E-2</v>
       </c>
-      <c r="AT36" s="5" t="s">
+      <c r="AX36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AU36" s="1">
-        <f>+AU35/Main!L3</f>
-        <v>169.51776609811103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY36" s="1">
+        <f>+AY35/Main!L3</f>
+        <v>168.71848362106525</v>
+      </c>
+    </row>
+    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>43</v>
       </c>
@@ -5573,19 +5716,19 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15">
-        <f t="shared" ref="K37" si="129">K10/G10-1</f>
+        <f t="shared" ref="K37" si="128">K10/G10-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="130">L10/H10-1</f>
+        <f t="shared" ref="L37" si="129">L10/H10-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" ref="M37" si="131">M10/I10-1</f>
+        <f t="shared" ref="M37" si="130">M10/I10-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" ref="N37" si="132">N10/J10-1</f>
+        <f t="shared" ref="N37" si="131">N10/J10-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O37" s="15">
@@ -5593,11 +5736,11 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:Q37" si="133">P10/L10-1</f>
+        <f t="shared" ref="P37:Q37" si="132">P10/L10-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q37" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="132"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="R37" s="15">
@@ -5605,75 +5748,79 @@
         <v>0.3201588160981772</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" ref="S37:V37" si="134">S10/O10-1</f>
+        <f t="shared" ref="S37:V37" si="133">S10/O10-1</f>
         <v>0.28053599037965982</v>
       </c>
       <c r="T37" s="15">
+        <f t="shared" si="133"/>
+        <v>0.2796367112810707</v>
+      </c>
+      <c r="U37" s="15">
+        <f t="shared" si="133"/>
+        <v>0.22466511357018049</v>
+      </c>
+      <c r="V37" s="15">
+        <f t="shared" si="133"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AJ37" s="5">
+        <f t="shared" ref="AJ37:AN37" si="134">+AJ10/AI10-1</f>
+        <v>0.43934911242603558</v>
+      </c>
+      <c r="AK37" s="5">
         <f t="shared" si="134"/>
-        <v>0.2796367112810707</v>
-      </c>
-      <c r="U37" s="15">
+        <v>0.52757793764988015</v>
+      </c>
+      <c r="AL37" s="5">
         <f t="shared" si="134"/>
+        <v>0.46434178066831122</v>
+      </c>
+      <c r="AM37" s="5">
+        <f t="shared" si="134"/>
+        <v>0.47070985527222597</v>
+      </c>
+      <c r="AN37" s="5">
+        <f t="shared" si="134"/>
+        <v>0.36832239925023424</v>
+      </c>
+      <c r="AO37" s="5">
+        <f>+AO10/AN10-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AP37" s="15">
+        <f t="shared" ref="AP37:AV37" si="135">+AP10/AO10-1</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="AQ37" s="15">
+        <f t="shared" si="135"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="AR37" s="15">
+        <f t="shared" si="135"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="V37" s="15">
-        <f t="shared" si="134"/>
+      <c r="AS37" s="15">
+        <f t="shared" si="135"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AF37" s="5">
-        <f t="shared" ref="AF37:AJ37" si="135">+AF10/AE10-1</f>
-        <v>0.43934911242603558</v>
-      </c>
-      <c r="AG37" s="5">
+      <c r="AT37" s="15">
         <f t="shared" si="135"/>
-        <v>0.52757793764988015</v>
-      </c>
-      <c r="AH37" s="5">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AU37" s="15">
         <f t="shared" si="135"/>
-        <v>0.46434178066831122</v>
-      </c>
-      <c r="AI37" s="5">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AV37" s="15">
         <f t="shared" si="135"/>
-        <v>0.47070985527222597</v>
-      </c>
-      <c r="AJ37" s="5">
-        <f t="shared" si="135"/>
-        <v>0.36832239925023424</v>
-      </c>
-      <c r="AK37" s="5">
-        <f>+AK10/AJ10-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AL37" s="15">
-        <f t="shared" ref="AL37:AR37" si="136">+AL10/AK10-1</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AM37" s="15">
-        <f t="shared" si="136"/>
-        <v>0.30000000000000027</v>
-      </c>
-      <c r="AN37" s="15">
-        <f t="shared" si="136"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AO37" s="15">
-        <f t="shared" si="136"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AP37" s="15">
-        <f t="shared" si="136"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AQ37" s="15">
-        <f t="shared" si="136"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AR37" s="15">
-        <f t="shared" si="136"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
@@ -5682,19 +5829,19 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
-        <f t="shared" ref="G38:H38" si="137">G19/G16</f>
+        <f t="shared" ref="G38:H38" si="136">G19/G16</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="137"/>
+        <f t="shared" si="136"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="I38" s="15">
-        <f t="shared" ref="I38" si="138">I19/I16</f>
+        <f t="shared" ref="I38" si="137">I19/I16</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" ref="J38" si="139">J19/J16</f>
+        <f t="shared" ref="J38" si="138">J19/J16</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="K38" s="15">
@@ -5702,27 +5849,27 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="L38" s="15">
-        <f t="shared" ref="L38:O38" si="140">L19/L16</f>
+        <f t="shared" ref="L38:O38" si="139">L19/L16</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="M38" s="15">
+        <f t="shared" si="139"/>
+        <v>0.57583156730857832</v>
+      </c>
+      <c r="N38" s="15">
+        <f t="shared" si="139"/>
+        <v>0.56205774975107869</v>
+      </c>
+      <c r="O38" s="15">
+        <f t="shared" si="139"/>
+        <v>0.5647909896928438</v>
+      </c>
+      <c r="P38" s="15">
+        <f t="shared" ref="P38:Q38" si="140">P19/P16</f>
+        <v>0.56799885197675248</v>
+      </c>
+      <c r="Q38" s="15">
         <f t="shared" si="140"/>
-        <v>0.57583156730857832</v>
-      </c>
-      <c r="N38" s="15">
-        <f t="shared" si="140"/>
-        <v>0.56205774975107869</v>
-      </c>
-      <c r="O38" s="15">
-        <f t="shared" si="140"/>
-        <v>0.5647909896928438</v>
-      </c>
-      <c r="P38" s="15">
-        <f t="shared" ref="P38:Q38" si="141">P19/P16</f>
-        <v>0.56799885197675248</v>
-      </c>
-      <c r="Q38" s="15">
-        <f t="shared" si="141"/>
         <v>0.54903606785156023</v>
       </c>
       <c r="R38" s="15">
@@ -5730,91 +5877,95 @@
         <v>0.53526719966337055</v>
       </c>
       <c r="S38" s="15">
-        <f t="shared" ref="S38:V38" si="142">S19/S16</f>
+        <f t="shared" ref="S38:V38" si="141">S19/S16</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="T38" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="U38" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="141"/>
+        <v>0.56672708069836886</v>
+      </c>
+      <c r="V38" s="15">
+        <f t="shared" si="141"/>
         <v>0.54999999999999993</v>
       </c>
-      <c r="V38" s="15">
-        <f t="shared" si="142"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="AB38" s="5">
-        <f t="shared" ref="AB38" si="143">AB19/AB16</f>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AF38" s="5">
+        <f t="shared" ref="AF38" si="142">AF19/AF16</f>
         <v>0.6107483219951213</v>
       </c>
-      <c r="AC38" s="5">
-        <f t="shared" ref="AC38" si="144">AC19/AC16</f>
+      <c r="AG38" s="5">
+        <f t="shared" ref="AG38" si="143">AG19/AG16</f>
         <v>0.62442491565429592</v>
       </c>
-      <c r="AD38" s="5">
-        <f t="shared" ref="AD38:AE38" si="145">AD19/AD16</f>
+      <c r="AH38" s="5">
+        <f t="shared" ref="AH38:AI38" si="144">AH19/AH16</f>
         <v>0.61075416518964909</v>
       </c>
-      <c r="AE38" s="5">
+      <c r="AI38" s="5">
+        <f t="shared" si="144"/>
+        <v>0.58880519597672631</v>
+      </c>
+      <c r="AJ38" s="5">
+        <f t="shared" ref="AJ38:AL38" si="145">AJ19/AJ16</f>
+        <v>0.5647607422945643</v>
+      </c>
+      <c r="AK38" s="5">
         <f t="shared" si="145"/>
-        <v>0.58880519597672631</v>
-      </c>
-      <c r="AF38" s="5">
-        <f t="shared" ref="AF38:AH38" si="146">AF19/AF16</f>
-        <v>0.5647607422945643</v>
-      </c>
-      <c r="AG38" s="5">
-        <f t="shared" si="146"/>
         <v>0.5558054331910266</v>
       </c>
-      <c r="AH38" s="5">
-        <f t="shared" si="146"/>
+      <c r="AL38" s="5">
+        <f t="shared" si="145"/>
         <v>0.53578374706207854</v>
       </c>
-      <c r="AI38" s="5">
-        <f>AI19/AI16</f>
+      <c r="AM38" s="5">
+        <f>AM19/AM16</f>
         <v>0.5693980290098084</v>
       </c>
-      <c r="AJ38" s="5">
-        <f>AJ19/AJ16</f>
+      <c r="AN38" s="5">
+        <f>AN19/AN16</f>
         <v>0.55379442503783116</v>
       </c>
-      <c r="AK38" s="5">
-        <f t="shared" ref="AK38" si="147">AK19/AK16</f>
+      <c r="AO38" s="5">
+        <f t="shared" ref="AO38" si="146">AO19/AO16</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AL38" s="15">
-        <f t="shared" ref="AL38:AR38" si="148">AL19/AL16</f>
+      <c r="AP38" s="15">
+        <f t="shared" ref="AP38:AV38" si="147">AP19/AP16</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AM38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AQ38" s="15">
+        <f t="shared" si="147"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AN38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AR38" s="15">
+        <f t="shared" si="147"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AO38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AS38" s="15">
+        <f t="shared" si="147"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AP38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AT38" s="15">
+        <f t="shared" si="147"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AQ38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AU38" s="15">
+        <f t="shared" si="147"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AR38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AV38" s="15">
+        <f t="shared" si="147"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="39" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
@@ -5823,7 +5974,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
-        <f t="shared" ref="G39" si="149">+G27/G26</f>
+        <f t="shared" ref="G39" si="148">+G27/G26</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H39" s="15">
@@ -5831,39 +5982,39 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" ref="I39:Q39" si="150">+I27/I26</f>
+        <f t="shared" ref="I39:Q39" si="149">+I27/I26</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.16</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="149"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="R39" s="15">
@@ -5871,91 +6022,95 @@
         <v>0.20545868081880211</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" ref="S39:V39" si="151">+S27/S26</f>
+        <f t="shared" ref="S39:V39" si="150">+S27/S26</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="150"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="151"/>
-        <v>0.2</v>
+        <f t="shared" si="150"/>
+        <v>7.1142142756050381E-2</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="151"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB39" s="15">
-        <f t="shared" ref="AB39" si="152">+AB27/AB26</f>
+        <f t="shared" si="150"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AF39" s="15">
+        <f t="shared" ref="AF39" si="151">+AF27/AF26</f>
         <v>0.21084651486181122</v>
       </c>
-      <c r="AC39" s="15">
-        <f t="shared" ref="AC39" si="153">+AC27/AC26</f>
+      <c r="AG39" s="15">
+        <f t="shared" ref="AG39" si="152">+AG27/AG26</f>
         <v>0.16808304920869166</v>
       </c>
-      <c r="AD39" s="15">
-        <f t="shared" ref="AD39:AE39" si="154">+AD27/AD26</f>
+      <c r="AH39" s="15">
+        <f t="shared" ref="AH39:AI39" si="153">+AH27/AH26</f>
         <v>0.19345755693581781</v>
       </c>
-      <c r="AE39" s="15">
+      <c r="AI39" s="15">
+        <f t="shared" si="153"/>
+        <v>0.48551572053860803</v>
+      </c>
+      <c r="AJ39" s="15">
+        <f t="shared" ref="AJ39:AL39" si="154">+AJ27/AJ26</f>
+        <v>0.10446678671468587</v>
+      </c>
+      <c r="AK39" s="15">
         <f t="shared" si="154"/>
-        <v>0.48551572053860803</v>
-      </c>
-      <c r="AF39" s="15">
-        <f t="shared" ref="AF39:AH39" si="155">+AF27/AF26</f>
-        <v>0.10446678671468587</v>
-      </c>
-      <c r="AG39" s="15">
+        <v>0.12782537147282319</v>
+      </c>
+      <c r="AL39" s="15">
+        <f t="shared" si="154"/>
+        <v>0.16249324071378063</v>
+      </c>
+      <c r="AM39" s="15">
+        <f t="shared" ref="AM39:AO39" si="155">+AM27/AM26</f>
+        <v>0.16202305640663919</v>
+      </c>
+      <c r="AN39" s="15">
+        <f>+AN27/AN26</f>
+        <v>0.1592081650964558</v>
+      </c>
+      <c r="AO39" s="15">
         <f t="shared" si="155"/>
-        <v>0.12782537147282319</v>
-      </c>
-      <c r="AH39" s="15">
-        <f t="shared" si="155"/>
-        <v>0.16249324071378063</v>
-      </c>
-      <c r="AI39" s="15">
-        <f t="shared" ref="AI39:AK39" si="156">+AI27/AI26</f>
-        <v>0.16202305640663919</v>
-      </c>
-      <c r="AJ39" s="15">
-        <f>+AJ27/AJ26</f>
-        <v>0.1592081650964558</v>
-      </c>
-      <c r="AK39" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="AP39" s="15">
+        <f t="shared" ref="AP39:AV39" si="156">+AP27/AP26</f>
+        <v>0.18</v>
+      </c>
+      <c r="AQ39" s="15">
         <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
-      <c r="AL39" s="15">
-        <f t="shared" ref="AL39:AR39" si="157">+AL27/AL26</f>
+      <c r="AR39" s="15">
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
-      <c r="AM39" s="15">
-        <f t="shared" si="157"/>
+      <c r="AS39" s="15">
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
-      <c r="AN39" s="15">
-        <f t="shared" si="157"/>
+      <c r="AT39" s="15">
+        <f t="shared" si="156"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="AU39" s="15">
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
-      <c r="AO39" s="15">
-        <f t="shared" si="157"/>
+      <c r="AV39" s="15">
+        <f t="shared" si="156"/>
         <v>0.18</v>
       </c>
-      <c r="AP39" s="15">
-        <f t="shared" si="157"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="AQ39" s="15">
-        <f t="shared" si="157"/>
-        <v>0.18</v>
-      </c>
-      <c r="AR39" s="15">
-        <f t="shared" si="157"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
@@ -5964,15 +6119,15 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15">
-        <f t="shared" ref="G40:H40" si="158">G14/G16</f>
+        <f t="shared" ref="G40:H40" si="157">G14/G16</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="157"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" ref="I40" si="159">I14/I16</f>
+        <f t="shared" ref="I40" si="158">I14/I16</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J40" s="15">
@@ -5980,31 +6135,31 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" ref="K40:O40" si="160">K14/K16</f>
+        <f t="shared" ref="K40:O40" si="159">K14/K16</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L40" s="15">
+        <f t="shared" si="159"/>
+        <v>0.57926632191338079</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="159"/>
+        <v>0.58241960748180222</v>
+      </c>
+      <c r="N40" s="15">
+        <f t="shared" si="159"/>
+        <v>0.5748556256223033</v>
+      </c>
+      <c r="O40" s="15">
+        <f t="shared" si="159"/>
+        <v>0.58252341532987306</v>
+      </c>
+      <c r="P40" s="15">
+        <f t="shared" ref="P40:Q40" si="160">P14/P16</f>
+        <v>0.58389897395422252</v>
+      </c>
+      <c r="Q40" s="15">
         <f t="shared" si="160"/>
-        <v>0.57926632191338079</v>
-      </c>
-      <c r="M40" s="15">
-        <f t="shared" si="160"/>
-        <v>0.58241960748180222</v>
-      </c>
-      <c r="N40" s="15">
-        <f t="shared" si="160"/>
-        <v>0.5748556256223033</v>
-      </c>
-      <c r="O40" s="15">
-        <f t="shared" si="160"/>
-        <v>0.58252341532987306</v>
-      </c>
-      <c r="P40" s="15">
-        <f t="shared" ref="P40:Q40" si="161">P14/P16</f>
-        <v>0.58389897395422252</v>
-      </c>
-      <c r="Q40" s="15">
-        <f t="shared" si="161"/>
         <v>0.57226596422161757</v>
       </c>
       <c r="R40" s="15">
@@ -6012,67 +6167,71 @@
         <v>0.56022512097622557</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" ref="S40:V40" si="162">S14/S16</f>
+        <f t="shared" ref="S40:V40" si="161">S14/S16</f>
         <v>0.57831687850172664</v>
       </c>
       <c r="T40" s="15">
+        <f t="shared" si="161"/>
+        <v>0.57139027397994746</v>
+      </c>
+      <c r="U40" s="15">
+        <f t="shared" si="161"/>
+        <v>0.574054998500515</v>
+      </c>
+      <c r="V40" s="15">
+        <f t="shared" si="161"/>
+        <v>0.55000767065707956</v>
+      </c>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AL40" s="15">
+        <f t="shared" ref="AL40:AO40" si="162">AL14/AL16</f>
+        <v>0.57011839344316184</v>
+      </c>
+      <c r="AM40" s="15">
         <f t="shared" si="162"/>
-        <v>0.57139027397994746</v>
-      </c>
-      <c r="U40" s="15">
+        <v>0.57814289096674776</v>
+      </c>
+      <c r="AN40" s="15">
         <f t="shared" si="162"/>
-        <v>0.56177599653265986</v>
-      </c>
-      <c r="V40" s="15">
+        <v>0.57436111386103605</v>
+      </c>
+      <c r="AO40" s="15">
         <f t="shared" si="162"/>
-        <v>0.55000767065707956</v>
-      </c>
-      <c r="AH40" s="15">
-        <f t="shared" ref="AH40:AK40" si="163">AH14/AH16</f>
-        <v>0.57011839344316184</v>
-      </c>
-      <c r="AI40" s="15">
+        <v>0.57465427805581204</v>
+      </c>
+      <c r="AP40" s="15">
+        <f t="shared" ref="AP40:AV40" si="163">AP14/AP16</f>
+        <v>0.56646189101990851</v>
+      </c>
+      <c r="AQ40" s="15">
         <f t="shared" si="163"/>
-        <v>0.57814289096674776</v>
-      </c>
-      <c r="AJ40" s="15">
+        <v>0.56058785008742684</v>
+      </c>
+      <c r="AR40" s="15">
         <f t="shared" si="163"/>
-        <v>0.57436111386103605</v>
-      </c>
-      <c r="AK40" s="15">
+        <v>0.55165420445857594</v>
+      </c>
+      <c r="AS40" s="15">
         <f t="shared" si="163"/>
-        <v>0.57465427805581204</v>
-      </c>
-      <c r="AL40" s="15">
-        <f t="shared" ref="AL40:AR40" si="164">AL14/AL16</f>
-        <v>0.56646189101990851</v>
-      </c>
-      <c r="AM40" s="15">
-        <f t="shared" si="164"/>
-        <v>0.56058785008742684</v>
-      </c>
-      <c r="AN40" s="15">
-        <f t="shared" si="164"/>
-        <v>0.55165420445857594</v>
-      </c>
-      <c r="AO40" s="15">
-        <f t="shared" si="164"/>
         <v>0.53952607606889824</v>
       </c>
-      <c r="AP40" s="15">
-        <f t="shared" si="164"/>
+      <c r="AT40" s="15">
+        <f t="shared" si="163"/>
         <v>0.53518023811646842</v>
       </c>
-      <c r="AQ40" s="15">
-        <f t="shared" si="164"/>
+      <c r="AU40" s="15">
+        <f t="shared" si="163"/>
         <v>0.52949611745013003</v>
       </c>
-      <c r="AR40" s="15">
-        <f t="shared" si="164"/>
+      <c r="AV40" s="15">
+        <f t="shared" si="163"/>
         <v>0.52249526870684604</v>
       </c>
     </row>
-    <row r="41" spans="2:47" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
@@ -6081,47 +6240,47 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15">
-        <f t="shared" ref="G41:J41" si="165">(G14+G13+G12)/G16</f>
+        <f t="shared" ref="G41:J41" si="164">(G14+G13+G12)/G16</f>
         <v>0.82030661580699238</v>
       </c>
       <c r="H41" s="15">
+        <f t="shared" si="164"/>
+        <v>0.7798783194506097</v>
+      </c>
+      <c r="I41" s="15">
+        <f t="shared" si="164"/>
+        <v>0.80339159248911707</v>
+      </c>
+      <c r="J41" s="15">
+        <f t="shared" si="164"/>
+        <v>0.81196175612499566</v>
+      </c>
+      <c r="K41" s="15">
+        <f t="shared" ref="K41:Q41" si="165">(K14+K13+K12)/K16</f>
+        <v>0.80782442058068482</v>
+      </c>
+      <c r="L41" s="15">
         <f t="shared" si="165"/>
-        <v>0.7798783194506097</v>
-      </c>
-      <c r="I41" s="15">
+        <v>0.81519069166127989</v>
+      </c>
+      <c r="M41" s="15">
         <f t="shared" si="165"/>
-        <v>0.80339159248911707</v>
-      </c>
-      <c r="J41" s="15">
+        <v>0.81590343683774069</v>
+      </c>
+      <c r="N41" s="15">
         <f t="shared" si="165"/>
-        <v>0.81196175612499566</v>
-      </c>
-      <c r="K41" s="15">
-        <f t="shared" ref="K41:Q41" si="166">(K14+K13+K12)/K16</f>
-        <v>0.80782442058068482</v>
-      </c>
-      <c r="L41" s="15">
-        <f t="shared" si="166"/>
-        <v>0.81519069166127989</v>
-      </c>
-      <c r="M41" s="15">
-        <f t="shared" si="166"/>
-        <v>0.81590343683774069</v>
-      </c>
-      <c r="N41" s="15">
-        <f t="shared" si="166"/>
         <v>0.81299701294390969</v>
       </c>
       <c r="O41" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>0.80370822366970052</v>
       </c>
       <c r="P41" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>0.80774915692042759</v>
       </c>
       <c r="Q41" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="165"/>
         <v>0.78854281248190816</v>
       </c>
       <c r="R41" s="15">
@@ -6129,25 +6288,25 @@
         <v>0.77637807700399752</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" ref="S41:V41" si="167">(S14+S13+S12)/S16</f>
+        <f t="shared" ref="S41:V41" si="166">(S14+S13+S12)/S16</f>
         <v>0.78163554816799685</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>0.779354994370275</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="167"/>
-        <v>0.77408836447791729</v>
+        <f t="shared" si="166"/>
+        <v>0.77773721200109525</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="166"/>
         <v>0.76221840416240938</v>
       </c>
-      <c r="AH41" s="15"/>
-      <c r="AI41" s="15"/>
-      <c r="AJ41" s="15"/>
-      <c r="AK41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
       <c r="AL41" s="15"/>
       <c r="AM41" s="15"/>
       <c r="AN41" s="15"/>
@@ -6155,8 +6314,12 @@
       <c r="AP41" s="15"/>
       <c r="AQ41" s="15"/>
       <c r="AR41" s="15"/>
-    </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+    </row>
+    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
@@ -6165,11 +6328,11 @@
         <v>124580</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:O43" si="168">+N44-N62</f>
+        <f t="shared" ref="N43:O43" si="167">+N44-N62</f>
         <v>154381</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="167"/>
         <v>149723</v>
       </c>
       <c r="P43" s="11">
@@ -6192,49 +6355,56 @@
         <f>+T44-T62</f>
         <v>135851</v>
       </c>
-      <c r="U43" s="11"/>
+      <c r="U43" s="11">
+        <f>+U44-U62</f>
+        <v>137061</v>
+      </c>
       <c r="V43" s="11"/>
-      <c r="AD43" s="3">
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AH43" s="3">
         <v>72053</v>
       </c>
-      <c r="AJ43" s="3">
+      <c r="AN43" s="3">
         <f>+R43</f>
         <v>129553</v>
       </c>
-      <c r="AK43" s="3">
-        <f>+AJ43+AK28</f>
+      <c r="AO43" s="3">
+        <f>+AN43+AO28</f>
         <v>202986.519696</v>
       </c>
-      <c r="AL43" s="3">
-        <f t="shared" ref="AL43:AR43" si="169">+AK43+AL28</f>
+      <c r="AP43" s="3">
+        <f t="shared" ref="AP43:AV43" si="168">+AO43+AP28</f>
         <v>290052.05833486724</v>
       </c>
-      <c r="AM43" s="3">
-        <f t="shared" si="169"/>
+      <c r="AQ43" s="3">
+        <f t="shared" si="168"/>
         <v>391905.42938148277</v>
       </c>
-      <c r="AN43" s="3">
-        <f t="shared" si="169"/>
+      <c r="AR43" s="3">
+        <f t="shared" si="168"/>
         <v>511578.58854282054</v>
       </c>
-      <c r="AO43" s="3">
-        <f t="shared" si="169"/>
+      <c r="AS43" s="3">
+        <f t="shared" si="168"/>
         <v>652850.66423680889</v>
       </c>
-      <c r="AP43" s="3">
-        <f t="shared" si="169"/>
+      <c r="AT43" s="3">
+        <f t="shared" si="168"/>
         <v>815257.82429385802</v>
       </c>
-      <c r="AQ43" s="3">
-        <f t="shared" si="169"/>
+      <c r="AU43" s="3">
+        <f t="shared" si="168"/>
         <v>1002111.9077416592</v>
       </c>
-      <c r="AR43" s="3">
-        <f t="shared" si="169"/>
+      <c r="AV43" s="3">
+        <f t="shared" si="168"/>
         <v>1217280.1040730444</v>
       </c>
     </row>
-    <row r="44" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
@@ -6280,10 +6450,17 @@
         <f>25929+92403+31224</f>
         <v>149556</v>
       </c>
-      <c r="U44" s="11"/>
+      <c r="U44" s="11">
+        <f>119935+30907</f>
+        <v>150842</v>
+      </c>
       <c r="V44" s="11"/>
-    </row>
-    <row r="45" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+    </row>
+    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
@@ -6321,10 +6498,16 @@
       <c r="T45" s="11">
         <v>38804</v>
       </c>
-      <c r="U45" s="11"/>
+      <c r="U45" s="11">
+        <v>41020</v>
+      </c>
       <c r="V45" s="11"/>
-    </row>
-    <row r="46" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+    </row>
+    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>30</v>
       </c>
@@ -6362,10 +6545,16 @@
       <c r="T46" s="11">
         <v>0</v>
       </c>
-      <c r="U46" s="11"/>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
       <c r="V46" s="11"/>
-    </row>
-    <row r="47" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+    </row>
+    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
@@ -6403,10 +6592,16 @@
       <c r="T47" s="11">
         <v>2231</v>
       </c>
-      <c r="U47" s="11"/>
+      <c r="U47" s="11">
+        <v>2957</v>
+      </c>
       <c r="V47" s="11"/>
-    </row>
-    <row r="48" spans="2:47" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+    </row>
+    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
@@ -6444,10 +6639,16 @@
       <c r="T48" s="11">
         <v>9421</v>
       </c>
-      <c r="U48" s="11"/>
+      <c r="U48" s="11">
+        <v>12398</v>
+      </c>
       <c r="V48" s="11"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
@@ -6475,10 +6676,16 @@
       <c r="T49" s="11">
         <v>9357</v>
       </c>
-      <c r="U49" s="11"/>
+      <c r="U49" s="11">
+        <v>10983</v>
+      </c>
       <c r="V49" s="11"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
@@ -6488,7 +6695,7 @@
       <c r="N50" s="11">
         <v>97599</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="11">
         <v>104218</v>
       </c>
       <c r="P50" s="11">
@@ -6506,10 +6713,16 @@
       <c r="T50" s="11">
         <v>121208</v>
       </c>
-      <c r="U50" s="11"/>
+      <c r="U50" s="11">
+        <v>125705</v>
+      </c>
       <c r="V50" s="11"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
@@ -6519,7 +6732,7 @@
       <c r="N51" s="11">
         <v>12959</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="11">
         <v>12992</v>
       </c>
       <c r="P51" s="11">
@@ -6537,10 +6750,16 @@
       <c r="T51" s="11">
         <v>14469</v>
       </c>
-      <c r="U51" s="11"/>
+      <c r="U51" s="11">
+        <v>14199</v>
+      </c>
       <c r="V51" s="11"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -6552,7 +6771,7 @@
         <f>1417+22956</f>
         <v>24373</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="11">
         <f>1313+23010</f>
         <v>24323</v>
       </c>
@@ -6576,10 +6795,17 @@
         <f>29210+1966</f>
         <v>31176</v>
       </c>
-      <c r="U52" s="11"/>
+      <c r="U52" s="11">
+        <f>1833+29146</f>
+        <v>30979</v>
+      </c>
       <c r="V52" s="11"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -6589,7 +6815,7 @@
       <c r="N53" s="11">
         <v>5361</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="11">
         <v>5778</v>
       </c>
       <c r="P53" s="11">
@@ -6607,10 +6833,16 @@
       <c r="T53" s="11">
         <v>6822</v>
       </c>
-      <c r="U53" s="11"/>
+      <c r="U53" s="11">
+        <v>7628</v>
+      </c>
       <c r="V53" s="11"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6619,37 +6851,44 @@
         <v>273403</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" ref="N54:T54" si="170">SUM(N44:N53)</f>
+        <f t="shared" ref="N54:U54" si="169">SUM(N44:N53)</f>
         <v>359268</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>357096</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>355185</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>358255</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>365264</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>369491</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="169"/>
         <v>383044</v>
       </c>
-      <c r="U54" s="11"/>
+      <c r="U54" s="11">
+        <f t="shared" si="169"/>
+        <v>396711</v>
+      </c>
       <c r="V54" s="11"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="G55" s="11"/>
       <c r="P55" s="11"/>
@@ -6659,8 +6898,12 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
@@ -6688,10 +6931,16 @@
       <c r="T56" s="11">
         <v>5313</v>
       </c>
-      <c r="U56" s="11"/>
+      <c r="U56" s="11">
+        <v>5803</v>
+      </c>
       <c r="V56" s="11"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
@@ -6719,10 +6968,16 @@
       <c r="T57" s="11">
         <v>11260</v>
       </c>
-      <c r="U57" s="11"/>
+      <c r="U57" s="11">
+        <v>12562</v>
+      </c>
       <c r="V57" s="11"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
@@ -6750,10 +7005,16 @@
       <c r="T58" s="11">
         <v>49300</v>
       </c>
-      <c r="U58" s="11"/>
+      <c r="U58" s="11">
+        <v>55602</v>
+      </c>
       <c r="V58" s="11"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
@@ -6781,10 +7042,16 @@
       <c r="T59" s="11">
         <v>7990</v>
       </c>
-      <c r="U59" s="11"/>
+      <c r="U59" s="11">
+        <v>8025</v>
+      </c>
       <c r="V59" s="11"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -6820,10 +7087,17 @@
         <f>3846+667</f>
         <v>4513</v>
       </c>
-      <c r="U60" s="11"/>
+      <c r="U60" s="11">
+        <f>4303+884</f>
+        <v>5187</v>
+      </c>
       <c r="V60" s="11"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>30</v>
       </c>
@@ -6859,10 +7133,17 @@
         <f>8753+558</f>
         <v>9311</v>
       </c>
-      <c r="U61" s="11"/>
+      <c r="U61" s="11">
+        <f>8038+528</f>
+        <v>8566</v>
+      </c>
       <c r="V61" s="11"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -6890,10 +7171,16 @@
       <c r="T62" s="11">
         <v>13705</v>
       </c>
-      <c r="U62" s="11"/>
+      <c r="U62" s="11">
+        <v>13781</v>
+      </c>
       <c r="V62" s="11"/>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
@@ -6921,10 +7208,16 @@
       <c r="T63" s="11">
         <v>12746</v>
       </c>
-      <c r="U63" s="11"/>
+      <c r="U63" s="11">
+        <v>12550</v>
+      </c>
       <c r="V63" s="11"/>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -6952,10 +7245,16 @@
       <c r="T64" s="11">
         <v>1765</v>
       </c>
-      <c r="U64" s="11"/>
+      <c r="U64" s="11">
+        <v>1433</v>
+      </c>
       <c r="V64" s="11"/>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>68</v>
       </c>
@@ -6983,10 +7282,16 @@
       <c r="T65" s="11">
         <v>267141</v>
       </c>
-      <c r="U65" s="11"/>
+      <c r="U65" s="11">
+        <v>273202</v>
+      </c>
       <c r="V65" s="11"/>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
@@ -6995,37 +7300,44 @@
         <v>273403</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" ref="N66:T66" si="171">SUM(N56:N65)</f>
+        <f t="shared" ref="N66:U66" si="170">SUM(N56:N65)</f>
         <v>359268</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>357096</v>
       </c>
       <c r="P66" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>355185</v>
       </c>
       <c r="Q66" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>358255</v>
       </c>
       <c r="R66" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>365264</v>
       </c>
       <c r="S66" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>369491</v>
       </c>
       <c r="T66" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="170"/>
         <v>383044</v>
       </c>
-      <c r="U66" s="11"/>
+      <c r="U66" s="11">
+        <f t="shared" si="170"/>
+        <v>396711</v>
+      </c>
       <c r="V66" s="11"/>
-    </row>
-    <row r="68" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+    </row>
+    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
@@ -7041,61 +7353,68 @@
         <v>6836</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" ref="H68:T68" si="172">+H28</f>
+        <f t="shared" ref="H68:U68" si="171">+H28</f>
         <v>6959</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>11247</v>
       </c>
       <c r="J68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>15227</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>17930</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>18165</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>18936</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>20642</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>16436</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>16002</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>13910</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>13624</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>15051</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="171"/>
         <v>18368</v>
       </c>
-      <c r="U68" s="11"/>
+      <c r="U68" s="11">
+        <f t="shared" si="171"/>
+        <v>19689</v>
+      </c>
       <c r="V68" s="11"/>
-    </row>
-    <row r="69" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+    </row>
+    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>83</v>
       </c>
@@ -7135,10 +7454,16 @@
       <c r="T69" s="11">
         <v>18368</v>
       </c>
-      <c r="U69" s="11"/>
+      <c r="U69" s="11">
+        <v>19689</v>
+      </c>
       <c r="V69" s="11"/>
-    </row>
-    <row r="70" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+    </row>
+    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>84</v>
       </c>
@@ -7179,10 +7504,16 @@
         <f>6339-S70</f>
         <v>3279</v>
       </c>
-      <c r="U70" s="11"/>
+      <c r="U70" s="11">
+        <v>3671</v>
+      </c>
       <c r="V70" s="11"/>
-    </row>
-    <row r="71" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="11"/>
+    </row>
+    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>85</v>
       </c>
@@ -7223,10 +7554,16 @@
         <f>244-S71</f>
         <v>118</v>
       </c>
-      <c r="U71" s="11"/>
+      <c r="U71" s="11">
+        <v>129</v>
+      </c>
       <c r="V71" s="11"/>
-    </row>
-    <row r="72" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+    </row>
+    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
@@ -7267,10 +7604,16 @@
         <f>11058-S72</f>
         <v>5774</v>
       </c>
-      <c r="U72" s="11"/>
+      <c r="U72" s="11">
+        <v>5743</v>
+      </c>
       <c r="V72" s="11"/>
-    </row>
-    <row r="73" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+    </row>
+    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>56</v>
       </c>
@@ -7311,10 +7654,16 @@
         <f>-4269-S73</f>
         <v>-2415</v>
       </c>
-      <c r="U73" s="11"/>
+      <c r="U73" s="11">
+        <v>-1824</v>
+      </c>
       <c r="V73" s="11"/>
-    </row>
-    <row r="74" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+    </row>
+    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>87</v>
       </c>
@@ -7355,10 +7704,16 @@
         <f>425-S74</f>
         <v>509</v>
       </c>
-      <c r="U74" s="11"/>
+      <c r="U74" s="11">
+        <v>869</v>
+      </c>
       <c r="V74" s="11"/>
-    </row>
-    <row r="75" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+    </row>
+    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
@@ -7399,10 +7754,16 @@
         <f>650-S75</f>
         <v>97</v>
       </c>
-      <c r="U75" s="11"/>
+      <c r="U75" s="11">
+        <v>262</v>
+      </c>
       <c r="V75" s="11"/>
-    </row>
-    <row r="76" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+    </row>
+    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>88</v>
       </c>
@@ -7451,10 +7812,17 @@
         <f>1506+8520-1259+14-4037-418-17-S76</f>
         <v>2936</v>
       </c>
-      <c r="U76" s="11"/>
+      <c r="U76" s="11">
+        <f>-2821+1872-1624+223+3657+103+707</f>
+        <v>2117</v>
+      </c>
       <c r="V76" s="11"/>
-    </row>
-    <row r="77" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+    </row>
+    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>35</v>
       </c>
@@ -7483,37 +7851,44 @@
         <v>25539</v>
       </c>
       <c r="N77" s="11">
-        <f t="shared" ref="N77:T77" si="173">SUM(N69:N76)</f>
+        <f t="shared" ref="N77:U77" si="172">SUM(N69:N76)</f>
         <v>0</v>
       </c>
       <c r="O77" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>25106</v>
       </c>
       <c r="P77" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>19422</v>
       </c>
       <c r="Q77" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>23353</v>
       </c>
       <c r="R77" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>23614</v>
       </c>
       <c r="S77" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>23509</v>
       </c>
       <c r="T77" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="172"/>
         <v>28666</v>
       </c>
-      <c r="U77" s="11"/>
+      <c r="U77" s="11">
+        <f t="shared" si="172"/>
+        <v>30656</v>
+      </c>
       <c r="V77" s="11"/>
-    </row>
-    <row r="78" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+    </row>
+    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -7534,8 +7909,12 @@
       <c r="T78" s="11"/>
       <c r="U78" s="11"/>
       <c r="V78" s="11"/>
-    </row>
-    <row r="79" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
+    </row>
+    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>36</v>
       </c>
@@ -7584,10 +7963,16 @@
         <f>-13177-S79</f>
         <v>-6888</v>
       </c>
-      <c r="U79" s="11"/>
+      <c r="U79" s="11">
+        <v>-8055</v>
+      </c>
       <c r="V79" s="11"/>
-    </row>
-    <row r="80" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
+    </row>
+    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>89</v>
       </c>
@@ -7630,10 +8015,17 @@
         <f>-35589+37049-1513-S80+181</f>
         <v>-3382</v>
       </c>
-      <c r="U80" s="11"/>
+      <c r="U80" s="11">
+        <f>-13833+15593-663+562</f>
+        <v>1659</v>
+      </c>
       <c r="V80" s="11"/>
-    </row>
-    <row r="81" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
+    </row>
+    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>91</v>
       </c>
@@ -7670,10 +8062,16 @@
         <f>-340-S81</f>
         <v>-298</v>
       </c>
-      <c r="U81" s="11"/>
+      <c r="U81" s="11">
+        <v>-126</v>
+      </c>
       <c r="V81" s="11"/>
-    </row>
-    <row r="82" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
+    </row>
+    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>28</v>
       </c>
@@ -7710,10 +8108,16 @@
         <f>-357-S82</f>
         <v>-232</v>
       </c>
-      <c r="U82" s="11"/>
+      <c r="U82" s="11">
+        <v>-628</v>
+      </c>
       <c r="V82" s="11"/>
-    </row>
-    <row r="83" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+    </row>
+    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>92</v>
       </c>
@@ -7756,10 +8160,17 @@
         <f>SUM(T79:T82)</f>
         <v>-10800</v>
       </c>
-      <c r="U83" s="11"/>
+      <c r="U83" s="11">
+        <f>SUM(U79:U82)</f>
+        <v>-7150</v>
+      </c>
       <c r="V83" s="11"/>
-    </row>
-    <row r="84" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
+    </row>
+    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -7780,8 +8191,12 @@
       <c r="T84" s="11"/>
       <c r="U84" s="11"/>
       <c r="V84" s="11"/>
-    </row>
-    <row r="85" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+    </row>
+    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
@@ -7818,10 +8233,16 @@
         <f>-4725-S85</f>
         <v>-2736</v>
       </c>
-      <c r="U85" s="11"/>
+      <c r="U85" s="11">
+        <v>-2432</v>
+      </c>
       <c r="V85" s="11"/>
-    </row>
-    <row r="86" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
+    </row>
+    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>93</v>
       </c>
@@ -7858,10 +8279,16 @@
         <f>-29526-S86</f>
         <v>-14969</v>
       </c>
-      <c r="U86" s="11"/>
+      <c r="U86" s="11">
+        <v>-15787</v>
+      </c>
       <c r="V86" s="11"/>
-    </row>
-    <row r="87" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+    </row>
+    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>4</v>
       </c>
@@ -7904,10 +8331,17 @@
         <f>8050-8207-S87</f>
         <v>-132</v>
       </c>
-      <c r="U87" s="11"/>
+      <c r="U87" s="11">
+        <f>1248-1414</f>
+        <v>-166</v>
+      </c>
       <c r="V87" s="11"/>
-    </row>
-    <row r="88" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+    </row>
+    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>94</v>
       </c>
@@ -7944,10 +8378,16 @@
         <f>5-S88</f>
         <v>2</v>
       </c>
-      <c r="U88" s="11"/>
+      <c r="U88" s="11">
+        <v>3</v>
+      </c>
       <c r="V88" s="11"/>
-    </row>
-    <row r="89" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W88" s="11"/>
+      <c r="X88" s="11"/>
+      <c r="Y88" s="11"/>
+      <c r="Z88" s="11"/>
+    </row>
+    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
@@ -7990,10 +8430,17 @@
         <f>SUM(T85:T88)</f>
         <v>-17835</v>
       </c>
-      <c r="U89" s="11"/>
+      <c r="U89" s="11">
+        <f>SUM(U85:U88)</f>
+        <v>-18382</v>
+      </c>
       <c r="V89" s="11"/>
-    </row>
-    <row r="90" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W89" s="11"/>
+      <c r="X89" s="11"/>
+      <c r="Y89" s="11"/>
+      <c r="Z89" s="11"/>
+    </row>
+    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>41</v>
       </c>
@@ -8030,10 +8477,16 @@
         <f>24-S90</f>
         <v>-26</v>
       </c>
-      <c r="U90" s="11"/>
+      <c r="U90" s="11">
+        <v>-351</v>
+      </c>
       <c r="V90" s="11"/>
-    </row>
-    <row r="91" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W90" s="11"/>
+      <c r="X90" s="11"/>
+      <c r="Y90" s="11"/>
+      <c r="Z90" s="11"/>
+    </row>
+    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>95</v>
       </c>
@@ -8076,10 +8529,17 @@
         <f>+T90+T89+T83+T77</f>
         <v>5</v>
       </c>
-      <c r="U91" s="11"/>
+      <c r="U91" s="11">
+        <f>+U90+U89+U83+U77</f>
+        <v>4773</v>
+      </c>
       <c r="V91" s="11"/>
-    </row>
-    <row r="92" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W91" s="11"/>
+      <c r="X91" s="11"/>
+      <c r="Y91" s="11"/>
+      <c r="Z91" s="11"/>
+    </row>
+    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -8100,8 +8560,12 @@
       <c r="T92" s="11"/>
       <c r="U92" s="11"/>
       <c r="V92" s="11"/>
-    </row>
-    <row r="93" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11"/>
+    </row>
+    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>37</v>
       </c>
@@ -8122,11 +8586,11 @@
       </c>
       <c r="L93" s="11"/>
       <c r="M93" s="11">
-        <f t="shared" ref="M93:N93" si="174">M77-M79</f>
+        <f t="shared" ref="M93:N93" si="173">M77-M79</f>
         <v>32358</v>
       </c>
       <c r="N93" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="173"/>
         <v>6383</v>
       </c>
       <c r="O93" s="11">
@@ -8134,32 +8598,39 @@
         <v>15320</v>
       </c>
       <c r="P93" s="11">
-        <f t="shared" ref="P93:S93" si="175">P77+P79</f>
+        <f t="shared" ref="P93:S93" si="174">P77+P79</f>
         <v>12594</v>
       </c>
       <c r="Q93" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>16077</v>
       </c>
       <c r="R93" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>16019</v>
       </c>
       <c r="S93" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="174"/>
         <v>17220</v>
       </c>
       <c r="T93" s="11">
         <f>T77+T79</f>
         <v>21778</v>
       </c>
-      <c r="U93" s="11"/>
+      <c r="U93" s="11">
+        <f>U77+U79</f>
+        <v>22601</v>
+      </c>
       <c r="V93" s="11"/>
-    </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+    </row>
+    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
       <c r="R95" s="11"/>
     </row>
-    <row r="96" spans="2:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>52</v>
       </c>
@@ -8205,39 +8676,49 @@
       <c r="T96" s="11">
         <v>181798</v>
       </c>
-      <c r="U96" s="11"/>
+      <c r="U96" s="11">
+        <v>182381</v>
+      </c>
       <c r="V96" s="11"/>
-    </row>
-    <row r="97" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="W96" s="11"/>
+      <c r="X96" s="11"/>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11"/>
+    </row>
+    <row r="97" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O97" s="15">
-        <f t="shared" ref="O97:T97" si="176">+O96/K96-1</f>
+        <f t="shared" ref="O97:U97" si="175">+O96/K96-1</f>
         <v>0.17079895710561099</v>
       </c>
       <c r="P97" s="15">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.20796079302493475</v>
       </c>
       <c r="Q97" s="15">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.24496094062441687</v>
       </c>
       <c r="R97" s="15">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.21555271565495215</v>
       </c>
       <c r="S97" s="15">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>0.16353885763791443</v>
       </c>
       <c r="T97" s="15">
-        <f t="shared" si="176"/>
+        <f t="shared" si="175"/>
         <v>4.4732033054811771E-2</v>
       </c>
-    </row>
-    <row r="98" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="U97" s="15">
+        <f t="shared" si="175"/>
+        <v>-2.3546544311726647E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>100</v>
       </c>
@@ -8246,113 +8727,117 @@
         <v>334.49548143813797</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" ref="K98:T98" si="177">+K16/K96*1000</f>
+        <f t="shared" ref="K98:U98" si="176">+K16/K96*1000</f>
         <v>395.11411121825779</v>
       </c>
       <c r="L98" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>429.55517298828232</v>
       </c>
       <c r="M98" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>434.03897939051376</v>
       </c>
       <c r="N98" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>481.30990415335464</v>
       </c>
       <c r="O98" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>414.93905043134475</v>
       </c>
       <c r="P98" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>400.45628512648409</v>
       </c>
       <c r="Q98" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>369.91310586307884</v>
       </c>
       <c r="R98" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>399.76029521536634</v>
       </c>
       <c r="S98" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>365.93064899245451</v>
       </c>
       <c r="T98" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="176"/>
         <v>410.36755079813861</v>
       </c>
-    </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="U98" s="11">
+        <f t="shared" si="176"/>
+        <v>420.50981187733373</v>
+      </c>
+    </row>
+    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AC101">
+      <c r="AG101">
         <v>37.94</v>
       </c>
-      <c r="AD101">
+      <c r="AH101">
         <v>38.590000000000003</v>
       </c>
-      <c r="AE101">
+      <c r="AI101">
         <v>52.32</v>
       </c>
-      <c r="AF101">
+      <c r="AJ101">
         <v>51.78</v>
       </c>
-      <c r="AG101">
+      <c r="AK101">
         <v>66.849999999999994</v>
       </c>
-      <c r="AH101">
+      <c r="AL101">
         <v>87.59</v>
       </c>
-      <c r="AI101">
+      <c r="AM101">
         <v>144.68</v>
       </c>
-      <c r="AJ101">
+      <c r="AN101">
         <v>88.73</v>
       </c>
     </row>
-    <row r="102" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AJ102" s="5">
-        <f>AJ101/AC101-1</f>
+    <row r="102" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AN102" s="5">
+        <f>AN101/AG101-1</f>
         <v>1.3386926726410122</v>
       </c>
     </row>
-    <row r="104" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>106</v>
       </c>
-      <c r="AC104" s="3">
+      <c r="AG104" s="3">
         <v>5007.41</v>
       </c>
-      <c r="AD104" s="3">
+      <c r="AH104" s="3">
         <v>5383.12</v>
       </c>
-      <c r="AE104" s="3">
+      <c r="AI104" s="3">
         <v>6903.39</v>
       </c>
-      <c r="AF104" s="3">
+      <c r="AJ104" s="3">
         <v>6635.28</v>
       </c>
-      <c r="AG104" s="3">
+      <c r="AK104" s="3">
         <v>8972.6</v>
       </c>
-      <c r="AH104" s="3">
+      <c r="AL104" s="3">
         <v>12888.28</v>
       </c>
-      <c r="AI104" s="3">
+      <c r="AM104" s="3">
         <v>15644.97</v>
       </c>
-      <c r="AJ104" s="3">
+      <c r="AN104" s="3">
         <v>10466.48</v>
       </c>
     </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AJ105" s="5">
-        <f>AJ104/AC104-1</f>
+    <row r="105" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AN105" s="5">
+        <f>AN104/AG104-1</f>
         <v>1.0901983260807482</v>
       </c>
     </row>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32E74E-1EFD-4045-975C-776084ADAC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6ED846-862C-5C47-8BFE-23E2B4C8C0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30075" yWindow="3165" windowWidth="27390" windowHeight="17550" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20920" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -847,16 +847,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>33412</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33411</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29766</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>33412</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>105966</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>33411</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -871,8 +871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12957646" y="29766"/>
-          <a:ext cx="0" cy="18399919"/>
+          <a:off x="15575036" y="0"/>
+          <a:ext cx="0" cy="19078575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -905,7 +905,7 @@
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>87039</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -955,9 +955,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -995,7 +995,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1101,7 +1101,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1243,7 +1243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1280,18 +1280,18 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="11" max="12" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="11" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="3" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H3" s="4"/>
       <c r="I3" s="3"/>
       <c r="K3" t="s">
@@ -1312,7 +1312,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H4" s="4"/>
       <c r="K4" t="s">
         <v>2</v>
@@ -1322,7 +1322,7 @@
         <v>1566686.4000000001</v>
       </c>
     </row>
-    <row r="5" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:13" x14ac:dyDescent="0.15">
       <c r="H5" s="6"/>
       <c r="K5" t="s">
         <v>3</v>
@@ -1334,7 +1334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K7" t="s">
         <v>5</v>
       </c>
@@ -1354,10 +1354,10 @@
         <v>1429625.4000000001</v>
       </c>
     </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1365,13 +1365,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="8:13" x14ac:dyDescent="0.15">
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K12" t="s">
         <v>101</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K13" t="s">
         <v>103</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K14" s="3" t="s">
         <v>108</v>
       </c>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K15" t="s">
         <v>110</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="8:13" x14ac:dyDescent="0.15">
       <c r="K16" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K17" t="s">
         <v>113</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K18" t="s">
         <v>115</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K19" t="s">
         <v>117</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K20" t="s">
         <v>119</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K21" t="s">
         <v>121</v>
       </c>
@@ -1452,13 +1452,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K22" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="25" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K25" t="s">
         <v>178</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
         <v>174</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
         <v>170</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
         <v>168</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K29" t="s">
         <v>165</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K30" t="s">
         <v>118</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K31" t="s">
         <v>162</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="11:13" x14ac:dyDescent="0.15">
       <c r="K32" t="s">
         <v>160</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K33" t="s">
         <v>157</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K34" t="s">
         <v>155</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K35" t="s">
         <v>151</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K36" t="s">
         <v>149</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K37" t="s">
         <v>146</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K38" t="s">
         <v>128</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K39" t="s">
         <v>143</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K40" t="s">
         <v>141</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K41" t="s">
         <v>137</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K42" t="s">
         <v>133</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K43" t="s">
         <v>130</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K44" t="s">
         <v>126</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K45" t="s">
         <v>124</v>
       </c>
@@ -1689,17 +1689,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K47" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K48" t="s">
         <v>181</v>
       </c>
@@ -1707,87 +1707,87 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K49" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K52" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K55" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K56" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K57" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K58" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K62" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K63" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K64" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K65" t="s">
         <v>199</v>
       </c>
@@ -1800,33 +1800,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
-  <dimension ref="A1:DA105"/>
+  <dimension ref="A1:DA104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
+      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="26" width="9.140625" style="2"/>
-    <col min="40" max="40" width="9.140625" customWidth="1"/>
-    <col min="47" max="48" width="9.28515625" customWidth="1"/>
-    <col min="51" max="51" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="17" width="9.1640625" style="2"/>
+    <col min="18" max="18" width="8.6640625" style="2" customWidth="1"/>
+    <col min="19" max="26" width="9.1640625" style="2"/>
+    <col min="40" max="40" width="9.1640625" customWidth="1"/>
+    <col min="47" max="48" width="9.33203125" customWidth="1"/>
+    <col min="51" max="51" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>200</v>
       </c>
@@ -1982,7 +1982,9 @@
       <c r="Q3" s="11">
         <v>33372</v>
       </c>
-      <c r="R3" s="11"/>
+      <c r="R3" s="11">
+        <v>36982</v>
+      </c>
       <c r="S3" s="11">
         <v>32864</v>
       </c>
@@ -1992,8 +1994,15 @@
       <c r="U3" s="11">
         <v>36354</v>
       </c>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="V3" s="11">
+        <v>41995</v>
+      </c>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -2003,7 +2012,9 @@
       <c r="Q4" s="11">
         <v>19450</v>
       </c>
-      <c r="R4" s="11"/>
+      <c r="R4" s="11">
+        <v>21762</v>
+      </c>
       <c r="S4" s="11">
         <v>21078</v>
       </c>
@@ -2013,8 +2024,15 @@
       <c r="U4" s="11">
         <v>22661</v>
       </c>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="V4" s="11">
+        <v>25010</v>
+      </c>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>202</v>
       </c>
@@ -2024,7 +2042,9 @@
       <c r="Q5" s="11">
         <v>11494</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="11">
+        <v>11979</v>
+      </c>
       <c r="S5" s="11">
         <v>11681</v>
       </c>
@@ -2034,8 +2054,15 @@
       <c r="U5" s="11">
         <v>13126</v>
       </c>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="V5" s="11">
+        <v>13979</v>
+      </c>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>203</v>
       </c>
@@ -2045,7 +2072,9 @@
       <c r="Q6" s="11">
         <v>4138</v>
       </c>
-      <c r="R6" s="11"/>
+      <c r="R6" s="11">
+        <v>4656</v>
+      </c>
       <c r="S6" s="11">
         <v>4080</v>
       </c>
@@ -2055,8 +2084,15 @@
       <c r="U6" s="11">
         <v>4553</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="11">
+        <v>5176</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2111,7 +2147,9 @@
       <c r="U8" s="11">
         <v>-1</v>
       </c>
-      <c r="V8" s="11"/>
+      <c r="V8" s="11">
+        <v>150</v>
+      </c>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
@@ -2138,7 +2176,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2194,8 +2232,7 @@
         <v>297</v>
       </c>
       <c r="V9" s="11">
-        <f t="shared" ref="V9" si="4">+R9</f>
-        <v>226</v>
+        <v>657</v>
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -2227,35 +2264,35 @@
         <v>1078.68</v>
       </c>
       <c r="AP9" s="3">
-        <f t="shared" ref="AP9:AV9" si="5">+AO9*1.01</f>
+        <f t="shared" ref="AP9:AV9" si="4">+AO9*1.01</f>
         <v>1089.4668000000001</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1100.3614680000001</v>
       </c>
       <c r="AR9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1111.3650826800001</v>
       </c>
       <c r="AS9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1122.4787335068002</v>
       </c>
       <c r="AT9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1133.7035208418681</v>
       </c>
       <c r="AU9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1145.0405560502868</v>
       </c>
       <c r="AV9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1156.4909616107898</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2311,8 +2348,7 @@
         <v>8411</v>
       </c>
       <c r="V10" s="11">
-        <f>+R10*1.3</f>
-        <v>9509.5</v>
+        <v>9192</v>
       </c>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -2344,7 +2380,7 @@
         <v>36792</v>
       </c>
       <c r="AP10" s="3">
-        <f t="shared" ref="AP10" si="6">+AO10*1.4</f>
+        <f t="shared" ref="AP10" si="5">+AO10*1.4</f>
         <v>51508.799999999996</v>
       </c>
       <c r="AQ10" s="3">
@@ -2372,7 +2408,7 @@
         <v>195548.83246079998</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2428,8 +2464,7 @@
         <v>8339</v>
       </c>
       <c r="V11" s="11">
-        <f>+R11*1.05</f>
-        <v>9235.8000000000011</v>
+        <v>10794</v>
       </c>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -2461,35 +2496,35 @@
         <v>29926.65</v>
       </c>
       <c r="AP11" s="3">
-        <f t="shared" ref="AP11:AV11" si="7">+AO11*1.03</f>
+        <f t="shared" ref="AP11:AV11" si="6">+AO11*1.03</f>
         <v>30824.449500000002</v>
       </c>
       <c r="AQ11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>31749.182985000003</v>
       </c>
       <c r="AR11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>32701.658474550004</v>
       </c>
       <c r="AS11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>33682.708228786505</v>
       </c>
       <c r="AT11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>34693.189475650099</v>
       </c>
       <c r="AU11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>35733.985159919604</v>
       </c>
       <c r="AV11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>36806.004714717194</v>
       </c>
     </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2545,8 +2580,7 @@
         <v>7669</v>
       </c>
       <c r="V12" s="11">
-        <f t="shared" ref="V12:V14" si="8">+R12*1.03</f>
-        <v>8729.25</v>
+        <v>8297</v>
       </c>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -2578,35 +2612,35 @@
         <v>33763.4</v>
       </c>
       <c r="AP12" s="3">
-        <f t="shared" ref="AP12:AV12" si="9">+AO12*1.03</f>
+        <f t="shared" ref="AP12:AV12" si="7">+AO12*1.03</f>
         <v>34776.302000000003</v>
       </c>
       <c r="AQ12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>35819.591060000006</v>
       </c>
       <c r="AR12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>36894.178791800005</v>
       </c>
       <c r="AS12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>38001.004155554008</v>
       </c>
       <c r="AT12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>39141.034280220629</v>
       </c>
       <c r="AU12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>40315.265308627248</v>
       </c>
       <c r="AV12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>41524.723267886067</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2662,8 +2696,7 @@
         <v>7952</v>
       </c>
       <c r="V13" s="11">
-        <f t="shared" si="8"/>
-        <v>8201.89</v>
+        <v>9200</v>
       </c>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -2695,35 +2728,35 @@
         <v>30705.15</v>
       </c>
       <c r="AP13" s="3">
-        <f t="shared" ref="AP13:AV13" si="10">+AO13*1.05</f>
+        <f t="shared" ref="AP13:AV13" si="8">+AO13*1.05</f>
         <v>32240.407500000001</v>
       </c>
       <c r="AQ13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>33852.427875000001</v>
       </c>
       <c r="AR13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>35545.049268750001</v>
       </c>
       <c r="AS13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>37322.301732187501</v>
       </c>
       <c r="AT13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>39188.416818796875</v>
       </c>
       <c r="AU13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>41147.837659736724</v>
       </c>
       <c r="AV13" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>43205.229542723566</v>
       </c>
     </row>
-    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
@@ -2779,8 +2812,7 @@
         <v>44026</v>
       </c>
       <c r="V14" s="11">
-        <f t="shared" si="8"/>
-        <v>43882.12</v>
+        <v>48020</v>
       </c>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -2812,60 +2844,60 @@
         <v>178695</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" ref="AP14:AV14" si="11">+AO14*1.1</f>
+        <f t="shared" ref="AP14:AV14" si="9">+AO14*1.1</f>
         <v>196564.50000000003</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>216220.95000000004</v>
       </c>
       <c r="AR14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>237843.04500000007</v>
       </c>
       <c r="AS14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>261627.3495000001</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>287790.08445000014</v>
       </c>
       <c r="AU14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>316569.09289500018</v>
       </c>
       <c r="AV14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>348226.00218450022</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" ref="C15:G15" si="12">SUM(C11:C14)</f>
+        <f t="shared" ref="C15:G15" si="10">SUM(C11:C14)</f>
         <v>34207</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>38198</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" ref="H15" si="13">SUM(H11:H14)</f>
+        <f t="shared" ref="H15" si="11">SUM(H11:H14)</f>
         <v>34991</v>
       </c>
       <c r="I15" s="11">
@@ -2880,27 +2912,27 @@
         <v>51178</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" ref="L15" si="14">SUM(L11:L14)</f>
+        <f t="shared" ref="L15" si="12">SUM(L11:L14)</f>
         <v>57067</v>
       </c>
       <c r="M15" s="11">
-        <f t="shared" ref="M15:Q15" si="15">SUM(M11:M14)</f>
+        <f t="shared" ref="M15:Q15" si="13">SUM(M11:M14)</f>
         <v>59884</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>69400</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>61472</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>62841</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>61377</v>
       </c>
       <c r="R15" s="11">
@@ -2921,26 +2953,26 @@
       </c>
       <c r="V15" s="11">
         <f>SUM(V11:V14)</f>
-        <v>70049.06</v>
+        <v>76311</v>
       </c>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
       <c r="AI15" s="11">
-        <f t="shared" ref="AI15:AL15" si="16">SUM(AI11:AI14)</f>
+        <f t="shared" ref="AI15:AL15" si="14">SUM(AI11:AI14)</f>
         <v>106491</v>
       </c>
       <c r="AJ15" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>130524</v>
       </c>
       <c r="AK15" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>151825</v>
       </c>
       <c r="AL15" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>168635</v>
       </c>
       <c r="AM15" s="11">
@@ -2956,60 +2988,60 @@
         <v>273090.2</v>
       </c>
       <c r="AP15" s="11">
-        <f t="shared" ref="AP15:AV15" si="17">SUM(AP11:AP14)</f>
+        <f t="shared" ref="AP15:AV15" si="15">SUM(AP11:AP14)</f>
         <v>294405.65900000004</v>
       </c>
       <c r="AQ15" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>317642.15192000009</v>
       </c>
       <c r="AR15" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>342983.9315351001</v>
       </c>
       <c r="AS15" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>370633.36361652811</v>
       </c>
       <c r="AT15" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>400812.72502466774</v>
       </c>
       <c r="AU15" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>433766.18102328375</v>
       </c>
       <c r="AV15" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>469761.95970982703</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="10">
-        <f t="shared" ref="C16:G16" si="18">C15+C10+C9+C8</f>
+        <f t="shared" ref="C16:G16" si="16">C15+C10+C9+C8</f>
         <v>36339</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>41159</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" ref="H16" si="19">H15+H10+H9+H8</f>
+        <f t="shared" ref="H16" si="17">H15+H10+H9+H8</f>
         <v>38297</v>
       </c>
       <c r="I16" s="10">
@@ -3024,7 +3056,7 @@
         <v>55314</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" ref="L16" si="20">L15+L10+L9+L8</f>
+        <f t="shared" ref="L16" si="18">L15+L10+L9+L8</f>
         <v>61880</v>
       </c>
       <c r="M16" s="10">
@@ -3044,7 +3076,7 @@
         <v>69685</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" ref="Q16:V16" si="21">Q15+Q10+Q9+Q8</f>
+        <f t="shared" ref="Q16:Z16" si="19">Q15+Q10+Q9+Q8</f>
         <v>69092</v>
       </c>
       <c r="R16" s="10">
@@ -3052,25 +3084,37 @@
         <v>76048</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>69787</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>74604</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>76693</v>
       </c>
       <c r="V16" s="10">
-        <f t="shared" si="21"/>
-        <v>79784.56</v>
-      </c>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
+        <f t="shared" si="19"/>
+        <v>86310</v>
+      </c>
+      <c r="W16" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
@@ -3090,19 +3134,19 @@
         <v>90272</v>
       </c>
       <c r="AI16" s="10">
-        <f t="shared" ref="AI16:AL16" si="22">AI15+AI10+AI9+AI8</f>
+        <f t="shared" ref="AI16:AL16" si="20">AI15+AI10+AI9+AI8</f>
         <v>110855</v>
       </c>
       <c r="AJ16" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>136819</v>
       </c>
       <c r="AK16" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>161857</v>
       </c>
       <c r="AL16" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>182527</v>
       </c>
       <c r="AM16" s="10">
@@ -3114,39 +3158,39 @@
         <v>282836</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" ref="AO16" si="23">AO15+AO10+AO9+AO8</f>
+        <f t="shared" ref="AO16" si="21">AO15+AO10+AO9+AO8</f>
         <v>310960.88</v>
       </c>
       <c r="AP16" s="10">
-        <f t="shared" ref="AP16" si="24">AP15+AP10+AP9+AP8</f>
+        <f t="shared" ref="AP16" si="22">AP15+AP10+AP9+AP8</f>
         <v>347003.92580000003</v>
       </c>
       <c r="AQ16" s="10">
-        <f t="shared" ref="AQ16" si="25">AQ15+AQ10+AQ9+AQ8</f>
+        <f t="shared" ref="AQ16" si="23">AQ15+AQ10+AQ9+AQ8</f>
         <v>385703.95338800008</v>
       </c>
       <c r="AR16" s="10">
-        <f t="shared" ref="AR16" si="26">AR15+AR10+AR9+AR8</f>
+        <f t="shared" ref="AR16" si="24">AR15+AR10+AR9+AR8</f>
         <v>431145.16861778009</v>
       </c>
       <c r="AS16" s="10">
-        <f t="shared" ref="AS16" si="27">AS15+AS10+AS9+AS8</f>
+        <f t="shared" ref="AS16" si="25">AS15+AS10+AS9+AS8</f>
         <v>484920.67595003493</v>
       </c>
       <c r="AT16" s="10">
-        <f t="shared" ref="AT16" si="28">AT15+AT10+AT9+AT8</f>
+        <f t="shared" ref="AT16" si="26">AT15+AT10+AT9+AT8</f>
         <v>537744.22886550962</v>
       </c>
       <c r="AU16" s="10">
-        <f t="shared" ref="AU16" si="29">AU15+AU10+AU9+AU8</f>
+        <f t="shared" ref="AU16" si="27">AU15+AU10+AU9+AU8</f>
         <v>597868.581963334</v>
       </c>
       <c r="AV16" s="10">
-        <f t="shared" ref="AV16" si="30">AV15+AV10+AV9+AV8</f>
+        <f t="shared" ref="AV16" si="28">AV15+AV10+AV9+AV8</f>
         <v>666467.28313223785</v>
       </c>
     </row>
-    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3202,8 +3246,7 @@
         <v>33229</v>
       </c>
       <c r="V17" s="11">
-        <f t="shared" ref="V17" si="31">V16*0.45</f>
-        <v>35903.052000000003</v>
+        <v>37575</v>
       </c>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
@@ -3242,35 +3285,35 @@
         <v>136822.78719999999</v>
       </c>
       <c r="AP17" s="3">
-        <f t="shared" ref="AP17:AV17" si="32">+AP16-AP19</f>
+        <f t="shared" ref="AP17:AV17" si="29">+AP16-AP19</f>
         <v>152681.72735199999</v>
       </c>
       <c r="AQ17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>169709.73949072001</v>
       </c>
       <c r="AR17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>189703.87419182321</v>
       </c>
       <c r="AS17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>213365.09741801536</v>
       </c>
       <c r="AT17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>236607.46070082422</v>
       </c>
       <c r="AU17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>263062.17606386694</v>
       </c>
       <c r="AV17" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>293245.6045781846</v>
       </c>
     </row>
-    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
@@ -3311,13 +3354,15 @@
       <c r="U18" s="11">
         <v>12642</v>
       </c>
-      <c r="V18" s="11"/>
+      <c r="V18" s="11">
+        <v>13986</v>
+      </c>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3333,31 +3378,31 @@
         <v>22177</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" ref="H19" si="33">H16-H17</f>
+        <f t="shared" ref="H19" si="30">H16-H17</f>
         <v>19744</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" ref="I19" si="34">I16-I17</f>
+        <f t="shared" ref="I19" si="31">I16-I17</f>
         <v>25056</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" ref="J19:N19" si="35">J16-J17</f>
+        <f t="shared" ref="J19:N19" si="32">J16-J17</f>
         <v>30818</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>31211</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>35653</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>37497</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>42337</v>
       </c>
       <c r="O19" s="11">
@@ -3365,11 +3410,11 @@
         <v>38412</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" ref="P19:Q19" si="36">P16-P17</f>
+        <f t="shared" ref="P19:Q19" si="33">P16-P17</f>
         <v>39581</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>37934</v>
       </c>
       <c r="R19" s="11">
@@ -3389,35 +3434,47 @@
         <v>43464</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" ref="V19" si="37">V16-V17</f>
-        <v>43881.507999999994</v>
-      </c>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
+        <f t="shared" ref="V19:Z19" si="34">V16-V17</f>
+        <v>48735</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="AF19" s="3">
-        <f t="shared" ref="AF19:AK19" si="38">+AF16-AF17</f>
+        <f t="shared" ref="AF19:AK19" si="35">+AF16-AF17</f>
         <v>40310</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>46825</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>55134</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>65272</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>77270</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>89961</v>
       </c>
       <c r="AL19" s="3">
@@ -3425,7 +3482,7 @@
         <v>97795</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" ref="AM19" si="39">AM16-AM17</f>
+        <f t="shared" ref="AM19" si="36">AM16-AM17</f>
         <v>146698</v>
       </c>
       <c r="AN19" s="3">
@@ -3437,35 +3494,35 @@
         <v>174138.09280000001</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" ref="AP19:AV19" si="40">+AP16*0.56</f>
+        <f t="shared" ref="AP19:AV19" si="37">+AP16*0.56</f>
         <v>194322.19844800004</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>215994.21389728007</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>241441.29442595688</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>271555.57853201957</v>
       </c>
       <c r="AT19" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>301136.7681646854</v>
       </c>
       <c r="AU19" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>334806.40589946706</v>
       </c>
       <c r="AV19" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>373221.67855405324</v>
       </c>
     </row>
-    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3521,8 +3578,7 @@
         <v>11258</v>
       </c>
       <c r="V20" s="11">
-        <f t="shared" ref="V20:V22" si="41">R20*1.03</f>
-        <v>10575.01</v>
+        <v>12113</v>
       </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -3553,7 +3609,7 @@
         <v>31562</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" ref="AN20:AN22" si="42">SUM(O20:R20)</f>
+        <f t="shared" ref="AN20:AN22" si="38">SUM(O20:R20)</f>
         <v>39500</v>
       </c>
       <c r="AO20" s="3">
@@ -3561,35 +3617,35 @@
         <v>41475</v>
       </c>
       <c r="AP20" s="3">
-        <f t="shared" ref="AP20:AV20" si="43">+AO20*1.05</f>
+        <f t="shared" ref="AP20:AV20" si="39">+AO20*1.05</f>
         <v>43548.75</v>
       </c>
       <c r="AQ20" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>45726.1875</v>
       </c>
       <c r="AR20" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>48012.496875000004</v>
       </c>
       <c r="AS20" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>50413.121718750008</v>
       </c>
       <c r="AT20" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>52933.77780468751</v>
       </c>
       <c r="AU20" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>55580.466694921888</v>
       </c>
       <c r="AV20" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>58359.490029667984</v>
       </c>
     </row>
-    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -3645,8 +3701,7 @@
         <v>6884</v>
       </c>
       <c r="V21" s="11">
-        <f t="shared" si="41"/>
-        <v>7398.49</v>
+        <v>7719</v>
       </c>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -3677,7 +3732,7 @@
         <v>22912</v>
       </c>
       <c r="AN21" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>26567</v>
       </c>
       <c r="AO21" s="3">
@@ -3685,35 +3740,35 @@
         <v>27895.350000000002</v>
       </c>
       <c r="AP21" s="3">
-        <f t="shared" ref="AP21:AV21" si="44">+AO21*1.05</f>
+        <f t="shared" ref="AP21:AV21" si="40">+AO21*1.05</f>
         <v>29290.117500000004</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>30754.623375000006</v>
       </c>
       <c r="AR21" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>32292.354543750007</v>
       </c>
       <c r="AS21" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>33906.972270937506</v>
       </c>
       <c r="AT21" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>35602.320884484383</v>
       </c>
       <c r="AU21" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>37382.436928708601</v>
       </c>
       <c r="AV21" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="40"/>
         <v>39251.558775144033</v>
       </c>
     </row>
-    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -3769,8 +3824,7 @@
         <v>3979</v>
       </c>
       <c r="V22" s="11">
-        <f t="shared" si="41"/>
-        <v>5248.88</v>
+        <v>5206</v>
       </c>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -3801,7 +3855,7 @@
         <v>13510</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="38"/>
         <v>15724</v>
       </c>
       <c r="AO22" s="3">
@@ -3809,59 +3863,59 @@
         <v>16510.2</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" ref="AP22:AV22" si="45">+AO22*1.05</f>
+        <f t="shared" ref="AP22:AV22" si="41">+AO22*1.05</f>
         <v>17335.710000000003</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>18202.495500000005</v>
       </c>
       <c r="AR22" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>19112.620275000005</v>
       </c>
       <c r="AS22" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>20068.251288750005</v>
       </c>
       <c r="AT22" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>21071.663853187507</v>
       </c>
       <c r="AU22" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>22125.247045846882</v>
       </c>
       <c r="AV22" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="41"/>
         <v>23231.509398139227</v>
       </c>
     </row>
-    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23" si="46">SUM(C20:C22)</f>
+        <f t="shared" ref="C23" si="42">SUM(C20:C22)</f>
         <v>12022</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f t="shared" ref="G23" si="47">SUM(G20:G22)</f>
+        <f t="shared" ref="G23" si="43">SUM(G20:G22)</f>
         <v>14200</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23" si="48">SUM(H20:H22)</f>
+        <f t="shared" ref="H23" si="44">SUM(H20:H22)</f>
         <v>13361</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" ref="I23" si="49">SUM(I20:I22)</f>
+        <f t="shared" ref="I23" si="45">SUM(I20:I22)</f>
         <v>13843</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" ref="J23" si="50">SUM(J20:J22)</f>
+        <f t="shared" ref="J23" si="46">SUM(J20:J22)</f>
         <v>15167</v>
       </c>
       <c r="K23" s="11">
@@ -3869,27 +3923,27 @@
         <v>14774</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ref="L23:O23" si="51">SUM(L20:L22)</f>
+        <f t="shared" ref="L23:O23" si="47">SUM(L20:L22)</f>
         <v>16292</v>
       </c>
       <c r="M23" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>16466</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>20452</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>18318</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" ref="P23:Q23" si="52">SUM(P20:P22)</f>
+        <f t="shared" ref="P23:Q23" si="48">SUM(P20:P22)</f>
         <v>20128</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>20799</v>
       </c>
       <c r="R23" s="11">
@@ -3897,7 +3951,7 @@
         <v>22546</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23:V23" si="53">SUM(S20:S22)</f>
+        <f t="shared" ref="S23:W23" si="49">SUM(S20:S22)</f>
         <v>21760</v>
       </c>
       <c r="T23" s="11">
@@ -3905,39 +3959,51 @@
         <v>20850</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="49"/>
         <v>22121</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="53"/>
-        <v>23222.38</v>
-      </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
+        <f t="shared" si="49"/>
+        <v>25038</v>
+      </c>
+      <c r="W23" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="11">
+        <f t="shared" ref="X23:Z23" si="50">SUM(X20:X22)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="AF23" s="3">
         <f>SUM(AF20:AF22)</f>
         <v>23814</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" ref="AG23:AK23" si="54">SUM(AG20:AG22)</f>
+        <f t="shared" ref="AG23:AK23" si="51">SUM(AG20:AG22)</f>
         <v>27465</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>31418</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>36390</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>45878</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>54033</v>
       </c>
       <c r="AL23" s="3">
@@ -3945,87 +4011,87 @@
         <v>56571</v>
       </c>
       <c r="AM23" s="3">
-        <f t="shared" ref="AM23:AO23" si="55">SUM(AM20:AM22)</f>
+        <f t="shared" ref="AM23:AO23" si="52">SUM(AM20:AM22)</f>
         <v>67984</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>81791</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>85880.55</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" ref="AP23:AV23" si="56">SUM(AP20:AP22)</f>
+        <f t="shared" ref="AP23:AV23" si="53">SUM(AP20:AP22)</f>
         <v>90174.577500000014</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>94683.306375000015</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>99417.47169375002</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>104388.34527843751</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>109607.7625423594</v>
       </c>
       <c r="AU23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>115088.15066947739</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>120842.55820295124</v>
       </c>
     </row>
-    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24" si="57">C19-C23</f>
+        <f t="shared" ref="C24" si="54">C19-C23</f>
         <v>8305</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
-        <f t="shared" ref="G24" si="58">G19-G23</f>
+        <f t="shared" ref="G24" si="55">G19-G23</f>
         <v>7977</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24" si="59">H19-H23</f>
+        <f t="shared" ref="H24" si="56">H19-H23</f>
         <v>6383</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" ref="I24" si="60">I19-I23</f>
+        <f t="shared" ref="I24" si="57">I19-I23</f>
         <v>11213</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" ref="J24" si="61">J19-J23</f>
+        <f t="shared" ref="J24" si="58">J19-J23</f>
         <v>15651</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:N24" si="62">K19-K23</f>
+        <f t="shared" ref="K24:N24" si="59">K19-K23</f>
         <v>16437</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>19361</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>21031</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>21885</v>
       </c>
       <c r="O24" s="11">
@@ -4033,19 +4099,19 @@
         <v>20094</v>
       </c>
       <c r="P24" s="11">
-        <f t="shared" ref="P24:R24" si="63">P19-P23</f>
+        <f t="shared" ref="P24:R24" si="60">P19-P23</f>
         <v>19453</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>17135</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="60"/>
         <v>18160</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" ref="S24:V24" si="64">S19-S23</f>
+        <f t="shared" ref="S24:W24" si="61">S19-S23</f>
         <v>17415</v>
       </c>
       <c r="T24" s="11">
@@ -4053,39 +4119,51 @@
         <v>21838</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>21343</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" si="64"/>
-        <v>20659.127999999993</v>
-      </c>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
+        <f t="shared" si="61"/>
+        <v>23697</v>
+      </c>
+      <c r="W24" s="11">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="11">
+        <f t="shared" ref="X24:Z24" si="62">X19-X23</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
       <c r="AF24" s="3">
         <f>AF19-AF23</f>
         <v>16496</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" ref="AG24:AK24" si="65">AG19-AG23</f>
+        <f t="shared" ref="AG24:AK24" si="63">AG19-AG23</f>
         <v>19360</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>23716</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>28882</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>31392</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>35928</v>
       </c>
       <c r="AL24" s="3">
@@ -4093,47 +4171,47 @@
         <v>41224</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" ref="AM24:AO24" si="66">AM19-AM23</f>
+        <f t="shared" ref="AM24:AO24" si="64">AM19-AM23</f>
         <v>78714</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>74842</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>88257.54280000001</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" ref="AP24:AV24" si="67">AP19-AP23</f>
+        <f t="shared" ref="AP24:AV24" si="65">AP19-AP23</f>
         <v>104147.62094800003</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>121310.90752228006</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>142023.82273220684</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>167167.23325358206</v>
       </c>
       <c r="AT24" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>191529.00562232599</v>
       </c>
       <c r="AU24" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>219718.25522998968</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="65"/>
         <v>252379.120351102</v>
       </c>
     </row>
-    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -4189,8 +4267,7 @@
         <v>-146</v>
       </c>
       <c r="V25" s="11">
-        <f t="shared" ref="V25" si="68">AVERAGE(R25:U25)</f>
-        <v>-76</v>
+        <v>715</v>
       </c>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -4221,7 +4298,7 @@
         <v>12020</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" ref="AN25:AN27" si="69">SUM(O25:R25)</f>
+        <f t="shared" ref="AN25:AN27" si="66">SUM(O25:R25)</f>
         <v>-3514</v>
       </c>
       <c r="AO25" s="3">
@@ -4229,59 +4306,59 @@
         <v>1295.53</v>
       </c>
       <c r="AP25" s="3">
-        <f t="shared" ref="AP25:AV25" si="70">+AO43*$AY$34</f>
+        <f t="shared" ref="AP25:AV25" si="67">+AO43*$AY$34</f>
         <v>2029.86519696</v>
       </c>
       <c r="AQ25" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>2900.5205833486725</v>
       </c>
       <c r="AR25" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>3919.0542938148278</v>
       </c>
       <c r="AS25" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>5115.7858854282058</v>
       </c>
       <c r="AT25" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>6528.5066423680892</v>
       </c>
       <c r="AU25" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>8152.5782429385808</v>
       </c>
       <c r="AV25" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>10021.119077416592</v>
       </c>
     </row>
-    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26" si="71">C24+C25</f>
+        <f t="shared" ref="C26" si="68">C24+C25</f>
         <v>9843</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11">
-        <f t="shared" ref="G26" si="72">G24+G25</f>
+        <f t="shared" ref="G26" si="69">G24+G25</f>
         <v>7757</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" ref="H26" si="73">H24+H25</f>
+        <f t="shared" ref="H26" si="70">H24+H25</f>
         <v>8277</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" ref="I26" si="74">I24+I25</f>
+        <f t="shared" ref="I26" si="71">I24+I25</f>
         <v>13359</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" ref="J26" si="75">J24+J25</f>
+        <f t="shared" ref="J26" si="72">J24+J25</f>
         <v>18689</v>
       </c>
       <c r="K26" s="11">
@@ -4289,75 +4366,87 @@
         <v>21283</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" ref="L26:O26" si="76">L24+L25</f>
+        <f t="shared" ref="L26:O26" si="73">L24+L25</f>
         <v>21625</v>
       </c>
       <c r="M26" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>23064</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>24402</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>18934</v>
       </c>
       <c r="P26" s="11">
-        <f t="shared" ref="P26:V26" si="77">P24+P25</f>
+        <f t="shared" ref="P26:Z26" si="74">P24+P25</f>
         <v>19014</v>
       </c>
       <c r="Q26" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>16233</v>
       </c>
       <c r="R26" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>17147</v>
       </c>
       <c r="S26" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>18205</v>
       </c>
       <c r="T26" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>21903</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>21197</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" si="77"/>
-        <v>20583.127999999993</v>
-      </c>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
+        <f t="shared" si="74"/>
+        <v>24412</v>
+      </c>
+      <c r="W26" s="11">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="11">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="11">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
       <c r="AF26" s="3">
-        <f t="shared" ref="AF26:AK26" si="78">+AF24+AF25</f>
+        <f t="shared" ref="AF26:AK26" si="75">+AF24+AF25</f>
         <v>17259</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>19651</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>24150</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>29929</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>39984</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>41322</v>
       </c>
       <c r="AL26" s="3">
@@ -4365,47 +4454,47 @@
         <v>48082</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" ref="AM26:AO26" si="79">AM24+AM25</f>
+        <f t="shared" ref="AM26:AO26" si="76">AM24+AM25</f>
         <v>90734</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>71328</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>89553.072800000009</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" ref="AP26:AV26" si="80">AP24+AP25</f>
+        <f t="shared" ref="AP26:AV26" si="77">AP24+AP25</f>
         <v>106177.48614496003</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>124211.42810562873</v>
       </c>
       <c r="AR26" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>145942.87702602166</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>172283.01913901026</v>
       </c>
       <c r="AT26" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>198057.51226469409</v>
       </c>
       <c r="AU26" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>227870.83347292827</v>
       </c>
       <c r="AV26" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>262400.23942851857</v>
       </c>
     </row>
-    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -4461,8 +4550,7 @@
         <v>1508</v>
       </c>
       <c r="V27" s="11">
-        <f t="shared" ref="V27" si="81">V26*0.2</f>
-        <v>4116.6255999999985</v>
+        <v>3725</v>
       </c>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
@@ -4493,7 +4581,7 @@
         <v>14701</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>11356</v>
       </c>
       <c r="AO27" s="3">
@@ -4501,59 +4589,59 @@
         <v>16119.553104000001</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" ref="AP27:AV27" si="82">+AP26*0.18</f>
+        <f t="shared" ref="AP27:AV27" si="78">+AP26*0.18</f>
         <v>19111.947506092805</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>22358.057059013172</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>26269.717864683898</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>31010.943445021843</v>
       </c>
       <c r="AT27" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>35650.352207644937</v>
       </c>
       <c r="AU27" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>41016.750025127083</v>
       </c>
       <c r="AV27" s="3">
-        <f t="shared" si="82"/>
+        <f t="shared" si="78"/>
         <v>47232.043097133341</v>
       </c>
     </row>
-    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28" si="83">C26-C27</f>
+        <f t="shared" ref="C28" si="79">C26-C27</f>
         <v>8354</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11">
-        <f t="shared" ref="G28" si="84">G26-G27</f>
+        <f t="shared" ref="G28" si="80">G26-G27</f>
         <v>6836</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ref="H28" si="85">H26-H27</f>
+        <f t="shared" ref="H28" si="81">H26-H27</f>
         <v>6959</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ref="I28" si="86">I26-I27</f>
+        <f t="shared" ref="I28" si="82">I26-I27</f>
         <v>11247</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" ref="J28" si="87">J26-J27</f>
+        <f t="shared" ref="J28" si="83">J26-J27</f>
         <v>15227</v>
       </c>
       <c r="K28" s="11">
@@ -4561,75 +4649,87 @@
         <v>17930</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" ref="L28:O28" si="88">L26-L27</f>
+        <f t="shared" ref="L28:O28" si="84">L26-L27</f>
         <v>18165</v>
       </c>
       <c r="M28" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>18936</v>
       </c>
       <c r="N28" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>20642</v>
       </c>
       <c r="O28" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>16436</v>
       </c>
       <c r="P28" s="11">
-        <f t="shared" ref="P28:V28" si="89">P26-P27</f>
+        <f t="shared" ref="P28:Z28" si="85">P26-P27</f>
         <v>16002</v>
       </c>
       <c r="Q28" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>13910</v>
       </c>
       <c r="R28" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>13624</v>
       </c>
       <c r="S28" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>15051</v>
       </c>
       <c r="T28" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>18368</v>
       </c>
       <c r="U28" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="85"/>
         <v>19689</v>
       </c>
       <c r="V28" s="11">
-        <f t="shared" si="89"/>
-        <v>16466.502399999994</v>
-      </c>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
+        <f t="shared" si="85"/>
+        <v>20687</v>
+      </c>
+      <c r="W28" s="11">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="11">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="11">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
       <c r="AF28" s="3">
-        <f t="shared" ref="AF28:AK28" si="90">+AF26-AF27</f>
+        <f t="shared" ref="AF28:AK28" si="86">+AF26-AF27</f>
         <v>13620</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>16348</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>19478</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>15398</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>35807</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>36040</v>
       </c>
       <c r="AL28" s="3">
@@ -4637,43 +4737,43 @@
         <v>40269</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" ref="AM28:AO28" si="91">AM26-AM27</f>
+        <f t="shared" ref="AM28:AO28" si="87">AM26-AM27</f>
         <v>76033</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>59972</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="87"/>
         <v>73433.519696000003</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" ref="AP28:AV28" si="92">AP26-AP27</f>
+        <f t="shared" ref="AP28:AV28" si="88">AP26-AP27</f>
         <v>87065.53863886722</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>101853.37104661556</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>119673.15916133775</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>141272.07569398842</v>
       </c>
       <c r="AT28" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>162407.16005704916</v>
       </c>
       <c r="AU28" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>186854.08344780118</v>
       </c>
       <c r="AV28" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="88"/>
         <v>215168.19633138523</v>
       </c>
       <c r="AW28" s="3">
@@ -4681,271 +4781,271 @@
         <v>213016.51436807137</v>
       </c>
       <c r="AX28" s="3">
-        <f t="shared" ref="AX28:DA28" si="93">+AW28*(1+$AY$32)</f>
+        <f t="shared" ref="AX28:DA28" si="89">+AW28*(1+$AY$32)</f>
         <v>210886.34922439064</v>
       </c>
       <c r="AY28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>208777.48573214674</v>
       </c>
       <c r="AZ28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>206689.71087482528</v>
       </c>
       <c r="BA28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>204622.81376607702</v>
       </c>
       <c r="BB28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>202576.58562841624</v>
       </c>
       <c r="BC28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>200550.81977213209</v>
       </c>
       <c r="BD28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>198545.31157441076</v>
       </c>
       <c r="BE28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>196559.85845866665</v>
       </c>
       <c r="BF28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>194594.25987407999</v>
       </c>
       <c r="BG28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>192648.31727533918</v>
       </c>
       <c r="BH28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>190721.8341025858</v>
       </c>
       <c r="BI28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>188814.61576155992</v>
       </c>
       <c r="BJ28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>186926.46960394431</v>
       </c>
       <c r="BK28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>185057.20490790487</v>
       </c>
       <c r="BL28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>183206.63285882582</v>
       </c>
       <c r="BM28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>181374.56653023756</v>
       </c>
       <c r="BN28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>179560.82086493517</v>
       </c>
       <c r="BO28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>177765.21265628582</v>
       </c>
       <c r="BP28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>175987.56052972295</v>
       </c>
       <c r="BQ28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>174227.68492442573</v>
       </c>
       <c r="BR28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>172485.40807518148</v>
       </c>
       <c r="BS28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>170760.55399442965</v>
       </c>
       <c r="BT28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>169052.94845448536</v>
       </c>
       <c r="BU28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>167362.41896994051</v>
       </c>
       <c r="BV28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>165688.79478024109</v>
       </c>
       <c r="BW28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>164031.90683243869</v>
       </c>
       <c r="BX28" s="3">
-        <f t="shared" si="93"/>
-        <v>162391.58776411432</v>
+        <f t="shared" si="89"/>
+        <v>162391.58776411429</v>
       </c>
       <c r="BY28" s="3">
-        <f t="shared" si="93"/>
-        <v>160767.67188647317</v>
+        <f t="shared" si="89"/>
+        <v>160767.67188647314</v>
       </c>
       <c r="BZ28" s="3">
-        <f t="shared" si="93"/>
-        <v>159159.99516760843</v>
+        <f t="shared" si="89"/>
+        <v>159159.9951676084</v>
       </c>
       <c r="CA28" s="3">
-        <f t="shared" si="93"/>
-        <v>157568.39521593234</v>
+        <f t="shared" si="89"/>
+        <v>157568.39521593231</v>
       </c>
       <c r="CB28" s="3">
-        <f t="shared" si="93"/>
-        <v>155992.711263773</v>
+        <f t="shared" si="89"/>
+        <v>155992.71126377297</v>
       </c>
       <c r="CC28" s="3">
-        <f t="shared" si="93"/>
-        <v>154432.78415113527</v>
+        <f t="shared" si="89"/>
+        <v>154432.78415113525</v>
       </c>
       <c r="CD28" s="3">
-        <f t="shared" si="93"/>
-        <v>152888.45630962393</v>
+        <f t="shared" si="89"/>
+        <v>152888.4563096239</v>
       </c>
       <c r="CE28" s="3">
-        <f t="shared" si="93"/>
-        <v>151359.57174652768</v>
+        <f t="shared" si="89"/>
+        <v>151359.57174652765</v>
       </c>
       <c r="CF28" s="3">
-        <f t="shared" si="93"/>
-        <v>149845.97602906241</v>
+        <f t="shared" si="89"/>
+        <v>149845.97602906238</v>
       </c>
       <c r="CG28" s="3">
-        <f t="shared" si="93"/>
-        <v>148347.51626877178</v>
+        <f t="shared" si="89"/>
+        <v>148347.51626877175</v>
       </c>
       <c r="CH28" s="3">
-        <f t="shared" si="93"/>
-        <v>146864.04110608407</v>
+        <f t="shared" si="89"/>
+        <v>146864.04110608404</v>
       </c>
       <c r="CI28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>145395.40069502321</v>
       </c>
       <c r="CJ28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>143941.44668807299</v>
       </c>
       <c r="CK28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>142502.03222119226</v>
       </c>
       <c r="CL28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>141077.01189898033</v>
       </c>
       <c r="CM28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>139666.24177999052</v>
       </c>
       <c r="CN28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>138269.57936219062</v>
       </c>
       <c r="CO28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>136886.88356856871</v>
       </c>
       <c r="CP28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>135518.01473288302</v>
       </c>
       <c r="CQ28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>134162.8345855542</v>
       </c>
       <c r="CR28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>132821.20623969866</v>
       </c>
       <c r="CS28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>131492.99417730168</v>
       </c>
       <c r="CT28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>130178.06423552865</v>
       </c>
       <c r="CU28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>128876.28359317337</v>
       </c>
       <c r="CV28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>127587.52075724164</v>
       </c>
       <c r="CW28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>126311.64554966922</v>
       </c>
       <c r="CX28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>125048.52909417253</v>
       </c>
       <c r="CY28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>123798.0438032308</v>
       </c>
       <c r="CZ28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>122560.0633651985</v>
       </c>
       <c r="DA28" s="3">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>121334.4627315465</v>
       </c>
     </row>
-    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29" si="94">C28/C30</f>
+        <f t="shared" ref="C29" si="90">C28/C30</f>
         <v>11.919318455824756</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
-        <f t="shared" ref="G29" si="95">G28/G30</f>
+        <f t="shared" ref="G29" si="91">G28/G30</f>
         <v>9.8748026411774639</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29" si="96">H28/H30</f>
+        <f t="shared" ref="H29" si="92">H28/H30</f>
         <v>10.129194904399265</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" ref="I29" si="97">I28/I30</f>
+        <f t="shared" ref="I29" si="93">I28/I30</f>
         <v>16.398605528022852</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" ref="J29" si="98">J28/J30</f>
+        <f t="shared" ref="J29" si="94">J28/J30</f>
         <v>22.295301836540162</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" ref="K29:N29" si="99">K28/K30</f>
+        <f t="shared" ref="K29:N29" si="95">K28/K30</f>
         <v>26.287585896482916</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>27.990344690984287</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>30.69474329100823</v>
       </c>
       <c r="O29" s="14">
@@ -4953,37 +5053,49 @@
         <v>24.621339792764896</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" ref="P29:V29" si="100">P28/P30</f>
+        <f t="shared" ref="P29:Z29" si="96">P28/P30</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>1.0620752844162786</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>1.0522901058160192</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>1.1737502924432659</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>1.4544302795154012</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="96"/>
         <v>1.5508034026465027</v>
       </c>
       <c r="V29" s="14">
-        <f t="shared" si="100"/>
-        <v>1.2969834908632636</v>
-      </c>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
+        <f t="shared" si="96"/>
+        <v>1.6415648309792097</v>
+      </c>
+      <c r="W29" s="14">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="14">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="14">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="14">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
       <c r="AL29" s="17">
         <f>AL28/AL30</f>
         <v>58.613331625494155</v>
@@ -5001,35 +5113,35 @@
         <v>5.6080380594150139</v>
       </c>
       <c r="AP29" s="17">
-        <f t="shared" ref="AP29:AV29" si="101">AP28/AP30</f>
+        <f t="shared" ref="AP29:AV29" si="97">AP28/AP30</f>
         <v>6.6491005248224839</v>
       </c>
       <c r="AQ29" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>7.778431207897734</v>
       </c>
       <c r="AR29" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>9.1393090518548288</v>
       </c>
       <c r="AS29" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>10.788794824274246</v>
       </c>
       <c r="AT29" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>12.402858238198393</v>
       </c>
       <c r="AU29" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>14.269843197907582</v>
       </c>
       <c r="AV29" s="17">
-        <f t="shared" si="101"/>
+        <f t="shared" si="97"/>
         <v>16.432161214626063</v>
       </c>
     </row>
-    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
@@ -5085,13 +5197,24 @@
         <v>12696</v>
       </c>
       <c r="V30" s="11">
-        <f t="shared" ref="V30" si="102">U30</f>
-        <v>12696</v>
-      </c>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
+        <v>12602</v>
+      </c>
+      <c r="W30" s="11">
+        <f>V30</f>
+        <v>12602</v>
+      </c>
+      <c r="X30" s="11">
+        <f>W30</f>
+        <v>12602</v>
+      </c>
+      <c r="Y30" s="11">
+        <f>X30</f>
+        <v>12602</v>
+      </c>
+      <c r="Z30" s="11">
+        <f>Y30</f>
+        <v>12602</v>
+      </c>
       <c r="AG30" s="3">
         <v>687.34799999999996</v>
       </c>
@@ -5113,35 +5236,35 @@
         <v>13094.333333333334</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" ref="AP30:AV30" si="103">+AO30</f>
+        <f t="shared" ref="AP30:AV30" si="98">+AO30</f>
         <v>13094.333333333334</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="98"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="98"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="98"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AT30" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="98"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AU30" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="98"/>
         <v>13094.333333333334</v>
       </c>
       <c r="AV30" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="98"/>
         <v>13094.333333333334</v>
       </c>
     </row>
-    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
@@ -5154,19 +5277,19 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
-        <f t="shared" ref="K32:L32" si="104">K16/G16-1</f>
+        <f t="shared" ref="K32:L32" si="99">K16/G16-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="99"/>
         <v>0.61579235971486024</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" ref="M32" si="105">M16/I16-1</f>
+        <f t="shared" ref="M32" si="100">M16/I16-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" ref="N32" si="106">N16/J16-1</f>
+        <f t="shared" ref="N32" si="101">N16/J16-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="O32" s="16">
@@ -5174,11 +5297,11 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" ref="P32:T32" si="107">P16/L16-1</f>
+        <f t="shared" ref="P32:T32" si="102">P16/L16-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>6.1027672840074931E-2</v>
       </c>
       <c r="R32" s="16">
@@ -5190,7 +5313,7 @@
         <v>2.6113422828660138E-2</v>
       </c>
       <c r="T32" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>7.0589079428858392E-2</v>
       </c>
       <c r="U32" s="16">
@@ -5199,82 +5322,95 @@
       </c>
       <c r="V32" s="16">
         <f>V16/R16-1</f>
-        <v>4.9134231011992435E-2</v>
-      </c>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
+        <v>0.13494108983799702</v>
+      </c>
+      <c r="W32" s="16">
+        <f>W16/S16-1</f>
+        <v>-1</v>
+      </c>
+      <c r="X32" s="16">
+        <f>X16/T16-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Y32" s="16">
+        <f>Y16/U16-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Z32" s="16">
+        <f>Z16/V16-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AA32" s="16"/>
       <c r="AE32" s="18">
-        <f t="shared" ref="AE32:AN32" si="108">AE16/AD16-1</f>
+        <f t="shared" ref="AE32:AN32" si="103">AE16/AD16-1</f>
         <v>0.2059123786355046</v>
       </c>
       <c r="AF32" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>0.18880023055170292</v>
       </c>
       <c r="AG32" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>0.13617975485219924</v>
       </c>
       <c r="AH32" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>0.20380322447292265</v>
       </c>
       <c r="AI32" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>0.22801090038993266</v>
       </c>
       <c r="AJ32" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>0.23421586757475987</v>
       </c>
       <c r="AK32" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>0.18300089899794614</v>
       </c>
       <c r="AL32" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>0.12770532012826141</v>
       </c>
       <c r="AM32" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="AN32" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="103"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="AO32" s="18">
-        <f t="shared" ref="AO32:AV32" si="109">AO16/AN16-1</f>
+        <f t="shared" ref="AO32:AV32" si="104">AO16/AN16-1</f>
         <v>9.9438826740584574E-2</v>
       </c>
       <c r="AP32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>0.11590861782999839</v>
       </c>
       <c r="AQ32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>0.11152619526934493</v>
       </c>
       <c r="AR32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>0.11781371393947904</v>
       </c>
       <c r="AS32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>0.12472714817761998</v>
       </c>
       <c r="AT32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>0.10893235849757321</v>
       </c>
       <c r="AU32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>0.11180845813012263</v>
       </c>
       <c r="AV32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="104"/>
         <v>0.11473876239429304</v>
       </c>
       <c r="AX32" s="18" t="s">
@@ -5284,7 +5420,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
@@ -5317,7 +5453,9 @@
       <c r="U33" s="16">
         <v>0.11</v>
       </c>
-      <c r="V33" s="16"/>
+      <c r="V33" s="16">
+        <v>0.13</v>
+      </c>
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
@@ -5332,7 +5470,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
@@ -5345,19 +5483,19 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15">
-        <f t="shared" ref="K34" si="110">+K14/G14-1</f>
+        <f t="shared" ref="K34" si="105">+K14/G14-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" ref="L34:N34" si="111">+L14/H14-1</f>
+        <f t="shared" ref="L34:N34" si="106">+L14/H14-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="106"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="106"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O34" s="15">
@@ -5377,43 +5515,43 @@
         <v>-1.6096625943973542E-2</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34:V34" si="112">+S14/O14-1</f>
+        <f t="shared" ref="S34:V34" si="107">+S14/O14-1</f>
         <v>1.8703619566863505E-2</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="107"/>
         <v>4.7654157143208309E-2</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="107"/>
         <v>0.11348289031083225</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" si="112"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="107"/>
+        <v>0.12712421368885551</v>
       </c>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
       <c r="AJ34" s="5">
-        <f t="shared" ref="AJ34:AN34" si="113">+AJ14/AI14-1</f>
+        <f t="shared" ref="AJ34:AN34" si="108">+AJ14/AI14-1</f>
         <v>0.22181318130380601</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="108"/>
         <v>0.15028840742824978</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="108"/>
         <v>6.0612546501554343E-2</v>
       </c>
       <c r="AM34" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="108"/>
         <v>0.43136783840402826</v>
       </c>
       <c r="AN34" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="108"/>
         <v>9.0627118985438182E-2</v>
       </c>
       <c r="AO34" s="5">
@@ -5421,31 +5559,31 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="AP34" s="15">
-        <f t="shared" ref="AP34:AV34" si="114">+AP14/AO14-1</f>
+        <f t="shared" ref="AP34:AV34" si="109">+AP14/AO14-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ34" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AR34" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AS34" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AT34" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AU34" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AV34" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AX34" s="5" t="s">
@@ -5455,7 +5593,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
@@ -5468,31 +5606,31 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15">
-        <f t="shared" ref="K35" si="115">+K13/G13-1</f>
+        <f t="shared" ref="K35" si="110">+K13/G13-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" ref="L35:Q35" si="116">+L13/H13-1</f>
+        <f t="shared" ref="L35:Q35" si="111">+L13/H13-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="111"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="111"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="111"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="111"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="111"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="R35" s="15">
@@ -5500,39 +5638,39 @@
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" ref="S35:V35" si="117">+S13/O13-1</f>
+        <f t="shared" ref="S35:V35" si="112">+S13/O13-1</f>
         <v>-2.5622361333527466E-2</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="112"/>
         <v>4.4277929155313256E-2</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="112"/>
         <v>0.12459340970159816</v>
       </c>
       <c r="V35" s="15">
-        <f t="shared" si="117"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="112"/>
+        <v>0.15534346351877426</v>
       </c>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
       <c r="AJ35" s="5">
-        <f t="shared" ref="AJ35:AM35" si="118">+AJ13/AI13-1</f>
+        <f t="shared" ref="AJ35:AM35" si="113">+AJ13/AI13-1</f>
         <v>0.36871165644171788</v>
       </c>
       <c r="AK35" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.35804571940833707</v>
       </c>
       <c r="AL35" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.30516865799722748</v>
       </c>
       <c r="AM35" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="113"/>
         <v>0.45888124620675708</v>
       </c>
       <c r="AN35" s="5">
@@ -5544,31 +5682,31 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AP35" s="15">
-        <f t="shared" ref="AP35:AV35" si="119">+AP13/AO13-1</f>
+        <f t="shared" ref="AP35:AV35" si="114">+AP13/AO13-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AQ35" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="114"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AR35" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="114"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AS35" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="114"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AT35" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="114"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AU35" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="114"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AV35" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="114"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AX35" s="5" t="s">
@@ -5579,7 +5717,7 @@
         <v>2142049.8680530442</v>
       </c>
     </row>
-    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
@@ -5592,19 +5730,19 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15">
-        <f t="shared" ref="K36" si="120">K15/G15-1</f>
+        <f t="shared" ref="K36" si="115">K15/G15-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" ref="L36" si="121">L15/H15-1</f>
+        <f t="shared" ref="L36" si="116">L15/H15-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" ref="M36" si="122">M15/I15-1</f>
+        <f t="shared" ref="M36" si="117">M15/I15-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" ref="N36" si="123">N15/J15-1</f>
+        <f t="shared" ref="N36" si="118">N15/J15-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O36" s="15">
@@ -5612,11 +5750,11 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" ref="P36:Q36" si="124">P15/L15-1</f>
+        <f t="shared" ref="P36:Q36" si="119">P15/L15-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="124"/>
+        <f t="shared" si="119"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="R36" s="15">
@@ -5624,43 +5762,43 @@
         <v>-2.2507204610951015E-2</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" ref="S36:V36" si="125">S15/O15-1</f>
+        <f t="shared" ref="S36:V36" si="120">S15/O15-1</f>
         <v>7.9548412285268544E-3</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>5.4804984007256419E-2</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="120"/>
         <v>0.1076787721785033</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="125"/>
-        <v>3.2593236828915906E-2</v>
+        <f t="shared" si="120"/>
+        <v>0.12490049824582083</v>
       </c>
       <c r="W36" s="15"/>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
       <c r="AJ36" s="5">
-        <f t="shared" ref="AJ36:AN36" si="126">+AJ15/AI15-1</f>
+        <f t="shared" ref="AJ36:AN36" si="121">+AJ15/AI15-1</f>
         <v>0.22568104346846218</v>
       </c>
       <c r="AK36" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>0.16319604057491333</v>
       </c>
       <c r="AL36" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>0.11071957846204517</v>
       </c>
       <c r="AM36" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>0.40853915260770313</v>
       </c>
       <c r="AN36" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="121"/>
         <v>6.7355986005919188E-2</v>
       </c>
       <c r="AO36" s="5">
@@ -5668,31 +5806,31 @@
         <v>7.7159919219967898E-2</v>
       </c>
       <c r="AP36" s="15">
-        <f t="shared" ref="AP36:AV36" si="127">+AP15/AO15-1</f>
+        <f t="shared" ref="AP36:AV36" si="122">+AP15/AO15-1</f>
         <v>7.8052815516631568E-2</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>7.8926787613141869E-2</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>7.9780908994353084E-2</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>8.0614365686686451E-2</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>8.1426456360157662E-2</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>8.2216591293572172E-2</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="122"/>
         <v>8.2984290295815111E-2</v>
       </c>
       <c r="AX36" s="5" t="s">
@@ -5703,7 +5841,7 @@
         <v>168.71848362106525</v>
       </c>
     </row>
-    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>43</v>
       </c>
@@ -5716,19 +5854,19 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15">
-        <f t="shared" ref="K37" si="128">K10/G10-1</f>
+        <f t="shared" ref="K37" si="123">K10/G10-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="129">L10/H10-1</f>
+        <f t="shared" ref="L37" si="124">L10/H10-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" ref="M37" si="130">M10/I10-1</f>
+        <f t="shared" ref="M37" si="125">M10/I10-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" ref="N37" si="131">N10/J10-1</f>
+        <f t="shared" ref="N37" si="126">N10/J10-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O37" s="15">
@@ -5736,11 +5874,11 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:Q37" si="132">P10/L10-1</f>
+        <f t="shared" ref="P37:Q37" si="127">P10/L10-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q37" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="127"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="R37" s="15">
@@ -5748,43 +5886,43 @@
         <v>0.3201588160981772</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" ref="S37:V37" si="133">S10/O10-1</f>
+        <f t="shared" ref="S37:V37" si="128">S10/O10-1</f>
         <v>0.28053599037965982</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0.2796367112810707</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="128"/>
         <v>0.22466511357018049</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="133"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="128"/>
+        <v>0.25659603554340404</v>
       </c>
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
       <c r="AJ37" s="5">
-        <f t="shared" ref="AJ37:AN37" si="134">+AJ10/AI10-1</f>
+        <f t="shared" ref="AJ37:AN37" si="129">+AJ10/AI10-1</f>
         <v>0.43934911242603558</v>
       </c>
       <c r="AK37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>0.52757793764988015</v>
       </c>
       <c r="AL37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>0.46434178066831122</v>
       </c>
       <c r="AM37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>0.47070985527222597</v>
       </c>
       <c r="AN37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="129"/>
         <v>0.36832239925023424</v>
       </c>
       <c r="AO37" s="5">
@@ -5792,35 +5930,35 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" ref="AP37:AV37" si="135">+AP10/AO10-1</f>
+        <f t="shared" ref="AP37:AV37" si="130">+AP10/AO10-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="AQ37" s="15">
-        <f t="shared" si="135"/>
-        <v>0.30000000000000027</v>
+        <f t="shared" si="130"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="AR37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AS37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AT37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AU37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AV37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="130"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
@@ -5829,19 +5967,19 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
-        <f t="shared" ref="G38:H38" si="136">G19/G16</f>
+        <f t="shared" ref="G38:H38" si="131">G19/G16</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="136"/>
+        <f t="shared" si="131"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="I38" s="15">
-        <f t="shared" ref="I38" si="137">I19/I16</f>
+        <f t="shared" ref="I38" si="132">I19/I16</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" ref="J38" si="138">J19/J16</f>
+        <f t="shared" ref="J38" si="133">J19/J16</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="K38" s="15">
@@ -5849,27 +5987,27 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="L38" s="15">
-        <f t="shared" ref="L38:O38" si="139">L19/L16</f>
+        <f t="shared" ref="L38:O38" si="134">L19/L16</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="134"/>
         <v>0.57583156730857832</v>
       </c>
       <c r="N38" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="134"/>
         <v>0.56205774975107869</v>
       </c>
       <c r="O38" s="15">
-        <f t="shared" si="139"/>
+        <f t="shared" si="134"/>
         <v>0.5647909896928438</v>
       </c>
       <c r="P38" s="15">
-        <f t="shared" ref="P38:Q38" si="140">P19/P16</f>
+        <f t="shared" ref="P38:Q38" si="135">P19/P16</f>
         <v>0.56799885197675248</v>
       </c>
       <c r="Q38" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="135"/>
         <v>0.54903606785156023</v>
       </c>
       <c r="R38" s="15">
@@ -5877,51 +6015,51 @@
         <v>0.53526719966337055</v>
       </c>
       <c r="S38" s="15">
-        <f t="shared" ref="S38:V38" si="141">S19/S16</f>
+        <f t="shared" ref="S38:V38" si="136">S19/S16</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="T38" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="136"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="U38" s="15">
-        <f t="shared" si="141"/>
+        <f t="shared" si="136"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="V38" s="15">
-        <f t="shared" si="141"/>
-        <v>0.54999999999999993</v>
+        <f t="shared" si="136"/>
+        <v>0.56465067778936395</v>
       </c>
       <c r="W38" s="15"/>
       <c r="X38" s="15"/>
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
       <c r="AF38" s="5">
-        <f t="shared" ref="AF38" si="142">AF19/AF16</f>
+        <f t="shared" ref="AF38" si="137">AF19/AF16</f>
         <v>0.6107483219951213</v>
       </c>
       <c r="AG38" s="5">
-        <f t="shared" ref="AG38" si="143">AG19/AG16</f>
+        <f t="shared" ref="AG38" si="138">AG19/AG16</f>
         <v>0.62442491565429592</v>
       </c>
       <c r="AH38" s="5">
-        <f t="shared" ref="AH38:AI38" si="144">AH19/AH16</f>
+        <f t="shared" ref="AH38:AI38" si="139">AH19/AH16</f>
         <v>0.61075416518964909</v>
       </c>
       <c r="AI38" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="139"/>
         <v>0.58880519597672631</v>
       </c>
       <c r="AJ38" s="5">
-        <f t="shared" ref="AJ38:AL38" si="145">AJ19/AJ16</f>
+        <f t="shared" ref="AJ38:AL38" si="140">AJ19/AJ16</f>
         <v>0.5647607422945643</v>
       </c>
       <c r="AK38" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>0.5558054331910266</v>
       </c>
       <c r="AL38" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="140"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="AM38" s="5">
@@ -5933,39 +6071,39 @@
         <v>0.55379442503783116</v>
       </c>
       <c r="AO38" s="5">
-        <f t="shared" ref="AO38" si="146">AO19/AO16</f>
+        <f t="shared" ref="AO38" si="141">AO19/AO16</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AP38" s="15">
-        <f t="shared" ref="AP38:AV38" si="147">AP19/AP16</f>
+        <f t="shared" ref="AP38:AV38" si="142">AP19/AP16</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AQ38" s="15">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AR38" s="15">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AS38" s="15">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AT38" s="15">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AU38" s="15">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AV38" s="15">
-        <f t="shared" si="147"/>
+        <f t="shared" si="142"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
@@ -5974,7 +6112,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
-        <f t="shared" ref="G39" si="148">+G27/G26</f>
+        <f t="shared" ref="G39" si="143">+G27/G26</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H39" s="15">
@@ -5982,39 +6120,39 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" ref="I39:Q39" si="149">+I27/I26</f>
+        <f t="shared" ref="I39:Q39" si="144">+I27/I26</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0.16</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="144"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="R39" s="15">
@@ -6022,55 +6160,55 @@
         <v>0.20545868081880211</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" ref="S39:V39" si="150">+S27/S26</f>
+        <f t="shared" ref="S39:V39" si="145">+S27/S26</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="145"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="150"/>
-        <v>0.19999999999999998</v>
+        <f t="shared" si="145"/>
+        <v>0.15258889070948714</v>
       </c>
       <c r="W39" s="15"/>
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
       <c r="AF39" s="15">
-        <f t="shared" ref="AF39" si="151">+AF27/AF26</f>
+        <f t="shared" ref="AF39" si="146">+AF27/AF26</f>
         <v>0.21084651486181122</v>
       </c>
       <c r="AG39" s="15">
-        <f t="shared" ref="AG39" si="152">+AG27/AG26</f>
+        <f t="shared" ref="AG39" si="147">+AG27/AG26</f>
         <v>0.16808304920869166</v>
       </c>
       <c r="AH39" s="15">
-        <f t="shared" ref="AH39:AI39" si="153">+AH27/AH26</f>
+        <f t="shared" ref="AH39:AI39" si="148">+AH27/AH26</f>
         <v>0.19345755693581781</v>
       </c>
       <c r="AI39" s="15">
-        <f t="shared" si="153"/>
+        <f t="shared" si="148"/>
         <v>0.48551572053860803</v>
       </c>
       <c r="AJ39" s="15">
-        <f t="shared" ref="AJ39:AL39" si="154">+AJ27/AJ26</f>
+        <f t="shared" ref="AJ39:AL39" si="149">+AJ27/AJ26</f>
         <v>0.10446678671468587</v>
       </c>
       <c r="AK39" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="149"/>
         <v>0.12782537147282319</v>
       </c>
       <c r="AL39" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="149"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="AM39" s="15">
-        <f t="shared" ref="AM39:AO39" si="155">+AM27/AM26</f>
+        <f t="shared" ref="AM39:AO39" si="150">+AM27/AM26</f>
         <v>0.16202305640663919</v>
       </c>
       <c r="AN39" s="15">
@@ -6078,39 +6216,39 @@
         <v>0.1592081650964558</v>
       </c>
       <c r="AO39" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="150"/>
         <v>0.18</v>
       </c>
       <c r="AP39" s="15">
-        <f t="shared" ref="AP39:AV39" si="156">+AP27/AP26</f>
+        <f t="shared" ref="AP39:AV39" si="151">+AP27/AP26</f>
         <v>0.18</v>
       </c>
       <c r="AQ39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>0.18</v>
       </c>
       <c r="AR39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>0.18</v>
       </c>
       <c r="AS39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>0.18</v>
       </c>
       <c r="AT39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="AU39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>0.18</v>
       </c>
       <c r="AV39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="151"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
@@ -6119,15 +6257,15 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15">
-        <f t="shared" ref="G40:H40" si="157">G14/G16</f>
+        <f t="shared" ref="G40:H40" si="152">G14/G16</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="152"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" ref="I40" si="158">I14/I16</f>
+        <f t="shared" ref="I40" si="153">I14/I16</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J40" s="15">
@@ -6135,31 +6273,31 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" ref="K40:O40" si="159">K14/K16</f>
+        <f t="shared" ref="K40:O40" si="154">K14/K16</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>0.57926632191338079</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>0.58241960748180222</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>0.5748556256223033</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="154"/>
         <v>0.58252341532987306</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:Q40" si="160">P14/P16</f>
+        <f t="shared" ref="P40:Q40" si="155">P14/P16</f>
         <v>0.58389897395422252</v>
       </c>
       <c r="Q40" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="155"/>
         <v>0.57226596422161757</v>
       </c>
       <c r="R40" s="15">
@@ -6167,71 +6305,71 @@
         <v>0.56022512097622557</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" ref="S40:V40" si="161">S14/S16</f>
+        <f t="shared" ref="S40:V40" si="156">S14/S16</f>
         <v>0.57831687850172664</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="156"/>
         <v>0.57139027397994746</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="156"/>
         <v>0.574054998500515</v>
       </c>
       <c r="V40" s="15">
-        <f t="shared" si="161"/>
-        <v>0.55000767065707956</v>
+        <f t="shared" si="156"/>
+        <v>0.55636658556366581</v>
       </c>
       <c r="W40" s="15"/>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AL40" s="15">
-        <f t="shared" ref="AL40:AO40" si="162">AL14/AL16</f>
+        <f t="shared" ref="AL40:AO40" si="157">AL14/AL16</f>
         <v>0.57011839344316184</v>
       </c>
       <c r="AM40" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="157"/>
         <v>0.57814289096674776</v>
       </c>
       <c r="AN40" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="157"/>
         <v>0.57436111386103605</v>
       </c>
       <c r="AO40" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="157"/>
         <v>0.57465427805581204</v>
       </c>
       <c r="AP40" s="15">
-        <f t="shared" ref="AP40:AV40" si="163">AP14/AP16</f>
+        <f t="shared" ref="AP40:AV40" si="158">AP14/AP16</f>
         <v>0.56646189101990851</v>
       </c>
       <c r="AQ40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="158"/>
         <v>0.56058785008742684</v>
       </c>
       <c r="AR40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="158"/>
         <v>0.55165420445857594</v>
       </c>
       <c r="AS40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="158"/>
         <v>0.53952607606889824</v>
       </c>
       <c r="AT40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="158"/>
         <v>0.53518023811646842</v>
       </c>
       <c r="AU40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="158"/>
         <v>0.52949611745013003</v>
       </c>
       <c r="AV40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="158"/>
         <v>0.52249526870684604</v>
       </c>
     </row>
-    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
@@ -6240,47 +6378,47 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15">
-        <f t="shared" ref="G41:J41" si="164">(G14+G13+G12)/G16</f>
+        <f t="shared" ref="G41:J41" si="159">(G14+G13+G12)/G16</f>
         <v>0.82030661580699238</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="159"/>
         <v>0.7798783194506097</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="159"/>
         <v>0.80339159248911707</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="159"/>
         <v>0.81196175612499566</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" ref="K41:Q41" si="165">(K14+K13+K12)/K16</f>
+        <f t="shared" ref="K41:Q41" si="160">(K14+K13+K12)/K16</f>
         <v>0.80782442058068482</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="160"/>
         <v>0.81519069166127989</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="160"/>
         <v>0.81590343683774069</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="160"/>
         <v>0.81299701294390969</v>
       </c>
       <c r="O41" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="160"/>
         <v>0.80370822366970052</v>
       </c>
       <c r="P41" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="160"/>
         <v>0.80774915692042759</v>
       </c>
       <c r="Q41" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="160"/>
         <v>0.78854281248190816</v>
       </c>
       <c r="R41" s="15">
@@ -6288,20 +6426,20 @@
         <v>0.77637807700399752</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" ref="S41:V41" si="166">(S14+S13+S12)/S16</f>
+        <f t="shared" ref="S41:V41" si="161">(S14+S13+S12)/S16</f>
         <v>0.78163554816799685</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="161"/>
         <v>0.779354994370275</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="166"/>
+        <f t="shared" si="161"/>
         <v>0.77773721200109525</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="166"/>
-        <v>0.76221840416240938</v>
+        <f t="shared" si="161"/>
+        <v>0.75908932916232186</v>
       </c>
       <c r="W41" s="15"/>
       <c r="X41" s="15"/>
@@ -6319,7 +6457,7 @@
       <c r="AU41" s="15"/>
       <c r="AV41" s="15"/>
     </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
@@ -6328,38 +6466,41 @@
         <v>124580</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:O43" si="167">+N44-N62</f>
+        <f t="shared" ref="N43:O43" si="162">+N44-N62</f>
         <v>154381</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="162"/>
         <v>149723</v>
       </c>
       <c r="P43" s="11">
-        <f>+P44-P62</f>
+        <f t="shared" ref="P43:V43" si="163">+P44-P62</f>
         <v>140928</v>
       </c>
       <c r="Q43" s="11">
-        <f>+Q44-Q62</f>
+        <f t="shared" si="163"/>
         <v>132025</v>
       </c>
       <c r="R43" s="11">
-        <f>+R44-R62</f>
+        <f t="shared" si="163"/>
         <v>129553</v>
       </c>
       <c r="S43" s="11">
-        <f>+S44-S62</f>
+        <f t="shared" si="163"/>
         <v>132618</v>
       </c>
       <c r="T43" s="11">
-        <f>+T44-T62</f>
+        <f t="shared" si="163"/>
         <v>135851</v>
       </c>
       <c r="U43" s="11">
-        <f>+U44-U62</f>
+        <f t="shared" si="163"/>
         <v>137061</v>
       </c>
-      <c r="V43" s="11"/>
+      <c r="V43" s="11">
+        <f t="shared" si="163"/>
+        <v>128671</v>
+      </c>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
@@ -6376,35 +6517,35 @@
         <v>202986.519696</v>
       </c>
       <c r="AP43" s="3">
-        <f t="shared" ref="AP43:AV43" si="168">+AO43+AP28</f>
+        <f t="shared" ref="AP43:AV43" si="164">+AO43+AP28</f>
         <v>290052.05833486724</v>
       </c>
       <c r="AQ43" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="164"/>
         <v>391905.42938148277</v>
       </c>
       <c r="AR43" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="164"/>
         <v>511578.58854282054</v>
       </c>
       <c r="AS43" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="164"/>
         <v>652850.66423680889</v>
       </c>
       <c r="AT43" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="164"/>
         <v>815257.82429385802</v>
       </c>
       <c r="AU43" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="164"/>
         <v>1002111.9077416592</v>
       </c>
       <c r="AV43" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="164"/>
         <v>1217280.1040730444</v>
       </c>
     </row>
-    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
@@ -6454,13 +6595,16 @@
         <f>119935+30907</f>
         <v>150842</v>
       </c>
-      <c r="V44" s="11"/>
+      <c r="V44" s="11">
+        <f>110916+31008</f>
+        <v>141924</v>
+      </c>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
@@ -6501,13 +6645,15 @@
       <c r="U45" s="11">
         <v>41020</v>
       </c>
-      <c r="V45" s="11"/>
+      <c r="V45" s="11">
+        <v>47964</v>
+      </c>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>30</v>
       </c>
@@ -6548,13 +6694,15 @@
       <c r="U46" s="11">
         <v>0</v>
       </c>
-      <c r="V46" s="11"/>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
@@ -6595,13 +6743,15 @@
       <c r="U47" s="11">
         <v>2957</v>
       </c>
-      <c r="V47" s="11"/>
+      <c r="V47" s="11">
+        <v>0</v>
+      </c>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
     </row>
-    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
@@ -6642,13 +6792,15 @@
       <c r="U48" s="11">
         <v>12398</v>
       </c>
-      <c r="V48" s="11"/>
+      <c r="V48" s="11">
+        <v>12650</v>
+      </c>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
@@ -6679,13 +6831,15 @@
       <c r="U49" s="11">
         <v>10983</v>
       </c>
-      <c r="V49" s="11"/>
+      <c r="V49" s="11">
+        <v>12169</v>
+      </c>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
@@ -6716,13 +6870,15 @@
       <c r="U50" s="11">
         <v>125705</v>
       </c>
-      <c r="V50" s="11"/>
+      <c r="V50" s="11">
+        <v>134345</v>
+      </c>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
@@ -6753,13 +6909,15 @@
       <c r="U51" s="11">
         <v>14199</v>
       </c>
-      <c r="V51" s="11"/>
+      <c r="V51" s="11">
+        <v>14091</v>
+      </c>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -6799,13 +6957,15 @@
         <f>1833+29146</f>
         <v>30979</v>
       </c>
-      <c r="V52" s="11"/>
+      <c r="V52" s="11">
+        <v>29198</v>
+      </c>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -6836,13 +6996,15 @@
       <c r="U53" s="11">
         <v>7628</v>
       </c>
-      <c r="V53" s="11"/>
+      <c r="V53" s="11">
+        <v>10051</v>
+      </c>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
@@ -6851,44 +7013,47 @@
         <v>273403</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" ref="N54:U54" si="169">SUM(N44:N53)</f>
+        <f t="shared" ref="N54:V54" si="165">SUM(N44:N53)</f>
         <v>359268</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="165"/>
         <v>357096</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="165"/>
         <v>355185</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="165"/>
         <v>358255</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="165"/>
         <v>365264</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="165"/>
         <v>369491</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="165"/>
         <v>383044</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="165"/>
         <v>396711</v>
       </c>
-      <c r="V54" s="11"/>
+      <c r="V54" s="11">
+        <f t="shared" si="165"/>
+        <v>402392</v>
+      </c>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
       <c r="G55" s="11"/>
       <c r="P55" s="11"/>
@@ -6903,7 +7068,7 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
@@ -6934,13 +7099,15 @@
       <c r="U56" s="11">
         <v>5803</v>
       </c>
-      <c r="V56" s="11"/>
+      <c r="V56" s="11">
+        <v>7493</v>
+      </c>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
@@ -6971,13 +7138,15 @@
       <c r="U57" s="11">
         <v>12562</v>
       </c>
-      <c r="V57" s="11"/>
+      <c r="V57" s="11">
+        <v>15140</v>
+      </c>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
@@ -7008,13 +7177,15 @@
       <c r="U58" s="11">
         <v>55602</v>
       </c>
-      <c r="V58" s="11"/>
+      <c r="V58" s="11">
+        <v>46168</v>
+      </c>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
@@ -7045,13 +7216,15 @@
       <c r="U59" s="11">
         <v>8025</v>
       </c>
-      <c r="V59" s="11"/>
+      <c r="V59" s="11">
+        <v>8876</v>
+      </c>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -7091,13 +7264,16 @@
         <f>4303+884</f>
         <v>5187</v>
       </c>
-      <c r="V60" s="11"/>
+      <c r="V60" s="11">
+        <f>911+4137</f>
+        <v>5048</v>
+      </c>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>30</v>
       </c>
@@ -7137,13 +7313,16 @@
         <f>8038+528</f>
         <v>8566</v>
       </c>
-      <c r="V61" s="11"/>
+      <c r="V61" s="11">
+        <f>8474+485</f>
+        <v>8959</v>
+      </c>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -7174,13 +7353,16 @@
       <c r="U62" s="11">
         <v>13781</v>
       </c>
-      <c r="V62" s="11"/>
+      <c r="V62" s="11">
+        <f>13253</f>
+        <v>13253</v>
+      </c>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
@@ -7211,13 +7393,15 @@
       <c r="U63" s="11">
         <v>12550</v>
       </c>
-      <c r="V63" s="11"/>
+      <c r="V63" s="11">
+        <v>12460</v>
+      </c>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -7248,13 +7432,15 @@
       <c r="U64" s="11">
         <v>1433</v>
       </c>
-      <c r="V64" s="11"/>
+      <c r="V64" s="11">
+        <v>1616</v>
+      </c>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>68</v>
       </c>
@@ -7285,13 +7471,15 @@
       <c r="U65" s="11">
         <v>273202</v>
       </c>
-      <c r="V65" s="11"/>
+      <c r="V65" s="11">
+        <v>283379</v>
+      </c>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
@@ -7300,44 +7488,47 @@
         <v>273403</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" ref="N66:U66" si="170">SUM(N56:N65)</f>
+        <f t="shared" ref="N66:V66" si="166">SUM(N56:N65)</f>
         <v>359268</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="166"/>
         <v>357096</v>
       </c>
       <c r="P66" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="166"/>
         <v>355185</v>
       </c>
       <c r="Q66" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="166"/>
         <v>358255</v>
       </c>
       <c r="R66" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="166"/>
         <v>365264</v>
       </c>
       <c r="S66" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="166"/>
         <v>369491</v>
       </c>
       <c r="T66" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="166"/>
         <v>383044</v>
       </c>
       <c r="U66" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="166"/>
         <v>396711</v>
       </c>
-      <c r="V66" s="11"/>
+      <c r="V66" s="11">
+        <f t="shared" si="166"/>
+        <v>402392</v>
+      </c>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
     </row>
-    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
@@ -7353,68 +7544,71 @@
         <v>6836</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" ref="H68:U68" si="171">+H28</f>
+        <f t="shared" ref="H68:V68" si="167">+H28</f>
         <v>6959</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>11247</v>
       </c>
       <c r="J68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>15227</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>17930</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>18165</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>18936</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>20642</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>16436</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>16002</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>13910</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>13624</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>15051</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>18368</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="167"/>
         <v>19689</v>
       </c>
-      <c r="V68" s="11"/>
+      <c r="V68" s="11">
+        <f t="shared" si="167"/>
+        <v>20687</v>
+      </c>
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
     </row>
-    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>83</v>
       </c>
@@ -7457,13 +7651,15 @@
       <c r="U69" s="11">
         <v>19689</v>
       </c>
-      <c r="V69" s="11"/>
+      <c r="V69" s="11">
+        <v>20687</v>
+      </c>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
       <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
     </row>
-    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>84</v>
       </c>
@@ -7507,13 +7703,15 @@
       <c r="U70" s="11">
         <v>3671</v>
       </c>
-      <c r="V70" s="11"/>
+      <c r="V70" s="11">
+        <v>3316</v>
+      </c>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
     </row>
-    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>85</v>
       </c>
@@ -7557,13 +7755,15 @@
       <c r="U71" s="11">
         <v>129</v>
       </c>
-      <c r="V71" s="11"/>
+      <c r="V71" s="11">
+        <v>0</v>
+      </c>
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
       <c r="Z71" s="11"/>
     </row>
-    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
@@ -7607,13 +7807,15 @@
       <c r="U72" s="11">
         <v>5743</v>
       </c>
-      <c r="V72" s="11"/>
+      <c r="V72" s="11">
+        <v>5659</v>
+      </c>
       <c r="W72" s="11"/>
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
     </row>
-    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>56</v>
       </c>
@@ -7657,13 +7859,15 @@
       <c r="U73" s="11">
         <v>-1824</v>
       </c>
-      <c r="V73" s="11"/>
+      <c r="V73" s="11">
+        <v>-1670</v>
+      </c>
       <c r="W73" s="11"/>
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
     </row>
-    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>87</v>
       </c>
@@ -7707,13 +7911,15 @@
       <c r="U74" s="11">
         <v>869</v>
       </c>
-      <c r="V74" s="11"/>
+      <c r="V74" s="11">
+        <v>-471</v>
+      </c>
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
     </row>
-    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
@@ -7757,13 +7963,15 @@
       <c r="U75" s="11">
         <v>262</v>
       </c>
-      <c r="V75" s="11"/>
+      <c r="V75" s="11">
+        <v>1665</v>
+      </c>
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
     </row>
-    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
         <v>88</v>
       </c>
@@ -7816,13 +8024,16 @@
         <f>-2821+1872-1624+223+3657+103+707</f>
         <v>2117</v>
       </c>
-      <c r="V76" s="11"/>
+      <c r="V76" s="11">
+        <f>-6518-9869+740+427+4317+797-165</f>
+        <v>-10271</v>
+      </c>
       <c r="W76" s="11"/>
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
     </row>
-    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
         <v>35</v>
       </c>
@@ -7851,44 +8062,47 @@
         <v>25539</v>
       </c>
       <c r="N77" s="11">
-        <f t="shared" ref="N77:U77" si="172">SUM(N69:N76)</f>
+        <f t="shared" ref="N77:V77" si="168">SUM(N69:N76)</f>
         <v>0</v>
       </c>
       <c r="O77" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>25106</v>
       </c>
       <c r="P77" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>19422</v>
       </c>
       <c r="Q77" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>23353</v>
       </c>
       <c r="R77" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>23614</v>
       </c>
       <c r="S77" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>23509</v>
       </c>
       <c r="T77" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>28666</v>
       </c>
       <c r="U77" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="168"/>
         <v>30656</v>
       </c>
-      <c r="V77" s="11"/>
+      <c r="V77" s="11">
+        <f t="shared" si="168"/>
+        <v>18915</v>
+      </c>
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
     </row>
-    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -7914,7 +8128,7 @@
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
     </row>
-    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>36</v>
       </c>
@@ -7966,13 +8180,15 @@
       <c r="U79" s="11">
         <v>-8055</v>
       </c>
-      <c r="V79" s="11"/>
+      <c r="V79" s="11">
+        <v>-11019</v>
+      </c>
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
     </row>
-    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>89</v>
       </c>
@@ -8019,13 +8235,16 @@
         <f>-13833+15593-663+562</f>
         <v>1659</v>
       </c>
-      <c r="V80" s="11"/>
+      <c r="V80" s="11">
+        <f>-28436+34030-851+204</f>
+        <v>4947</v>
+      </c>
       <c r="W80" s="11"/>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
     </row>
-    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
         <v>91</v>
       </c>
@@ -8065,13 +8284,15 @@
       <c r="U81" s="11">
         <v>-126</v>
       </c>
-      <c r="V81" s="11"/>
+      <c r="V81" s="11">
+        <v>-29</v>
+      </c>
       <c r="W81" s="11"/>
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
     </row>
-    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
         <v>28</v>
       </c>
@@ -8111,13 +8332,15 @@
       <c r="U82" s="11">
         <v>-628</v>
       </c>
-      <c r="V82" s="11"/>
+      <c r="V82" s="11">
+        <v>-66</v>
+      </c>
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
     </row>
-    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
         <v>92</v>
       </c>
@@ -8164,13 +8387,16 @@
         <f>SUM(U79:U82)</f>
         <v>-7150</v>
       </c>
-      <c r="V83" s="11"/>
+      <c r="V83" s="11">
+        <f>SUM(V79:V82)</f>
+        <v>-6167</v>
+      </c>
       <c r="W83" s="11"/>
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
     </row>
-    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -8196,7 +8422,7 @@
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
     </row>
-    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
@@ -8236,13 +8462,15 @@
       <c r="U85" s="11">
         <v>-2432</v>
       </c>
-      <c r="V85" s="11"/>
+      <c r="V85" s="11">
+        <v>-2680</v>
+      </c>
       <c r="W85" s="11"/>
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
     </row>
-    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="3" t="s">
         <v>93</v>
       </c>
@@ -8282,13 +8510,15 @@
       <c r="U86" s="11">
         <v>-15787</v>
       </c>
-      <c r="V86" s="11"/>
+      <c r="V86" s="11">
+        <v>-16191</v>
+      </c>
       <c r="W86" s="11"/>
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
     </row>
-    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
         <v>4</v>
       </c>
@@ -8335,13 +8565,16 @@
         <f>1248-1414</f>
         <v>-166</v>
       </c>
-      <c r="V87" s="11"/>
+      <c r="V87" s="11">
+        <f>1492-1929</f>
+        <v>-437</v>
+      </c>
       <c r="W87" s="11"/>
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
     </row>
-    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
         <v>94</v>
       </c>
@@ -8381,13 +8614,15 @@
       <c r="U88" s="11">
         <v>3</v>
       </c>
-      <c r="V88" s="11"/>
+      <c r="V88" s="11">
+        <v>0</v>
+      </c>
       <c r="W88" s="11"/>
       <c r="X88" s="11"/>
       <c r="Y88" s="11"/>
       <c r="Z88" s="11"/>
     </row>
-    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
@@ -8434,13 +8669,16 @@
         <f>SUM(U85:U88)</f>
         <v>-18382</v>
       </c>
-      <c r="V89" s="11"/>
+      <c r="V89" s="11">
+        <f>SUM(V85:V88)</f>
+        <v>-19308</v>
+      </c>
       <c r="W89" s="11"/>
       <c r="X89" s="11"/>
       <c r="Y89" s="11"/>
       <c r="Z89" s="11"/>
     </row>
-    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>41</v>
       </c>
@@ -8480,13 +8718,15 @@
       <c r="U90" s="11">
         <v>-351</v>
       </c>
-      <c r="V90" s="11"/>
+      <c r="V90" s="11">
+        <v>-94</v>
+      </c>
       <c r="W90" s="11"/>
       <c r="X90" s="11"/>
       <c r="Y90" s="11"/>
       <c r="Z90" s="11"/>
     </row>
-    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>95</v>
       </c>
@@ -8533,13 +8773,16 @@
         <f>+U90+U89+U83+U77</f>
         <v>4773</v>
       </c>
-      <c r="V91" s="11"/>
+      <c r="V91" s="11">
+        <f>+V90+V89+V83+V77</f>
+        <v>-6654</v>
+      </c>
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
     </row>
-    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -8565,7 +8808,7 @@
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
     </row>
-    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="3" t="s">
         <v>37</v>
       </c>
@@ -8586,11 +8829,11 @@
       </c>
       <c r="L93" s="11"/>
       <c r="M93" s="11">
-        <f t="shared" ref="M93:N93" si="173">M77-M79</f>
+        <f t="shared" ref="M93:N93" si="169">M77-M79</f>
         <v>32358</v>
       </c>
       <c r="N93" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="169"/>
         <v>6383</v>
       </c>
       <c r="O93" s="11">
@@ -8598,19 +8841,19 @@
         <v>15320</v>
       </c>
       <c r="P93" s="11">
-        <f t="shared" ref="P93:S93" si="174">P77+P79</f>
+        <f t="shared" ref="P93:S93" si="170">P77+P79</f>
         <v>12594</v>
       </c>
       <c r="Q93" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="170"/>
         <v>16077</v>
       </c>
       <c r="R93" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="170"/>
         <v>16019</v>
       </c>
       <c r="S93" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="170"/>
         <v>17220</v>
       </c>
       <c r="T93" s="11">
@@ -8621,223 +8864,236 @@
         <f>U77+U79</f>
         <v>22601</v>
       </c>
-      <c r="V93" s="11"/>
+      <c r="V93" s="11">
+        <f>V77+V79</f>
+        <v>7896</v>
+      </c>
       <c r="W93" s="11"/>
       <c r="X93" s="11"/>
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
     </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="R95" s="11"/>
-    </row>
-    <row r="96" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="R94" s="11"/>
+    </row>
+    <row r="95" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="11">
+        <v>103459</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11">
+        <v>123048</v>
+      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11">
+        <v>139995</v>
+      </c>
+      <c r="L95" s="11">
+        <v>144056</v>
+      </c>
+      <c r="M95" s="11">
+        <v>150028</v>
+      </c>
+      <c r="N95" s="11">
+        <v>156500</v>
+      </c>
+      <c r="O95" s="11">
+        <v>163906</v>
+      </c>
+      <c r="P95" s="11">
+        <v>174014</v>
+      </c>
+      <c r="Q95" s="11">
+        <v>186779</v>
+      </c>
+      <c r="R95" s="11">
+        <v>190234</v>
+      </c>
+      <c r="S95" s="11">
+        <v>190711</v>
+      </c>
+      <c r="T95" s="11">
+        <v>181798</v>
+      </c>
+      <c r="U95" s="11">
+        <v>182381</v>
+      </c>
+      <c r="V95" s="11">
+        <v>182502</v>
+      </c>
+      <c r="W95" s="11"/>
+      <c r="X95" s="11"/>
+      <c r="Y95" s="11"/>
+      <c r="Z95" s="11"/>
+    </row>
+    <row r="96" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C96" s="11">
-        <v>103459</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11">
-        <v>123048</v>
-      </c>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11">
-        <v>139995</v>
-      </c>
-      <c r="L96" s="11">
-        <v>144056</v>
-      </c>
-      <c r="M96" s="11">
-        <v>150028</v>
-      </c>
-      <c r="N96" s="11">
-        <v>156500</v>
-      </c>
-      <c r="O96" s="11">
-        <v>163906</v>
-      </c>
-      <c r="P96" s="11">
-        <v>174014</v>
-      </c>
-      <c r="Q96" s="11">
-        <v>186779</v>
-      </c>
-      <c r="R96" s="11">
-        <v>190234</v>
-      </c>
-      <c r="S96" s="11">
-        <v>190711</v>
-      </c>
-      <c r="T96" s="11">
-        <v>181798</v>
-      </c>
-      <c r="U96" s="11">
-        <v>182381</v>
-      </c>
-      <c r="V96" s="11"/>
-      <c r="W96" s="11"/>
-      <c r="X96" s="11"/>
-      <c r="Y96" s="11"/>
-      <c r="Z96" s="11"/>
-    </row>
-    <row r="97" spans="2:40" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="O96" s="15">
+        <f t="shared" ref="O96:V96" si="171">+O95/K95-1</f>
+        <v>0.17079895710561099</v>
+      </c>
+      <c r="P96" s="15">
+        <f t="shared" si="171"/>
+        <v>0.20796079302493475</v>
+      </c>
+      <c r="Q96" s="15">
+        <f t="shared" si="171"/>
+        <v>0.24496094062441687</v>
+      </c>
+      <c r="R96" s="15">
+        <f t="shared" si="171"/>
+        <v>0.21555271565495215</v>
+      </c>
+      <c r="S96" s="15">
+        <f t="shared" si="171"/>
+        <v>0.16353885763791443</v>
+      </c>
+      <c r="T96" s="15">
+        <f t="shared" si="171"/>
+        <v>4.4732033054811771E-2</v>
+      </c>
+      <c r="U96" s="15">
+        <f t="shared" si="171"/>
+        <v>-2.3546544311726647E-2</v>
+      </c>
+      <c r="V96" s="15">
+        <f t="shared" si="171"/>
+        <v>-4.0644679710251541E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O97" s="15">
-        <f t="shared" ref="O97:U97" si="175">+O96/K96-1</f>
-        <v>0.17079895710561099</v>
-      </c>
-      <c r="P97" s="15">
-        <f t="shared" si="175"/>
-        <v>0.20796079302493475</v>
-      </c>
-      <c r="Q97" s="15">
-        <f t="shared" si="175"/>
-        <v>0.24496094062441687</v>
-      </c>
-      <c r="R97" s="15">
-        <f t="shared" si="175"/>
-        <v>0.21555271565495215</v>
-      </c>
-      <c r="S97" s="15">
-        <f t="shared" si="175"/>
-        <v>0.16353885763791443</v>
-      </c>
-      <c r="T97" s="15">
-        <f t="shared" si="175"/>
-        <v>4.4732033054811771E-2</v>
-      </c>
-      <c r="U97" s="15">
-        <f t="shared" si="175"/>
-        <v>-2.3546544311726647E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B98" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G98" s="11">
-        <f>+G16/G96*1000</f>
+      <c r="G97" s="11">
+        <f>+G16/G95*1000</f>
         <v>334.49548143813797</v>
       </c>
-      <c r="K98" s="11">
-        <f t="shared" ref="K98:U98" si="176">+K16/K96*1000</f>
+      <c r="K97" s="11">
+        <f>+K16/K95*1000</f>
         <v>395.11411121825779</v>
       </c>
-      <c r="L98" s="11">
-        <f t="shared" si="176"/>
+      <c r="L97" s="11">
+        <f>+L16/L95*1000</f>
         <v>429.55517298828232</v>
       </c>
-      <c r="M98" s="11">
-        <f t="shared" si="176"/>
+      <c r="M97" s="11">
+        <f>+M16/M95*1000</f>
         <v>434.03897939051376</v>
       </c>
-      <c r="N98" s="11">
-        <f t="shared" si="176"/>
+      <c r="N97" s="11">
+        <f>+N16/N95*1000</f>
         <v>481.30990415335464</v>
       </c>
-      <c r="O98" s="11">
-        <f t="shared" si="176"/>
+      <c r="O97" s="11">
+        <f>+O16/O95*1000</f>
         <v>414.93905043134475</v>
       </c>
-      <c r="P98" s="11">
-        <f t="shared" si="176"/>
+      <c r="P97" s="11">
+        <f>+P16/P95*1000</f>
         <v>400.45628512648409</v>
       </c>
-      <c r="Q98" s="11">
-        <f t="shared" si="176"/>
+      <c r="Q97" s="11">
+        <f>+Q16/Q95*1000</f>
         <v>369.91310586307884</v>
       </c>
-      <c r="R98" s="11">
-        <f t="shared" si="176"/>
+      <c r="R97" s="11">
+        <f>+R16/R95*1000</f>
         <v>399.76029521536634</v>
       </c>
-      <c r="S98" s="11">
-        <f t="shared" si="176"/>
+      <c r="S97" s="11">
+        <f>+S16/S95*1000</f>
         <v>365.93064899245451</v>
       </c>
-      <c r="T98" s="11">
-        <f t="shared" si="176"/>
+      <c r="T97" s="11">
+        <f>+T16/T95*1000</f>
         <v>410.36755079813861</v>
       </c>
-      <c r="U98" s="11">
-        <f t="shared" si="176"/>
+      <c r="U97" s="11">
+        <f>+U16/U95*1000</f>
         <v>420.50981187733373</v>
       </c>
-    </row>
-    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
+      <c r="V97" s="11">
+        <f>+V16/V95*1000</f>
+        <v>472.92632409507837</v>
+      </c>
+    </row>
+    <row r="100" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B100" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AG101">
+      <c r="AG100">
         <v>37.94</v>
       </c>
-      <c r="AH101">
+      <c r="AH100">
         <v>38.590000000000003</v>
       </c>
-      <c r="AI101">
+      <c r="AI100">
         <v>52.32</v>
       </c>
-      <c r="AJ101">
+      <c r="AJ100">
         <v>51.78</v>
       </c>
-      <c r="AK101">
+      <c r="AK100">
         <v>66.849999999999994</v>
       </c>
-      <c r="AL101">
+      <c r="AL100">
         <v>87.59</v>
       </c>
-      <c r="AM101">
+      <c r="AM100">
         <v>144.68</v>
       </c>
-      <c r="AN101">
+      <c r="AN100">
         <v>88.73</v>
       </c>
     </row>
-    <row r="102" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AN102" s="5">
-        <f>AN101/AG101-1</f>
+    <row r="101" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AN101" s="5">
+        <f>AN100/AG100-1</f>
         <v>1.3386926726410122</v>
       </c>
     </row>
-    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="103" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
         <v>106</v>
       </c>
-      <c r="AG104" s="3">
+      <c r="AG103" s="3">
         <v>5007.41</v>
       </c>
-      <c r="AH104" s="3">
+      <c r="AH103" s="3">
         <v>5383.12</v>
       </c>
-      <c r="AI104" s="3">
+      <c r="AI103" s="3">
         <v>6903.39</v>
       </c>
-      <c r="AJ104" s="3">
+      <c r="AJ103" s="3">
         <v>6635.28</v>
       </c>
-      <c r="AK104" s="3">
+      <c r="AK103" s="3">
         <v>8972.6</v>
       </c>
-      <c r="AL104" s="3">
+      <c r="AL103" s="3">
         <v>12888.28</v>
       </c>
-      <c r="AM104" s="3">
+      <c r="AM103" s="3">
         <v>15644.97</v>
       </c>
-      <c r="AN104" s="3">
+      <c r="AN103" s="3">
         <v>10466.48</v>
       </c>
     </row>
-    <row r="105" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AN105" s="5">
-        <f>AN104/AG104-1</f>
+    <row r="104" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="AN104" s="5">
+        <f>AN103/AG103-1</f>
         <v>1.0901983260807482</v>
       </c>
     </row>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6ED846-862C-5C47-8BFE-23E2B4C8C0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD569EF-A60D-4129-BDE9-FBAEB829E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20920" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="-49650" yWindow="105" windowWidth="29040" windowHeight="20775" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -847,14 +847,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>33411</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63176</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>33411</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63176</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -871,8 +871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15575036" y="0"/>
-          <a:ext cx="0" cy="19078575"/>
+          <a:off x="14201848" y="0"/>
+          <a:ext cx="0" cy="18239184"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1276,30 +1276,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
   <dimension ref="H1:N65"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="11" max="12" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>123.4</v>
-      </c>
-    </row>
-    <row r="3" spans="8:13" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H3" s="4"/>
       <c r="I3" s="3"/>
       <c r="K3" t="s">
@@ -1312,17 +1312,17 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H4" s="4"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>1566686.4000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="8:13" x14ac:dyDescent="0.15">
+        <v>2196408</v>
+      </c>
+    </row>
+    <row r="5" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H5" s="6"/>
       <c r="K5" t="s">
         <v>3</v>
@@ -1334,7 +1334,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -1345,19 +1345,19 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>1429625.4000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.15">
+        <v>2059347</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1365,13 +1365,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="8:13" x14ac:dyDescent="0.2">
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
         <v>101</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K13" t="s">
         <v>103</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K14" s="3" t="s">
         <v>108</v>
       </c>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>110</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="8:13" x14ac:dyDescent="0.2">
       <c r="K16" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K17" t="s">
         <v>113</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K18" t="s">
         <v>115</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>117</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>119</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K21" t="s">
         <v>121</v>
       </c>
@@ -1452,13 +1452,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="25" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
         <v>178</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
         <v>174</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>170</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
         <v>168</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
         <v>165</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>118</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>162</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="11:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>160</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
         <v>157</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K34" t="s">
         <v>155</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K35" t="s">
         <v>151</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K36" t="s">
         <v>149</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K37" t="s">
         <v>146</v>
       </c>
@@ -1601,8 +1601,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K38" t="s">
+    <row r="38" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K38" s="7" t="s">
         <v>128</v>
       </c>
       <c r="L38" t="s">
@@ -1612,7 +1612,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K39" t="s">
         <v>143</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K40" t="s">
         <v>141</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K41" t="s">
         <v>137</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
         <v>133</v>
       </c>
@@ -1662,8 +1662,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K43" t="s">
+    <row r="43" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K43" s="7" t="s">
         <v>130</v>
       </c>
       <c r="L43" t="s">
@@ -1673,33 +1673,33 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K44" t="s">
+    <row r="44" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K44" s="7" t="s">
         <v>126</v>
       </c>
       <c r="L44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K45" t="s">
+    <row r="45" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K45" s="7" t="s">
         <v>124</v>
       </c>
       <c r="L45" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="11:14" x14ac:dyDescent="0.15">
-      <c r="K47" t="s">
+    <row r="47" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K47" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K48" t="s">
         <v>181</v>
       </c>
@@ -1707,87 +1707,87 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K52" t="s">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K55" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K56" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.15">
-      <c r="K57" t="s">
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K58" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K62" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K63" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K64" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K65" t="s">
         <v>199</v>
       </c>
@@ -1803,30 +1803,30 @@
   <dimension ref="A1:DA104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="17" width="9.1640625" style="2"/>
-    <col min="18" max="18" width="8.6640625" style="2" customWidth="1"/>
-    <col min="19" max="26" width="9.1640625" style="2"/>
-    <col min="40" max="40" width="9.1640625" customWidth="1"/>
-    <col min="47" max="48" width="9.33203125" customWidth="1"/>
-    <col min="51" max="51" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
+    <col min="19" max="26" width="9.140625" style="2"/>
+    <col min="40" max="40" width="9.140625" customWidth="1"/>
+    <col min="47" max="48" width="9.28515625" customWidth="1"/>
+    <col min="51" max="51" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>200</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>202</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>203</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2150,7 +2150,9 @@
       <c r="V8" s="11">
         <v>150</v>
       </c>
-      <c r="W8" s="11"/>
+      <c r="W8" s="11">
+        <v>72</v>
+      </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
@@ -2176,7 +2178,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2234,7 +2236,9 @@
       <c r="V9" s="11">
         <v>657</v>
       </c>
-      <c r="W9" s="11"/>
+      <c r="W9" s="11">
+        <v>495</v>
+      </c>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
@@ -2292,7 +2296,7 @@
         <v>1156.4909616107898</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2350,7 +2354,9 @@
       <c r="V10" s="11">
         <v>9192</v>
       </c>
-      <c r="W10" s="11"/>
+      <c r="W10" s="11">
+        <v>9574</v>
+      </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
@@ -2408,7 +2414,7 @@
         <v>195548.83246079998</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2466,7 +2472,9 @@
       <c r="V11" s="11">
         <v>10794</v>
       </c>
-      <c r="W11" s="11"/>
+      <c r="W11" s="11">
+        <v>8739</v>
+      </c>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
@@ -2524,7 +2532,7 @@
         <v>36806.004714717194</v>
       </c>
     </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2582,7 +2590,9 @@
       <c r="V12" s="11">
         <v>8297</v>
       </c>
-      <c r="W12" s="11"/>
+      <c r="W12" s="11">
+        <v>7413</v>
+      </c>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
@@ -2640,7 +2650,7 @@
         <v>41524.723267886067</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2698,7 +2708,9 @@
       <c r="V13" s="11">
         <v>9200</v>
       </c>
-      <c r="W13" s="11"/>
+      <c r="W13" s="11">
+        <v>8090</v>
+      </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
@@ -2756,7 +2768,7 @@
         <v>43205.229542723566</v>
       </c>
     </row>
-    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
@@ -2814,7 +2826,9 @@
       <c r="V14" s="11">
         <v>48020</v>
       </c>
-      <c r="W14" s="11"/>
+      <c r="W14" s="11">
+        <v>46156</v>
+      </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
@@ -2872,7 +2886,7 @@
         <v>348226.00218450022</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
@@ -2955,10 +2969,22 @@
         <f>SUM(V11:V14)</f>
         <v>76311</v>
       </c>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
+      <c r="W15" s="11">
+        <f>SUM(W11:W14)</f>
+        <v>70398</v>
+      </c>
+      <c r="X15" s="11">
+        <f>SUM(X11:X14)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="11">
+        <f>SUM(Y11:Y14)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="11">
+        <f>SUM(Z11:Z14)</f>
+        <v>0</v>
+      </c>
       <c r="AI15" s="11">
         <f t="shared" ref="AI15:AL15" si="14">SUM(AI11:AI14)</f>
         <v>106491</v>
@@ -3016,7 +3042,7 @@
         <v>469761.95970982703</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
@@ -3101,7 +3127,7 @@
       </c>
       <c r="W16" s="10">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>80539</v>
       </c>
       <c r="X16" s="10">
         <f t="shared" si="19"/>
@@ -3190,7 +3216,7 @@
         <v>666467.28313223785</v>
       </c>
     </row>
-    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3313,7 +3339,7 @@
         <v>293245.6045781846</v>
       </c>
     </row>
-    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
@@ -3362,7 +3388,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3439,7 +3465,7 @@
       </c>
       <c r="W19" s="11">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>80539</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="34"/>
@@ -3522,7 +3548,7 @@
         <v>373221.67855405324</v>
       </c>
     </row>
-    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3645,7 +3671,7 @@
         <v>58359.490029667984</v>
       </c>
     </row>
-    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -3768,7 +3794,7 @@
         <v>39251.558775144033</v>
       </c>
     </row>
-    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -3891,7 +3917,7 @@
         <v>23231.509398139227</v>
       </c>
     </row>
-    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -4051,7 +4077,7 @@
         <v>120842.55820295124</v>
       </c>
     </row>
-    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -4128,7 +4154,7 @@
       </c>
       <c r="W24" s="11">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>80539</v>
       </c>
       <c r="X24" s="11">
         <f t="shared" ref="X24:Z24" si="62">X19-X23</f>
@@ -4211,7 +4237,7 @@
         <v>252379.120351102</v>
       </c>
     </row>
-    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -4334,7 +4360,7 @@
         <v>10021.119077416592</v>
       </c>
     </row>
-    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
@@ -4411,7 +4437,7 @@
       </c>
       <c r="W26" s="11">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>80539</v>
       </c>
       <c r="X26" s="11">
         <f t="shared" si="74"/>
@@ -4494,7 +4520,7 @@
         <v>262400.23942851857</v>
       </c>
     </row>
-    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -4617,7 +4643,7 @@
         <v>47232.043097133341</v>
       </c>
     </row>
-    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -4694,7 +4720,7 @@
       </c>
       <c r="W28" s="11">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>80539</v>
       </c>
       <c r="X28" s="11">
         <f t="shared" si="85"/>
@@ -5005,7 +5031,7 @@
         <v>121334.4627315465</v>
       </c>
     </row>
-    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
@@ -5082,7 +5108,7 @@
       </c>
       <c r="W29" s="14">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>6.3909696873512143</v>
       </c>
       <c r="X29" s="14">
         <f t="shared" si="96"/>
@@ -5141,7 +5167,7 @@
         <v>16.432161214626063</v>
       </c>
     </row>
-    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
@@ -5264,7 +5290,7 @@
         <v>13094.333333333334</v>
       </c>
     </row>
-    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
@@ -5317,100 +5343,100 @@
         <v>7.0589079428858392E-2</v>
       </c>
       <c r="U32" s="16">
-        <f>U16/Q16-1</f>
+        <f t="shared" ref="U32:Z32" si="103">U16/Q16-1</f>
         <v>0.11001273664100042</v>
       </c>
       <c r="V32" s="16">
-        <f>V16/R16-1</f>
+        <f t="shared" si="103"/>
         <v>0.13494108983799702</v>
       </c>
       <c r="W32" s="16">
-        <f>W16/S16-1</f>
+        <f t="shared" si="103"/>
+        <v>0.15406880937710454</v>
+      </c>
+      <c r="X32" s="16">
+        <f t="shared" si="103"/>
         <v>-1</v>
       </c>
-      <c r="X32" s="16">
-        <f>X16/T16-1</f>
+      <c r="Y32" s="16">
+        <f t="shared" si="103"/>
         <v>-1</v>
       </c>
-      <c r="Y32" s="16">
-        <f>Y16/U16-1</f>
-        <v>-1</v>
-      </c>
       <c r="Z32" s="16">
-        <f>Z16/V16-1</f>
+        <f t="shared" si="103"/>
         <v>-1</v>
       </c>
       <c r="AA32" s="16"/>
       <c r="AE32" s="18">
-        <f t="shared" ref="AE32:AN32" si="103">AE16/AD16-1</f>
+        <f t="shared" ref="AE32:AN32" si="104">AE16/AD16-1</f>
         <v>0.2059123786355046</v>
       </c>
       <c r="AF32" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.18880023055170292</v>
       </c>
       <c r="AG32" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.13617975485219924</v>
       </c>
       <c r="AH32" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.20380322447292265</v>
       </c>
       <c r="AI32" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.22801090038993266</v>
       </c>
       <c r="AJ32" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.23421586757475987</v>
       </c>
       <c r="AK32" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.18300089899794614</v>
       </c>
       <c r="AL32" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.12770532012826141</v>
       </c>
       <c r="AM32" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="AN32" s="18">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="AO32" s="18">
-        <f t="shared" ref="AO32:AV32" si="104">AO16/AN16-1</f>
+        <f t="shared" ref="AO32:AV32" si="105">AO16/AN16-1</f>
         <v>9.9438826740584574E-2</v>
       </c>
       <c r="AP32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.11590861782999839</v>
       </c>
       <c r="AQ32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.11152619526934493</v>
       </c>
       <c r="AR32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.11781371393947904</v>
       </c>
       <c r="AS32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.12472714817761998</v>
       </c>
       <c r="AT32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.10893235849757321</v>
       </c>
       <c r="AU32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.11180845813012263</v>
       </c>
       <c r="AV32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0.11473876239429304</v>
       </c>
       <c r="AX32" s="18" t="s">
@@ -5420,7 +5446,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
@@ -5456,7 +5482,9 @@
       <c r="V33" s="16">
         <v>0.13</v>
       </c>
-      <c r="W33" s="16"/>
+      <c r="W33" s="16">
+        <v>0.16</v>
+      </c>
       <c r="X33" s="16"/>
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
@@ -5470,7 +5498,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
@@ -5483,19 +5511,19 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15">
-        <f t="shared" ref="K34" si="105">+K14/G14-1</f>
+        <f t="shared" ref="K34" si="106">+K14/G14-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" ref="L34:N34" si="106">+L14/H14-1</f>
+        <f t="shared" ref="L34:N34" si="107">+L14/H14-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O34" s="15">
@@ -5515,43 +5543,46 @@
         <v>-1.6096625943973542E-2</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34:V34" si="107">+S14/O14-1</f>
+        <f t="shared" ref="S34:V34" si="108">+S14/O14-1</f>
         <v>1.8703619566863505E-2</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>4.7654157143208309E-2</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.11348289031083225</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0.12712421368885551</v>
       </c>
-      <c r="W34" s="15"/>
+      <c r="W34" s="15">
+        <f t="shared" ref="W34" si="109">+W14/S14-1</f>
+        <v>0.14363586808394668</v>
+      </c>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
       <c r="AJ34" s="5">
-        <f t="shared" ref="AJ34:AN34" si="108">+AJ14/AI14-1</f>
+        <f t="shared" ref="AJ34:AN34" si="110">+AJ14/AI14-1</f>
         <v>0.22181318130380601</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>0.15028840742824978</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>6.0612546501554343E-2</v>
       </c>
       <c r="AM34" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>0.43136783840402826</v>
       </c>
       <c r="AN34" s="5">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>9.0627118985438182E-2</v>
       </c>
       <c r="AO34" s="5">
@@ -5559,31 +5590,31 @@
         <v>0.10000000000000009</v>
       </c>
       <c r="AP34" s="15">
-        <f t="shared" ref="AP34:AV34" si="109">+AP14/AO14-1</f>
+        <f t="shared" ref="AP34:AV34" si="111">+AP14/AO14-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AQ34" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AR34" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AS34" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AT34" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AU34" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AV34" s="15">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AX34" s="5" t="s">
@@ -5593,7 +5624,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
@@ -5606,31 +5637,31 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15">
-        <f t="shared" ref="K35" si="110">+K13/G13-1</f>
+        <f t="shared" ref="K35" si="112">+K13/G13-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" ref="L35:Q35" si="111">+L13/H13-1</f>
+        <f t="shared" ref="L35:Q35" si="113">+L13/H13-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="R35" s="15">
@@ -5638,39 +5669,42 @@
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" ref="S35:V35" si="112">+S13/O13-1</f>
+        <f t="shared" ref="S35:V35" si="114">+S13/O13-1</f>
         <v>-2.5622361333527466E-2</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>4.4277929155313256E-2</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.12459340970159816</v>
       </c>
       <c r="V35" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.15534346351877426</v>
       </c>
-      <c r="W35" s="15"/>
+      <c r="W35" s="15">
+        <f t="shared" ref="W35" si="115">+W13/S13-1</f>
+        <v>0.20872553414014638</v>
+      </c>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
       <c r="AJ35" s="5">
-        <f t="shared" ref="AJ35:AM35" si="113">+AJ13/AI13-1</f>
+        <f t="shared" ref="AJ35:AM35" si="116">+AJ13/AI13-1</f>
         <v>0.36871165644171788</v>
       </c>
       <c r="AK35" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.35804571940833707</v>
       </c>
       <c r="AL35" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.30516865799722748</v>
       </c>
       <c r="AM35" s="5">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0.45888124620675708</v>
       </c>
       <c r="AN35" s="5">
@@ -5682,31 +5716,31 @@
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AP35" s="15">
-        <f t="shared" ref="AP35:AV35" si="114">+AP13/AO13-1</f>
+        <f t="shared" ref="AP35:AV35" si="117">+AP13/AO13-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AQ35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AR35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AS35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AT35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AU35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AV35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AX35" s="5" t="s">
@@ -5717,7 +5751,7 @@
         <v>2142049.8680530442</v>
       </c>
     </row>
-    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
@@ -5730,19 +5764,19 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15">
-        <f t="shared" ref="K36" si="115">K15/G15-1</f>
+        <f t="shared" ref="K36" si="118">K15/G15-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" ref="L36" si="116">L15/H15-1</f>
+        <f t="shared" ref="L36" si="119">L15/H15-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" ref="M36" si="117">M15/I15-1</f>
+        <f t="shared" ref="M36" si="120">M15/I15-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" ref="N36" si="118">N15/J15-1</f>
+        <f t="shared" ref="N36" si="121">N15/J15-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O36" s="15">
@@ -5750,11 +5784,11 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" ref="P36:Q36" si="119">P15/L15-1</f>
+        <f t="shared" ref="P36:Q36" si="122">P15/L15-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="R36" s="15">
@@ -5762,43 +5796,46 @@
         <v>-2.2507204610951015E-2</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" ref="S36:V36" si="120">S15/O15-1</f>
+        <f t="shared" ref="S36:V36" si="123">S15/O15-1</f>
         <v>7.9548412285268544E-3</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>5.4804984007256419E-2</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>0.1076787721785033</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>0.12490049824582083</v>
       </c>
-      <c r="W36" s="15"/>
+      <c r="W36" s="15">
+        <f t="shared" ref="W36" si="124">W15/S15-1</f>
+        <v>0.13616629815529113</v>
+      </c>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
       <c r="AJ36" s="5">
-        <f t="shared" ref="AJ36:AN36" si="121">+AJ15/AI15-1</f>
+        <f t="shared" ref="AJ36:AN36" si="125">+AJ15/AI15-1</f>
         <v>0.22568104346846218</v>
       </c>
       <c r="AK36" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.16319604057491333</v>
       </c>
       <c r="AL36" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.11071957846204517</v>
       </c>
       <c r="AM36" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.40853915260770313</v>
       </c>
       <c r="AN36" s="5">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>6.7355986005919188E-2</v>
       </c>
       <c r="AO36" s="5">
@@ -5806,31 +5843,31 @@
         <v>7.7159919219967898E-2</v>
       </c>
       <c r="AP36" s="15">
-        <f t="shared" ref="AP36:AV36" si="122">+AP15/AO15-1</f>
+        <f t="shared" ref="AP36:AV36" si="126">+AP15/AO15-1</f>
         <v>7.8052815516631568E-2</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>7.8926787613141869E-2</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>7.9780908994353084E-2</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>8.0614365686686451E-2</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>8.1426456360157662E-2</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>8.2216591293572172E-2</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>8.2984290295815111E-2</v>
       </c>
       <c r="AX36" s="5" t="s">
@@ -5841,7 +5878,7 @@
         <v>168.71848362106525</v>
       </c>
     </row>
-    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>43</v>
       </c>
@@ -5854,19 +5891,19 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15">
-        <f t="shared" ref="K37" si="123">K10/G10-1</f>
+        <f t="shared" ref="K37" si="127">K10/G10-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="124">L10/H10-1</f>
+        <f t="shared" ref="L37" si="128">L10/H10-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" ref="M37" si="125">M10/I10-1</f>
+        <f t="shared" ref="M37" si="129">M10/I10-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" ref="N37" si="126">N10/J10-1</f>
+        <f t="shared" ref="N37" si="130">N10/J10-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O37" s="15">
@@ -5874,11 +5911,11 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:Q37" si="127">P10/L10-1</f>
+        <f t="shared" ref="P37:Q37" si="131">P10/L10-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q37" s="15">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="R37" s="15">
@@ -5886,43 +5923,46 @@
         <v>0.3201588160981772</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" ref="S37:V37" si="128">S10/O10-1</f>
+        <f t="shared" ref="S37:V37" si="132">S10/O10-1</f>
         <v>0.28053599037965982</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>0.2796367112810707</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>0.22466511357018049</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>0.25659603554340404</v>
       </c>
-      <c r="W37" s="15"/>
+      <c r="W37" s="15">
+        <f t="shared" ref="W37" si="133">W10/S10-1</f>
+        <v>0.28441105446740012</v>
+      </c>
       <c r="X37" s="15"/>
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
       <c r="AJ37" s="5">
-        <f t="shared" ref="AJ37:AN37" si="129">+AJ10/AI10-1</f>
+        <f t="shared" ref="AJ37:AN37" si="134">+AJ10/AI10-1</f>
         <v>0.43934911242603558</v>
       </c>
       <c r="AK37" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>0.52757793764988015</v>
       </c>
       <c r="AL37" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>0.46434178066831122</v>
       </c>
       <c r="AM37" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>0.47070985527222597</v>
       </c>
       <c r="AN37" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="134"/>
         <v>0.36832239925023424</v>
       </c>
       <c r="AO37" s="5">
@@ -5930,35 +5970,35 @@
         <v>0.39999999999999991</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" ref="AP37:AV37" si="130">+AP10/AO10-1</f>
+        <f t="shared" ref="AP37:AV37" si="135">+AP10/AO10-1</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="AQ37" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AR37" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AS37" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AT37" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AU37" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AV37" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="135"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>33</v>
       </c>
@@ -5967,19 +6007,19 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
-        <f t="shared" ref="G38:H38" si="131">G19/G16</f>
+        <f t="shared" ref="G38:H38" si="136">G19/G16</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="136"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="I38" s="15">
-        <f t="shared" ref="I38" si="132">I19/I16</f>
+        <f t="shared" ref="I38" si="137">I19/I16</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="J38" s="15">
-        <f t="shared" ref="J38" si="133">J19/J16</f>
+        <f t="shared" ref="J38" si="138">J19/J16</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="K38" s="15">
@@ -5987,27 +6027,27 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="L38" s="15">
-        <f t="shared" ref="L38:O38" si="134">L19/L16</f>
+        <f t="shared" ref="L38:O38" si="139">L19/L16</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="M38" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0.57583156730857832</v>
       </c>
       <c r="N38" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0.56205774975107869</v>
       </c>
       <c r="O38" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="139"/>
         <v>0.5647909896928438</v>
       </c>
       <c r="P38" s="15">
-        <f t="shared" ref="P38:Q38" si="135">P19/P16</f>
+        <f t="shared" ref="P38:Q38" si="140">P19/P16</f>
         <v>0.56799885197675248</v>
       </c>
       <c r="Q38" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="140"/>
         <v>0.54903606785156023</v>
       </c>
       <c r="R38" s="15">
@@ -6015,51 +6055,54 @@
         <v>0.53526719966337055</v>
       </c>
       <c r="S38" s="15">
-        <f t="shared" ref="S38:V38" si="136">S19/S16</f>
+        <f t="shared" ref="S38:V38" si="141">S19/S16</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="T38" s="15">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="U38" s="15">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="V38" s="15">
-        <f t="shared" si="136"/>
+        <f t="shared" si="141"/>
         <v>0.56465067778936395</v>
       </c>
-      <c r="W38" s="15"/>
+      <c r="W38" s="15">
+        <f t="shared" ref="W38" si="142">W19/W16</f>
+        <v>1</v>
+      </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
       <c r="AF38" s="5">
-        <f t="shared" ref="AF38" si="137">AF19/AF16</f>
+        <f t="shared" ref="AF38" si="143">AF19/AF16</f>
         <v>0.6107483219951213</v>
       </c>
       <c r="AG38" s="5">
-        <f t="shared" ref="AG38" si="138">AG19/AG16</f>
+        <f t="shared" ref="AG38" si="144">AG19/AG16</f>
         <v>0.62442491565429592</v>
       </c>
       <c r="AH38" s="5">
-        <f t="shared" ref="AH38:AI38" si="139">AH19/AH16</f>
+        <f t="shared" ref="AH38:AI38" si="145">AH19/AH16</f>
         <v>0.61075416518964909</v>
       </c>
       <c r="AI38" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>0.58880519597672631</v>
       </c>
       <c r="AJ38" s="5">
-        <f t="shared" ref="AJ38:AL38" si="140">AJ19/AJ16</f>
+        <f t="shared" ref="AJ38:AL38" si="146">AJ19/AJ16</f>
         <v>0.5647607422945643</v>
       </c>
       <c r="AK38" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>0.5558054331910266</v>
       </c>
       <c r="AL38" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="AM38" s="5">
@@ -6071,39 +6114,39 @@
         <v>0.55379442503783116</v>
       </c>
       <c r="AO38" s="5">
-        <f t="shared" ref="AO38" si="141">AO19/AO16</f>
+        <f t="shared" ref="AO38" si="147">AO19/AO16</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AP38" s="15">
-        <f t="shared" ref="AP38:AV38" si="142">AP19/AP16</f>
+        <f t="shared" ref="AP38:AV38" si="148">AP19/AP16</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AQ38" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AR38" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AS38" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AT38" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AU38" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AV38" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
@@ -6112,7 +6155,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
-        <f t="shared" ref="G39" si="143">+G27/G26</f>
+        <f t="shared" ref="G39" si="149">+G27/G26</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H39" s="15">
@@ -6120,39 +6163,39 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" ref="I39:Q39" si="144">+I27/I26</f>
+        <f t="shared" ref="I39:Q39" si="150">+I27/I26</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.16</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="R39" s="15">
@@ -6160,55 +6203,58 @@
         <v>0.20545868081880211</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" ref="S39:V39" si="145">+S27/S26</f>
+        <f t="shared" ref="S39:V39" si="151">+S27/S26</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>0.15258889070948714</v>
       </c>
-      <c r="W39" s="15"/>
+      <c r="W39" s="15">
+        <f t="shared" ref="W39" si="152">+W27/W26</f>
+        <v>0</v>
+      </c>
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
       <c r="AF39" s="15">
-        <f t="shared" ref="AF39" si="146">+AF27/AF26</f>
+        <f t="shared" ref="AF39" si="153">+AF27/AF26</f>
         <v>0.21084651486181122</v>
       </c>
       <c r="AG39" s="15">
-        <f t="shared" ref="AG39" si="147">+AG27/AG26</f>
+        <f t="shared" ref="AG39" si="154">+AG27/AG26</f>
         <v>0.16808304920869166</v>
       </c>
       <c r="AH39" s="15">
-        <f t="shared" ref="AH39:AI39" si="148">+AH27/AH26</f>
+        <f t="shared" ref="AH39:AI39" si="155">+AH27/AH26</f>
         <v>0.19345755693581781</v>
       </c>
       <c r="AI39" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.48551572053860803</v>
       </c>
       <c r="AJ39" s="15">
-        <f t="shared" ref="AJ39:AL39" si="149">+AJ27/AJ26</f>
+        <f t="shared" ref="AJ39:AL39" si="156">+AJ27/AJ26</f>
         <v>0.10446678671468587</v>
       </c>
       <c r="AK39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>0.12782537147282319</v>
       </c>
       <c r="AL39" s="15">
-        <f t="shared" si="149"/>
+        <f t="shared" si="156"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="AM39" s="15">
-        <f t="shared" ref="AM39:AO39" si="150">+AM27/AM26</f>
+        <f t="shared" ref="AM39:AO39" si="157">+AM27/AM26</f>
         <v>0.16202305640663919</v>
       </c>
       <c r="AN39" s="15">
@@ -6216,39 +6262,39 @@
         <v>0.1592081650964558</v>
       </c>
       <c r="AO39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.18</v>
       </c>
       <c r="AP39" s="15">
-        <f t="shared" ref="AP39:AV39" si="151">+AP27/AP26</f>
+        <f t="shared" ref="AP39:AV39" si="158">+AP27/AP26</f>
         <v>0.18</v>
       </c>
       <c r="AQ39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
       <c r="AR39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
       <c r="AS39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
       <c r="AT39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="AU39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
       <c r="AV39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
@@ -6257,15 +6303,15 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15">
-        <f t="shared" ref="G40:H40" si="152">G14/G16</f>
+        <f t="shared" ref="G40:H40" si="159">G14/G16</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="152"/>
+        <f t="shared" si="159"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" ref="I40" si="153">I14/I16</f>
+        <f t="shared" ref="I40" si="160">I14/I16</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J40" s="15">
@@ -6273,31 +6319,31 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" ref="K40:O40" si="154">K14/K16</f>
+        <f t="shared" ref="K40:O40" si="161">K14/K16</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.57926632191338079</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.58241960748180222</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.5748556256223033</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0.58252341532987306</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:Q40" si="155">P14/P16</f>
+        <f t="shared" ref="P40:Q40" si="162">P14/P16</f>
         <v>0.58389897395422252</v>
       </c>
       <c r="Q40" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="162"/>
         <v>0.57226596422161757</v>
       </c>
       <c r="R40" s="15">
@@ -6305,71 +6351,74 @@
         <v>0.56022512097622557</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" ref="S40:V40" si="156">S14/S16</f>
+        <f t="shared" ref="S40:V40" si="163">S14/S16</f>
         <v>0.57831687850172664</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0.57139027397994746</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0.574054998500515</v>
       </c>
       <c r="V40" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>0.55636658556366581</v>
       </c>
-      <c r="W40" s="15"/>
+      <c r="W40" s="15">
+        <f t="shared" ref="W40" si="164">W14/W16</f>
+        <v>0.57308881411490087</v>
+      </c>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AL40" s="15">
-        <f t="shared" ref="AL40:AO40" si="157">AL14/AL16</f>
+        <f t="shared" ref="AL40:AO40" si="165">AL14/AL16</f>
         <v>0.57011839344316184</v>
       </c>
       <c r="AM40" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>0.57814289096674776</v>
       </c>
       <c r="AN40" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>0.57436111386103605</v>
       </c>
       <c r="AO40" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>0.57465427805581204</v>
       </c>
       <c r="AP40" s="15">
-        <f t="shared" ref="AP40:AV40" si="158">AP14/AP16</f>
+        <f t="shared" ref="AP40:AV40" si="166">AP14/AP16</f>
         <v>0.56646189101990851</v>
       </c>
       <c r="AQ40" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.56058785008742684</v>
       </c>
       <c r="AR40" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.55165420445857594</v>
       </c>
       <c r="AS40" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.53952607606889824</v>
       </c>
       <c r="AT40" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.53518023811646842</v>
       </c>
       <c r="AU40" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.52949611745013003</v>
       </c>
       <c r="AV40" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.52249526870684604</v>
       </c>
     </row>
-    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
@@ -6378,47 +6427,47 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15">
-        <f t="shared" ref="G41:J41" si="159">(G14+G13+G12)/G16</f>
+        <f t="shared" ref="G41:J41" si="167">(G14+G13+G12)/G16</f>
         <v>0.82030661580699238</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.7798783194506097</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.80339159248911707</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.81196175612499566</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" ref="K41:Q41" si="160">(K14+K13+K12)/K16</f>
+        <f t="shared" ref="K41:Q41" si="168">(K14+K13+K12)/K16</f>
         <v>0.80782442058068482</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.81519069166127989</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.81590343683774069</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.81299701294390969</v>
       </c>
       <c r="O41" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.80370822366970052</v>
       </c>
       <c r="P41" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.80774915692042759</v>
       </c>
       <c r="Q41" s="15">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.78854281248190816</v>
       </c>
       <c r="R41" s="15">
@@ -6426,22 +6475,25 @@
         <v>0.77637807700399752</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" ref="S41:V41" si="161">(S14+S13+S12)/S16</f>
+        <f t="shared" ref="S41:V41" si="169">(S14+S13+S12)/S16</f>
         <v>0.78163554816799685</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>0.779354994370275</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>0.77773721200109525</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>0.75908932916232186</v>
       </c>
-      <c r="W41" s="15"/>
+      <c r="W41" s="15">
+        <f t="shared" ref="W41" si="170">(W14+W13+W12)/W16</f>
+        <v>0.76557940873365704</v>
+      </c>
       <c r="X41" s="15"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
@@ -6457,7 +6509,7 @@
       <c r="AU41" s="15"/>
       <c r="AV41" s="15"/>
     </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
@@ -6466,42 +6518,45 @@
         <v>124580</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:O43" si="162">+N44-N62</f>
+        <f t="shared" ref="N43:O43" si="171">+N44-N62</f>
         <v>154381</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="162"/>
+        <f t="shared" si="171"/>
         <v>149723</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" ref="P43:V43" si="163">+P44-P62</f>
+        <f t="shared" ref="P43:W43" si="172">+P44-P62</f>
         <v>140928</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>132025</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>129553</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>132618</v>
       </c>
       <c r="T43" s="11">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>135851</v>
       </c>
       <c r="U43" s="11">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>137061</v>
       </c>
       <c r="V43" s="11">
-        <f t="shared" si="163"/>
+        <f t="shared" si="172"/>
         <v>128671</v>
       </c>
-      <c r="W43" s="11"/>
+      <c r="W43" s="11">
+        <f t="shared" si="172"/>
+        <v>142084</v>
+      </c>
       <c r="X43" s="11"/>
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
@@ -6517,35 +6572,35 @@
         <v>202986.519696</v>
       </c>
       <c r="AP43" s="3">
-        <f t="shared" ref="AP43:AV43" si="164">+AO43+AP28</f>
+        <f t="shared" ref="AP43:AV43" si="173">+AO43+AP28</f>
         <v>290052.05833486724</v>
       </c>
       <c r="AQ43" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>391905.42938148277</v>
       </c>
       <c r="AR43" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>511578.58854282054</v>
       </c>
       <c r="AS43" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>652850.66423680889</v>
       </c>
       <c r="AT43" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>815257.82429385802</v>
       </c>
       <c r="AU43" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>1002111.9077416592</v>
       </c>
       <c r="AV43" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="173"/>
         <v>1217280.1040730444</v>
       </c>
     </row>
-    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
@@ -6599,12 +6654,15 @@
         <f>110916+31008</f>
         <v>141924</v>
       </c>
-      <c r="W44" s="11"/>
+      <c r="W44" s="11">
+        <f>108090+33994</f>
+        <v>142084</v>
+      </c>
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
@@ -6648,12 +6706,14 @@
       <c r="V45" s="11">
         <v>47964</v>
       </c>
-      <c r="W45" s="11"/>
+      <c r="W45" s="11">
+        <v>44552</v>
+      </c>
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>30</v>
       </c>
@@ -6697,12 +6757,14 @@
       <c r="V46" s="11">
         <v>0</v>
       </c>
-      <c r="W46" s="11"/>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
       <c r="X46" s="11"/>
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
@@ -6746,12 +6808,14 @@
       <c r="V47" s="11">
         <v>0</v>
       </c>
-      <c r="W47" s="11"/>
+      <c r="W47" s="11">
+        <v>0</v>
+      </c>
       <c r="X47" s="11"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
     </row>
-    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
@@ -6795,12 +6859,14 @@
       <c r="V48" s="11">
         <v>12650</v>
       </c>
-      <c r="W48" s="11"/>
+      <c r="W48" s="11">
+        <v>12829</v>
+      </c>
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
@@ -6834,12 +6900,14 @@
       <c r="V49" s="11">
         <v>12169</v>
       </c>
-      <c r="W49" s="11"/>
+      <c r="W49" s="11">
+        <v>11687</v>
+      </c>
       <c r="X49" s="11"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
@@ -6873,12 +6941,14 @@
       <c r="V50" s="11">
         <v>134345</v>
       </c>
-      <c r="W50" s="11"/>
+      <c r="W50" s="11">
+        <v>143182</v>
+      </c>
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
@@ -6912,12 +6982,14 @@
       <c r="V51" s="11">
         <v>14091</v>
       </c>
-      <c r="W51" s="11"/>
+      <c r="W51" s="11">
+        <v>13768</v>
+      </c>
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -6960,12 +7032,14 @@
       <c r="V52" s="11">
         <v>29198</v>
       </c>
-      <c r="W52" s="11"/>
+      <c r="W52" s="11">
+        <v>29183</v>
+      </c>
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -6999,12 +7073,14 @@
       <c r="V53" s="11">
         <v>10051</v>
       </c>
-      <c r="W53" s="11"/>
+      <c r="W53" s="11">
+        <v>10065</v>
+      </c>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7013,47 +7089,50 @@
         <v>273403</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" ref="N54:V54" si="165">SUM(N44:N53)</f>
+        <f t="shared" ref="N54:W54" si="174">SUM(N44:N53)</f>
         <v>359268</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="165"/>
+        <f t="shared" si="174"/>
         <v>357096</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="165"/>
+        <f t="shared" si="174"/>
         <v>355185</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="165"/>
+        <f t="shared" si="174"/>
         <v>358255</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="165"/>
+        <f t="shared" si="174"/>
         <v>365264</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="165"/>
+        <f t="shared" si="174"/>
         <v>369491</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="165"/>
+        <f t="shared" si="174"/>
         <v>383044</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="165"/>
+        <f t="shared" si="174"/>
         <v>396711</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="165"/>
+        <f t="shared" si="174"/>
         <v>402392</v>
       </c>
-      <c r="W54" s="11"/>
+      <c r="W54" s="11">
+        <f t="shared" si="174"/>
+        <v>407350</v>
+      </c>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="G55" s="11"/>
       <c r="P55" s="11"/>
@@ -7068,7 +7147,7 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
@@ -7107,7 +7186,7 @@
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
@@ -7146,7 +7225,7 @@
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
@@ -7185,7 +7264,7 @@
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
@@ -7224,7 +7303,7 @@
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -7273,7 +7352,7 @@
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>30</v>
       </c>
@@ -7322,7 +7401,7 @@
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -7362,7 +7441,7 @@
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
@@ -7401,7 +7480,7 @@
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -7440,7 +7519,7 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>68</v>
       </c>
@@ -7479,7 +7558,7 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
@@ -7488,39 +7567,39 @@
         <v>273403</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" ref="N66:V66" si="166">SUM(N56:N65)</f>
+        <f t="shared" ref="N66:V66" si="175">SUM(N56:N65)</f>
         <v>359268</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>357096</v>
       </c>
       <c r="P66" s="11">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>355185</v>
       </c>
       <c r="Q66" s="11">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>358255</v>
       </c>
       <c r="R66" s="11">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>365264</v>
       </c>
       <c r="S66" s="11">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>369491</v>
       </c>
       <c r="T66" s="11">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>383044</v>
       </c>
       <c r="U66" s="11">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>396711</v>
       </c>
       <c r="V66" s="11">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>402392</v>
       </c>
       <c r="W66" s="11"/>
@@ -7528,7 +7607,7 @@
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
     </row>
-    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
@@ -7544,63 +7623,63 @@
         <v>6836</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" ref="H68:V68" si="167">+H28</f>
+        <f t="shared" ref="H68:V68" si="176">+H28</f>
         <v>6959</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>11247</v>
       </c>
       <c r="J68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>15227</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>17930</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>18165</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>18936</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>20642</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>16436</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>16002</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>13910</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>13624</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>15051</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>18368</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>19689</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>20687</v>
       </c>
       <c r="W68" s="11"/>
@@ -7608,7 +7687,7 @@
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
     </row>
-    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>83</v>
       </c>
@@ -7659,7 +7738,7 @@
       <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
     </row>
-    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>84</v>
       </c>
@@ -7711,7 +7790,7 @@
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
     </row>
-    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>85</v>
       </c>
@@ -7763,7 +7842,7 @@
       <c r="Y71" s="11"/>
       <c r="Z71" s="11"/>
     </row>
-    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
@@ -7815,7 +7894,7 @@
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
     </row>
-    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>56</v>
       </c>
@@ -7867,7 +7946,7 @@
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
     </row>
-    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>87</v>
       </c>
@@ -7919,7 +7998,7 @@
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
     </row>
-    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
@@ -7971,7 +8050,7 @@
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
     </row>
-    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>88</v>
       </c>
@@ -8033,7 +8112,7 @@
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
     </row>
-    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>35</v>
       </c>
@@ -8062,39 +8141,39 @@
         <v>25539</v>
       </c>
       <c r="N77" s="11">
-        <f t="shared" ref="N77:V77" si="168">SUM(N69:N76)</f>
+        <f t="shared" ref="N77:V77" si="177">SUM(N69:N76)</f>
         <v>0</v>
       </c>
       <c r="O77" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>25106</v>
       </c>
       <c r="P77" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>19422</v>
       </c>
       <c r="Q77" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>23353</v>
       </c>
       <c r="R77" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>23614</v>
       </c>
       <c r="S77" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>23509</v>
       </c>
       <c r="T77" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>28666</v>
       </c>
       <c r="U77" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>30656</v>
       </c>
       <c r="V77" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>18915</v>
       </c>
       <c r="W77" s="11"/>
@@ -8102,7 +8181,7 @@
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
     </row>
-    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -8128,7 +8207,7 @@
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
     </row>
-    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>36</v>
       </c>
@@ -8188,7 +8267,7 @@
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
     </row>
-    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>89</v>
       </c>
@@ -8244,7 +8323,7 @@
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
     </row>
-    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>91</v>
       </c>
@@ -8292,7 +8371,7 @@
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
     </row>
-    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>28</v>
       </c>
@@ -8340,7 +8419,7 @@
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
     </row>
-    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>92</v>
       </c>
@@ -8396,7 +8475,7 @@
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
     </row>
-    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -8422,7 +8501,7 @@
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
     </row>
-    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
@@ -8470,7 +8549,7 @@
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
     </row>
-    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>93</v>
       </c>
@@ -8518,7 +8597,7 @@
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
     </row>
-    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>4</v>
       </c>
@@ -8574,7 +8653,7 @@
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
     </row>
-    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>94</v>
       </c>
@@ -8622,7 +8701,7 @@
       <c r="Y88" s="11"/>
       <c r="Z88" s="11"/>
     </row>
-    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
@@ -8678,7 +8757,7 @@
       <c r="Y89" s="11"/>
       <c r="Z89" s="11"/>
     </row>
-    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>41</v>
       </c>
@@ -8726,7 +8805,7 @@
       <c r="Y90" s="11"/>
       <c r="Z90" s="11"/>
     </row>
-    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>95</v>
       </c>
@@ -8782,7 +8861,7 @@
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
     </row>
-    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -8808,7 +8887,7 @@
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
     </row>
-    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>37</v>
       </c>
@@ -8829,11 +8908,11 @@
       </c>
       <c r="L93" s="11"/>
       <c r="M93" s="11">
-        <f t="shared" ref="M93:N93" si="169">M77-M79</f>
+        <f t="shared" ref="M93:N93" si="178">M77-M79</f>
         <v>32358</v>
       </c>
       <c r="N93" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="178"/>
         <v>6383</v>
       </c>
       <c r="O93" s="11">
@@ -8841,19 +8920,19 @@
         <v>15320</v>
       </c>
       <c r="P93" s="11">
-        <f t="shared" ref="P93:S93" si="170">P77+P79</f>
+        <f t="shared" ref="P93:S93" si="179">P77+P79</f>
         <v>12594</v>
       </c>
       <c r="Q93" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>16077</v>
       </c>
       <c r="R93" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>16019</v>
       </c>
       <c r="S93" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>17220</v>
       </c>
       <c r="T93" s="11">
@@ -8873,10 +8952,10 @@
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
     </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
       <c r="R94" s="11"/>
     </row>
-    <row r="95" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>52</v>
       </c>
@@ -8928,49 +9007,55 @@
       <c r="V95" s="11">
         <v>182502</v>
       </c>
-      <c r="W95" s="11"/>
+      <c r="W95" s="11">
+        <v>180895</v>
+      </c>
       <c r="X95" s="11"/>
       <c r="Y95" s="11"/>
       <c r="Z95" s="11"/>
     </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O96" s="15">
-        <f t="shared" ref="O96:V96" si="171">+O95/K95-1</f>
+        <f t="shared" ref="O96:W96" si="180">+O95/K95-1</f>
         <v>0.17079895710561099</v>
       </c>
       <c r="P96" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.20796079302493475</v>
       </c>
       <c r="Q96" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.24496094062441687</v>
       </c>
       <c r="R96" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.21555271565495215</v>
       </c>
       <c r="S96" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>0.16353885763791443</v>
       </c>
       <c r="T96" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>4.4732033054811771E-2</v>
       </c>
       <c r="U96" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>-2.3546544311726647E-2</v>
       </c>
       <c r="V96" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>-4.0644679710251541E-2</v>
       </c>
-    </row>
-    <row r="97" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="W96" s="15">
+        <f t="shared" si="180"/>
+        <v>-5.1470549679882072E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>100</v>
       </c>
@@ -8979,55 +9064,59 @@
         <v>334.49548143813797</v>
       </c>
       <c r="K97" s="11">
-        <f>+K16/K95*1000</f>
+        <f t="shared" ref="K97:W97" si="181">+K16/K95*1000</f>
         <v>395.11411121825779</v>
       </c>
       <c r="L97" s="11">
-        <f>+L16/L95*1000</f>
+        <f t="shared" si="181"/>
         <v>429.55517298828232</v>
       </c>
       <c r="M97" s="11">
-        <f>+M16/M95*1000</f>
+        <f t="shared" si="181"/>
         <v>434.03897939051376</v>
       </c>
       <c r="N97" s="11">
-        <f>+N16/N95*1000</f>
+        <f t="shared" si="181"/>
         <v>481.30990415335464</v>
       </c>
       <c r="O97" s="11">
-        <f>+O16/O95*1000</f>
+        <f t="shared" si="181"/>
         <v>414.93905043134475</v>
       </c>
       <c r="P97" s="11">
-        <f>+P16/P95*1000</f>
+        <f t="shared" si="181"/>
         <v>400.45628512648409</v>
       </c>
       <c r="Q97" s="11">
-        <f>+Q16/Q95*1000</f>
+        <f t="shared" si="181"/>
         <v>369.91310586307884</v>
       </c>
       <c r="R97" s="11">
-        <f>+R16/R95*1000</f>
+        <f t="shared" si="181"/>
         <v>399.76029521536634</v>
       </c>
       <c r="S97" s="11">
-        <f>+S16/S95*1000</f>
+        <f t="shared" si="181"/>
         <v>365.93064899245451</v>
       </c>
       <c r="T97" s="11">
-        <f>+T16/T95*1000</f>
+        <f t="shared" si="181"/>
         <v>410.36755079813861</v>
       </c>
       <c r="U97" s="11">
-        <f>+U16/U95*1000</f>
+        <f t="shared" si="181"/>
         <v>420.50981187733373</v>
       </c>
       <c r="V97" s="11">
-        <f>+V16/V95*1000</f>
+        <f t="shared" si="181"/>
         <v>472.92632409507837</v>
       </c>
-    </row>
-    <row r="100" spans="2:40" x14ac:dyDescent="0.15">
+      <c r="W97" s="11">
+        <f t="shared" si="181"/>
+        <v>445.22513060062471</v>
+      </c>
+    </row>
+    <row r="100" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
         <v>105</v>
       </c>
@@ -9056,13 +9145,13 @@
         <v>88.73</v>
       </c>
     </row>
-    <row r="101" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AN101" s="5">
         <f>AN100/AG100-1</f>
         <v>1.3386926726410122</v>
       </c>
     </row>
-    <row r="103" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>106</v>
       </c>
@@ -9091,7 +9180,7 @@
         <v>10466.48</v>
       </c>
     </row>
-    <row r="104" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AN104" s="5">
         <f>AN103/AG103-1</f>
         <v>1.0901983260807482</v>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD569EF-A60D-4129-BDE9-FBAEB829E7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A8A58-F585-4186-826C-1D13864338A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49650" yWindow="105" windowWidth="29040" windowHeight="20775" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="-25500" yWindow="1260" windowWidth="25155" windowHeight="18300" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="234">
   <si>
     <t>Price</t>
   </si>
@@ -723,14 +723,93 @@
   </si>
   <si>
     <t>Q424</t>
+  </si>
+  <si>
+    <t>TTM FCF</t>
+  </si>
+  <si>
+    <t>RIP</t>
+  </si>
+  <si>
+    <t>1999-2023</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>SWOT</t>
+  </si>
+  <si>
+    <t>Opportunities</t>
+  </si>
+  <si>
+    <t>Threats:</t>
+  </si>
+  <si>
+    <t>LLM Search</t>
+  </si>
+  <si>
+    <t>Weaknesses</t>
+  </si>
+  <si>
+    <t>Slow product rollout, conservative</t>
+  </si>
+  <si>
+    <t>AI overviews, Character acquisition</t>
+  </si>
+  <si>
+    <t>Strengths</t>
+  </si>
+  <si>
+    <t>Ubiquity</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>"1.5m users"</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Google Photos</t>
+  </si>
+  <si>
+    <t>Astra</t>
+  </si>
+  <si>
+    <t>TPUS</t>
+  </si>
+  <si>
+    <t>Trillium - 6th-gen</t>
+  </si>
+  <si>
+    <t>Waymo</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Vertex</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Return</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -783,7 +862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -823,6 +902,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -847,15 +927,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>63176</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>63176</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15550</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -871,7 +951,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14201848" y="0"/>
+          <a:off x="14761441" y="0"/>
           <a:ext cx="0" cy="18239184"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -897,15 +977,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>87039</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>45368</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>87039</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>45368</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -921,8 +1001,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19826780" y="0"/>
-          <a:ext cx="0" cy="17976631"/>
+          <a:off x="24863946" y="0"/>
+          <a:ext cx="0" cy="18399919"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1274,32 +1354,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
-  <dimension ref="H1:N65"/>
+  <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="8:13" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="3"/>
       <c r="K3" t="s">
@@ -1309,55 +1398,79 @@
         <v>12696</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="8:13" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>2196408</v>
-      </c>
-    </row>
-    <row r="5" spans="8:13" x14ac:dyDescent="0.2">
+        <v>2069448</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>150842</v>
+        <v>134897</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="8:13" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>13781</v>
+        <v>13238</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="8:13" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>2059347</v>
-      </c>
-    </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.2">
+        <v>1947789</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1365,13 +1478,25 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
       <c r="K12" t="s">
         <v>101</v>
       </c>
@@ -1379,7 +1504,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
       <c r="K13" t="s">
         <v>103</v>
       </c>
@@ -1387,7 +1518,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>231</v>
+      </c>
       <c r="K14" s="3" t="s">
         <v>108</v>
       </c>
@@ -1396,7 +1530,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>110</v>
       </c>
@@ -1404,7 +1538,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K16" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +1546,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>224</v>
+      </c>
       <c r="K17" t="s">
         <v>113</v>
       </c>
@@ -1420,7 +1557,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
       <c r="K18" t="s">
         <v>115</v>
       </c>
@@ -1428,7 +1568,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
       <c r="K19" t="s">
         <v>117</v>
       </c>
@@ -1436,7 +1579,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
       <c r="K20" t="s">
         <v>119</v>
       </c>
@@ -1444,7 +1590,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
       <c r="K21" t="s">
         <v>121</v>
       </c>
@@ -1452,13 +1601,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="25" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
         <v>178</v>
       </c>
@@ -1469,7 +1618,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
         <v>174</v>
       </c>
@@ -1480,7 +1629,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>170</v>
       </c>
@@ -1491,7 +1640,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
         <v>168</v>
       </c>
@@ -1502,7 +1651,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
         <v>165</v>
       </c>
@@ -1513,7 +1662,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>118</v>
       </c>
@@ -1524,7 +1673,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>162</v>
       </c>
@@ -1535,7 +1684,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>160</v>
       </c>
@@ -1609,7 +1758,10 @@
         <v>129</v>
       </c>
       <c r="M38" t="s">
-        <v>148</v>
+        <v>210</v>
+      </c>
+      <c r="N38" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.2">
@@ -1800,13 +1952,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
-  <dimension ref="A1:DA104"/>
+  <dimension ref="A1:DA105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AP21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
+      <selection pane="bottomRight" activeCell="AY33" sqref="AY33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1818,6 +1970,7 @@
     <col min="19" max="26" width="9.140625" style="2"/>
     <col min="40" max="40" width="9.140625" customWidth="1"/>
     <col min="47" max="48" width="9.28515625" customWidth="1"/>
+    <col min="50" max="50" width="9" customWidth="1"/>
     <col min="51" max="51" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1997,8 +2150,12 @@
       <c r="V3" s="11">
         <v>41995</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
+      <c r="W3" s="11">
+        <v>38737</v>
+      </c>
+      <c r="X3" s="11">
+        <v>41196</v>
+      </c>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
@@ -2027,8 +2184,12 @@
       <c r="V4" s="11">
         <v>25010</v>
       </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="W4" s="11">
+        <v>23788</v>
+      </c>
+      <c r="X4" s="11">
+        <v>24683</v>
+      </c>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
@@ -2057,8 +2218,12 @@
       <c r="V5" s="11">
         <v>13979</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
+      <c r="W5" s="11">
+        <v>13289</v>
+      </c>
+      <c r="X5" s="11">
+        <v>13823</v>
+      </c>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
@@ -2087,8 +2252,12 @@
       <c r="V6" s="11">
         <v>5176</v>
       </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
+      <c r="W6" s="11">
+        <v>4653</v>
+      </c>
+      <c r="X6" s="11">
+        <v>4938</v>
+      </c>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
@@ -2153,7 +2322,9 @@
       <c r="W8" s="11">
         <v>72</v>
       </c>
-      <c r="X8" s="11"/>
+      <c r="X8" s="11">
+        <v>102</v>
+      </c>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AI8" s="3">
@@ -2176,6 +2347,14 @@
       <c r="AN8" s="3">
         <f t="shared" ref="AN8:AN14" si="3">SUM(O8:R8)</f>
         <v>1960</v>
+      </c>
+      <c r="AO8" s="3">
+        <f t="shared" ref="AO8:AO15" si="4">SUM(S8:V8)</f>
+        <v>236</v>
+      </c>
+      <c r="AP8" s="3">
+        <f t="shared" ref="AP8:AP15" si="5">SUM(W8:Z8)</f>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2239,7 +2418,9 @@
       <c r="W9" s="11">
         <v>495</v>
       </c>
-      <c r="X9" s="11"/>
+      <c r="X9" s="11">
+        <v>365</v>
+      </c>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
       <c r="AI9" s="3">
@@ -2260,40 +2441,40 @@
         <v>753</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="3"/>
+        <f>SUM(O9:R9)</f>
         <v>1068</v>
       </c>
       <c r="AO9" s="3">
-        <f>+AN9*1.01</f>
-        <v>1078.68</v>
+        <f t="shared" si="4"/>
+        <v>1527</v>
       </c>
       <c r="AP9" s="3">
-        <f t="shared" ref="AP9:AV9" si="4">+AO9*1.01</f>
-        <v>1089.4668000000001</v>
+        <f t="shared" si="5"/>
+        <v>860</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" si="4"/>
-        <v>1100.3614680000001</v>
+        <f t="shared" ref="AQ9:AV9" si="6">+AP9*1.01</f>
+        <v>868.6</v>
       </c>
       <c r="AR9" s="3">
-        <f t="shared" si="4"/>
-        <v>1111.3650826800001</v>
+        <f t="shared" si="6"/>
+        <v>877.28600000000006</v>
       </c>
       <c r="AS9" s="3">
-        <f t="shared" si="4"/>
-        <v>1122.4787335068002</v>
+        <f t="shared" si="6"/>
+        <v>886.0588600000001</v>
       </c>
       <c r="AT9" s="3">
-        <f t="shared" si="4"/>
-        <v>1133.7035208418681</v>
+        <f t="shared" si="6"/>
+        <v>894.91944860000012</v>
       </c>
       <c r="AU9" s="3">
-        <f t="shared" si="4"/>
-        <v>1145.0405560502868</v>
+        <f t="shared" si="6"/>
+        <v>903.86864308600013</v>
       </c>
       <c r="AV9" s="3">
-        <f t="shared" si="4"/>
-        <v>1156.4909616107898</v>
+        <f t="shared" si="6"/>
+        <v>912.90732951686016</v>
       </c>
     </row>
     <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2357,9 +2538,17 @@
       <c r="W10" s="11">
         <v>9574</v>
       </c>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
+      <c r="X10" s="11">
+        <v>10347</v>
+      </c>
+      <c r="Y10" s="11">
+        <f>+U10*1.29</f>
+        <v>10850.19</v>
+      </c>
+      <c r="Z10" s="11">
+        <f>+V10*1.29</f>
+        <v>11857.68</v>
+      </c>
       <c r="AI10" s="3">
         <v>4056</v>
       </c>
@@ -2382,36 +2571,36 @@
         <v>26280</v>
       </c>
       <c r="AO10" s="3">
-        <f>+AN10*1.4</f>
-        <v>36792</v>
+        <f t="shared" si="4"/>
+        <v>33088</v>
       </c>
       <c r="AP10" s="3">
-        <f t="shared" ref="AP10" si="5">+AO10*1.4</f>
-        <v>51508.799999999996</v>
+        <f t="shared" si="5"/>
+        <v>42628.87</v>
       </c>
       <c r="AQ10" s="3">
         <f>+AP10*1.3</f>
-        <v>66961.440000000002</v>
+        <v>55417.531000000003</v>
       </c>
       <c r="AR10" s="3">
         <f>+AQ10*1.3</f>
-        <v>87049.872000000003</v>
+        <v>72042.790300000008</v>
       </c>
       <c r="AS10" s="3">
         <f>+AR10*1.3</f>
-        <v>113164.83360000001</v>
+        <v>93655.627390000009</v>
       </c>
       <c r="AT10" s="3">
         <f>+AS10*1.2</f>
-        <v>135797.80032000001</v>
+        <v>112386.75286800001</v>
       </c>
       <c r="AU10" s="3">
         <f>+AT10*1.2</f>
-        <v>162957.360384</v>
+        <v>134864.10344160002</v>
       </c>
       <c r="AV10" s="3">
         <f>+AU10*1.2</f>
-        <v>195548.83246079998</v>
+        <v>161836.92412992002</v>
       </c>
     </row>
     <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2475,9 +2664,17 @@
       <c r="W11" s="11">
         <v>8739</v>
       </c>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
+      <c r="X11" s="11">
+        <v>9312</v>
+      </c>
+      <c r="Y11" s="11">
+        <f>+U11*1.11</f>
+        <v>9256.2900000000009</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" ref="Z11:Z14" si="7">+V11*1.11</f>
+        <v>11981.34</v>
+      </c>
       <c r="AI11" s="3">
         <v>10914</v>
       </c>
@@ -2500,36 +2697,36 @@
         <v>29055</v>
       </c>
       <c r="AO11" s="3">
-        <f>+AN11*1.03</f>
-        <v>29926.65</v>
+        <f t="shared" si="4"/>
+        <v>34688</v>
       </c>
       <c r="AP11" s="3">
-        <f t="shared" ref="AP11:AV11" si="6">+AO11*1.03</f>
-        <v>30824.449500000002</v>
+        <f t="shared" si="5"/>
+        <v>39288.630000000005</v>
       </c>
       <c r="AQ11" s="3">
-        <f t="shared" si="6"/>
-        <v>31749.182985000003</v>
+        <f t="shared" ref="AQ11:AV11" si="8">+AP11*1.03</f>
+        <v>40467.288900000007</v>
       </c>
       <c r="AR11" s="3">
-        <f t="shared" si="6"/>
-        <v>32701.658474550004</v>
+        <f t="shared" si="8"/>
+        <v>41681.307567000011</v>
       </c>
       <c r="AS11" s="3">
-        <f t="shared" si="6"/>
-        <v>33682.708228786505</v>
+        <f t="shared" si="8"/>
+        <v>42931.74679401001</v>
       </c>
       <c r="AT11" s="3">
-        <f t="shared" si="6"/>
-        <v>34693.189475650099</v>
+        <f t="shared" si="8"/>
+        <v>44219.699197830312</v>
       </c>
       <c r="AU11" s="3">
-        <f t="shared" si="6"/>
-        <v>35733.985159919604</v>
+        <f t="shared" si="8"/>
+        <v>45546.290173765221</v>
       </c>
       <c r="AV11" s="3">
-        <f t="shared" si="6"/>
-        <v>36806.004714717194</v>
+        <f t="shared" si="8"/>
+        <v>46912.678878978179</v>
       </c>
     </row>
     <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2593,9 +2790,17 @@
       <c r="W12" s="11">
         <v>7413</v>
       </c>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
+      <c r="X12" s="11">
+        <v>7444</v>
+      </c>
+      <c r="Y12" s="11">
+        <f>+U12*1.11</f>
+        <v>8512.59</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="7"/>
+        <v>9209.67</v>
+      </c>
       <c r="AI12" s="3">
         <v>17616</v>
       </c>
@@ -2618,36 +2823,36 @@
         <v>32780</v>
       </c>
       <c r="AO12" s="3">
-        <f>+AN12*1.03</f>
-        <v>33763.4</v>
+        <f t="shared" si="4"/>
+        <v>31312</v>
       </c>
       <c r="AP12" s="3">
-        <f t="shared" ref="AP12:AV12" si="7">+AO12*1.03</f>
-        <v>34776.302000000003</v>
+        <f t="shared" si="5"/>
+        <v>32579.260000000002</v>
       </c>
       <c r="AQ12" s="3">
-        <f t="shared" si="7"/>
-        <v>35819.591060000006</v>
+        <f t="shared" ref="AQ12:AV12" si="9">+AP12*1.03</f>
+        <v>33556.637800000004</v>
       </c>
       <c r="AR12" s="3">
-        <f t="shared" si="7"/>
-        <v>36894.178791800005</v>
+        <f t="shared" si="9"/>
+        <v>34563.336934000006</v>
       </c>
       <c r="AS12" s="3">
-        <f t="shared" si="7"/>
-        <v>38001.004155554008</v>
+        <f t="shared" si="9"/>
+        <v>35600.23704202001</v>
       </c>
       <c r="AT12" s="3">
-        <f t="shared" si="7"/>
-        <v>39141.034280220629</v>
+        <f t="shared" si="9"/>
+        <v>36668.244153280611</v>
       </c>
       <c r="AU12" s="3">
-        <f t="shared" si="7"/>
-        <v>40315.265308627248</v>
+        <f t="shared" si="9"/>
+        <v>37768.291477879029</v>
       </c>
       <c r="AV12" s="3">
-        <f t="shared" si="7"/>
-        <v>41524.723267886067</v>
+        <f t="shared" si="9"/>
+        <v>38901.340222215404</v>
       </c>
     </row>
     <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2711,9 +2916,17 @@
       <c r="W13" s="11">
         <v>8090</v>
       </c>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
+      <c r="X13" s="11">
+        <v>8663</v>
+      </c>
+      <c r="Y13" s="11">
+        <f>+U13*1.11</f>
+        <v>8826.7200000000012</v>
+      </c>
+      <c r="Z13" s="11">
+        <f t="shared" si="7"/>
+        <v>10212</v>
+      </c>
       <c r="AI13" s="3">
         <v>8150</v>
       </c>
@@ -2736,36 +2949,36 @@
         <v>29243</v>
       </c>
       <c r="AO13" s="3">
-        <f>+AN13*1.05</f>
-        <v>30705.15</v>
+        <f t="shared" si="4"/>
+        <v>31510</v>
       </c>
       <c r="AP13" s="3">
-        <f t="shared" ref="AP13:AV13" si="8">+AO13*1.05</f>
-        <v>32240.407500000001</v>
+        <f t="shared" si="5"/>
+        <v>35791.72</v>
       </c>
       <c r="AQ13" s="3">
-        <f t="shared" si="8"/>
-        <v>33852.427875000001</v>
+        <f t="shared" ref="AQ13:AV13" si="10">+AP13*1.05</f>
+        <v>37581.306000000004</v>
       </c>
       <c r="AR13" s="3">
-        <f t="shared" si="8"/>
-        <v>35545.049268750001</v>
+        <f t="shared" si="10"/>
+        <v>39460.371300000006</v>
       </c>
       <c r="AS13" s="3">
-        <f t="shared" si="8"/>
-        <v>37322.301732187501</v>
+        <f t="shared" si="10"/>
+        <v>41433.389865000005</v>
       </c>
       <c r="AT13" s="3">
-        <f t="shared" si="8"/>
-        <v>39188.416818796875</v>
+        <f t="shared" si="10"/>
+        <v>43505.059358250008</v>
       </c>
       <c r="AU13" s="3">
-        <f t="shared" si="8"/>
-        <v>41147.837659736724</v>
+        <f t="shared" si="10"/>
+        <v>45680.312326162508</v>
       </c>
       <c r="AV13" s="3">
-        <f t="shared" si="8"/>
-        <v>43205.229542723566</v>
+        <f t="shared" si="10"/>
+        <v>47964.327942470634</v>
       </c>
     </row>
     <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2829,9 +3042,17 @@
       <c r="W14" s="11">
         <v>46156</v>
       </c>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
+      <c r="X14" s="11">
+        <v>48509</v>
+      </c>
+      <c r="Y14" s="11">
+        <f>+U14*1.11</f>
+        <v>48868.860000000008</v>
+      </c>
+      <c r="Z14" s="11">
+        <f t="shared" si="7"/>
+        <v>53302.200000000004</v>
+      </c>
       <c r="AI14" s="3">
         <v>69811</v>
       </c>
@@ -2854,36 +3075,36 @@
         <v>162450</v>
       </c>
       <c r="AO14" s="3">
-        <f>+AN14*1.1</f>
-        <v>178695</v>
+        <f t="shared" si="4"/>
+        <v>175033</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" ref="AP14:AV14" si="9">+AO14*1.1</f>
-        <v>196564.50000000003</v>
+        <f t="shared" si="5"/>
+        <v>196836.06000000003</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="9"/>
-        <v>216220.95000000004</v>
+        <f t="shared" ref="AQ14:AV14" si="11">+AP14*1.1</f>
+        <v>216519.66600000006</v>
       </c>
       <c r="AR14" s="3">
-        <f t="shared" si="9"/>
-        <v>237843.04500000007</v>
+        <f t="shared" si="11"/>
+        <v>238171.63260000007</v>
       </c>
       <c r="AS14" s="3">
-        <f t="shared" si="9"/>
-        <v>261627.3495000001</v>
+        <f t="shared" si="11"/>
+        <v>261988.7958600001</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="9"/>
-        <v>287790.08445000014</v>
+        <f t="shared" si="11"/>
+        <v>288187.67544600012</v>
       </c>
       <c r="AU14" s="3">
-        <f t="shared" si="9"/>
-        <v>316569.09289500018</v>
+        <f t="shared" si="11"/>
+        <v>317006.44299060019</v>
       </c>
       <c r="AV14" s="3">
-        <f t="shared" si="9"/>
-        <v>348226.00218450022</v>
+        <f t="shared" si="11"/>
+        <v>348707.08728966024</v>
       </c>
     </row>
     <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2891,27 +3112,27 @@
         <v>38</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" ref="C15:G15" si="10">SUM(C11:C14)</f>
+        <f t="shared" ref="C15:G15" si="12">SUM(C11:C14)</f>
         <v>34207</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>38198</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" ref="H15" si="11">SUM(H11:H14)</f>
+        <f t="shared" ref="H15" si="13">SUM(H11:H14)</f>
         <v>34991</v>
       </c>
       <c r="I15" s="11">
@@ -2926,79 +3147,79 @@
         <v>51178</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" ref="L15" si="12">SUM(L11:L14)</f>
+        <f t="shared" ref="L15" si="14">SUM(L11:L14)</f>
         <v>57067</v>
       </c>
       <c r="M15" s="11">
-        <f t="shared" ref="M15:Q15" si="13">SUM(M11:M14)</f>
+        <f t="shared" ref="M15:Q15" si="15">SUM(M11:M14)</f>
         <v>59884</v>
       </c>
       <c r="N15" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>69400</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>61472</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>62841</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>61377</v>
       </c>
       <c r="R15" s="11">
-        <f>SUM(R11:R14)</f>
+        <f t="shared" ref="R15:Z15" si="16">SUM(R11:R14)</f>
         <v>67838</v>
       </c>
       <c r="S15" s="11">
-        <f>SUM(S11:S14)</f>
+        <f t="shared" si="16"/>
         <v>61961</v>
       </c>
       <c r="T15" s="11">
-        <f>SUM(T11:T14)</f>
+        <f t="shared" si="16"/>
         <v>66285</v>
       </c>
       <c r="U15" s="11">
-        <f>SUM(U11:U14)</f>
+        <f t="shared" si="16"/>
         <v>67986</v>
       </c>
       <c r="V15" s="11">
-        <f>SUM(V11:V14)</f>
+        <f t="shared" si="16"/>
         <v>76311</v>
       </c>
       <c r="W15" s="11">
-        <f>SUM(W11:W14)</f>
+        <f t="shared" si="16"/>
         <v>70398</v>
       </c>
       <c r="X15" s="11">
-        <f>SUM(X11:X14)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>73928</v>
       </c>
       <c r="Y15" s="11">
-        <f>SUM(Y11:Y14)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>75464.460000000006</v>
       </c>
       <c r="Z15" s="11">
-        <f>SUM(Z11:Z14)</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>84705.21</v>
       </c>
       <c r="AI15" s="11">
-        <f t="shared" ref="AI15:AL15" si="14">SUM(AI11:AI14)</f>
+        <f t="shared" ref="AI15:AL15" si="17">SUM(AI11:AI14)</f>
         <v>106491</v>
       </c>
       <c r="AJ15" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>130524</v>
       </c>
       <c r="AK15" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>151825</v>
       </c>
       <c r="AL15" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>168635</v>
       </c>
       <c r="AM15" s="11">
@@ -3009,37 +3230,37 @@
         <f>SUM(AN11:AN14)</f>
         <v>253528</v>
       </c>
-      <c r="AO15" s="11">
-        <f>SUM(AO11:AO14)</f>
-        <v>273090.2</v>
-      </c>
-      <c r="AP15" s="11">
-        <f t="shared" ref="AP15:AV15" si="15">SUM(AP11:AP14)</f>
-        <v>294405.65900000004</v>
+      <c r="AO15" s="3">
+        <f t="shared" si="4"/>
+        <v>272543</v>
+      </c>
+      <c r="AP15" s="3">
+        <f t="shared" si="5"/>
+        <v>304495.67000000004</v>
       </c>
       <c r="AQ15" s="11">
-        <f t="shared" si="15"/>
-        <v>317642.15192000009</v>
+        <f t="shared" ref="AQ15:AV15" si="18">SUM(AQ11:AQ14)</f>
+        <v>328124.89870000008</v>
       </c>
       <c r="AR15" s="11">
-        <f t="shared" si="15"/>
-        <v>342983.9315351001</v>
+        <f t="shared" si="18"/>
+        <v>353876.64840100007</v>
       </c>
       <c r="AS15" s="11">
-        <f t="shared" si="15"/>
-        <v>370633.36361652811</v>
+        <f t="shared" si="18"/>
+        <v>381954.16956103011</v>
       </c>
       <c r="AT15" s="11">
-        <f t="shared" si="15"/>
-        <v>400812.72502466774</v>
+        <f t="shared" si="18"/>
+        <v>412580.67815536109</v>
       </c>
       <c r="AU15" s="11">
-        <f t="shared" si="15"/>
-        <v>433766.18102328375</v>
+        <f t="shared" si="18"/>
+        <v>446001.33696840692</v>
       </c>
       <c r="AV15" s="11">
-        <f t="shared" si="15"/>
-        <v>469761.95970982703</v>
+        <f t="shared" si="18"/>
+        <v>482485.43433332443</v>
       </c>
     </row>
     <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3047,27 +3268,27 @@
         <v>8</v>
       </c>
       <c r="C16" s="10">
-        <f t="shared" ref="C16:G16" si="16">C15+C10+C9+C8</f>
+        <f t="shared" ref="C16:G16" si="19">C15+C10+C9+C8</f>
         <v>36339</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>41159</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" ref="H16" si="17">H15+H10+H9+H8</f>
+        <f t="shared" ref="H16" si="20">H15+H10+H9+H8</f>
         <v>38297</v>
       </c>
       <c r="I16" s="10">
@@ -3082,7 +3303,7 @@
         <v>55314</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" ref="L16" si="18">L15+L10+L9+L8</f>
+        <f t="shared" ref="L16" si="21">L15+L10+L9+L8</f>
         <v>61880</v>
       </c>
       <c r="M16" s="10">
@@ -3102,7 +3323,7 @@
         <v>69685</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" ref="Q16:Z16" si="19">Q15+Q10+Q9+Q8</f>
+        <f t="shared" ref="Q16:Z16" si="22">Q15+Q10+Q9+Q8</f>
         <v>69092</v>
       </c>
       <c r="R16" s="10">
@@ -3110,36 +3331,36 @@
         <v>76048</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>69787</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>74604</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>76693</v>
       </c>
       <c r="V16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>86310</v>
       </c>
       <c r="W16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>80539</v>
       </c>
       <c r="X16" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>84742</v>
       </c>
       <c r="Y16" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>86314.650000000009</v>
       </c>
       <c r="Z16" s="10">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>96562.890000000014</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -3160,19 +3381,19 @@
         <v>90272</v>
       </c>
       <c r="AI16" s="10">
-        <f t="shared" ref="AI16:AL16" si="20">AI15+AI10+AI9+AI8</f>
+        <f t="shared" ref="AI16:AL16" si="23">AI15+AI10+AI9+AI8</f>
         <v>110855</v>
       </c>
       <c r="AJ16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>136819</v>
       </c>
       <c r="AK16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>161857</v>
       </c>
       <c r="AL16" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>182527</v>
       </c>
       <c r="AM16" s="10">
@@ -3184,36 +3405,36 @@
         <v>282836</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" ref="AO16" si="21">AO15+AO10+AO9+AO8</f>
-        <v>310960.88</v>
+        <f t="shared" ref="AO16" si="24">AO15+AO10+AO9+AO8</f>
+        <v>307394</v>
       </c>
       <c r="AP16" s="10">
-        <f t="shared" ref="AP16" si="22">AP15+AP10+AP9+AP8</f>
-        <v>347003.92580000003</v>
+        <f t="shared" ref="AP16" si="25">AP15+AP10+AP9+AP8</f>
+        <v>348158.54000000004</v>
       </c>
       <c r="AQ16" s="10">
-        <f t="shared" ref="AQ16" si="23">AQ15+AQ10+AQ9+AQ8</f>
-        <v>385703.95338800008</v>
+        <f t="shared" ref="AQ16" si="26">AQ15+AQ10+AQ9+AQ8</f>
+        <v>384411.02970000007</v>
       </c>
       <c r="AR16" s="10">
-        <f t="shared" ref="AR16" si="24">AR15+AR10+AR9+AR8</f>
-        <v>431145.16861778009</v>
+        <f t="shared" ref="AR16" si="27">AR15+AR10+AR9+AR8</f>
+        <v>426796.72470100009</v>
       </c>
       <c r="AS16" s="10">
-        <f t="shared" ref="AS16" si="25">AS15+AS10+AS9+AS8</f>
-        <v>484920.67595003493</v>
+        <f t="shared" ref="AS16" si="28">AS15+AS10+AS9+AS8</f>
+        <v>476495.85581103014</v>
       </c>
       <c r="AT16" s="10">
-        <f t="shared" ref="AT16" si="26">AT15+AT10+AT9+AT8</f>
-        <v>537744.22886550962</v>
+        <f t="shared" ref="AT16" si="29">AT15+AT10+AT9+AT8</f>
+        <v>525862.3504719612</v>
       </c>
       <c r="AU16" s="10">
-        <f t="shared" ref="AU16" si="27">AU15+AU10+AU9+AU8</f>
-        <v>597868.581963334</v>
+        <f t="shared" ref="AU16" si="30">AU15+AU10+AU9+AU8</f>
+        <v>581769.30905309296</v>
       </c>
       <c r="AV16" s="10">
-        <f t="shared" ref="AV16" si="28">AV15+AV10+AV9+AV8</f>
-        <v>666467.28313223785</v>
+        <f t="shared" ref="AV16" si="31">AV15+AV10+AV9+AV8</f>
+        <v>645235.26579276135</v>
       </c>
     </row>
     <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3274,8 +3495,12 @@
       <c r="V17" s="11">
         <v>37575</v>
       </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
+      <c r="W17" s="11">
+        <v>33712</v>
+      </c>
+      <c r="X17" s="11">
+        <v>35507</v>
+      </c>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AF17" s="3">
@@ -3308,35 +3533,35 @@
       </c>
       <c r="AO17" s="3">
         <f>+AO16-AO19</f>
-        <v>136822.78719999999</v>
+        <v>135253.35999999999</v>
       </c>
       <c r="AP17" s="3">
-        <f t="shared" ref="AP17:AV17" si="29">+AP16-AP19</f>
-        <v>152681.72735199999</v>
+        <f>+AP16-AP19</f>
+        <v>146027.56680000003</v>
       </c>
       <c r="AQ17" s="3">
-        <f t="shared" si="29"/>
-        <v>169709.73949072001</v>
+        <f t="shared" ref="AQ17:AV17" si="32">+AQ16-AQ19</f>
+        <v>169140.853068</v>
       </c>
       <c r="AR17" s="3">
-        <f t="shared" si="29"/>
-        <v>189703.87419182321</v>
+        <f t="shared" si="32"/>
+        <v>187790.55886844001</v>
       </c>
       <c r="AS17" s="3">
-        <f t="shared" si="29"/>
-        <v>213365.09741801536</v>
+        <f t="shared" si="32"/>
+        <v>209658.17655685323</v>
       </c>
       <c r="AT17" s="3">
-        <f t="shared" si="29"/>
-        <v>236607.46070082422</v>
+        <f t="shared" si="32"/>
+        <v>231379.43420766288</v>
       </c>
       <c r="AU17" s="3">
-        <f t="shared" si="29"/>
-        <v>263062.17606386694</v>
+        <f t="shared" si="32"/>
+        <v>255978.49598336086</v>
       </c>
       <c r="AV17" s="3">
-        <f t="shared" si="29"/>
-        <v>293245.6045781846</v>
+        <f t="shared" si="32"/>
+        <v>283903.51694881497</v>
       </c>
     </row>
     <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3373,7 +3598,9 @@
       <c r="R18" s="11">
         <v>12925</v>
       </c>
-      <c r="S18" s="11"/>
+      <c r="S18" s="11">
+        <v>11721</v>
+      </c>
       <c r="T18" s="11">
         <v>12537</v>
       </c>
@@ -3383,8 +3610,12 @@
       <c r="V18" s="11">
         <v>13986</v>
       </c>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="W18" s="11">
+        <v>12946</v>
+      </c>
+      <c r="X18" s="11">
+        <v>13387</v>
+      </c>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
@@ -3404,31 +3635,31 @@
         <v>22177</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" ref="H19" si="30">H16-H17</f>
+        <f t="shared" ref="H19" si="33">H16-H17</f>
         <v>19744</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" ref="I19" si="31">I16-I17</f>
+        <f t="shared" ref="I19" si="34">I16-I17</f>
         <v>25056</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" ref="J19:N19" si="32">J16-J17</f>
+        <f t="shared" ref="J19:N19" si="35">J16-J17</f>
         <v>30818</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>31211</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>35653</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>37497</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>42337</v>
       </c>
       <c r="O19" s="11">
@@ -3436,11 +3667,11 @@
         <v>38412</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" ref="P19:Q19" si="33">P16-P17</f>
+        <f t="shared" ref="P19:Q19" si="36">P16-P17</f>
         <v>39581</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>37934</v>
       </c>
       <c r="R19" s="11">
@@ -3460,47 +3691,47 @@
         <v>43464</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" ref="V19:Z19" si="34">V16-V17</f>
+        <f t="shared" ref="V19:X19" si="37">V16-V17</f>
         <v>48735</v>
       </c>
       <c r="W19" s="11">
-        <f t="shared" si="34"/>
-        <v>80539</v>
+        <f t="shared" si="37"/>
+        <v>46827</v>
       </c>
       <c r="X19" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>49235</v>
       </c>
       <c r="Y19" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f>+Y16*0.58</f>
+        <v>50062.497000000003</v>
       </c>
       <c r="Z19" s="11">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f>+Z16*0.58</f>
+        <v>56006.476200000005</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" ref="AF19:AK19" si="35">+AF16-AF17</f>
+        <f t="shared" ref="AF19:AK19" si="38">+AF16-AF17</f>
         <v>40310</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>46825</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>55134</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>65272</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>77270</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>89961</v>
       </c>
       <c r="AL19" s="3">
@@ -3508,7 +3739,7 @@
         <v>97795</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" ref="AM19" si="36">AM16-AM17</f>
+        <f t="shared" ref="AM19" si="39">AM16-AM17</f>
         <v>146698</v>
       </c>
       <c r="AN19" s="3">
@@ -3517,35 +3748,35 @@
       </c>
       <c r="AO19" s="3">
         <f>+AO16*0.56</f>
-        <v>174138.09280000001</v>
+        <v>172140.64</v>
       </c>
       <c r="AP19" s="3">
-        <f t="shared" ref="AP19:AV19" si="37">+AP16*0.56</f>
-        <v>194322.19844800004</v>
+        <f>SUM(W19:Z19)</f>
+        <v>202130.97320000001</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" si="37"/>
-        <v>215994.21389728007</v>
+        <f t="shared" ref="AQ19:AV19" si="40">+AQ16*0.56</f>
+        <v>215270.17663200008</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" si="37"/>
-        <v>241441.29442595688</v>
+        <f t="shared" si="40"/>
+        <v>239006.16583256007</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" si="37"/>
-        <v>271555.57853201957</v>
+        <f t="shared" si="40"/>
+        <v>266837.67925417691</v>
       </c>
       <c r="AT19" s="3">
-        <f t="shared" si="37"/>
-        <v>301136.7681646854</v>
+        <f t="shared" si="40"/>
+        <v>294482.91626429831</v>
       </c>
       <c r="AU19" s="3">
-        <f t="shared" si="37"/>
-        <v>334806.40589946706</v>
+        <f t="shared" si="40"/>
+        <v>325790.8130697321</v>
       </c>
       <c r="AV19" s="3">
-        <f t="shared" si="37"/>
-        <v>373221.67855405324</v>
+        <f t="shared" si="40"/>
+        <v>361331.74884394638</v>
       </c>
     </row>
     <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3606,10 +3837,20 @@
       <c r="V20" s="11">
         <v>12113</v>
       </c>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
+      <c r="W20" s="11">
+        <v>11903</v>
+      </c>
+      <c r="X20" s="11">
+        <v>11860</v>
+      </c>
+      <c r="Y20" s="11">
+        <f>+U20*1.01</f>
+        <v>11370.58</v>
+      </c>
+      <c r="Z20" s="11">
+        <f t="shared" ref="Z20:Z22" si="41">+V20*1.01</f>
+        <v>12234.13</v>
+      </c>
       <c r="AF20" s="3">
         <v>9832</v>
       </c>
@@ -3635,7 +3876,7 @@
         <v>31562</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" ref="AN20:AN22" si="38">SUM(O20:R20)</f>
+        <f t="shared" ref="AN20:AN22" si="42">SUM(O20:R20)</f>
         <v>39500</v>
       </c>
       <c r="AO20" s="3">
@@ -3643,32 +3884,32 @@
         <v>41475</v>
       </c>
       <c r="AP20" s="3">
-        <f t="shared" ref="AP20:AV20" si="39">+AO20*1.05</f>
-        <v>43548.75</v>
+        <f>SUM(W20:Z20)</f>
+        <v>47367.71</v>
       </c>
       <c r="AQ20" s="3">
-        <f t="shared" si="39"/>
-        <v>45726.1875</v>
+        <f t="shared" ref="AQ20:AV20" si="43">+AP20*1.05</f>
+        <v>49736.095500000003</v>
       </c>
       <c r="AR20" s="3">
-        <f t="shared" si="39"/>
-        <v>48012.496875000004</v>
+        <f t="shared" si="43"/>
+        <v>52222.900275000007</v>
       </c>
       <c r="AS20" s="3">
-        <f t="shared" si="39"/>
-        <v>50413.121718750008</v>
+        <f t="shared" si="43"/>
+        <v>54834.045288750007</v>
       </c>
       <c r="AT20" s="3">
-        <f t="shared" si="39"/>
-        <v>52933.77780468751</v>
+        <f t="shared" si="43"/>
+        <v>57575.74755318751</v>
       </c>
       <c r="AU20" s="3">
-        <f t="shared" si="39"/>
-        <v>55580.466694921888</v>
+        <f t="shared" si="43"/>
+        <v>60454.534930846887</v>
       </c>
       <c r="AV20" s="3">
-        <f t="shared" si="39"/>
-        <v>58359.490029667984</v>
+        <f t="shared" si="43"/>
+        <v>63477.261677389237</v>
       </c>
     </row>
     <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3729,10 +3970,20 @@
       <c r="V21" s="11">
         <v>7719</v>
       </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
+      <c r="W21" s="11">
+        <v>6426</v>
+      </c>
+      <c r="X21" s="11">
+        <v>6792</v>
+      </c>
+      <c r="Y21" s="11">
+        <f t="shared" ref="Y21:Y22" si="44">+U21*1.01</f>
+        <v>6952.84</v>
+      </c>
+      <c r="Z21" s="11">
+        <f t="shared" si="41"/>
+        <v>7796.1900000000005</v>
+      </c>
       <c r="AF21" s="3">
         <v>8131</v>
       </c>
@@ -3758,7 +4009,7 @@
         <v>22912</v>
       </c>
       <c r="AN21" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>26567</v>
       </c>
       <c r="AO21" s="3">
@@ -3766,32 +4017,32 @@
         <v>27895.350000000002</v>
       </c>
       <c r="AP21" s="3">
-        <f t="shared" ref="AP21:AV21" si="40">+AO21*1.05</f>
-        <v>29290.117500000004</v>
+        <f>SUM(W21:Z21)</f>
+        <v>27967.03</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" si="40"/>
-        <v>30754.623375000006</v>
+        <f t="shared" ref="AQ21:AV21" si="45">+AP21*1.05</f>
+        <v>29365.3815</v>
       </c>
       <c r="AR21" s="3">
-        <f t="shared" si="40"/>
-        <v>32292.354543750007</v>
+        <f t="shared" si="45"/>
+        <v>30833.650575</v>
       </c>
       <c r="AS21" s="3">
-        <f t="shared" si="40"/>
-        <v>33906.972270937506</v>
+        <f t="shared" si="45"/>
+        <v>32375.333103749999</v>
       </c>
       <c r="AT21" s="3">
-        <f t="shared" si="40"/>
-        <v>35602.320884484383</v>
+        <f t="shared" si="45"/>
+        <v>33994.099758937504</v>
       </c>
       <c r="AU21" s="3">
-        <f t="shared" si="40"/>
-        <v>37382.436928708601</v>
+        <f t="shared" si="45"/>
+        <v>35693.80474688438</v>
       </c>
       <c r="AV21" s="3">
-        <f t="shared" si="40"/>
-        <v>39251.558775144033</v>
+        <f t="shared" si="45"/>
+        <v>37478.494984228601</v>
       </c>
     </row>
     <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3852,10 +4103,20 @@
       <c r="V22" s="11">
         <v>5206</v>
       </c>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
+      <c r="W22" s="11">
+        <v>3026</v>
+      </c>
+      <c r="X22" s="11">
+        <v>3158</v>
+      </c>
+      <c r="Y22" s="11">
+        <f t="shared" si="44"/>
+        <v>4018.79</v>
+      </c>
+      <c r="Z22" s="11">
+        <f t="shared" si="41"/>
+        <v>5258.06</v>
+      </c>
       <c r="AF22" s="3">
         <v>5851</v>
       </c>
@@ -3881,7 +4142,7 @@
         <v>13510</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>15724</v>
       </c>
       <c r="AO22" s="3">
@@ -3889,32 +4150,32 @@
         <v>16510.2</v>
       </c>
       <c r="AP22" s="3">
-        <f t="shared" ref="AP22:AV22" si="41">+AO22*1.05</f>
-        <v>17335.710000000003</v>
+        <f>SUM(W22:Z22)</f>
+        <v>15460.850000000002</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" si="41"/>
-        <v>18202.495500000005</v>
+        <f t="shared" ref="AQ22:AV22" si="46">+AP22*1.05</f>
+        <v>16233.892500000004</v>
       </c>
       <c r="AR22" s="3">
-        <f t="shared" si="41"/>
-        <v>19112.620275000005</v>
+        <f t="shared" si="46"/>
+        <v>17045.587125000005</v>
       </c>
       <c r="AS22" s="3">
-        <f t="shared" si="41"/>
-        <v>20068.251288750005</v>
+        <f t="shared" si="46"/>
+        <v>17897.866481250006</v>
       </c>
       <c r="AT22" s="3">
-        <f t="shared" si="41"/>
-        <v>21071.663853187507</v>
+        <f t="shared" si="46"/>
+        <v>18792.759805312508</v>
       </c>
       <c r="AU22" s="3">
-        <f t="shared" si="41"/>
-        <v>22125.247045846882</v>
+        <f t="shared" si="46"/>
+        <v>19732.397795578134</v>
       </c>
       <c r="AV22" s="3">
-        <f t="shared" si="41"/>
-        <v>23231.509398139227</v>
+        <f t="shared" si="46"/>
+        <v>20719.017685357041</v>
       </c>
     </row>
     <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3922,26 +4183,26 @@
         <v>26</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23" si="42">SUM(C20:C22)</f>
+        <f t="shared" ref="C23" si="47">SUM(C20:C22)</f>
         <v>12022</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f t="shared" ref="G23" si="43">SUM(G20:G22)</f>
+        <f t="shared" ref="G23" si="48">SUM(G20:G22)</f>
         <v>14200</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23" si="44">SUM(H20:H22)</f>
+        <f t="shared" ref="H23" si="49">SUM(H20:H22)</f>
         <v>13361</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" ref="I23" si="45">SUM(I20:I22)</f>
+        <f t="shared" ref="I23" si="50">SUM(I20:I22)</f>
         <v>13843</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" ref="J23" si="46">SUM(J20:J22)</f>
+        <f t="shared" ref="J23" si="51">SUM(J20:J22)</f>
         <v>15167</v>
       </c>
       <c r="K23" s="11">
@@ -3949,27 +4210,27 @@
         <v>14774</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ref="L23:O23" si="47">SUM(L20:L22)</f>
+        <f t="shared" ref="L23:O23" si="52">SUM(L20:L22)</f>
         <v>16292</v>
       </c>
       <c r="M23" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>16466</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>20452</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>18318</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" ref="P23:Q23" si="48">SUM(P20:P22)</f>
+        <f t="shared" ref="P23:Q23" si="53">SUM(P20:P22)</f>
         <v>20128</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>20799</v>
       </c>
       <c r="R23" s="11">
@@ -3977,7 +4238,7 @@
         <v>22546</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23:W23" si="49">SUM(S20:S22)</f>
+        <f t="shared" ref="S23:W23" si="54">SUM(S20:S22)</f>
         <v>21760</v>
       </c>
       <c r="T23" s="11">
@@ -3985,51 +4246,51 @@
         <v>20850</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>22121</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>25038</v>
       </c>
       <c r="W23" s="11">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>21355</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" ref="X23:Z23" si="50">SUM(X20:X22)</f>
-        <v>0</v>
+        <f t="shared" ref="X23:Z23" si="55">SUM(X20:X22)</f>
+        <v>21810</v>
       </c>
       <c r="Y23" s="11">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>22342.21</v>
       </c>
       <c r="Z23" s="11">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>25288.38</v>
       </c>
       <c r="AF23" s="3">
         <f>SUM(AF20:AF22)</f>
         <v>23814</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" ref="AG23:AK23" si="51">SUM(AG20:AG22)</f>
+        <f t="shared" ref="AG23:AK23" si="56">SUM(AG20:AG22)</f>
         <v>27465</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>31418</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>36390</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>45878</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>54033</v>
       </c>
       <c r="AL23" s="3">
@@ -4037,44 +4298,44 @@
         <v>56571</v>
       </c>
       <c r="AM23" s="3">
-        <f t="shared" ref="AM23:AO23" si="52">SUM(AM20:AM22)</f>
+        <f t="shared" ref="AM23:AO23" si="57">SUM(AM20:AM22)</f>
         <v>67984</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>81791</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>85880.55</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" ref="AP23:AV23" si="53">SUM(AP20:AP22)</f>
-        <v>90174.577500000014</v>
+        <f t="shared" ref="AP23:AV23" si="58">SUM(AP20:AP22)</f>
+        <v>90795.59</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="53"/>
-        <v>94683.306375000015</v>
+        <f t="shared" si="58"/>
+        <v>95335.369500000001</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" si="53"/>
-        <v>99417.47169375002</v>
+        <f t="shared" si="58"/>
+        <v>100102.13797500001</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="53"/>
-        <v>104388.34527843751</v>
+        <f t="shared" si="58"/>
+        <v>105107.24487375001</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" si="53"/>
-        <v>109607.7625423594</v>
+        <f t="shared" si="58"/>
+        <v>110362.60711743752</v>
       </c>
       <c r="AU23" s="3">
-        <f t="shared" si="53"/>
-        <v>115088.15066947739</v>
+        <f t="shared" si="58"/>
+        <v>115880.7374733094</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="53"/>
-        <v>120842.55820295124</v>
+        <f t="shared" si="58"/>
+        <v>121674.77434697488</v>
       </c>
     </row>
     <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4082,42 +4343,42 @@
         <v>27</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24" si="54">C19-C23</f>
+        <f t="shared" ref="C24" si="59">C19-C23</f>
         <v>8305</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
-        <f t="shared" ref="G24" si="55">G19-G23</f>
+        <f t="shared" ref="G24" si="60">G19-G23</f>
         <v>7977</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24" si="56">H19-H23</f>
+        <f t="shared" ref="H24" si="61">H19-H23</f>
         <v>6383</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" ref="I24" si="57">I19-I23</f>
+        <f t="shared" ref="I24" si="62">I19-I23</f>
         <v>11213</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" ref="J24" si="58">J19-J23</f>
+        <f t="shared" ref="J24" si="63">J19-J23</f>
         <v>15651</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:N24" si="59">K19-K23</f>
+        <f t="shared" ref="K24:N24" si="64">K19-K23</f>
         <v>16437</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>19361</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>21031</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>21885</v>
       </c>
       <c r="O24" s="11">
@@ -4125,19 +4386,19 @@
         <v>20094</v>
       </c>
       <c r="P24" s="11">
-        <f t="shared" ref="P24:R24" si="60">P19-P23</f>
+        <f t="shared" ref="P24:R24" si="65">P19-P23</f>
         <v>19453</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>17135</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>18160</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" ref="S24:W24" si="61">S19-S23</f>
+        <f t="shared" ref="S24:W24" si="66">S19-S23</f>
         <v>17415</v>
       </c>
       <c r="T24" s="11">
@@ -4145,51 +4406,51 @@
         <v>21838</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>21343</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>23697</v>
       </c>
       <c r="W24" s="11">
-        <f t="shared" si="61"/>
-        <v>80539</v>
+        <f t="shared" si="66"/>
+        <v>25472</v>
       </c>
       <c r="X24" s="11">
-        <f t="shared" ref="X24:Z24" si="62">X19-X23</f>
-        <v>0</v>
+        <f t="shared" ref="X24:Z24" si="67">X19-X23</f>
+        <v>27425</v>
       </c>
       <c r="Y24" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>27720.287000000004</v>
       </c>
       <c r="Z24" s="11">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>30718.096200000004</v>
       </c>
       <c r="AF24" s="3">
         <f>AF19-AF23</f>
         <v>16496</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" ref="AG24:AK24" si="63">AG19-AG23</f>
+        <f t="shared" ref="AG24:AK24" si="68">AG19-AG23</f>
         <v>19360</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>23716</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>28882</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>31392</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>35928</v>
       </c>
       <c r="AL24" s="3">
@@ -4197,44 +4458,44 @@
         <v>41224</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" ref="AM24:AO24" si="64">AM19-AM23</f>
+        <f t="shared" ref="AM24:AO24" si="69">AM19-AM23</f>
         <v>78714</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>74842</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" si="64"/>
-        <v>88257.54280000001</v>
+        <f t="shared" si="69"/>
+        <v>86260.090000000011</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" ref="AP24:AV24" si="65">AP19-AP23</f>
-        <v>104147.62094800003</v>
+        <f t="shared" ref="AP24:AV24" si="70">AP19-AP23</f>
+        <v>111335.38320000001</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" si="65"/>
-        <v>121310.90752228006</v>
+        <f t="shared" si="70"/>
+        <v>119934.80713200007</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" si="65"/>
-        <v>142023.82273220684</v>
+        <f t="shared" si="70"/>
+        <v>138904.02785756008</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="65"/>
-        <v>167167.23325358206</v>
+        <f t="shared" si="70"/>
+        <v>161730.43438042689</v>
       </c>
       <c r="AT24" s="3">
-        <f t="shared" si="65"/>
-        <v>191529.00562232599</v>
+        <f t="shared" si="70"/>
+        <v>184120.30914686079</v>
       </c>
       <c r="AU24" s="3">
-        <f t="shared" si="65"/>
-        <v>219718.25522998968</v>
+        <f t="shared" si="70"/>
+        <v>209910.07559642271</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" si="65"/>
-        <v>252379.120351102</v>
+        <f t="shared" si="70"/>
+        <v>239656.9744969715</v>
       </c>
     </row>
     <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4295,10 +4556,20 @@
       <c r="V25" s="11">
         <v>715</v>
       </c>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
+      <c r="W25" s="11">
+        <v>2843</v>
+      </c>
+      <c r="X25" s="11">
+        <v>126</v>
+      </c>
+      <c r="Y25" s="11">
+        <f>+X25</f>
+        <v>126</v>
+      </c>
+      <c r="Z25" s="11">
+        <f>+Y25</f>
+        <v>126</v>
+      </c>
       <c r="AF25" s="3">
         <v>763</v>
       </c>
@@ -4324,40 +4595,40 @@
         <v>12020</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" ref="AN25:AN27" si="66">SUM(O25:R25)</f>
+        <f t="shared" ref="AN25:AN27" si="71">SUM(O25:R25)</f>
         <v>-3514</v>
       </c>
       <c r="AO25" s="3">
         <f>+AN43*$AY$34</f>
-        <v>1295.53</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="3">
-        <f t="shared" ref="AP25:AV25" si="67">+AO43*$AY$34</f>
-        <v>2029.86519696</v>
+        <f>SUM(W25:Z25)</f>
+        <v>3221</v>
       </c>
       <c r="AQ25" s="3">
-        <f t="shared" si="67"/>
-        <v>2900.5205833486725</v>
+        <f t="shared" ref="AQ25:AV25" si="72">+AP43*$AY$34</f>
+        <v>1744.8034488000003</v>
       </c>
       <c r="AR25" s="3">
-        <f t="shared" si="67"/>
-        <v>3919.0542938148278</v>
+        <f t="shared" si="72"/>
+        <v>2742.5762555625611</v>
       </c>
       <c r="AS25" s="3">
-        <f t="shared" si="67"/>
-        <v>5115.7858854282058</v>
+        <f t="shared" si="72"/>
+        <v>3904.0784092901672</v>
       </c>
       <c r="AT25" s="3">
-        <f t="shared" si="67"/>
-        <v>6528.5066423680892</v>
+        <f t="shared" si="72"/>
+        <v>5262.2814141658473</v>
       </c>
       <c r="AU25" s="3">
-        <f t="shared" si="67"/>
-        <v>8152.5782429385808</v>
+        <f t="shared" si="72"/>
+        <v>6815.2186567662657</v>
       </c>
       <c r="AV25" s="3">
-        <f t="shared" si="67"/>
-        <v>10021.119077416592</v>
+        <f t="shared" si="72"/>
+        <v>8592.3660696424158</v>
       </c>
     </row>
     <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4365,26 +4636,26 @@
         <v>29</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26" si="68">C24+C25</f>
+        <f t="shared" ref="C26" si="73">C24+C25</f>
         <v>9843</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11">
-        <f t="shared" ref="G26" si="69">G24+G25</f>
+        <f t="shared" ref="G26" si="74">G24+G25</f>
         <v>7757</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" ref="H26" si="70">H24+H25</f>
+        <f t="shared" ref="H26" si="75">H24+H25</f>
         <v>8277</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" ref="I26" si="71">I24+I25</f>
+        <f t="shared" ref="I26" si="76">I24+I25</f>
         <v>13359</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" ref="J26" si="72">J24+J25</f>
+        <f t="shared" ref="J26" si="77">J24+J25</f>
         <v>18689</v>
       </c>
       <c r="K26" s="11">
@@ -4392,87 +4663,87 @@
         <v>21283</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" ref="L26:O26" si="73">L24+L25</f>
+        <f t="shared" ref="L26:O26" si="78">L24+L25</f>
         <v>21625</v>
       </c>
       <c r="M26" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>23064</v>
       </c>
       <c r="N26" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>24402</v>
       </c>
       <c r="O26" s="11">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>18934</v>
       </c>
       <c r="P26" s="11">
-        <f t="shared" ref="P26:Z26" si="74">P24+P25</f>
+        <f t="shared" ref="P26:Z26" si="79">P24+P25</f>
         <v>19014</v>
       </c>
       <c r="Q26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>16233</v>
       </c>
       <c r="R26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>17147</v>
       </c>
       <c r="S26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>18205</v>
       </c>
       <c r="T26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>21903</v>
       </c>
       <c r="U26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>21197</v>
       </c>
       <c r="V26" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>24412</v>
       </c>
       <c r="W26" s="11">
-        <f t="shared" si="74"/>
-        <v>80539</v>
+        <f t="shared" si="79"/>
+        <v>28315</v>
       </c>
       <c r="X26" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="79"/>
+        <v>27551</v>
       </c>
       <c r="Y26" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="79"/>
+        <v>27846.287000000004</v>
       </c>
       <c r="Z26" s="11">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f t="shared" si="79"/>
+        <v>30844.096200000004</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" ref="AF26:AK26" si="75">+AF24+AF25</f>
+        <f t="shared" ref="AF26:AK26" si="80">+AF24+AF25</f>
         <v>17259</v>
       </c>
       <c r="AG26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>19651</v>
       </c>
       <c r="AH26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>24150</v>
       </c>
       <c r="AI26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>29929</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>39984</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>41322</v>
       </c>
       <c r="AL26" s="3">
@@ -4480,44 +4751,44 @@
         <v>48082</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" ref="AM26:AO26" si="76">AM24+AM25</f>
+        <f t="shared" ref="AM26:AO26" si="81">AM24+AM25</f>
         <v>90734</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="81"/>
         <v>71328</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="76"/>
-        <v>89553.072800000009</v>
+        <f t="shared" si="81"/>
+        <v>86260.090000000011</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" ref="AP26:AV26" si="77">AP24+AP25</f>
-        <v>106177.48614496003</v>
+        <f t="shared" ref="AP26:AV26" si="82">AP24+AP25</f>
+        <v>114556.38320000001</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" si="77"/>
-        <v>124211.42810562873</v>
+        <f t="shared" si="82"/>
+        <v>121679.61058080007</v>
       </c>
       <c r="AR26" s="3">
-        <f t="shared" si="77"/>
-        <v>145942.87702602166</v>
+        <f t="shared" si="82"/>
+        <v>141646.60411312265</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="77"/>
-        <v>172283.01913901026</v>
+        <f t="shared" si="82"/>
+        <v>165634.51278971706</v>
       </c>
       <c r="AT26" s="3">
-        <f t="shared" si="77"/>
-        <v>198057.51226469409</v>
+        <f t="shared" si="82"/>
+        <v>189382.59056102665</v>
       </c>
       <c r="AU26" s="3">
-        <f t="shared" si="77"/>
-        <v>227870.83347292827</v>
+        <f t="shared" si="82"/>
+        <v>216725.29425318897</v>
       </c>
       <c r="AV26" s="3">
-        <f t="shared" si="77"/>
-        <v>262400.23942851857</v>
+        <f t="shared" si="82"/>
+        <v>248249.34056661392</v>
       </c>
     </row>
     <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4578,10 +4849,20 @@
       <c r="V27" s="11">
         <v>3725</v>
       </c>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
+      <c r="W27" s="11">
+        <v>4653</v>
+      </c>
+      <c r="X27" s="11">
+        <v>3932</v>
+      </c>
+      <c r="Y27" s="11">
+        <f>+Y26*0.1</f>
+        <v>2784.6287000000007</v>
+      </c>
+      <c r="Z27" s="11">
+        <f>+Z26*0.1</f>
+        <v>3084.4096200000004</v>
+      </c>
       <c r="AF27" s="3">
         <v>3639</v>
       </c>
@@ -4607,40 +4888,40 @@
         <v>14701</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>11356</v>
       </c>
       <c r="AO27" s="3">
         <f>+AO26*0.18</f>
-        <v>16119.553104000001</v>
+        <v>15526.816200000001</v>
       </c>
       <c r="AP27" s="3">
-        <f t="shared" ref="AP27:AV27" si="78">+AP26*0.18</f>
-        <v>19111.947506092805</v>
+        <f>SUM(W27:Z27)</f>
+        <v>14454.038320000001</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" si="78"/>
-        <v>22358.057059013172</v>
+        <f t="shared" ref="AQ27:AV27" si="83">+AQ26*0.18</f>
+        <v>21902.329904544011</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" si="78"/>
-        <v>26269.717864683898</v>
+        <f t="shared" si="83"/>
+        <v>25496.388740362076</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="78"/>
-        <v>31010.943445021843</v>
+        <f t="shared" si="83"/>
+        <v>29814.21230214907</v>
       </c>
       <c r="AT27" s="3">
-        <f t="shared" si="78"/>
-        <v>35650.352207644937</v>
+        <f t="shared" si="83"/>
+        <v>34088.866300984795</v>
       </c>
       <c r="AU27" s="3">
-        <f t="shared" si="78"/>
-        <v>41016.750025127083</v>
+        <f t="shared" si="83"/>
+        <v>39010.55296557401</v>
       </c>
       <c r="AV27" s="3">
-        <f t="shared" si="78"/>
-        <v>47232.043097133341</v>
+        <f t="shared" si="83"/>
+        <v>44684.881301990506</v>
       </c>
     </row>
     <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4648,26 +4929,26 @@
         <v>31</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28" si="79">C26-C27</f>
+        <f t="shared" ref="C28" si="84">C26-C27</f>
         <v>8354</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11">
-        <f t="shared" ref="G28" si="80">G26-G27</f>
+        <f t="shared" ref="G28" si="85">G26-G27</f>
         <v>6836</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ref="H28" si="81">H26-H27</f>
+        <f t="shared" ref="H28" si="86">H26-H27</f>
         <v>6959</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ref="I28" si="82">I26-I27</f>
+        <f t="shared" ref="I28" si="87">I26-I27</f>
         <v>11247</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" ref="J28" si="83">J26-J27</f>
+        <f t="shared" ref="J28" si="88">J26-J27</f>
         <v>15227</v>
       </c>
       <c r="K28" s="11">
@@ -4675,87 +4956,87 @@
         <v>17930</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" ref="L28:O28" si="84">L26-L27</f>
+        <f t="shared" ref="L28:O28" si="89">L26-L27</f>
         <v>18165</v>
       </c>
       <c r="M28" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>18936</v>
       </c>
       <c r="N28" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>20642</v>
       </c>
       <c r="O28" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>16436</v>
       </c>
       <c r="P28" s="11">
-        <f t="shared" ref="P28:Z28" si="85">P26-P27</f>
+        <f t="shared" ref="P28:Z28" si="90">P26-P27</f>
         <v>16002</v>
       </c>
       <c r="Q28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>13910</v>
       </c>
       <c r="R28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>13624</v>
       </c>
       <c r="S28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>15051</v>
       </c>
       <c r="T28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>18368</v>
       </c>
       <c r="U28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>19689</v>
       </c>
       <c r="V28" s="11">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>20687</v>
       </c>
       <c r="W28" s="11">
-        <f t="shared" si="85"/>
-        <v>80539</v>
+        <f t="shared" si="90"/>
+        <v>23662</v>
       </c>
       <c r="X28" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>23619</v>
       </c>
       <c r="Y28" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>25061.658300000003</v>
       </c>
       <c r="Z28" s="11">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>27759.686580000001</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" ref="AF28:AK28" si="86">+AF26-AF27</f>
+        <f t="shared" ref="AF28:AK28" si="91">+AF26-AF27</f>
         <v>13620</v>
       </c>
       <c r="AG28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>16348</v>
       </c>
       <c r="AH28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>19478</v>
       </c>
       <c r="AI28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>15398</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>35807</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="86"/>
+        <f t="shared" si="91"/>
         <v>36040</v>
       </c>
       <c r="AL28" s="3">
@@ -4763,272 +5044,272 @@
         <v>40269</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" ref="AM28:AO28" si="87">AM26-AM27</f>
+        <f t="shared" ref="AM28:AO28" si="92">AM26-AM27</f>
         <v>76033</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>59972</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" si="87"/>
-        <v>73433.519696000003</v>
+        <f t="shared" si="92"/>
+        <v>70733.27380000001</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" ref="AP28:AV28" si="88">AP26-AP27</f>
-        <v>87065.53863886722</v>
+        <f t="shared" ref="AP28:AV28" si="93">AP26-AP27</f>
+        <v>100102.34488</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" si="88"/>
-        <v>101853.37104661556</v>
+        <f t="shared" si="93"/>
+        <v>99777.280676256065</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="88"/>
-        <v>119673.15916133775</v>
+        <f t="shared" si="93"/>
+        <v>116150.21537276058</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="88"/>
-        <v>141272.07569398842</v>
+        <f t="shared" si="93"/>
+        <v>135820.30048756799</v>
       </c>
       <c r="AT28" s="3">
-        <f t="shared" si="88"/>
-        <v>162407.16005704916</v>
+        <f t="shared" si="93"/>
+        <v>155293.72426004184</v>
       </c>
       <c r="AU28" s="3">
-        <f t="shared" si="88"/>
-        <v>186854.08344780118</v>
+        <f t="shared" si="93"/>
+        <v>177714.74128761498</v>
       </c>
       <c r="AV28" s="3">
-        <f t="shared" si="88"/>
-        <v>215168.19633138523</v>
+        <f t="shared" si="93"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="AW28" s="3">
         <f>+AV28*(1+$AY$32)</f>
-        <v>213016.51436807137</v>
+        <v>203564.45926462341</v>
       </c>
       <c r="AX28" s="3">
-        <f t="shared" ref="AX28:DA28" si="89">+AW28*(1+$AY$32)</f>
-        <v>210886.34922439064</v>
+        <f t="shared" ref="AX28:DA28" si="94">+AW28*(1+$AY$32)</f>
+        <v>203564.45926462341</v>
       </c>
       <c r="AY28" s="3">
-        <f t="shared" si="89"/>
-        <v>208777.48573214674</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="AZ28" s="3">
-        <f t="shared" si="89"/>
-        <v>206689.71087482528</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BA28" s="3">
-        <f t="shared" si="89"/>
-        <v>204622.81376607702</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BB28" s="3">
-        <f t="shared" si="89"/>
-        <v>202576.58562841624</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BC28" s="3">
-        <f t="shared" si="89"/>
-        <v>200550.81977213209</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BD28" s="3">
-        <f t="shared" si="89"/>
-        <v>198545.31157441076</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BE28" s="3">
-        <f t="shared" si="89"/>
-        <v>196559.85845866665</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BF28" s="3">
-        <f t="shared" si="89"/>
-        <v>194594.25987407999</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BG28" s="3">
-        <f t="shared" si="89"/>
-        <v>192648.31727533918</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BH28" s="3">
-        <f t="shared" si="89"/>
-        <v>190721.8341025858</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BI28" s="3">
-        <f t="shared" si="89"/>
-        <v>188814.61576155992</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BJ28" s="3">
-        <f t="shared" si="89"/>
-        <v>186926.46960394431</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BK28" s="3">
-        <f t="shared" si="89"/>
-        <v>185057.20490790487</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BL28" s="3">
-        <f t="shared" si="89"/>
-        <v>183206.63285882582</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BM28" s="3">
-        <f t="shared" si="89"/>
-        <v>181374.56653023756</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BN28" s="3">
-        <f t="shared" si="89"/>
-        <v>179560.82086493517</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BO28" s="3">
-        <f t="shared" si="89"/>
-        <v>177765.21265628582</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BP28" s="3">
-        <f t="shared" si="89"/>
-        <v>175987.56052972295</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BQ28" s="3">
-        <f t="shared" si="89"/>
-        <v>174227.68492442573</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BR28" s="3">
-        <f t="shared" si="89"/>
-        <v>172485.40807518148</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BS28" s="3">
-        <f t="shared" si="89"/>
-        <v>170760.55399442965</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BT28" s="3">
-        <f t="shared" si="89"/>
-        <v>169052.94845448536</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BU28" s="3">
-        <f t="shared" si="89"/>
-        <v>167362.41896994051</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BV28" s="3">
-        <f t="shared" si="89"/>
-        <v>165688.79478024109</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BW28" s="3">
-        <f t="shared" si="89"/>
-        <v>164031.90683243869</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BX28" s="3">
-        <f t="shared" si="89"/>
-        <v>162391.58776411429</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BY28" s="3">
-        <f t="shared" si="89"/>
-        <v>160767.67188647314</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="BZ28" s="3">
-        <f t="shared" si="89"/>
-        <v>159159.9951676084</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CA28" s="3">
-        <f t="shared" si="89"/>
-        <v>157568.39521593231</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CB28" s="3">
-        <f t="shared" si="89"/>
-        <v>155992.71126377297</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CC28" s="3">
-        <f t="shared" si="89"/>
-        <v>154432.78415113525</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CD28" s="3">
-        <f t="shared" si="89"/>
-        <v>152888.4563096239</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CE28" s="3">
-        <f t="shared" si="89"/>
-        <v>151359.57174652765</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CF28" s="3">
-        <f t="shared" si="89"/>
-        <v>149845.97602906238</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CG28" s="3">
-        <f t="shared" si="89"/>
-        <v>148347.51626877175</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CH28" s="3">
-        <f t="shared" si="89"/>
-        <v>146864.04110608404</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CI28" s="3">
-        <f t="shared" si="89"/>
-        <v>145395.40069502321</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CJ28" s="3">
-        <f t="shared" si="89"/>
-        <v>143941.44668807299</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CK28" s="3">
-        <f t="shared" si="89"/>
-        <v>142502.03222119226</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CL28" s="3">
-        <f t="shared" si="89"/>
-        <v>141077.01189898033</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CM28" s="3">
-        <f t="shared" si="89"/>
-        <v>139666.24177999052</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CN28" s="3">
-        <f t="shared" si="89"/>
-        <v>138269.57936219062</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CO28" s="3">
-        <f t="shared" si="89"/>
-        <v>136886.88356856871</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CP28" s="3">
-        <f t="shared" si="89"/>
-        <v>135518.01473288302</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CQ28" s="3">
-        <f t="shared" si="89"/>
-        <v>134162.8345855542</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CR28" s="3">
-        <f t="shared" si="89"/>
-        <v>132821.20623969866</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CS28" s="3">
-        <f t="shared" si="89"/>
-        <v>131492.99417730168</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CT28" s="3">
-        <f t="shared" si="89"/>
-        <v>130178.06423552865</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CU28" s="3">
-        <f t="shared" si="89"/>
-        <v>128876.28359317337</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CV28" s="3">
-        <f t="shared" si="89"/>
-        <v>127587.52075724164</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CW28" s="3">
-        <f t="shared" si="89"/>
-        <v>126311.64554966922</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CX28" s="3">
-        <f t="shared" si="89"/>
-        <v>125048.52909417253</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CY28" s="3">
-        <f t="shared" si="89"/>
-        <v>123798.0438032308</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="CZ28" s="3">
-        <f t="shared" si="89"/>
-        <v>122560.0633651985</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
       <c r="DA28" s="3">
-        <f t="shared" si="89"/>
-        <v>121334.4627315465</v>
+        <f t="shared" si="94"/>
+        <v>203564.45926462341</v>
       </c>
     </row>
     <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5036,42 +5317,42 @@
         <v>32</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29" si="90">C28/C30</f>
+        <f t="shared" ref="C29" si="95">C28/C30</f>
         <v>11.919318455824756</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
-        <f t="shared" ref="G29" si="91">G28/G30</f>
+        <f t="shared" ref="G29" si="96">G28/G30</f>
         <v>9.8748026411774639</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29" si="92">H28/H30</f>
+        <f t="shared" ref="H29" si="97">H28/H30</f>
         <v>10.129194904399265</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" ref="I29" si="93">I28/I30</f>
+        <f t="shared" ref="I29" si="98">I28/I30</f>
         <v>16.398605528022852</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" ref="J29" si="94">J28/J30</f>
+        <f t="shared" ref="J29" si="99">J28/J30</f>
         <v>22.295301836540162</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" ref="K29:N29" si="95">K28/K30</f>
+        <f t="shared" ref="K29:N29" si="100">K28/K30</f>
         <v>26.287585896482916</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>27.990344690984287</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="95"/>
+        <f t="shared" si="100"/>
         <v>30.69474329100823</v>
       </c>
       <c r="O29" s="14">
@@ -5079,48 +5360,48 @@
         <v>24.621339792764896</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" ref="P29:Z29" si="96">P28/P30</f>
+        <f t="shared" ref="P29:Z29" si="101">P28/P30</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>1.0620752844162786</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>1.0522901058160192</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>1.1737502924432659</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>1.4544302795154012</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>1.5508034026465027</v>
       </c>
       <c r="V29" s="14">
-        <f t="shared" si="96"/>
+        <f t="shared" si="101"/>
         <v>1.6415648309792097</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" si="96"/>
-        <v>6.3909696873512143</v>
+        <f t="shared" si="101"/>
+        <v>1.8888800191586175</v>
       </c>
       <c r="X29" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="101"/>
+        <v>1.8902761104441776</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="101"/>
+        <v>2.0057349579831936</v>
       </c>
       <c r="Z29" s="14">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="101"/>
+        <v>2.2216635918367347</v>
       </c>
       <c r="AL29" s="17">
         <f>AL28/AL30</f>
@@ -5136,35 +5417,35 @@
       </c>
       <c r="AO29" s="17">
         <f>AO28/AO30</f>
-        <v>5.6080380594150139</v>
+        <v>5.5750363586206904</v>
       </c>
       <c r="AP29" s="17">
-        <f t="shared" ref="AP29:AV29" si="97">AP28/AP30</f>
-        <v>6.6491005248224839</v>
+        <f t="shared" ref="AP29:AV29" si="102">AP28/AP30</f>
+        <v>8.0113921472589045</v>
       </c>
       <c r="AQ29" s="17">
-        <f t="shared" si="97"/>
-        <v>7.778431207897734</v>
+        <f t="shared" si="102"/>
+        <v>7.985376604742382</v>
       </c>
       <c r="AR29" s="17">
-        <f t="shared" si="97"/>
-        <v>9.1393090518548288</v>
+        <f t="shared" si="102"/>
+        <v>9.2957355240304587</v>
       </c>
       <c r="AS29" s="17">
-        <f t="shared" si="97"/>
-        <v>10.788794824274246</v>
+        <f t="shared" si="102"/>
+        <v>10.869972027816566</v>
       </c>
       <c r="AT29" s="17">
-        <f t="shared" si="97"/>
-        <v>12.402858238198393</v>
+        <f t="shared" si="102"/>
+        <v>12.428469328534762</v>
       </c>
       <c r="AU29" s="17">
-        <f t="shared" si="97"/>
-        <v>14.269843197907582</v>
+        <f t="shared" si="102"/>
+        <v>14.222868450389354</v>
       </c>
       <c r="AV29" s="17">
-        <f t="shared" si="97"/>
-        <v>16.432161214626063</v>
+        <f t="shared" si="102"/>
+        <v>16.291673410534088</v>
       </c>
     </row>
     <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5226,20 +5507,18 @@
         <v>12602</v>
       </c>
       <c r="W30" s="11">
-        <f>V30</f>
-        <v>12602</v>
+        <v>12527</v>
       </c>
       <c r="X30" s="11">
-        <f>W30</f>
-        <v>12602</v>
+        <v>12495</v>
       </c>
       <c r="Y30" s="11">
         <f>X30</f>
-        <v>12602</v>
+        <v>12495</v>
       </c>
       <c r="Z30" s="11">
         <f>Y30</f>
-        <v>12602</v>
+        <v>12495</v>
       </c>
       <c r="AG30" s="3">
         <v>687.34799999999996</v>
@@ -5258,36 +5537,36 @@
         <v>13094.333333333334</v>
       </c>
       <c r="AO30" s="3">
-        <f>+AN30</f>
-        <v>13094.333333333334</v>
+        <f>AVERAGE(S30:V30)</f>
+        <v>12687.5</v>
       </c>
       <c r="AP30" s="3">
-        <f t="shared" ref="AP30:AV30" si="98">+AO30</f>
-        <v>13094.333333333334</v>
+        <f>Z30</f>
+        <v>12495</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" si="98"/>
-        <v>13094.333333333334</v>
+        <f t="shared" ref="AQ30:AV30" si="103">+AP30</f>
+        <v>12495</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" si="98"/>
-        <v>13094.333333333334</v>
+        <f t="shared" si="103"/>
+        <v>12495</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="98"/>
-        <v>13094.333333333334</v>
+        <f t="shared" si="103"/>
+        <v>12495</v>
       </c>
       <c r="AT30" s="3">
-        <f t="shared" si="98"/>
-        <v>13094.333333333334</v>
+        <f t="shared" si="103"/>
+        <v>12495</v>
       </c>
       <c r="AU30" s="3">
-        <f t="shared" si="98"/>
-        <v>13094.333333333334</v>
+        <f t="shared" si="103"/>
+        <v>12495</v>
       </c>
       <c r="AV30" s="3">
-        <f t="shared" si="98"/>
-        <v>13094.333333333334</v>
+        <f t="shared" si="103"/>
+        <v>12495</v>
       </c>
     </row>
     <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -5303,19 +5582,19 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
-        <f t="shared" ref="K32:L32" si="99">K16/G16-1</f>
+        <f t="shared" ref="K32:L32" si="104">K16/G16-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>0.61579235971486024</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" ref="M32" si="100">M16/I16-1</f>
+        <f t="shared" ref="M32" si="105">M16/I16-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" ref="N32" si="101">N16/J16-1</f>
+        <f t="shared" ref="N32" si="106">N16/J16-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="O32" s="16">
@@ -5323,11 +5602,11 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" ref="P32:T32" si="102">P16/L16-1</f>
+        <f t="shared" ref="P32:T32" si="107">P16/L16-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>6.1027672840074931E-2</v>
       </c>
       <c r="R32" s="16">
@@ -5339,111 +5618,111 @@
         <v>2.6113422828660138E-2</v>
       </c>
       <c r="T32" s="16">
-        <f t="shared" si="102"/>
+        <f t="shared" si="107"/>
         <v>7.0589079428858392E-2</v>
       </c>
       <c r="U32" s="16">
-        <f t="shared" ref="U32:Z32" si="103">U16/Q16-1</f>
+        <f t="shared" ref="U32:Z32" si="108">U16/Q16-1</f>
         <v>0.11001273664100042</v>
       </c>
       <c r="V32" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>0.13494108983799702</v>
       </c>
       <c r="W32" s="16">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>0.15406880937710454</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="103"/>
-        <v>-1</v>
+        <f t="shared" si="108"/>
+        <v>0.13589083695244231</v>
       </c>
       <c r="Y32" s="16">
-        <f t="shared" si="103"/>
-        <v>-1</v>
+        <f t="shared" si="108"/>
+        <v>0.12545669096266954</v>
       </c>
       <c r="Z32" s="16">
-        <f t="shared" si="103"/>
-        <v>-1</v>
+        <f t="shared" si="108"/>
+        <v>0.11879144942648612</v>
       </c>
       <c r="AA32" s="16"/>
       <c r="AE32" s="18">
-        <f t="shared" ref="AE32:AN32" si="104">AE16/AD16-1</f>
+        <f t="shared" ref="AE32:AN32" si="109">AE16/AD16-1</f>
         <v>0.2059123786355046</v>
       </c>
       <c r="AF32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.18880023055170292</v>
       </c>
       <c r="AG32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.13617975485219924</v>
       </c>
       <c r="AH32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.20380322447292265</v>
       </c>
       <c r="AI32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.22801090038993266</v>
       </c>
       <c r="AJ32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.23421586757475987</v>
       </c>
       <c r="AK32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.18300089899794614</v>
       </c>
       <c r="AL32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.12770532012826141</v>
       </c>
       <c r="AM32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="AN32" s="18">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="AO32" s="18">
-        <f t="shared" ref="AO32:AV32" si="105">AO16/AN16-1</f>
-        <v>9.9438826740584574E-2</v>
+        <f t="shared" ref="AO32:AV32" si="110">AO16/AN16-1</f>
+        <v>8.6827702272695095E-2</v>
       </c>
       <c r="AP32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11590861782999839</v>
+        <f t="shared" si="110"/>
+        <v>0.13261332361724709</v>
       </c>
       <c r="AQ32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11152619526934493</v>
+        <f t="shared" si="110"/>
+        <v>0.10412638362971083</v>
       </c>
       <c r="AR32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11781371393947904</v>
+        <f t="shared" si="110"/>
+        <v>0.11026139139160085</v>
       </c>
       <c r="AS32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.12472714817761998</v>
+        <f t="shared" si="110"/>
+        <v>0.11644684280285333</v>
       </c>
       <c r="AT32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.10893235849757321</v>
+        <f t="shared" si="110"/>
+        <v>0.1036031983466168</v>
       </c>
       <c r="AU32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11180845813012263</v>
+        <f t="shared" si="110"/>
+        <v>0.10631481514307928</v>
       </c>
       <c r="AV32" s="18">
-        <f t="shared" si="105"/>
-        <v>0.11473876239429304</v>
+        <f t="shared" si="110"/>
+        <v>0.10909127682064845</v>
       </c>
       <c r="AX32" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AY32" s="18">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -5485,7 +5764,9 @@
       <c r="W33" s="16">
         <v>0.16</v>
       </c>
-      <c r="X33" s="16"/>
+      <c r="X33" s="16">
+        <v>0.15</v>
+      </c>
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
       <c r="AN33" s="18">
@@ -5494,8 +5775,8 @@
       <c r="AX33" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="AY33" s="18">
-        <v>0.08</v>
+      <c r="AY33" s="21">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5511,19 +5792,19 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15">
-        <f t="shared" ref="K34" si="106">+K14/G14-1</f>
+        <f t="shared" ref="K34" si="111">+K14/G14-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" ref="L34:N34" si="107">+L14/H14-1</f>
+        <f t="shared" ref="L34:N34" si="112">+L14/H14-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="107"/>
+        <f t="shared" si="112"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O34" s="15">
@@ -5543,78 +5824,87 @@
         <v>-1.6096625943973542E-2</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34:V34" si="108">+S14/O14-1</f>
+        <f t="shared" ref="S34:V34" si="113">+S14/O14-1</f>
         <v>1.8703619566863505E-2</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>4.7654157143208309E-2</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.11348289031083225</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="113"/>
         <v>0.12712421368885551</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" ref="W34" si="109">+W14/S14-1</f>
+        <f t="shared" ref="W34:X34" si="114">+W14/S14-1</f>
         <v>0.14363586808394668</v>
       </c>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
+      <c r="X34" s="15">
+        <f t="shared" si="114"/>
+        <v>0.13796096462419061</v>
+      </c>
+      <c r="Y34" s="15">
+        <f t="shared" ref="Y34" si="115">+Y14/U14-1</f>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="Z34" s="15">
+        <f t="shared" ref="Z34" si="116">+Z14/V14-1</f>
+        <v>0.1100000000000001</v>
+      </c>
       <c r="AJ34" s="5">
-        <f t="shared" ref="AJ34:AN34" si="110">+AJ14/AI14-1</f>
+        <f t="shared" ref="AJ34:AN34" si="117">+AJ14/AI14-1</f>
         <v>0.22181318130380601</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.15028840742824978</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>6.0612546501554343E-2</v>
       </c>
       <c r="AM34" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>0.43136783840402826</v>
       </c>
       <c r="AN34" s="5">
-        <f t="shared" si="110"/>
+        <f t="shared" si="117"/>
         <v>9.0627118985438182E-2</v>
       </c>
       <c r="AO34" s="5">
         <f>+AO14/AN14-1</f>
+        <v>7.7457679285934056E-2</v>
+      </c>
+      <c r="AP34" s="15">
+        <f t="shared" ref="AP34:AV34" si="118">+AP14/AO14-1</f>
+        <v>0.12456542480560828</v>
+      </c>
+      <c r="AQ34" s="15">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AP34" s="15">
-        <f t="shared" ref="AP34:AV34" si="111">+AP14/AO14-1</f>
+      <c r="AR34" s="15">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AQ34" s="15">
-        <f t="shared" si="111"/>
+      <c r="AS34" s="15">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AR34" s="15">
-        <f t="shared" si="111"/>
+      <c r="AT34" s="15">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AS34" s="15">
-        <f t="shared" si="111"/>
+      <c r="AU34" s="15">
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AT34" s="15">
-        <f t="shared" si="111"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AU34" s="15">
-        <f t="shared" si="111"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="AV34" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="118"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AX34" s="5" t="s">
@@ -5637,31 +5927,31 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15">
-        <f t="shared" ref="K35" si="112">+K13/G13-1</f>
+        <f t="shared" ref="K35" si="119">+K13/G13-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" ref="L35:Q35" si="113">+L13/H13-1</f>
+        <f t="shared" ref="L35:Q35" si="120">+L13/H13-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="120"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="R35" s="15">
@@ -5669,42 +5959,51 @@
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" ref="S35:V35" si="114">+S13/O13-1</f>
+        <f t="shared" ref="S35:V35" si="121">+S13/O13-1</f>
         <v>-2.5622361333527466E-2</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>4.4277929155313256E-2</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>0.12459340970159816</v>
       </c>
       <c r="V35" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>0.15534346351877426</v>
       </c>
       <c r="W35" s="15">
-        <f t="shared" ref="W35" si="115">+W13/S13-1</f>
+        <f t="shared" ref="W35:X35" si="122">+W13/S13-1</f>
         <v>0.20872553414014638</v>
       </c>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
+      <c r="X35" s="15">
+        <f t="shared" si="122"/>
+        <v>0.13020221787345077</v>
+      </c>
+      <c r="Y35" s="15">
+        <f t="shared" ref="Y35" si="123">+Y13/U13-1</f>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="Z35" s="15">
+        <f t="shared" ref="Z35" si="124">+Z13/V13-1</f>
+        <v>0.1100000000000001</v>
+      </c>
       <c r="AJ35" s="5">
-        <f t="shared" ref="AJ35:AM35" si="116">+AJ13/AI13-1</f>
+        <f t="shared" ref="AJ35:AM35" si="125">+AJ13/AI13-1</f>
         <v>0.36871165644171788</v>
       </c>
       <c r="AK35" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="125"/>
         <v>0.35804571940833707</v>
       </c>
       <c r="AL35" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="125"/>
         <v>0.30516865799722748</v>
       </c>
       <c r="AM35" s="5">
-        <f t="shared" si="116"/>
+        <f t="shared" si="125"/>
         <v>0.45888124620675708</v>
       </c>
       <c r="AN35" s="5">
@@ -5713,34 +6012,34 @@
       </c>
       <c r="AO35" s="5">
         <f>+AO13/AN13-1</f>
+        <v>7.7522825975447018E-2</v>
+      </c>
+      <c r="AP35" s="15">
+        <f t="shared" ref="AP35:AV35" si="126">+AP13/AO13-1</f>
+        <v>0.13588448111710583</v>
+      </c>
+      <c r="AQ35" s="15">
+        <f t="shared" si="126"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AP35" s="15">
-        <f t="shared" ref="AP35:AV35" si="117">+AP13/AO13-1</f>
+      <c r="AR35" s="15">
+        <f t="shared" si="126"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AQ35" s="15">
-        <f t="shared" si="117"/>
+      <c r="AS35" s="15">
+        <f t="shared" si="126"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AR35" s="15">
-        <f t="shared" si="117"/>
+      <c r="AT35" s="15">
+        <f t="shared" si="126"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AS35" s="15">
-        <f t="shared" si="117"/>
+      <c r="AU35" s="15">
+        <f t="shared" si="126"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AT35" s="15">
-        <f t="shared" si="117"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="AU35" s="15">
-        <f t="shared" si="117"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="AV35" s="15">
-        <f t="shared" si="117"/>
+        <f t="shared" si="126"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AX35" s="5" t="s">
@@ -5748,7 +6047,7 @@
       </c>
       <c r="AY35" s="3">
         <f>NPV(AY33,AO28:DA28)+Main!L5-Main!L6</f>
-        <v>2142049.8680530442</v>
+        <v>2531459.5611554091</v>
       </c>
     </row>
     <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5764,19 +6063,19 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15">
-        <f t="shared" ref="K36" si="118">K15/G15-1</f>
+        <f t="shared" ref="K36" si="127">K15/G15-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" ref="L36" si="119">L15/H15-1</f>
+        <f t="shared" ref="L36" si="128">L15/H15-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" ref="M36" si="120">M15/I15-1</f>
+        <f t="shared" ref="M36" si="129">M15/I15-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" ref="N36" si="121">N15/J15-1</f>
+        <f t="shared" ref="N36" si="130">N15/J15-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O36" s="15">
@@ -5784,11 +6083,11 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" ref="P36:Q36" si="122">P15/L15-1</f>
+        <f t="shared" ref="P36:Q36" si="131">P15/L15-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="131"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="R36" s="15">
@@ -5796,86 +6095,95 @@
         <v>-2.2507204610951015E-2</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" ref="S36:V36" si="123">S15/O15-1</f>
+        <f t="shared" ref="S36:V36" si="132">S15/O15-1</f>
         <v>7.9548412285268544E-3</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="132"/>
         <v>5.4804984007256419E-2</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="132"/>
         <v>0.1076787721785033</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="123"/>
+        <f t="shared" si="132"/>
         <v>0.12490049824582083</v>
       </c>
       <c r="W36" s="15">
-        <f t="shared" ref="W36" si="124">W15/S15-1</f>
+        <f t="shared" ref="W36:X36" si="133">W15/S15-1</f>
         <v>0.13616629815529113</v>
       </c>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
+      <c r="X36" s="15">
+        <f t="shared" si="133"/>
+        <v>0.11530512182243347</v>
+      </c>
+      <c r="Y36" s="15">
+        <f t="shared" ref="Y36" si="134">Y15/U15-1</f>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="Z36" s="15">
+        <f t="shared" ref="Z36" si="135">Z15/V15-1</f>
+        <v>0.1100000000000001</v>
+      </c>
       <c r="AJ36" s="5">
-        <f t="shared" ref="AJ36:AN36" si="125">+AJ15/AI15-1</f>
+        <f t="shared" ref="AJ36:AN36" si="136">+AJ15/AI15-1</f>
         <v>0.22568104346846218</v>
       </c>
       <c r="AK36" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>0.16319604057491333</v>
       </c>
       <c r="AL36" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>0.11071957846204517</v>
       </c>
       <c r="AM36" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>0.40853915260770313</v>
       </c>
       <c r="AN36" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="136"/>
         <v>6.7355986005919188E-2</v>
       </c>
       <c r="AO36" s="5">
         <f>+AO15/AN15-1</f>
-        <v>7.7159919219967898E-2</v>
+        <v>7.5001577735003711E-2</v>
       </c>
       <c r="AP36" s="15">
-        <f t="shared" ref="AP36:AV36" si="126">+AP15/AO15-1</f>
-        <v>7.8052815516631568E-2</v>
+        <f t="shared" ref="AP36:AV36" si="137">+AP15/AO15-1</f>
+        <v>0.11723900448736546</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" si="126"/>
-        <v>7.8926787613141869E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.7601197744454176E-2</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" si="126"/>
-        <v>7.9780908994353084E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.8481547127407847E-2</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" si="126"/>
-        <v>8.0614365686686451E-2</v>
+        <f t="shared" si="137"/>
+        <v>7.9342678548864454E-2</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" si="126"/>
-        <v>8.1426456360157662E-2</v>
+        <f t="shared" si="137"/>
+        <v>8.0183726308130643E-2</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" si="126"/>
-        <v>8.2216591293572172E-2</v>
+        <f t="shared" si="137"/>
+        <v>8.1003935914955694E-2</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" si="126"/>
-        <v>8.2984290295815111E-2</v>
+        <f t="shared" si="137"/>
+        <v>8.1802663671167286E-2</v>
       </c>
       <c r="AX36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AY36" s="1">
         <f>+AY35/Main!L3</f>
-        <v>168.71848362106525</v>
+        <v>199.39032460266296</v>
       </c>
     </row>
     <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5891,19 +6199,19 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15">
-        <f t="shared" ref="K37" si="127">K10/G10-1</f>
+        <f t="shared" ref="K37" si="138">K10/G10-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="128">L10/H10-1</f>
+        <f t="shared" ref="L37" si="139">L10/H10-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" ref="M37" si="129">M10/I10-1</f>
+        <f t="shared" ref="M37" si="140">M10/I10-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" ref="N37" si="130">N10/J10-1</f>
+        <f t="shared" ref="N37" si="141">N10/J10-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O37" s="15">
@@ -5911,11 +6219,11 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:Q37" si="131">P10/L10-1</f>
+        <f t="shared" ref="P37:Q37" si="142">P10/L10-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q37" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="142"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="R37" s="15">
@@ -5923,227 +6231,258 @@
         <v>0.3201588160981772</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" ref="S37:V37" si="132">S10/O10-1</f>
+        <f t="shared" ref="S37:V37" si="143">S10/O10-1</f>
         <v>0.28053599037965982</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>0.2796367112810707</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>0.22466511357018049</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="143"/>
         <v>0.25659603554340404</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37" si="133">W10/S10-1</f>
+        <f t="shared" ref="W37:X37" si="144">W10/S10-1</f>
         <v>0.28441105446740012</v>
       </c>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
+      <c r="X37" s="15">
+        <f t="shared" si="144"/>
+        <v>0.28838251774374291</v>
+      </c>
+      <c r="Y37" s="15">
+        <f t="shared" ref="Y37" si="145">Y10/U10-1</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="Z37" s="15">
+        <f t="shared" ref="Z37" si="146">Z10/V10-1</f>
+        <v>0.29000000000000004</v>
+      </c>
       <c r="AJ37" s="5">
-        <f t="shared" ref="AJ37:AN37" si="134">+AJ10/AI10-1</f>
+        <f t="shared" ref="AJ37:AN37" si="147">+AJ10/AI10-1</f>
         <v>0.43934911242603558</v>
       </c>
       <c r="AK37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="147"/>
         <v>0.52757793764988015</v>
       </c>
       <c r="AL37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="147"/>
         <v>0.46434178066831122</v>
       </c>
       <c r="AM37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="147"/>
         <v>0.47070985527222597</v>
       </c>
       <c r="AN37" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="147"/>
         <v>0.36832239925023424</v>
       </c>
       <c r="AO37" s="5">
         <f>+AO10/AN10-1</f>
-        <v>0.39999999999999991</v>
+        <v>0.25905631659056327</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" ref="AP37:AV37" si="135">+AP10/AO10-1</f>
-        <v>0.39999999999999991</v>
+        <f t="shared" ref="AP37:AV37" si="148">+AP10/AO10-1</f>
+        <v>0.28834834381044505</v>
       </c>
       <c r="AQ37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AR37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AS37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AT37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AU37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AV37" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="148"/>
         <v>0.19999999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
+      <c r="AX37" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15">
-        <f t="shared" ref="G38:H38" si="136">G19/G16</f>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16">
+        <f t="shared" ref="G38:H38" si="149">G19/G16</f>
         <v>0.53881289632887097</v>
       </c>
-      <c r="H38" s="15">
-        <f t="shared" si="136"/>
+      <c r="H38" s="16">
+        <f t="shared" si="149"/>
         <v>0.51554952085019712</v>
       </c>
-      <c r="I38" s="15">
-        <f t="shared" ref="I38" si="137">I19/I16</f>
+      <c r="I38" s="16">
+        <f t="shared" ref="I38" si="150">I19/I16</f>
         <v>0.54265479825872265</v>
       </c>
-      <c r="J38" s="15">
-        <f t="shared" ref="J38" si="138">J19/J16</f>
+      <c r="J38" s="16">
+        <f t="shared" ref="J38" si="151">J19/J16</f>
         <v>0.54163590987380927</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="16">
         <f>K19/K16</f>
         <v>0.56425136493473627</v>
       </c>
-      <c r="L38" s="15">
-        <f t="shared" ref="L38:O38" si="139">L19/L16</f>
+      <c r="L38" s="16">
+        <f t="shared" ref="L38:O38" si="152">L19/L16</f>
         <v>0.57616354234001288</v>
       </c>
-      <c r="M38" s="15">
-        <f t="shared" si="139"/>
+      <c r="M38" s="16">
+        <f t="shared" si="152"/>
         <v>0.57583156730857832</v>
       </c>
-      <c r="N38" s="15">
-        <f t="shared" si="139"/>
+      <c r="N38" s="16">
+        <f t="shared" si="152"/>
         <v>0.56205774975107869</v>
       </c>
-      <c r="O38" s="15">
-        <f t="shared" si="139"/>
+      <c r="O38" s="16">
+        <f t="shared" si="152"/>
         <v>0.5647909896928438</v>
       </c>
-      <c r="P38" s="15">
-        <f t="shared" ref="P38:Q38" si="140">P19/P16</f>
+      <c r="P38" s="16">
+        <f t="shared" ref="P38:Q38" si="153">P19/P16</f>
         <v>0.56799885197675248</v>
       </c>
-      <c r="Q38" s="15">
-        <f t="shared" si="140"/>
+      <c r="Q38" s="16">
+        <f t="shared" si="153"/>
         <v>0.54903606785156023</v>
       </c>
-      <c r="R38" s="15">
+      <c r="R38" s="16">
         <f>R19/R16</f>
         <v>0.53526719966337055</v>
       </c>
-      <c r="S38" s="15">
-        <f t="shared" ref="S38:V38" si="141">S19/S16</f>
+      <c r="S38" s="16">
+        <f t="shared" ref="S38:V38" si="154">S19/S16</f>
         <v>0.56135096794531936</v>
       </c>
-      <c r="T38" s="15">
-        <f t="shared" si="141"/>
+      <c r="T38" s="16">
+        <f t="shared" si="154"/>
         <v>0.5721945204010509</v>
       </c>
-      <c r="U38" s="15">
-        <f t="shared" si="141"/>
+      <c r="U38" s="16">
+        <f t="shared" si="154"/>
         <v>0.56672708069836886</v>
       </c>
-      <c r="V38" s="15">
-        <f t="shared" si="141"/>
+      <c r="V38" s="16">
+        <f t="shared" si="154"/>
         <v>0.56465067778936395</v>
       </c>
-      <c r="W38" s="15">
-        <f t="shared" ref="W38" si="142">W19/W16</f>
-        <v>1</v>
-      </c>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AF38" s="5">
-        <f t="shared" ref="AF38" si="143">AF19/AF16</f>
+      <c r="W38" s="16">
+        <f t="shared" ref="W38:Z38" si="155">W19/W16</f>
+        <v>0.58142018152696207</v>
+      </c>
+      <c r="X38" s="16">
+        <f t="shared" si="155"/>
+        <v>0.58099879634655782</v>
+      </c>
+      <c r="Y38" s="16">
+        <f t="shared" si="155"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Z38" s="16">
+        <f t="shared" si="155"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AF38" s="18">
+        <f t="shared" ref="AF38" si="156">AF19/AF16</f>
         <v>0.6107483219951213</v>
       </c>
-      <c r="AG38" s="5">
-        <f t="shared" ref="AG38" si="144">AG19/AG16</f>
+      <c r="AG38" s="18">
+        <f t="shared" ref="AG38" si="157">AG19/AG16</f>
         <v>0.62442491565429592</v>
       </c>
-      <c r="AH38" s="5">
-        <f t="shared" ref="AH38:AI38" si="145">AH19/AH16</f>
+      <c r="AH38" s="18">
+        <f t="shared" ref="AH38:AI38" si="158">AH19/AH16</f>
         <v>0.61075416518964909</v>
       </c>
-      <c r="AI38" s="5">
-        <f t="shared" si="145"/>
+      <c r="AI38" s="18">
+        <f t="shared" si="158"/>
         <v>0.58880519597672631</v>
       </c>
-      <c r="AJ38" s="5">
-        <f t="shared" ref="AJ38:AL38" si="146">AJ19/AJ16</f>
+      <c r="AJ38" s="18">
+        <f t="shared" ref="AJ38:AL38" si="159">AJ19/AJ16</f>
         <v>0.5647607422945643</v>
       </c>
-      <c r="AK38" s="5">
-        <f t="shared" si="146"/>
+      <c r="AK38" s="18">
+        <f t="shared" si="159"/>
         <v>0.5558054331910266</v>
       </c>
-      <c r="AL38" s="5">
-        <f t="shared" si="146"/>
+      <c r="AL38" s="18">
+        <f t="shared" si="159"/>
         <v>0.53578374706207854</v>
       </c>
-      <c r="AM38" s="5">
+      <c r="AM38" s="18">
         <f>AM19/AM16</f>
         <v>0.5693980290098084</v>
       </c>
-      <c r="AN38" s="5">
+      <c r="AN38" s="18">
         <f>AN19/AN16</f>
         <v>0.55379442503783116</v>
       </c>
-      <c r="AO38" s="5">
-        <f t="shared" ref="AO38" si="147">AO19/AO16</f>
+      <c r="AO38" s="18">
+        <f t="shared" ref="AO38" si="160">AO19/AO16</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AP38" s="15">
-        <f t="shared" ref="AP38:AV38" si="148">AP19/AP16</f>
+      <c r="AP38" s="16">
+        <f t="shared" ref="AP38:AV38" si="161">AP19/AP16</f>
+        <v>0.58057163612875895</v>
+      </c>
+      <c r="AQ38" s="16">
+        <f t="shared" si="161"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AQ38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AR38" s="16">
+        <f t="shared" si="161"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AR38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AS38" s="16">
+        <f t="shared" si="161"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AS38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AT38" s="16">
+        <f t="shared" si="161"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AT38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AU38" s="16">
+        <f t="shared" si="161"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AU38" s="15">
-        <f t="shared" si="148"/>
+      <c r="AV38" s="16">
+        <f t="shared" si="161"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AV38" s="15">
-        <f t="shared" si="148"/>
-        <v>0.56000000000000005</v>
+      <c r="AX38" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="AY38" s="18">
+        <f>+AY36/AY37-1</f>
+        <v>0.22325352516971142</v>
       </c>
     </row>
     <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6155,7 +6494,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
-        <f t="shared" ref="G39" si="149">+G27/G26</f>
+        <f t="shared" ref="G39" si="162">+G27/G26</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H39" s="15">
@@ -6163,39 +6502,39 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" ref="I39:Q39" si="150">+I27/I26</f>
+        <f t="shared" ref="I39:Q39" si="163">+I27/I26</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="163"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="163"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="163"/>
         <v>0.16</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="163"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="163"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="163"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="163"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="163"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="R39" s="15">
@@ -6203,58 +6542,67 @@
         <v>0.20545868081880211</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" ref="S39:V39" si="151">+S27/S26</f>
+        <f t="shared" ref="S39:V39" si="164">+S27/S26</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="164"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="164"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="151"/>
+        <f t="shared" si="164"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" ref="W39" si="152">+W27/W26</f>
-        <v>0</v>
-      </c>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
+        <f t="shared" ref="W39:X39" si="165">+W27/W26</f>
+        <v>0.16432986049796927</v>
+      </c>
+      <c r="X39" s="15">
+        <f t="shared" si="165"/>
+        <v>0.14271714275343908</v>
+      </c>
+      <c r="Y39" s="15">
+        <f t="shared" ref="Y39:Z39" si="166">+Y27/Y26</f>
+        <v>0.1</v>
+      </c>
+      <c r="Z39" s="15">
+        <f t="shared" si="166"/>
+        <v>0.1</v>
+      </c>
       <c r="AF39" s="15">
-        <f t="shared" ref="AF39" si="153">+AF27/AF26</f>
+        <f t="shared" ref="AF39" si="167">+AF27/AF26</f>
         <v>0.21084651486181122</v>
       </c>
       <c r="AG39" s="15">
-        <f t="shared" ref="AG39" si="154">+AG27/AG26</f>
+        <f t="shared" ref="AG39" si="168">+AG27/AG26</f>
         <v>0.16808304920869166</v>
       </c>
       <c r="AH39" s="15">
-        <f t="shared" ref="AH39:AI39" si="155">+AH27/AH26</f>
+        <f t="shared" ref="AH39:AI39" si="169">+AH27/AH26</f>
         <v>0.19345755693581781</v>
       </c>
       <c r="AI39" s="15">
-        <f t="shared" si="155"/>
+        <f t="shared" si="169"/>
         <v>0.48551572053860803</v>
       </c>
       <c r="AJ39" s="15">
-        <f t="shared" ref="AJ39:AL39" si="156">+AJ27/AJ26</f>
+        <f t="shared" ref="AJ39:AL39" si="170">+AJ27/AJ26</f>
         <v>0.10446678671468587</v>
       </c>
       <c r="AK39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="170"/>
         <v>0.12782537147282319</v>
       </c>
       <c r="AL39" s="15">
-        <f t="shared" si="156"/>
+        <f t="shared" si="170"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="AM39" s="15">
-        <f t="shared" ref="AM39:AO39" si="157">+AM27/AM26</f>
+        <f t="shared" ref="AM39:AO39" si="171">+AM27/AM26</f>
         <v>0.16202305640663919</v>
       </c>
       <c r="AN39" s="15">
@@ -6262,35 +6610,35 @@
         <v>0.1592081650964558</v>
       </c>
       <c r="AO39" s="15">
-        <f t="shared" si="157"/>
+        <f t="shared" si="171"/>
         <v>0.18</v>
       </c>
       <c r="AP39" s="15">
-        <f t="shared" ref="AP39:AV39" si="158">+AP27/AP26</f>
+        <f t="shared" ref="AP39:AV39" si="172">+AP27/AP26</f>
+        <v>0.12617401070322898</v>
+      </c>
+      <c r="AQ39" s="15">
+        <f t="shared" si="172"/>
         <v>0.18</v>
       </c>
-      <c r="AQ39" s="15">
-        <f t="shared" si="158"/>
+      <c r="AR39" s="15">
+        <f t="shared" si="172"/>
         <v>0.18</v>
       </c>
-      <c r="AR39" s="15">
-        <f t="shared" si="158"/>
+      <c r="AS39" s="15">
+        <f t="shared" si="172"/>
         <v>0.18</v>
       </c>
-      <c r="AS39" s="15">
-        <f t="shared" si="158"/>
+      <c r="AT39" s="15">
+        <f t="shared" si="172"/>
         <v>0.18</v>
       </c>
-      <c r="AT39" s="15">
-        <f t="shared" si="158"/>
-        <v>0.18000000000000002</v>
-      </c>
       <c r="AU39" s="15">
-        <f t="shared" si="158"/>
-        <v>0.18</v>
+        <f t="shared" si="172"/>
+        <v>0.17999999999999997</v>
       </c>
       <c r="AV39" s="15">
-        <f t="shared" si="158"/>
+        <f t="shared" si="172"/>
         <v>0.18</v>
       </c>
     </row>
@@ -6303,15 +6651,15 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15">
-        <f t="shared" ref="G40:H40" si="159">G14/G16</f>
+        <f t="shared" ref="G40:H40" si="173">G14/G16</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="159"/>
+        <f t="shared" si="173"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" ref="I40" si="160">I14/I16</f>
+        <f t="shared" ref="I40" si="174">I14/I16</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J40" s="15">
@@ -6319,31 +6667,31 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" ref="K40:O40" si="161">K14/K16</f>
+        <f t="shared" ref="K40:O40" si="175">K14/K16</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="175"/>
         <v>0.57926632191338079</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="175"/>
         <v>0.58241960748180222</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="175"/>
         <v>0.5748556256223033</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" si="161"/>
+        <f t="shared" si="175"/>
         <v>0.58252341532987306</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:Q40" si="162">P14/P16</f>
+        <f t="shared" ref="P40:Q40" si="176">P14/P16</f>
         <v>0.58389897395422252</v>
       </c>
       <c r="Q40" s="15">
-        <f t="shared" si="162"/>
+        <f t="shared" si="176"/>
         <v>0.57226596422161757</v>
       </c>
       <c r="R40" s="15">
@@ -6351,71 +6699,80 @@
         <v>0.56022512097622557</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" ref="S40:V40" si="163">S14/S16</f>
+        <f t="shared" ref="S40:V40" si="177">S14/S16</f>
         <v>0.57831687850172664</v>
       </c>
       <c r="T40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="177"/>
         <v>0.57139027397994746</v>
       </c>
       <c r="U40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="177"/>
         <v>0.574054998500515</v>
       </c>
       <c r="V40" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="177"/>
         <v>0.55636658556366581</v>
       </c>
       <c r="W40" s="15">
-        <f t="shared" ref="W40" si="164">W14/W16</f>
+        <f t="shared" ref="W40:X40" si="178">W14/W16</f>
         <v>0.57308881411490087</v>
       </c>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
+      <c r="X40" s="15">
+        <f t="shared" si="178"/>
+        <v>0.57243161596374881</v>
+      </c>
+      <c r="Y40" s="15">
+        <f t="shared" ref="Y40:Z40" si="179">Y14/Y16</f>
+        <v>0.5661710961001406</v>
+      </c>
+      <c r="Z40" s="15">
+        <f t="shared" si="179"/>
+        <v>0.55199466378854234</v>
+      </c>
       <c r="AL40" s="15">
-        <f t="shared" ref="AL40:AO40" si="165">AL14/AL16</f>
+        <f t="shared" ref="AL40:AO40" si="180">AL14/AL16</f>
         <v>0.57011839344316184</v>
       </c>
       <c r="AM40" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>0.57814289096674776</v>
       </c>
       <c r="AN40" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="180"/>
         <v>0.57436111386103605</v>
       </c>
       <c r="AO40" s="15">
-        <f t="shared" si="165"/>
-        <v>0.57465427805581204</v>
+        <f t="shared" si="180"/>
+        <v>0.56940929230889348</v>
       </c>
       <c r="AP40" s="15">
-        <f t="shared" ref="AP40:AV40" si="166">AP14/AP16</f>
-        <v>0.56646189101990851</v>
+        <f t="shared" ref="AP40:AV40" si="181">AP14/AP16</f>
+        <v>0.565363296847465</v>
       </c>
       <c r="AQ40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.56058785008742684</v>
+        <f t="shared" si="181"/>
+        <v>0.56325039936802834</v>
       </c>
       <c r="AR40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.55165420445857594</v>
+        <f t="shared" si="181"/>
+        <v>0.55804465877018006</v>
       </c>
       <c r="AS40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.53952607606889824</v>
+        <f t="shared" si="181"/>
+        <v>0.54982387079542672</v>
       </c>
       <c r="AT40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.53518023811646842</v>
+        <f t="shared" si="181"/>
+        <v>0.54802872878682385</v>
       </c>
       <c r="AU40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.52949611745013003</v>
+        <f t="shared" si="181"/>
+        <v>0.54490059557553905</v>
       </c>
       <c r="AV40" s="15">
-        <f t="shared" si="166"/>
-        <v>0.52249526870684604</v>
+        <f t="shared" si="181"/>
+        <v>0.54043401806506197</v>
       </c>
     </row>
     <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6427,47 +6784,47 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15">
-        <f t="shared" ref="G41:J41" si="167">(G14+G13+G12)/G16</f>
+        <f t="shared" ref="G41:J41" si="182">(G14+G13+G12)/G16</f>
         <v>0.82030661580699238</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="182"/>
         <v>0.7798783194506097</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="182"/>
         <v>0.80339159248911707</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="167"/>
+        <f t="shared" si="182"/>
         <v>0.81196175612499566</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" ref="K41:Q41" si="168">(K14+K13+K12)/K16</f>
+        <f t="shared" ref="K41:Q41" si="183">(K14+K13+K12)/K16</f>
         <v>0.80782442058068482</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="183"/>
         <v>0.81519069166127989</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="183"/>
         <v>0.81590343683774069</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="183"/>
         <v>0.81299701294390969</v>
       </c>
       <c r="O41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="183"/>
         <v>0.80370822366970052</v>
       </c>
       <c r="P41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="183"/>
         <v>0.80774915692042759</v>
       </c>
       <c r="Q41" s="15">
-        <f t="shared" si="168"/>
+        <f t="shared" si="183"/>
         <v>0.78854281248190816</v>
       </c>
       <c r="R41" s="15">
@@ -6475,39 +6832,99 @@
         <v>0.77637807700399752</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" ref="S41:V41" si="169">(S14+S13+S12)/S16</f>
+        <f t="shared" ref="S41:V41" si="184">(S14+S13+S12)/S16</f>
         <v>0.78163554816799685</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="184"/>
         <v>0.779354994370275</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="184"/>
         <v>0.77773721200109525</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="169"/>
+        <f t="shared" si="184"/>
         <v>0.75908932916232186</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" ref="W41" si="170">(W14+W13+W12)/W16</f>
+        <f t="shared" ref="W41:X41" si="185">(W14+W13+W12)/W16</f>
         <v>0.76557940873365704</v>
       </c>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AL41" s="15"/>
-      <c r="AM41" s="15"/>
-      <c r="AN41" s="15"/>
-      <c r="AO41" s="15"/>
-      <c r="AP41" s="15"/>
-      <c r="AQ41" s="15"/>
-      <c r="AR41" s="15"/>
-      <c r="AS41" s="15"/>
-      <c r="AT41" s="15"/>
-      <c r="AU41" s="15"/>
-      <c r="AV41" s="15"/>
+      <c r="X41" s="15">
+        <f t="shared" si="185"/>
+        <v>0.76250265511788728</v>
+      </c>
+      <c r="Y41" s="15">
+        <f t="shared" ref="Y41:Z41" si="186">(Y14+Y13+Y12)/Y16</f>
+        <v>0.76705599802582769</v>
+      </c>
+      <c r="Z41" s="15">
+        <f t="shared" si="186"/>
+        <v>0.7531244145654713</v>
+      </c>
+      <c r="AF41" s="15">
+        <f t="shared" ref="AF41:AV41" si="187">(AF14+AF13+AF12)/AF16</f>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.86218032565062463</v>
+      </c>
+      <c r="AJ41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.85120487651568866</v>
+      </c>
+      <c r="AK41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.83290188252593333</v>
+      </c>
+      <c r="AL41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.80494392610408327</v>
+      </c>
+      <c r="AM41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.81314795623299452</v>
+      </c>
+      <c r="AN41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.79365073752987592</v>
+      </c>
+      <c r="AO41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.7737789286713469</v>
+      </c>
+      <c r="AP41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.76174216493440028</v>
+      </c>
+      <c r="AQ41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.74830737823649918</v>
+      </c>
+      <c r="AR41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.73148485629245164</v>
+      </c>
+      <c r="AS41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.71149081074373588</v>
+      </c>
+      <c r="AT41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.70048935548804159</v>
+      </c>
+      <c r="AU41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.68833993227734147</v>
+      </c>
+      <c r="AV41" s="15">
+        <f t="shared" si="187"/>
+        <v>0.6750603671967379</v>
+      </c>
     </row>
     <row r="43" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
@@ -6518,86 +6935,89 @@
         <v>124580</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:O43" si="171">+N44-N62</f>
+        <f t="shared" ref="N43:O43" si="188">+N44-N62</f>
         <v>154381</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="188"/>
         <v>149723</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" ref="P43:W43" si="172">+P44-P62</f>
+        <f t="shared" ref="P43:W43" si="189">+P44-P62</f>
         <v>140928</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="189"/>
         <v>132025</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="189"/>
         <v>129553</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="189"/>
         <v>132618</v>
       </c>
       <c r="T43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="189"/>
         <v>135851</v>
       </c>
       <c r="U43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="189"/>
         <v>137061</v>
       </c>
       <c r="V43" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="189"/>
         <v>128671</v>
       </c>
       <c r="W43" s="11">
-        <f t="shared" si="172"/>
-        <v>142084</v>
-      </c>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
+        <f t="shared" si="189"/>
+        <v>128856</v>
+      </c>
+      <c r="X43" s="11">
+        <f>+X44-X62</f>
+        <v>121659</v>
+      </c>
+      <c r="Y43" s="11">
+        <f>+X43+Y28</f>
+        <v>146720.65830000001</v>
+      </c>
+      <c r="Z43" s="11">
+        <f>+Y43+Z28</f>
+        <v>174480.34488000002</v>
+      </c>
       <c r="AH43" s="3">
         <v>72053</v>
       </c>
-      <c r="AN43" s="3">
-        <f>+R43</f>
-        <v>129553</v>
-      </c>
-      <c r="AO43" s="3">
-        <f>+AN43+AO28</f>
-        <v>202986.519696</v>
-      </c>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
       <c r="AP43" s="3">
-        <f t="shared" ref="AP43:AV43" si="173">+AO43+AP28</f>
-        <v>290052.05833486724</v>
+        <f>+Z43</f>
+        <v>174480.34488000002</v>
       </c>
       <c r="AQ43" s="3">
-        <f t="shared" si="173"/>
-        <v>391905.42938148277</v>
+        <f t="shared" ref="AQ43:AV43" si="190">+AP43+AQ28</f>
+        <v>274257.6255562561</v>
       </c>
       <c r="AR43" s="3">
-        <f t="shared" si="173"/>
-        <v>511578.58854282054</v>
+        <f t="shared" si="190"/>
+        <v>390407.8409290167</v>
       </c>
       <c r="AS43" s="3">
-        <f t="shared" si="173"/>
-        <v>652850.66423680889</v>
+        <f t="shared" si="190"/>
+        <v>526228.14141658472</v>
       </c>
       <c r="AT43" s="3">
-        <f t="shared" si="173"/>
-        <v>815257.82429385802</v>
+        <f t="shared" si="190"/>
+        <v>681521.86567662656</v>
       </c>
       <c r="AU43" s="3">
-        <f t="shared" si="173"/>
-        <v>1002111.9077416592</v>
+        <f t="shared" si="190"/>
+        <v>859236.60696424148</v>
       </c>
       <c r="AV43" s="3">
-        <f t="shared" si="173"/>
-        <v>1217280.1040730444</v>
+        <f t="shared" si="190"/>
+        <v>1062801.0662288649</v>
       </c>
     </row>
     <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -6658,7 +7078,10 @@
         <f>108090+33994</f>
         <v>142084</v>
       </c>
-      <c r="X44" s="11"/>
+      <c r="X44" s="11">
+        <f>100725+34172</f>
+        <v>134897</v>
+      </c>
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
@@ -6709,7 +7132,9 @@
       <c r="W45" s="11">
         <v>44552</v>
       </c>
-      <c r="X45" s="11"/>
+      <c r="X45" s="11">
+        <v>47087</v>
+      </c>
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
@@ -6760,7 +7185,9 @@
       <c r="W46" s="11">
         <v>0</v>
       </c>
-      <c r="X46" s="11"/>
+      <c r="X46" s="11">
+        <v>0</v>
+      </c>
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
@@ -6811,7 +7238,9 @@
       <c r="W47" s="11">
         <v>0</v>
       </c>
-      <c r="X47" s="11"/>
+      <c r="X47" s="11">
+        <v>0</v>
+      </c>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
     </row>
@@ -6862,7 +7291,9 @@
       <c r="W48" s="11">
         <v>12829</v>
       </c>
-      <c r="X48" s="11"/>
+      <c r="X48" s="11">
+        <v>14183</v>
+      </c>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
     </row>
@@ -6903,7 +7334,9 @@
       <c r="W49" s="11">
         <v>11687</v>
       </c>
-      <c r="X49" s="11"/>
+      <c r="X49" s="11">
+        <v>14958</v>
+      </c>
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
@@ -6944,7 +7377,9 @@
       <c r="W50" s="11">
         <v>143182</v>
       </c>
-      <c r="X50" s="11"/>
+      <c r="X50" s="11">
+        <v>151155</v>
+      </c>
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
     </row>
@@ -6985,7 +7420,9 @@
       <c r="W51" s="11">
         <v>13768</v>
       </c>
-      <c r="X51" s="11"/>
+      <c r="X51" s="11">
+        <v>13606</v>
+      </c>
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
     </row>
@@ -7035,7 +7472,9 @@
       <c r="W52" s="11">
         <v>29183</v>
       </c>
-      <c r="X52" s="11"/>
+      <c r="X52" s="11">
+        <v>29185</v>
+      </c>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
     </row>
@@ -7076,7 +7515,9 @@
       <c r="W53" s="11">
         <v>10065</v>
       </c>
-      <c r="X53" s="11"/>
+      <c r="X53" s="11">
+        <v>9699</v>
+      </c>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
     </row>
@@ -7089,46 +7530,49 @@
         <v>273403</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" ref="N54:W54" si="174">SUM(N44:N53)</f>
+        <f t="shared" ref="N54:X54" si="191">SUM(N44:N53)</f>
         <v>359268</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>357096</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>355185</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>358255</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>365264</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>369491</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>383044</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>396711</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>402392</v>
       </c>
       <c r="W54" s="11">
-        <f t="shared" si="174"/>
+        <f t="shared" si="191"/>
         <v>407350</v>
       </c>
-      <c r="X54" s="11"/>
+      <c r="X54" s="11">
+        <f t="shared" si="191"/>
+        <v>414770</v>
+      </c>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
     </row>
@@ -7181,8 +7625,12 @@
       <c r="V56" s="11">
         <v>7493</v>
       </c>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
+      <c r="W56" s="11">
+        <v>6198</v>
+      </c>
+      <c r="X56" s="11">
+        <v>6092</v>
+      </c>
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
     </row>
@@ -7220,8 +7668,12 @@
       <c r="V57" s="11">
         <v>15140</v>
       </c>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
+      <c r="W57" s="11">
+        <v>9703</v>
+      </c>
+      <c r="X57" s="11">
+        <v>11373</v>
+      </c>
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
     </row>
@@ -7259,8 +7711,12 @@
       <c r="V58" s="11">
         <v>46168</v>
       </c>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
+      <c r="W58" s="11">
+        <v>48603</v>
+      </c>
+      <c r="X58" s="11">
+        <v>47298</v>
+      </c>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
     </row>
@@ -7298,8 +7754,12 @@
       <c r="V59" s="11">
         <v>8876</v>
       </c>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
+      <c r="W59" s="11">
+        <v>8520</v>
+      </c>
+      <c r="X59" s="11">
+        <v>8899</v>
+      </c>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
     </row>
@@ -7347,8 +7807,14 @@
         <f>911+4137</f>
         <v>5048</v>
       </c>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
+      <c r="W60" s="11">
+        <f>3973+921</f>
+        <v>4894</v>
+      </c>
+      <c r="X60" s="11">
+        <f>4251+985</f>
+        <v>5236</v>
+      </c>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
@@ -7396,8 +7862,14 @@
         <f>8474+485</f>
         <v>8959</v>
       </c>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
+      <c r="W61" s="11">
+        <f>9234+486</f>
+        <v>9720</v>
+      </c>
+      <c r="X61" s="11">
+        <f>7703+717</f>
+        <v>8420</v>
+      </c>
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
     </row>
@@ -7436,8 +7908,12 @@
         <f>13253</f>
         <v>13253</v>
       </c>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
+      <c r="W62" s="11">
+        <v>13228</v>
+      </c>
+      <c r="X62" s="11">
+        <v>13238</v>
+      </c>
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
     </row>
@@ -7475,8 +7951,12 @@
       <c r="V63" s="11">
         <v>12460</v>
       </c>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
+      <c r="W63" s="11">
+        <v>11957</v>
+      </c>
+      <c r="X63" s="11">
+        <v>11708</v>
+      </c>
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
     </row>
@@ -7514,8 +7994,12 @@
       <c r="V64" s="11">
         <v>1616</v>
       </c>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
+      <c r="W64" s="11">
+        <v>1683</v>
+      </c>
+      <c r="X64" s="11">
+        <v>1753</v>
+      </c>
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
@@ -7553,8 +8037,12 @@
       <c r="V65" s="11">
         <v>283379</v>
       </c>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
+      <c r="W65" s="11">
+        <v>292844</v>
+      </c>
+      <c r="X65" s="11">
+        <v>300753</v>
+      </c>
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
     </row>
@@ -7567,43 +8055,49 @@
         <v>273403</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" ref="N66:V66" si="175">SUM(N56:N65)</f>
+        <f t="shared" ref="N66:X66" si="192">SUM(N56:N65)</f>
         <v>359268</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="192"/>
         <v>357096</v>
       </c>
       <c r="P66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="192"/>
         <v>355185</v>
       </c>
       <c r="Q66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="192"/>
         <v>358255</v>
       </c>
       <c r="R66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="192"/>
         <v>365264</v>
       </c>
       <c r="S66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="192"/>
         <v>369491</v>
       </c>
       <c r="T66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="192"/>
         <v>383044</v>
       </c>
       <c r="U66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="192"/>
         <v>396711</v>
       </c>
       <c r="V66" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="192"/>
         <v>402392</v>
       </c>
-      <c r="W66" s="11"/>
-      <c r="X66" s="11"/>
+      <c r="W66" s="11">
+        <f t="shared" si="192"/>
+        <v>407350</v>
+      </c>
+      <c r="X66" s="11">
+        <f t="shared" si="192"/>
+        <v>414770</v>
+      </c>
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
     </row>
@@ -7623,67 +8117,73 @@
         <v>6836</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" ref="H68:V68" si="176">+H28</f>
+        <f t="shared" ref="H68:X68" si="193">+H28</f>
         <v>6959</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>11247</v>
       </c>
       <c r="J68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>15227</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>17930</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>18165</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>18936</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>20642</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>16436</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>16002</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>13910</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>13624</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>15051</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>18368</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>19689</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="176"/>
+        <f t="shared" si="193"/>
         <v>20687</v>
       </c>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
+      <c r="W68" s="11">
+        <f t="shared" si="193"/>
+        <v>23662</v>
+      </c>
+      <c r="X68" s="11">
+        <f t="shared" si="193"/>
+        <v>23619</v>
+      </c>
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
     </row>
@@ -7733,8 +8233,13 @@
       <c r="V69" s="11">
         <v>20687</v>
       </c>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
+      <c r="W69" s="11">
+        <v>15051</v>
+      </c>
+      <c r="X69" s="11">
+        <f>33419-W69</f>
+        <v>18368</v>
+      </c>
       <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
     </row>
@@ -7785,8 +8290,13 @@
       <c r="V70" s="11">
         <v>3316</v>
       </c>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
+      <c r="W70" s="11">
+        <v>2635</v>
+      </c>
+      <c r="X70" s="11">
+        <f>5459-W70</f>
+        <v>2824</v>
+      </c>
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
     </row>
@@ -7837,8 +8347,12 @@
       <c r="V71" s="11">
         <v>0</v>
       </c>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
+      <c r="W71" s="11">
+        <v>0</v>
+      </c>
+      <c r="X71" s="11">
+        <v>0</v>
+      </c>
       <c r="Y71" s="11"/>
       <c r="Z71" s="11"/>
     </row>
@@ -7889,8 +8403,13 @@
       <c r="V72" s="11">
         <v>5659</v>
       </c>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
+      <c r="W72" s="11">
+        <v>5284</v>
+      </c>
+      <c r="X72" s="11">
+        <f>11058-W72</f>
+        <v>5774</v>
+      </c>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
     </row>
@@ -7941,8 +8460,13 @@
       <c r="V73" s="11">
         <v>-1670</v>
       </c>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
+      <c r="W73" s="11">
+        <v>-1854</v>
+      </c>
+      <c r="X73" s="11">
+        <f>-4269-W73</f>
+        <v>-2415</v>
+      </c>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
     </row>
@@ -7993,8 +8517,13 @@
       <c r="V74" s="11">
         <v>-471</v>
       </c>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
+      <c r="W74" s="11">
+        <v>-84</v>
+      </c>
+      <c r="X74" s="11">
+        <f>425-W74</f>
+        <v>509</v>
+      </c>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
     </row>
@@ -8045,8 +8574,13 @@
       <c r="V75" s="11">
         <v>1665</v>
       </c>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
+      <c r="W75" s="11">
+        <v>1104</v>
+      </c>
+      <c r="X75" s="11">
+        <f>1774-W75</f>
+        <v>670</v>
+      </c>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
     </row>
@@ -8107,8 +8641,14 @@
         <f>-6518-9869+740+427+4317+797-165</f>
         <v>-10271</v>
       </c>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
+      <c r="W76" s="11">
+        <f>4454+4069-746-1105-4496-602-201</f>
+        <v>1373</v>
+      </c>
+      <c r="X76" s="11">
+        <f>1506+8520-1259+14-4037-418-17-W76</f>
+        <v>2936</v>
+      </c>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
     </row>
@@ -8141,43 +8681,49 @@
         <v>25539</v>
       </c>
       <c r="N77" s="11">
-        <f t="shared" ref="N77:V77" si="177">SUM(N69:N76)</f>
+        <f t="shared" ref="N77:X77" si="194">SUM(N69:N76)</f>
         <v>0</v>
       </c>
       <c r="O77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="194"/>
         <v>25106</v>
       </c>
       <c r="P77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="194"/>
         <v>19422</v>
       </c>
       <c r="Q77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="194"/>
         <v>23353</v>
       </c>
       <c r="R77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="194"/>
         <v>23614</v>
       </c>
       <c r="S77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="194"/>
         <v>23509</v>
       </c>
       <c r="T77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="194"/>
         <v>28666</v>
       </c>
       <c r="U77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="194"/>
         <v>30656</v>
       </c>
       <c r="V77" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="194"/>
         <v>18915</v>
       </c>
-      <c r="W77" s="11"/>
-      <c r="X77" s="11"/>
+      <c r="W77" s="11">
+        <f t="shared" si="194"/>
+        <v>23509</v>
+      </c>
+      <c r="X77" s="11">
+        <f t="shared" si="194"/>
+        <v>28666</v>
+      </c>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
     </row>
@@ -8262,8 +8808,13 @@
       <c r="V79" s="11">
         <v>-11019</v>
       </c>
-      <c r="W79" s="11"/>
-      <c r="X79" s="11"/>
+      <c r="W79" s="11">
+        <v>-6289</v>
+      </c>
+      <c r="X79" s="11">
+        <f>-13177-W79</f>
+        <v>-6888</v>
+      </c>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
     </row>
@@ -8318,8 +8869,14 @@
         <f>-28436+34030-851+204</f>
         <v>4947</v>
       </c>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
+      <c r="W80" s="11">
+        <f>-14227+18327-626+36</f>
+        <v>3510</v>
+      </c>
+      <c r="X80" s="11">
+        <f>-35589+37049-1513+181-W80</f>
+        <v>-3382</v>
+      </c>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
     </row>
@@ -8366,8 +8923,13 @@
       <c r="V81" s="11">
         <v>-29</v>
       </c>
-      <c r="W81" s="11"/>
-      <c r="X81" s="11"/>
+      <c r="W81" s="11">
+        <v>-42</v>
+      </c>
+      <c r="X81" s="11">
+        <f>-340-W81</f>
+        <v>-298</v>
+      </c>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
     </row>
@@ -8414,8 +8976,13 @@
       <c r="V82" s="11">
         <v>-66</v>
       </c>
-      <c r="W82" s="11"/>
-      <c r="X82" s="11"/>
+      <c r="W82" s="11">
+        <v>-125</v>
+      </c>
+      <c r="X82" s="11">
+        <f>-357-W82</f>
+        <v>-232</v>
+      </c>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
     </row>
@@ -8451,27 +9018,33 @@
       </c>
       <c r="Q83" s="11"/>
       <c r="R83" s="11">
-        <f>SUM(R79:R82)</f>
+        <f t="shared" ref="R83:X83" si="195">SUM(R79:R82)</f>
         <v>-6227</v>
       </c>
       <c r="S83" s="11">
-        <f>SUM(S79:S82)</f>
+        <f t="shared" si="195"/>
         <v>-2946</v>
       </c>
       <c r="T83" s="11">
-        <f>SUM(T79:T82)</f>
+        <f t="shared" si="195"/>
         <v>-10800</v>
       </c>
       <c r="U83" s="11">
-        <f>SUM(U79:U82)</f>
+        <f t="shared" si="195"/>
         <v>-7150</v>
       </c>
       <c r="V83" s="11">
-        <f>SUM(V79:V82)</f>
+        <f t="shared" si="195"/>
         <v>-6167</v>
       </c>
-      <c r="W83" s="11"/>
-      <c r="X83" s="11"/>
+      <c r="W83" s="11">
+        <f t="shared" si="195"/>
+        <v>-2946</v>
+      </c>
+      <c r="X83" s="11">
+        <f t="shared" si="195"/>
+        <v>-10800</v>
+      </c>
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
     </row>
@@ -8544,8 +9117,13 @@
       <c r="V85" s="11">
         <v>-2680</v>
       </c>
-      <c r="W85" s="11"/>
-      <c r="X85" s="11"/>
+      <c r="W85" s="11">
+        <v>-1989</v>
+      </c>
+      <c r="X85" s="11">
+        <f>-4725-W85</f>
+        <v>-2736</v>
+      </c>
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
     </row>
@@ -8592,8 +9170,13 @@
       <c r="V86" s="11">
         <v>-16191</v>
       </c>
-      <c r="W86" s="11"/>
-      <c r="X86" s="11"/>
+      <c r="W86" s="11">
+        <v>-14557</v>
+      </c>
+      <c r="X86" s="11">
+        <f>-29526-W86</f>
+        <v>-14969</v>
+      </c>
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
     </row>
@@ -8648,8 +9231,14 @@
         <f>1492-1929</f>
         <v>-437</v>
       </c>
-      <c r="W87" s="11"/>
-      <c r="X87" s="11"/>
+      <c r="W87" s="11">
+        <f>6927-6952</f>
+        <v>-25</v>
+      </c>
+      <c r="X87" s="11">
+        <f>8050-8207-W87</f>
+        <v>-132</v>
+      </c>
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
     </row>
@@ -8696,8 +9285,13 @@
       <c r="V88" s="11">
         <v>0</v>
       </c>
-      <c r="W88" s="11"/>
-      <c r="X88" s="11"/>
+      <c r="W88" s="11">
+        <v>3</v>
+      </c>
+      <c r="X88" s="11">
+        <f>5-W88</f>
+        <v>2</v>
+      </c>
       <c r="Y88" s="11"/>
       <c r="Z88" s="11"/>
     </row>
@@ -8733,27 +9327,33 @@
       </c>
       <c r="Q89" s="11"/>
       <c r="R89" s="11">
-        <f>SUM(R85:R88)</f>
+        <f t="shared" ref="R89:X89" si="196">SUM(R85:R88)</f>
         <v>-17629</v>
       </c>
       <c r="S89" s="11">
-        <f>SUM(S85:S88)</f>
+        <f t="shared" si="196"/>
         <v>-16568</v>
       </c>
       <c r="T89" s="11">
-        <f>SUM(T85:T88)</f>
+        <f t="shared" si="196"/>
         <v>-17835</v>
       </c>
       <c r="U89" s="11">
-        <f>SUM(U85:U88)</f>
+        <f t="shared" si="196"/>
         <v>-18382</v>
       </c>
       <c r="V89" s="11">
-        <f>SUM(V85:V88)</f>
+        <f t="shared" si="196"/>
         <v>-19308</v>
       </c>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
+      <c r="W89" s="11">
+        <f t="shared" si="196"/>
+        <v>-16568</v>
+      </c>
+      <c r="X89" s="11">
+        <f t="shared" si="196"/>
+        <v>-17835</v>
+      </c>
       <c r="Y89" s="11"/>
       <c r="Z89" s="11"/>
     </row>
@@ -8800,8 +9400,13 @@
       <c r="V90" s="11">
         <v>-94</v>
       </c>
-      <c r="W90" s="11"/>
-      <c r="X90" s="11"/>
+      <c r="W90" s="11">
+        <v>50</v>
+      </c>
+      <c r="X90" s="11">
+        <f>24-W90</f>
+        <v>-26</v>
+      </c>
       <c r="Y90" s="11"/>
       <c r="Z90" s="11"/>
     </row>
@@ -8837,27 +9442,33 @@
       </c>
       <c r="Q91" s="11"/>
       <c r="R91" s="11">
-        <f>+R90+R89+R83+R77</f>
+        <f t="shared" ref="R91:X91" si="197">+R90+R89+R83+R77</f>
         <v>-105</v>
       </c>
       <c r="S91" s="11">
-        <f>+S90+S89+S83+S77</f>
+        <f t="shared" si="197"/>
         <v>4045</v>
       </c>
       <c r="T91" s="11">
-        <f>+T90+T89+T83+T77</f>
+        <f t="shared" si="197"/>
         <v>5</v>
       </c>
       <c r="U91" s="11">
-        <f>+U90+U89+U83+U77</f>
+        <f t="shared" si="197"/>
         <v>4773</v>
       </c>
       <c r="V91" s="11">
-        <f>+V90+V89+V83+V77</f>
+        <f t="shared" si="197"/>
         <v>-6654</v>
       </c>
-      <c r="W91" s="11"/>
-      <c r="X91" s="11"/>
+      <c r="W91" s="11">
+        <f t="shared" si="197"/>
+        <v>4045</v>
+      </c>
+      <c r="X91" s="11">
+        <f t="shared" si="197"/>
+        <v>5</v>
+      </c>
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
     </row>
@@ -8908,11 +9519,11 @@
       </c>
       <c r="L93" s="11"/>
       <c r="M93" s="11">
-        <f t="shared" ref="M93:N93" si="178">M77-M79</f>
+        <f t="shared" ref="M93:N93" si="198">M77-M79</f>
         <v>32358</v>
       </c>
       <c r="N93" s="11">
-        <f t="shared" si="178"/>
+        <f t="shared" si="198"/>
         <v>6383</v>
       </c>
       <c r="O93" s="11">
@@ -8920,19 +9531,19 @@
         <v>15320</v>
       </c>
       <c r="P93" s="11">
-        <f t="shared" ref="P93:S93" si="179">P77+P79</f>
+        <f t="shared" ref="P93:S93" si="199">P77+P79</f>
         <v>12594</v>
       </c>
       <c r="Q93" s="11">
-        <f t="shared" si="179"/>
+        <f t="shared" si="199"/>
         <v>16077</v>
       </c>
       <c r="R93" s="11">
-        <f t="shared" si="179"/>
+        <f t="shared" si="199"/>
         <v>16019</v>
       </c>
       <c r="S93" s="11">
-        <f t="shared" si="179"/>
+        <f t="shared" si="199"/>
         <v>17220</v>
       </c>
       <c r="T93" s="11">
@@ -8947,242 +9558,320 @@
         <f>V77+V79</f>
         <v>7896</v>
       </c>
-      <c r="W93" s="11"/>
-      <c r="X93" s="11"/>
+      <c r="W93" s="11">
+        <f>W77+W79</f>
+        <v>17220</v>
+      </c>
+      <c r="X93" s="11">
+        <f>X77+X79</f>
+        <v>21778</v>
+      </c>
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
     </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="R94" s="11"/>
-    </row>
-    <row r="95" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="3" t="s">
+    <row r="94" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10">
+        <f t="shared" ref="N94:T94" si="200">SUM(K93:N93)</f>
+        <v>63972</v>
+      </c>
+      <c r="O94" s="10">
+        <f t="shared" si="200"/>
+        <v>54061</v>
+      </c>
+      <c r="P94" s="10">
+        <f t="shared" si="200"/>
+        <v>66655</v>
+      </c>
+      <c r="Q94" s="10">
+        <f t="shared" si="200"/>
+        <v>50374</v>
+      </c>
+      <c r="R94" s="10">
+        <f t="shared" si="200"/>
+        <v>60010</v>
+      </c>
+      <c r="S94" s="10">
+        <f t="shared" si="200"/>
+        <v>61910</v>
+      </c>
+      <c r="T94" s="10">
+        <f t="shared" si="200"/>
+        <v>71094</v>
+      </c>
+      <c r="U94" s="10">
+        <f>SUM(R93:U93)</f>
+        <v>77618</v>
+      </c>
+      <c r="V94" s="10">
+        <f>SUM(S93:V93)</f>
+        <v>69495</v>
+      </c>
+      <c r="W94" s="10">
+        <f>SUM(T93:W93)</f>
+        <v>69495</v>
+      </c>
+      <c r="X94" s="10">
+        <f>SUM(U93:X93)</f>
+        <v>69495</v>
+      </c>
+      <c r="Y94" s="10"/>
+      <c r="Z94" s="10"/>
+    </row>
+    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="R95" s="11"/>
+    </row>
+    <row r="96" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C96" s="11">
         <v>103459</v>
       </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11">
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11">
         <v>123048</v>
       </c>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11">
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11">
         <v>139995</v>
       </c>
-      <c r="L95" s="11">
+      <c r="L96" s="11">
         <v>144056</v>
       </c>
-      <c r="M95" s="11">
+      <c r="M96" s="11">
         <v>150028</v>
       </c>
-      <c r="N95" s="11">
+      <c r="N96" s="11">
         <v>156500</v>
       </c>
-      <c r="O95" s="11">
+      <c r="O96" s="11">
         <v>163906</v>
       </c>
-      <c r="P95" s="11">
+      <c r="P96" s="11">
         <v>174014</v>
       </c>
-      <c r="Q95" s="11">
+      <c r="Q96" s="11">
         <v>186779</v>
       </c>
-      <c r="R95" s="11">
+      <c r="R96" s="11">
         <v>190234</v>
       </c>
-      <c r="S95" s="11">
+      <c r="S96" s="11">
         <v>190711</v>
       </c>
-      <c r="T95" s="11">
+      <c r="T96" s="11">
         <v>181798</v>
       </c>
-      <c r="U95" s="11">
+      <c r="U96" s="11">
         <v>182381</v>
       </c>
-      <c r="V95" s="11">
+      <c r="V96" s="11">
         <v>182502</v>
       </c>
-      <c r="W95" s="11">
+      <c r="W96" s="11">
         <v>180895</v>
       </c>
-      <c r="X95" s="11"/>
-      <c r="Y95" s="11"/>
-      <c r="Z95" s="11"/>
-    </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B96" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O96" s="15">
-        <f t="shared" ref="O96:W96" si="180">+O95/K95-1</f>
-        <v>0.17079895710561099</v>
-      </c>
-      <c r="P96" s="15">
-        <f t="shared" si="180"/>
-        <v>0.20796079302493475</v>
-      </c>
-      <c r="Q96" s="15">
-        <f t="shared" si="180"/>
-        <v>0.24496094062441687</v>
-      </c>
-      <c r="R96" s="15">
-        <f t="shared" si="180"/>
-        <v>0.21555271565495215</v>
-      </c>
-      <c r="S96" s="15">
-        <f t="shared" si="180"/>
-        <v>0.16353885763791443</v>
-      </c>
-      <c r="T96" s="15">
-        <f t="shared" si="180"/>
-        <v>4.4732033054811771E-2</v>
-      </c>
-      <c r="U96" s="15">
-        <f t="shared" si="180"/>
-        <v>-2.3546544311726647E-2</v>
-      </c>
-      <c r="V96" s="15">
-        <f t="shared" si="180"/>
-        <v>-4.0644679710251541E-2</v>
-      </c>
-      <c r="W96" s="15">
-        <f t="shared" si="180"/>
-        <v>-5.1470549679882072E-2</v>
-      </c>
+      <c r="X96" s="11">
+        <v>181798</v>
+      </c>
+      <c r="Y96" s="11"/>
+      <c r="Z96" s="11"/>
     </row>
     <row r="97" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O97" s="15">
+        <f t="shared" ref="O97:X97" si="201">+O96/K96-1</f>
+        <v>0.17079895710561099</v>
+      </c>
+      <c r="P97" s="15">
+        <f t="shared" si="201"/>
+        <v>0.20796079302493475</v>
+      </c>
+      <c r="Q97" s="15">
+        <f t="shared" si="201"/>
+        <v>0.24496094062441687</v>
+      </c>
+      <c r="R97" s="15">
+        <f t="shared" si="201"/>
+        <v>0.21555271565495215</v>
+      </c>
+      <c r="S97" s="15">
+        <f t="shared" si="201"/>
+        <v>0.16353885763791443</v>
+      </c>
+      <c r="T97" s="15">
+        <f t="shared" si="201"/>
+        <v>4.4732033054811771E-2</v>
+      </c>
+      <c r="U97" s="15">
+        <f t="shared" si="201"/>
+        <v>-2.3546544311726647E-2</v>
+      </c>
+      <c r="V97" s="15">
+        <f t="shared" si="201"/>
+        <v>-4.0644679710251541E-2</v>
+      </c>
+      <c r="W97" s="15">
+        <f t="shared" si="201"/>
+        <v>-5.1470549679882072E-2</v>
+      </c>
+      <c r="X97" s="15">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G97" s="11">
-        <f>+G16/G95*1000</f>
+      <c r="G98" s="11">
+        <f>+G16/G96*1000</f>
         <v>334.49548143813797</v>
       </c>
-      <c r="K97" s="11">
-        <f t="shared" ref="K97:W97" si="181">+K16/K95*1000</f>
+      <c r="K98" s="11">
+        <f t="shared" ref="K98:X98" si="202">+K16/K96*1000</f>
         <v>395.11411121825779</v>
       </c>
-      <c r="L97" s="11">
-        <f t="shared" si="181"/>
+      <c r="L98" s="11">
+        <f t="shared" si="202"/>
         <v>429.55517298828232</v>
       </c>
-      <c r="M97" s="11">
-        <f t="shared" si="181"/>
+      <c r="M98" s="11">
+        <f t="shared" si="202"/>
         <v>434.03897939051376</v>
       </c>
-      <c r="N97" s="11">
-        <f t="shared" si="181"/>
+      <c r="N98" s="11">
+        <f t="shared" si="202"/>
         <v>481.30990415335464</v>
       </c>
-      <c r="O97" s="11">
-        <f t="shared" si="181"/>
+      <c r="O98" s="11">
+        <f t="shared" si="202"/>
         <v>414.93905043134475</v>
       </c>
-      <c r="P97" s="11">
-        <f t="shared" si="181"/>
+      <c r="P98" s="11">
+        <f t="shared" si="202"/>
         <v>400.45628512648409</v>
       </c>
-      <c r="Q97" s="11">
-        <f t="shared" si="181"/>
+      <c r="Q98" s="11">
+        <f t="shared" si="202"/>
         <v>369.91310586307884</v>
       </c>
-      <c r="R97" s="11">
-        <f t="shared" si="181"/>
+      <c r="R98" s="11">
+        <f t="shared" si="202"/>
         <v>399.76029521536634</v>
       </c>
-      <c r="S97" s="11">
-        <f t="shared" si="181"/>
+      <c r="S98" s="11">
+        <f t="shared" si="202"/>
         <v>365.93064899245451</v>
       </c>
-      <c r="T97" s="11">
-        <f t="shared" si="181"/>
+      <c r="T98" s="11">
+        <f t="shared" si="202"/>
         <v>410.36755079813861</v>
       </c>
-      <c r="U97" s="11">
-        <f t="shared" si="181"/>
+      <c r="U98" s="11">
+        <f t="shared" si="202"/>
         <v>420.50981187733373</v>
       </c>
-      <c r="V97" s="11">
-        <f t="shared" si="181"/>
+      <c r="V98" s="11">
+        <f t="shared" si="202"/>
         <v>472.92632409507837</v>
       </c>
-      <c r="W97" s="11">
-        <f t="shared" si="181"/>
+      <c r="W98" s="11">
+        <f t="shared" si="202"/>
         <v>445.22513060062471</v>
       </c>
-    </row>
-    <row r="100" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B100" s="3" t="s">
+      <c r="X98" s="11">
+        <f t="shared" si="202"/>
+        <v>466.1327407342215</v>
+      </c>
+    </row>
+    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AG100">
+      <c r="AG101">
         <v>37.94</v>
       </c>
-      <c r="AH100">
+      <c r="AH101">
         <v>38.590000000000003</v>
       </c>
-      <c r="AI100">
+      <c r="AI101">
         <v>52.32</v>
       </c>
-      <c r="AJ100">
+      <c r="AJ101">
         <v>51.78</v>
       </c>
-      <c r="AK100">
+      <c r="AK101">
         <v>66.849999999999994</v>
       </c>
-      <c r="AL100">
+      <c r="AL101">
         <v>87.59</v>
       </c>
-      <c r="AM100">
+      <c r="AM101">
         <v>144.68</v>
       </c>
-      <c r="AN100">
+      <c r="AN101">
         <v>88.73</v>
       </c>
     </row>
-    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AN101" s="5">
-        <f>AN100/AG100-1</f>
+    <row r="102" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AN102" s="5">
+        <f>AN101/AG101-1</f>
         <v>1.3386926726410122</v>
       </c>
     </row>
-    <row r="103" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>106</v>
       </c>
-      <c r="AG103" s="3">
+      <c r="AG104" s="3">
         <v>5007.41</v>
       </c>
-      <c r="AH103" s="3">
+      <c r="AH104" s="3">
         <v>5383.12</v>
       </c>
-      <c r="AI103" s="3">
+      <c r="AI104" s="3">
         <v>6903.39</v>
       </c>
-      <c r="AJ103" s="3">
+      <c r="AJ104" s="3">
         <v>6635.28</v>
       </c>
-      <c r="AK103" s="3">
+      <c r="AK104" s="3">
         <v>8972.6</v>
       </c>
-      <c r="AL103" s="3">
+      <c r="AL104" s="3">
         <v>12888.28</v>
       </c>
-      <c r="AM103" s="3">
+      <c r="AM104" s="3">
         <v>15644.97</v>
       </c>
-      <c r="AN103" s="3">
+      <c r="AN104" s="3">
         <v>10466.48</v>
       </c>
     </row>
-    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AN104" s="5">
-        <f>AN103/AG103-1</f>
+    <row r="105" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AN105" s="5">
+        <f>AN104/AG104-1</f>
         <v>1.0901983260807482</v>
       </c>
     </row>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A8A58-F585-4186-826C-1D13864338A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1188590B-87DF-8942-9F10-D1FFD94EADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25500" yWindow="1260" windowWidth="25155" windowHeight="18300" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20740" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="236">
   <si>
     <t>Price</t>
   </si>
@@ -801,6 +801,12 @@
   </si>
   <si>
     <t>Return</t>
+  </si>
+  <si>
+    <t>Khan Academy</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -1356,25 +1362,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N25" sqref="K25:N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>211</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>212</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>219</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>2069448</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>216</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>213</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>214</v>
       </c>
@@ -1464,13 +1470,13 @@
         <v>1947789</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>215</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1478,13 +1484,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>221</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>222</v>
       </c>
@@ -1493,7 +1499,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>226</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>227</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>231</v>
       </c>
@@ -1530,7 +1536,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K15" t="s">
         <v>110</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K16" t="s">
         <v>39</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>224</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>225</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>230</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>229</v>
       </c>
@@ -1601,13 +1607,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="K22" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="K25" t="s">
         <v>178</v>
       </c>
@@ -1617,8 +1623,11 @@
       <c r="M25" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="K26" t="s">
         <v>174</v>
       </c>
@@ -1629,7 +1638,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="K27" t="s">
         <v>170</v>
       </c>
@@ -1640,7 +1649,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="K28" t="s">
         <v>168</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="K29" t="s">
         <v>165</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="K30" t="s">
         <v>118</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="K31" t="s">
         <v>162</v>
       </c>
@@ -1684,7 +1693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="K32" t="s">
         <v>160</v>
       </c>
@@ -1695,7 +1704,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K33" t="s">
         <v>157</v>
       </c>
@@ -1706,7 +1715,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K34" t="s">
         <v>155</v>
       </c>
@@ -1717,7 +1726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K35" t="s">
         <v>151</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K36" t="s">
         <v>149</v>
       </c>
@@ -1739,7 +1748,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K37" t="s">
         <v>146</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K38" s="7" t="s">
         <v>128</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K39" t="s">
         <v>143</v>
       </c>
@@ -1775,7 +1784,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K40" t="s">
         <v>141</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K41" t="s">
         <v>137</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K42" t="s">
         <v>133</v>
       </c>
@@ -1814,7 +1823,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K43" s="7" t="s">
         <v>130</v>
       </c>
@@ -1825,15 +1834,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K44" s="7" t="s">
         <v>126</v>
       </c>
       <c r="L44" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K45" s="7" t="s">
         <v>124</v>
       </c>
@@ -1841,17 +1853,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K47" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="11:14" x14ac:dyDescent="0.15">
       <c r="K48" t="s">
         <v>181</v>
       </c>
@@ -1859,87 +1871,87 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K49" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K52" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K55" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K56" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K57" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K58" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K62" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K63" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K64" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.15">
       <c r="K65" t="s">
         <v>199</v>
       </c>
@@ -1954,32 +1966,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
   <dimension ref="A1:DA105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AP21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AY33" sqref="AY33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="26" width="9.140625" style="2"/>
-    <col min="40" max="40" width="9.140625" customWidth="1"/>
-    <col min="47" max="48" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="17" width="9.1640625" style="2"/>
+    <col min="18" max="18" width="8.6640625" style="2" customWidth="1"/>
+    <col min="19" max="26" width="9.1640625" style="2"/>
+    <col min="40" max="40" width="9.1640625" customWidth="1"/>
+    <col min="47" max="48" width="9.33203125" customWidth="1"/>
     <col min="50" max="50" width="9" customWidth="1"/>
-    <col min="51" max="51" width="9.42578125" customWidth="1"/>
+    <col min="51" max="51" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
@@ -2125,7 +2137,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>200</v>
       </c>
@@ -2159,7 +2171,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -2193,7 +2205,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>202</v>
       </c>
@@ -2227,7 +2239,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>203</v>
       </c>
@@ -2261,7 +2273,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>912.90732951686016</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>161836.92412992002</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2729,7 +2741,7 @@
         <v>46912.678878978179</v>
       </c>
     </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2855,7 +2867,7 @@
         <v>38901.340222215404</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>47964.327942470634</v>
       </c>
     </row>
-    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>348707.08728966024</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
@@ -3263,7 +3275,7 @@
         <v>482485.43433332443</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
@@ -3437,7 +3449,7 @@
         <v>645235.26579276135</v>
       </c>
     </row>
-    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3564,7 +3576,7 @@
         <v>283903.51694881497</v>
       </c>
     </row>
-    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
@@ -3619,7 +3631,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3779,7 +3791,7 @@
         <v>361331.74884394638</v>
       </c>
     </row>
-    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3912,7 +3924,7 @@
         <v>63477.261677389237</v>
       </c>
     </row>
-    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -4045,7 +4057,7 @@
         <v>37478.494984228601</v>
       </c>
     </row>
-    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -4178,7 +4190,7 @@
         <v>20719.017685357041</v>
       </c>
     </row>
-    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -4338,7 +4350,7 @@
         <v>121674.77434697488</v>
       </c>
     </row>
-    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -4498,7 +4510,7 @@
         <v>239656.9744969715</v>
       </c>
     </row>
-    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>8592.3660696424158</v>
       </c>
     </row>
-    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
@@ -4791,7 +4803,7 @@
         <v>248249.34056661392</v>
       </c>
     </row>
-    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -4924,7 +4936,7 @@
         <v>44684.881301990506</v>
       </c>
     </row>
-    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -5312,7 +5324,7 @@
         <v>203564.45926462341</v>
       </c>
     </row>
-    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
@@ -5448,7 +5460,7 @@
         <v>16.291673410534088</v>
       </c>
     </row>
-    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
@@ -5569,7 +5581,7 @@
         <v>12495</v>
       </c>
     </row>
-    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
@@ -5725,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
@@ -5779,7 +5791,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
@@ -5914,7 +5926,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
@@ -6050,7 +6062,7 @@
         <v>2531459.5611554091</v>
       </c>
     </row>
-    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
@@ -6186,7 +6198,7 @@
         <v>199.39032460266296</v>
       </c>
     </row>
-    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>43</v>
       </c>
@@ -6321,7 +6333,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="18" t="s">
         <v>33</v>
       </c>
@@ -6485,7 +6497,7 @@
         <v>0.22325352516971142</v>
       </c>
     </row>
-    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
@@ -6642,7 +6654,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
@@ -6775,7 +6787,7 @@
         <v>0.54043401806506197</v>
       </c>
     </row>
-    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
@@ -6926,7 +6938,7 @@
         <v>0.6750603671967379</v>
       </c>
     </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
@@ -7020,7 +7032,7 @@
         <v>1062801.0662288649</v>
       </c>
     </row>
-    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
@@ -7085,7 +7097,7 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
@@ -7138,7 +7150,7 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>30</v>
       </c>
@@ -7191,7 +7203,7 @@
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
@@ -7244,7 +7256,7 @@
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
     </row>
-    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
@@ -7297,7 +7309,7 @@
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
@@ -7340,7 +7352,7 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
@@ -7383,7 +7395,7 @@
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
@@ -7426,7 +7438,7 @@
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -7478,7 +7490,7 @@
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -7521,7 +7533,7 @@
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7576,7 +7588,7 @@
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
       <c r="G55" s="11"/>
       <c r="P55" s="11"/>
@@ -7591,7 +7603,7 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
@@ -7634,7 +7646,7 @@
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
@@ -7677,7 +7689,7 @@
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
@@ -7720,7 +7732,7 @@
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
@@ -7763,7 +7775,7 @@
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -7818,7 +7830,7 @@
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>30</v>
       </c>
@@ -7873,7 +7885,7 @@
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -7917,7 +7929,7 @@
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
@@ -7960,7 +7972,7 @@
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -8003,7 +8015,7 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>68</v>
       </c>
@@ -8046,7 +8058,7 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
@@ -8101,7 +8113,7 @@
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
     </row>
-    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
@@ -8187,7 +8199,7 @@
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
     </row>
-    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B69" s="3" t="s">
         <v>83</v>
       </c>
@@ -8243,7 +8255,7 @@
       <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
     </row>
-    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
         <v>84</v>
       </c>
@@ -8300,7 +8312,7 @@
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
     </row>
-    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>85</v>
       </c>
@@ -8356,7 +8368,7 @@
       <c r="Y71" s="11"/>
       <c r="Z71" s="11"/>
     </row>
-    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
@@ -8413,7 +8425,7 @@
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
     </row>
-    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>56</v>
       </c>
@@ -8470,7 +8482,7 @@
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
     </row>
-    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>87</v>
       </c>
@@ -8527,7 +8539,7 @@
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
     </row>
-    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
@@ -8584,7 +8596,7 @@
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
     </row>
-    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="3" t="s">
         <v>88</v>
       </c>
@@ -8652,7 +8664,7 @@
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
     </row>
-    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B77" s="3" t="s">
         <v>35</v>
       </c>
@@ -8727,7 +8739,7 @@
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
     </row>
-    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -8753,7 +8765,7 @@
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
     </row>
-    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="3" t="s">
         <v>36</v>
       </c>
@@ -8818,7 +8830,7 @@
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
     </row>
-    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="3" t="s">
         <v>89</v>
       </c>
@@ -8880,7 +8892,7 @@
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
     </row>
-    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="3" t="s">
         <v>91</v>
       </c>
@@ -8933,7 +8945,7 @@
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
     </row>
-    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="3" t="s">
         <v>28</v>
       </c>
@@ -8986,7 +8998,7 @@
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
     </row>
-    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
         <v>92</v>
       </c>
@@ -9048,7 +9060,7 @@
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
     </row>
-    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -9074,7 +9086,7 @@
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
     </row>
-    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
@@ -9127,7 +9139,7 @@
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
     </row>
-    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="3" t="s">
         <v>93</v>
       </c>
@@ -9180,7 +9192,7 @@
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
     </row>
-    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="3" t="s">
         <v>4</v>
       </c>
@@ -9242,7 +9254,7 @@
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
     </row>
-    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
         <v>94</v>
       </c>
@@ -9295,7 +9307,7 @@
       <c r="Y88" s="11"/>
       <c r="Z88" s="11"/>
     </row>
-    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
@@ -9357,7 +9369,7 @@
       <c r="Y89" s="11"/>
       <c r="Z89" s="11"/>
     </row>
-    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>41</v>
       </c>
@@ -9410,7 +9422,7 @@
       <c r="Y90" s="11"/>
       <c r="Z90" s="11"/>
     </row>
-    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>95</v>
       </c>
@@ -9472,7 +9484,7 @@
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
     </row>
-    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -9498,7 +9510,7 @@
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
     </row>
-    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="3" t="s">
         <v>37</v>
       </c>
@@ -9569,7 +9581,7 @@
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
     </row>
-    <row r="94" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="9" t="s">
         <v>208</v>
       </c>
@@ -9631,10 +9643,10 @@
       <c r="Y94" s="10"/>
       <c r="Z94" s="10"/>
     </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.15">
       <c r="R95" s="11"/>
     </row>
-    <row r="96" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
         <v>52</v>
       </c>
@@ -9695,7 +9707,7 @@
       <c r="Y96" s="11"/>
       <c r="Z96" s="11"/>
     </row>
-    <row r="97" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B97" s="3" t="s">
         <v>81</v>
       </c>
@@ -9740,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B98" s="3" t="s">
         <v>100</v>
       </c>
@@ -9805,7 +9817,7 @@
         <v>466.1327407342215</v>
       </c>
     </row>
-    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B101" s="3" t="s">
         <v>105</v>
       </c>
@@ -9834,13 +9846,13 @@
         <v>88.73</v>
       </c>
     </row>
-    <row r="102" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:40" x14ac:dyDescent="0.15">
       <c r="AN102" s="5">
         <f>AN101/AG101-1</f>
         <v>1.3386926726410122</v>
       </c>
     </row>
-    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:40" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
         <v>106</v>
       </c>
@@ -9869,7 +9881,7 @@
         <v>10466.48</v>
       </c>
     </row>
-    <row r="105" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:40" x14ac:dyDescent="0.15">
       <c r="AN105" s="5">
         <f>AN104/AG104-1</f>
         <v>1.0901983260807482</v>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1188590B-87DF-8942-9F10-D1FFD94EADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4BA42E-A241-4147-B683-145F46038095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20740" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="-24105" yWindow="1125" windowWidth="22005" windowHeight="15465" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -933,14 +933,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>15550</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>45316</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>15550</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>45316</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -957,8 +957,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14761441" y="0"/>
-          <a:ext cx="0" cy="18239184"/>
+          <a:off x="15398425" y="0"/>
+          <a:ext cx="0" cy="18399919"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1362,25 +1362,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N25" sqref="K25:N25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>211</v>
       </c>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>212</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>219</v>
       </c>
@@ -1420,10 +1420,10 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>2069448</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+        <v>2628072</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>216</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>213</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>214</v>
       </c>
@@ -1467,16 +1467,16 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>1947789</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+        <v>2506413</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>215</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1484,13 +1484,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>221</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>222</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>226</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>227</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>231</v>
       </c>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>110</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K16" t="s">
         <v>39</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>224</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>225</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>230</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>229</v>
       </c>
@@ -1607,13 +1607,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K22" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
         <v>178</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
         <v>174</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>170</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K28" t="s">
         <v>168</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
         <v>165</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>118</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>162</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>160</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
         <v>157</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K34" t="s">
         <v>155</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K35" t="s">
         <v>151</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K36" t="s">
         <v>149</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K37" t="s">
         <v>146</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K38" s="7" t="s">
         <v>128</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K39" t="s">
         <v>143</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K40" t="s">
         <v>141</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K41" t="s">
         <v>137</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
         <v>133</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K43" s="7" t="s">
         <v>130</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K44" s="7" t="s">
         <v>126</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K45" s="7" t="s">
         <v>124</v>
       </c>
@@ -1853,17 +1853,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K47" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="11:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="11:14" x14ac:dyDescent="0.2">
       <c r="K48" t="s">
         <v>181</v>
       </c>
@@ -1871,87 +1871,87 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K52" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K55" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K56" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K57" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K58" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K62" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K63" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K64" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K65" t="s">
         <v>199</v>
       </c>
@@ -1966,32 +1966,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
   <dimension ref="A1:DA105"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AP21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AY33" sqref="AY33"/>
+      <selection pane="bottomRight" activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="17" width="9.1640625" style="2"/>
-    <col min="18" max="18" width="8.6640625" style="2" customWidth="1"/>
-    <col min="19" max="26" width="9.1640625" style="2"/>
-    <col min="40" max="40" width="9.1640625" customWidth="1"/>
-    <col min="47" max="48" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
+    <col min="19" max="26" width="9.140625" style="2"/>
+    <col min="40" max="40" width="9.140625" customWidth="1"/>
+    <col min="47" max="48" width="9.28515625" customWidth="1"/>
     <col min="50" max="50" width="9" customWidth="1"/>
-    <col min="51" max="51" width="9.5" customWidth="1"/>
+    <col min="51" max="51" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>200</v>
       </c>
@@ -2171,7 +2171,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>202</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>203</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2337,7 +2337,9 @@
       <c r="X8" s="11">
         <v>102</v>
       </c>
-      <c r="Y8" s="11"/>
+      <c r="Y8" s="11">
+        <v>17</v>
+      </c>
       <c r="Z8" s="11"/>
       <c r="AI8" s="3">
         <v>-169</v>
@@ -2366,10 +2368,10 @@
       </c>
       <c r="AP8" s="3">
         <f t="shared" ref="AP8:AP15" si="5">SUM(W8:Z8)</f>
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2433,7 +2435,9 @@
       <c r="X9" s="11">
         <v>365</v>
       </c>
-      <c r="Y9" s="11"/>
+      <c r="Y9" s="11">
+        <v>388</v>
+      </c>
       <c r="Z9" s="11"/>
       <c r="AI9" s="3">
         <v>477</v>
@@ -2462,34 +2466,34 @@
       </c>
       <c r="AP9" s="3">
         <f t="shared" si="5"/>
-        <v>860</v>
+        <v>1248</v>
       </c>
       <c r="AQ9" s="3">
         <f t="shared" ref="AQ9:AV9" si="6">+AP9*1.01</f>
-        <v>868.6</v>
+        <v>1260.48</v>
       </c>
       <c r="AR9" s="3">
         <f t="shared" si="6"/>
-        <v>877.28600000000006</v>
+        <v>1273.0848000000001</v>
       </c>
       <c r="AS9" s="3">
         <f t="shared" si="6"/>
-        <v>886.0588600000001</v>
+        <v>1285.815648</v>
       </c>
       <c r="AT9" s="3">
         <f t="shared" si="6"/>
-        <v>894.91944860000012</v>
+        <v>1298.6738044799999</v>
       </c>
       <c r="AU9" s="3">
         <f t="shared" si="6"/>
-        <v>903.86864308600013</v>
+        <v>1311.6605425247999</v>
       </c>
       <c r="AV9" s="3">
         <f t="shared" si="6"/>
-        <v>912.90732951686016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1324.7771479500479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2554,12 +2558,10 @@
         <v>10347</v>
       </c>
       <c r="Y10" s="11">
-        <f>+U10*1.29</f>
-        <v>10850.19</v>
+        <v>11353</v>
       </c>
       <c r="Z10" s="11">
-        <f>+V10*1.29</f>
-        <v>11857.68</v>
+        <v>11955</v>
       </c>
       <c r="AI10" s="3">
         <v>4056</v>
@@ -2588,34 +2590,34 @@
       </c>
       <c r="AP10" s="3">
         <f t="shared" si="5"/>
-        <v>42628.87</v>
+        <v>43229</v>
       </c>
       <c r="AQ10" s="3">
         <f>+AP10*1.3</f>
-        <v>55417.531000000003</v>
+        <v>56197.700000000004</v>
       </c>
       <c r="AR10" s="3">
         <f>+AQ10*1.3</f>
-        <v>72042.790300000008</v>
+        <v>73057.010000000009</v>
       </c>
       <c r="AS10" s="3">
         <f>+AR10*1.3</f>
-        <v>93655.627390000009</v>
+        <v>94974.113000000012</v>
       </c>
       <c r="AT10" s="3">
         <f>+AS10*1.2</f>
-        <v>112386.75286800001</v>
+        <v>113968.93560000001</v>
       </c>
       <c r="AU10" s="3">
         <f>+AT10*1.2</f>
-        <v>134864.10344160002</v>
+        <v>136762.72272000002</v>
       </c>
       <c r="AV10" s="3">
         <f>+AU10*1.2</f>
-        <v>161836.92412992002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>164115.26726400002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2680,12 +2682,10 @@
         <v>9312</v>
       </c>
       <c r="Y11" s="11">
-        <f>+U11*1.11</f>
-        <v>9256.2900000000009</v>
+        <v>10656</v>
       </c>
       <c r="Z11" s="11">
-        <f t="shared" ref="Z11:Z14" si="7">+V11*1.11</f>
-        <v>11981.34</v>
+        <v>11633</v>
       </c>
       <c r="AI11" s="3">
         <v>10914</v>
@@ -2714,34 +2714,34 @@
       </c>
       <c r="AP11" s="3">
         <f t="shared" si="5"/>
-        <v>39288.630000000005</v>
+        <v>40340</v>
       </c>
       <c r="AQ11" s="3">
-        <f t="shared" ref="AQ11:AV11" si="8">+AP11*1.03</f>
-        <v>40467.288900000007</v>
+        <f t="shared" ref="AQ11:AV11" si="7">+AP11*1.03</f>
+        <v>41550.200000000004</v>
       </c>
       <c r="AR11" s="3">
-        <f t="shared" si="8"/>
-        <v>41681.307567000011</v>
+        <f t="shared" si="7"/>
+        <v>42796.706000000006</v>
       </c>
       <c r="AS11" s="3">
-        <f t="shared" si="8"/>
-        <v>42931.74679401001</v>
+        <f t="shared" si="7"/>
+        <v>44080.607180000006</v>
       </c>
       <c r="AT11" s="3">
-        <f t="shared" si="8"/>
-        <v>44219.699197830312</v>
+        <f t="shared" si="7"/>
+        <v>45403.025395400007</v>
       </c>
       <c r="AU11" s="3">
-        <f t="shared" si="8"/>
-        <v>45546.290173765221</v>
+        <f t="shared" si="7"/>
+        <v>46765.116157262011</v>
       </c>
       <c r="AV11" s="3">
-        <f t="shared" si="8"/>
-        <v>46912.678878978179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="7"/>
+        <v>48168.06964197987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2806,12 +2806,10 @@
         <v>7444</v>
       </c>
       <c r="Y12" s="11">
-        <f>+U12*1.11</f>
-        <v>8512.59</v>
+        <v>7548</v>
       </c>
       <c r="Z12" s="11">
-        <f t="shared" si="7"/>
-        <v>9209.67</v>
+        <v>7954</v>
       </c>
       <c r="AI12" s="3">
         <v>17616</v>
@@ -2840,34 +2838,34 @@
       </c>
       <c r="AP12" s="3">
         <f t="shared" si="5"/>
-        <v>32579.260000000002</v>
+        <v>30359</v>
       </c>
       <c r="AQ12" s="3">
-        <f t="shared" ref="AQ12:AV12" si="9">+AP12*1.03</f>
-        <v>33556.637800000004</v>
+        <f t="shared" ref="AQ12:AV12" si="8">+AP12*1.03</f>
+        <v>31269.77</v>
       </c>
       <c r="AR12" s="3">
-        <f t="shared" si="9"/>
-        <v>34563.336934000006</v>
+        <f t="shared" si="8"/>
+        <v>32207.863100000002</v>
       </c>
       <c r="AS12" s="3">
-        <f t="shared" si="9"/>
-        <v>35600.23704202001</v>
+        <f t="shared" si="8"/>
+        <v>33174.098993</v>
       </c>
       <c r="AT12" s="3">
-        <f t="shared" si="9"/>
-        <v>36668.244153280611</v>
+        <f t="shared" si="8"/>
+        <v>34169.321962790003</v>
       </c>
       <c r="AU12" s="3">
-        <f t="shared" si="9"/>
-        <v>37768.291477879029</v>
+        <f t="shared" si="8"/>
+        <v>35194.401621673707</v>
       </c>
       <c r="AV12" s="3">
-        <f t="shared" si="9"/>
-        <v>38901.340222215404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="8"/>
+        <v>36250.23367032392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2932,12 +2930,10 @@
         <v>8663</v>
       </c>
       <c r="Y13" s="11">
-        <f>+U13*1.11</f>
-        <v>8826.7200000000012</v>
+        <v>8921</v>
       </c>
       <c r="Z13" s="11">
-        <f t="shared" si="7"/>
-        <v>10212</v>
+        <v>10473</v>
       </c>
       <c r="AI13" s="3">
         <v>8150</v>
@@ -2966,34 +2962,34 @@
       </c>
       <c r="AP13" s="3">
         <f t="shared" si="5"/>
-        <v>35791.72</v>
+        <v>36147</v>
       </c>
       <c r="AQ13" s="3">
-        <f t="shared" ref="AQ13:AV13" si="10">+AP13*1.05</f>
-        <v>37581.306000000004</v>
+        <f t="shared" ref="AQ13:AV13" si="9">+AP13*1.05</f>
+        <v>37954.35</v>
       </c>
       <c r="AR13" s="3">
-        <f t="shared" si="10"/>
-        <v>39460.371300000006</v>
+        <f t="shared" si="9"/>
+        <v>39852.067499999997</v>
       </c>
       <c r="AS13" s="3">
-        <f t="shared" si="10"/>
-        <v>41433.389865000005</v>
+        <f t="shared" si="9"/>
+        <v>41844.670874999996</v>
       </c>
       <c r="AT13" s="3">
-        <f t="shared" si="10"/>
-        <v>43505.059358250008</v>
+        <f t="shared" si="9"/>
+        <v>43936.904418749997</v>
       </c>
       <c r="AU13" s="3">
-        <f t="shared" si="10"/>
-        <v>45680.312326162508</v>
+        <f t="shared" si="9"/>
+        <v>46133.749639687499</v>
       </c>
       <c r="AV13" s="3">
-        <f t="shared" si="10"/>
-        <v>47964.327942470634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="9"/>
+        <v>48440.437121671879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
@@ -3058,12 +3054,10 @@
         <v>48509</v>
       </c>
       <c r="Y14" s="11">
-        <f>+U14*1.11</f>
-        <v>48868.860000000008</v>
+        <v>49385</v>
       </c>
       <c r="Z14" s="11">
-        <f t="shared" si="7"/>
-        <v>53302.200000000004</v>
+        <v>54034</v>
       </c>
       <c r="AI14" s="3">
         <v>69811</v>
@@ -3092,59 +3086,59 @@
       </c>
       <c r="AP14" s="3">
         <f t="shared" si="5"/>
-        <v>196836.06000000003</v>
+        <v>198084</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" ref="AQ14:AV14" si="11">+AP14*1.1</f>
-        <v>216519.66600000006</v>
+        <f t="shared" ref="AQ14:AV14" si="10">+AP14*1.1</f>
+        <v>217892.40000000002</v>
       </c>
       <c r="AR14" s="3">
-        <f t="shared" si="11"/>
-        <v>238171.63260000007</v>
+        <f t="shared" si="10"/>
+        <v>239681.64000000004</v>
       </c>
       <c r="AS14" s="3">
-        <f t="shared" si="11"/>
-        <v>261988.7958600001</v>
+        <f t="shared" si="10"/>
+        <v>263649.80400000006</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="11"/>
-        <v>288187.67544600012</v>
+        <f t="shared" si="10"/>
+        <v>290014.78440000012</v>
       </c>
       <c r="AU14" s="3">
-        <f t="shared" si="11"/>
-        <v>317006.44299060019</v>
+        <f t="shared" si="10"/>
+        <v>319016.26284000016</v>
       </c>
       <c r="AV14" s="3">
-        <f t="shared" si="11"/>
-        <v>348707.08728966024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="10"/>
+        <v>350917.88912400021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" ref="C15:G15" si="12">SUM(C11:C14)</f>
+        <f t="shared" ref="C15:G15" si="11">SUM(C11:C14)</f>
         <v>34207</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>38198</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" ref="H15" si="13">SUM(H11:H14)</f>
+        <f t="shared" ref="H15" si="12">SUM(H11:H14)</f>
         <v>34991</v>
       </c>
       <c r="I15" s="11">
@@ -3159,79 +3153,79 @@
         <v>51178</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" ref="L15" si="14">SUM(L11:L14)</f>
+        <f t="shared" ref="L15" si="13">SUM(L11:L14)</f>
         <v>57067</v>
       </c>
       <c r="M15" s="11">
-        <f t="shared" ref="M15:Q15" si="15">SUM(M11:M14)</f>
+        <f t="shared" ref="M15:Q15" si="14">SUM(M11:M14)</f>
         <v>59884</v>
       </c>
       <c r="N15" s="11">
+        <f t="shared" si="14"/>
+        <v>69400</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="14"/>
+        <v>61472</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="14"/>
+        <v>62841</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="14"/>
+        <v>61377</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" ref="R15:Z15" si="15">SUM(R11:R14)</f>
+        <v>67838</v>
+      </c>
+      <c r="S15" s="11">
         <f t="shared" si="15"/>
-        <v>69400</v>
-      </c>
-      <c r="O15" s="11">
+        <v>61961</v>
+      </c>
+      <c r="T15" s="11">
         <f t="shared" si="15"/>
-        <v>61472</v>
-      </c>
-      <c r="P15" s="11">
+        <v>66285</v>
+      </c>
+      <c r="U15" s="11">
         <f t="shared" si="15"/>
-        <v>62841</v>
-      </c>
-      <c r="Q15" s="11">
+        <v>67986</v>
+      </c>
+      <c r="V15" s="11">
         <f t="shared" si="15"/>
-        <v>61377</v>
-      </c>
-      <c r="R15" s="11">
-        <f t="shared" ref="R15:Z15" si="16">SUM(R11:R14)</f>
-        <v>67838</v>
-      </c>
-      <c r="S15" s="11">
+        <v>76311</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="15"/>
+        <v>70398</v>
+      </c>
+      <c r="X15" s="11">
+        <f t="shared" si="15"/>
+        <v>73928</v>
+      </c>
+      <c r="Y15" s="11">
+        <f t="shared" si="15"/>
+        <v>76510</v>
+      </c>
+      <c r="Z15" s="11">
+        <f t="shared" si="15"/>
+        <v>84094</v>
+      </c>
+      <c r="AI15" s="11">
+        <f t="shared" ref="AI15:AL15" si="16">SUM(AI11:AI14)</f>
+        <v>106491</v>
+      </c>
+      <c r="AJ15" s="11">
         <f t="shared" si="16"/>
-        <v>61961</v>
-      </c>
-      <c r="T15" s="11">
+        <v>130524</v>
+      </c>
+      <c r="AK15" s="11">
         <f t="shared" si="16"/>
-        <v>66285</v>
-      </c>
-      <c r="U15" s="11">
+        <v>151825</v>
+      </c>
+      <c r="AL15" s="11">
         <f t="shared" si="16"/>
-        <v>67986</v>
-      </c>
-      <c r="V15" s="11">
-        <f t="shared" si="16"/>
-        <v>76311</v>
-      </c>
-      <c r="W15" s="11">
-        <f t="shared" si="16"/>
-        <v>70398</v>
-      </c>
-      <c r="X15" s="11">
-        <f t="shared" si="16"/>
-        <v>73928</v>
-      </c>
-      <c r="Y15" s="11">
-        <f t="shared" si="16"/>
-        <v>75464.460000000006</v>
-      </c>
-      <c r="Z15" s="11">
-        <f t="shared" si="16"/>
-        <v>84705.21</v>
-      </c>
-      <c r="AI15" s="11">
-        <f t="shared" ref="AI15:AL15" si="17">SUM(AI11:AI14)</f>
-        <v>106491</v>
-      </c>
-      <c r="AJ15" s="11">
-        <f t="shared" si="17"/>
-        <v>130524</v>
-      </c>
-      <c r="AK15" s="11">
-        <f t="shared" si="17"/>
-        <v>151825</v>
-      </c>
-      <c r="AL15" s="11">
-        <f t="shared" si="17"/>
         <v>168635</v>
       </c>
       <c r="AM15" s="11">
@@ -3248,59 +3242,59 @@
       </c>
       <c r="AP15" s="3">
         <f t="shared" si="5"/>
-        <v>304495.67000000004</v>
+        <v>304930</v>
       </c>
       <c r="AQ15" s="11">
-        <f t="shared" ref="AQ15:AV15" si="18">SUM(AQ11:AQ14)</f>
-        <v>328124.89870000008</v>
+        <f t="shared" ref="AQ15:AV15" si="17">SUM(AQ11:AQ14)</f>
+        <v>328666.72000000003</v>
       </c>
       <c r="AR15" s="11">
-        <f t="shared" si="18"/>
-        <v>353876.64840100007</v>
+        <f t="shared" si="17"/>
+        <v>354538.27660000004</v>
       </c>
       <c r="AS15" s="11">
-        <f t="shared" si="18"/>
-        <v>381954.16956103011</v>
+        <f t="shared" si="17"/>
+        <v>382749.18104800006</v>
       </c>
       <c r="AT15" s="11">
-        <f t="shared" si="18"/>
-        <v>412580.67815536109</v>
+        <f t="shared" si="17"/>
+        <v>413524.03617694014</v>
       </c>
       <c r="AU15" s="11">
-        <f t="shared" si="18"/>
-        <v>446001.33696840692</v>
+        <f t="shared" si="17"/>
+        <v>447109.53025862342</v>
       </c>
       <c r="AV15" s="11">
-        <f t="shared" si="18"/>
-        <v>482485.43433332443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="17"/>
+        <v>483776.62955797592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="10">
-        <f t="shared" ref="C16:G16" si="19">C15+C10+C9+C8</f>
+        <f t="shared" ref="C16:G16" si="18">C15+C10+C9+C8</f>
         <v>36339</v>
       </c>
       <c r="D16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G16" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>41159</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" ref="H16" si="20">H15+H10+H9+H8</f>
+        <f t="shared" ref="H16" si="19">H15+H10+H9+H8</f>
         <v>38297</v>
       </c>
       <c r="I16" s="10">
@@ -3315,7 +3309,7 @@
         <v>55314</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" ref="L16" si="21">L15+L10+L9+L8</f>
+        <f t="shared" ref="L16" si="20">L15+L10+L9+L8</f>
         <v>61880</v>
       </c>
       <c r="M16" s="10">
@@ -3335,7 +3329,7 @@
         <v>69685</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" ref="Q16:Z16" si="22">Q15+Q10+Q9+Q8</f>
+        <f t="shared" ref="Q16:Z16" si="21">Q15+Q10+Q9+Q8</f>
         <v>69092</v>
       </c>
       <c r="R16" s="10">
@@ -3343,36 +3337,36 @@
         <v>76048</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>69787</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>74604</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>76693</v>
       </c>
       <c r="V16" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>86310</v>
       </c>
       <c r="W16" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>80539</v>
       </c>
       <c r="X16" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>84742</v>
       </c>
       <c r="Y16" s="10">
-        <f t="shared" si="22"/>
-        <v>86314.650000000009</v>
+        <f t="shared" si="21"/>
+        <v>88268</v>
       </c>
       <c r="Z16" s="10">
-        <f t="shared" si="22"/>
-        <v>96562.890000000014</v>
+        <f t="shared" si="21"/>
+        <v>96049</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -3393,19 +3387,19 @@
         <v>90272</v>
       </c>
       <c r="AI16" s="10">
-        <f t="shared" ref="AI16:AL16" si="23">AI15+AI10+AI9+AI8</f>
+        <f t="shared" ref="AI16:AL16" si="22">AI15+AI10+AI9+AI8</f>
         <v>110855</v>
       </c>
       <c r="AJ16" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>136819</v>
       </c>
       <c r="AK16" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>161857</v>
       </c>
       <c r="AL16" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>182527</v>
       </c>
       <c r="AM16" s="10">
@@ -3417,39 +3411,39 @@
         <v>282836</v>
       </c>
       <c r="AO16" s="10">
-        <f t="shared" ref="AO16" si="24">AO15+AO10+AO9+AO8</f>
+        <f t="shared" ref="AO16" si="23">AO15+AO10+AO9+AO8</f>
         <v>307394</v>
       </c>
       <c r="AP16" s="10">
-        <f t="shared" ref="AP16" si="25">AP15+AP10+AP9+AP8</f>
-        <v>348158.54000000004</v>
+        <f t="shared" ref="AP16" si="24">AP15+AP10+AP9+AP8</f>
+        <v>349598</v>
       </c>
       <c r="AQ16" s="10">
-        <f t="shared" ref="AQ16" si="26">AQ15+AQ10+AQ9+AQ8</f>
-        <v>384411.02970000007</v>
+        <f t="shared" ref="AQ16" si="25">AQ15+AQ10+AQ9+AQ8</f>
+        <v>386124.9</v>
       </c>
       <c r="AR16" s="10">
-        <f t="shared" ref="AR16" si="27">AR15+AR10+AR9+AR8</f>
-        <v>426796.72470100009</v>
+        <f t="shared" ref="AR16" si="26">AR15+AR10+AR9+AR8</f>
+        <v>428868.37140000006</v>
       </c>
       <c r="AS16" s="10">
-        <f t="shared" ref="AS16" si="28">AS15+AS10+AS9+AS8</f>
-        <v>476495.85581103014</v>
+        <f t="shared" ref="AS16" si="27">AS15+AS10+AS9+AS8</f>
+        <v>479009.10969600006</v>
       </c>
       <c r="AT16" s="10">
-        <f t="shared" ref="AT16" si="29">AT15+AT10+AT9+AT8</f>
-        <v>525862.3504719612</v>
+        <f t="shared" ref="AT16" si="28">AT15+AT10+AT9+AT8</f>
+        <v>528791.64558142016</v>
       </c>
       <c r="AU16" s="10">
-        <f t="shared" ref="AU16" si="30">AU15+AU10+AU9+AU8</f>
-        <v>581769.30905309296</v>
+        <f t="shared" ref="AU16" si="29">AU15+AU10+AU9+AU8</f>
+        <v>585183.91352114815</v>
       </c>
       <c r="AV16" s="10">
-        <f t="shared" ref="AV16" si="31">AV15+AV10+AV9+AV8</f>
-        <v>645235.26579276135</v>
-      </c>
-    </row>
-    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="AV16" si="30">AV15+AV10+AV9+AV8</f>
+        <v>649216.67396992596</v>
+      </c>
+    </row>
+    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3513,7 +3507,9 @@
       <c r="X17" s="11">
         <v>35507</v>
       </c>
-      <c r="Y17" s="11"/>
+      <c r="Y17" s="11">
+        <v>36474</v>
+      </c>
       <c r="Z17" s="11"/>
       <c r="AF17" s="3">
         <v>25691</v>
@@ -3549,34 +3545,34 @@
       </c>
       <c r="AP17" s="3">
         <f>+AP16-AP19</f>
-        <v>146027.56680000003</v>
+        <v>146033.58000000002</v>
       </c>
       <c r="AQ17" s="3">
-        <f t="shared" ref="AQ17:AV17" si="32">+AQ16-AQ19</f>
-        <v>169140.853068</v>
+        <f t="shared" ref="AQ17:AV17" si="31">+AQ16-AQ19</f>
+        <v>169894.95599999998</v>
       </c>
       <c r="AR17" s="3">
-        <f t="shared" si="32"/>
-        <v>187790.55886844001</v>
+        <f t="shared" si="31"/>
+        <v>188702.08341600001</v>
       </c>
       <c r="AS17" s="3">
-        <f t="shared" si="32"/>
-        <v>209658.17655685323</v>
+        <f t="shared" si="31"/>
+        <v>210764.00826624001</v>
       </c>
       <c r="AT17" s="3">
-        <f t="shared" si="32"/>
-        <v>231379.43420766288</v>
+        <f t="shared" si="31"/>
+        <v>232668.32405582484</v>
       </c>
       <c r="AU17" s="3">
-        <f t="shared" si="32"/>
-        <v>255978.49598336086</v>
+        <f t="shared" si="31"/>
+        <v>257480.92194930516</v>
       </c>
       <c r="AV17" s="3">
-        <f t="shared" si="32"/>
-        <v>283903.51694881497</v>
-      </c>
-    </row>
-    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="31"/>
+        <v>285655.33654676739</v>
+      </c>
+    </row>
+    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
@@ -3628,10 +3624,14 @@
       <c r="X18" s="11">
         <v>13387</v>
       </c>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-    </row>
-    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="Y18" s="11">
+        <v>13719</v>
+      </c>
+      <c r="Z18" s="11">
+        <v>14848</v>
+      </c>
+    </row>
+    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3647,31 +3647,31 @@
         <v>22177</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" ref="H19" si="33">H16-H17</f>
+        <f t="shared" ref="H19" si="32">H16-H17</f>
         <v>19744</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" ref="I19" si="34">I16-I17</f>
+        <f t="shared" ref="I19" si="33">I16-I17</f>
         <v>25056</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" ref="J19:N19" si="35">J16-J17</f>
+        <f t="shared" ref="J19:N19" si="34">J16-J17</f>
         <v>30818</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>31211</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>35653</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>37497</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>42337</v>
       </c>
       <c r="O19" s="11">
@@ -3679,11 +3679,11 @@
         <v>38412</v>
       </c>
       <c r="P19" s="11">
-        <f t="shared" ref="P19:Q19" si="36">P16-P17</f>
+        <f t="shared" ref="P19:Q19" si="35">P16-P17</f>
         <v>39581</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>37934</v>
       </c>
       <c r="R19" s="11">
@@ -3703,47 +3703,47 @@
         <v>43464</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" ref="V19:X19" si="37">V16-V17</f>
+        <f t="shared" ref="V19:X19" si="36">V16-V17</f>
         <v>48735</v>
       </c>
       <c r="W19" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>46827</v>
       </c>
       <c r="X19" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>49235</v>
       </c>
       <c r="Y19" s="11">
-        <f>+Y16*0.58</f>
-        <v>50062.497000000003</v>
+        <f>+Y16-Y17</f>
+        <v>51794</v>
       </c>
       <c r="Z19" s="11">
         <f>+Z16*0.58</f>
-        <v>56006.476200000005</v>
+        <v>55708.42</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" ref="AF19:AK19" si="38">+AF16-AF17</f>
+        <f t="shared" ref="AF19:AK19" si="37">+AF16-AF17</f>
         <v>40310</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>46825</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>55134</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>65272</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>77270</v>
       </c>
       <c r="AK19" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>89961</v>
       </c>
       <c r="AL19" s="3">
@@ -3751,7 +3751,7 @@
         <v>97795</v>
       </c>
       <c r="AM19" s="3">
-        <f t="shared" ref="AM19" si="39">AM16-AM17</f>
+        <f t="shared" ref="AM19" si="38">AM16-AM17</f>
         <v>146698</v>
       </c>
       <c r="AN19" s="3">
@@ -3764,34 +3764,34 @@
       </c>
       <c r="AP19" s="3">
         <f>SUM(W19:Z19)</f>
-        <v>202130.97320000001</v>
+        <v>203564.41999999998</v>
       </c>
       <c r="AQ19" s="3">
-        <f t="shared" ref="AQ19:AV19" si="40">+AQ16*0.56</f>
-        <v>215270.17663200008</v>
+        <f t="shared" ref="AQ19:AV19" si="39">+AQ16*0.56</f>
+        <v>216229.94400000005</v>
       </c>
       <c r="AR19" s="3">
-        <f t="shared" si="40"/>
-        <v>239006.16583256007</v>
+        <f t="shared" si="39"/>
+        <v>240166.28798400005</v>
       </c>
       <c r="AS19" s="3">
-        <f t="shared" si="40"/>
-        <v>266837.67925417691</v>
+        <f t="shared" si="39"/>
+        <v>268245.10142976005</v>
       </c>
       <c r="AT19" s="3">
-        <f t="shared" si="40"/>
-        <v>294482.91626429831</v>
+        <f t="shared" si="39"/>
+        <v>296123.32152559533</v>
       </c>
       <c r="AU19" s="3">
-        <f t="shared" si="40"/>
-        <v>325790.8130697321</v>
+        <f t="shared" si="39"/>
+        <v>327702.99157184298</v>
       </c>
       <c r="AV19" s="3">
-        <f t="shared" si="40"/>
-        <v>361331.74884394638</v>
-      </c>
-    </row>
-    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="39"/>
+        <v>363561.33742315858</v>
+      </c>
+    </row>
+    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3856,11 +3856,10 @@
         <v>11860</v>
       </c>
       <c r="Y20" s="11">
-        <f>+U20*1.01</f>
-        <v>11370.58</v>
+        <v>12447</v>
       </c>
       <c r="Z20" s="11">
-        <f t="shared" ref="Z20:Z22" si="41">+V20*1.01</f>
+        <f t="shared" ref="Z20:Z22" si="40">+V20*1.01</f>
         <v>12234.13</v>
       </c>
       <c r="AF20" s="3">
@@ -3888,7 +3887,7 @@
         <v>31562</v>
       </c>
       <c r="AN20" s="3">
-        <f t="shared" ref="AN20:AN22" si="42">SUM(O20:R20)</f>
+        <f t="shared" ref="AN20:AN22" si="41">SUM(O20:R20)</f>
         <v>39500</v>
       </c>
       <c r="AO20" s="3">
@@ -3897,34 +3896,34 @@
       </c>
       <c r="AP20" s="3">
         <f>SUM(W20:Z20)</f>
-        <v>47367.71</v>
+        <v>48444.13</v>
       </c>
       <c r="AQ20" s="3">
-        <f t="shared" ref="AQ20:AV20" si="43">+AP20*1.05</f>
-        <v>49736.095500000003</v>
+        <f t="shared" ref="AQ20:AV20" si="42">+AP20*1.05</f>
+        <v>50866.336499999998</v>
       </c>
       <c r="AR20" s="3">
-        <f t="shared" si="43"/>
-        <v>52222.900275000007</v>
+        <f t="shared" si="42"/>
+        <v>53409.653324999999</v>
       </c>
       <c r="AS20" s="3">
-        <f t="shared" si="43"/>
-        <v>54834.045288750007</v>
+        <f t="shared" si="42"/>
+        <v>56080.135991250005</v>
       </c>
       <c r="AT20" s="3">
-        <f t="shared" si="43"/>
-        <v>57575.74755318751</v>
+        <f t="shared" si="42"/>
+        <v>58884.142790812504</v>
       </c>
       <c r="AU20" s="3">
-        <f t="shared" si="43"/>
-        <v>60454.534930846887</v>
+        <f t="shared" si="42"/>
+        <v>61828.349930353135</v>
       </c>
       <c r="AV20" s="3">
-        <f t="shared" si="43"/>
-        <v>63477.261677389237</v>
-      </c>
-    </row>
-    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="42"/>
+        <v>64919.767426870792</v>
+      </c>
+    </row>
+    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -3989,11 +3988,10 @@
         <v>6792</v>
       </c>
       <c r="Y21" s="11">
-        <f t="shared" ref="Y21:Y22" si="44">+U21*1.01</f>
-        <v>6952.84</v>
+        <v>7227</v>
       </c>
       <c r="Z21" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>7796.1900000000005</v>
       </c>
       <c r="AF21" s="3">
@@ -4021,7 +4019,7 @@
         <v>22912</v>
       </c>
       <c r="AN21" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>26567</v>
       </c>
       <c r="AO21" s="3">
@@ -4030,34 +4028,34 @@
       </c>
       <c r="AP21" s="3">
         <f>SUM(W21:Z21)</f>
-        <v>27967.03</v>
+        <v>28241.190000000002</v>
       </c>
       <c r="AQ21" s="3">
-        <f t="shared" ref="AQ21:AV21" si="45">+AP21*1.05</f>
-        <v>29365.3815</v>
+        <f t="shared" ref="AQ21:AV21" si="43">+AP21*1.05</f>
+        <v>29653.249500000005</v>
       </c>
       <c r="AR21" s="3">
-        <f t="shared" si="45"/>
-        <v>30833.650575</v>
+        <f t="shared" si="43"/>
+        <v>31135.911975000006</v>
       </c>
       <c r="AS21" s="3">
-        <f t="shared" si="45"/>
-        <v>32375.333103749999</v>
+        <f t="shared" si="43"/>
+        <v>32692.707573750009</v>
       </c>
       <c r="AT21" s="3">
-        <f t="shared" si="45"/>
-        <v>33994.099758937504</v>
+        <f t="shared" si="43"/>
+        <v>34327.34295243751</v>
       </c>
       <c r="AU21" s="3">
-        <f t="shared" si="45"/>
-        <v>35693.80474688438</v>
+        <f t="shared" si="43"/>
+        <v>36043.71010005939</v>
       </c>
       <c r="AV21" s="3">
-        <f t="shared" si="45"/>
-        <v>37478.494984228601</v>
-      </c>
-    </row>
-    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="43"/>
+        <v>37845.89560506236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -4122,11 +4120,10 @@
         <v>3158</v>
       </c>
       <c r="Y22" s="11">
-        <f t="shared" si="44"/>
-        <v>4018.79</v>
+        <v>3599</v>
       </c>
       <c r="Z22" s="11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>5258.06</v>
       </c>
       <c r="AF22" s="3">
@@ -4154,7 +4151,7 @@
         <v>13510</v>
       </c>
       <c r="AN22" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>15724</v>
       </c>
       <c r="AO22" s="3">
@@ -4163,58 +4160,58 @@
       </c>
       <c r="AP22" s="3">
         <f>SUM(W22:Z22)</f>
-        <v>15460.850000000002</v>
+        <v>15041.060000000001</v>
       </c>
       <c r="AQ22" s="3">
-        <f t="shared" ref="AQ22:AV22" si="46">+AP22*1.05</f>
-        <v>16233.892500000004</v>
+        <f t="shared" ref="AQ22:AV22" si="44">+AP22*1.05</f>
+        <v>15793.113000000001</v>
       </c>
       <c r="AR22" s="3">
-        <f t="shared" si="46"/>
-        <v>17045.587125000005</v>
+        <f t="shared" si="44"/>
+        <v>16582.768650000002</v>
       </c>
       <c r="AS22" s="3">
-        <f t="shared" si="46"/>
-        <v>17897.866481250006</v>
+        <f t="shared" si="44"/>
+        <v>17411.907082500002</v>
       </c>
       <c r="AT22" s="3">
-        <f t="shared" si="46"/>
-        <v>18792.759805312508</v>
+        <f t="shared" si="44"/>
+        <v>18282.502436625004</v>
       </c>
       <c r="AU22" s="3">
-        <f t="shared" si="46"/>
-        <v>19732.397795578134</v>
+        <f t="shared" si="44"/>
+        <v>19196.627558456254</v>
       </c>
       <c r="AV22" s="3">
-        <f t="shared" si="46"/>
-        <v>20719.017685357041</v>
-      </c>
-    </row>
-    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="44"/>
+        <v>20156.458936379066</v>
+      </c>
+    </row>
+    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="11">
-        <f t="shared" ref="C23" si="47">SUM(C20:C22)</f>
+        <f t="shared" ref="C23" si="45">SUM(C20:C22)</f>
         <v>12022</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11">
-        <f t="shared" ref="G23" si="48">SUM(G20:G22)</f>
+        <f t="shared" ref="G23" si="46">SUM(G20:G22)</f>
         <v>14200</v>
       </c>
       <c r="H23" s="11">
-        <f t="shared" ref="H23" si="49">SUM(H20:H22)</f>
+        <f t="shared" ref="H23" si="47">SUM(H20:H22)</f>
         <v>13361</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" ref="I23" si="50">SUM(I20:I22)</f>
+        <f t="shared" ref="I23" si="48">SUM(I20:I22)</f>
         <v>13843</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" ref="J23" si="51">SUM(J20:J22)</f>
+        <f t="shared" ref="J23" si="49">SUM(J20:J22)</f>
         <v>15167</v>
       </c>
       <c r="K23" s="11">
@@ -4222,27 +4219,27 @@
         <v>14774</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ref="L23:O23" si="52">SUM(L20:L22)</f>
+        <f t="shared" ref="L23:O23" si="50">SUM(L20:L22)</f>
         <v>16292</v>
       </c>
       <c r="M23" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>16466</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>20452</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>18318</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" ref="P23:Q23" si="53">SUM(P20:P22)</f>
+        <f t="shared" ref="P23:Q23" si="51">SUM(P20:P22)</f>
         <v>20128</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>20799</v>
       </c>
       <c r="R23" s="11">
@@ -4250,7 +4247,7 @@
         <v>22546</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" ref="S23:W23" si="54">SUM(S20:S22)</f>
+        <f t="shared" ref="S23:W23" si="52">SUM(S20:S22)</f>
         <v>21760</v>
       </c>
       <c r="T23" s="11">
@@ -4258,27 +4255,27 @@
         <v>20850</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>22121</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>25038</v>
       </c>
       <c r="W23" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>21355</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" ref="X23:Z23" si="55">SUM(X20:X22)</f>
+        <f t="shared" ref="X23:Z23" si="53">SUM(X20:X22)</f>
         <v>21810</v>
       </c>
       <c r="Y23" s="11">
-        <f t="shared" si="55"/>
-        <v>22342.21</v>
+        <f t="shared" si="53"/>
+        <v>23273</v>
       </c>
       <c r="Z23" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>25288.38</v>
       </c>
       <c r="AF23" s="3">
@@ -4286,23 +4283,23 @@
         <v>23814</v>
       </c>
       <c r="AG23" s="3">
-        <f t="shared" ref="AG23:AK23" si="56">SUM(AG20:AG22)</f>
+        <f t="shared" ref="AG23:AK23" si="54">SUM(AG20:AG22)</f>
         <v>27465</v>
       </c>
       <c r="AH23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>31418</v>
       </c>
       <c r="AI23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>36390</v>
       </c>
       <c r="AJ23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>45878</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>54033</v>
       </c>
       <c r="AL23" s="3">
@@ -4310,87 +4307,87 @@
         <v>56571</v>
       </c>
       <c r="AM23" s="3">
-        <f t="shared" ref="AM23:AO23" si="57">SUM(AM20:AM22)</f>
+        <f t="shared" ref="AM23:AO23" si="55">SUM(AM20:AM22)</f>
         <v>67984</v>
       </c>
       <c r="AN23" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>81791</v>
       </c>
       <c r="AO23" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="55"/>
         <v>85880.55</v>
       </c>
       <c r="AP23" s="3">
-        <f t="shared" ref="AP23:AV23" si="58">SUM(AP20:AP22)</f>
-        <v>90795.59</v>
+        <f t="shared" ref="AP23:AV23" si="56">SUM(AP20:AP22)</f>
+        <v>91726.38</v>
       </c>
       <c r="AQ23" s="3">
-        <f t="shared" si="58"/>
-        <v>95335.369500000001</v>
+        <f t="shared" si="56"/>
+        <v>96312.699000000008</v>
       </c>
       <c r="AR23" s="3">
-        <f t="shared" si="58"/>
-        <v>100102.13797500001</v>
+        <f t="shared" si="56"/>
+        <v>101128.33395</v>
       </c>
       <c r="AS23" s="3">
-        <f t="shared" si="58"/>
-        <v>105107.24487375001</v>
+        <f t="shared" si="56"/>
+        <v>106184.75064750001</v>
       </c>
       <c r="AT23" s="3">
-        <f t="shared" si="58"/>
-        <v>110362.60711743752</v>
+        <f t="shared" si="56"/>
+        <v>111493.98817987501</v>
       </c>
       <c r="AU23" s="3">
-        <f t="shared" si="58"/>
-        <v>115880.7374733094</v>
+        <f t="shared" si="56"/>
+        <v>117068.68758886878</v>
       </c>
       <c r="AV23" s="3">
-        <f t="shared" si="58"/>
-        <v>121674.77434697488</v>
-      </c>
-    </row>
-    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="56"/>
+        <v>122922.12196831222</v>
+      </c>
+    </row>
+    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="11">
-        <f t="shared" ref="C24" si="59">C19-C23</f>
+        <f t="shared" ref="C24" si="57">C19-C23</f>
         <v>8305</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11">
-        <f t="shared" ref="G24" si="60">G19-G23</f>
+        <f t="shared" ref="G24" si="58">G19-G23</f>
         <v>7977</v>
       </c>
       <c r="H24" s="11">
-        <f t="shared" ref="H24" si="61">H19-H23</f>
+        <f t="shared" ref="H24" si="59">H19-H23</f>
         <v>6383</v>
       </c>
       <c r="I24" s="11">
-        <f t="shared" ref="I24" si="62">I19-I23</f>
+        <f t="shared" ref="I24" si="60">I19-I23</f>
         <v>11213</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" ref="J24" si="63">J19-J23</f>
+        <f t="shared" ref="J24" si="61">J19-J23</f>
         <v>15651</v>
       </c>
       <c r="K24" s="11">
-        <f t="shared" ref="K24:N24" si="64">K19-K23</f>
+        <f t="shared" ref="K24:N24" si="62">K19-K23</f>
         <v>16437</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>19361</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>21031</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="62"/>
         <v>21885</v>
       </c>
       <c r="O24" s="11">
@@ -4398,19 +4395,19 @@
         <v>20094</v>
       </c>
       <c r="P24" s="11">
-        <f t="shared" ref="P24:R24" si="65">P19-P23</f>
+        <f t="shared" ref="P24:R24" si="63">P19-P23</f>
         <v>19453</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>17135</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>18160</v>
       </c>
       <c r="S24" s="11">
-        <f t="shared" ref="S24:W24" si="66">S19-S23</f>
+        <f t="shared" ref="S24:W24" si="64">S19-S23</f>
         <v>17415</v>
       </c>
       <c r="T24" s="11">
@@ -4418,51 +4415,51 @@
         <v>21838</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>21343</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>23697</v>
       </c>
       <c r="W24" s="11">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>25472</v>
       </c>
       <c r="X24" s="11">
-        <f t="shared" ref="X24:Z24" si="67">X19-X23</f>
+        <f t="shared" ref="X24:Z24" si="65">X19-X23</f>
         <v>27425</v>
       </c>
       <c r="Y24" s="11">
-        <f t="shared" si="67"/>
-        <v>27720.287000000004</v>
+        <f t="shared" si="65"/>
+        <v>28521</v>
       </c>
       <c r="Z24" s="11">
-        <f t="shared" si="67"/>
-        <v>30718.096200000004</v>
+        <f t="shared" si="65"/>
+        <v>30420.039999999997</v>
       </c>
       <c r="AF24" s="3">
         <f>AF19-AF23</f>
         <v>16496</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" ref="AG24:AK24" si="68">AG19-AG23</f>
+        <f t="shared" ref="AG24:AK24" si="66">AG19-AG23</f>
         <v>19360</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>23716</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>28882</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>31392</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="66"/>
         <v>35928</v>
       </c>
       <c r="AL24" s="3">
@@ -4470,47 +4467,47 @@
         <v>41224</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" ref="AM24:AO24" si="69">AM19-AM23</f>
+        <f t="shared" ref="AM24:AO24" si="67">AM19-AM23</f>
         <v>78714</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>74842</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="67"/>
         <v>86260.090000000011</v>
       </c>
       <c r="AP24" s="3">
-        <f t="shared" ref="AP24:AV24" si="70">AP19-AP23</f>
-        <v>111335.38320000001</v>
+        <f t="shared" ref="AP24:AV24" si="68">AP19-AP23</f>
+        <v>111838.03999999998</v>
       </c>
       <c r="AQ24" s="3">
-        <f t="shared" si="70"/>
-        <v>119934.80713200007</v>
+        <f t="shared" si="68"/>
+        <v>119917.24500000004</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" si="70"/>
-        <v>138904.02785756008</v>
+        <f t="shared" si="68"/>
+        <v>139037.95403400005</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="70"/>
-        <v>161730.43438042689</v>
+        <f t="shared" si="68"/>
+        <v>162060.35078226004</v>
       </c>
       <c r="AT24" s="3">
-        <f t="shared" si="70"/>
-        <v>184120.30914686079</v>
+        <f t="shared" si="68"/>
+        <v>184629.33334572031</v>
       </c>
       <c r="AU24" s="3">
-        <f t="shared" si="70"/>
-        <v>209910.07559642271</v>
+        <f t="shared" si="68"/>
+        <v>210634.3039829742</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" si="70"/>
-        <v>239656.9744969715</v>
-      </c>
-    </row>
-    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="68"/>
+        <v>240639.21545484636</v>
+      </c>
+    </row>
+    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -4575,12 +4572,11 @@
         <v>126</v>
       </c>
       <c r="Y25" s="11">
-        <f>+X25</f>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="11">
         <f>+Y25</f>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="3">
         <v>763</v>
@@ -4607,7 +4603,7 @@
         <v>12020</v>
       </c>
       <c r="AN25" s="3">
-        <f t="shared" ref="AN25:AN27" si="71">SUM(O25:R25)</f>
+        <f t="shared" ref="AN25:AN27" si="69">SUM(O25:R25)</f>
         <v>-3514</v>
       </c>
       <c r="AO25" s="3">
@@ -4616,58 +4612,58 @@
       </c>
       <c r="AP25" s="3">
         <f>SUM(W25:Z25)</f>
-        <v>3221</v>
+        <v>2969</v>
       </c>
       <c r="AQ25" s="3">
-        <f t="shared" ref="AQ25:AV25" si="72">+AP43*$AY$34</f>
-        <v>1744.8034488000003</v>
+        <f t="shared" ref="AQ25:AV25" si="70">+AP43*$AY$34</f>
+        <v>1721.53036</v>
       </c>
       <c r="AR25" s="3">
-        <f t="shared" si="72"/>
-        <v>2742.5762555625611</v>
+        <f t="shared" si="70"/>
+        <v>2718.9683179520002</v>
       </c>
       <c r="AS25" s="3">
-        <f t="shared" si="72"/>
-        <v>3904.0784092901672</v>
+        <f t="shared" si="70"/>
+        <v>3881.3750812380067</v>
       </c>
       <c r="AT25" s="3">
-        <f t="shared" si="72"/>
-        <v>5262.2814141658473</v>
+        <f t="shared" si="70"/>
+        <v>5242.097233318691</v>
       </c>
       <c r="AU25" s="3">
-        <f t="shared" si="72"/>
-        <v>6815.2186567662657</v>
+        <f t="shared" si="70"/>
+        <v>6799.0429640668108</v>
       </c>
       <c r="AV25" s="3">
-        <f t="shared" si="72"/>
-        <v>8592.3660696424158</v>
-      </c>
-    </row>
-    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="70"/>
+        <v>8581.9964090325484</v>
+      </c>
+    </row>
+    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="11">
-        <f t="shared" ref="C26" si="73">C24+C25</f>
+        <f t="shared" ref="C26" si="71">C24+C25</f>
         <v>9843</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11">
-        <f t="shared" ref="G26" si="74">G24+G25</f>
+        <f t="shared" ref="G26" si="72">G24+G25</f>
         <v>7757</v>
       </c>
       <c r="H26" s="11">
-        <f t="shared" ref="H26" si="75">H24+H25</f>
+        <f t="shared" ref="H26" si="73">H24+H25</f>
         <v>8277</v>
       </c>
       <c r="I26" s="11">
-        <f t="shared" ref="I26" si="76">I24+I25</f>
+        <f t="shared" ref="I26" si="74">I24+I25</f>
         <v>13359</v>
       </c>
       <c r="J26" s="11">
-        <f t="shared" ref="J26" si="77">J24+J25</f>
+        <f t="shared" ref="J26" si="75">J24+J25</f>
         <v>18689</v>
       </c>
       <c r="K26" s="11">
@@ -4675,87 +4671,87 @@
         <v>21283</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" ref="L26:O26" si="78">L24+L25</f>
+        <f t="shared" ref="L26:O26" si="76">L24+L25</f>
         <v>21625</v>
       </c>
       <c r="M26" s="11">
+        <f t="shared" si="76"/>
+        <v>23064</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="76"/>
+        <v>24402</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="76"/>
+        <v>18934</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" ref="P26:Z26" si="77">P24+P25</f>
+        <v>19014</v>
+      </c>
+      <c r="Q26" s="11">
+        <f t="shared" si="77"/>
+        <v>16233</v>
+      </c>
+      <c r="R26" s="11">
+        <f t="shared" si="77"/>
+        <v>17147</v>
+      </c>
+      <c r="S26" s="11">
+        <f t="shared" si="77"/>
+        <v>18205</v>
+      </c>
+      <c r="T26" s="11">
+        <f t="shared" si="77"/>
+        <v>21903</v>
+      </c>
+      <c r="U26" s="11">
+        <f t="shared" si="77"/>
+        <v>21197</v>
+      </c>
+      <c r="V26" s="11">
+        <f t="shared" si="77"/>
+        <v>24412</v>
+      </c>
+      <c r="W26" s="11">
+        <f t="shared" si="77"/>
+        <v>28315</v>
+      </c>
+      <c r="X26" s="11">
+        <f t="shared" si="77"/>
+        <v>27551</v>
+      </c>
+      <c r="Y26" s="11">
+        <f t="shared" si="77"/>
+        <v>28521</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="77"/>
+        <v>30420.039999999997</v>
+      </c>
+      <c r="AF26" s="3">
+        <f t="shared" ref="AF26:AK26" si="78">+AF24+AF25</f>
+        <v>17259</v>
+      </c>
+      <c r="AG26" s="3">
         <f t="shared" si="78"/>
-        <v>23064</v>
-      </c>
-      <c r="N26" s="11">
+        <v>19651</v>
+      </c>
+      <c r="AH26" s="3">
         <f t="shared" si="78"/>
-        <v>24402</v>
-      </c>
-      <c r="O26" s="11">
+        <v>24150</v>
+      </c>
+      <c r="AI26" s="3">
         <f t="shared" si="78"/>
-        <v>18934</v>
-      </c>
-      <c r="P26" s="11">
-        <f t="shared" ref="P26:Z26" si="79">P24+P25</f>
-        <v>19014</v>
-      </c>
-      <c r="Q26" s="11">
-        <f t="shared" si="79"/>
-        <v>16233</v>
-      </c>
-      <c r="R26" s="11">
-        <f t="shared" si="79"/>
-        <v>17147</v>
-      </c>
-      <c r="S26" s="11">
-        <f t="shared" si="79"/>
-        <v>18205</v>
-      </c>
-      <c r="T26" s="11">
-        <f t="shared" si="79"/>
-        <v>21903</v>
-      </c>
-      <c r="U26" s="11">
-        <f t="shared" si="79"/>
-        <v>21197</v>
-      </c>
-      <c r="V26" s="11">
-        <f t="shared" si="79"/>
-        <v>24412</v>
-      </c>
-      <c r="W26" s="11">
-        <f t="shared" si="79"/>
-        <v>28315</v>
-      </c>
-      <c r="X26" s="11">
-        <f t="shared" si="79"/>
-        <v>27551</v>
-      </c>
-      <c r="Y26" s="11">
-        <f t="shared" si="79"/>
-        <v>27846.287000000004</v>
-      </c>
-      <c r="Z26" s="11">
-        <f t="shared" si="79"/>
-        <v>30844.096200000004</v>
-      </c>
-      <c r="AF26" s="3">
-        <f t="shared" ref="AF26:AK26" si="80">+AF24+AF25</f>
-        <v>17259</v>
-      </c>
-      <c r="AG26" s="3">
-        <f t="shared" si="80"/>
-        <v>19651</v>
-      </c>
-      <c r="AH26" s="3">
-        <f t="shared" si="80"/>
-        <v>24150</v>
-      </c>
-      <c r="AI26" s="3">
-        <f t="shared" si="80"/>
         <v>29929</v>
       </c>
       <c r="AJ26" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>39984</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="78"/>
         <v>41322</v>
       </c>
       <c r="AL26" s="3">
@@ -4763,47 +4759,47 @@
         <v>48082</v>
       </c>
       <c r="AM26" s="3">
-        <f t="shared" ref="AM26:AO26" si="81">AM24+AM25</f>
+        <f t="shared" ref="AM26:AO26" si="79">AM24+AM25</f>
         <v>90734</v>
       </c>
       <c r="AN26" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>71328</v>
       </c>
       <c r="AO26" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="79"/>
         <v>86260.090000000011</v>
       </c>
       <c r="AP26" s="3">
-        <f t="shared" ref="AP26:AV26" si="82">AP24+AP25</f>
-        <v>114556.38320000001</v>
+        <f t="shared" ref="AP26:AV26" si="80">AP24+AP25</f>
+        <v>114807.03999999998</v>
       </c>
       <c r="AQ26" s="3">
-        <f t="shared" si="82"/>
-        <v>121679.61058080007</v>
+        <f t="shared" si="80"/>
+        <v>121638.77536000004</v>
       </c>
       <c r="AR26" s="3">
-        <f t="shared" si="82"/>
-        <v>141646.60411312265</v>
+        <f t="shared" si="80"/>
+        <v>141756.92235195206</v>
       </c>
       <c r="AS26" s="3">
-        <f t="shared" si="82"/>
-        <v>165634.51278971706</v>
+        <f t="shared" si="80"/>
+        <v>165941.72586349805</v>
       </c>
       <c r="AT26" s="3">
-        <f t="shared" si="82"/>
-        <v>189382.59056102665</v>
+        <f t="shared" si="80"/>
+        <v>189871.43057903901</v>
       </c>
       <c r="AU26" s="3">
-        <f t="shared" si="82"/>
-        <v>216725.29425318897</v>
+        <f t="shared" si="80"/>
+        <v>217433.34694704102</v>
       </c>
       <c r="AV26" s="3">
-        <f t="shared" si="82"/>
-        <v>248249.34056661392</v>
-      </c>
-    </row>
-    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="80"/>
+        <v>249221.21186387891</v>
+      </c>
+    </row>
+    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -4868,12 +4864,11 @@
         <v>3932</v>
       </c>
       <c r="Y27" s="11">
-        <f>+Y26*0.1</f>
-        <v>2784.6287000000007</v>
+        <v>5405</v>
       </c>
       <c r="Z27" s="11">
         <f>+Z26*0.1</f>
-        <v>3084.4096200000004</v>
+        <v>3042.0039999999999</v>
       </c>
       <c r="AF27" s="3">
         <v>3639</v>
@@ -4900,7 +4895,7 @@
         <v>14701</v>
       </c>
       <c r="AN27" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="69"/>
         <v>11356</v>
       </c>
       <c r="AO27" s="3">
@@ -4909,58 +4904,58 @@
       </c>
       <c r="AP27" s="3">
         <f>SUM(W27:Z27)</f>
-        <v>14454.038320000001</v>
+        <v>17032.004000000001</v>
       </c>
       <c r="AQ27" s="3">
-        <f t="shared" ref="AQ27:AV27" si="83">+AQ26*0.18</f>
-        <v>21902.329904544011</v>
+        <f t="shared" ref="AQ27:AV27" si="81">+AQ26*0.18</f>
+        <v>21894.979564800007</v>
       </c>
       <c r="AR27" s="3">
-        <f t="shared" si="83"/>
-        <v>25496.388740362076</v>
+        <f t="shared" si="81"/>
+        <v>25516.24602335137</v>
       </c>
       <c r="AS27" s="3">
-        <f t="shared" si="83"/>
-        <v>29814.21230214907</v>
+        <f t="shared" si="81"/>
+        <v>29869.510655429647</v>
       </c>
       <c r="AT27" s="3">
-        <f t="shared" si="83"/>
-        <v>34088.866300984795</v>
+        <f t="shared" si="81"/>
+        <v>34176.857504227017</v>
       </c>
       <c r="AU27" s="3">
-        <f t="shared" si="83"/>
-        <v>39010.55296557401</v>
+        <f t="shared" si="81"/>
+        <v>39138.002450467386</v>
       </c>
       <c r="AV27" s="3">
-        <f t="shared" si="83"/>
-        <v>44684.881301990506</v>
-      </c>
-    </row>
-    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="81"/>
+        <v>44859.818135498201</v>
+      </c>
+    </row>
+    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="11">
-        <f t="shared" ref="C28" si="84">C26-C27</f>
+        <f t="shared" ref="C28" si="82">C26-C27</f>
         <v>8354</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11">
-        <f t="shared" ref="G28" si="85">G26-G27</f>
+        <f t="shared" ref="G28" si="83">G26-G27</f>
         <v>6836</v>
       </c>
       <c r="H28" s="11">
-        <f t="shared" ref="H28" si="86">H26-H27</f>
+        <f t="shared" ref="H28" si="84">H26-H27</f>
         <v>6959</v>
       </c>
       <c r="I28" s="11">
-        <f t="shared" ref="I28" si="87">I26-I27</f>
+        <f t="shared" ref="I28" si="85">I26-I27</f>
         <v>11247</v>
       </c>
       <c r="J28" s="11">
-        <f t="shared" ref="J28" si="88">J26-J27</f>
+        <f t="shared" ref="J28" si="86">J26-J27</f>
         <v>15227</v>
       </c>
       <c r="K28" s="11">
@@ -4968,87 +4963,87 @@
         <v>17930</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" ref="L28:O28" si="89">L26-L27</f>
+        <f t="shared" ref="L28:O28" si="87">L26-L27</f>
         <v>18165</v>
       </c>
       <c r="M28" s="11">
+        <f t="shared" si="87"/>
+        <v>18936</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="87"/>
+        <v>20642</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="87"/>
+        <v>16436</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" ref="P28:Z28" si="88">P26-P27</f>
+        <v>16002</v>
+      </c>
+      <c r="Q28" s="11">
+        <f t="shared" si="88"/>
+        <v>13910</v>
+      </c>
+      <c r="R28" s="11">
+        <f t="shared" si="88"/>
+        <v>13624</v>
+      </c>
+      <c r="S28" s="11">
+        <f t="shared" si="88"/>
+        <v>15051</v>
+      </c>
+      <c r="T28" s="11">
+        <f t="shared" si="88"/>
+        <v>18368</v>
+      </c>
+      <c r="U28" s="11">
+        <f t="shared" si="88"/>
+        <v>19689</v>
+      </c>
+      <c r="V28" s="11">
+        <f t="shared" si="88"/>
+        <v>20687</v>
+      </c>
+      <c r="W28" s="11">
+        <f t="shared" si="88"/>
+        <v>23662</v>
+      </c>
+      <c r="X28" s="11">
+        <f t="shared" si="88"/>
+        <v>23619</v>
+      </c>
+      <c r="Y28" s="11">
+        <f t="shared" si="88"/>
+        <v>23116</v>
+      </c>
+      <c r="Z28" s="11">
+        <f t="shared" si="88"/>
+        <v>27378.035999999996</v>
+      </c>
+      <c r="AF28" s="3">
+        <f t="shared" ref="AF28:AK28" si="89">+AF26-AF27</f>
+        <v>13620</v>
+      </c>
+      <c r="AG28" s="3">
         <f t="shared" si="89"/>
-        <v>18936</v>
-      </c>
-      <c r="N28" s="11">
+        <v>16348</v>
+      </c>
+      <c r="AH28" s="3">
         <f t="shared" si="89"/>
-        <v>20642</v>
-      </c>
-      <c r="O28" s="11">
+        <v>19478</v>
+      </c>
+      <c r="AI28" s="3">
         <f t="shared" si="89"/>
-        <v>16436</v>
-      </c>
-      <c r="P28" s="11">
-        <f t="shared" ref="P28:Z28" si="90">P26-P27</f>
-        <v>16002</v>
-      </c>
-      <c r="Q28" s="11">
-        <f t="shared" si="90"/>
-        <v>13910</v>
-      </c>
-      <c r="R28" s="11">
-        <f t="shared" si="90"/>
-        <v>13624</v>
-      </c>
-      <c r="S28" s="11">
-        <f t="shared" si="90"/>
-        <v>15051</v>
-      </c>
-      <c r="T28" s="11">
-        <f t="shared" si="90"/>
-        <v>18368</v>
-      </c>
-      <c r="U28" s="11">
-        <f t="shared" si="90"/>
-        <v>19689</v>
-      </c>
-      <c r="V28" s="11">
-        <f t="shared" si="90"/>
-        <v>20687</v>
-      </c>
-      <c r="W28" s="11">
-        <f t="shared" si="90"/>
-        <v>23662</v>
-      </c>
-      <c r="X28" s="11">
-        <f t="shared" si="90"/>
-        <v>23619</v>
-      </c>
-      <c r="Y28" s="11">
-        <f t="shared" si="90"/>
-        <v>25061.658300000003</v>
-      </c>
-      <c r="Z28" s="11">
-        <f t="shared" si="90"/>
-        <v>27759.686580000001</v>
-      </c>
-      <c r="AF28" s="3">
-        <f t="shared" ref="AF28:AK28" si="91">+AF26-AF27</f>
-        <v>13620</v>
-      </c>
-      <c r="AG28" s="3">
-        <f t="shared" si="91"/>
-        <v>16348</v>
-      </c>
-      <c r="AH28" s="3">
-        <f t="shared" si="91"/>
-        <v>19478</v>
-      </c>
-      <c r="AI28" s="3">
-        <f t="shared" si="91"/>
         <v>15398</v>
       </c>
       <c r="AJ28" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>35807</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="89"/>
         <v>36040</v>
       </c>
       <c r="AL28" s="3">
@@ -5056,315 +5051,315 @@
         <v>40269</v>
       </c>
       <c r="AM28" s="3">
-        <f t="shared" ref="AM28:AO28" si="92">AM26-AM27</f>
+        <f t="shared" ref="AM28:AO28" si="90">AM26-AM27</f>
         <v>76033</v>
       </c>
       <c r="AN28" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>59972</v>
       </c>
       <c r="AO28" s="3">
-        <f t="shared" si="92"/>
+        <f t="shared" si="90"/>
         <v>70733.27380000001</v>
       </c>
       <c r="AP28" s="3">
-        <f t="shared" ref="AP28:AV28" si="93">AP26-AP27</f>
-        <v>100102.34488</v>
+        <f t="shared" ref="AP28:AV28" si="91">AP26-AP27</f>
+        <v>97775.035999999978</v>
       </c>
       <c r="AQ28" s="3">
-        <f t="shared" si="93"/>
-        <v>99777.280676256065</v>
+        <f t="shared" si="91"/>
+        <v>99743.795795200043</v>
       </c>
       <c r="AR28" s="3">
-        <f t="shared" si="93"/>
-        <v>116150.21537276058</v>
+        <f t="shared" si="91"/>
+        <v>116240.67632860069</v>
       </c>
       <c r="AS28" s="3">
-        <f t="shared" si="93"/>
-        <v>135820.30048756799</v>
+        <f t="shared" si="91"/>
+        <v>136072.2152080684</v>
       </c>
       <c r="AT28" s="3">
-        <f t="shared" si="93"/>
-        <v>155293.72426004184</v>
+        <f t="shared" si="91"/>
+        <v>155694.57307481198</v>
       </c>
       <c r="AU28" s="3">
-        <f t="shared" si="93"/>
-        <v>177714.74128761498</v>
+        <f t="shared" si="91"/>
+        <v>178295.34449657364</v>
       </c>
       <c r="AV28" s="3">
-        <f t="shared" si="93"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="91"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="AW28" s="3">
         <f>+AV28*(1+$AY$32)</f>
-        <v>203564.45926462341</v>
+        <v>204361.3937283807</v>
       </c>
       <c r="AX28" s="3">
-        <f t="shared" ref="AX28:DA28" si="94">+AW28*(1+$AY$32)</f>
-        <v>203564.45926462341</v>
+        <f t="shared" ref="AX28:DA28" si="92">+AW28*(1+$AY$32)</f>
+        <v>204361.3937283807</v>
       </c>
       <c r="AY28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="AZ28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BA28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BB28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BC28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BD28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BE28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BF28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BG28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BH28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BI28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BJ28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BK28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BL28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BM28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BN28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BO28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BP28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BQ28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BR28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BS28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BT28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BU28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BV28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BW28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BX28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BY28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="BZ28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CA28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CB28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CC28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CD28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CE28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CF28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CG28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CH28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CI28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CJ28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CK28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CL28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CM28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CN28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CO28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CP28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CQ28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CR28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CS28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CT28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CU28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CV28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CW28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CX28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CY28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="CZ28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
       </c>
       <c r="DA28" s="3">
-        <f t="shared" si="94"/>
-        <v>203564.45926462341</v>
-      </c>
-    </row>
-    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="92"/>
+        <v>204361.3937283807</v>
+      </c>
+    </row>
+    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="14">
-        <f t="shared" ref="C29" si="95">C28/C30</f>
+        <f t="shared" ref="C29" si="93">C28/C30</f>
         <v>11.919318455824756</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14">
-        <f t="shared" ref="G29" si="96">G28/G30</f>
+        <f t="shared" ref="G29" si="94">G28/G30</f>
         <v>9.8748026411774639</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" ref="H29" si="97">H28/H30</f>
+        <f t="shared" ref="H29" si="95">H28/H30</f>
         <v>10.129194904399265</v>
       </c>
       <c r="I29" s="14">
-        <f t="shared" ref="I29" si="98">I28/I30</f>
+        <f t="shared" ref="I29" si="96">I28/I30</f>
         <v>16.398605528022852</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" ref="J29" si="99">J28/J30</f>
+        <f t="shared" ref="J29" si="97">J28/J30</f>
         <v>22.295301836540162</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" ref="K29:N29" si="100">K28/K30</f>
+        <f t="shared" ref="K29:N29" si="98">K28/K30</f>
         <v>26.287585896482916</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v>1.3364479105356091</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v>27.990344690984287</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="100"/>
+        <f t="shared" si="98"/>
         <v>30.69474329100823</v>
       </c>
       <c r="O29" s="14">
@@ -5372,48 +5367,48 @@
         <v>24.621339792764896</v>
       </c>
       <c r="P29" s="14">
-        <f t="shared" ref="P29:Z29" si="101">P28/P30</f>
+        <f t="shared" ref="P29:Z29" si="99">P28/P30</f>
         <v>1.2087015635622025</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>1.0620752844162786</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>1.0522901058160192</v>
       </c>
       <c r="S29" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>1.1737502924432659</v>
       </c>
       <c r="T29" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>1.4544302795154012</v>
       </c>
       <c r="U29" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>1.5508034026465027</v>
       </c>
       <c r="V29" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>1.6415648309792097</v>
       </c>
       <c r="W29" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>1.8888800191586175</v>
       </c>
       <c r="X29" s="14">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>1.8902761104441776</v>
       </c>
       <c r="Y29" s="14">
-        <f t="shared" si="101"/>
-        <v>2.0057349579831936</v>
+        <f t="shared" si="99"/>
+        <v>1.8613414928738223</v>
       </c>
       <c r="Z29" s="14">
-        <f t="shared" si="101"/>
-        <v>2.2216635918367347</v>
+        <f t="shared" si="99"/>
+        <v>2.20452822288429</v>
       </c>
       <c r="AL29" s="17">
         <f>AL28/AL30</f>
@@ -5432,35 +5427,35 @@
         <v>5.5750363586206904</v>
       </c>
       <c r="AP29" s="17">
-        <f t="shared" ref="AP29:AV29" si="102">AP28/AP30</f>
-        <v>8.0113921472589045</v>
+        <f t="shared" ref="AP29:AV29" si="100">AP28/AP30</f>
+        <v>7.8730200499235021</v>
       </c>
       <c r="AQ29" s="17">
-        <f t="shared" si="102"/>
-        <v>7.985376604742382</v>
+        <f t="shared" si="100"/>
+        <v>8.0315480952733758</v>
       </c>
       <c r="AR29" s="17">
-        <f t="shared" si="102"/>
-        <v>9.2957355240304587</v>
+        <f t="shared" si="100"/>
+        <v>9.3599062991062638</v>
       </c>
       <c r="AS29" s="17">
-        <f t="shared" si="102"/>
-        <v>10.869972027816566</v>
+        <f t="shared" si="100"/>
+        <v>10.956777132463838</v>
       </c>
       <c r="AT29" s="17">
-        <f t="shared" si="102"/>
-        <v>12.428469328534762</v>
+        <f t="shared" si="100"/>
+        <v>12.53680433809582</v>
       </c>
       <c r="AU29" s="17">
-        <f t="shared" si="102"/>
-        <v>14.222868450389354</v>
+        <f t="shared" si="100"/>
+        <v>14.356658708154734</v>
       </c>
       <c r="AV29" s="17">
-        <f t="shared" si="102"/>
-        <v>16.291673410534088</v>
-      </c>
-    </row>
-    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="100"/>
+        <v>16.455543419629656</v>
+      </c>
+    </row>
+    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
@@ -5525,12 +5520,11 @@
         <v>12495</v>
       </c>
       <c r="Y30" s="11">
-        <f>X30</f>
-        <v>12495</v>
+        <v>12419</v>
       </c>
       <c r="Z30" s="11">
         <f>Y30</f>
-        <v>12495</v>
+        <v>12419</v>
       </c>
       <c r="AG30" s="3">
         <v>687.34799999999996</v>
@@ -5554,34 +5548,34 @@
       </c>
       <c r="AP30" s="3">
         <f>Z30</f>
-        <v>12495</v>
+        <v>12419</v>
       </c>
       <c r="AQ30" s="3">
-        <f t="shared" ref="AQ30:AV30" si="103">+AP30</f>
-        <v>12495</v>
+        <f t="shared" ref="AQ30:AV30" si="101">+AP30</f>
+        <v>12419</v>
       </c>
       <c r="AR30" s="3">
-        <f t="shared" si="103"/>
-        <v>12495</v>
+        <f t="shared" si="101"/>
+        <v>12419</v>
       </c>
       <c r="AS30" s="3">
-        <f t="shared" si="103"/>
-        <v>12495</v>
+        <f t="shared" si="101"/>
+        <v>12419</v>
       </c>
       <c r="AT30" s="3">
-        <f t="shared" si="103"/>
-        <v>12495</v>
+        <f t="shared" si="101"/>
+        <v>12419</v>
       </c>
       <c r="AU30" s="3">
-        <f t="shared" si="103"/>
-        <v>12495</v>
+        <f t="shared" si="101"/>
+        <v>12419</v>
       </c>
       <c r="AV30" s="3">
-        <f t="shared" si="103"/>
-        <v>12495</v>
-      </c>
-    </row>
-    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="101"/>
+        <v>12419</v>
+      </c>
+    </row>
+    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
@@ -5594,19 +5588,19 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16">
-        <f t="shared" ref="K32:L32" si="104">K16/G16-1</f>
+        <f t="shared" ref="K32:L32" si="102">K16/G16-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="L32" s="16">
-        <f t="shared" si="104"/>
+        <f t="shared" si="102"/>
         <v>0.61579235971486024</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" ref="M32" si="105">M16/I16-1</f>
+        <f t="shared" ref="M32" si="103">M16/I16-1</f>
         <v>0.41030472353973102</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" ref="N32" si="106">N16/J16-1</f>
+        <f t="shared" ref="N32" si="104">N16/J16-1</f>
         <v>0.32386024113325607</v>
       </c>
       <c r="O32" s="16">
@@ -5614,11 +5608,11 @@
         <v>0.22954405756228069</v>
       </c>
       <c r="P32" s="16">
-        <f t="shared" ref="P32:T32" si="107">P16/L16-1</f>
+        <f t="shared" ref="P32:T32" si="105">P16/L16-1</f>
         <v>0.12613122171945701</v>
       </c>
       <c r="Q32" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>6.1027672840074931E-2</v>
       </c>
       <c r="R32" s="16">
@@ -5630,105 +5624,105 @@
         <v>2.6113422828660138E-2</v>
       </c>
       <c r="T32" s="16">
-        <f t="shared" si="107"/>
+        <f t="shared" si="105"/>
         <v>7.0589079428858392E-2</v>
       </c>
       <c r="U32" s="16">
-        <f t="shared" ref="U32:Z32" si="108">U16/Q16-1</f>
+        <f t="shared" ref="U32:Z32" si="106">U16/Q16-1</f>
         <v>0.11001273664100042</v>
       </c>
       <c r="V32" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.13494108983799702</v>
       </c>
       <c r="W32" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.15406880937710454</v>
       </c>
       <c r="X32" s="16">
-        <f t="shared" si="108"/>
+        <f t="shared" si="106"/>
         <v>0.13589083695244231</v>
       </c>
       <c r="Y32" s="16">
-        <f t="shared" si="108"/>
-        <v>0.12545669096266954</v>
+        <f t="shared" si="106"/>
+        <v>0.15092642092498654</v>
       </c>
       <c r="Z32" s="16">
-        <f t="shared" si="108"/>
-        <v>0.11879144942648612</v>
+        <f t="shared" si="106"/>
+        <v>0.11283744641408866</v>
       </c>
       <c r="AA32" s="16"/>
       <c r="AE32" s="18">
-        <f t="shared" ref="AE32:AN32" si="109">AE16/AD16-1</f>
+        <f t="shared" ref="AE32:AN32" si="107">AE16/AD16-1</f>
         <v>0.2059123786355046</v>
       </c>
       <c r="AF32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.18880023055170292</v>
       </c>
       <c r="AG32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.13617975485219924</v>
       </c>
       <c r="AH32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.20380322447292265</v>
       </c>
       <c r="AI32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.22801090038993266</v>
       </c>
       <c r="AJ32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.23421586757475987</v>
       </c>
       <c r="AK32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.18300089899794614</v>
       </c>
       <c r="AL32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.12770532012826141</v>
       </c>
       <c r="AM32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>0.41150076427049154</v>
       </c>
       <c r="AN32" s="18">
-        <f t="shared" si="109"/>
+        <f t="shared" si="107"/>
         <v>9.7808156437157789E-2</v>
       </c>
       <c r="AO32" s="18">
-        <f t="shared" ref="AO32:AV32" si="110">AO16/AN16-1</f>
+        <f t="shared" ref="AO32:AV32" si="108">AO16/AN16-1</f>
         <v>8.6827702272695095E-2</v>
       </c>
       <c r="AP32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.13261332361724709</v>
+        <f t="shared" si="108"/>
+        <v>0.13729610857726571</v>
       </c>
       <c r="AQ32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.10412638362971083</v>
+        <f t="shared" si="108"/>
+        <v>0.10448257713144815</v>
       </c>
       <c r="AR32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.11026139139160085</v>
+        <f t="shared" si="108"/>
+        <v>0.11069856256356436</v>
       </c>
       <c r="AS32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.11644684280285333</v>
+        <f t="shared" si="108"/>
+        <v>0.11691405018355705</v>
       </c>
       <c r="AT32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.1036031983466168</v>
+        <f t="shared" si="108"/>
+        <v>0.10392816102602787</v>
       </c>
       <c r="AU32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.10631481514307928</v>
+        <f t="shared" si="108"/>
+        <v>0.1066436438830709</v>
       </c>
       <c r="AV32" s="18">
-        <f t="shared" si="110"/>
-        <v>0.10909127682064845</v>
+        <f t="shared" si="108"/>
+        <v>0.10942330944041534</v>
       </c>
       <c r="AX32" s="18" t="s">
         <v>72</v>
@@ -5737,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
@@ -5779,7 +5773,9 @@
       <c r="X33" s="16">
         <v>0.15</v>
       </c>
-      <c r="Y33" s="16"/>
+      <c r="Y33" s="16">
+        <v>0.16</v>
+      </c>
       <c r="Z33" s="16"/>
       <c r="AN33" s="18">
         <v>0.14000000000000001</v>
@@ -5791,7 +5787,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
@@ -5804,19 +5800,19 @@
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
       <c r="K34" s="15">
-        <f t="shared" ref="K34" si="111">+K14/G14-1</f>
+        <f t="shared" ref="K34" si="109">+K14/G14-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" ref="L34:N34" si="112">+L14/H14-1</f>
+        <f t="shared" ref="L34:N34" si="110">+L14/H14-1</f>
         <v>0.68136404146535945</v>
       </c>
       <c r="M34" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="110"/>
         <v>0.43997266307236682</v>
       </c>
       <c r="N34" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="110"/>
         <v>0.35727047613077145</v>
       </c>
       <c r="O34" s="15">
@@ -5836,55 +5832,55 @@
         <v>-1.6096625943973542E-2</v>
       </c>
       <c r="S34" s="15">
-        <f t="shared" ref="S34:V34" si="113">+S14/O14-1</f>
+        <f t="shared" ref="S34:V34" si="111">+S14/O14-1</f>
         <v>1.8703619566863505E-2</v>
       </c>
       <c r="T34" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>4.7654157143208309E-2</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>0.11348289031083225</v>
       </c>
       <c r="V34" s="15">
-        <f t="shared" si="113"/>
+        <f t="shared" si="111"/>
         <v>0.12712421368885551</v>
       </c>
       <c r="W34" s="15">
-        <f t="shared" ref="W34:X34" si="114">+W14/S14-1</f>
+        <f t="shared" ref="W34:X34" si="112">+W14/S14-1</f>
         <v>0.14363586808394668</v>
       </c>
       <c r="X34" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="112"/>
         <v>0.13796096462419061</v>
       </c>
       <c r="Y34" s="15">
-        <f t="shared" ref="Y34" si="115">+Y14/U14-1</f>
-        <v>0.1100000000000001</v>
+        <f t="shared" ref="Y34" si="113">+Y14/U14-1</f>
+        <v>0.12172352700676869</v>
       </c>
       <c r="Z34" s="15">
-        <f t="shared" ref="Z34" si="116">+Z14/V14-1</f>
-        <v>0.1100000000000001</v>
+        <f t="shared" ref="Z34" si="114">+Z14/V14-1</f>
+        <v>0.12523948354852155</v>
       </c>
       <c r="AJ34" s="5">
-        <f t="shared" ref="AJ34:AN34" si="117">+AJ14/AI14-1</f>
+        <f t="shared" ref="AJ34:AN34" si="115">+AJ14/AI14-1</f>
         <v>0.22181318130380601</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>0.15028840742824978</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>6.0612546501554343E-2</v>
       </c>
       <c r="AM34" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>0.43136783840402826</v>
       </c>
       <c r="AN34" s="5">
-        <f t="shared" si="117"/>
+        <f t="shared" si="115"/>
         <v>9.0627118985438182E-2</v>
       </c>
       <c r="AO34" s="5">
@@ -5892,31 +5888,31 @@
         <v>7.7457679285934056E-2</v>
       </c>
       <c r="AP34" s="15">
-        <f t="shared" ref="AP34:AV34" si="118">+AP14/AO14-1</f>
-        <v>0.12456542480560828</v>
+        <f t="shared" ref="AP34:AV34" si="116">+AP14/AO14-1</f>
+        <v>0.13169516605440124</v>
       </c>
       <c r="AQ34" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AR34" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AS34" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AT34" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AU34" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AV34" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="116"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AX34" s="5" t="s">
@@ -5926,7 +5922,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
@@ -5939,31 +5935,31 @@
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
       <c r="K35" s="15">
-        <f t="shared" ref="K35" si="119">+K13/G13-1</f>
+        <f t="shared" ref="K35" si="117">+K13/G13-1</f>
         <v>0.48712233779098568</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" ref="L35:Q35" si="120">+L13/H13-1</f>
+        <f t="shared" ref="L35:Q35" si="118">+L13/H13-1</f>
         <v>0.83683105981112282</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.4304149295215407</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>0.143880099916736</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" si="120"/>
+        <f t="shared" si="118"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="R35" s="15">
@@ -5971,51 +5967,51 @@
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="S35" s="15">
-        <f t="shared" ref="S35:V35" si="121">+S13/O13-1</f>
+        <f t="shared" ref="S35:V35" si="119">+S13/O13-1</f>
         <v>-2.5622361333527466E-2</v>
       </c>
       <c r="T35" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>4.4277929155313256E-2</v>
       </c>
       <c r="U35" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.12459340970159816</v>
       </c>
       <c r="V35" s="15">
-        <f t="shared" si="121"/>
+        <f t="shared" si="119"/>
         <v>0.15534346351877426</v>
       </c>
       <c r="W35" s="15">
-        <f t="shared" ref="W35:X35" si="122">+W13/S13-1</f>
+        <f t="shared" ref="W35:X35" si="120">+W13/S13-1</f>
         <v>0.20872553414014638</v>
       </c>
       <c r="X35" s="15">
-        <f t="shared" si="122"/>
+        <f t="shared" si="120"/>
         <v>0.13020221787345077</v>
       </c>
       <c r="Y35" s="15">
-        <f t="shared" ref="Y35" si="123">+Y13/U13-1</f>
-        <v>0.1100000000000001</v>
+        <f t="shared" ref="Y35" si="121">+Y13/U13-1</f>
+        <v>0.12185613682092544</v>
       </c>
       <c r="Z35" s="15">
-        <f t="shared" ref="Z35" si="124">+Z13/V13-1</f>
-        <v>0.1100000000000001</v>
+        <f t="shared" ref="Z35" si="122">+Z13/V13-1</f>
+        <v>0.1383695652173913</v>
       </c>
       <c r="AJ35" s="5">
-        <f t="shared" ref="AJ35:AM35" si="125">+AJ13/AI13-1</f>
+        <f t="shared" ref="AJ35:AM35" si="123">+AJ13/AI13-1</f>
         <v>0.36871165644171788</v>
       </c>
       <c r="AK35" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>0.35804571940833707</v>
       </c>
       <c r="AL35" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>0.30516865799722748</v>
       </c>
       <c r="AM35" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="123"/>
         <v>0.45888124620675708</v>
       </c>
       <c r="AN35" s="5">
@@ -6027,31 +6023,31 @@
         <v>7.7522825975447018E-2</v>
       </c>
       <c r="AP35" s="15">
-        <f t="shared" ref="AP35:AV35" si="126">+AP13/AO13-1</f>
-        <v>0.13588448111710583</v>
+        <f t="shared" ref="AP35:AV35" si="124">+AP13/AO13-1</f>
+        <v>0.14715963186290071</v>
       </c>
       <c r="AQ35" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AR35" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AS35" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AT35" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AU35" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AV35" s="15">
-        <f t="shared" si="126"/>
+        <f t="shared" si="124"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AX35" s="5" t="s">
@@ -6059,10 +6055,10 @@
       </c>
       <c r="AY35" s="3">
         <f>NPV(AY33,AO28:DA28)+Main!L5-Main!L6</f>
-        <v>2531459.5611554091</v>
-      </c>
-    </row>
-    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2537226.5494065438</v>
+      </c>
+    </row>
+    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
@@ -6075,19 +6071,19 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15">
-        <f t="shared" ref="K36" si="127">K15/G15-1</f>
+        <f t="shared" ref="K36" si="125">K15/G15-1</f>
         <v>0.33980836693020566</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" ref="L36" si="128">L15/H15-1</f>
+        <f t="shared" ref="L36" si="126">L15/H15-1</f>
         <v>0.63090508988025484</v>
       </c>
       <c r="M36" s="15">
-        <f t="shared" ref="M36" si="129">M15/I15-1</f>
+        <f t="shared" ref="M36" si="127">M15/I15-1</f>
         <v>0.40661921875367013</v>
       </c>
       <c r="N36" s="15">
-        <f t="shared" ref="N36" si="130">N15/J15-1</f>
+        <f t="shared" ref="N36" si="128">N15/J15-1</f>
         <v>0.31257919921320898</v>
       </c>
       <c r="O36" s="15">
@@ -6095,11 +6091,11 @@
         <v>0.20114111532299028</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" ref="P36:Q36" si="131">P15/L15-1</f>
+        <f t="shared" ref="P36:Q36" si="129">P15/L15-1</f>
         <v>0.10117931554138115</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="131"/>
+        <f t="shared" si="129"/>
         <v>2.4931534299645897E-2</v>
       </c>
       <c r="R36" s="15">
@@ -6107,55 +6103,55 @@
         <v>-2.2507204610951015E-2</v>
       </c>
       <c r="S36" s="15">
-        <f t="shared" ref="S36:V36" si="132">S15/O15-1</f>
+        <f t="shared" ref="S36:V36" si="130">S15/O15-1</f>
         <v>7.9548412285268544E-3</v>
       </c>
       <c r="T36" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>5.4804984007256419E-2</v>
       </c>
       <c r="U36" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0.1076787721785033</v>
       </c>
       <c r="V36" s="15">
-        <f t="shared" si="132"/>
+        <f t="shared" si="130"/>
         <v>0.12490049824582083</v>
       </c>
       <c r="W36" s="15">
-        <f t="shared" ref="W36:X36" si="133">W15/S15-1</f>
+        <f t="shared" ref="W36:X36" si="131">W15/S15-1</f>
         <v>0.13616629815529113</v>
       </c>
       <c r="X36" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="131"/>
         <v>0.11530512182243347</v>
       </c>
       <c r="Y36" s="15">
-        <f t="shared" ref="Y36" si="134">Y15/U15-1</f>
-        <v>0.1100000000000001</v>
+        <f t="shared" ref="Y36" si="132">Y15/U15-1</f>
+        <v>0.12537875444944557</v>
       </c>
       <c r="Z36" s="15">
-        <f t="shared" ref="Z36" si="135">Z15/V15-1</f>
-        <v>0.1100000000000001</v>
+        <f t="shared" ref="Z36" si="133">Z15/V15-1</f>
+        <v>0.10199053871656782</v>
       </c>
       <c r="AJ36" s="5">
-        <f t="shared" ref="AJ36:AN36" si="136">+AJ15/AI15-1</f>
+        <f t="shared" ref="AJ36:AN36" si="134">+AJ15/AI15-1</f>
         <v>0.22568104346846218</v>
       </c>
       <c r="AK36" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>0.16319604057491333</v>
       </c>
       <c r="AL36" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>0.11071957846204517</v>
       </c>
       <c r="AM36" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>0.40853915260770313</v>
       </c>
       <c r="AN36" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="134"/>
         <v>6.7355986005919188E-2</v>
       </c>
       <c r="AO36" s="5">
@@ -6163,42 +6159,42 @@
         <v>7.5001577735003711E-2</v>
       </c>
       <c r="AP36" s="15">
-        <f t="shared" ref="AP36:AV36" si="137">+AP15/AO15-1</f>
-        <v>0.11723900448736546</v>
+        <f t="shared" ref="AP36:AV36" si="135">+AP15/AO15-1</f>
+        <v>0.11883262457667221</v>
       </c>
       <c r="AQ36" s="15">
-        <f t="shared" si="137"/>
-        <v>7.7601197744454176E-2</v>
+        <f t="shared" si="135"/>
+        <v>7.7843177122618457E-2</v>
       </c>
       <c r="AR36" s="15">
-        <f t="shared" si="137"/>
-        <v>7.8481547127407847E-2</v>
+        <f t="shared" si="135"/>
+        <v>7.8716690877616013E-2</v>
       </c>
       <c r="AS36" s="15">
-        <f t="shared" si="137"/>
-        <v>7.9342678548864454E-2</v>
+        <f t="shared" si="135"/>
+        <v>7.957082862403686E-2</v>
       </c>
       <c r="AT36" s="15">
-        <f t="shared" si="137"/>
-        <v>8.0183726308130643E-2</v>
+        <f t="shared" si="135"/>
+        <v>8.0404757613526057E-2</v>
       </c>
       <c r="AU36" s="15">
-        <f t="shared" si="137"/>
-        <v>8.1003935914955694E-2</v>
+        <f t="shared" si="135"/>
+        <v>8.1217755543749437E-2</v>
       </c>
       <c r="AV36" s="15">
-        <f t="shared" si="137"/>
-        <v>8.1802663671167286E-2</v>
+        <f t="shared" si="135"/>
+        <v>8.2009209864399413E-2</v>
       </c>
       <c r="AX36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AY36" s="1">
         <f>+AY35/Main!L3</f>
-        <v>199.39032460266296</v>
-      </c>
-    </row>
-    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>199.84456123239949</v>
+      </c>
+    </row>
+    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>43</v>
       </c>
@@ -6211,19 +6207,19 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15">
-        <f t="shared" ref="K37" si="138">K10/G10-1</f>
+        <f t="shared" ref="K37" si="136">K10/G10-1</f>
         <v>0.4573280518545193</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" ref="L37" si="139">L10/H10-1</f>
+        <f t="shared" ref="L37" si="137">L10/H10-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="M37" s="15">
-        <f t="shared" ref="M37" si="140">M10/I10-1</f>
+        <f t="shared" ref="M37" si="138">M10/I10-1</f>
         <v>0.44889663182346107</v>
       </c>
       <c r="N37" s="15">
-        <f t="shared" ref="N37" si="141">N10/J10-1</f>
+        <f t="shared" ref="N37" si="139">N10/J10-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="O37" s="15">
@@ -6231,11 +6227,11 @@
         <v>0.4383493946132937</v>
       </c>
       <c r="P37" s="15">
-        <f t="shared" ref="P37:Q37" si="142">P10/L10-1</f>
+        <f t="shared" ref="P37:Q37" si="140">P10/L10-1</f>
         <v>0.35609334485738975</v>
       </c>
       <c r="Q37" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="140"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="R37" s="15">
@@ -6243,55 +6239,55 @@
         <v>0.3201588160981772</v>
       </c>
       <c r="S37" s="15">
-        <f t="shared" ref="S37:V37" si="143">S10/O10-1</f>
+        <f t="shared" ref="S37:V37" si="141">S10/O10-1</f>
         <v>0.28053599037965982</v>
       </c>
       <c r="T37" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.2796367112810707</v>
       </c>
       <c r="U37" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.22466511357018049</v>
       </c>
       <c r="V37" s="15">
-        <f t="shared" si="143"/>
+        <f t="shared" si="141"/>
         <v>0.25659603554340404</v>
       </c>
       <c r="W37" s="15">
-        <f t="shared" ref="W37:X37" si="144">W10/S10-1</f>
+        <f t="shared" ref="W37:X37" si="142">W10/S10-1</f>
         <v>0.28441105446740012</v>
       </c>
       <c r="X37" s="15">
+        <f t="shared" si="142"/>
+        <v>0.28838251774374291</v>
+      </c>
+      <c r="Y37" s="15">
+        <f>Y10/U10-1</f>
+        <v>0.34978004993460954</v>
+      </c>
+      <c r="Z37" s="15">
+        <f t="shared" ref="Z37" si="143">Z10/V10-1</f>
+        <v>0.3005874673629243</v>
+      </c>
+      <c r="AJ37" s="5">
+        <f t="shared" ref="AJ37:AN37" si="144">+AJ10/AI10-1</f>
+        <v>0.43934911242603558</v>
+      </c>
+      <c r="AK37" s="5">
         <f t="shared" si="144"/>
-        <v>0.28838251774374291</v>
-      </c>
-      <c r="Y37" s="15">
-        <f t="shared" ref="Y37" si="145">Y10/U10-1</f>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="Z37" s="15">
-        <f t="shared" ref="Z37" si="146">Z10/V10-1</f>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="AJ37" s="5">
-        <f t="shared" ref="AJ37:AN37" si="147">+AJ10/AI10-1</f>
-        <v>0.43934911242603558</v>
-      </c>
-      <c r="AK37" s="5">
-        <f t="shared" si="147"/>
         <v>0.52757793764988015</v>
       </c>
       <c r="AL37" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>0.46434178066831122</v>
       </c>
       <c r="AM37" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>0.47070985527222597</v>
       </c>
       <c r="AN37" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="144"/>
         <v>0.36832239925023424</v>
       </c>
       <c r="AO37" s="5">
@@ -6299,31 +6295,31 @@
         <v>0.25905631659056327</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" ref="AP37:AV37" si="148">+AP10/AO10-1</f>
-        <v>0.28834834381044505</v>
+        <f t="shared" ref="AP37:AV37" si="145">+AP10/AO10-1</f>
+        <v>0.30648573500967125</v>
       </c>
       <c r="AQ37" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="145"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AR37" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="145"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AS37" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="145"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AT37" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="145"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AU37" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="145"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AV37" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="145"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AX37" s="5" t="s">
@@ -6333,7 +6329,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="18" t="s">
         <v>33</v>
       </c>
@@ -6342,19 +6338,19 @@
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16">
-        <f t="shared" ref="G38:H38" si="149">G19/G16</f>
+        <f t="shared" ref="G38:H38" si="146">G19/G16</f>
         <v>0.53881289632887097</v>
       </c>
       <c r="H38" s="16">
-        <f t="shared" si="149"/>
+        <f t="shared" si="146"/>
         <v>0.51554952085019712</v>
       </c>
       <c r="I38" s="16">
-        <f t="shared" ref="I38" si="150">I19/I16</f>
+        <f t="shared" ref="I38" si="147">I19/I16</f>
         <v>0.54265479825872265</v>
       </c>
       <c r="J38" s="16">
-        <f t="shared" ref="J38" si="151">J19/J16</f>
+        <f t="shared" ref="J38" si="148">J19/J16</f>
         <v>0.54163590987380927</v>
       </c>
       <c r="K38" s="16">
@@ -6362,27 +6358,27 @@
         <v>0.56425136493473627</v>
       </c>
       <c r="L38" s="16">
-        <f t="shared" ref="L38:O38" si="152">L19/L16</f>
+        <f t="shared" ref="L38:O38" si="149">L19/L16</f>
         <v>0.57616354234001288</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="149"/>
         <v>0.57583156730857832</v>
       </c>
       <c r="N38" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="149"/>
         <v>0.56205774975107869</v>
       </c>
       <c r="O38" s="16">
-        <f t="shared" si="152"/>
+        <f t="shared" si="149"/>
         <v>0.5647909896928438</v>
       </c>
       <c r="P38" s="16">
-        <f t="shared" ref="P38:Q38" si="153">P19/P16</f>
+        <f t="shared" ref="P38:Q38" si="150">P19/P16</f>
         <v>0.56799885197675248</v>
       </c>
       <c r="Q38" s="16">
-        <f t="shared" si="153"/>
+        <f t="shared" si="150"/>
         <v>0.54903606785156023</v>
       </c>
       <c r="R38" s="16">
@@ -6390,63 +6386,63 @@
         <v>0.53526719966337055</v>
       </c>
       <c r="S38" s="16">
-        <f t="shared" ref="S38:V38" si="154">S19/S16</f>
+        <f t="shared" ref="S38:V38" si="151">S19/S16</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="T38" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="151"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="U38" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="151"/>
         <v>0.56672708069836886</v>
       </c>
       <c r="V38" s="16">
-        <f t="shared" si="154"/>
+        <f t="shared" si="151"/>
         <v>0.56465067778936395</v>
       </c>
       <c r="W38" s="16">
-        <f t="shared" ref="W38:Z38" si="155">W19/W16</f>
+        <f t="shared" ref="W38:Z38" si="152">W19/W16</f>
         <v>0.58142018152696207</v>
       </c>
       <c r="X38" s="16">
+        <f t="shared" si="152"/>
+        <v>0.58099879634655782</v>
+      </c>
+      <c r="Y38" s="16">
+        <f t="shared" si="152"/>
+        <v>0.58678116644763678</v>
+      </c>
+      <c r="Z38" s="16">
+        <f t="shared" si="152"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AF38" s="18">
+        <f t="shared" ref="AF38" si="153">AF19/AF16</f>
+        <v>0.6107483219951213</v>
+      </c>
+      <c r="AG38" s="18">
+        <f t="shared" ref="AG38" si="154">AG19/AG16</f>
+        <v>0.62442491565429592</v>
+      </c>
+      <c r="AH38" s="18">
+        <f t="shared" ref="AH38:AI38" si="155">AH19/AH16</f>
+        <v>0.61075416518964909</v>
+      </c>
+      <c r="AI38" s="18">
         <f t="shared" si="155"/>
-        <v>0.58099879634655782</v>
-      </c>
-      <c r="Y38" s="16">
-        <f t="shared" si="155"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Z38" s="16">
-        <f t="shared" si="155"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="AF38" s="18">
-        <f t="shared" ref="AF38" si="156">AF19/AF16</f>
-        <v>0.6107483219951213</v>
-      </c>
-      <c r="AG38" s="18">
-        <f t="shared" ref="AG38" si="157">AG19/AG16</f>
-        <v>0.62442491565429592</v>
-      </c>
-      <c r="AH38" s="18">
-        <f t="shared" ref="AH38:AI38" si="158">AH19/AH16</f>
-        <v>0.61075416518964909</v>
-      </c>
-      <c r="AI38" s="18">
-        <f t="shared" si="158"/>
         <v>0.58880519597672631</v>
       </c>
       <c r="AJ38" s="18">
-        <f t="shared" ref="AJ38:AL38" si="159">AJ19/AJ16</f>
+        <f t="shared" ref="AJ38:AL38" si="156">AJ19/AJ16</f>
         <v>0.5647607422945643</v>
       </c>
       <c r="AK38" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.5558054331910266</v>
       </c>
       <c r="AL38" s="18">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.53578374706207854</v>
       </c>
       <c r="AM38" s="18">
@@ -6458,35 +6454,35 @@
         <v>0.55379442503783116</v>
       </c>
       <c r="AO38" s="18">
-        <f t="shared" ref="AO38" si="160">AO19/AO16</f>
+        <f t="shared" ref="AO38" si="157">AO19/AO16</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="AP38" s="16">
-        <f t="shared" ref="AP38:AV38" si="161">AP19/AP16</f>
-        <v>0.58057163612875895</v>
+        <f t="shared" ref="AP38:AV38" si="158">AP19/AP16</f>
+        <v>0.58228142037425834</v>
       </c>
       <c r="AQ38" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AR38" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AS38" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AT38" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AU38" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AV38" s="16">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AX38" s="18" t="s">
@@ -6494,10 +6490,10 @@
       </c>
       <c r="AY38" s="18">
         <f>+AY36/AY37-1</f>
-        <v>0.22325352516971142</v>
-      </c>
-    </row>
-    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>0.22604025295950603</v>
+      </c>
+    </row>
+    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
@@ -6506,7 +6502,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
-        <f t="shared" ref="G39" si="162">+G27/G26</f>
+        <f t="shared" ref="G39" si="159">+G27/G26</f>
         <v>0.11873146835116669</v>
       </c>
       <c r="H39" s="15">
@@ -6514,39 +6510,39 @@
         <v>0.15923643832306392</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" ref="I39:Q39" si="163">+I27/I26</f>
+        <f t="shared" ref="I39:Q39" si="160">+I27/I26</f>
         <v>0.15809566584325174</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.18524265610787094</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.15754357938260583</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.16</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.17898022892819979</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.15408573067781328</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.13193197422625963</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.15840959293152415</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.14310355448777182</v>
       </c>
       <c r="R39" s="15">
@@ -6554,67 +6550,67 @@
         <v>0.20545868081880211</v>
       </c>
       <c r="S39" s="15">
-        <f t="shared" ref="S39:V39" si="164">+S27/S26</f>
+        <f t="shared" ref="S39:V39" si="161">+S27/S26</f>
         <v>0.17324910738808019</v>
       </c>
       <c r="T39" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>0.16139341642697347</v>
       </c>
       <c r="U39" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>7.1142142756050381E-2</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>0.15258889070948714</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" ref="W39:X39" si="165">+W27/W26</f>
+        <f t="shared" ref="W39:X39" si="162">+W27/W26</f>
         <v>0.16432986049796927</v>
       </c>
       <c r="X39" s="15">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.14271714275343908</v>
       </c>
       <c r="Y39" s="15">
-        <f t="shared" ref="Y39:Z39" si="166">+Y27/Y26</f>
+        <f t="shared" ref="Y39:Z39" si="163">+Y27/Y26</f>
+        <v>0.18950948423968303</v>
+      </c>
+      <c r="Z39" s="15">
+        <f t="shared" si="163"/>
         <v>0.1</v>
       </c>
-      <c r="Z39" s="15">
+      <c r="AF39" s="15">
+        <f t="shared" ref="AF39" si="164">+AF27/AF26</f>
+        <v>0.21084651486181122</v>
+      </c>
+      <c r="AG39" s="15">
+        <f t="shared" ref="AG39" si="165">+AG27/AG26</f>
+        <v>0.16808304920869166</v>
+      </c>
+      <c r="AH39" s="15">
+        <f t="shared" ref="AH39:AI39" si="166">+AH27/AH26</f>
+        <v>0.19345755693581781</v>
+      </c>
+      <c r="AI39" s="15">
         <f t="shared" si="166"/>
-        <v>0.1</v>
-      </c>
-      <c r="AF39" s="15">
-        <f t="shared" ref="AF39" si="167">+AF27/AF26</f>
-        <v>0.21084651486181122</v>
-      </c>
-      <c r="AG39" s="15">
-        <f t="shared" ref="AG39" si="168">+AG27/AG26</f>
-        <v>0.16808304920869166</v>
-      </c>
-      <c r="AH39" s="15">
-        <f t="shared" ref="AH39:AI39" si="169">+AH27/AH26</f>
-        <v>0.19345755693581781</v>
-      </c>
-      <c r="AI39" s="15">
-        <f t="shared" si="169"/>
         <v>0.48551572053860803</v>
       </c>
       <c r="AJ39" s="15">
-        <f t="shared" ref="AJ39:AL39" si="170">+AJ27/AJ26</f>
+        <f t="shared" ref="AJ39:AL39" si="167">+AJ27/AJ26</f>
         <v>0.10446678671468587</v>
       </c>
       <c r="AK39" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="167"/>
         <v>0.12782537147282319</v>
       </c>
       <c r="AL39" s="15">
-        <f t="shared" si="170"/>
+        <f t="shared" si="167"/>
         <v>0.16249324071378063</v>
       </c>
       <c r="AM39" s="15">
-        <f t="shared" ref="AM39:AO39" si="171">+AM27/AM26</f>
+        <f t="shared" ref="AM39:AO39" si="168">+AM27/AM26</f>
         <v>0.16202305640663919</v>
       </c>
       <c r="AN39" s="15">
@@ -6622,39 +6618,39 @@
         <v>0.1592081650964558</v>
       </c>
       <c r="AO39" s="15">
-        <f t="shared" si="171"/>
+        <f t="shared" si="168"/>
         <v>0.18</v>
       </c>
       <c r="AP39" s="15">
-        <f t="shared" ref="AP39:AV39" si="172">+AP27/AP26</f>
-        <v>0.12617401070322898</v>
+        <f t="shared" ref="AP39:AV39" si="169">+AP27/AP26</f>
+        <v>0.14835330655681048</v>
       </c>
       <c r="AQ39" s="15">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>0.18</v>
       </c>
       <c r="AR39" s="15">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>0.18</v>
       </c>
       <c r="AS39" s="15">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>0.18</v>
       </c>
       <c r="AT39" s="15">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="AU39" s="15">
+        <f t="shared" si="169"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="AV39" s="15">
+        <f t="shared" si="169"/>
         <v>0.18</v>
       </c>
-      <c r="AU39" s="15">
-        <f t="shared" si="172"/>
-        <v>0.17999999999999997</v>
-      </c>
-      <c r="AV39" s="15">
-        <f t="shared" si="172"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
@@ -6663,15 +6659,15 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15">
-        <f t="shared" ref="G40:H40" si="173">G14/G16</f>
+        <f t="shared" ref="G40:H40" si="170">G14/G16</f>
         <v>0.5953011492018756</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="173"/>
+        <f t="shared" si="170"/>
         <v>0.55667545760764547</v>
       </c>
       <c r="I40" s="15">
-        <f t="shared" ref="I40" si="174">I14/I16</f>
+        <f t="shared" ref="I40" si="171">I14/I16</f>
         <v>0.57041994239057459</v>
       </c>
       <c r="J40" s="15">
@@ -6679,31 +6675,31 @@
         <v>0.56070512144539353</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" ref="K40:O40" si="175">K14/K16</f>
+        <f t="shared" ref="K40:O40" si="172">K14/K16</f>
         <v>0.57632787359438842</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="175"/>
+        <f t="shared" si="172"/>
         <v>0.57926632191338079</v>
       </c>
       <c r="M40" s="15">
-        <f t="shared" si="175"/>
+        <f t="shared" si="172"/>
         <v>0.58241960748180222</v>
       </c>
       <c r="N40" s="15">
-        <f t="shared" si="175"/>
+        <f t="shared" si="172"/>
         <v>0.5748556256223033</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" si="175"/>
+        <f t="shared" si="172"/>
         <v>0.58252341532987306</v>
       </c>
       <c r="P40" s="15">
-        <f t="shared" ref="P40:Q40" si="176">P14/P16</f>
+        <f t="shared" ref="P40:Q40" si="173">P14/P16</f>
         <v>0.58389897395422252</v>
       </c>
       <c r="Q40" s="15">
-        <f t="shared" si="176"/>
+        <f t="shared" si="173"/>
         <v>0.57226596422161757</v>
       </c>
       <c r="R40" s="15">
@@ -6711,83 +6707,83 @@
         <v>0.56022512097622557</v>
       </c>
       <c r="S40" s="15">
-        <f t="shared" ref="S40:V40" si="177">S14/S16</f>
+        <f t="shared" ref="S40:V40" si="174">S14/S16</f>
         <v>0.57831687850172664</v>
       </c>
       <c r="T40" s="15">
+        <f t="shared" si="174"/>
+        <v>0.57139027397994746</v>
+      </c>
+      <c r="U40" s="15">
+        <f t="shared" si="174"/>
+        <v>0.574054998500515</v>
+      </c>
+      <c r="V40" s="15">
+        <f t="shared" si="174"/>
+        <v>0.55636658556366581</v>
+      </c>
+      <c r="W40" s="15">
+        <f t="shared" ref="W40:X40" si="175">W14/W16</f>
+        <v>0.57308881411490087</v>
+      </c>
+      <c r="X40" s="15">
+        <f t="shared" si="175"/>
+        <v>0.57243161596374881</v>
+      </c>
+      <c r="Y40" s="15">
+        <f t="shared" ref="Y40:Z40" si="176">Y14/Y16</f>
+        <v>0.55948928263923503</v>
+      </c>
+      <c r="Z40" s="15">
+        <f t="shared" si="176"/>
+        <v>0.5625670230819686</v>
+      </c>
+      <c r="AL40" s="15">
+        <f t="shared" ref="AL40:AO40" si="177">AL14/AL16</f>
+        <v>0.57011839344316184</v>
+      </c>
+      <c r="AM40" s="15">
         <f t="shared" si="177"/>
-        <v>0.57139027397994746</v>
-      </c>
-      <c r="U40" s="15">
+        <v>0.57814289096674776</v>
+      </c>
+      <c r="AN40" s="15">
         <f t="shared" si="177"/>
-        <v>0.574054998500515</v>
-      </c>
-      <c r="V40" s="15">
+        <v>0.57436111386103605</v>
+      </c>
+      <c r="AO40" s="15">
         <f t="shared" si="177"/>
-        <v>0.55636658556366581</v>
-      </c>
-      <c r="W40" s="15">
-        <f t="shared" ref="W40:X40" si="178">W14/W16</f>
-        <v>0.57308881411490087</v>
-      </c>
-      <c r="X40" s="15">
+        <v>0.56940929230889348</v>
+      </c>
+      <c r="AP40" s="15">
+        <f t="shared" ref="AP40:AV40" si="178">AP14/AP16</f>
+        <v>0.56660507211139655</v>
+      </c>
+      <c r="AQ40" s="15">
         <f t="shared" si="178"/>
-        <v>0.57243161596374881</v>
-      </c>
-      <c r="Y40" s="15">
-        <f t="shared" ref="Y40:Z40" si="179">Y14/Y16</f>
-        <v>0.5661710961001406</v>
-      </c>
-      <c r="Z40" s="15">
-        <f t="shared" si="179"/>
-        <v>0.55199466378854234</v>
-      </c>
-      <c r="AL40" s="15">
-        <f t="shared" ref="AL40:AO40" si="180">AL14/AL16</f>
-        <v>0.57011839344316184</v>
-      </c>
-      <c r="AM40" s="15">
-        <f t="shared" si="180"/>
-        <v>0.57814289096674776</v>
-      </c>
-      <c r="AN40" s="15">
-        <f t="shared" si="180"/>
-        <v>0.57436111386103605</v>
-      </c>
-      <c r="AO40" s="15">
-        <f t="shared" si="180"/>
-        <v>0.56940929230889348</v>
-      </c>
-      <c r="AP40" s="15">
-        <f t="shared" ref="AP40:AV40" si="181">AP14/AP16</f>
-        <v>0.565363296847465</v>
-      </c>
-      <c r="AQ40" s="15">
-        <f t="shared" si="181"/>
-        <v>0.56325039936802834</v>
+        <v>0.56430548768028177</v>
       </c>
       <c r="AR40" s="15">
-        <f t="shared" si="181"/>
-        <v>0.55804465877018006</v>
+        <f t="shared" si="178"/>
+        <v>0.558869937686433</v>
       </c>
       <c r="AS40" s="15">
-        <f t="shared" si="181"/>
-        <v>0.54982387079542672</v>
+        <f t="shared" si="178"/>
+        <v>0.55040665962975877</v>
       </c>
       <c r="AT40" s="15">
-        <f t="shared" si="181"/>
-        <v>0.54802872878682385</v>
+        <f t="shared" si="178"/>
+        <v>0.54844812096288198</v>
       </c>
       <c r="AU40" s="15">
-        <f t="shared" si="181"/>
-        <v>0.54490059557553905</v>
+        <f t="shared" si="178"/>
+        <v>0.54515555788337833</v>
       </c>
       <c r="AV40" s="15">
-        <f t="shared" si="181"/>
-        <v>0.54043401806506197</v>
-      </c>
-    </row>
-    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="178"/>
+        <v>0.5405250715114196</v>
+      </c>
+    </row>
+    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
@@ -6796,47 +6792,47 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15">
-        <f t="shared" ref="G41:J41" si="182">(G14+G13+G12)/G16</f>
+        <f t="shared" ref="G41:J41" si="179">(G14+G13+G12)/G16</f>
         <v>0.82030661580699238</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="182"/>
+        <f t="shared" si="179"/>
         <v>0.7798783194506097</v>
       </c>
       <c r="I41" s="15">
-        <f t="shared" si="182"/>
+        <f t="shared" si="179"/>
         <v>0.80339159248911707</v>
       </c>
       <c r="J41" s="15">
-        <f t="shared" si="182"/>
+        <f t="shared" si="179"/>
         <v>0.81196175612499566</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" ref="K41:Q41" si="183">(K14+K13+K12)/K16</f>
+        <f t="shared" ref="K41:Q41" si="180">(K14+K13+K12)/K16</f>
         <v>0.80782442058068482</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="183"/>
+        <f t="shared" si="180"/>
         <v>0.81519069166127989</v>
       </c>
       <c r="M41" s="15">
-        <f t="shared" si="183"/>
+        <f t="shared" si="180"/>
         <v>0.81590343683774069</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" si="183"/>
+        <f t="shared" si="180"/>
         <v>0.81299701294390969</v>
       </c>
       <c r="O41" s="15">
-        <f t="shared" si="183"/>
+        <f t="shared" si="180"/>
         <v>0.80370822366970052</v>
       </c>
       <c r="P41" s="15">
-        <f t="shared" si="183"/>
+        <f t="shared" si="180"/>
         <v>0.80774915692042759</v>
       </c>
       <c r="Q41" s="15">
-        <f t="shared" si="183"/>
+        <f t="shared" si="180"/>
         <v>0.78854281248190816</v>
       </c>
       <c r="R41" s="15">
@@ -6844,101 +6840,101 @@
         <v>0.77637807700399752</v>
       </c>
       <c r="S41" s="15">
-        <f t="shared" ref="S41:V41" si="184">(S14+S13+S12)/S16</f>
+        <f t="shared" ref="S41:V41" si="181">(S14+S13+S12)/S16</f>
         <v>0.78163554816799685</v>
       </c>
       <c r="T41" s="15">
-        <f t="shared" si="184"/>
+        <f t="shared" si="181"/>
         <v>0.779354994370275</v>
       </c>
       <c r="U41" s="15">
-        <f t="shared" si="184"/>
+        <f t="shared" si="181"/>
         <v>0.77773721200109525</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="184"/>
+        <f t="shared" si="181"/>
         <v>0.75908932916232186</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" ref="W41:X41" si="185">(W14+W13+W12)/W16</f>
+        <f t="shared" ref="W41:X41" si="182">(W14+W13+W12)/W16</f>
         <v>0.76557940873365704</v>
       </c>
       <c r="X41" s="15">
-        <f t="shared" si="185"/>
+        <f t="shared" si="182"/>
         <v>0.76250265511788728</v>
       </c>
       <c r="Y41" s="15">
-        <f t="shared" ref="Y41:Z41" si="186">(Y14+Y13+Y12)/Y16</f>
-        <v>0.76705599802582769</v>
+        <f t="shared" ref="Y41:Z41" si="183">(Y14+Y13+Y12)/Y16</f>
+        <v>0.74606879050165409</v>
       </c>
       <c r="Z41" s="15">
-        <f t="shared" si="186"/>
-        <v>0.7531244145654713</v>
+        <f t="shared" si="183"/>
+        <v>0.75441701631458946</v>
       </c>
       <c r="AF41" s="15">
-        <f t="shared" ref="AF41:AV41" si="187">(AF14+AF13+AF12)/AF16</f>
+        <f t="shared" ref="AF41:AV41" si="184">(AF14+AF13+AF12)/AF16</f>
         <v>0</v>
       </c>
       <c r="AG41" s="15"/>
       <c r="AH41" s="15"/>
       <c r="AI41" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="184"/>
         <v>0.86218032565062463</v>
       </c>
       <c r="AJ41" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="184"/>
         <v>0.85120487651568866</v>
       </c>
       <c r="AK41" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="184"/>
         <v>0.83290188252593333</v>
       </c>
       <c r="AL41" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="184"/>
         <v>0.80494392610408327</v>
       </c>
       <c r="AM41" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="184"/>
         <v>0.81314795623299452</v>
       </c>
       <c r="AN41" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="184"/>
         <v>0.79365073752987592</v>
       </c>
       <c r="AO41" s="15">
-        <f t="shared" si="187"/>
+        <f t="shared" si="184"/>
         <v>0.7737789286713469</v>
       </c>
       <c r="AP41" s="15">
-        <f t="shared" si="187"/>
-        <v>0.76174216493440028</v>
+        <f t="shared" si="184"/>
+        <v>0.75684071419172882</v>
       </c>
       <c r="AQ41" s="15">
-        <f t="shared" si="187"/>
-        <v>0.74830737823649918</v>
+        <f t="shared" si="184"/>
+        <v>0.74358457587169335</v>
       </c>
       <c r="AR41" s="15">
-        <f t="shared" si="187"/>
-        <v>0.73148485629245164</v>
+        <f t="shared" si="184"/>
+        <v>0.72689335793719012</v>
       </c>
       <c r="AS41" s="15">
-        <f t="shared" si="187"/>
-        <v>0.71149081074373588</v>
+        <f t="shared" si="184"/>
+        <v>0.70701906709651896</v>
       </c>
       <c r="AT41" s="15">
-        <f t="shared" si="187"/>
-        <v>0.70048935548804159</v>
+        <f t="shared" si="184"/>
+        <v>0.69615511867019275</v>
       </c>
       <c r="AU41" s="15">
-        <f t="shared" si="187"/>
-        <v>0.68833993227734147</v>
+        <f t="shared" si="184"/>
+        <v>0.68413434623044056</v>
       </c>
       <c r="AV41" s="15">
-        <f t="shared" si="187"/>
-        <v>0.6750603671967379</v>
-      </c>
-    </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.15">
+        <f t="shared" si="184"/>
+        <v>0.67097561936028605</v>
+      </c>
+    </row>
+    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
@@ -6947,43 +6943,43 @@
         <v>124580</v>
       </c>
       <c r="N43" s="11">
-        <f t="shared" ref="N43:O43" si="188">+N44-N62</f>
+        <f t="shared" ref="N43:O43" si="185">+N44-N62</f>
         <v>154381</v>
       </c>
       <c r="O43" s="11">
-        <f t="shared" si="188"/>
+        <f t="shared" si="185"/>
         <v>149723</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" ref="P43:W43" si="189">+P44-P62</f>
+        <f t="shared" ref="P43:W43" si="186">+P44-P62</f>
         <v>140928</v>
       </c>
       <c r="Q43" s="11">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>132025</v>
       </c>
       <c r="R43" s="11">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>129553</v>
       </c>
       <c r="S43" s="11">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>132618</v>
       </c>
       <c r="T43" s="11">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>135851</v>
       </c>
       <c r="U43" s="11">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>137061</v>
       </c>
       <c r="V43" s="11">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>128671</v>
       </c>
       <c r="W43" s="11">
-        <f t="shared" si="189"/>
+        <f t="shared" si="186"/>
         <v>128856</v>
       </c>
       <c r="X43" s="11">
@@ -6992,11 +6988,11 @@
       </c>
       <c r="Y43" s="11">
         <f>+X43+Y28</f>
-        <v>146720.65830000001</v>
+        <v>144775</v>
       </c>
       <c r="Z43" s="11">
         <f>+Y43+Z28</f>
-        <v>174480.34488000002</v>
+        <v>172153.03599999999</v>
       </c>
       <c r="AH43" s="3">
         <v>72053</v>
@@ -7005,34 +7001,34 @@
       <c r="AO43" s="3"/>
       <c r="AP43" s="3">
         <f>+Z43</f>
-        <v>174480.34488000002</v>
+        <v>172153.03599999999</v>
       </c>
       <c r="AQ43" s="3">
-        <f t="shared" ref="AQ43:AV43" si="190">+AP43+AQ28</f>
-        <v>274257.6255562561</v>
+        <f t="shared" ref="AQ43:AV43" si="187">+AP43+AQ28</f>
+        <v>271896.83179520001</v>
       </c>
       <c r="AR43" s="3">
-        <f t="shared" si="190"/>
-        <v>390407.8409290167</v>
+        <f t="shared" si="187"/>
+        <v>388137.50812380068</v>
       </c>
       <c r="AS43" s="3">
-        <f t="shared" si="190"/>
-        <v>526228.14141658472</v>
+        <f t="shared" si="187"/>
+        <v>524209.72333186911</v>
       </c>
       <c r="AT43" s="3">
-        <f t="shared" si="190"/>
-        <v>681521.86567662656</v>
+        <f t="shared" si="187"/>
+        <v>679904.29640668107</v>
       </c>
       <c r="AU43" s="3">
-        <f t="shared" si="190"/>
-        <v>859236.60696424148</v>
+        <f t="shared" si="187"/>
+        <v>858199.64090325474</v>
       </c>
       <c r="AV43" s="3">
-        <f t="shared" si="190"/>
-        <v>1062801.0662288649</v>
-      </c>
-    </row>
-    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="187"/>
+        <v>1062561.0346316355</v>
+      </c>
+    </row>
+    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
@@ -7097,7 +7093,7 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
@@ -7150,7 +7146,7 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>30</v>
       </c>
@@ -7203,7 +7199,7 @@
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
@@ -7256,7 +7252,7 @@
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
     </row>
-    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
@@ -7309,7 +7305,7 @@
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
@@ -7352,7 +7348,7 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
@@ -7395,7 +7391,7 @@
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
@@ -7438,7 +7434,7 @@
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -7490,7 +7486,7 @@
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -7533,7 +7529,7 @@
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7542,53 +7538,53 @@
         <v>273403</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" ref="N54:X54" si="191">SUM(N44:N53)</f>
+        <f t="shared" ref="N54:X54" si="188">SUM(N44:N53)</f>
         <v>359268</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>357096</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>355185</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>358255</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>365264</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>369491</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>383044</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>396711</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>402392</v>
       </c>
       <c r="W54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>407350</v>
       </c>
       <c r="X54" s="11">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>414770</v>
       </c>
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="G55" s="11"/>
       <c r="P55" s="11"/>
@@ -7603,7 +7599,7 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
@@ -7646,7 +7642,7 @@
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
@@ -7689,7 +7685,7 @@
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
@@ -7732,7 +7728,7 @@
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
@@ -7775,7 +7771,7 @@
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -7830,7 +7826,7 @@
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>30</v>
       </c>
@@ -7885,7 +7881,7 @@
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -7929,7 +7925,7 @@
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
@@ -7972,7 +7968,7 @@
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -8015,7 +8011,7 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>68</v>
       </c>
@@ -8058,7 +8054,7 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
@@ -8067,53 +8063,53 @@
         <v>273403</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" ref="N66:X66" si="192">SUM(N56:N65)</f>
+        <f t="shared" ref="N66:X66" si="189">SUM(N56:N65)</f>
         <v>359268</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>357096</v>
       </c>
       <c r="P66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>355185</v>
       </c>
       <c r="Q66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>358255</v>
       </c>
       <c r="R66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>365264</v>
       </c>
       <c r="S66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>369491</v>
       </c>
       <c r="T66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>383044</v>
       </c>
       <c r="U66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>396711</v>
       </c>
       <c r="V66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>402392</v>
       </c>
       <c r="W66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>407350</v>
       </c>
       <c r="X66" s="11">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>414770</v>
       </c>
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
     </row>
-    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
@@ -8129,77 +8125,77 @@
         <v>6836</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" ref="H68:X68" si="193">+H28</f>
+        <f t="shared" ref="H68:X68" si="190">+H28</f>
         <v>6959</v>
       </c>
       <c r="I68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>11247</v>
       </c>
       <c r="J68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>15227</v>
       </c>
       <c r="K68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>17930</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>18165</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>18936</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>20642</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>16436</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>16002</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>13910</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>13624</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>15051</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>18368</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>19689</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>20687</v>
       </c>
       <c r="W68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>23662</v>
       </c>
       <c r="X68" s="11">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>23619</v>
       </c>
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
     </row>
-    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>83</v>
       </c>
@@ -8255,7 +8251,7 @@
       <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
     </row>
-    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>84</v>
       </c>
@@ -8312,7 +8308,7 @@
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
     </row>
-    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>85</v>
       </c>
@@ -8368,7 +8364,7 @@
       <c r="Y71" s="11"/>
       <c r="Z71" s="11"/>
     </row>
-    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
@@ -8425,7 +8421,7 @@
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
     </row>
-    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>56</v>
       </c>
@@ -8482,7 +8478,7 @@
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
     </row>
-    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>87</v>
       </c>
@@ -8539,7 +8535,7 @@
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
     </row>
-    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
@@ -8596,7 +8592,7 @@
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
     </row>
-    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>88</v>
       </c>
@@ -8664,7 +8660,7 @@
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
     </row>
-    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>35</v>
       </c>
@@ -8693,53 +8689,53 @@
         <v>25539</v>
       </c>
       <c r="N77" s="11">
-        <f t="shared" ref="N77:X77" si="194">SUM(N69:N76)</f>
+        <f t="shared" ref="N77:X77" si="191">SUM(N69:N76)</f>
         <v>0</v>
       </c>
       <c r="O77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>25106</v>
       </c>
       <c r="P77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>19422</v>
       </c>
       <c r="Q77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>23353</v>
       </c>
       <c r="R77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>23614</v>
       </c>
       <c r="S77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>23509</v>
       </c>
       <c r="T77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>28666</v>
       </c>
       <c r="U77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>30656</v>
       </c>
       <c r="V77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>18915</v>
       </c>
       <c r="W77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>23509</v>
       </c>
       <c r="X77" s="11">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>28666</v>
       </c>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
     </row>
-    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -8765,7 +8761,7 @@
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
     </row>
-    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>36</v>
       </c>
@@ -8830,7 +8826,7 @@
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
     </row>
-    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>89</v>
       </c>
@@ -8892,7 +8888,7 @@
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
     </row>
-    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>91</v>
       </c>
@@ -8945,7 +8941,7 @@
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
     </row>
-    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
         <v>28</v>
       </c>
@@ -8998,7 +8994,7 @@
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
     </row>
-    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
         <v>92</v>
       </c>
@@ -9030,37 +9026,37 @@
       </c>
       <c r="Q83" s="11"/>
       <c r="R83" s="11">
-        <f t="shared" ref="R83:X83" si="195">SUM(R79:R82)</f>
+        <f t="shared" ref="R83:X83" si="192">SUM(R79:R82)</f>
         <v>-6227</v>
       </c>
       <c r="S83" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>-2946</v>
       </c>
       <c r="T83" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>-10800</v>
       </c>
       <c r="U83" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>-7150</v>
       </c>
       <c r="V83" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>-6167</v>
       </c>
       <c r="W83" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>-2946</v>
       </c>
       <c r="X83" s="11">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>-10800</v>
       </c>
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
     </row>
-    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -9086,7 +9082,7 @@
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
     </row>
-    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
@@ -9139,7 +9135,7 @@
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
     </row>
-    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>93</v>
       </c>
@@ -9192,7 +9188,7 @@
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
     </row>
-    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
         <v>4</v>
       </c>
@@ -9254,7 +9250,7 @@
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
     </row>
-    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
         <v>94</v>
       </c>
@@ -9307,7 +9303,7 @@
       <c r="Y88" s="11"/>
       <c r="Z88" s="11"/>
     </row>
-    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
@@ -9339,37 +9335,37 @@
       </c>
       <c r="Q89" s="11"/>
       <c r="R89" s="11">
-        <f t="shared" ref="R89:X89" si="196">SUM(R85:R88)</f>
+        <f t="shared" ref="R89:X89" si="193">SUM(R85:R88)</f>
         <v>-17629</v>
       </c>
       <c r="S89" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>-16568</v>
       </c>
       <c r="T89" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>-17835</v>
       </c>
       <c r="U89" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>-18382</v>
       </c>
       <c r="V89" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>-19308</v>
       </c>
       <c r="W89" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>-16568</v>
       </c>
       <c r="X89" s="11">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>-17835</v>
       </c>
       <c r="Y89" s="11"/>
       <c r="Z89" s="11"/>
     </row>
-    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>41</v>
       </c>
@@ -9422,7 +9418,7 @@
       <c r="Y90" s="11"/>
       <c r="Z90" s="11"/>
     </row>
-    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>95</v>
       </c>
@@ -9454,37 +9450,37 @@
       </c>
       <c r="Q91" s="11"/>
       <c r="R91" s="11">
-        <f t="shared" ref="R91:X91" si="197">+R90+R89+R83+R77</f>
+        <f t="shared" ref="R91:X91" si="194">+R90+R89+R83+R77</f>
         <v>-105</v>
       </c>
       <c r="S91" s="11">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>4045</v>
       </c>
       <c r="T91" s="11">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>5</v>
       </c>
       <c r="U91" s="11">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>4773</v>
       </c>
       <c r="V91" s="11">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>-6654</v>
       </c>
       <c r="W91" s="11">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>4045</v>
       </c>
       <c r="X91" s="11">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>5</v>
       </c>
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
     </row>
-    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
@@ -9510,7 +9506,7 @@
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
     </row>
-    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
         <v>37</v>
       </c>
@@ -9531,11 +9527,11 @@
       </c>
       <c r="L93" s="11"/>
       <c r="M93" s="11">
-        <f t="shared" ref="M93:N93" si="198">M77-M79</f>
+        <f t="shared" ref="M93:N93" si="195">M77-M79</f>
         <v>32358</v>
       </c>
       <c r="N93" s="11">
-        <f t="shared" si="198"/>
+        <f t="shared" si="195"/>
         <v>6383</v>
       </c>
       <c r="O93" s="11">
@@ -9543,19 +9539,19 @@
         <v>15320</v>
       </c>
       <c r="P93" s="11">
-        <f t="shared" ref="P93:S93" si="199">P77+P79</f>
+        <f t="shared" ref="P93:S93" si="196">P77+P79</f>
         <v>12594</v>
       </c>
       <c r="Q93" s="11">
-        <f t="shared" si="199"/>
+        <f t="shared" si="196"/>
         <v>16077</v>
       </c>
       <c r="R93" s="11">
-        <f t="shared" si="199"/>
+        <f t="shared" si="196"/>
         <v>16019</v>
       </c>
       <c r="S93" s="11">
-        <f t="shared" si="199"/>
+        <f t="shared" si="196"/>
         <v>17220</v>
       </c>
       <c r="T93" s="11">
@@ -9581,7 +9577,7 @@
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
     </row>
-    <row r="94" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
         <v>208</v>
       </c>
@@ -9597,31 +9593,31 @@
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
       <c r="N94" s="10">
-        <f t="shared" ref="N94:T94" si="200">SUM(K93:N93)</f>
+        <f t="shared" ref="N94:T94" si="197">SUM(K93:N93)</f>
         <v>63972</v>
       </c>
       <c r="O94" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>54061</v>
       </c>
       <c r="P94" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>66655</v>
       </c>
       <c r="Q94" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>50374</v>
       </c>
       <c r="R94" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>60010</v>
       </c>
       <c r="S94" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>61910</v>
       </c>
       <c r="T94" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>71094</v>
       </c>
       <c r="U94" s="10">
@@ -9643,10 +9639,10 @@
       <c r="Y94" s="10"/>
       <c r="Z94" s="10"/>
     </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
       <c r="R95" s="11"/>
     </row>
-    <row r="96" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>52</v>
       </c>
@@ -9707,52 +9703,52 @@
       <c r="Y96" s="11"/>
       <c r="Z96" s="11"/>
     </row>
-    <row r="97" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O97" s="15">
-        <f t="shared" ref="O97:X97" si="201">+O96/K96-1</f>
+        <f t="shared" ref="O97:X97" si="198">+O96/K96-1</f>
         <v>0.17079895710561099</v>
       </c>
       <c r="P97" s="15">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>0.20796079302493475</v>
       </c>
       <c r="Q97" s="15">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>0.24496094062441687</v>
       </c>
       <c r="R97" s="15">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>0.21555271565495215</v>
       </c>
       <c r="S97" s="15">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>0.16353885763791443</v>
       </c>
       <c r="T97" s="15">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>4.4732033054811771E-2</v>
       </c>
       <c r="U97" s="15">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>-2.3546544311726647E-2</v>
       </c>
       <c r="V97" s="15">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>-4.0644679710251541E-2</v>
       </c>
       <c r="W97" s="15">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>-5.1470549679882072E-2</v>
       </c>
       <c r="X97" s="15">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>100</v>
       </c>
@@ -9761,63 +9757,63 @@
         <v>334.49548143813797</v>
       </c>
       <c r="K98" s="11">
-        <f t="shared" ref="K98:X98" si="202">+K16/K96*1000</f>
+        <f t="shared" ref="K98:X98" si="199">+K16/K96*1000</f>
         <v>395.11411121825779</v>
       </c>
       <c r="L98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>429.55517298828232</v>
       </c>
       <c r="M98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>434.03897939051376</v>
       </c>
       <c r="N98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>481.30990415335464</v>
       </c>
       <c r="O98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>414.93905043134475</v>
       </c>
       <c r="P98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>400.45628512648409</v>
       </c>
       <c r="Q98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>369.91310586307884</v>
       </c>
       <c r="R98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>399.76029521536634</v>
       </c>
       <c r="S98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>365.93064899245451</v>
       </c>
       <c r="T98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>410.36755079813861</v>
       </c>
       <c r="U98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>420.50981187733373</v>
       </c>
       <c r="V98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>472.92632409507837</v>
       </c>
       <c r="W98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>445.22513060062471</v>
       </c>
       <c r="X98" s="11">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>466.1327407342215</v>
       </c>
     </row>
-    <row r="101" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
         <v>105</v>
       </c>
@@ -9846,13 +9842,13 @@
         <v>88.73</v>
       </c>
     </row>
-    <row r="102" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AN102" s="5">
         <f>AN101/AG101-1</f>
         <v>1.3386926726410122</v>
       </c>
     </row>
-    <row r="104" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>106</v>
       </c>
@@ -9881,7 +9877,7 @@
         <v>10466.48</v>
       </c>
     </row>
-    <row r="105" spans="2:40" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:40" x14ac:dyDescent="0.2">
       <c r="AN105" s="5">
         <f>AN104/AG104-1</f>
         <v>1.0901983260807482</v>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4BA42E-A241-4147-B683-145F46038095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC13394C-CAAB-452C-99CC-8C43BA75F175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24105" yWindow="1125" windowWidth="22005" windowHeight="15465" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="237">
   <si>
     <t>Price</t>
   </si>
@@ -807,6 +807,9 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>Dividend</t>
   </si>
 </sst>
 </file>
@@ -933,15 +936,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>45316</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>33409</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>45316</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>33409</xdr:colOff>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -957,8 +960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15398425" y="0"/>
-          <a:ext cx="0" cy="18399919"/>
+          <a:off x="16912503" y="0"/>
+          <a:ext cx="0" cy="18221325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -991,7 +994,7 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>45368</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1366,21 +1369,21 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>211</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>212</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>219</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>2628072</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>216</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>213</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>214</v>
       </c>
@@ -1470,13 +1473,13 @@
         <v>2506413</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>215</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="K9" s="7" t="s">
         <v>25</v>
       </c>
@@ -1484,13 +1487,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>221</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>222</v>
       </c>
@@ -1499,7 +1502,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>226</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>227</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>231</v>
       </c>
@@ -1536,7 +1539,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K15" t="s">
         <v>110</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>39</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>224</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>225</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>230</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>229</v>
       </c>
@@ -1607,13 +1610,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>123</v>
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>178</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K26" t="s">
         <v>174</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>170</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
         <v>168</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>165</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>118</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
         <v>162</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
         <v>160</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K33" t="s">
         <v>157</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K34" t="s">
         <v>155</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
         <v>151</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>149</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>146</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K38" s="7" t="s">
         <v>128</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
         <v>143</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K40" t="s">
         <v>141</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K41" t="s">
         <v>137</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>133</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="11:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K43" s="7" t="s">
         <v>130</v>
       </c>
@@ -1834,7 +1837,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K44" s="7" t="s">
         <v>126</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K45" s="7" t="s">
         <v>124</v>
       </c>
@@ -1853,17 +1856,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K46" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="11:14" ht="13" x14ac:dyDescent="0.3">
       <c r="K47" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="11:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
         <v>181</v>
       </c>
@@ -1871,87 +1874,87 @@
         <v>182</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K50" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="11:11" ht="13" x14ac:dyDescent="0.3">
       <c r="K52" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K53" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K55" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K56" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="11:11" ht="13" x14ac:dyDescent="0.3">
       <c r="K57" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K58" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K59" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K62" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K63" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K64" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K65" t="s">
         <v>199</v>
       </c>
@@ -1964,34 +1967,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB0B16D-98AC-4F00-80A4-522691D39E31}">
-  <dimension ref="A1:DA105"/>
+  <dimension ref="A1:DA106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z19" sqref="Z19"/>
+      <selection pane="bottomRight" activeCell="Z95" sqref="Z95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="2"/>
-    <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="26" width="9.140625" style="2"/>
-    <col min="40" max="40" width="9.140625" customWidth="1"/>
-    <col min="47" max="48" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="17" width="9.1796875" style="2"/>
+    <col min="18" max="18" width="8.7265625" style="2" customWidth="1"/>
+    <col min="19" max="26" width="9.1796875" style="2"/>
+    <col min="40" max="40" width="9.1796875" customWidth="1"/>
+    <col min="47" max="48" width="9.26953125" customWidth="1"/>
     <col min="50" max="50" width="9" customWidth="1"/>
-    <col min="51" max="51" width="9.42578125" customWidth="1"/>
+    <col min="51" max="51" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>200</v>
       </c>
@@ -2171,7 +2174,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>201</v>
       </c>
@@ -2205,7 +2208,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>202</v>
       </c>
@@ -2239,7 +2242,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>203</v>
       </c>
@@ -2273,7 +2276,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>1324.7771479500479</v>
       </c>
     </row>
-    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>164115.26726400002</v>
       </c>
     </row>
-    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>48168.06964197987</v>
       </c>
     </row>
-    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>36250.23367032392</v>
       </c>
     </row>
-    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>48440.437121671879</v>
       </c>
     </row>
-    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
@@ -3113,7 +3116,7 @@
         <v>350917.88912400021</v>
       </c>
     </row>
-    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>483776.62955797592</v>
       </c>
     </row>
-    <row r="16" spans="1:48" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>649216.67396992596</v>
       </c>
     </row>
-    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>285655.33654676739</v>
       </c>
     </row>
-    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>14848</v>
       </c>
     </row>
-    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>363561.33742315858</v>
       </c>
     </row>
-    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>64919.767426870792</v>
       </c>
     </row>
-    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>37845.89560506236</v>
       </c>
     </row>
-    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>20156.458936379066</v>
       </c>
     </row>
-    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>122922.12196831222</v>
       </c>
     </row>
-    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
@@ -4507,7 +4510,7 @@
         <v>240639.21545484636</v>
       </c>
     </row>
-    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
@@ -4616,30 +4619,30 @@
       </c>
       <c r="AQ25" s="3">
         <f t="shared" ref="AQ25:AV25" si="70">+AP43*$AY$34</f>
-        <v>1721.53036</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="3">
         <f t="shared" si="70"/>
-        <v>2718.9683179520002</v>
+        <v>983.32140900000024</v>
       </c>
       <c r="AS25" s="3">
         <f t="shared" si="70"/>
-        <v>3881.3750812380067</v>
+        <v>2131.4958676326009</v>
       </c>
       <c r="AT25" s="3">
         <f t="shared" si="70"/>
-        <v>5242.097233318691</v>
+        <v>3477.8690101617203</v>
       </c>
       <c r="AU25" s="3">
         <f t="shared" si="70"/>
-        <v>6799.0429640668108</v>
+        <v>5020.3480694799537</v>
       </c>
       <c r="AV25" s="3">
         <f t="shared" si="70"/>
-        <v>8581.9964090325484</v>
-      </c>
-    </row>
-    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6788.7162163100775</v>
+      </c>
+    </row>
+    <row r="26" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
@@ -4776,30 +4779,30 @@
       </c>
       <c r="AQ26" s="3">
         <f t="shared" si="80"/>
-        <v>121638.77536000004</v>
+        <v>119917.24500000004</v>
       </c>
       <c r="AR26" s="3">
         <f t="shared" si="80"/>
-        <v>141756.92235195206</v>
+        <v>140021.27544300005</v>
       </c>
       <c r="AS26" s="3">
         <f t="shared" si="80"/>
-        <v>165941.72586349805</v>
+        <v>164191.84664989263</v>
       </c>
       <c r="AT26" s="3">
         <f t="shared" si="80"/>
-        <v>189871.43057903901</v>
+        <v>188107.20235588204</v>
       </c>
       <c r="AU26" s="3">
         <f t="shared" si="80"/>
-        <v>217433.34694704102</v>
+        <v>215654.65205245416</v>
       </c>
       <c r="AV26" s="3">
         <f t="shared" si="80"/>
-        <v>249221.21186387891</v>
-      </c>
-    </row>
-    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>247427.93167115643</v>
+      </c>
+    </row>
+    <row r="27" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
@@ -4908,30 +4911,30 @@
       </c>
       <c r="AQ27" s="3">
         <f t="shared" ref="AQ27:AV27" si="81">+AQ26*0.18</f>
-        <v>21894.979564800007</v>
+        <v>21585.104100000008</v>
       </c>
       <c r="AR27" s="3">
         <f t="shared" si="81"/>
-        <v>25516.24602335137</v>
+        <v>25203.82957974001</v>
       </c>
       <c r="AS27" s="3">
         <f t="shared" si="81"/>
-        <v>29869.510655429647</v>
+        <v>29554.53239698067</v>
       </c>
       <c r="AT27" s="3">
         <f t="shared" si="81"/>
-        <v>34176.857504227017</v>
+        <v>33859.296424058768</v>
       </c>
       <c r="AU27" s="3">
         <f t="shared" si="81"/>
-        <v>39138.002450467386</v>
+        <v>38817.837369441746</v>
       </c>
       <c r="AV27" s="3">
         <f t="shared" si="81"/>
-        <v>44859.818135498201</v>
-      </c>
-    </row>
-    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44537.027700808154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -5068,258 +5071,258 @@
       </c>
       <c r="AQ28" s="3">
         <f t="shared" si="91"/>
-        <v>99743.795795200043</v>
+        <v>98332.140900000028</v>
       </c>
       <c r="AR28" s="3">
         <f t="shared" si="91"/>
-        <v>116240.67632860069</v>
+        <v>114817.44586326004</v>
       </c>
       <c r="AS28" s="3">
         <f t="shared" si="91"/>
-        <v>136072.2152080684</v>
+        <v>134637.31425291195</v>
       </c>
       <c r="AT28" s="3">
         <f t="shared" si="91"/>
-        <v>155694.57307481198</v>
+        <v>154247.90593182328</v>
       </c>
       <c r="AU28" s="3">
         <f t="shared" si="91"/>
-        <v>178295.34449657364</v>
+        <v>176836.8146830124</v>
       </c>
       <c r="AV28" s="3">
         <f t="shared" si="91"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="AW28" s="3">
         <f>+AV28*(1+$AY$32)</f>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="AX28" s="3">
         <f t="shared" ref="AX28:DA28" si="92">+AW28*(1+$AY$32)</f>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="AY28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="AZ28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BA28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BB28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BC28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BD28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BE28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BF28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BG28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BH28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BI28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BJ28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BK28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BL28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BM28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BN28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BO28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BP28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BQ28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BR28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BS28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BT28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BU28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BV28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BW28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BX28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BY28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="BZ28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CA28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CB28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CC28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CD28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CE28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CF28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CG28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CH28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CI28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CJ28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CK28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CL28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CM28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CN28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CO28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CP28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CQ28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CR28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CS28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CT28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CU28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CV28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CW28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CX28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CY28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="CZ28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
+        <v>202890.90397034827</v>
       </c>
       <c r="DA28" s="3">
         <f t="shared" si="92"/>
-        <v>204361.3937283807</v>
-      </c>
-    </row>
-    <row r="29" spans="2:105" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>202890.90397034827</v>
+      </c>
+    </row>
+    <row r="29" spans="2:105" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
@@ -5432,30 +5435,30 @@
       </c>
       <c r="AQ29" s="17">
         <f t="shared" si="100"/>
-        <v>8.0315480952733758</v>
+        <v>7.91787912875433</v>
       </c>
       <c r="AR29" s="17">
         <f t="shared" si="100"/>
-        <v>9.3599062991062638</v>
+        <v>9.2453052470617632</v>
       </c>
       <c r="AS29" s="17">
         <f t="shared" si="100"/>
-        <v>10.956777132463838</v>
+        <v>10.841236351792572</v>
       </c>
       <c r="AT29" s="17">
         <f t="shared" si="100"/>
-        <v>12.53680433809582</v>
+        <v>12.420316123023051</v>
       </c>
       <c r="AU29" s="17">
         <f t="shared" si="100"/>
-        <v>14.356658708154734</v>
+        <v>14.239215289718366</v>
       </c>
       <c r="AV29" s="17">
         <f t="shared" si="100"/>
-        <v>16.455543419629656</v>
-      </c>
-    </row>
-    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16.337136965162113</v>
+      </c>
+    </row>
+    <row r="30" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>12419</v>
       </c>
     </row>
-    <row r="32" spans="2:105" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:105" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
@@ -5731,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:51" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
@@ -5922,7 +5925,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
@@ -6055,10 +6058,10 @@
       </c>
       <c r="AY35" s="3">
         <f>NPV(AY33,AO28:DA28)+Main!L5-Main!L6</f>
-        <v>2537226.5494065438</v>
-      </c>
-    </row>
-    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2519269.4770367467</v>
+      </c>
+    </row>
+    <row r="36" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
@@ -6191,10 +6194,10 @@
       </c>
       <c r="AY36" s="1">
         <f>+AY35/Main!L3</f>
-        <v>199.84456123239949</v>
-      </c>
-    </row>
-    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>198.43017304952321</v>
+      </c>
+    </row>
+    <row r="37" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>43</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="2:51" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:51" s="18" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>33</v>
       </c>
@@ -6490,10 +6493,10 @@
       </c>
       <c r="AY38" s="18">
         <f>+AY36/AY37-1</f>
-        <v>0.22604025295950603</v>
-      </c>
-    </row>
-    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.21736302484370063</v>
+      </c>
+    </row>
+    <row r="39" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
@@ -6639,18 +6642,18 @@
       </c>
       <c r="AT39" s="15">
         <f t="shared" si="169"/>
-        <v>0.17999999999999997</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="AU39" s="15">
         <f t="shared" si="169"/>
-        <v>0.18000000000000002</v>
+        <v>0.18</v>
       </c>
       <c r="AV39" s="15">
         <f t="shared" si="169"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>0.5405250715114196</v>
       </c>
     </row>
-    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:51" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>107</v>
       </c>
@@ -6934,7 +6937,7 @@
         <v>0.67097561936028605</v>
       </c>
     </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>71</v>
       </c>
@@ -6951,7 +6954,7 @@
         <v>149723</v>
       </c>
       <c r="P43" s="11">
-        <f t="shared" ref="P43:W43" si="186">+P44-P62</f>
+        <f t="shared" ref="P43:Z43" si="186">+P44-P62</f>
         <v>140928</v>
       </c>
       <c r="Q43" s="11">
@@ -6983,16 +6986,16 @@
         <v>128856</v>
       </c>
       <c r="X43" s="11">
-        <f>+X44-X62</f>
+        <f t="shared" si="186"/>
         <v>121659</v>
       </c>
       <c r="Y43" s="11">
-        <f>+X43+Y28</f>
-        <v>144775</v>
+        <f t="shared" si="186"/>
+        <v>117110</v>
       </c>
       <c r="Z43" s="11">
-        <f>+Y43+Z28</f>
-        <v>172153.03599999999</v>
+        <f t="shared" si="186"/>
+        <v>0</v>
       </c>
       <c r="AH43" s="3">
         <v>72053</v>
@@ -7001,34 +7004,34 @@
       <c r="AO43" s="3"/>
       <c r="AP43" s="3">
         <f>+Z43</f>
-        <v>172153.03599999999</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="3">
         <f t="shared" ref="AQ43:AV43" si="187">+AP43+AQ28</f>
-        <v>271896.83179520001</v>
+        <v>98332.140900000028</v>
       </c>
       <c r="AR43" s="3">
         <f t="shared" si="187"/>
-        <v>388137.50812380068</v>
+        <v>213149.58676326007</v>
       </c>
       <c r="AS43" s="3">
         <f t="shared" si="187"/>
-        <v>524209.72333186911</v>
+        <v>347786.90101617202</v>
       </c>
       <c r="AT43" s="3">
         <f t="shared" si="187"/>
-        <v>679904.29640668107</v>
+        <v>502034.80694799533</v>
       </c>
       <c r="AU43" s="3">
         <f t="shared" si="187"/>
-        <v>858199.64090325474</v>
+        <v>678871.62163100776</v>
       </c>
       <c r="AV43" s="3">
         <f t="shared" si="187"/>
-        <v>1062561.0346316355</v>
-      </c>
-    </row>
-    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>881762.52560135606</v>
+      </c>
+    </row>
+    <row r="44" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
@@ -7090,10 +7093,13 @@
         <f>100725+34172</f>
         <v>134897</v>
       </c>
-      <c r="Y44" s="11"/>
+      <c r="Y44" s="11">
+        <f>93230+36177</f>
+        <v>129407</v>
+      </c>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>53</v>
       </c>
@@ -7143,10 +7149,12 @@
       <c r="X45" s="11">
         <v>47087</v>
       </c>
-      <c r="Y45" s="11"/>
+      <c r="Y45" s="11">
+        <v>49104</v>
+      </c>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>30</v>
       </c>
@@ -7196,10 +7204,12 @@
       <c r="X46" s="11">
         <v>0</v>
       </c>
-      <c r="Y46" s="11"/>
+      <c r="Y46" s="11">
+        <v>0</v>
+      </c>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>54</v>
       </c>
@@ -7249,10 +7259,12 @@
       <c r="X47" s="11">
         <v>0</v>
       </c>
-      <c r="Y47" s="11"/>
+      <c r="Y47" s="11">
+        <v>0</v>
+      </c>
       <c r="Z47" s="11"/>
     </row>
-    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
@@ -7302,10 +7314,12 @@
       <c r="X48" s="11">
         <v>14183</v>
       </c>
-      <c r="Y48" s="11"/>
+      <c r="Y48" s="11">
+        <v>15207</v>
+      </c>
       <c r="Z48" s="11"/>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
@@ -7345,10 +7359,12 @@
       <c r="X49" s="11">
         <v>14958</v>
       </c>
-      <c r="Y49" s="11"/>
+      <c r="Y49" s="11">
+        <v>15915</v>
+      </c>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
@@ -7388,10 +7404,12 @@
       <c r="X50" s="11">
         <v>151155</v>
       </c>
-      <c r="Y50" s="11"/>
+      <c r="Y50" s="11">
+        <v>161270</v>
+      </c>
       <c r="Z50" s="11"/>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>58</v>
       </c>
@@ -7431,10 +7449,12 @@
       <c r="X51" s="11">
         <v>13606</v>
       </c>
-      <c r="Y51" s="11"/>
+      <c r="Y51" s="11">
+        <v>13561</v>
+      </c>
       <c r="Z51" s="11"/>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -7483,10 +7503,12 @@
       <c r="X52" s="11">
         <v>29185</v>
       </c>
-      <c r="Y52" s="11"/>
+      <c r="Y52" s="11">
+        <v>31935</v>
+      </c>
       <c r="Z52" s="11"/>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
@@ -7526,10 +7548,12 @@
       <c r="X53" s="11">
         <v>9699</v>
       </c>
-      <c r="Y53" s="11"/>
+      <c r="Y53" s="11">
+        <v>13867</v>
+      </c>
       <c r="Z53" s="11"/>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>59</v>
       </c>
@@ -7538,7 +7562,7 @@
         <v>273403</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" ref="N54:X54" si="188">SUM(N44:N53)</f>
+        <f t="shared" ref="N54:Z54" si="188">SUM(N44:N53)</f>
         <v>359268</v>
       </c>
       <c r="O54" s="11">
@@ -7581,10 +7605,16 @@
         <f t="shared" si="188"/>
         <v>414770</v>
       </c>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-    </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Y54" s="11">
+        <f t="shared" si="188"/>
+        <v>430266</v>
+      </c>
+      <c r="Z54" s="11">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="G55" s="11"/>
       <c r="P55" s="11"/>
@@ -7599,7 +7629,7 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>62</v>
       </c>
@@ -7639,10 +7669,12 @@
       <c r="X56" s="11">
         <v>6092</v>
       </c>
-      <c r="Y56" s="11"/>
+      <c r="Y56" s="11">
+        <v>7049</v>
+      </c>
       <c r="Z56" s="11"/>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>63</v>
       </c>
@@ -7682,10 +7714,12 @@
       <c r="X57" s="11">
         <v>11373</v>
       </c>
-      <c r="Y57" s="11"/>
+      <c r="Y57" s="11">
+        <v>12908</v>
+      </c>
       <c r="Z57" s="11"/>
     </row>
-    <row r="58" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>64</v>
       </c>
@@ -7725,10 +7759,12 @@
       <c r="X58" s="11">
         <v>47298</v>
       </c>
-      <c r="Y58" s="11"/>
+      <c r="Y58" s="11">
+        <v>46585</v>
+      </c>
       <c r="Z58" s="11"/>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
@@ -7768,10 +7804,12 @@
       <c r="X59" s="11">
         <v>8899</v>
       </c>
-      <c r="Y59" s="11"/>
+      <c r="Y59" s="11">
+        <v>9365</v>
+      </c>
       <c r="Z59" s="11"/>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
@@ -7823,10 +7861,13 @@
         <f>4251+985</f>
         <v>5236</v>
       </c>
-      <c r="Y60" s="11"/>
+      <c r="Y60" s="11">
+        <f>4896+1015</f>
+        <v>5911</v>
+      </c>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>30</v>
       </c>
@@ -7878,10 +7919,13 @@
         <f>7703+717</f>
         <v>8420</v>
       </c>
-      <c r="Y61" s="11"/>
+      <c r="Y61" s="11">
+        <f>8219+706</f>
+        <v>8925</v>
+      </c>
       <c r="Z61" s="11"/>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
@@ -7922,10 +7966,12 @@
       <c r="X62" s="11">
         <v>13238</v>
       </c>
-      <c r="Y62" s="11"/>
+      <c r="Y62" s="11">
+        <v>12297</v>
+      </c>
       <c r="Z62" s="11"/>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
@@ -7965,10 +8011,12 @@
       <c r="X63" s="11">
         <v>11708</v>
       </c>
-      <c r="Y63" s="11"/>
+      <c r="Y63" s="11">
+        <v>11654</v>
+      </c>
       <c r="Z63" s="11"/>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
@@ -8008,10 +8056,12 @@
       <c r="X64" s="11">
         <v>1753</v>
       </c>
-      <c r="Y64" s="11"/>
+      <c r="Y64" s="11">
+        <v>1453</v>
+      </c>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>68</v>
       </c>
@@ -8051,10 +8101,12 @@
       <c r="X65" s="11">
         <v>300753</v>
       </c>
-      <c r="Y65" s="11"/>
+      <c r="Y65" s="11">
+        <v>314119</v>
+      </c>
       <c r="Z65" s="11"/>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
@@ -8063,7 +8115,7 @@
         <v>273403</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" ref="N66:X66" si="189">SUM(N56:N65)</f>
+        <f t="shared" ref="N66:Z66" si="189">SUM(N56:N65)</f>
         <v>359268</v>
       </c>
       <c r="O66" s="11">
@@ -8106,10 +8158,16 @@
         <f t="shared" si="189"/>
         <v>414770</v>
       </c>
-      <c r="Y66" s="11"/>
-      <c r="Z66" s="11"/>
-    </row>
-    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y66" s="11">
+        <f t="shared" si="189"/>
+        <v>430266</v>
+      </c>
+      <c r="Z66" s="11">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
@@ -8125,7 +8183,7 @@
         <v>6836</v>
       </c>
       <c r="H68" s="11">
-        <f t="shared" ref="H68:X68" si="190">+H28</f>
+        <f t="shared" ref="H68:Z68" si="190">+H28</f>
         <v>6959</v>
       </c>
       <c r="I68" s="11">
@@ -8192,10 +8250,16 @@
         <f t="shared" si="190"/>
         <v>23619</v>
       </c>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="11"/>
-    </row>
-    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y68" s="11">
+        <f t="shared" si="190"/>
+        <v>23116</v>
+      </c>
+      <c r="Z68" s="11">
+        <f t="shared" si="190"/>
+        <v>27378.035999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>83</v>
       </c>
@@ -8242,16 +8306,22 @@
         <v>20687</v>
       </c>
       <c r="W69" s="11">
-        <v>15051</v>
+        <v>23662</v>
       </c>
       <c r="X69" s="11">
-        <f>33419-W69</f>
-        <v>18368</v>
-      </c>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
-    </row>
-    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>47281-W69</f>
+        <v>23619</v>
+      </c>
+      <c r="Y69" s="11">
+        <f>73582-X69-W69</f>
+        <v>26301</v>
+      </c>
+      <c r="Z69" s="11">
+        <f>100118-Y69-X69-W69</f>
+        <v>26536</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>84</v>
       </c>
@@ -8299,16 +8369,22 @@
         <v>3316</v>
       </c>
       <c r="W70" s="11">
-        <v>2635</v>
+        <v>3413</v>
       </c>
       <c r="X70" s="11">
-        <f>5459-W70</f>
-        <v>2824</v>
-      </c>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11"/>
-    </row>
-    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>7121-W70</f>
+        <v>3708</v>
+      </c>
+      <c r="Y70" s="11">
+        <f>11106-X70-W70</f>
+        <v>3985</v>
+      </c>
+      <c r="Z70" s="11">
+        <f>15311-Y70-X70-W70</f>
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>85</v>
       </c>
@@ -8361,10 +8437,14 @@
       <c r="X71" s="11">
         <v>0</v>
       </c>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-    </row>
-    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y71" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
@@ -8412,16 +8492,22 @@
         <v>5659</v>
       </c>
       <c r="W72" s="11">
-        <v>5284</v>
+        <v>5264</v>
       </c>
       <c r="X72" s="11">
-        <f>11058-W72</f>
-        <v>5774</v>
-      </c>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-    </row>
-    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>11129-W72</f>
+        <v>5865</v>
+      </c>
+      <c r="Y72" s="11">
+        <f>16975-X72-W72</f>
+        <v>5846</v>
+      </c>
+      <c r="Z72" s="11">
+        <f>22785-Y72-X72-W72</f>
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>56</v>
       </c>
@@ -8469,16 +8555,22 @@
         <v>-1670</v>
       </c>
       <c r="W73" s="11">
-        <v>-1854</v>
+        <v>419</v>
       </c>
       <c r="X73" s="11">
-        <f>-4269-W73</f>
-        <v>-2415</v>
-      </c>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-    </row>
-    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-2738-W73</f>
+        <v>-3157</v>
+      </c>
+      <c r="Y73" s="11">
+        <f>-3809-X73-W73</f>
+        <v>-1071</v>
+      </c>
+      <c r="Z73" s="11">
+        <f>-5257-Y73-X73-W73</f>
+        <v>-1448</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>87</v>
       </c>
@@ -8526,16 +8618,22 @@
         <v>-471</v>
       </c>
       <c r="W74" s="11">
-        <v>-84</v>
+        <v>-1781</v>
       </c>
       <c r="X74" s="11">
-        <f>425-W74</f>
-        <v>509</v>
-      </c>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-    </row>
-    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-757-W74</f>
+        <v>1024</v>
+      </c>
+      <c r="Y74" s="11">
+        <f>-2738-X74-W74</f>
+        <v>-1981</v>
+      </c>
+      <c r="Z74" s="11">
+        <f>-2671-Y74-X74-W74</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>28</v>
       </c>
@@ -8583,16 +8681,22 @@
         <v>1665</v>
       </c>
       <c r="W75" s="11">
-        <v>1104</v>
+        <v>334</v>
       </c>
       <c r="X75" s="11">
-        <f>1774-W75</f>
-        <v>670</v>
-      </c>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-    </row>
-    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>1185-W75</f>
+        <v>851</v>
+      </c>
+      <c r="Y75" s="11">
+        <f>2592-X75-W75</f>
+        <v>1407</v>
+      </c>
+      <c r="Z75" s="11">
+        <f>3419-Y75-X75-W75</f>
+        <v>827</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>88</v>
       </c>
@@ -8650,17 +8754,23 @@
         <v>-10271</v>
       </c>
       <c r="W76" s="11">
-        <f>4454+4069-746-1105-4496-602-201</f>
-        <v>1373</v>
+        <f>3167+3011-1000-2124-5054-322-141</f>
+        <v>-2463</v>
       </c>
       <c r="X76" s="11">
-        <f>1506+8520-1259+14-4037-418-17-W76</f>
-        <v>2936</v>
-      </c>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-    </row>
-    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>110-889-1532-563-5176+97+220-W76</f>
+        <v>-5270</v>
+      </c>
+      <c r="Y76" s="11">
+        <f>-1321-2797-2334-42-6366+478+860-X76-W76</f>
+        <v>-3789</v>
+      </c>
+      <c r="Z76" s="11">
+        <f>-5891-2418-1397+359-1161+1059+1043-Y76-X76-W76</f>
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>35</v>
       </c>
@@ -8689,7 +8799,7 @@
         <v>25539</v>
       </c>
       <c r="N77" s="11">
-        <f t="shared" ref="N77:X77" si="191">SUM(N69:N76)</f>
+        <f t="shared" ref="N77:Z77" si="191">SUM(N69:N76)</f>
         <v>0</v>
       </c>
       <c r="O77" s="11">
@@ -8726,16 +8836,22 @@
       </c>
       <c r="W77" s="11">
         <f t="shared" si="191"/>
-        <v>23509</v>
+        <v>28848</v>
       </c>
       <c r="X77" s="11">
+        <f>SUM(X69:X76)</f>
+        <v>26640</v>
+      </c>
+      <c r="Y77" s="11">
         <f t="shared" si="191"/>
-        <v>28666</v>
-      </c>
-      <c r="Y77" s="11"/>
-      <c r="Z77" s="11"/>
-    </row>
-    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30698</v>
+      </c>
+      <c r="Z77" s="11">
+        <f t="shared" si="191"/>
+        <v>39113</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -8761,7 +8877,7 @@
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
     </row>
-    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>36</v>
       </c>
@@ -8817,16 +8933,22 @@
         <v>-11019</v>
       </c>
       <c r="W79" s="11">
-        <v>-6289</v>
+        <v>-12012</v>
       </c>
       <c r="X79" s="11">
-        <f>-13177-W79</f>
-        <v>-6888</v>
-      </c>
-      <c r="Y79" s="11"/>
-      <c r="Z79" s="11"/>
-    </row>
-    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-25198-W79</f>
+        <v>-13186</v>
+      </c>
+      <c r="Y79" s="11">
+        <f>-38259-X79-W79</f>
+        <v>-13061</v>
+      </c>
+      <c r="Z79" s="11">
+        <f>-52535-Y79-X79-W79</f>
+        <v>-14276</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>89</v>
       </c>
@@ -8878,17 +9000,23 @@
         <v>4947</v>
       </c>
       <c r="W80" s="11">
-        <f>-14227+18327-626+36</f>
-        <v>3510</v>
+        <f>-20684+24985-1206+313</f>
+        <v>3408</v>
       </c>
       <c r="X80" s="11">
-        <f>-35589+37049-1513+181-W80</f>
-        <v>-3382</v>
-      </c>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="11"/>
-    </row>
-    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-43011+58577-2199+605-W80</f>
+        <v>10564</v>
+      </c>
+      <c r="Y80" s="11">
+        <f>-65034+81779-3234+732-X80-W80</f>
+        <v>271</v>
+      </c>
+      <c r="Z80" s="11">
+        <f>-86679+103428-5034+882-Y80-X80-W80</f>
+        <v>-1646</v>
+      </c>
+    </row>
+    <row r="81" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>91</v>
       </c>
@@ -8932,16 +9060,22 @@
         <v>-29</v>
       </c>
       <c r="W81" s="11">
-        <v>-42</v>
+        <v>-61</v>
       </c>
       <c r="X81" s="11">
-        <f>-340-W81</f>
-        <v>-298</v>
-      </c>
-      <c r="Y81" s="11"/>
-      <c r="Z81" s="11"/>
-    </row>
-    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-87-W81</f>
+        <v>-26</v>
+      </c>
+      <c r="Y81" s="11">
+        <f>-2840-X81-W81</f>
+        <v>-2753</v>
+      </c>
+      <c r="Z81" s="11">
+        <f>-2931-Y81-X81-W81</f>
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="82" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>28</v>
       </c>
@@ -8985,16 +9119,22 @@
         <v>-66</v>
       </c>
       <c r="W82" s="11">
-        <v>-125</v>
+        <v>101</v>
       </c>
       <c r="X82" s="11">
-        <f>-357-W82</f>
-        <v>-232</v>
-      </c>
-      <c r="Y82" s="11"/>
-      <c r="Z82" s="11"/>
-    </row>
-    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-32-W82</f>
+        <v>-133</v>
+      </c>
+      <c r="Y82" s="11">
+        <f>-2500-X82-W82</f>
+        <v>-2468</v>
+      </c>
+      <c r="Z82" s="11">
+        <f>-2667-Y82-X82-W82</f>
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>92</v>
       </c>
@@ -9026,7 +9166,7 @@
       </c>
       <c r="Q83" s="11"/>
       <c r="R83" s="11">
-        <f t="shared" ref="R83:X83" si="192">SUM(R79:R82)</f>
+        <f t="shared" ref="R83:Z83" si="192">SUM(R79:R82)</f>
         <v>-6227</v>
       </c>
       <c r="S83" s="11">
@@ -9047,16 +9187,22 @@
       </c>
       <c r="W83" s="11">
         <f t="shared" si="192"/>
-        <v>-2946</v>
+        <v>-8564</v>
       </c>
       <c r="X83" s="11">
         <f t="shared" si="192"/>
-        <v>-10800</v>
-      </c>
-      <c r="Y83" s="11"/>
-      <c r="Z83" s="11"/>
-    </row>
-    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-2781</v>
+      </c>
+      <c r="Y83" s="11">
+        <f t="shared" si="192"/>
+        <v>-18011</v>
+      </c>
+      <c r="Z83" s="11">
+        <f t="shared" si="192"/>
+        <v>-16180</v>
+      </c>
+    </row>
+    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -9082,7 +9228,7 @@
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
     </row>
-    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>86</v>
       </c>
@@ -9126,16 +9272,22 @@
         <v>-2680</v>
       </c>
       <c r="W85" s="11">
-        <v>-1989</v>
+        <v>-2929</v>
       </c>
       <c r="X85" s="11">
-        <f>-4725-W85</f>
-        <v>-2736</v>
-      </c>
-      <c r="Y85" s="11"/>
-      <c r="Z85" s="11"/>
-    </row>
-    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-6138-W85</f>
+        <v>-3209</v>
+      </c>
+      <c r="Y85" s="11">
+        <f>-9141-X85-W85</f>
+        <v>-3003</v>
+      </c>
+      <c r="Z85" s="11">
+        <f>-12190-Y85-X85-W85</f>
+        <v>-3049</v>
+      </c>
+    </row>
+    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>93</v>
       </c>
@@ -9179,30 +9331,30 @@
         <v>-16191</v>
       </c>
       <c r="W86" s="11">
-        <v>-14557</v>
+        <v>-15696</v>
       </c>
       <c r="X86" s="11">
-        <f>-29526-W86</f>
-        <v>-14969</v>
-      </c>
-      <c r="Y86" s="11"/>
-      <c r="Z86" s="11"/>
-    </row>
-    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-31380-W86</f>
+        <v>-15684</v>
+      </c>
+      <c r="Y86" s="11">
+        <f>-46671-X86-W86</f>
+        <v>-15291</v>
+      </c>
+      <c r="Z86" s="11">
+        <f>-62222-Y86-X86-W86</f>
+        <v>-15551</v>
+      </c>
+    </row>
+    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="11">
-        <f>315-345</f>
-        <v>-30</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
-      <c r="G87" s="11">
-        <f>1898-1947</f>
-        <v>-49</v>
-      </c>
+      <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
@@ -9210,58 +9362,44 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
-      <c r="O87" s="11">
-        <f>16422-16420</f>
-        <v>2</v>
-      </c>
-      <c r="P87" s="11">
-        <f>12806-13162</f>
-        <v>-356</v>
-      </c>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
-      <c r="R87" s="11">
-        <f>8550-8718</f>
-        <v>-168</v>
-      </c>
-      <c r="S87" s="11">
-        <f>6927-6952</f>
-        <v>-25</v>
-      </c>
-      <c r="T87" s="11">
-        <f>8050-8207-S87</f>
-        <v>-132</v>
-      </c>
-      <c r="U87" s="11">
-        <f>1248-1414</f>
-        <v>-166</v>
-      </c>
-      <c r="V87" s="11">
-        <f>1492-1929</f>
-        <v>-437</v>
-      </c>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
       <c r="W87" s="11">
-        <f>6927-6952</f>
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="X87" s="11">
-        <f>8050-8207-W87</f>
-        <v>-132</v>
-      </c>
-      <c r="Y87" s="11"/>
-      <c r="Z87" s="11"/>
-    </row>
-    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-2466-W87</f>
+        <v>-2466</v>
+      </c>
+      <c r="Y87" s="11">
+        <f>-4921-X87-W87</f>
+        <v>-2455</v>
+      </c>
+      <c r="Z87" s="11">
+        <f>-7363-Y87-X87-W87</f>
+        <v>-2442</v>
+      </c>
+    </row>
+    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="C88" s="11">
-        <v>47</v>
+        <f>315-345</f>
+        <v>-30</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11">
-        <v>1600</v>
+        <f>1898-1947</f>
+        <v>-49</v>
       </c>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -9271,52 +9409,63 @@
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11">
-        <v>0</v>
+        <f>16422-16420</f>
+        <v>2</v>
       </c>
       <c r="P88" s="11">
-        <v>0</v>
+        <f>12806-13162</f>
+        <v>-356</v>
       </c>
       <c r="Q88" s="11"/>
       <c r="R88" s="11">
-        <v>25</v>
+        <f>8550-8718</f>
+        <v>-168</v>
       </c>
       <c r="S88" s="11">
-        <v>3</v>
+        <f>6927-6952</f>
+        <v>-25</v>
       </c>
       <c r="T88" s="11">
-        <f>5-S88</f>
-        <v>2</v>
+        <f>8050-8207-S88</f>
+        <v>-132</v>
       </c>
       <c r="U88" s="11">
-        <v>3</v>
+        <f>1248-1414</f>
+        <v>-166</v>
       </c>
       <c r="V88" s="11">
-        <v>0</v>
+        <f>1492-1929</f>
+        <v>-437</v>
       </c>
       <c r="W88" s="11">
-        <v>3</v>
+        <f>1982-3079</f>
+        <v>-1097</v>
       </c>
       <c r="X88" s="11">
-        <f>5-W88</f>
-        <v>2</v>
-      </c>
-      <c r="Y88" s="11"/>
-      <c r="Z88" s="11"/>
-    </row>
-    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>4875-5502-W88</f>
+        <v>470</v>
+      </c>
+      <c r="Y88" s="11">
+        <f>8694-8951-X88-W88</f>
+        <v>370</v>
+      </c>
+      <c r="Z88" s="11">
+        <f>13589-12701-Y88-X88-W88</f>
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C89" s="11">
-        <f>SUM(C85:C88)</f>
-        <v>-4183</v>
+        <v>47</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11">
-        <f>SUM(G85:G88)</f>
-        <v>-8186</v>
+        <v>1600</v>
       </c>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
@@ -9326,57 +9475,58 @@
       <c r="M89" s="11"/>
       <c r="N89" s="11"/>
       <c r="O89" s="11">
-        <f>SUM(O85:O88)</f>
-        <v>-16214</v>
+        <v>0</v>
       </c>
       <c r="P89" s="11">
-        <f>SUM(P85:P88)</f>
-        <v>-17817</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="11"/>
       <c r="R89" s="11">
-        <f t="shared" ref="R89:X89" si="193">SUM(R85:R88)</f>
-        <v>-17629</v>
+        <v>25</v>
       </c>
       <c r="S89" s="11">
-        <f t="shared" si="193"/>
-        <v>-16568</v>
+        <v>3</v>
       </c>
       <c r="T89" s="11">
-        <f t="shared" si="193"/>
-        <v>-17835</v>
+        <f>5-S89</f>
+        <v>2</v>
       </c>
       <c r="U89" s="11">
-        <f t="shared" si="193"/>
-        <v>-18382</v>
+        <v>3</v>
       </c>
       <c r="V89" s="11">
-        <f t="shared" si="193"/>
-        <v>-19308</v>
+        <v>0</v>
       </c>
       <c r="W89" s="11">
-        <f t="shared" si="193"/>
-        <v>-16568</v>
+        <v>8</v>
       </c>
       <c r="X89" s="11">
-        <f t="shared" si="193"/>
-        <v>-17835</v>
-      </c>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="11"/>
-    </row>
-    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>8-W89</f>
+        <v>0</v>
+      </c>
+      <c r="Y89" s="11">
+        <f>293-X89-W89</f>
+        <v>285</v>
+      </c>
+      <c r="Z89" s="11">
+        <f>1154-Y89-X89-W89</f>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C90" s="11">
-        <v>18</v>
+        <f>SUM(C85:C89)</f>
+        <v>-4183</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11">
-        <v>-272</v>
+        <f>SUM(G85:G89)</f>
+        <v>-8186</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
@@ -9386,52 +9536,63 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11">
-        <v>100</v>
+        <f>SUM(O85:O89)</f>
+        <v>-16214</v>
       </c>
       <c r="P90" s="11">
-        <v>-368</v>
+        <f>SUM(P85:P89)</f>
+        <v>-17817</v>
       </c>
       <c r="Q90" s="11"/>
       <c r="R90" s="11">
-        <v>137</v>
+        <f>SUM(R85:R89)</f>
+        <v>-17629</v>
       </c>
       <c r="S90" s="11">
-        <v>50</v>
+        <f>SUM(S85:S89)</f>
+        <v>-16568</v>
       </c>
       <c r="T90" s="11">
-        <f>24-S90</f>
-        <v>-26</v>
+        <f>SUM(T85:T89)</f>
+        <v>-17835</v>
       </c>
       <c r="U90" s="11">
-        <v>-351</v>
+        <f>SUM(U85:U89)</f>
+        <v>-18382</v>
       </c>
       <c r="V90" s="11">
-        <v>-94</v>
+        <f>SUM(V85:V89)</f>
+        <v>-19308</v>
       </c>
       <c r="W90" s="11">
-        <v>50</v>
+        <f>SUM(W85:W89)</f>
+        <v>-19714</v>
       </c>
       <c r="X90" s="11">
-        <f>24-W90</f>
-        <v>-26</v>
-      </c>
-      <c r="Y90" s="11"/>
-      <c r="Z90" s="11"/>
-    </row>
-    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>SUM(X85:X89)</f>
+        <v>-20889</v>
+      </c>
+      <c r="Y90" s="11">
+        <f>SUM(Y85:Y89)</f>
+        <v>-20094</v>
+      </c>
+      <c r="Z90" s="11">
+        <f>SUM(Z85:Z89)</f>
+        <v>-19036</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C91" s="11">
-        <f>+C90+C89+C83+C77</f>
-        <v>2447</v>
+        <v>18</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11">
-        <f>+G90+G89+G83+G77</f>
-        <v>1146</v>
+        <v>-272</v>
       </c>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
@@ -9441,51 +9602,59 @@
       <c r="M91" s="11"/>
       <c r="N91" s="11"/>
       <c r="O91" s="11">
-        <f>+O90+O89+O83+O77</f>
-        <v>-59</v>
+        <v>100</v>
       </c>
       <c r="P91" s="11">
-        <f>+P90+P89+P83+P77</f>
-        <v>-2950</v>
+        <v>-368</v>
       </c>
       <c r="Q91" s="11"/>
       <c r="R91" s="11">
-        <f t="shared" ref="R91:X91" si="194">+R90+R89+R83+R77</f>
-        <v>-105</v>
+        <v>137</v>
       </c>
       <c r="S91" s="11">
-        <f t="shared" si="194"/>
-        <v>4045</v>
+        <v>50</v>
       </c>
       <c r="T91" s="11">
-        <f t="shared" si="194"/>
-        <v>5</v>
+        <f>24-S91</f>
+        <v>-26</v>
       </c>
       <c r="U91" s="11">
-        <f t="shared" si="194"/>
-        <v>4773</v>
+        <v>-351</v>
       </c>
       <c r="V91" s="11">
-        <f t="shared" si="194"/>
-        <v>-6654</v>
+        <v>-94</v>
       </c>
       <c r="W91" s="11">
-        <f t="shared" si="194"/>
-        <v>4045</v>
+        <v>-125</v>
       </c>
       <c r="X91" s="11">
-        <f t="shared" si="194"/>
-        <v>5</v>
-      </c>
-      <c r="Y91" s="11"/>
-      <c r="Z91" s="11"/>
-    </row>
-    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="11"/>
+        <f>-363-W91</f>
+        <v>-238</v>
+      </c>
+      <c r="Y91" s="11">
+        <f>-222-X91-W91</f>
+        <v>141</v>
+      </c>
+      <c r="Z91" s="11">
+        <f>-612-Y91-X91-W91</f>
+        <v>-390</v>
+      </c>
+    </row>
+    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="11">
+        <f>+C91+C90+C83+C77</f>
+        <v>2447</v>
+      </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
+      <c r="G92" s="11">
+        <f>+G91+G90+G83+G77</f>
+        <v>1146</v>
+      </c>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
@@ -9493,23 +9662,53 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
       <c r="N92" s="11"/>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
+      <c r="O92" s="11">
+        <f>+O91+O90+O83+O77</f>
+        <v>-59</v>
+      </c>
+      <c r="P92" s="11">
+        <f>+P91+P90+P83+P77</f>
+        <v>-2950</v>
+      </c>
       <c r="Q92" s="11"/>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
-      <c r="X92" s="11"/>
-      <c r="Y92" s="11"/>
-      <c r="Z92" s="11"/>
-    </row>
-    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="R92" s="11">
+        <f t="shared" ref="R92:Z92" si="193">+R91+R90+R83+R77</f>
+        <v>-105</v>
+      </c>
+      <c r="S92" s="11">
+        <f t="shared" si="193"/>
+        <v>4045</v>
+      </c>
+      <c r="T92" s="11">
+        <f t="shared" si="193"/>
+        <v>5</v>
+      </c>
+      <c r="U92" s="11">
+        <f t="shared" si="193"/>
+        <v>4773</v>
+      </c>
+      <c r="V92" s="11">
+        <f t="shared" si="193"/>
+        <v>-6654</v>
+      </c>
+      <c r="W92" s="11">
+        <f t="shared" si="193"/>
+        <v>445</v>
+      </c>
+      <c r="X92" s="11">
+        <f t="shared" si="193"/>
+        <v>2732</v>
+      </c>
+      <c r="Y92" s="11">
+        <f t="shared" si="193"/>
+        <v>-7266</v>
+      </c>
+      <c r="Z92" s="11">
+        <f t="shared" si="193"/>
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
@@ -9517,369 +9716,410 @@
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
-      <c r="J93" s="11">
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" s="11"/>
+      <c r="R93" s="11"/>
+      <c r="S93" s="11"/>
+      <c r="T93" s="11"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11"/>
+    </row>
+    <row r="94" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11">
         <f>J77-J79</f>
         <v>28156</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K94" s="11">
         <f>K77-K79</f>
         <v>25231</v>
       </c>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11">
-        <f t="shared" ref="M93:N93" si="195">M77-M79</f>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11">
+        <f t="shared" ref="M94:N94" si="194">M77-M79</f>
         <v>32358</v>
       </c>
-      <c r="N93" s="11">
-        <f t="shared" si="195"/>
+      <c r="N94" s="11">
+        <f t="shared" si="194"/>
         <v>6383</v>
       </c>
-      <c r="O93" s="11">
+      <c r="O94" s="11">
         <f>O77+O79</f>
         <v>15320</v>
       </c>
-      <c r="P93" s="11">
-        <f t="shared" ref="P93:S93" si="196">P77+P79</f>
+      <c r="P94" s="11">
+        <f t="shared" ref="P94:S94" si="195">P77+P79</f>
         <v>12594</v>
       </c>
-      <c r="Q93" s="11">
-        <f t="shared" si="196"/>
+      <c r="Q94" s="11">
+        <f t="shared" si="195"/>
         <v>16077</v>
       </c>
-      <c r="R93" s="11">
-        <f t="shared" si="196"/>
+      <c r="R94" s="11">
+        <f t="shared" si="195"/>
         <v>16019</v>
       </c>
-      <c r="S93" s="11">
-        <f t="shared" si="196"/>
+      <c r="S94" s="11">
+        <f t="shared" si="195"/>
         <v>17220</v>
       </c>
-      <c r="T93" s="11">
+      <c r="T94" s="11">
         <f>T77+T79</f>
         <v>21778</v>
       </c>
-      <c r="U93" s="11">
+      <c r="U94" s="11">
         <f>U77+U79</f>
         <v>22601</v>
       </c>
-      <c r="V93" s="11">
+      <c r="V94" s="11">
         <f>V77+V79</f>
         <v>7896</v>
       </c>
-      <c r="W93" s="11">
+      <c r="W94" s="11">
         <f>W77+W79</f>
-        <v>17220</v>
-      </c>
-      <c r="X93" s="11">
+        <v>16836</v>
+      </c>
+      <c r="X94" s="11">
         <f>X77+X79</f>
-        <v>21778</v>
-      </c>
-      <c r="Y93" s="11"/>
-      <c r="Z93" s="11"/>
-    </row>
-    <row r="94" spans="2:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="9" t="s">
+        <v>13454</v>
+      </c>
+      <c r="Y94" s="11">
+        <f>Y77+Y79</f>
+        <v>17637</v>
+      </c>
+      <c r="Z94" s="11">
+        <f>Z77+Z79</f>
+        <v>24837</v>
+      </c>
+    </row>
+    <row r="95" spans="2:26" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B95" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10">
-        <f t="shared" ref="N94:T94" si="197">SUM(K93:N93)</f>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10">
+        <f t="shared" ref="N95:T95" si="196">SUM(K94:N94)</f>
         <v>63972</v>
       </c>
-      <c r="O94" s="10">
+      <c r="O95" s="10">
+        <f t="shared" si="196"/>
+        <v>54061</v>
+      </c>
+      <c r="P95" s="10">
+        <f t="shared" si="196"/>
+        <v>66655</v>
+      </c>
+      <c r="Q95" s="10">
+        <f t="shared" si="196"/>
+        <v>50374</v>
+      </c>
+      <c r="R95" s="10">
+        <f t="shared" si="196"/>
+        <v>60010</v>
+      </c>
+      <c r="S95" s="10">
+        <f t="shared" si="196"/>
+        <v>61910</v>
+      </c>
+      <c r="T95" s="10">
+        <f t="shared" si="196"/>
+        <v>71094</v>
+      </c>
+      <c r="U95" s="10">
+        <f>SUM(R94:U94)</f>
+        <v>77618</v>
+      </c>
+      <c r="V95" s="10">
+        <f>SUM(S94:V94)</f>
+        <v>69495</v>
+      </c>
+      <c r="W95" s="10">
+        <f>SUM(T94:W94)</f>
+        <v>69111</v>
+      </c>
+      <c r="X95" s="10">
+        <f>SUM(U94:X94)</f>
+        <v>60787</v>
+      </c>
+      <c r="Y95" s="10">
+        <f>SUM(V94:Y94)</f>
+        <v>55823</v>
+      </c>
+      <c r="Z95" s="10">
+        <f>SUM(W94:Z94)</f>
+        <v>72764</v>
+      </c>
+    </row>
+    <row r="96" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="R96" s="11"/>
+    </row>
+    <row r="97" spans="2:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="11">
+        <v>103459</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11">
+        <v>123048</v>
+      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11">
+        <v>139995</v>
+      </c>
+      <c r="L97" s="11">
+        <v>144056</v>
+      </c>
+      <c r="M97" s="11">
+        <v>150028</v>
+      </c>
+      <c r="N97" s="11">
+        <v>156500</v>
+      </c>
+      <c r="O97" s="11">
+        <v>163906</v>
+      </c>
+      <c r="P97" s="11">
+        <v>174014</v>
+      </c>
+      <c r="Q97" s="11">
+        <v>186779</v>
+      </c>
+      <c r="R97" s="11">
+        <v>190234</v>
+      </c>
+      <c r="S97" s="11">
+        <v>190711</v>
+      </c>
+      <c r="T97" s="11">
+        <v>181798</v>
+      </c>
+      <c r="U97" s="11">
+        <v>182381</v>
+      </c>
+      <c r="V97" s="11">
+        <v>182502</v>
+      </c>
+      <c r="W97" s="11">
+        <v>180895</v>
+      </c>
+      <c r="X97" s="11">
+        <v>181798</v>
+      </c>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+    </row>
+    <row r="98" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O98" s="15">
+        <f t="shared" ref="O98:X98" si="197">+O97/K97-1</f>
+        <v>0.17079895710561099</v>
+      </c>
+      <c r="P98" s="15">
         <f t="shared" si="197"/>
-        <v>54061</v>
-      </c>
-      <c r="P94" s="10">
+        <v>0.20796079302493475</v>
+      </c>
+      <c r="Q98" s="15">
         <f t="shared" si="197"/>
-        <v>66655</v>
-      </c>
-      <c r="Q94" s="10">
+        <v>0.24496094062441687</v>
+      </c>
+      <c r="R98" s="15">
         <f t="shared" si="197"/>
-        <v>50374</v>
-      </c>
-      <c r="R94" s="10">
+        <v>0.21555271565495215</v>
+      </c>
+      <c r="S98" s="15">
         <f t="shared" si="197"/>
-        <v>60010</v>
-      </c>
-      <c r="S94" s="10">
+        <v>0.16353885763791443</v>
+      </c>
+      <c r="T98" s="15">
         <f t="shared" si="197"/>
-        <v>61910</v>
-      </c>
-      <c r="T94" s="10">
+        <v>4.4732033054811771E-2</v>
+      </c>
+      <c r="U98" s="15">
         <f t="shared" si="197"/>
-        <v>71094</v>
-      </c>
-      <c r="U94" s="10">
-        <f>SUM(R93:U93)</f>
-        <v>77618</v>
-      </c>
-      <c r="V94" s="10">
-        <f>SUM(S93:V93)</f>
-        <v>69495</v>
-      </c>
-      <c r="W94" s="10">
-        <f>SUM(T93:W93)</f>
-        <v>69495</v>
-      </c>
-      <c r="X94" s="10">
-        <f>SUM(U93:X93)</f>
-        <v>69495</v>
-      </c>
-      <c r="Y94" s="10"/>
-      <c r="Z94" s="10"/>
-    </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="R95" s="11"/>
-    </row>
-    <row r="96" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C96" s="11">
-        <v>103459</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11">
-        <v>123048</v>
-      </c>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11">
-        <v>139995</v>
-      </c>
-      <c r="L96" s="11">
-        <v>144056</v>
-      </c>
-      <c r="M96" s="11">
-        <v>150028</v>
-      </c>
-      <c r="N96" s="11">
-        <v>156500</v>
-      </c>
-      <c r="O96" s="11">
-        <v>163906</v>
-      </c>
-      <c r="P96" s="11">
-        <v>174014</v>
-      </c>
-      <c r="Q96" s="11">
-        <v>186779</v>
-      </c>
-      <c r="R96" s="11">
-        <v>190234</v>
-      </c>
-      <c r="S96" s="11">
-        <v>190711</v>
-      </c>
-      <c r="T96" s="11">
-        <v>181798</v>
-      </c>
-      <c r="U96" s="11">
-        <v>182381</v>
-      </c>
-      <c r="V96" s="11">
-        <v>182502</v>
-      </c>
-      <c r="W96" s="11">
-        <v>180895</v>
-      </c>
-      <c r="X96" s="11">
-        <v>181798</v>
-      </c>
-      <c r="Y96" s="11"/>
-      <c r="Z96" s="11"/>
-    </row>
-    <row r="97" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B97" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O97" s="15">
-        <f t="shared" ref="O97:X97" si="198">+O96/K96-1</f>
-        <v>0.17079895710561099</v>
-      </c>
-      <c r="P97" s="15">
+        <v>-2.3546544311726647E-2</v>
+      </c>
+      <c r="V98" s="15">
+        <f t="shared" si="197"/>
+        <v>-4.0644679710251541E-2</v>
+      </c>
+      <c r="W98" s="15">
+        <f t="shared" si="197"/>
+        <v>-5.1470549679882072E-2</v>
+      </c>
+      <c r="X98" s="15">
+        <f t="shared" si="197"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G99" s="11">
+        <f>+G16/G97*1000</f>
+        <v>334.49548143813797</v>
+      </c>
+      <c r="K99" s="11">
+        <f t="shared" ref="K99:X99" si="198">+K16/K97*1000</f>
+        <v>395.11411121825779</v>
+      </c>
+      <c r="L99" s="11">
         <f t="shared" si="198"/>
-        <v>0.20796079302493475</v>
-      </c>
-      <c r="Q97" s="15">
+        <v>429.55517298828232</v>
+      </c>
+      <c r="M99" s="11">
         <f t="shared" si="198"/>
-        <v>0.24496094062441687</v>
-      </c>
-      <c r="R97" s="15">
+        <v>434.03897939051376</v>
+      </c>
+      <c r="N99" s="11">
         <f t="shared" si="198"/>
-        <v>0.21555271565495215</v>
-      </c>
-      <c r="S97" s="15">
+        <v>481.30990415335464</v>
+      </c>
+      <c r="O99" s="11">
         <f t="shared" si="198"/>
-        <v>0.16353885763791443</v>
-      </c>
-      <c r="T97" s="15">
+        <v>414.93905043134475</v>
+      </c>
+      <c r="P99" s="11">
         <f t="shared" si="198"/>
-        <v>4.4732033054811771E-2</v>
-      </c>
-      <c r="U97" s="15">
+        <v>400.45628512648409</v>
+      </c>
+      <c r="Q99" s="11">
         <f t="shared" si="198"/>
-        <v>-2.3546544311726647E-2</v>
-      </c>
-      <c r="V97" s="15">
+        <v>369.91310586307884</v>
+      </c>
+      <c r="R99" s="11">
         <f t="shared" si="198"/>
-        <v>-4.0644679710251541E-2</v>
-      </c>
-      <c r="W97" s="15">
+        <v>399.76029521536634</v>
+      </c>
+      <c r="S99" s="11">
         <f t="shared" si="198"/>
-        <v>-5.1470549679882072E-2</v>
-      </c>
-      <c r="X97" s="15">
+        <v>365.93064899245451</v>
+      </c>
+      <c r="T99" s="11">
         <f t="shared" si="198"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B98" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G98" s="11">
-        <f>+G16/G96*1000</f>
-        <v>334.49548143813797</v>
-      </c>
-      <c r="K98" s="11">
-        <f t="shared" ref="K98:X98" si="199">+K16/K96*1000</f>
-        <v>395.11411121825779</v>
-      </c>
-      <c r="L98" s="11">
-        <f t="shared" si="199"/>
-        <v>429.55517298828232</v>
-      </c>
-      <c r="M98" s="11">
-        <f t="shared" si="199"/>
-        <v>434.03897939051376</v>
-      </c>
-      <c r="N98" s="11">
-        <f t="shared" si="199"/>
-        <v>481.30990415335464</v>
-      </c>
-      <c r="O98" s="11">
-        <f t="shared" si="199"/>
-        <v>414.93905043134475</v>
-      </c>
-      <c r="P98" s="11">
-        <f t="shared" si="199"/>
-        <v>400.45628512648409</v>
-      </c>
-      <c r="Q98" s="11">
-        <f t="shared" si="199"/>
-        <v>369.91310586307884</v>
-      </c>
-      <c r="R98" s="11">
-        <f t="shared" si="199"/>
-        <v>399.76029521536634</v>
-      </c>
-      <c r="S98" s="11">
-        <f t="shared" si="199"/>
-        <v>365.93064899245451</v>
-      </c>
-      <c r="T98" s="11">
-        <f t="shared" si="199"/>
         <v>410.36755079813861</v>
       </c>
-      <c r="U98" s="11">
-        <f t="shared" si="199"/>
+      <c r="U99" s="11">
+        <f t="shared" si="198"/>
         <v>420.50981187733373</v>
       </c>
-      <c r="V98" s="11">
-        <f t="shared" si="199"/>
+      <c r="V99" s="11">
+        <f t="shared" si="198"/>
         <v>472.92632409507837</v>
       </c>
-      <c r="W98" s="11">
-        <f t="shared" si="199"/>
+      <c r="W99" s="11">
+        <f t="shared" si="198"/>
         <v>445.22513060062471</v>
       </c>
-      <c r="X98" s="11">
-        <f t="shared" si="199"/>
+      <c r="X99" s="11">
+        <f t="shared" si="198"/>
         <v>466.1327407342215</v>
       </c>
     </row>
-    <row r="101" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B101" s="3" t="s">
+    <row r="102" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AG101">
+      <c r="AG102">
         <v>37.94</v>
       </c>
-      <c r="AH101">
+      <c r="AH102">
         <v>38.590000000000003</v>
       </c>
-      <c r="AI101">
+      <c r="AI102">
         <v>52.32</v>
       </c>
-      <c r="AJ101">
+      <c r="AJ102">
         <v>51.78</v>
       </c>
-      <c r="AK101">
+      <c r="AK102">
         <v>66.849999999999994</v>
       </c>
-      <c r="AL101">
+      <c r="AL102">
         <v>87.59</v>
       </c>
-      <c r="AM101">
+      <c r="AM102">
         <v>144.68</v>
       </c>
-      <c r="AN101">
+      <c r="AN102">
         <v>88.73</v>
       </c>
     </row>
-    <row r="102" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AN102" s="5">
-        <f>AN101/AG101-1</f>
+    <row r="103" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN103" s="5">
+        <f>AN102/AG102-1</f>
         <v>1.3386926726410122</v>
       </c>
     </row>
-    <row r="104" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="105" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>106</v>
       </c>
-      <c r="AG104" s="3">
+      <c r="AG105" s="3">
         <v>5007.41</v>
       </c>
-      <c r="AH104" s="3">
+      <c r="AH105" s="3">
         <v>5383.12</v>
       </c>
-      <c r="AI104" s="3">
+      <c r="AI105" s="3">
         <v>6903.39</v>
       </c>
-      <c r="AJ104" s="3">
+      <c r="AJ105" s="3">
         <v>6635.28</v>
       </c>
-      <c r="AK104" s="3">
+      <c r="AK105" s="3">
         <v>8972.6</v>
       </c>
-      <c r="AL104" s="3">
+      <c r="AL105" s="3">
         <v>12888.28</v>
       </c>
-      <c r="AM104" s="3">
+      <c r="AM105" s="3">
         <v>15644.97</v>
       </c>
-      <c r="AN104" s="3">
+      <c r="AN105" s="3">
         <v>10466.48</v>
       </c>
     </row>
-    <row r="105" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="AN105" s="5">
-        <f>AN104/AG104-1</f>
+    <row r="106" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN106" s="5">
+        <f>AN105/AG105-1</f>
         <v>1.0901983260807482</v>
       </c>
     </row>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D6D1F3-D0AA-4509-A8A5-F0BFDE302A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E4B511-C787-4595-B7D2-1A0D3966F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="690" windowWidth="21390" windowHeight="19620" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
+    <workbookView xWindow="-31920" yWindow="1740" windowWidth="30165" windowHeight="16515" activeTab="1" xr2:uid="{605BC9F4-5436-4082-9BF9-F0067EF1EC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -937,7 +937,7 @@
     <numFmt numFmtId="164" formatCode="0.00000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -971,12 +971,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1508,25 +1502,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C51E30-7A56-49BA-9DA6-0CC9ECCB38E3}">
   <dimension ref="B1:N65"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" customWidth="1"/>
-    <col min="11" max="11" width="21.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>208</v>
       </c>
@@ -1534,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>209</v>
       </c>
@@ -1553,7 +1545,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>216</v>
       </c>
@@ -1566,10 +1558,10 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>2111508</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1864548</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>213</v>
       </c>
@@ -1587,7 +1579,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>210</v>
       </c>
@@ -1604,7 +1596,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>211</v>
       </c>
@@ -1613,16 +1605,16 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>1988752</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+        <v>1741792</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>212</v>
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>238</v>
       </c>
@@ -1633,13 +1625,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>218</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>219</v>
       </c>
@@ -1648,7 +1640,7 @@
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>223</v>
       </c>
@@ -1659,7 +1651,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>224</v>
       </c>
@@ -1673,7 +1665,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>228</v>
       </c>
@@ -1688,7 +1680,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>242</v>
       </c>
@@ -1699,7 +1691,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>244</v>
       </c>
@@ -1713,7 +1705,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>246</v>
       </c>
@@ -1727,7 +1719,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>248</v>
       </c>
@@ -1741,7 +1733,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>250</v>
       </c>
@@ -1752,7 +1744,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K20" t="s">
         <v>116</v>
       </c>
@@ -1760,7 +1752,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -1771,7 +1763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>254</v>
       </c>
@@ -1780,17 +1772,17 @@
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>221</v>
       </c>
@@ -1807,7 +1799,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>222</v>
       </c>
@@ -1821,7 +1813,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>227</v>
       </c>
@@ -1835,7 +1827,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1849,7 +1841,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>261</v>
       </c>
@@ -1863,7 +1855,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>262</v>
       </c>
@@ -1877,7 +1869,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>226</v>
       </c>
@@ -1894,7 +1886,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>253</v>
       </c>
@@ -1908,7 +1900,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>252</v>
       </c>
@@ -1922,7 +1914,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>255</v>
       </c>
@@ -1936,7 +1928,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>257</v>
       </c>
@@ -1950,7 +1942,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>260</v>
       </c>
@@ -1964,7 +1956,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K37" t="s">
         <v>143</v>
       </c>
@@ -1975,7 +1967,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K38" s="7" t="s">
         <v>125</v>
       </c>
@@ -1989,7 +1981,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K39" t="s">
         <v>140</v>
       </c>
@@ -2000,7 +1992,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K40" t="s">
         <v>138</v>
       </c>
@@ -2011,7 +2003,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K41" t="s">
         <v>134</v>
       </c>
@@ -2025,7 +2017,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K42" t="s">
         <v>130</v>
       </c>
@@ -2039,7 +2031,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K43" s="7" t="s">
         <v>127</v>
       </c>
@@ -2050,7 +2042,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K44" s="7" t="s">
         <v>123</v>
       </c>
@@ -2061,7 +2053,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K45" s="7" t="s">
         <v>121</v>
       </c>
@@ -2069,17 +2061,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K46" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K47" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K48" t="s">
         <v>178</v>
       </c>
@@ -2087,87 +2079,87 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K49" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="11:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K52" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K53" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K54" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K55" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K56" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="11:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K57" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K58" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K59" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K61" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K62" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K63" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K64" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K65" t="s">
         <v>196</v>
       </c>
@@ -2183,32 +2175,32 @@
   <dimension ref="A1:DF107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="BF10" sqref="BF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="17" width="9.1796875" style="2"/>
-    <col min="18" max="18" width="8.7265625" style="2" customWidth="1"/>
-    <col min="19" max="26" width="9.1796875" style="2"/>
-    <col min="27" max="31" width="8.81640625" style="2"/>
-    <col min="45" max="45" width="9.1796875" customWidth="1"/>
-    <col min="52" max="53" width="9.26953125" customWidth="1"/>
-    <col min="55" max="55" width="9" customWidth="1"/>
-    <col min="56" max="56" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
+    <col min="19" max="26" width="9.140625" style="2"/>
+    <col min="27" max="31" width="8.85546875" style="2"/>
+    <col min="45" max="45" width="9.140625" customWidth="1"/>
+    <col min="52" max="53" width="9.28515625" customWidth="1"/>
+    <col min="54" max="58" width="9.42578125" customWidth="1"/>
+    <col min="61" max="61" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <ro